--- a/Dashboard.xlsx
+++ b/Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oelga\Desktop\My Projects\Excel Projects\1-Kitchen Equipment Revenue Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2E341B-0AC1-4554-8495-ADAC2ECDB547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4D5984-E176-4B72-9229-C74AA5B29778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-6600" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{BFB09E3C-4C2C-4934-A4A2-0A08E30BDD03}"/>
   </bookViews>
@@ -27,10 +27,6 @@
     <definedName name="_xlchart.v5.1" hidden="1">Analysis!$V$5:$V$52</definedName>
     <definedName name="_xlchart.v5.2" hidden="1">Analysis!$Y$4</definedName>
     <definedName name="_xlchart.v5.3" hidden="1">Analysis!$Y$5:$Y$52</definedName>
-    <definedName name="_xlchart.v5.4" hidden="1">Analysis!$V$4</definedName>
-    <definedName name="_xlchart.v5.5" hidden="1">Analysis!$V$5:$V$52</definedName>
-    <definedName name="_xlchart.v5.6" hidden="1">Analysis!$Y$4</definedName>
-    <definedName name="_xlchart.v5.7" hidden="1">Analysis!$Y$5:$Y$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -843,9 +839,9 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0;[Red][$$-409]#,##0"/>
     <numFmt numFmtId="165" formatCode="[$$-540A]#,##0;[Red][$$-540A]#,##0"/>
-    <numFmt numFmtId="167" formatCode="#,##0;#,##0"/>
-    <numFmt numFmtId="169" formatCode="#,##0,&quot;K&quot;"/>
-    <numFmt numFmtId="170" formatCode="[$$-540A]##,#00.00,,&quot;M&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0;#,##0"/>
+    <numFmt numFmtId="167" formatCode="#,##0,&quot;K&quot;"/>
+    <numFmt numFmtId="168" formatCode="[$$-540A]##,#00.00,,&quot;M&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -880,6 +876,7 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -1123,30 +1120,16 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1165,16 +1148,30 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1270,12 +1267,6 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$$-540A]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$$-540A]#,##0.00"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -1343,6 +1334,12 @@
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="[$$-540A]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="[$$-540A]#,##0.00"/>
     </dxf>
     <dxf>
       <border>
@@ -2264,2576 +2261,2579 @@
             <cx:regionLabelLayout val="bestFitOnly"/>
             <cx:geography cultureLanguage="en-US" cultureRegion="EG" attribution="Powered by Bing">
               <cx:geoCache provider="{E9337A44-BEBE-4D9F-B70C-5C5E7DAFC167}">
-                <cx:binary>7H1pc9s22+5fyeTzoQsQC4Fnnr4zJSV5SexsTpr2C0dewn3f+evfi5bsWIwSu1OfOaOZo3bq2hSE
-G7ju/b4B/fe6/891fLsuX/VJnFb/ue5/f+3Xdf6f336rrv3bZF0dJcF1mVXZt/roOkt+y759C65v
-f7sp112Qer+ZhPLfrv11Wd/2r//nv/g07zZ7m12v6yBLPzS35fDxtmriuvrFs72PXq1vkiBdBFVd
-Btc1/f31xW336vy2D66z169u0zqoh8shv/399c77Xr/6bf5pP8z8KgZxdXODsYwfcZMyi3JJ7l7s
-9as4S73tY4MSeUSJYpooej/rxTrByOdRc0fL+uamvK0qLOju5+7YHerx6Pz1q+usSetp3zxs4e+v
-P6dBfXvz6lO9rm+r16+CKnM2b3CyaQmfP92t+bfdnf+f/87+gF2Y/eUROPMte+rRXmxO1kle+UF5
-e79R/x4ezo6kEpJqJvbCY9EjYVnS1ERvnpv3c38H6Vlk/RynR8PnUJ0cJFR/xOurdbK+36h/DxIz
-jywpuWma1q7wKHmkOGHMJKbevO4n3aDzDEr24/IwcIbIH28PEpF3Ubz2sxeFRBwJxTiXW7EhUF6P
-1Zq2jgS0GiGWtReZ51C0H5rvI2fYvHtzkNj8UQZjlr6ktPAjUzPTVJRvtn4mNJTSI0iT0FJsTNLM
-7jyDoP3IPAycAfPH3wcJzJeg9II0eElkIBTUVJrJrVCoXaGx1JHUighNts/hK2z8kI06ew5F+6H5
-PnKGzZc/DhKbP8ponVZrOCsv6Kcpjc1nVGykZoaNNo8401QIoTaOgLife2tqnkHRfmy+r2WGzR8f
-DxIbZx0H37LypSXHFFxKTbduGHTWY3NDqT6S1DLhZtN9jsDzaNqPz+OxM4Scw5Sei9urcl1FL6jZ
-ONxkbD6Dq/zgJj/GR+sjRYkFL22/9DyHov3ofB85w+ZieZDSs7iN1936JUMcpo8IUYhh2Faz6V3Z
-scQRl0pyRqEAp9dMsz2Hov3YfB85w2ZxmNg4WZyV65uXzA6oI4iEEISbG7mZ6zUCP5tbismZK/Ac
-UvaD8n3kDBTn3UEKzAqYBDcvqMtMdSS0EJQjerl7zTBR8ASUxbg5hTfTawbNMwjaj8zDwBkwq8MM
-Op0sTW+v6+C6qe9dpX+fCpgMjSWoYPf5mhk4FlIFTCH2MWda7JnU7EdmZ/AMHefyIMXm+DZDePOC
-YoMkjeTYea7pRixmyCh2xDlnFidbF2AmNs8gaD84DwNnwBz/cZDAnN4gVfOCAsOPmEJAad47xrO4
-hlJ+JIVmFuLO+1k3Ec2ThOyHYztsBsbp4iDBOM/Sev2SyRluHSFfKaiGHNy9IAWPHWVKEMhwZAkk
-47twPIOU/YA8DJxBcn6Yiut8XQ7xOr25351/b1MYnDBEL3CPd7Gw5JFFKHJpeptIm2ms51DyE0ge
-1jDH5DDF5DSOgzQLqpfDhJMjCpUFx3e79zNslD6iXEkm1Peg5nGq7DkU7cfm+8gZNqeH6YZ99FHE
-e3VavazMwA+TpjK12MaMemZWproZVYpMeea710x2nkvVfox2R89w+nh6kKbmNL0JXtTUIO5Hukxz
-dZ+xnJkaFM/gJyPTjPLZ3Wtu/58maD86DyuZAXN6cZjAZN0LusncPCIWymYW3+8AaIbCGSGSku1z
-ea9Ut17ZE9T8BJK7UXM8DtNBfvPSmX+FeJ4jN2lZGzmYBS5awYMmFKWBrSpDPe2xqXmanv2Y3I+b
-ofLm00FKyRtsSXMdDfd78wJuGaplpmUqKbbF/ZmJUQL6y7IsRrd5mJn+eg5FP0HmYS1zbP46SGwu
-b/sXLZVRJIyZ4oruj/SR7GfoyYA8fQfuscA8Sc5+VLbDZpBcfj1ISN5mTVC9sL0nRxpFFiLRzbR5
-7YYzmh4pTRUaA8jm8SzAfBZJ+6F5NHQGz9vDtDHn6yC9fTlVxsURQ/WSi0cm5HHUL/WRSSXl8Az2
-QvMkOfth2Q6bQXK+PEiJOV9X1frab6rbun7JQNM8Qt0YaUlra0Vm1h+BjCQCORs1M/vPpudn2Ows
-Z47RgYpNcO0H3jp9QcnhRwrYaEttldqPTgCA04hits9n7vL5Myj6CUAPI+fYHGZ8eR6gHFNl9foF
-wZFQaxqFsvuq/kx2ND+iGlUyNKPdT7oJYp5Fy89geVjGHJfDDC/Pg6qa/s3z4H6TXsB3RhnMRNH/
-ITumd30BpM/Q/Wei7LyN/X8Qm2cR9TOIHg2eg3SY0c1FVtb+K2ddZkh0vqAEMZT3GYovAjrs7jXr
-1bSQ5lSCKSm3fTUznJ5P136o5uNnaF04h+kqQJ6ypnxJeUIOQFpIpPFtyAOF9tiBm7oDEYla1Nya
-oVksOgn5UxTtR+j7yBk254fZrnFx265fslsDWU4mJIdrvZWgmYNAqYSqgwhZyEZPL9iox8Ho0/Ts
-x+V+3AyViy8HKTHTWaOz27K6He5359/boKmEg2NNWrD9MmOh8AwDheNdG9WnZ/Ho82j6GTrf1zNH
-6OxgEforK6MXxMc8QmnT5NPxmbsX29Vp6AuEh0BwOGoblM5tD3jmKYp+js5m5Bybvw4TmzvvYLGO
-Xta7ttAwIxnOBbKtgOziA6lCHm466XEvQPe8sXGyN7b9aap+gtHOmuY4HWaZ+p0fvGRnDbYf5wHQ
-yrHf8qBPEE8YOgW3dQXI12PL8xQ1+3HZjJrh8e7kIOTm18dON3uzsTs77/ynJ241KmgMBTb2fd93
-fDX0Q0+NBQ9tHTO7MzsN+3Oy9gM0G76zksM4avuuvPWyl8zhMBgahRZzJvcrMpMc4VgNJeh0nonI
-k5Tsx+B+BXMxOcwDNe9v07Qa4nb9okdq4J4pjRM1227MO8f4sZhY1pFiSk1V0Q1qcKwfq6/nUrUf
-od3RM5ze/3EQ6myHalwf8Clr/u8kCSA/BNrKvK+3zRw1NSGJtloc7NwgNXPUnk/Xfqzm43fWjWUf
-ZpJgs6qn3aN/dt0Dx3UPDB4zLg3YYDFL6ExOm8kIsqZyZnaeS8+vMLpfzRyhw3TXLqH3cKvF7QsW
-4pBvUxxVabJNBpBZHgc9UYwzczpKuImJZtmCZ5G0H6FHQ2fwXB5m4vpzvfbvTcK/zxZMeRyU4XBM
-bXujwAyZu1PrFqrXppypt6fo2A/HZtQMic+XB2l4vtyWCRrVXw4MaDFiCRP/zEwNjtdIaUotcWHN
-3WuW53wGJfvheBg4Q+TLYSLy5xr31KRe/aJuNPIBlCKwUT8xLXduNM7g3CepZ7rreTTth+fx2BlC
-fx6ms/bnbVW/+n4twuMob2eB/zT4xBUO3ARGODdw95rZf/hqEsekkRfdJkVnSYFnk/UTnHZXtbOS
-31//eZjJ6T+D6jpLq+AlQ1LknqHBBJPb4ObH+qiFDjaBg1EPudHHwc+zSPoJRN9XM4fn9CCtz59D
-hmvUvBe0PkhMaw0z85OrOHCRAPIFFDUfskXvfu5N4vMZBP0EmvuVzIH5f5SW/vl1ag83zi3W9Xp5
-d1XdoxvVfv30bu24Qm82dBvc7/XkNqx/evP7a4Q1yAM83IA3fcZ24Gbvd07Kzofdrqv699cGWqos
-HEmkEn1Xkk1ndV+/6qC4pkcMfQsCeTucR+Q4myAhl+mUif799dQ4L6YDpripAETgf16/qqaIG4+m
-zkdcZ6SYECjBosvx4Z7A91k8IJn1sCPb31+lTfI+C9K6wmjOX7/KN++blohJLIbCCDHR4WqBx0yC
-59frj2ByvJ3+H2EO8ICyoD3BPX50YfpBvPTHVDuirr8OMrpSpA3tPBvrZdr02olCWdl9P0Rnika5
-Q2p1qVoVnRlxHZ33Tfy2VbyyLUNemEXJ7JgYqW2FrXaGhve2atJxxVlCFoWXM9tXhV7l2ggcLRvt
-WNr8kLstWRDfTe2Qq2hJC6u3PYo5DY+0TkhTzEkKsgij6msb68tGBJld5JnpSBFeSSMnizjB2yM6
-tk7WWuVp3pZfqfJzZxQts8NRGMvEtb4YHfkYMnrVlpheivxrnOGmF69mdp9ZgQPf/QP1VWWbKdYj
-875ekrL4Kmmo7bq0UrszsDxsoun0SUoWrWGdlqU69dK6XroVtqbV7tKrE2aPYfTNjIzelhJbmamy
-WpACHxq32AIeeZ+xBGwDUacJKusLt8S7WgIa2pwbS981K7vxzewk5GW+ymIvXshC4mnEP3SqqZfT
-yJC7yg50E9qjKVPbG7AFeczqpajp+MHL4g8aSbdlXGHK2BvFG8ELkN8xc9kUIIjlMlqQ0fscVbq3
-XatRC52l34a0yE4KVpqOcIdo0UWD6dk69q7d2KDYB32JK2zqJUvj3KlIGDp+EgLgWik7I63plKGu
-Ll3lRm8LLV0nN+JxlY9kPOkUdo9VmLQT1qmixuUdkwTFoBYDL6pFboEP6MA+JK0KnJLoy07R1jEj
-/Cch4kMbgCgvjPgpM0q9omFTLTIv6c8sXZvLNp+4qMZ70U53EVQ0WhRZZS6t1g8d6coe2wTGauIk
-dxIhLsDP33odMRsNxcqOu+AKhQ5gP+K30BW93VIjXXS1qhyrzTAmwS5VNFcL08rHc1JU2imr8usd
-3omnUruNwVZ1h/V6PljG0iWgLwrfbqSKzwj1vkHIwdUS71U+uFNZYJVskgWvqIfPsY9fpQqvGAUh
-kDxlt3kUXDTYLvQQXg4jkO8KyIllde5Zp5Lx3LcgHdqqvloRPlBaQFg1YCYFabzbjDSHUHQG3ppH
-yVWSdebSJVZxFpuVWHIXTBtHlXs2pJp+TKowd8y8C+2uHFqH1Xm+GhPTXJZRRhZJybGlpAUNnl+9
-UZXRH3vSpG9Z4QZOUY/mMrIglEPH3gZdmNppk4HLUjzsuzQ6VyYElREoAtX68TIavHhJICckboMP
-rS8u7sSLheN4QmhjLnseq0WTqd7OmjCzSQK4ua+jM88n6XFPWLRs6SSGkcqcO2yNBMs33PStbN1J
-hYAF0rzQDuuwN3dcPlrRuMryUh9XHo+WQxLrlWR+vOgMsPMdA0wcDhH/EPAxPWYD1JhuId981OPJ
-Hcx10zHIAdioj8x62YbUXeeBME6Ej6WOBuZKG2qcuJpBe4ngKhjwPx2NvnkR6INHBr1iQJoTVmvH
-TKl7RsomfWsFpL8QvThWXXhleMFgG1aXvnUjM1rGFiSiGYlx4gnIaTYK+nawfL2yJJgsTVj61qg0
-Zk+hvqwwwREjKAc6pnbQ82Ptx5VNjB4fRrvW4RWTjlUTtihLUdmFWZWnnazUwkpbteiDhJyQTLCl
-EXtQih6FcusAnWFF+thtzA8++iWPR5oOx3kNZZLztnVEgWW7LUjoGgopsvLsJFHQYIkVs41uMnVv
-Lu+Etg1k6xiecYnP9t+LEixRCv7BHMLhWLqGskWdTWanAzMVfb6qZAD8spgs/IKkb3vJ+4vGir5p
-LrA1AyTgbq+lFtEiSvCRDQWuPJXRkvd1tTDQgmbHXBS2FRvue5OOyUJmRXys3OJbYeHPSRMuIfS5
-7QXQJ9yIgxUty2tFDLFMDeo5WWF9STKeLSPDf290zYWV1aHNOuWdDUHvhbYRVzFdyGYgSzPqMmKn
-vSGbxRiPf0ciTlobvSJcLnHCoTLscSzDKzPM+gXNQy2cgJiXwoviRaW6PDwfvKo5CzoCCBlxPdd2
-PcqbZUiK0PazoH7ve1y6ni1p7Fmrsurb0Bmimiz7QZfVcuR+Th1ZFMZZ7jZro86ym0q31zwgWWN7
-rI++qYIZo4SWGMfKgfrvTuq0zFY6iXqd26VRMCcPS8h8yFtj4cEULUyq3HPdZaOxilnaVReR6Svr
-NNW8Sk7qYayNr4PHW8dvvDZ+6/qa1XZZxlQ6xRAVwYVopTksPTN1jY9pA/fBtySSIw+u2B7PBh7S
-3K+ZDu4wKS0icQ0h/K7Hfk2sDXPkWdmcWMEwHJej/y2IYFxYqi6bMmNgK0gdD8Dpv54XCbof58Vh
-bmJKRaY++9159cDNQdd5c0K7O2UHGWRBdJN2RmT3efTt17MhBfXjbJakcrrygqC+tTvb2HkGD8a0
-OYkHMMjkCejINZaeUZHNurZu93ZDN67jdZYPZeD521umH379n8sswb93Nx9//+N0SfX339CDvrnd
-+pfvwjUmkwtdzd80UfPwWSBmS93kee/88kMU8BM/f3NZ9k8ePi8IQB13uon3gfV+iAJmEdjkVW/H
-bEMAnG6FN89MXBeHHiOKdPtDCDAleomAhw8fXMHVB7z3EYBA4Z6YKCVznKBFa8VuBKC1hZzK3Z2z
-U0hxv8IdGBH2bH/fiQB2OQgX1AjcOc40ruFAcICroXc5yG06Ggi36C6a5Mar4oUfXz3ajT0TYLPy
-RwHGDxNMAvMowCh7Bi+rxwQqlPD4E7vR66C9CDScxZtfTyUmod6ZC8fw0YJnMrTqiylk3p1roBWN
-RczpeSjigYS5nRgoUMnB1sqMCvF3FfaeuvYzV9XkmORmZYy4QkwMQXpGGCm85CYrMmV577yG+3Ad
-j93SI8eDSpvbQBEVJG+bklcGf0NkPp7GlQ7d8lKFZHgjuZG5l0NRr0IzEGdVHdL3YZGFgT2EbpHW
-sO1wnRUrRW2brTS6yu5apusF7EHhR58KbXpt6UietlYGZ1UltR3IAb5/2phnJc2Dz0MfN29it2gs
-Z2yHuFslbRCz5I1Vi3AhejleICQT3d9GRqQdGV4S2Ko2SwfZb87ecQOe6puw1r7xqSNGwNMlaz1X
-G7lTR2Hdu8dWXAbV8R0i/19r7G3d+Z4DgCw9Yt0fdMasb2Y2bqs3pDzSCM5xfB5WDCdPCCRnkzqA
-Cpku10VlD/KKq0IVlMNWbyDfwNBass01QJi3aQOKe1+YiQYuTXF3pcbtof9EaTBkbh8J2jQjNYlG
-dhdaDbppyk88FuqYhmVKu0jcKurWjV6aOUdw55C8DcYvQjR5tOYGHMpVWgzVwBe12Qu/dyAj5MpL
-S54aTmb2kXWmfTE0i0gbaXHS6SSuzmOR5MZgZ1Ev8isR1WGfLQwp45A5nmVxemv12dB8jP3eitdQ
-B7l7zRJWyAtPBgXC24QGFUjhOXzJdz4ldZcuvFiUUW5nnUiSt9QaCpDsJQkd3phwl8NvRtVmGPMI
-0icVH7oVCRpONfq1p84TbBc44vEeWTQJGl/66tbtsjQsTuqEx/wk5m1VWidj5dVB54xBjgtmY+IG
-prv69fRTZmkHI3SzIPmOnlfUr3DFgp6eP1K8Y8hUBZMU3IQ0YhGi0YwJ5ttam0YRrsq+88p6Ufq1
-x33b4MaYp+87zgZkNCgfZcfOaumnVWRnGTIA9ALXoxR49gSRqNM8JtJC4hOBrpYExR5czSVm1sFK
-AHybtvnflshEKBy4MMIsbNdttC4dOloGSHYHy7OKVRw3HM+aRhv1aU5dhUd9VzNZrBCG9cTcuDyb
-r3bYAyCfJv9uTnBNAjJ2GldUU1gUHM2fuhge72DUR1Xi+ln+d17imxqKJasixc9N6rPhDauaoShs
-7bbx+CXx+2GwkKYpu8J3WmJ28qNXjK5xUiY8HL+URlPJCxVAvRtOz1uEmsdRI5JsWGQV021kD60l
-2o95GUbjlzGWURfZJI4nMAKNOKVGLlL7+COD5zZ+UUnf167NRDjgRzUSr1aLXFSsWkmr6TEq6r0A
-glPcTa+VZwydrbI+xEdkEApQHhjpxPN1LpJo3VcyLfKVbkvafuIM6b63ZRm5pR3HSWkmCNDcpD/x
-OJjmr1SlLv/SEuREkqWlPMhPW6QZRO/XvLHr297tvoUr9dG+yC0Jqz5jDeYOyEjqPP57pElVenZv
-EiuH2czCLD5lTdFVfPnrGXdjBsw4XVSC2GXStlBr8xmrklR+l7DuLzY2EzN2DU/KdGFWVgT2k20h
-5N9uyEYwYWc2deWdW0j8gk9/TcZ0feMO3zF8A4Rp4cwaDgwgMctmKx9Z2xSGlsmXhKcJMpJ11gjj
-Niv8YhBv/KhK6bJ0rSx431bKGzs790XmLT1Y+zazcY1EF7d2bXoFvAUlP/WsjNVgVx2V7cdaGQQJ
-GjH22RswEfHtkHA3yG3uSkrhBvkEfJi1PnzWUzeMarBI1OJEyrvpGyvywWZRyfp24yb8VNIoUt2P
-Vwz/FwETuh3Mu+tfYetmkiZdP+2KyvrcNimBchZlaUI5t+PEtxw9SPzEp10Ptu0jzfDDq+80tiHz
-iaVZg/yA+8nt5cTSZhGMSXkS5CYDh4bFWBG6KpBurYLjUQwRpM7tkslW0AF5sy+lRQuI0a9BnOsO
-nKJmuLQL99/jSMFkcHdX1PuBYfolM26kUUIhLLxxo8MUrxkSAmUtJZIBxK1RKHsIPvYorV13G+3X
-k+8LVkZriQmM5vPmzZBZmcHUjYeEViWRSc7j6qvPXTP17C4MmuBd6uIri2rb9zNA8sSyZ0BieguV
-BJQukG9BA4s1Y11PtIFBep/dGFaMBKQjOiLFGi4CVHY2BlZ8ERg0o+csKobmU1QRMvo2+gtibMqv
-N2IuRESY6A9Ar+10+BPNHTMAEN6TcIhS99rVYyrK46zIE3dYGm5S6QE+ffm0wfhx8Th5JXHhEW6d
-mJoYZ1zsW74bhwMpb7js4L+sBipHGq1E2TXQVYFyufy7bLDrhV1JtAf9nZGhLfWyDTKSd08wAp35
-aNb03Qro75pcENyKCQHb5UBPj6HQeW1cwXbBzp70NVJFvp30mY8vRWq6kI/cCZJqMHO71yYDVSIg
-fvMpyWU4OEh1leknnfiTCixEVpofEXCk1dWvYZrrXHR5EGhdXAOJq24hLTMb23SuKkkx9ld9WZdg
-AtJEBJtF+o4Jw+5L1hqfcgRvk9DUXTb9CHKv+aebhaNziLMRC05xOP/B1CskPuuhktlVGgsDRjqE
-XwbN2g6khs5lSAdG68pr8MUISShSKJkyT0oqTpQRGjDfBdL1dz7t4GNUGoxx+4b3UZ4lT9iGuaa0
-0PeK05kmMoQmEJZy5nn3rEtznY7sqnJNOam3usrj5n0x1kGeOl0xFCDOsJIWz7KhmFwMFY0Dgr48
-d08rXcah5yTjiJg18RGYunaqiYSD0QhixB9lor0xcUymJy/CNMJhMgojfBDYgcDtoHp/jf+umAow
-qeSIrXFbCOwLxdXtu1waSb9AcGC0F34VTb7emHQQjLwSafNhMFTDcVPhr/TjvvlwBfnmuMR01Hh3
-Pqvvc1RVSXMBEzF5mr3nI5NKsigQmV1WuPHhn80H/2W6GxCHMpEL5HedsI99SNa5MKttEF64oQdW
-TiMoCHNhRbHFlmlVWFjyryc0Zy61guJVkFa403Ad0EY945CCpcmYhan5WdU+g1NX595k+WqDNZPP
-eOdAoiN0gFF0/X7yLeGkT75smRfgb8OniItoL6Y/ZUWE71aIdWjxk6CLJwNcDF0mL9yix7sCn022
-dfBQcl1FhlWyVa7KllUo/KQ5WO+Jpc2MG5amKS4jx8lj7CiHmdkFr+4jasVNNnxmXju5yHVZwKdB
-Xj3IrmuiIjO1hzorxi+WmU5imRgZhSfQyyT2huWYSFp7K82MpvsM41hiOzoLReD0jLUj3Ng0MDR8
-G97FOR5VDfz1kwA1MEhCDUWICYPaJfgNQSvFViQex1bUteUbtSPiJoTs+9oM8dtmfyYffPpqiucz
-MG5vkzjECAMvFOJ48oOFpd3I5SAL47JNrAxu6caqIv/et5GDUN330id0jjnzZaYpOe4gNwniIdxy
-OY9kSZjBcuW9dVk1FBxSD7i1JjiGysH+8DDnmUBVyMh6FMpjNmDD49ZNoSmh97FLXdnH9XsLRSU3
-XLk1V/BC4Qm2H0sc0UDokRjwOOs+RYS0hc0ruhRb2ccqhZMG922Cw4v6CQgjDCh+6CHU7UeSJRko
-EVGEoCiS9RT4/3q3kQEFTz0KArH4KfqAd4rbo6F85w4VrFCF3oN+uPT9QcauXTcRQ5EJFZnwQqLG
-UA7Lwi9lrmxtmjr0UegoguKMxA3rhZ1DyRpvSi8x+Lmb+BZzii7rvWsSxOSkcxsuF5GVZvEND+Ox
-/JhkMsFXRY407t7xlpJ+XKgw1SJ3Cpitqll1nVDtRVn4bp/ZMiEJSq6kpHqRpqWmTtjXTenaWa+K
-EfWhtC1573h91EIY2rHshtjuDRHycKVN2vBPMq4H7jmkp03XHOe686kLs+F69WntWzAIjjXG3Tgi
-TwBWzE/7aHAbu6jyUK5abXlsIRKjHy87mZnBl4bHnrtgvDapM8AtzgZbenWlFzowu8jxROydoE+m
-Rn6TdOMbV6eEHNOO+uYKFQvlk2UeZQn/PIjWi4zPOiN9f9nXPavPjapOjY8IVazmRpRSlp9Hq/XS
-DK0pGfWrD7of4+jYDZAuWo0ZV0lm6yhjpu9Y5VgV6oomoUpvfDPP2n4BVhmKW93UXUecKO4qGp7U
-bloIFJkjImJ57CZGJC80tYwoOm4lUsWxf+urlNXY5Z4yVfLzkWUtWHqkZZX7H9B+V0uyTFOe59Zp
-o93Aj9+moo8Kbxm2Xt21bzvhekGwcnnSNeKjm5qsOJUh9z21Aq9IFtl5OxLEk3Glgk7bKO7Iol74
-bjmGw2nnVYYfHHeoSsrMiXTHoWDbPGjE18xopKhOwRyd4TodQ7xML5oc4T66VQamevkuNi0LP+rN
-H40giPEMdQeO6cas4sXV2CAJ3Z6Fssw984T2hmFZzhCKqLGO+zSkSWwLVAARkBFhBFiOxwSMyrp3
-BxQwUN32tfDeDV3e5db70DXCLl5ZETPM/DRqBq3adzJkItB2ofWUzrHKWvjRF8tzXWN8w3lcYaeM
-oYDKPofWLnzxxmBuacVvaVAENH4fhl2o3GUXQhF4yyzAWWJkzJk5kTS0RkzMJfH8ISgWJI/CUi3S
-GjXb9KuJQiPmS8JY68+Np4rCKeF+Y2dN1QSwIA6V/vQhoB+xsl0UeooNuF9h9U7u05TJVeh3044x
-9DnhR1b5NYx5Yk0qn7e1pyxHd3UGBhhTRFXHtS4TvC/fLNWvxYjtK0Jc8WjBllQuZot9OjkENJjg
-oTn3TfEnjftpn1OuQyTnjMYoAYWRRsrnt0WBTFqxKoMAIb6DdpjBKpxA+aIxgCBviuZLHaZNkGK/
-DH/Mjv1m5LQ/V6E1kRwA6Xz8JMFZmIHhUXHlGv3EYLI0JuTFYOBvsU6mrWlbirfCxKqiAw0telax
-xu16ypKx4goZTFR9HdHnmfwUCY7Cu8M7jbjTzi2fYi+23OOOlcZHWqExLc5FgRg/igZcUzrb5IoW
-o5h+Y5WIzhkJSuPTdquNzdvvN3nzPgQoZnRumXkCAmhq+O1VFMg8KI+DlA1YdGGO+IZe2zOZF5BP
-8Pu9TNtiA1Q2tjVYDQ5/U3qnKdWDK2wa+e0g3+mkybBLrZnEeIuZI7QvHURXaGewIzJM2RYvwSWe
-kFHLI8WV3uxglkOCoNc2a/LNAMlBJ89S2dGToVFTUEA20G7YQ7pRjP2RPMCIpbDiafG9HHzwqUfL
-aRqf+xJ/HLKCWP7nERWbpj7DStm0vRtGGpuhAZVY5PQpNCgrjENTPQN3VbU/kb7ZUGPsRvySxSzj
-1tIgAm7o6YjmxD4/9qZAmiy7oMkg0/rOS82rDvgGrWUWV1R6KdinEkiVYPEl2mnkuwrFgekDUcrC
-D956Cj/ilEzikIxioj9tpOd3nxs0rHnBKvUUmN0vGPXYSVQNFq3fsA2vBGGla+t4u+U6bEuQ0wcs
-wofAAmSYPMyDCHa+pcUoyWd4bqFqF3lh1GngkApVrNIRoY/vaVvUcY6USow4BZEiYPKbUyvzJnFu
-YF/xt2hoZKhWEZzFfjhjuor77KTmGUkSJ9Z86s5wKw/ZCqppg/f7dVHhB5xGEV8kRYP/DnchiiAd
-RYRaoDgSX7RR7cKT78oQs1Pfy9ovMnV7xGDuME6832mo8nDVs8KEhlGlHzdqGScwscmyN1JXV6dC
-w1T1fxHZh9A3XpxlUXSyzc+HdeyX4arxYyRarwde4aaLkzz0sR3H7E5mUDKMsWGV20Xu+IX5Kuvq
-zwW6nTp5Um+W3muvwhaxvB8jrCjyOrR9yZFQaLn6f9n7siY5cXXbX8QNEBKgVyAzK2seXLXL9aJw
-eQAEAiEQSPz6s3B5n9v2vtEdJ87rjejoCtuVyaTh+9aEgViiLyN0R7iZaJP3If4B22RTu+IOQIa1
-X+/cNAQ/DAb4jgs0QGCCvOk2wFlwdbY9z4GV+0TdxBqqmb5MfLSDpwuzExr5D3R/i1hnxNH2oxHk
-XIkRosx8++j4BfBggBUjoy1gGgFGM3lTCqBdX8wdEHF2pdAz4kpnujZgNao2m7FUxonw2PMmj5VG
-HgGp7jfPNvGOURMoTEBuyK6v8HG8cQFX+XlFeSaCy1VMxjS3PJY7NgJxGZaftBVxMj9QdM9eHJyQ
-ga+PyapZN5XAzNHj5SnYh+SNVuCixxybId8714BuuKqkV/u2oZjYh5shBjR/+XEn5TwAAIubsImX
-y3Vj0KE+tJtdgyeDYhqoxwaFWvKG9RYtcLDqDXdA0nC/BqH7AIv/r6a1g0gIBwZhNqz6LeG+HqN3
-6rqku02SUXtxpGSY5uDH2kTSiQN2tLhj+dQBdguKrItS8wIgZG3nT2E1yqoqBPNx7R7XFLXN+I0v
-zTKSz9CNARM/mdYuihcQ1Ezty0YtoUNusTs4oMxRNKCmTFPGbWQxypXkpFjwl0G65JCsof4sf13J
-x7MctQQuVSDFyO+X9XO56bplX/+4r/bVBNX/PnmbSe2/0f8EDYUk+9+xKAzwGx76VvwQMWBxdQBk
-vEOqTSc0pnKFalHcbrOP9EFiou6zkkOAMFz8GrKoKbEScZha8U8fMNy+nAZVYZw3cZpHxITZva3T
-ah3yNewB2lG/CU7O69jvs7wKtp2HmtDy4wdFWTafxy3E+KYhYM9bwCX7mQNRwEd/HYgZji1txFAJ
-nj46tr6RUCDmsteWPrQfC1b7wXCNyA/AaAi6cUdEJpMYSktVqXEQeT0mNniyDdO4ZghMJYZSQ6q9
-jKupwzHSpdtPy/6ccMHQYh/JBbP7JNdk523LfnX7mEzFRtomZ/XUK3WoZYfZCHndjksCftoXvRYx
-B/heOkWBvKpJDOXh4e/bqz8aegDUWB8wggkWN6iY/kSz6hnQJWAy8lQPQ4KzTqvKYTasA5bZMaD7
-DOoWIP51vjTjfu5/f/gdXPxLb7cfHkm1eK/z/g40HP8P8NFYN0CJkYIj+VgaJchHnAX6AMykvz/U
-H9gwZlMIzAnHAleC/yc7LvUXNnbN2jETKCX/PUbC1g1DMWpB6R0iQffRzZN6f6i2kXjCAzUUj+zX
-4vj35/InBgb7PP7bo/agL8A4/wMaF0tMwBvK6glv7sEy1rBor8enCV6BwzagdP6n+/yfB4RDDMAB
-hHgErBb/E+SrTRh1KhSPo+uxUVTQ387n1LcYar9m9t9fYLSjeP/3wUL4s5OGUFYByiPQX/3JoLlO
-Uijxu+Tx14qx1tvOFvsk9owdHZ2y5Si12MyDXWMvS2X7fT2PDZaGYNoo9qN/OKPfRzrOCK3UHkkN
-PweDm+dPNN7zMFhTH4+P3cekWlHXYY472wqs6022NHgENYVmlJQ8xuaA0iKo9xOROh7tViwjOvsj
-U/HAwtxhafGQdeoRv475IaJbKIvRTxbrB4yuP5bZv7+I36cL4EQYWXBfd1EKyA38+Y8x7DfXmI21
-F2kfmJYVqVJp/JaYtv7HEfOfhwIqnAHnhoUdPdGfM1MJorytkuriY+dcGJp5XDYZFX78/VVFvwOm
-+HYoNPDqEAKAFmUrFoLfL6sP51pIp/nXUAJV/TUKSNLulY2J1d79rNnSqyJU1JA0T00HRjjvUDlN
-xRz3Ln2Wa4g5+w/n9SER+cswBuSGW/DzpSU7rYZYmd/PLAzBq6dNPUG/SsJ6OhDmdi7RIuvUDj+m
-rQcdVQxTBYiS50psaLrymVVzpK6w6UEaBLFyqwGgXBOKFj68V4JV1XDhscWy4Va4po2cLwQB2P95
-GkeFbsJIQvvxoDq7kbkIISabVJkZBsTqOnbRECf3/EOP0Sao6eM70atodDdtVS8cUh67JE0EaEFC
-QnKBej1tVNkFUmOI/Nrn0wAfq/P2Y3dGoZthzU1+rgYfFXv7826utSJYAdFh7bvpupAAdeEAg0Z3
-2xOL241KJbHpbTx1O5AffJQIGtQGnluos2hr8naaVbTl/WR435SJTjtp838jByN2nzr/VQ/8LESg
-jFhxf7cx2/fCdFwA0KBEbxMo27MBh4Qmet9wQ7DNTVV0TiEd9gRYvJPdc4zqkce3iZ851WeZhMHe
-U0+LAVzpP9oZvvopHsu6tQroJYCMFGB9Lus5G0QR2KFaQ5WPSKph5J6PXKfroRoRtT5+Yp4v2/AJ
-sP1Ox6GUgv74dpgnYPGfGg3QtioxzkEGHmszRpEsVITa7YdHBzdllyxxK3mLmPNzdgv0SeiHnnPZ
-koPspyBEQ4mofTcXMKeBCTv0g8ezLVdHNuN3swBAswIVTsSywlMv1uuWT/O05SCT1gZNKc8MdC1N
-HU4nGnbz+p6EqvV1KSjq1j5Xaa/Maw8AI7B59iGZ+FXJjmCzquQ6U1j+5LGvu4RYFKM/yxXgx3u5
-5ft5X7s/hkb3s6jq065F52M4+GydLyZMVATyphpSnAZpW5KvbbDwT1gLh+xJ9zzojqphFcvrqlqf
-IPiEZNI3qzg1dIkvmjDezsq45QKAwPCYmgSuLs7q27SZuxDQ62I+CQzqC1qxAe4JSup3aXT3WoXN
-UDoeCbR0cFud0DMCmSE9u8p0+Da0mI79qpPrZG10mdK6xtMNA3OUqaMHOTT2bpMdtPoobudD5sO4
-w4hN1Nda2ycSUX1laFBdqWWCkWsCkgsaubpYBsvLmq/ZQ6rrEaycbr410yjKrtZV7mnfl0zw8TLb
-iDp60UPF02tG8dWZ7wsq+/S44ivPGdqad+MGeyK+Ft9G3nan1kXdlnsu2bGW4fCkKSBuOMbgcMqD
-eKieV7dlX7qgZ+iIrYIpizSHkMzhJQ153eRDEMTXFGjX0cwTAk9kKh6AwTVQG8wx/xaBMUFbEOno
-cSGybo7a98EhmtT8OC0UfTuWgnLyzl7Gk/FtztSaFSLlos5em4VwfwbZbb9OhMroMFg9o1toVO3z
-BS9P+57NLFVlIAJzqTjkZCWNZvnglrhFu6GGKzbN0ViIrB6+hHLS1w7vLbyakmgfoYLtGphqWS8d
-qsKbMG2XM0Dk4LJp45qUGVa/b9G6xj38GllUo/vUwedVj+v3MQhcQZpo+zJNciBQhGnIGuGlwMit
-O93l0DsYW+ptbd1lYquxykPIeW99lGIhRmdSLGvcxZfIOuj0pXGjORJtyRWEwS4HYPrCVv81tELc
-0gjTZ5nsXAKhC5u8cmpJS+aH+EDTub/VNTWfvXYobULIkyr4xlpo2NoibSrYWQIb0y9QFg15TLr+
-NKDfzkmo5gcX9e3DVPu5Ldp5rp7H2o+vxmlF8tFZV4jIaJlLnB8UMxmgK0w8V28Fddl6z8lUd0W/
-LfKLVHrbfZrqBe/PG3Otl+iBA4s/a2KywppQXNKmp1+mLHHXErD5AvSeWhxUzLmwwYjGzlbXSRYM
-Td5FLf9iAtTUZYYyR+ZMTuN9siYtFNZjkhS82dKLORrqe7Ds0OattXkmQ69Pi3XRSeol+WJi8byi
-3XzeRrVlp1FTn8tRVd89bsipnlNrD6im/BN8Xkzkho4gPttqzsN6Wc4Jb/VpRDkX5VU68Wfez/w9
-djr+JI0Y3pdt2b5bDPASim1yQyEMO4XYKcrRjfMTyrQgZ2u/XAdmat+2cICBrIsEdBVAZW9rH1Ls
-ZQ4rUiibDLAKa5OLFPxGoadenlpmzTOUGTHOfyGXUdjHR5nE02fAW+M972tzEfmOPylltqtqkuPB
-pVhy0U2q5ran4XxpLF3v4fwyn0yW0a9xu2BxIKNfbqlXmDyAhu6ieLZXzqTruVldPAD+yPqTSBSF
-tyqB8hPoAT9vgRHXQtTmYSNZ/ZyBNv88btn8CRt+dYHJlt5sUTBDgZA0x44LBsNfF8XFrHhXZpvv
-Y4x30x+3KhjuWyDZ95Ub9FhA2RcezSrHz3q2tEKPum3XhlN7BZlBiyZbDZ+qeOMKa7Zyhzhts4sI
-1BlssRu9y5YqBsBtgm+BIFCQXHtGN3gKvHLoCcrUAhnOrlsWLykcdsia7ea841pcr4Gu7gFWdLcB
-9f1LN5sv+EwFvLSJXiaFCkbaVN46LiGeYjpqLvmgyZsN4JQounoNbyDVtM8NWZbxVJMupgWvo/SK
-isFkRx6qnl+qOtMl6FC65Qto4zLjm0phPZ75kqtY9LdDANr8ygdjinudhOtsYJBdwJdEzkTruaej
-uosdDR7SnsPuljhTD4eaa/Moq2ZRBzCnvr5STTs0ZWB6Bj2TEFFwSpdp2h7hVzC2Pu2lR1jy0eFN
-7y3u2rBW7WWL1tZ0RZSicimYsmK5AeggpyK2UfVpTbfBF0PYJdcQ24ioXCOUiFcz+tn5hTVoogzW
-EaNnlqBwqnrIQi+WOUkvGXFhLz9tsRdkyb0bQ24vCRa78JxRAOunEdY8U9bLxOwTD6oWtlJSddzA
-Xyaqri0Cyt1TE0P1mJOadg+Dj4LttKJfkzAwjCS8Xrl0fUEM4PCbtMNyWkLespUDAKJLSWaYuKO0
-vZwD7yZ51/kg4VuM29+HTpWAO1S7q2w1YepunqnM5tInMukIcOppwHzIwBIWNvJEHWhku/oaHloY
-VlQPtLTYZjf2eaw8+JPUyvaibygbDtXK1pu2AdpYSte4i7iCMayEL6xOgSxJE53bymiwenDt+pys
-IJGTmcy3AeMuLZQUcIGntI2BaAH6eol0YL4tHKVJbLQnp2EQUXyolppYGLATVwdDAYobUuI1T+vk
-0Qd0SFGY2cw3XYGVdMYvDPB2uOYrFqExSw617nTOqjFy/NCqNErrgyZuYOwmCpbEPoMTVeJCjhn9
-Ui3L27bV1XNV67eKayZztAnqaYVE4gAPtzmF2DxCLBKJAYuUbledJ92tiRt7XGrDCz3qTecpRFbw
-3SimnkzfJbCVwn5js4ZifV1m9XWuxHZMhw4EUOUEjMjYV4rITetYbths6D2f6vgphQDUlM0CyATj
-AQMGOp1m/RYNun3QYz9lhylNq+tp6IcnO05zdbCuWsQZ4GuV5oFy/KwGOZakH7tjOwoG4U0YHfhc
-D1etYMENaR29Ihrc31BN4IA52qKSEIFgSpva0+YI6XI4ZzpVhnwZp4OOkuEW+u8V0nOzipxPa+iK
-sa1kQZNp0TmPlICrAYJ2e54SXNzBAyt+2oRpvsHD340nCZqqNJiUa7751txil8fm3yTwejYS9QVO
-QTxi12mOFmkRhe11/SKbKnoDgOWO0L7w0xBydUx1Ku8DGZpiUUn9GvbquZNQ8lZo3I4pEfIznN3z
-kLN4GD7DNGouLYlhghbGyaxogDFeCk1w0VUIoLhxS4EmPL6TaEsuF9jBvrZ1nL61MJq+tlG8XsNZ
-DZ5fj8M5BvL6AgybtPua5nQew4d6kwgRo27F4rgPQvqVtnuT7nu179qOTO/DkgXNoUsa8InAZIfk
-3LO+GYrJNG4GZbMNwNzSVUZF3GEdyZOgkeym0xN5r+t6bnPS4Rxy2aV1VrT43gIoEsZE7TU7q8SS
-tEQLv3QGtVZbXSo9zP/S6NrqotVxHL5h411NzoNsXS6CuU3KWcvgohkZed7p92O0La3NGx/oO8ac
-fLdLprE9oPM8DhbC2XwQLL4GA2autIc2IzcVSpprN1n9Dtu3a4oJaN2SN0vnvs6zx1zBpESfZjXA
-wG8LyJ8lB7G1HHq5xJfAeuHjXRu3oZhP2fId9rxFHFVaz1fUo3/LA5QjcwmvFyzHwaig2Au3hb3M
-U9d9TvXiYGCPpxLhGmN4a9c0egJJlXGIa1DD5cm81t1pRVF1idWvXw9urGuJUo6j9IQYIhhu43qN
-gsKKXUntEaegD0Yv0AdD2IFBVNBa1ZK2y7GC8mGEEbiQLYo0c9jb2KUQfmwIamrY+bfXfrJ9e0eG
-aJ1KdBWixZKGQJFNFyayVedPQUhkT+8SG8Oh2kZjE3/pIPsP+mIJMifFEbxT68Kbth4SOL3RbTuq
-c7vVarJFig2X+bIGDZR1uYUWk/qyX7xQ7ZXPBCCdYkI4QqTvuwWoFcI7INLk9misHpvXqmrpUJUr
-pgrYCLiE4t7kixuHZD5WqNX6s61toH5MI2zT7FBDRqT6AxtBWT2JkIDCOGnojea+NJ4GobyXVrd4
-DvD6TQ2yNqwFlL5ApIrL/64Cnoa4j5Psfcl17dgrM4zUTx+YZ6B33H7u+I4wkkg4fYVgoJ0BB+2+
-0wmYh1v6raIidMkJet0N822MYOT/bPVaB3XeZ6vfAnS2Qq4Jtggsx/OLrQEoZNczCkp3G0oeelpY
-WMbH9rSBJMLTwpYnB+RIIHtlUbAbztb3V7HF5W15M0CsMCH+ZIqVeIpnppvkADd83cSXobWjHyDn
-aWbUOOgdqvGodSaxHsNFXsLIXt0QaKJQumuOFdPzBkVURk/NnCrvNcDMBYBkU0CZZLuVHqreUaTL
-6BXCFQ7soB+y6w2lX3YQQZcIkEmL4NrmER05PaR+i+kJ9Jl60ZntngOIVGCdHGCKy6nF3DlAtKG+
-hX2LKgva1dq0hyGZeF0uBnKPPeFjBIe3wYX/UyN7yZtquYcedbkAnNpcD6GIi5Yk9kZG3quDjhU0
-TwsHn6qD7knCB5+eR5RwaR732tPc9Wvbn8wcQgzoMr0i4yNc2m+IMxEtllaqRJ5gH7XlHG/+cWqC
-1aFACLoDKlB0iEJqxk4mobMqhcrce7AJ53UeVesYPWZt07JyxWutvhr4Tk0+yQWtQb8FC7oRI6P6
-gHLCTBe2Zu3yrQrcjrigoiZ9sbV1dYR/bBHBUdkog8aFjLwvREiH4UB9OF1E05B+7hY4YxFgIkg1
-FAAUG4YONfXTrcqS0JYkZHZ+hYIA6gNIQSFWKyCNGBcUSBGBPAfg1m2FzlvldEQdfuPAW7l8jdv0
-kLZJdxlU0wArkmWQRkOiphUUEMQjpyPrGQezE8z1CapjPJjUVUEeQ6J2MepulIUFYPa+gffH2BD8
-wQbhgOvc9DGJtLv3eNgl5SLjBwmJwvcAGiCAh1JX1wGW4ekNzeVaPyDowuxVV0yaC1QwyaWhKfI2
-sETG/hQvVD4OayxuoDasvlUmwp3P1s1B9SUskJFta1yum3B9zhyz96vpalwC7HUgWVM1YDVNFcxm
-LeOPEeDDtORyWM8RQIumXCEx+dcaU/gbWTvRi54iCGdcDXsaRTUcZ9KHr4mZopynkPPVptvgsJo2
-n8O94G/h9SRNSeyEYJG862Fw4s3Cl3OVGIi8pn6DqrISK7KTVt7tCgN0w4XuU0+OIFpAV4YxDI9l
-tcQLlt4AfrUmn3UKlV5cTcibqXo/3cRW2+uKRIj0CFml0yP0BPrT6tIZ4t25x1WCVE/fqKmzKlco
-wO/GYK94J7wYtc9RU/smT1rBoepAfENdYkOXEDABLrnfFBCAfEu0Tg7tAp1aGYeqOWyjw2cqBlUa
-1BdKl0usf6xT3R+ImFyxzsx/TrFaLFcOaRO67MYle5yYmS0Ox9iIhqABCqTIcBN3glxlddemUNsI
-r3ITCX4VBDV5913TXrpAT/eQvMkCUiryBZp220NanXJfNGySpkhX2vjSrl4idMlkszjYusk6rL8m
-7q5kRDw7zsnKXgJRa3cL5ApJQNBDKJ93WkWfGw7hQK6gZ7gdINQID+nKPJoCTuBKG0XI1EFFsv7U
-MmfWAvsmqjrU52UdmzHb71tyt8YrYOiYDOI261T8OkKsUOWL7T7HkxpeDWI5coRsAnuEMBF6o2rB
-kO/M5woxVRVqKxcUASqPG2Mhzp+Au7z1lQ3ORmJSl6Zp07vZzsPlzEZ49UzaXgMXSC8CEWYvQIyb
-FMOgSt412WJE6YTT42I8Obd4gx4p5JKte7UWKihQekA86TRlF1Nc90m58QCFk2q4O/WMLN0jXLxN
-aQBulQZDnRZjzOwB5Ut01fuhhsRujV5r4d0rF3OU68mGMD4hmEVlnfgBdW5YUkbn5wzl/imiInof
-IOR+Rd6XZ3ngcONg2XqFZzK7ceDKT3qZMesy+wU63/le29ALeNqHMMI82O55FbSoaCKqTtgPTI82
-Y4rLLIXGA5++Xkdi/iUBdpSZQ6MyIiJty10dDS9B1tEnWcdUFRSo/lnrPoL6H4LFNo6/egv03xxa
-DTzIvGODatVSgkqGC/UVHe2g9CNCAAbK7mZZj1jlJyTLQ+JjRviywbU7L9UIrgG83XBHPRQp/rQS
-eO1IGQ+hm+tzaPecrDP00H5+Fo1b2VfW06G9kLvvnxaCmnAOEI3E6GqweLUQhYBrg8xA8qhJEHM0
-j9GGsjELPcKx2sSE7my9A4qZJ8SxI6X9mr0lPcLI5nzUbec6rGOsDlmJOg90fxn4pKqgC6GQKkHV
-u8fJHJ2HRxuTBmpwyqCorPXwPRwDn04luF3o3Q6TXn1bQ+rSVC1EN7oSuxYbY3AEDVLJagvHhyXO
-ZrQwTewSY16GbBWLLMFnZuj7YLhtnLyVcpjsUE4r3qMQHUId22l8t+22RD7Ht+jGF+tAUZLlm66x
-MlwImJwkL4BY71dCkyrk3amu3JKO/7JBtRGWNyJr8W+QlKeJuwrmCQ3zlfST6JLCITklXY5/T8/9
-TuiCNYRgYX+H7e53g7fjZ7DeXwh9QGXZHEJs/10NeveALh+SjJj1BrzulNbUQkG1hC6AX6CRoOj+
-4QR+J9X3EwCvDYsbkj3BEoIU+p0cbJiHh7Rq0m/txwmoD6GEanmHERcM4MU+mNL/n+bwD0GQeLHn
-7uX7b5fGf+Q5/PbO4j0B5tcn/pLkgBwHiuKDJQhu3N/+9e8QSATAICcI4zeKYBX6awJM+n8gE0jB
-AHPQwDBewJgAxvZnBmS8p8YgrjENYQFBxvv/KMzh93HEkACZ8hiGRYo1DEEBf1LtHsKFePbBdjGI
-g4f11kMxjPfx/ffd+H+YUv/zEGD1YMVE/AROGXGmvw9VsdouqAhC05YdKdiyPPCIvUu+/++Osp/F
-X2akEdxhf8JR0v5tCt4G931m/2AH+acL+UMqkDYD7YcFh7DbQxo++KYct/e/v4oo/KlO+QvtD6Yf
-TjjoLPDCUgRaIJjn9wuZukCDjh7NBayI5uuAYKH1gNoU+YUrDs2gHX5EkYWouM4KMGWhPbopdodE
-gvjwbllPjcbSS+otjopmm2Rp5vQByOfCgMC69ZobQPWDADocz2CLokWIJzSLtv4ZfvbJt8jZS2Uq
-QY4taZEhAEEB0JZZNh26IQJLiqIKNX0dAqiIYGAJ0hpoDczh7WjhSmnMcJUYK881No2rMNuSzwEo
-4Civma8RlhgkVxAF+wIRdtOhhvvnaq6UdXnr5q7cbGuvLVfbczPjj7WuUaKk49eEqPRSNCo+ZMG4
-lFO6qRMl0zUFAPPsek8f4KaJToFNu8MQG3mmKoRGw0b0CNQO/YfT0U0WtnBMxuhbHHHLY5zO+BII
-SK9TFK6HYcsIqEQ/RTdAtDAfJK+KarD1g5DL+pXPyj8sGzYrREgCv02R9ncKmu372ifiFZStgY6I
-d9szSCoWY8uLvhvjYKEBdTv/CEbq6sKB7n3hBKr9o0tm+rAg6LNI9xvMkFo0eEbmXM2IE0w8S0oF
-LfM1WmOkpzW0glqS9akucH5twdmcFraTwS2Eq9+BCtN89bP9Jjf3TDfyncM09NkRVhXUBs3rDN3C
-OfQjbomBVvTUr/T7Ng+G5/U6bgCAQ3CNncZDYGIDqhDi+5TDeUCi0O5s6vTSoBCA4mFMr1Rm6xsN
-FcEhZiY62Qnt19oRifDTGJWS0ea4wmJ5gtF5A4ebJFXBBZS0mUMmU7F1yMljiEm72KIEByAbUuFG
-OZ9WlaECYnJ5aofNPs1a4JcNnzAwsoY9wMGH4MdOIHk2zmgODMYeFs5BBXHcTqgmIoFYSk32Rja9
-nUEXyLMkiTqixwQb6WAhESAhRfRIrage/O4LgF2iRd+3NuyOINMGJQXiniJqxLvAa2w5RkkgbsnK
-oc5o6zS1OY16i0RQQe+A05FyF6IWgPHopddmvB4RB/wYqW3nDnVyL4I4OMEaFN8jC6a6Xil7EWrc
-HuAXnNbCsSVEmzsm5DyaGeCWdR2AvaYW77NDT8r1Osw5vIrBCWRP9oPKNvsBwmUupmBarxBawN9r
-CLYOlR0pmkuYUA9wSfFcDHy/HwIAVxlt7huKM9zJaXFI9q10CDAg8shj5OS6qyr6KXTtBpV6FgEh
-C1h0ytLenNhK19cMmMJbL1j9EKoxvFgaAjyfWsCdTdosSNoB2/E1gsTmclRW3UJQvYJyjfub3lb8
-zkVb/KnjM2h8NBQBUMiIXYH08fcoaBGLqk12LxvTf/E1Wx+M9+7eQQlz66YxuY5c6m+mkbMrILj9
-KRoZgCw/J08abqZy3vx2Ma5BhqzJkOAAY7QvXh0R84PZQqTz7qBMmgMlZiXomeG4iDX8QZtkBpvY
-DcDkELL7jW0JoJEFi1AbKGisRMRKh+BIqBL0dJrBl6ly0miusavQA0RXCNRYk91XB4TsE9QViF1E
-viG+kwm0e5KnoiBpv13ibKtPJBq2S9/68YpJ4ouOiWYsZAKPBGQNkp/BGrHjIGUCYUjFz2ziwAoS
-Nxx0WAUnUwOLxAUAEC8y5KAeUSWAyPTGnAMTdriMMfPw74rggF4f0CwJO14sCGNCwzRsDrnFmbvv
-OzO+r+M8Yxlb2ocOZPwJug5fzFgF3pqGbwdkJINGJ3L5ngJuOpIqY1fIIe1P69B0GVIhpf4ytUP0
-Pqd4cRc41AaNHLfdi5/cesejsL38+eukT9iTggLh7F0F5cDG0vVu3aS7mzKPZNQMsRsHjGEEAEOE
-BGlGpUz+85DNpluaJxPyIq0nHHmJkMS8A3Ce/pU6JHYurMavQgscHBpEot30GpwLmSrySHsnPgPA
-H16WRil4rmx/YmwTh2aLwlwGoSpWMJGwN9r2MhnsFxh55jM86Bn4ZUj9SyQThxcIEAHV7c1yy2d0
-ZnlfIyLaRLy5SVq3gCibK557QF4XQ8A9yTMdxWdDkJ6Wh9miLuUUuTZPASrbEmE/G+IzkQ0AXVmy
-XfCmTZ7AboWv87RsyJGd8OhATTcF0+Da0xVUB5oci8M2LXJ8oa6Z8shY0FIpLL6AY9cVjTEefRZv
-0fWQxuZsu7j+xhEvedl2MnlSJmFXIho4AngRH01GEIaY/UF2QjVqzkAz25eVN/zU9//F3pntxq1k
-6fpVCnXPDTI4A6cPcJI5MFPzYMn2DSHZ2pzn4Pj0/VHl7rZSeSS4r+uiNlB7cCTJGFas9f/fqq07
-t7aUjWlQrnOkLHZhCqW1WQ671gXVqiBMuh4sW9noGrDb0m2BdINLvtZJgD9peZ1tiooJbgVGepiZ
-0R6SBbnJDbV4STjD96JV2/s2teYHJlJ4ja0u5JbcuXdFkveeZbTuLm6qYgf+2foqCUglcmcRnGcD
-KRavpXi+E5jSrqVM55tZUfuXHkbol9yuAoqwQPXWC8z4X98pBVr396TyY0dDH7aqUWmXZpxBkg1S
-Nhk9nQ5JJrqNYo7xN6q8DmKUftwqamc+6t1kPPaNYjwmZjVdLiCUbVRHCqKwWFkrmPF8OwjKC0QL
-zW0ZURUQTZFvlFQfL1/fujRz0mDc/K9Eqm7Voig5+NrkzGxKbVWXUbnoPKiHMRG3o1mqZ3ZN7qtw
-E7nPJ6lvqjrHR9qoBouYTBUVuim7Chwt3GvomVI8gsxllEbzjasYDnGFY5zNTjxe2m0RIM60Qyhd
-sgfZgZfritt7vrem0SLvEvQ7TOpc4J2Yw1CdDT7/XM8XZHvmC62GVB1iV0HMyk2eLVDTbiMlfm7S
-icxXVE97UQXFFU6keR2XZoegrK2mB2xYprnClJ1sMJ21Wxt1zjnXTGogqZ1c6WmkbDtdpAejy82z
-hMzqtWYPyiZoqvGqtluObjsq5M6uYdOsRuQQ6VpoTQCiUIsAoIxZv3dfbW/UxKuLQWaF5hUYo++7
-ciy2lHTQb8SF3Z5phpBXdQjIuumo3oZRNl9Mg1Yd6sAatrrQYMfVaaHcg5Ypse7lPREz+dZV1rNt
-qGHL0qTOASi9XUSATg+GuSYpspNakT2oHdMJGRNhtRtrz2poTBdGDo/cwCn8jIlVdKsxBh+rGICy
-o5aFGWumOGBemm+a1LYP1mBMG0dOzd6ZBGVhqNEV6VXX6kcKHCU7XdHq8w1yS9a8oiPkIFFvjfeG
-UiM8QunWn1PHT7yAf/V6YRMA7JrrwMeiTGllESqS/7Z2Q43ulCe6sqNRkIpErIjelVpOF+d3Ykwb
-FA1JgaEoUnbSLGWDL3AS36diWio4RX2n9zrGnTRWzsKgv+4q8GWlAbxsSJQXp5b2VjOKr3qXaSuQ
-NsE5j5FScCzZOU1cZFvHaYYNMHqxC4KYGgFxCRIYs+m8DIHGhggxOlQ4nDwqU9eiotj7KmxEOP6j
-nc0rqsL6VozDonbV6r0T2WJlz/H9UKIraxwl9NmtdrwIvLmqAcAvyJutmzpflQK1hEyobGMQQvPo
-DCH5UZ1klOpIhbpyZQDIRhj4S/PYAQlixy4oVyA2KKIQmlVYbKwY3P+qBLS1m+ck+h52ven/Ej92
-Y78Znfmt+JGk+FmUWNV1UaTVVwQslKPFlH9rlar7UfVYSGxt8TplTpXuu36aDyJ2052RRZ2vRGSG
-odPXxrXhkLdMyO3fVWEMszzv7MkbxwYGNQ46RFxN4AVNFO0y6D3bvk65kqtZfAgTbaIyJutnt5nz
-M81VdH9OF9foeihDfai2TofS76wtngnvtW+jVTgXGgZ31WuEWd70mGcUqmfdcB3MU7mXU+QueoR2
-K52OpZjniDagMEbkUxu+4noMzGcjMurB66N5unpVUhamLLddPDXfSDhS9Bq1SFxOjiu/pVlkH1LE
-fY8kSdVgVRed/qAuJ6Sl5RVyOifyx6Lozsi7GxdUduUjni3TH2U9HDIz7M8GZUp/oMuhtEOGdpGi
-yeC6t6v8Z97aqtdD2fpdX6mlwjhHrUy+U+GCTbKyMLjrtpCxJ0UaX/TCxoAVmBrIjr6PEFxNL2lv
-O19FaRcb1Z0dLwyB85ttlpABJ9NPjDdzFFL57ladMg4YFxt2siRLfLSEKKThTPN5OW0PE7eKdRnp
-82pA7hO21bxu4/weUPjXsZCwydjlVyRuMKC7E5dirXps9ESHOkBnAdTDdt1Rh3XlroTxdl+meXku
-50zsG9yQoN1CXIchTuqUuqfi6y3Afp/rkqW8TDJD7kxlaa91lvMgFUo03DudHbeYYSWUOPiS6Yo8
-51DMrgkVkyfcfOWXpE7rr1VXjTblbMgl5ErrON31pUm+OKWnA5cpWdwYujYUXlvG4/e0gc+x6lDn
-HXrRvYSDM1BjdbRz+hBQPCay/VFUquVNwZIbVtLLuewzqn+6ku1kii19QAp7juRwgDdZV/LSEE54
-mRAMrRIjS9oNCvf6ognpCYGXV9yy/n/KAglLx5nmrjpbwHQL5Iz2ru2uUe5w7wiz6GFsWp2Dy9Y2
-Grqlm5YM+7OuVN+NpB0w6Y13cydaAxA+QhulGJCB1oD7ZaXoSGW67I4OsIP0oqhubk01a3MvgFtj
-RZ26nfu+W5nMeF9xSmMXRZZ9LlJrYnNpOnsf5S5300SEz+YEJr9gJ0Reo4RbJwSLwlWH8yR08+9B
-bqukxd1HYzSGMxXU0I4/5Zcm1IiNn3bmNFd9KafncA76LRQbh7I5KrcL152HXd/YvLHSQawaJiN6
-FpeXogf2I50rjPu4L9GOdzELtnGpBRbEVBMu8a2pmDuJTvmaO8gDG3J6NVazdahRceIRlNamyorg
-qXTT2cuawfEpigIvGQN6Apjo71aiIbodW8pulPSK2wI6KRGucpPnS1HcmfKbIFasa7tWwzWqOXGp
-Rb3+txYWhVcmA+qRLg4PQRF1VwAvovPMTM07A5p9EXo4J5XuW1IoqwBy4Q7yVLLpK71ao6lTb6i+
-Wn42VJ1XyrTcTb2eoZEIMcGNRbVx3R6Rf9bdh90crFC4Wgc9LKedHJrvkVvYfhJGnFgEggc2UsXP
-0dGcE8rZh8HIw8s2rFPiX/qYdDLp43Umq2e9TqpvrSMRSKxCwMvPJW1L1DOt6oIzShXJmmzJwGRr
-xX0ncJ54kBFM9zLOADHA4KzrcaU3ZWVu62KcuZohfLsspia7L3IXGTk2jV0Ut+G6IoV1b4n2ZRwp
-aaozoUpT6w0oreEHkp/8YGZgNQmquCTV/bSCE5fQ/8XVNlwnfEWI5MD6N7/aufWQh8TG6EsxQxEH
-AVNxUMDH3Rp6XOABubsW0zD43Wg92VxBxmQ+Nxv1hhjKInNGmkjpHO0H5cThDFKPvrFqpL5qWjRX
-lG/8nprq35Glm2gjFHHTju7fNcrTh5Cl90UIu4nWZlvW8cptxmDd0kVohfq/3Knu2G1EXOPwlmG/
-ApGdf+KYXHKpb7OgwFdtc7Fm4ZvD8vw2C2qNmSiQCDX+YJC/6xWScXFVMifrHffxfPdx2vVdZhdk
-oWqDl1Id1KzWcTnHHs2ROMlu/KlcRNktf4lze9xkYZWt/3woiLJg301hmmx9bx9Mba2K9KPGg1Fu
-vx8TgyMj6bULVSJR/Xiot0Uqcvs8FcBnQcUOGxnCq7dDIZtSp0xnqKIpunNE0KlPkxBCTibvIsDM
-d2XP5Pp40FOvUmi6ppOHMxfj59tBzTjQBBL+1p9S3qLANLOyGlJ23EmNT57vrav2X8/HgqaEYeMu
-hUv9dijoMmhOkc36+RTpwSqDOsPm5iT7VJDRzEh/XFfgQFZpNkcXXTaOn4y/ZOKP56jAQ4uD0Flq
-NEeZeppcVJGahq3vgEHaEHSRyKiHLx+/z+UhjgfRkbI5i68VaZx4+5CjxnEhERv4krIvOYOIKCK0
-9eAyE7RSmidBf6LOHTdlQ5D88dCn5g8tgk1BhRTz0jHR0jWNUQMv0ixJkgmNlClD8iokgm1cYzUS
-EyKwKUJR8fGwywx598QGFralOCXAjL99Yr1FQWjHDIspLDtoef8FxsHshxaz1rWZvx8Pd2rColGg
-mSh4NQeo+dvhQjTlmuJMDNdK874W9Y7L/7ipA1v9ZJc5Nia/LkiaLQggaijt+aBvh8IX9OtbWnM3
-/Ghf5yZIrZ9QrsaVQtuYC1LK6s5yZvUpCpZk0kAq/uPHPTVp6TcB12zBgzrvFo2ty3kI1cbX7dC4
-MbuSbD5UpE9GOfVS+YRL+Uql8HlswTbGwACfzNbzugv0SUApwkX+pUGM++T7nXogAxg+6E6y8u5S
-RP298JeOSBunbGBDHepsLYbyu+WU3//8pf0+xtGmFptSWBzU+G6EvJitZgdj7ObjIU5ODuYf3Cqm
-oom16e1z4Mh0hkbIxq+IXS9CNJoHHE0Uyvoh/hrhM9vURa9ehUBR15Ue4q0I9M92tPdLDxs03QUx
-0KsuqYujHc0wq05XSrf2Qw1QjSyl5Q1aWp9j4a33aeV+hgZ4/+0Yz3bQugpTaPbx2qu5VjkTDnc/
-L0YCFGu6AR1lfxJKvJ+LOjV0UzNJ7aKUeEXl/1YZdkNNzliAaj+WYee1VRl7ZdWf27g2PpmKJ0bi
-IRwTmKyGtts+miZuG8fzNDmlz9aGQlRpz/TJvofr/vDxXDnxmTTbEKrGt2LnMpaN+7cnsqo8Bc2B
-gxCVL3agJyRNiLQLL66Dw8cjifdnLD3mfhvq6IwlR2UFucVQXe+SuC/wauHcRlg0un23gd4/A+wj
-HgPxETTr2iC7rzZ18M3iyrqhE5yEw2IXO4HKmgId3WAoHM3pwXSS6iD1UdmH0BkuICeT0K9xi0Fo
-Uzbcq+QmEzKRB4Am4+WA6XVXwG6CvEvGcTVY8fzJgxpvOQBLMMEJTl1PZQFodNE4Wn5ZNiu6S6M6
-mjNE8tFFPH+JYvJ2sqz4KZ87+9BlGfXTLPjWjGkI2w4RaTpae8vKN7FJZVZDauWJ7ksecDGie4JX
-lPltNTgXc4CrNi/TerOwlFZo4G0kw4kuVjBm+lXTC/sASLjzRqM0fGrbw1pKh/6JKLPWpPDs8xRT
-LR/YDbyR/XrthvSOsEOEsZyrLm9LIBB3IWU+28FQfHJonZhr4LwhJJucWYT8R3MtyHvAgM3Ee0mU
-FjeIq+/56rQDSBp68Y2BPvgfT7n3AQ+IU1j8pkFnUv0dcrMujb4fqrz0XUcae/Kt+aYOG3lu6ZXc
-BU4ozyNSr/dG7IZnH498YvkSzangR9HivL9zNCEcwaizCtBR0/S1twbte0295x5oRPLy8VAnHhKB
-x6Lbckz+dxw6Uhflvjl1hZ/3tCCMe40iHpUgOtQlRbPHfhk7XkuBfcIpR9L+48FPPCdxlU4/KmAk
-cEmPprqdhh1pp6Lw26CE5DoU9+EYIvVIpuaPwwDwPqwnG4URXtnjBh/kgNqw1JLMB9zwOE3FsBbO
-2LGKdP2PpynhBoIphFHcPtRjsnPVlvAukNSiK+iGNcJ/X9GTq2EwrS2Jp59/+gINVefBBFBYqsjH
-x1YYZ1VhZDWPBZHFV/Cxw4pCa+otjK32k3f4fgEyGKENoYFJQfv4+IKFpkVWl/NkinEf6coj/tuf
-yajfh4P1SQyyrOW3kTdDcS1F2yjY8187bP12ruQ68LZCQYihVxme22LjgmKiVWI/r+aiP5Cm/Cwa
-PT2iSyhKTzMW3fHxYlS2Uy4j1lp/SN3qCevnvd6kIKwiK1tFnfgzAjjbvKESeOuvUQcjLm/7t0c0
-W+4dMrBTX+m6A11xfcNIr1DVfjLM+8BmGYarIepMoo/jhELvqGMc80f7vSKUe8UujH01ciJ+PA/f
-7yKMoqkEG46AyneMFUJcCtcl0QAF6mS0yPR4EE7+tgvrJqklBXVn9vSp/GSXPEKMLyclo7Jx2KZJ
-k4F3EPUgx8rMtS/1XYTwqyFzScMVVTpfjHASIaBSxG4nF3OtUhopCN7ZrSh7qfYOH224p+NZth0I
-i+bJrG9dIAXrsKoIDpawoC6FeYYszvriCtCF4IPNT379yQ8DKpUZpzkuTe/efn8kCVFGZSPzyU4X
-mwTYxUEZyXN+/GHe77C8InSVpJRcYb8LOXOj5hih8bJfSDujh1Lvq6l279jys6jlxIIFqEVsyz5E
-M6WjnRx0KPakumAjGisdIUsQ7UcLu+jHT3NqB7IIAYBZcinn3R2/MxVWQaekiIdaulPbHFP4ZOSm
-bbPnPjH+PIrmzohMlCMD7AXYsLfDOTK2egRXKXfH4Ofy7prYusmb4PHjpzq1eBxWu40kl4vB8Ykx
-tmmhzSWLB6qMc51OGiW2wPxJsaXcNqHp/AAEn+zJFv5qi/f/7Xdzas9DEUvXdw7f95ceUqcq7oM+
-9cNQXAG2fpqTcFslD0C77tiudx8/5qkJz7WHXvE4MeCZH73NjGe0rapNfRoBpLuchnM3A5D69cej
-vGKyjo8OXqItOI50ZM5H+6qLm7nDap76TjeoD8CAyq2C4ngFGKPPqM3Zw5dEoz1zV8r+qp6K9NKk
-CcKOlpBQ56YK2kKYVGutDrpNNjjoMbou+ex2q5188zY3bFambhL/vJ1ZTdCq5pDnnDajQZlA1k+a
-dEsPVVm7j23nsRvJTsDVoYhR6PFDOgDKCdzyO81yPExO8lANubEni+RCrFJwfUc8x8cv8sRao6a9
-9EKyddquHB+Imc1viEfCbSD42As1uVUrxJQBPdzL6enjsU68jsXEsMQVC2fsOIwR2gSzEEeNPwfa
-T5WEwzo31ad2ygrfdotks4AfPokwTiw6mlJAf2Y0lYc8miZ9k00jlCUeLzG/RnGoeALVDnWMZjFI
-TfWXuoEFgBqj9//8WTWNLCYZKQLE453SUKBFNU5b+tzVLmsLYxMkjBuy8RjJ0/Bhcszwz+M2BlzS
-AKBxF6PI28nGWhmgutalr0BZ9SatR5UAQf5mwFPt5zC7PhnvxJnDeMRQOgcbweLRq81xoUZxyasd
-e/ADmdEMa7Uuaxx5pv2/GQp7MgxJAkbn+BCtbCOWecEVTXPL4trMajyjtrTO4k7TPtm+Ts3RhZ24
-+BCWTL94+xZ7JHHFTGbAb/PuvovKF+yB91nL94vD+gZbs/zjyxEbGKYL2mUKyifHC1AbqbUJ4Hr+
-LGY0fvZw23TNuiIP8MlAJzZmUur0hlnsQ9g4lu/5WyRazQMKsIArYBaaj+E47py5vv940ps6f8bR
-rvxmjKM54SpJmmDeZT0ntrYy4rg6tGZr3orOopc4rQ94i+oAqggTJsyS8Es5NFiecbLuQBikJP86
-1JBFTKXXGFHA0XFmMzhT5se6bA6zYUQ3wg1Hr5j64FtQqcUubxFncbudPGSwwT4yHYoUUPauTW1h
-eiWU72/B+iC2KrQ23ZZ5u6BF6sDlAjWGV0mmEh2WcYzXNG6uaPMZ7XA+T3t6ePaXvR7lF73S9L6T
-uvdxmbYebzjd5uSKmlWEUNBHnJivymGuNgFuacTC6XBeGjrd6AGrbj9+vafmJqc4nFEqh0s71Ldf
-0KrbWtKMpfCRCT/Vo3xyourK0JWtnpfY2gEIfzzeqRVOzE2wR/qegtDReGY0FbUeToUv62jJOV0O
-It0PsvgkeH2f8jPIlVLYIjYhTXfcOpTOVXhXR7fwEZHfVGD10Qw6P+r0C0XoCwQpNIsS38Om+OTK
-pJ8elywtb5TL9XFA5lZ5nVeDSU6knOav0cICodGGcoPRRc02aGa449Rgszcy7et1ViASVDqYDlYt
-+r2Jyt9MBmWvw+LcatLAAo8wlAlX7ah3UsF2k2dTo0XiMCIFTO05XLtSs8i92PM61II7kRqt58xm
-vaLtrEHvg7midwe/Z8HKv+D5oKczlPVdNQ71FkcXfx/YvRfR7XljK7Z4wA772ac49cUxXGo25Fw2
-itd+YL/tEbHamnmR9oWvyqeJcu9qGtRdqsn+k5l1ai/6bZzjwKiv+jwr3aHwHRPkYUG+wcujaPPx
-9F02m+PNyKK7JXUF6m2wXd8uF7Wm/UptNIVP0QmUpInDXBWPMKrR1LfTJ6azk4ORr+TOAkjjXdhL
-GxNkuWCn0N9ZOTfRedcb1RYFKFpqGX/y+k5tBBZpf04LLHvvgt9smnQrQUXlN0lzQ08Ly4P19lhm
-zYuM0SxE1idvUjs1L5aaNxdYJAT2cZ1mpusb75c4LRmzCJeX0AA+NsMeM7uxLnUl8o2qlh5YW/02
-VoPIn0JMDSEm6AsndNItYL7pi40lCHtGEMLQ+PhLn/x5bIikkcjf0nr67ZcexqBV0ogwZ6irF90N
-HyLR32XgQP4349gON0Wuv4tl7u04Lf1oogo9ns9NtCKbI5+KSQEN1jWfHKSnwlaSU4g21OUv9rJ1
-/bYOdegLEP3n3Jd4RqIWietQ3DSleUgc7Sor63t6+n6SqDg1gX8b8jhgTWYjQ6On5j4okV3YlS+0
-p0DcDtqi7D+5c+in5i83UopkhI/chY/uRXJwjGoe7ZxtRkzfZQSsIYZB1Wea45G+DT2lUmIvZ0fe
-xPXiNVC0RZnZIPpz+/bRIKnyGNQOgBKBYwFXGz6jSDZ34eyWEECyzMuD1tmO9uA8OCa75soqWgRT
-Sjuu53RJbZbib3UQ2FlKZz1CT03K7hIpTrWB2fUCH5vGIpMeb7p8EncVomsOe2zfH8/aU2/BXZy6
-pDiYt8cF2AzkVAuNgsivmveznLWVVI1Hs6IDpCkeZUxflY8HPPWJF2cWQhmbZOvxa68SLQRixzKJ
-a1dBF9c11ZaGW85aDwN6jbWLJv3jEV+1E0d7MIoZwQOyXLhmHn1pOkFnVEmz3Lfy2fWiobPujEjr
-vQI0+lkEmO2hErmzpjvo4rui8uBEMnvIu1luwGa5O2UYUK5//KNOvHeCjcUC7WIMfHfldS368Er6
-C/hw2IxN1EzWRRERNk6AAh4B38w+usjnj8c8wn6/JjFRJZD1WXZtmObi7YoOR3Ougp4V3c4BUlbg
-fVsEqfoWZma7o12BvmKmoJw0s40bNpE3UZPBeWFo649/iH5ir1x84cgx6GhIoe3oh6hII6xcxjm+
-5USnNLL4GmI9m2/QVoMS5s3Ye5mgRsZiBQwmI4lMSxDqqHET9degRdTtNAUqTX4JvIWc1a+ExcUu
-GphSOKbSLaI+c4ck/wXc7Iotu98YVhJt0Aob60YppB9Ztb0Zo85eO+GZKFP9LgVrfsWyxYQ2sRAe
-I6dzD3C7vqndlH5yMT/1/FTA8KDbS4X+OHFEui3JWqnz/Fk60iMoRItqjfFjrCnR9uN3fWoohNdo
-DXCjc2wcBSAUnYCcL8eSW+oRHYScxc03VunBjbLw8eOxXr/b8Upbsr9LI2iOwePrPw1bsm7IYy4H
-vQn7TFIwxuxF461dAFB7DcRaO9PgUF3LUQyXQijhjZCK6xl6Vu2qQm3+FdX/G9/wKb7BYB78N6/g
-Hb3h/zXxXBZkzl4KGcvpX/yG5T/5hW/QVPcvlWy+TsFDp9X4csf+hW/QNOMvRzNe9xDCTPJZ//xH
-UWI8+I9/6vZf5M6QZ9Dy4fWf8Af+4jfo2l9kY2kSjVKExJDm/PP//p83ueP26P//A/XsNaGZbP/j
-n6Qk2Kh+m2dI80x+F8cIchB+3vH6yfFXtWNqDfR9qzBoW6CiZJ5xdTItjGcIXRykxklty7nbpTQ2
-y9VHiOqQV1KMiu29yA05N6sFciI2GfFrNSSY24u6cu5iCyKVRXPgpIi1zquGEcQklyqaIRSYG/yE
-00Ch9sPRlvd7OG9520ODgsAkqwuC76SgkVxMOcjFg3Nu0mbhUCp5r+6Txck5GUFwn+h1BULe+qq0
-ZY/rtMfapo70jDST6jzJAcvkydhpGN1ScR8h+0DkEtEzaeXmA/gf2s26G7qV1cM6a+YQ/EBmjbcz
-mL4ntRK4VHip/QV9rRePbCQH9te+i2fw5aGa7Yqxz3YjOUlnbbplvLfysLYvXVf2OKYnldK4ouBG
-sfCs7mST4hFQlk7IUU5drwqaYZvMjT0DNyv4gwF/BaOX90F/Jcyg+CaHSbsdLLpw7kqELOuobXHE
-hKBdR68NKZy1ad6sE7Puv9J+a3oIljy914R1Ne7Hkr44aERMHhQkYCe+IpCp6SCpZbtWWM3G0NJ+
-Y4VVrRElNOcDbTAXxDwdA1DjRdViJzX3VtDaD24yjecCQ3y7i9Eay23U4iBe9Uz1NT2BJ/WmttIN
-O0+R73SZBZ5VmiPk4kTaeKySRCGPA2gcXofRlGu1w1oINzX36UYUraGuds6WmG/YDDIpPbpl9OF2
-EjhpF0pmZXpamw1/20GsPs30mdmmJqtxmwZxs6G10vSUwwwRW7olmjusftWdVjTRWWrJ7CvKfGsV
-qL02eJUSSprKRqG6Fo19RT+wZt2JKNjARcZtAiRIY9Joo9ZvsPXU22nJf0Z2gwvdrIF4B/jScMmH
-h8jlFo/vK09pfaoDRTejLvupJgqWKDrR7GUOQZ4CSfCd1QCfnLaX7jMCGC3GB4k8exfKWtwHWdzt
-hya3tyKD9LVyi6C9g2X2Qx1MZd1PzrymqzmkMlZAvC9t2IKgzUcctaGFiSa3MuOQkhf7RisYsevb
-iFSc2WLFXJu9AEUtckVft0F9D7W/uawddX7GZR6suzqcHrq4yv1gpuuGpyiqm6wqBapXXynt1YRX
-8rI26ZOJcC9J4pXo4wD8ROqstSgov1hhLVeD4hZ7sNLho6wXxDw8tOw2NSrhtTPAcxi9WN8d5qGN
-gBNLTKremFHdeRNtRNxtWRhiYGcJtODslQbZmbK6avLA3baWmr0UWjrta5cG8+PSV7sfJ3dVBPJH
-osbGmr6Eg2fCAvaXVpwkFMXTOEyPNIMzvSIN3XHtooRq0jV5FL7jsKpq7E3W9dBiUmFYesF1/yVQ
-+fep+NmpiATiw1Mxe3p+yt+eiq//ya9T0eHko5rI4UfJgVqmyt3m16noOH8ZpER14mrE20tO5H9O
-RZNT0TaXa7TO5YPOVv9zKqp/CUGF0qWgijKaBNGfHItLJPfboQhQiRLk8itUKp/vrxSJVgmj1Q3F
-dxXFSFZxgn68c432k7TAcUC5DAM+CWcFG8KSbHp7iZi1tpnoBKBwiTC0e7oXwz/sVOcqH3olX/32
-/q//9eN/P+mPL4uMRfGKaJLkGZeF11T/bykIvkXCZVsPfGAE7pVqNf0FRXQ6R5Bdv66sPP7sWqa/
-yzK5RBYwoUyVm4mGME57+3hjiidMw5Tq4/rEJxbUpTwvm45jlmO8NCEVDu4DjhpdbFXEV2CiM+zC
-OwsAdbGrTcS2Zt8bmAfHApof9TcC7xHkweQ26nNBNym49zABAGW6u2FuOOutSXh0ziwOEBLzmyzN
-3F2mNPKLJq3i4Pbcj5WAHgfBJONLI0zIzephEe1A2+T7OGxpxi3b/EbQi/GFet/8EKVG82BX4QUX
-l3gz2FnhdXQeoLajpxcUZSzHi7h1kbPr8r9nfS6vZn1Ivgg1TlaFGmRbE+M+ZEmsdl1ZDL5aBiXQ
-p1rsnB4TYFNPw0bjCrHKpN6e2ZosL+GfsgHDEnxSs1DxM2thmzfK4NdcvcOVMbrcNx1FlD9aJ8/P
-rTkfKe3OGE/VegDAiVdmq7ai+Ranijuk6zFq7BaC0TTQsfMb5gJzas+jokq2dkGV1hsC5rmnRiUe
-XlXPi+eusatvCTrax8RNxa0LLg+bnNq6PxOH1t14UxsYKbmYSiRD1Jq3DWqlhWahR89plDmmFyNu
-u1IzONhAG8Ly3O6G7gyx4vDgTHPmLcc3tPSla0ky02fEgNd9RbPN22iMVcxFyXQb0cly02pq8402
-9f22hGGxdXpLMcGTWPnPJs+jXVREP6aGon+IovosdB3crdoM7mPT8nKiIsguOKLmR5Q8yo1exPO5
-OtOSctWOWgrqvVeVdRonARiqkt6LVmzuA3wXPhbGdqNPcXquJmH3MySAfU61Kck2czhbxUaRsXvg
-FbR01rZ+1DKjyDU0l5g6YTnbhAOAbMB2GmeBIrEOpeEXtwVGWQdVtlMq2DozgHkP/Ak1McwPwI1i
-a4Xn/CxRGgO6gcRRZalO8kQXuIB/2f6uB52+jkprwuFt1bcBtKRzK2qvzXEYtBVZR4OpzeoZgWxe
-6KlBXyatfxlzW9majSIvUlHMUIFgBfBlzecKq/cVVFJavwHFuK1NqXg0Sbqta5cEmTl/VbpGvxRz
-JDZimttLxZ7nzeBawx1Be+eFmttvp9y4KYb8ER9RKfwYMWpvrHDyRdOPworpoBT0HYxGC2txkq0m
-pxILMiHp12mYp+bGEuQBvCmrrfncGSjp7zNXDafci8JaVbF6QWV8SNuB1sBQlEBEhbwIStHd1LfJ
-vUED3xDmEc1JSezd25OMNvBH7HANIYyioxLQPHNl1qq1cqVTAKPpZ8v+OioGrdLpGyjAvjtDq67B
-fUzOtk3auDZozCzpm5sOc3jbp+bSVL2K+/DSqhsSVmXeFMN1CDbe0Ylf6zY6cwOlhwJAy1zzm6ho
-JpJAXA6UaDNQ+xIPCZcMfJ7kTuyf9ggxfRVJun4fkH2HXXOXovLGiqi5bfpNMav0zu3zeNeoBdtw
-mdum36vkzexgUpZOpSJAx9tZ+sEc+1JdDVg6CK4UXPim1EHCi6AGejSaPrGfakMankDWkqDT7kVU
-hsmqrZe/bQdWcDdNOIcsUZBSgNNTbWkgoe/LjPZb2Kdhj6ddhtSwVYsDZFF3I0ndFV5eB9yFIOCX
-Z7Vh0OrC7m1tq1ltybUpBnpeudJDogf5jYw6oWUQuN9pO5J7NReDu7lVA7hFhdJB8u2H/GbUjerF
-wORwzg+JCetpCgscH27bmr7PWbRppqHcO0CJrjIztp7Q/PH7dDj+W+4k+Y0ypDbthugpXXgKjbsj
-XobM/6aVS/agq3K8ztLEmukfk5d3YR7FFRCpklvgWKZWx7r95cn8dxT4SRTIJY/0wwfJkbsFOfmP
-9VNayjex4K//8Fcw6Fp/4Z3DIQBBCUsrZsj/DgbRMv2FNZNgDO4lovNFAf4rRWKYf73qfh190aXp
-i2/rvwiX4i/o1whkrKVOCDLS+pNYEK/k22gQ7TklR5X0iEU+blGjv41jXLUtIH3XChxzrb9xsKts
-ZgOOQp7N6cZeVPfq3ItbrC79Dv8/cPl+AtGlOdE6TMsBJKKVn+lczDytlo6fxipw2iBJCiweNNuz
-rSLapDK8DSvd/0/2zmQ7biTN0i/UiIN5WDYAn0nnLIra4FCihBkww2QAnr4+KCuyFarsjJP7WuQq
-xaDTHW72D/fezy5ZzhLhW0XE8H5SY3mvTHsIS5X6kVaaWYiXgDz43g4YYTRV2NNikSNtV+bT0JDY
-LYTpRauV1lcb9dlzYwUwgL3BjsHVcznBAFt864VM/x/YISgLkvFhCZbhsWhdBym/Y0OqKcb6Eb7w
-eG6FLy+LlxEjP8ua0AdrzWNI2PPNQs7TqcYCvCsgE50JvQv2Qz9auEza1Y1T3s5r56IvDkm0AXI1
-AwQjRVFuRD69WZB0dPpOFxuxypHOjd75x6oyH4WOQ9waAuO2LkmFTqDvFHMwhqk/mLsyK0nnAYS7
-H3RRkyFptzu/MTqsyKUKc0X+wEbD4cOqL+tgl3vP0bxzTUgaeThJzfnmif1spnNDnAjVLL3tnO4w
-9z5Jp5GxWrJPwWKYL6p23BMCv+mtMVqT3bIMYn2xSN8WBF/rpFhmORFYUssM/ULClLU+NZ1VluMu
-V62vfSMw2WCs01ajtu5HlxDxcGzafo10B28K4T8DjfTgUOZIq/GvQQrdFVWMxI1HOyDVoTb77kg8
-73zw6ga+XG7Y3t1cN8Oj5g36EC65VmdDCHTIgnuQ5s6NV3Z6VGy4JVKmVg3xwYRGJiyIn75qcDcE
-sVT1PKfroRXd2nW3bVHlWkaED2kRHmxva+o9IDzT3KzN2Uuawe3eWjNxHruVgMMSYE2bIwYKyRrv
-CvWQDGV9aKDGe+md5RF/ofaED+njerBX0Q2PQb+Yi/ui9LHXn7Rpcf10h4KuqoPI3NI6KfgZfc45
-L4B5kT7fAi9YhNwTNtiMkVHpxmvri/lBzXJlh1A0ksB6aOQEAWn4lljg4WWCZdQHuxzTDXW6s+Va
-rLAjwsGt4YkauKHDJpCEVKUb6EmayWNTZZqIOEmkCIsSPg6RmGV91YrFNKJaLPodF6s77SvNU6Q9
-yqxtSM1p6CZAKBzbpmIjsnpWGil/XJ66BMh3aGnd/FrmVUC0kXStLzKzzbhK6/RuA+HduTDud8Mk
-qITBN6sDL0C/hfbt7JgV6ru5qVa6o0bcu33XfApmibvFkwYbdZvAeWqcwOhOZlGghIKdd/KFpyG3
-6tkGhOkwO7GhYU4MdaPx+MhZhYaFQxxvaIB92gHUHB7HyWvucSGlpGfZpONMzh0smZQplJgv8J3Y
-gkqqrbefp/z/Xoh/cyEa6Hb+3X34f7vyvenf+79uC7af+XMuEvxBb+6izAiAY26T/39ehYH9h2u4
-AdJe2BOOz/H2z6vQcv9w+BFcbwgPETr+chdapD0zYnEC7lbmJshZ/pO7EF/IX+/CTXxLJNK29UT1
-yyv9bQdGGKrJtG+0T07lg2V0tOnaNcN0WJNsPlepdLAZtXjsW6WWD3in3o1T2qCDEJyqRzxWhLP0
-QnuvvApoDxa+68oB+uwybyTuSbiEdfW2d82qqX9ciF15rnsHsOg45dw2rvGlFYm/q0gXPjM82g0L
-0e+0BMVxJuojZ06DJjLsR7F+00WpRTm7UZOOsjSfuh7YA4SC5pJ4VnUYyXSzgEfcto6ZR0GVEGpf
-1NnZmHoIeuRB1lGtuVbMWo0rRNL0I3ec77gQq4Oo/OBm6dOpgFc2mw+zNgbAXkv91lhy/XaxFm0K
-p9aSe9Nj4M4dkn4mEDK4Glp5b8xAYxLTeIZm0saGC2qjkcCi6N6F9cNaFpJ5anJhfWNqsHDW3QAw
-2bBpdsCrUyXNPe63fDygsxIfitXF3uLuwRTasY8Y2/JF2oVLYG1lFwdRz8Ux6IchVraqY91bjGgw
-zJGzNU9gPmTqYWjz9VuwqOUznB3rIUV4eSRPqLu6VjE/IIHPI6Su+R4I2nghlFJ+ra1xjsE9eXuC
-raYDWX78GchPQ7vERzI1Cu5naY8fWmCxYnaWyAoEmaDpySaacTfmlR6W8Czj3km45EV90nztBJ4D
-G49s6danTh6knJwfBGGhDymG/DK4tjq4epCczDqr743VWxn6cx2dMyL6iZtci/EiODA/pUsevHkS
-Sy0rIgGojK5VTEo+B4mdc+66+i2NH9QlWtz8NRns/qZAHPiEcVYcAEeYyEhlqx+ducImXLLxfVgX
-L78l6nbdL54HeI4e3ntsckHiLXFdfpxzd26IXv2eCELv3KYDuVSb+ubbSNFzTVy3OsKktS7uwASg
-Fi5IJt/LP0uRGdcmFc4DeIv1OGdEKOraZF1M5bTHDpzz3WC3/XOxWkE01311qrXxJJpkw8c1jn81
-pTDfGgrgW5na5Sk3KkHIVIV8tQantld25txVQl3MTNk8jrJDSD4AL0mH92z09QXQYmnsCGz03qWl
-vjtyrk/pIoBMLrVzamVCFJYv/HjxGvOTZZffFmUJpDypbb55fvPcUg1+6nuxAOZp9Ic2c90GQkai
-nR0Alew1ENFfswk1aqQ0V76jjCjuvbSUMBgo6b/BXMgOzcQPpWtevfg5gasT1+lOn8r6Qswd2G7L
-Yqs2EhyMWK1+8qx++Gr5zPHCATvU0DYnBvvuuYUH0jRsHWjza8qlqigfUBpXj05SHd1FDUSOrs0J
-FAfYCDGW4chh+Ta0QX7y0IPuKZBkTHoHkLtmLh7pfsm3BvQVWWWRRWu26Y6FU34G5j2/eI3QHhC5
-tBEfqKeTiF2S0AVs6J5KYK8qV17IB/aLKCBZayjqQ9KD/QTyUYGxfCAsffqsJQoElmsZD4WeWscG
-X1YfVUqfro0+dd+4wHklth4rndA12GjzDiUVQuqMjfDnwVsoX4S+VnmovKXdNeuS3q19Wx60eUCo
-uiyOF3UTWcSMCdEQp8myGwnlYrPajqMfk4v1kq4LY+0KwyQNfArpUOupxQLR6ReWguJ2aRJ9Zxja
-58IsOz9MU5ZE1DiMFlzJyKpr3KjS8lfmPvqp0oHasG6ToUnx/7Vys/WStFnw4ICGOvW9M9fEm2nD
-Qz5oZex5TeSwFn53SYs9FJSB9zrQ6iESYP+uk9/qkY9DsApNv3J3gHCDTwG3xnWFf/3KbDO/ISH7
-S7AO7pEbcY2okiayuuycR0kVNz0ZyRE8guCmHu3ufigSeVvoSkLnySsIjLXYtUaf7jEepPFqZmLn
-9NJ6LVVtHt2Bv7JL/HafzYX5HYf8eKscPKW2JbfLBfTu56yu8pfBNMj0Y84V7C1S3g/g5sCHLbjq
-NSPJ7g2DgQTUPiecUjk/UQOT+ZY5a7wsg9j1s+lfkCQSHzrTSVA+F4oHjT0lWa2Ih8VWRS+pNR4a
-+IanMljFC0n9h9wQxa5ckvW+nCx7J6aJge0y6CsILK2x8T/Ne1ei7TOm1DwHRlp+gWFTxoohdThR
-Ut/mfMUvfWKKI0uXuSVvvwveSvIJ4rpR+ucqYVLPyZSdkoFwcnrx+3UstG/C9vSzGHxtDx2zvzPy
-pjo5tpbsme32D9Wi/Bf03cne0KX+lE05dffkAbNcoKjuLfao126RX5t+BUS9jhz/YzesJKrOdnqY
-LWXEK3EiodlrF6fRTVrNBrAj/t1WObUWEpkOrLqmZ37Ylqrc/UWRPo/OlspejIBhkZ4Fw4NMsWQS
-nBvk4Sw8IpnXvgOy5iW+/EGmfHmaqoykwllpNzmQViC39f00NeVxcMY3p8O8w1lL+4z7bPxaDu4b
-vNp33BU/vGp989v5Ea8fc61VCX6frE8dDK1dJ/NnU6biLDLPe55EaX4qC9V8Yykyv3YJPzg1rsaj
-ni+s/88i5a8YzwLZ/zQcEBoAPb6l1AKuBG+u1J1dbraDDUIvz25m0/GgTs2jfy8Hubifezf5Qa6A
-RaM8KT44Bm0m6wzWR3S3+mFcqHoONdSd21xIrX0THKDUXsEUG3NS7mW5pPXZ18oOck5hArW1ygv6
-weY8drn3RjCh/KJ7SVrcJzhcL16G3wK/zJolB6YcFYO2uVdQ9Gg7nOLDz+Zee3FkMjvsL6YEyKUG
-T/gkyV2KG01fDh3Onv3k9q/MZVXYzWlFD80nOaT2K75jdXRz4QFcHsYr/3LeB5VHOVll57yzITiQ
-+BjqWkvCJBTnT7AUtSO1yEuzZuTQ4ws7c4NoT2QPp4DYKyNKG2O5suKX145P87wO7FCyXL3bJfHI
-XeBqDEq08WA08wKSbiu3rJU0Xug43SXPT2WyLz13iac2GY7+hmUupZ8fejaNxFTaD/Wa9XFBo3Ra
-7XQ4wVNPzl1t5udBBzluIFDVPUPcsBGADJx68stokTUCDW455HLKIabRqQI3R3NAduxOJbaYwzYr
-ucgSAUqZj/k4ojhh8WOShaIn5M2PCWW0KAVAXgQwlvHh+o3rv/b6SJLxN4YZsnReEgmjciC4Ba3d
-/wJ7/luj9XdNHIvff7vcPn28Z+1fWrh//MSfii8DLI9NG8Z6myQJhJn/7OHQqP6xGWMQ3bPz3dq0
-P4eZiMR0Bo34if0/R6B/TjONP9hqBy6dHX55lL7Wf9LB+T/DfX7ZbdO60b/xsrZnBqva78Lw0kjk
-iEbFvZKDSHwOJY+8cJot5k7zDWqHbeVCPlBzBnzlVk9rLpzgKzGB37N2dZ5sr7SQ5bT0bK7B5MPT
-8otjeTP4QW7sJBQ8o/UWJoNyW7NWJotaZaYSDDvxWi96Q7Z82Ex5ZdUX0uP7wzRxol89M4PySP6W
-v8/B/J3qZLEij/M9qhcjjRuEs/HW5e6zHNfdrgjGh5KdQxdyt5P/bglx04/mcFjcSZ7NoFMfgHa/
-2PXgf9hBr79VqvUOusjFl64u9ch2aoJ3rP4d1AskvdnPyCL3TLRD65LNR120NrQxX7s2hZbM1CzT
-PtN9EsejLjDTCSigGMmV2wKAyec0c1XcaVlmvk5opeyReFIjn0XU42J+XHq4fASGImUb9Fe2GcHL
-7MzL3dzM1kGYwes8Q9qeoCok1lQ/2IUmj/bYmVd2nKT1A47D3JpT9UwgIx03y28DrXoPBumMvNeU
-L8ItL8xmWXS32vS1L73ktAAc3uNOr75TrZALg8nguwXYHjZg35GLY+bfx9HsdoHK58+Yxbgo07xg
-iiz8NJJ15X8xzbHcOV6x8fPa1zqvX5l25reo+hg2ZWp6S+As7qB1gAgtcy9yxFZ4e6pBv1fVk2OE
-Vh5QsK+zvamwMnHansgXOfXu3jcS6iPAmeXRM0c8HVyeXIdI97g52GMe9MniKEaMyJLLLY300S6N
-8h4U3nqXqEyPMvycNxlbXdyH+uzwW6x2FyBXP9hFReIN+qf8Sbl9deMw1LvJFte6NQOzIKs3Ufeq
-k92+6XtYy5sDJuQiRKFYauJHQDoBo2aFxLamKLvp1iQ/zk7T3wwJid7Uvir9yMxKi8AVOceM0SAB
-96PwCIANMiLFB0+/qmbRQ7cLqGC7xtSbSLpkEqd+P36yZnZvRJYD3yytUhLdrXvAO9OMJN/MdBht
-1lrB9s8MLlNN6x4OAutlNElyewM13+SSF0VziwdzXfqXlDV8HU7sBH6048oo3K+CI2MI96ZztA93
-dfTQAt1chMif3NBCQmCSnZ/WkSUssfcKPXjNJ1obUoMvpPbn97UPWAgzqf514krb5q3uN+jn63md
-6ymL3CkjOb5jB98Zg/qMBci618rEY65A9QdAkojVplTLpSV0cIh8P2nPvlsqEYM2z3bLaK73nsPM
-ft34sq47Y4CbLfPU02I8Vjp8W79S4ycnI3E8z5tsAZVTaqEXpPlFE9YC+CTwa0Qj/EkuLBIdsHfQ
-R7WnZLh207IDxF0c5oF2J1f++gKqmWhLJY195pCmnQUk1neDndxmftPdu66MDXR2z8gk3MfAGo9d
-Y613atThLsze2Rn5WkM1MudTntTq6Cu3vS9qLCaGMnqEb8JfnuizxS2iVfPZNGXxJdcNGWsgO8NR
-YabyF3A8pwYh79NcSDMiEzeyMKfcsplHvtiqh9SW3c1SiCLi8NSvPUhoUn0bJLF1jipPZ/FAPLt+
-WqXxYRBFdBU4mU90H+YJvrXLYoAUarKOCbzmQz50JprKJBfkxQhYl4tpDU9rkC3fyWcXEVKCBU8E
-m3s6yDrnUyTnGmNDhj7FKQ8EB4g4TzjIdXMdLqhk5xdEDfZeCoKYXdQXt/pMEDMOcXUK0kzFSRn4
-b0ApcYcJVUXaTJZYZ9N8xUXvuG9cguuRYFntu0HlFM4qs3BB2OOPIgEibjt5+9jTN0eCicXQSv09
-XWugkhRTsdlObNKmnuW3SGT2hpN6uOnq6nFLaUKGSY9ndR1jpSod7lcChfeKzP173ciDux4JgAyH
-MVl3dkrSYm2T12dasx+jZJziEbTid8reCTXP/I2Cc4pKzkzGe6XKos51tJtMI1O3FY56FTOAE9sQ
-66PrqyAerNZleJPx3bBcMqihip+MvJyxm4waBxaFrnJy+0tZTeinPZlfDbLcGI+0xruqUzumP39B
-zAHoRy3m0ZkI4qPKTZynPDfmmJ7eP8EAe1x140T1oJOabBmAcfWFD7ghSTqGnPSgRJm+ajN0BPZ0
-fbiwPbzHAgETDwiE+qSnrjwHlvTOKXbinwTZ4Mi5qUX9oN/0nmY9rut4P6Y5cE/c0pdx00w4PHvP
-7EHqM5FeIV8J+unAaJAXpdkp8LXHku18NKuu9UPL2tI4m9Q/5gwz9+zmql1vjUBB/OSGvUp5aN1+
-PCV6wQZm1WEcC1Iv+EJl+7EmMCwdoJ+bcyV3M63+TQr1hKsoUe9ZrouDNunuZWUd9c1g3Pa1Y1p8
-dfruAci487T69guQ8v5Klh16ZmV5p27QVuwpHmGCjje99ETwnx23fi9WaClZ4aW0Pnl7mDbnybji
-XgpnYNNnuDGwZ/PUfuzTpr1fpVPGPjfXFBbFg5EyWtNUA+yOWxnlgZFMrwZwl2O1Ts5NLfICQgMA
-JquQzEf1u9K1P80aczbdr6td3pAm7AF3eg78VACi8OWd8AeQLb2w9rpMvvtlyhFI/vjB70k3Ullf
-Hfu2Wm8ym+R3Zk3p54k0yNDrpzYWayVj23XWH46snsHJNJFZFt4TOirQw0Y5RLy+JXQL63biVN0x
-WPzCglgjM9DO7grRAsjRlltcMTdLYtgvFYSTswRkt7OxwoPUyYJ9PpfJlw4K7MFGV/dl1hoXEsEY
-QHjCHO0pvO+V239RBudKoNfGPlVTWG5YuWrM3rXRWaDcW3ro+QW5+8ESEhJXQWe+QDayabzberra
-VZtGma+3UQZi4KXQ3OaJoqq8NNLf9CxGgmRclfAj23YwMFGl4lrhq6pdSxz8We9ulQXNo5kdDQ6V
-Xe/1zEyJ4Ww4dsxiPKZJge6HKZB7Lx1U8JldGfvZJ31hKQonYgb+pWeIAhypc8RBwVS+E8rDyw2H
-7tyCAN47vprfRz/x2avLlSIF7AgtKGuNhsAWaccOcKxvTZmJL+4yRZAg+vc6DZKYF/IDipncF0CI
-CIRpNEhW6GGiuii1Y0p8qBvRr9Wo5xiT35LgXTLzsd2dmmqwKSiTPpIBJJwNJIcrze2GkOis+bEs
-izvq3mjIt1gD0133Ou6f3aoS4wz4KkUFTbWZ4RY5Jpam/8C15IQDsWThODBjhCqV7lAfdiGlR7fr
-q/LB8Vb41D0o9UtCnE0kG9B7Oh/1l20uRg5Ukuy8ZhQ0+ktfnrseYGGaaX0sVTXaofQS77PM9C7Y
-GyOL43zVHzxm4SbxC2lxNdRgfGMAU92t88yBMJlVZCWluU+aFSjPkz8nY5HEyeRn7bd8rCf4KqgY
-SLtHI1WW9jlB4F1ehtkP2me1TLxr7fAxa2B5goZKOSw6FzJcGlaGh+mQEJjYgZLlxUuWNrGGCn9g
-6LbM34Ursg9FBBnMsd75zM+0X7RUMes1J3GCJ8ieyJj8OdZ7Pz+Pky9vpeBft73bQtXOQwBQ3Z7f
-qN2WQYDyLF3MQ+45gnmqmJuPLtGNW2AX/sk1jZVvMM3c1Rvd5zXDPiE7x/2w8YMi4PNWcUmcQO2c
-Negeu1paYeHW3VmrRf2gqyyLXYvZIdMANR7tavC304BJhGzNGKYOLDbV10xg8y18vbJ3XuWYF73p
-7XOnd5QAaKF3fpXNseMuNfxtjd+nl6J9mfPJfoX26Mxhj+ofvL2hsZvRqzLSeeceFbLJKK+G5U05
-yV1a+LytKK7mJ3RfaTwVKer/YVxZaAnoBUwwwHYDlJNhTzb1GCap8O98buFNpy/HU9GTFBX2oqnP
-M5qL59SvhreB0pOeiRHt0qzpU+2sPTpO3uykzoqDRoBCGjosda5awlArZBCELWUU+omxrnxKklof
-4rzln45AikCOd80jPLUO+IIhP3VZZ3w2kKh8btoUOKKn39gmagWyBnXQJ6YQ7NYCpqTjBEErqMXT
-xNiqiZNENN7tOGdoGDP57q0dwaz4l1OQSpm+Rgy1ufZzwIyKNwT+elkt1Wuhi+LFL1RyYEuEYWQZ
-DROX5DS8wPhQH5NmWBGq8fTS16mIeUXNnoRTvoRzBzm8cwdnQe/bUetsO9Q4yRz1daXqo+LXMGbC
-0FjupeeXGdyXKn/s0oBKTK4d8IJiNHe9r7GsIQvvpEDlnDJIGDcO09YT2ArvWjl0Dt7s8jDp2tfK
-b9eXLIWoFLJR5o+zFg4N3SkXJvaYDXnylR6thbfeaUu7xnBhksOwEdqbrU6yVp6rbkV1ZIDsOCdm
-mTOdN1mn5kF7bIrEQOVjoOLmbaSQNZzuxtlwUHkDIZwTLN0Fi1Q4W/q8qOXnFnt4fQehord2FTE4
-1q00uAVYSfUZI7/M7bcEGdtdP+D66uoePFFxdLMWhyoEh+V1aGYxP69KK7hftYGGd7gf9d7yzN0I
-68UjRou4EXXhLel8fw8pKXMjqzdaFj3/p7YxyNiDNl/XdD4kmkf4D76VT78s8f+Ftn4Tvf3qFyBY
-n0xIdvIeVRnTnU2l9qu/X8hZFZAS1DXVeieG+oFOCwaOx0pN8/04Sb+YtXWYCvNslc5es7u9kxk7
-34MqNa67vh12/KkHqE1xCZrr37+430wG/3htZJXhtfCQFfye9VAbk0SKjkdUiO7qCWpFBPl/FwHw
-r34J7kHbI4qW3L3f3wCnGGaa3kldc1MPt/+5WrVvvHb/82/5X13J34wkGfzh2/z/m1Cj9yr/0RKk
-9BeV5T9+6p9TSfsPpn02QhGyqTb9yP+bSpr2H3hNGcGQUY9LZBtY/jmXNJGPbJkOur1Z6X6acf57
-LmmZfxApw3yRAIKfLtX/yHHzu6FeZ8JpmKS6kKeIucfcHLS/foXYvbVCgrG9NsqC6acS7lHq603n
-66npAe0/RMaZlc2OxCZuFqR0LyTubPdR0Mi/c19vks6/DElJqdQR1DA1IsIOH9JfXw1KaFEG2Tix
-ZW+Ma1qiUglHalkgzBOTDqpMe3zz8M3RR9f+ICMQafhJk7X3bEYUXvMRDAN9AdmmY2xWlfGyOoxX
-GVA6yXdj0Yy/y9j8+TX+/RXzBfcDksAId/o9DMLOPRRiKDmv1oz9LXbntXqZbIbAezbGLFKYTRpF
-nLMRoyZx8ZIvpW4diI9ejLiDKfXB3dhDQdOEE/fEzqAsrDM8DRTLZbpL2yK7L3Hx133AKoTwi+BT
-n8lLWSln3uW95t7SR0x/x9X5nx8DCbikoBL0x7MBb+KvH4O3ULNpouqvCHCDT23qG/QSTLxYgDfj
-fI/aJ3gSiVF9/uXL8y/O899PM28L5SLVAfc9TjKsaH/9tQgSU5vk6eba+KtxNcpsvDZ9F+V+kv3N
-zfH7xbH9JjRbugdJwwhIev3rbyIGelklPtSrL3T7XaoWGU8CM8sM0SfudDlWRPDqIAGiwnJU/Y/j
-9C9u8F89YT8fil8fGv5KLG5wGjY7HafDb7+eDMmcwhlH1LZMeq+L0Xkvq+01OGvd79wO9/Ki89Ef
-VCV/Cnta7/tARX1SwWLfzK6F7BTDU1tGBcPIFwuCNlYVf1m+C20Ssa7B6kSo29rd0bGAlvyNp+13
-hxlLNYIvODYsxG9bIMlmbv/F1Ka7o9M4TqLdGmNSv+fd0KchKquBfThSqiY9qywvv6Z+IG7mVWZ7
-5oZAGxigeT8GbC10ahnB5XYLwDjvLO9jcljl/l3GrvM/PmR2QTxEXL6crXw7WS79+irBF+V6lw3W
-LQZqkYBBGIJsZVI5Y4kdMMqQ1C/1BziCzPSzLEO9AUG5NztxqDZnLegJQACVg93Wq1T6qoq6pbsc
-hhDttHghWIQKQzYoVn/advPBwsKbFH1zVZuvV24O3xTbDpPgn8Zfc8rqo4NJ+tEs0ntmYQiPq9GT
-1wHT8ICFxIrdzUls5Ohi484eV4b+yi9uqs11jJ3cPmebE5mKClOy0sFpRTx0OaXOZltWm4OZaaUW
-E5b8TZBx9zTqGuWgqgGDJj29gp2Y5rPMDFUeEk/DHo2AIvka/DRN543Uvoybk5pUZ/NUto04GTKo
-PvKJpi7EDV0+5T+N2NPmye42dzbLa3GA7RrcSVXPO5sZ/94wNkN35XjU6hPqeRlNm+e77i3c3yK4
-Q6iEIdwAj3TkqjFVBFub8APylj/PtZ5dgOSJJ8S0OMuDQjMxKNfru++2tNE6lDTge3661+ZZfzc3
-j3qfbnZ1eBVY15ufNvZ5c7RbCm/7km42925zvOPzq48N/zTkAsIQjxV+8sLip1Ee+AImnZ/2eXtz
-0ls/TfUd9vrU3oz2in0ecrPNfl/wJA17a9hs+TPbtxu3XNcqeRiVHGoE0znJZd1HlmSmub71SiOb
-CUEWcM6y/QZ4tBgsNOnDSKd1HcqhLudzkEsizmB+Jqe6I+cRQGnVPsFHtk7FYlmbAx6VZIhTMpj5
-uNgVxE2ScB9iVVRyx5w/hRZaDUZyl+G8AvhRLsCm4oWpMOyFfrB4olTCkEFFI3fh3tWyIrlDymK5
-LJ0Yp/PAEX5f7xt2VkFYSS6vZDdPuYudiKAUUFEJnv+o7RPEmVkw0swrZKTY/RKqgj0yiprebXU4
-MRuy+LYEuk4jqaBf0v6+RzJf79o0939o4+Tleqy37Atz2x/960YxTM6NBe7OKaJmZvazHHuSELps
-J9IMGGgCf5vQvq5v8v1SufVy1Pu+FpEDeBmMNXv+6tDlMtciPlbzVRP1ajBbd0vyAMpa1+6qQmdd
-NSImfy3qOqhPVhcwNi2zwX1cx8Gy9qQImMYlo/nHXellZgasoptE88RlbJ2LFIXIfhS8gl07VOm6
-842ZBCaYC0Ld1v7Co63xVenixDDGc8cquYJ7a6Vj7LFuJdHB66lPmrWw1u+YSwMkdbyAOraWOpMn
-A4P9Mc09xlRmWUqLpjtP4nVMSifUVCeC+yJRhR1Z7KBgkZA0rV2wt9p7QySpw8sNPLEzlmxtT2xo
-Fa6KwM5w4PPvkLBjNuTxSS3JADnX1nCYc+1L1yztooU53yOIkCv+THDOk61Zz8CYzPHqigCBLAr+
-4dYhpbE6pD0ROFtwh8W7xQrRaN5Y8jbZWS51Ne975az5xRjS4dkuTOfdmZM6QXbMw7sfmxn1bO+u
-RHfUo1HUMWFyhH/C0IDAnEv2w4rKogCk98TqQn0VXWYdJ0+lyc6HgmeGDbAka+9UbTHvm24yriuB
-6fYDxC/j2Rg0/gUw9p5BnbGA/ZvMusiP3WyaiIm9tDfvcs0LPjW63B7OopD9wat6LJzzYg9+hHGX
-zyZTYM6hgnPoXrjBgk+s7nm6a07JLvaNYCZlog8SMJ0dofePpt8E4E3sQo23wzxsxScS0nuH2T0w
-N/Rs6tS264op1ayH9aCX3vbHby8dWvr2ukRtsIVp+CtGiQqSGOMWwmdQTnx12GWU+UPTeXzlu5Gq
-IOX/40w1hya7w56wdNiEgNfxcWN3HG9rLWNiiLpJznu2moykMLKY26HBlyniL+IAmQNjq5OHpv6U
-4FE/+1Oe+6GfOSXPxZK676qxeBlzhzHGGma9v6SUuQURNE1ZPPncFoe+0Y2rDFL5ZiOkQFRAYrF5
-bn3Gl5cEp+MUL50nFQXusi3XeVsj3ZMLjpzSuZ/HXm+PUodF/aqIaumP7CXrH8sabGcICpospg/w
-ETqaC2hjLPHBq6Yn9b5WAgGDZ3PMLZ3KHvN26C9BXW7DR7MzU449x/ZCdrjBp67QphT0UMPXZNUS
-KzjZeLwki/ilWc6+wSO1U9uJvSscjXd0Rr+145JR8mJ04KajJKiGiZvWmhimdywV6aqDZ22hTD+v
-KB6Mj6Fvlj6skZpMp1yZ/Kfm2gB8bavUTU/sdrP/Yu9MtuNGrq39LncOL/QIDO4kgezY96I4waKK
-JPo20AWe/v/AqrIlSlf87bEnXuVSKZFAAoET5+z9bXSIue/uiNUd+/NZecVtNmIBF5482OVMVvUy
-4cANSMaV4EiLvK7PK3e2z7ReZzybtCTDnsZqapJAOMxT7qhE5IvuI3pG2ZdKGv+JBP3rT3TyeAuo
-9pYOuZE+kuxriXGzUIGp+6a3NJ8PQ/aLcFXL4xMtaqZvUFi0MSg86SJZxnh3jZAsWvbd0MoUd80K
-10kJbrKuZkRnzkXpNmiu24ah0Dk5JvYMai2b5HZKGn61SVTYBrrFY5wpYDhujdmau3BkmtrtF9Fy
-9+c20TShihQSW6RWbvtlIsT4LkugjvA4pP4D93opryof+MhuMBs/2wmIm9NmHr6ayAGFgYl79O4d
-cs+ncHLi3j63o0KMN20k/Y6XO3f0tkktfk02DihAUos02jOvaxLrypz1wj1Gc+1zXjOTp/O805op
-LGXEmoEHeOjPC9wHbCN9UqHoiNEAnGadDmhr89zTL/NSGD6Jd/7fTso7gOuTTsqfhLjfdFJq9jfP
-Lz/Iu/78O3/3UXRaIsSyoMl6Zzave6a/eV4r6gtLzBo+wT6cbuC/+igGfRQEXDQ52APQgmHL+Xcf
-xUXfZZhrpKLjWKCL/X9H3/WeM/b9lo4RD0wRcgwFh7N/4sbpSED1SOP9DJqnzRjT+L5Qw2M3+nbV
-nWR66aGcZXIv6KqjeYd7cGaxAk4khyNZ9hg81cpu4hOqL5Fb55XGHtlVNF55crNmIzB8A/fOafhF
-+1ykDtokh2Eg2tmFfxsNh4jHzmdM66C9gIAeD/j9kjNjJN54yTeT8LRNgjA90EYEjeXJmoHDWmRN
-RYq7E3m8/tWsuqgPGF51jbolhBusyVbY8eRdozsdEv8yTXuAUT6P4aYUpoYXdKisik1MtzApomsQ
-5UHs1FSVf244/9t//OSpocHHbf5/PzXha/E8PXev34si//w7fz01HuQebkYLVqlnuABv/tV95I9o
-m2P+XjuPfz4Zf0Pw/H8IGJvwfjA2rY11zGh/PzRAgmwsaKjGHFOsjJ5/56Ex/HUL/t1TQ8+a0CqS
-EHUDLBGuuw9c0zwbk8xYCK5Urkoe4a1VTeg2FmPpGYhAMHtd2e+aVl0VtblMwSobgVTkA5vRmx0+
-tQq+hbUYjxFDzYScBgpp3m7T69y7Wij4cFwN2LRWvUolNI2iCnmi1jFsgci1q2L2cYzP4y3sCB42
-LmJ6iErHuc36qTojBXy5KDIHUbMYCO31eKnaQZQxRXQNPQ+HOgK84BUJmmfmRRT33encAqRwSwvD
-0uxk+4kvZyICc5ujt6TRsdZw6VbwUpnwpk+Z12qPaVFqd0y63Q1Tx4pdrxmz+2ngXQjZMM+VIixn
-eT2K+MWBzgyYizM1EvPaNhVEaJ8Xl3IsjSq66vd6nL81eKyYoPk9ZbwOANZpYLeZbd/sGGv1N8lo
-XrvWzLjA688RAJHdaJrXqSHugIecGxGJ6Mlc3bKIGGfzxJixyKsRWwjCA1OUZ7Uqz2zRPEYQTgNy
-TmbQGvGTj0l2dUFsVutWrvKn1lltenWNBEtbvuZFpRN+ytA1F82wGygGmWrhSPH8u9mKtpFHDyCP
-3PUrtBvX4aP9FqGmt3j6pZVrGv2aHKaE9IuHWg32AwVHtbeqogladls76scZWxjG+kQv3+TSXNFz
-Xw6RrZ30tmqfa9vo7hCujpskpQhGildQxJjNFW3UAyJD6mGnby/VmHSPdi7uXIl0pZ5BGxlsY8/c
-KPe2C6FRB791Bcmd4r5YGq3FUDXdM+9j1S6xXAZsOaAY+dHwh6a3XYX0QLeue4g7F2VK2wVPSMIs
-vU7aZVsk1a1FO3prdbDzUF5ZN4ha4bGJCDiSxSgt4snZZOmYhklB6TaWc+vviaPHVBE3hoF0VNWb
-jIixTY9IrL4wjXk4jTH8DLtVLXhP4Zye2qWrP9mceChhLwVlmpkpvDpKz50h6OFgxlT66aSg0Rxr
-XEEAG7NevREWv2h7QR8yelO+N50XZgdCIK7sfFusGc8bo4gZTmbG7X/Lo/+f8mg197LK/t8r/Y7y
-KH15/n6h/+vv/LXSC/0ffASUDEZJ9loD/as+Et4/6OG7zLJo2ZL+4lEE/b3UUx/phm/7Fl9ANz2L
-Tv9fSz3DKYD/yNUFbaM1T8L5d5b6D71Y0NxURSjzKbX4R2qyH3uxMbX1Ipp6OJjmgHECCxzdJBv5
-+Src9uXGcwimgBKTVqGfjCL87lp9PligU8Awac0I1xH/M4dbv913/eq2hWg+LnO/nwZz3HqqdJHn
-mAUeSwDO/8GhgLvyGgKuon/M7eqsbDSM0un3LDnpvjCNaWNJ/G4MAdr/4Ky4lLDP6ce7NOx+PKvF
-mPNG2TYi7nlO6Ucubdj1fR70szccf39Wa0P/u/f0+wW0OKf3nEkLRsSPh2L4NuSFwwX004gpnDJp
-Ugzu2zzCHKkiWCqEF6xVZB4wT6mD3x98nTb9fHC4gOtdTMfxw3n2mFsjqCn9nmBCd8VPJdvKQIv+
-+6N8GD5xisBm8FMQk+iaxD9+OIoEMSVHcsz2HYiAjnuzkhTlc+uN26whNemTk/owYns/HGNd3Vwd
-ALyN1pP+7paEH2taSNmHfazcniZQ90rM9puI0V8YRXnqRhT9vz/Bny8jQF8E90DUGTX/VGtFCSY5
-YdXD6v4E3UnHgx/Lr7e/P8p6mX78sTgKLX/SFnQ2Lu/c9O/OC/uUUeVtPuwtVO5gOrQztBmXCvsI
-uvvy32T/v1/F74/24UdjmBy3sVMMqJZBfa0a2ngsGdAgh93UEIE3XZ5/+/0JfszRfD8muz2CXSid
-uSE/LGUqyVElTzx25Lval3ZtFw+xPlD/1AtusjqmMGxvPICyQVvY8sXtdXHSONZhiLtVD+uPW0As
-ePMmr/ljni3tqFyoQmbUt7cLNorCS+KA8Pblk4XJ+MXvT2QVOEhqfs/86Y4TMnbxOfIYpRN8mo29
-0rw20MvGraYhIU2lAZRX1FNocfW2JkbRJ33x5qvBEM0FHGoriJvYv6RVF3/yLDi//Gqsz+sT7vw8
-b878gkGKU/QM55ItanonZKo9M55wSatsY4mozsoCfXL9IkSui0eqyrozJhJjTnFMWTcSOoQqIdsQ
-UYj/gvZ4GFWInSozVqfxYHYXiDi1I6lScCDHlcyAppCmaOc/DPTGH/pRRIFPmz3obM3bIc9PYS13
-Ygve+KTPOwmBtxiCHkUhjAciF+z8nh4VgmhbWRtlLfmuY0sRTlp/WfvecmhTUETKLiALkglxpidK
-/6J17bjPKgAZkaPecmXd9KKH8YM5/0DweH/JJ1e739+tPy8z+NooDHjqeQf/FLUyy9gZnGn90SVq
-v3wgdUboqOfnu2GJGpRcpfHJMvPLI9J4xaNJGhXrzY8Lm9/No/CXvN93UXQ0pL0F8/yHX9lnncUY
-iQbp4+/P8Od1G/0Xqw0NHn+d8nzYQsrYHyt+m36fqaIBnmxPx7ie6FyYnQp/f6ifb1OSVojhwOHu
-k4Torn/+3doWD2xqJjQbe1+MzmmttcaxnobPUvp+eRRobJQpjFS4hj8epaSNVPYTF1BzkZoi/fW1
-A2MccfX7kzEoCD+s1JyNYPdNtWh4vP1+PE7OSMhg2sMkczbQLBsSp9ZcImHBOkfrU3qUFNz4RHIy
-7hVf6LjvCQZOP1uWrF98DUoYNiqELhq0In78Gi3B8QthXhIFfOFtSVksdsy8+p099YSpW/ZiH7EP
-ozXX69einrwbYr6mPXap8bxcFtiMeR19cgubv/xOqDBoSoCy+0lXGNuaRiavJfdVPFRHvXO2vo6H
-bIE8chGBsggSb2i+Fgx9gqLV1OXQpNBDU5I4fVHVjP6K18KYx4scpfOyTE/4+c2gTfvmVlVDumn6
-1Dk4eHlOKlVcgAf5rLj49Qn4K3eYkp7nf/3tv7tTI6PzSwVsc28n6gbHWrMbJju+T1jFgqb1sjCS
-ho6Hy+15Y3XlCSPEZ5F6d7Jz/SOy1CiYYfSDsqr963rx6jsBmneBj39iCWwLTGZUOOXE0VpZX+wY
-wTafvBKM9Wf/sY5AKvfdGXy4O6e+4AvXiv6MliGGXfzqpHfwrmWaHvZpxyI/0LHJMv2IjHsM5Gpn
-+v0DYv3yLoB5TY9KEPj78XEXirUEbYjcZ1rSI2eGsfuNsurKswlBgpz6Uhfj/IUY0eQPVEr9MMZB
-Vpv0OKykQg4vd6YOqbMjAWszMZ0FxGcOzerE0Pf0hrLAzmLjVVVkb3aRd+tZWD/1DG2C5n9pRNYd
-jNHRzzTHWHOW6mdv1G9dxYFi+z3UAX39J9f859JNuOwGafDBe9R/ykWk4eflUcaC0GbFlyrae2NW
-hNoCUwYHsvVJnfiLZRtrNZ1y6no+WP+wo8AT4VYdi86+ias3H4kXb21aRjbT9U+OtH7ShzuJI60C
-PRsprv6xsAdTjVc0criTuvguN6z4S1YsawtbsZtwVM6gS3c1cRK5xmcs7l+8C10dHLW38r8JX/9w
-kjAC4d9lOo17T+HdFVez197odvRWeP03trzuJy+o99rzp3N1GGoYJhtuerQ/Pvf+SDRXmnLLsg2v
-bgaLukdFVqgqGqfWuLwyV72r02IOY9VQ3NgiDUYZd3hJP8uS++XNxFCGNwujBKR2P36TdOhHdPI8
-v5Oo+1BvMIDZCGM2WoobyUmyt98/rL94abooQ/iZsaP/LIR2/QzE8TDzI6uO3LXGiIIFy+Ane8Rf
-Xl+DTgZ3EpfX/piFiNkirg00inv2yF0gxjmByZX5gRtB05rQOAUxc/xQUy0NxgjTL92AAjWNdroQ
-RP3J8/rzphzxIrtCNuWogZ2PWViTghqdSDJfLTzuWxR1DDK75VyNKg7i0tCCRpYkSnm9uanzQf/k
-sfooAmQfhD6ZJC6P6RmphR/vNbDTtFIJPNorw06+Nd5qUZ66uL+UcCLRo7k12bv1wAdAJ/ZR7I5u
-Wzgh0yxA1eTfJOTUamo6HxNy0zZm3w9G4MSOfPn9nfGLhUZA71uNm6hLmYL8eCMmmkjJrHTbvTtH
-3W4gbmtrgxbdUsunn1ySXxyK0bmNspRxouDq/HioNDNk06KE2PdLVL7ZlvKulyrBBqa5+n9wWtSg
-DpObtaX206oGg2DpG2G3e0B63TV8RHdXKy86zboVCfzPRuPVn6vH92rVXyxiHIm2CCUiWs+PnQpz
-gU5TDxwpZVISRoxoboFoQinXJQLFubSxGeIa//1Bf3kp2V8TVOEaNvPbHy9lHOsVak2n3SNiGYMS
-5jqUwdIMO92UnxyKATIf9mHVpNLQGd4yvrVYsX48mMjteogXg1vE7vR25yq4QeQV2dMSotCpisDt
-pBm61ORF0FrjpO3YOQ7zdkHeVMKRc3i4Uose4zGSqngwIfQlYVflYsCdXLjQd3BTPwNWwtWG+0vu
-YoLLwINXK7Gq4pSAbrgQYUlScSZjN6GOVqfvnHESHLxli46XsNU4T4w7Fzu/ERb27Ji7zChndwvn
-LzEf/Qm/4aub0SyJNw07mOSUBAIrCrs075J7WdSGOmIFJFMOpVhpbzW9MU5K7ILaXg75KC9IrB3E
-ud0PKrp2JQqvHf9fm5DhdDKfofj6OSZQZErxufCqlZLkWHW2GzDH3o4aA6CTrtKIFu9yNPsq7sxu
-4yfpQyldy0bUgdj3CJIobgIx1HW+U3mq4i2giKo7y0a2k2ng+vjZ91JOPvEJo6PmsB4RH56SNxnp
-9B3Kxgyb0lmLqxTi5rOHxoWxc9TPAQblurttHPRee2RCmbqaIm+8rVK767dKa33vRq9LaLig7OPh
-SBE771qBzXyHoRp5K5P3ZQkAUfj7quMVtS2itf2nayaA2VY64j5L2iKYi7K2AmknI6MZ1KSHUgzX
-9Hl3AwrmL1FjFo+FJvSbvkLIEhGBddDWBAOr9S+HQu2qVu7mxKtuIo8mqp2g10OAtzftfApzPy93
-8TCeWKOaAhNSW4a7eYN9mwihbLZ26O9eCKmetiM6JL5D5+1dEHdb307dve1jAqRiXjbYcvHCwTn6
-5vUIZ+wBxErljc9L60K3t9aMKFhMTlo84EvZuhACrxy/7LYGDPwr5ABLAPjLOMVPnZyjooWe55FJ
-JNPoYV4sZ+9oBpQIjACI3qJj5Nt5MGf5QFHB/KvgLRFK6S3XsJiPbY+VLV3U6lbNL3O6S/Nkdyf5
-PJvhoufY0PsOSW0SgQLwQA9OhPsx7hJXkbBvULbNW2OCjIG9DNwcY60wMjGDLpSuN1FcNE+VkPpZ
-lXigEvvWDcmq6N5crQVN36OBFzSs9wwgnWNXIALygFofLT2Fe6E8RnjzeMLAbJc6jUG6lXos0dA9
-Vml0AJVxmw7qER1jtcWRSKNuiB5LIgiwP+alOI6DB2FLa9FpOtodio7oREZWGrpxLbZ6hv+7YHa6
-sTN/CRP2DTdpp41XbdyJGznA5JsswCYKz3WxxlsrrXqV7dQc1njjQypLZMqlGN9sCeFGpdNChysf
-035RyMzbCrfOhkqzQyBZp35Pdo1Ilo3JzfOlZFgPM6dlH8HLlEWCGI3pK7Pf/KKduMsyBS5M5MaR
-zBeFaLWvGZsu4pR/qCECcLkj5z2kRPwZWUKmgydbaBaRTZzJgi7+K17LHekcSIY1RH7N3lvjUGac
-zc3BygtzCEvReeNG1VibzjTN7WF5eqLDNqxGR1sRB7qkSdui0ey4UtAkqyJcsP/fJXT1r8wiI6aL
-4Oz0iJm822IxbrE2m5gL03FaNqAh55Mklfo3V4+oJ+nvNltvgaXQ8JL9o5cidrE6xpg24EFYzO+l
-e2uPefTm09wn1aYibmdDfKgeLkrM98yZyreu6UBhqlIaT6hVCUgZGueSlI7mK/LZKUQtqvY9Fcud
-AN34dQS4wM1YIPXszfZkqdlPp3NlH7F6yC904dZBvEyW1V/AnZBYfvuYIIL/o20Ao+ez1j56rZke
-MpQ2xRESbr5Lkch9QTSDhN+D3hu6kVP24bBIHo7C1ODT6DaQVtd1goyC64hqFJwjLeQtu1K/g2mD
-xudQNthHNn0ajw9tNK06ZYeR/sbHe50GtW63flAyGgRkmpBBOrGOnAB6TW7RLRUbnPkDSnsup/aA
-upVT9FYb1mlsLnxVNx8fRnMepvM4iuLLVEBfJbVmOa97Ic7sxOZTCe3Y23rq3o696cBgV157ghUc
-DMIkmydadyaW+9q5jDse1W1Vl8tuGeZ8N9WzXe6xg8WX5PiOHlh68Kk8RC0PFb8uTfj2JEchdelh
-8P7WjXF3bS+dcSdTrnea5VBQUXjuRcJFJchFnWrcmteN0zXfnHWHGVTu0pB/0mbpniubHpwZFqWr
-4WIyOrs9aYzMP1tG2XzrVdM94lQ2mfR77R+1EaPpWKB0oIOsyugkphuBOqOXL/4knUt7aUGCj9B3
-LmfUWFjRXRLuXhB622gRGhNmQrGxJggRZ0QHmE04+WsgcyLaljl6QsaiGIZIbsDeGncNALDL1Kmj
-+8ZNCD9xhvrJjd087FcU4MbEQGJsRkER6QyWuY0hWxC1pEdhjKr+dCXiQXzx5nuhZayLMfwkCz5V
-2OhafDmgWViQfjlU4BU6oUvbaotjl68y7d6niROSOhidJGXPfxCN/oodnYo+zJamHjYLzzltrEp+
-gW+qAB2M8sWLbSeIIgWFBbAPd/lA4BszFxOgSpmMD3bdD14w1XzJwtHzG9F3zbOVJe6t5i9gaJtq
-Si6VW1akICKOeyzaZb4SLqgmnZCcm3T9uU2AoGdOZkQ3rT1yoFxTO1hTqyRcg95pS66ayBJ1pZON
-/KYv8E20GVk1WhsR3aADt4+tngBSsSY+sV7yG0r2+Z7IefmyTOjdTwiukskWor9688iGqYJoIG5v
-Q79Fdhv4kQQFuVqNKYC0pBITtuZGN3bClmvTDLJVx3Ic3YRz505atLZj6XVt7jTWrOSSHJQatD3O
-/CvNymjijqrgt9alSMYj3AFRBb7s30gtYM806mUG/mtq3yB4Gw92jE51nKTx6uJAH7DPzC3g/2J5
-q82s6QJCZAjx6TJneEUnSyZ3hDj4oDUNl8XlTS73+pSTzrDGkt0tYLNu/F5nNfNcwoka0V73Efyy
-oTWbi35UzdcZVuu10Yv4MoKav+99WLWpFPhPZLLqbAXPd0WU45cWxY5+3WlCssbX+QorxkrwRkXt
-nbMnjnbNEOGzR0vg0TftCUVuI0s8LVL0F1EJCX8sivFgu0BpWl6bZ1Zn5+BHvDi9cm3Z7DDlyfuu
-GZG+L8lbH9f8K9k0DdiKxvrm+LGzsxuE/I2NQQGyEPIhiGV7oDGonYD7hXnf8Rzi9FE3RtnNVxQh
-02bN93wAWGRDzq1vES+eQ0lNmUUCyIH90YUTPqOLlv6PPiTjSVY2HYfN3Ut9QqiPCYV1g/iN/ayn
-GiwXrbmslBPdupFZH/05HWIW3XKBl8qwsUU4d3TS/mRUqghTns1zPZ66M6jd1UmcVGpDqU8J6DP+
-o4X67Dt4QHKvAjhSj9bLSMJkC8yKJQ3L6mLJdlu5RhPMvX06z5n9hXpbxxg419/8aZ0z1cSC0lk+
-tlHtMS1LKEjHrFZfxDzFN3qVTDtvbg5uDcfGn2B2bkiBh6i1PNP/K7/mJfIq3jlcJJLXYhZ6djiB
-p5SdABrI5THXdGszRhp+2tJudqCKGHwZa5gQkZBXtsj1vZVl8nZoNUBn0CtuBslBBifyIAWgI6Mx
-De6aSMpnvCjuA26k4pCm3sOMHHZPuzShDqSU25SrlKlOp+Q8hVJHdL15JN3D+Jbo0bQbhaZDSTDI
-FUoJ5JpGHkbZkMMx5bQKY6XcU4oL+0tmO/vKmesdjxMLcJ2xO4XJ5O99Yivfxnwwv8yNbVz4pb8m
-pZT2XQNvOJipYXcOa9cpWffFg+F43rUa+ZWcUc7tzqMu3HR9hxUXrPjrwqjJDJqYHLs24zYAyhun
-SP0qQPVNA0TeLjMZzE3W4Z7C+rWgZBs8l4Ke2LtnMl3zk3iqDj00bpKZbA05Hbz3RTe/9DildjyK
-OxTt2RoDjL838oaL0naie7wClBn2CC3Vg1wB1Ci9EXq3hHlpiVOpkNJB+9smDtCJ3Oqcy7Jxang/
-k28wtCiWo1L1mjuo8dopgdHywBHM18RzhkPKgqGHvWi1nHQV29KCdLlmwwxtPPejPnssTdvdOwYN
-eFprkGjbpaGlMaTafAWmqT1TNLPZ1XljCuG7gw4P31C/cYhH6zJvPkRjH4xC5ucIjetTWWG2k3ZN
-OhkDnk01yR6NcgZGSWYHY9b8R5+ZKfuc564mkqSE3xy0JNeuRtcEwvHYG4+4d7pjbXrfjMV9jbq6
-faJiLZ4KiT8zkwByYbVoO2sc4m3vDeW1cqlYCqIJGXr7/RLEM85DyqH5gGFoTE80q57scPR06R28
-3ECwWdlufalN8WrdUl59SfuG/C9TZNA3hqJgEaoNJ3sqy6y6NltRXoMaziFxKBbQLJn6l0KaRCXK
-LHlpI31pAlPjA1tUACdOl9W3pKeL6bGj4uF3S9nk4HwoeEtornUsGsEbxZ+br7wt6Z0tBdEBNP35
-ozpKzTvqY3ameZnYJ3E+y5eSEKgXcEE0EaQiDjG31zAzufTRky4zg2zA1XJR25iUZDtHT2D/2ITb
-UUpoebNE8oUcNFIvzWX0ETnmTnVbtDMLg0zmqd55cT/WO9uf6GigJ+f2SMyBAodUlvo2IWgOR2Vc
-R0+O4fB3/GYuutAjwHAlkujcRpWl+jwcJd8S6w1yqbBCpeWxiZk5aJbalTxNF6dn36hXo0HiISSZ
-eEfxyicvGrzsoz3RfgwT21faXlNrCdAzIYULMJf+WZbosKncjniEAGYMv5K28KoLinmInsZuTFAt
-DineSfxyJJUNA0cdWgvz/USq6dOfF9MZtXjYWIwn04DQNJRpnrFA6mY/Ue8t34kDq8XuG9AL4tJj
-B61uHfRj1b5IM9o9KAtSNpj5TLy0QRfo0myd2dj1zuKcqq6vb50JRQU/IfNWch/bNXnNc+iHdI2e
-Z4Brxnzcl8RMJuf+2I9vo0tvFFUupuhzVzOSu1yN5r4aMDESvOxd557fEuDUCP0OP45Uh5k2fHRp
-D5z0wRx1viNVOd86rSJ+PFfBD2T+VztFwG/Cs0vvP1Hwj2yu4qj1/PdLZcqXlN1LuuHLrjEbo3xN
-8ccWe3/o8M0NPtpR3GwpMdiFzvOzAQKFJrqi/3cyASIgXqLuqeig2zaQrdyOJkrHbIUwiTZ1AGuR
-QWzwdzXeX0E56GvItxiQVZkLyITLZLSAYq0lZEHuAVRbtIH3Rka4eVvU+gkz6e4wlYN1XcZiPkPL
-lD4sSzLdk9I1/tlW/6/Z4BOzgUE4GGOVf7aGw+f++S9y88Vz+fq//7N/rbv4R9TJX3/nXxrUVcpP
-YpxuYsXBrfNPj45w/kFSCK0JD43Pqlfkj/7WoNL7/Utzaun/QPBgozVFooQiwPy3JKc4eH7o67Ll
-wfDAh+m0kOleu2uT+bspuG/W+EdrURwsEX+d8mTe9JJ1iCHhI9n1tx1082rt+4jSeKSkMXaDp3aS
-1lC/9oio6s2jRSrMUa4dpApv/dFfu0qd0kltXztNxH11bypCBVmvfah67Uhpa2+KkbJ+o733q9bO
-lVXQV2tEmu4irZq3Q+zdYF4QVxO5brkgN62a0olPG9YtY9tupWYSBbB2y2hqBe1YXipJYlSzdtQy
-Wmvd2mNzZOSEtTd5gaGm4c5Mfdw3a1cuWftzNo26ae3YyT7+4tolueJrN89b+3r92uHL1l6fvnb9
-DFfSbFk7gZTyW5vW4ECLcFh7hWrtGpa0D2vsuyiixgkwAb3FdO0y5mu/0Vo7jw2Rontn7UZ2a18S
-GK+E+0eXBDvAS792L+21jwkk195Q1DybVJBrm+6ENwVGz5RGZbZ2QhfQviCFSYNZu6Ql7dKetild
-lsto7aMOWjsfGoue3OzVxo2/9lv7tfOKLmdX+tM1foTyJkf1cpYWohs2GRPtnI1dcd41VjxtTeJ/
-Qe+1+SPk3vSaQb19tKTWByCVKYObeOxuW0uLbk3bcE7tXPFO00qnO8S927LqNOlFVxfTY+SzXCJU
-9R/m0sqh8NcDjZuarldCANxWwgo7whAR1940sc4VFoVEYeIA7S3RfPXSjDdU5o3FQ5VXzqlTkCiq
-mwW+YLidvPGNggZ5rDcd2GFThJgcDS6ebw6kmQ70D6TZVBhIItI9l5rIUFATVKmtqLyWFJZ8wvxd
-AxfR6eydKgYeO3PysifPpL4I5ygmONSkn/tOGgB0XW7nMq1vCRQyLix3rk/t9Q1AuZs9NU3EG8E3
-PF5Zab4YuzIjTKin0XilnDG9GPA/V5shtmecvJLfbyq7A3gEpusO8s+wawV0Fd0qHkhG1b91g2cd
-NagGWRDLnqva1fw3yThfcQG1gMY0NlRg7cYdvSJEfj0fiWZCDaFexerKjLk1nSGCKOrIkZNvVaxu
-SLTiO5b1im10ByrM2nGhPMJN3ZIaxQfiUUna7XtgqhqJ+p77svma8PztU5fBGhJIdrzRnErygBPS
-XxujSi+wgfJCxFK3NwareXVm9pPRUDeX798sQ50rduNg8PGFaXrX8QLoldecAwItSsS1Pa+tsTUc
-tVgLtcqphjuZ2TCOXaylQbqe+PtGlRlufw+vjP+wiDLz6IwsIiEyXbXVfYlccLKzp/c7DR8SR1uQ
-uw0bQ7FfeQ+KFbZfX05wsGlFxBk9ThosD5Rr5pepWucYfWl71+Rs2Mc6j+Ybg5ou7Dp2JWY8ePah
-GflRh8Gu4CKumggzmppdATHkpfeSlFyc2r0kQVSdtpFh3qxo2Zup1cptwh1J2IfvRE++SZ9scoh7
-xZpEBLg2Co7oKdgQBQTL23pB9bi4VL2Ehfj7GpfL9v3XKidiYlNwlyKQOdGHgYEKM6gzrpzybOfM
-aKUdbVwgiyPNdT5+gHUZeAWE7mXhf5gBfRW0/AKzBTUss+VCVsnFiFls0OTd2FKrj079VOF2j0ko
-D3xxbvYD+/r4Khl1TGF9ciiz7s2Z/FPfYkfSUxFXpnczS4vdQ7Lv3eUh7qQbOvoszlwa/DSPnW0u
-tY3ZqDoQ5sqY5z0Gi37VVRuQu2+ofu6lkRkXsFyIejZEHLpeYwWGh/oxLdVFOvs4jbNQwum2Ki+6
-MnptvjRmQOmijpnWTMJN9m6dZxsil+wtRCyaKsyVDzD7m6AXeZuEGob0Kp4D3P6vbTWSD0za7inZ
-oXJbmaVxRGb7B7jwQyWca16ThH+Pg0VdGkdftdh8lJr4Qw1IzZcK8kcxFj1qGNjMWmkpKNIL20gc
-9mPQuG59O1i2HWClW17K0aFcY/626g52TT/fVtnQnPheTiOgTwIH1ua+Tl3wr+0QbbJJ5Xg6jHtX
-UbRTtB7zWZVH6ALWYWIRDnUxNGQxAu7WfQJa4oVglbr+2uoQT+eq1s9gZXknHTc+0wtXD50x+qob
-ZRtoJUE1hnoDsHjTpMJ7TU16YJAC9CePpl1o5Pldj6DxmTAca8uzDiTBaiE+DBUDCBrdq80W2vS4
-LKwH1lgcYvK+KF7hsQUL3SU/um1L+ZKoPgIZLtQFw9QJE0fMKIbUbpMYr2rphi35s9VZbbgXBWv+
-NbcVMVpuZFxZBD1twWlUNbUuXMW8ypvQlgTUScNsXqVj5tulNI+qJM3daprnAYNj2EIlDgkRf9Qj
-4mX0mre9z14CIejwB9aMr20CpV+10f1kNGjrrXzcOPQ3odEyWe5sYklQPwcujyE7qyp+hFIiyYe2
-wh65wtkk2BBTJJDN4Dnjjcce6z7H+UUNgROUiaKrTqY+muhImpGYUbJk95kHzdGWdvkq8ei90i8r
-CGEHalrFMmI8q9GScO1pl0v+blzCn1h6/cKLsvoawgwyo6SlsrJWZUjTiYtmbKan6v+xd147dmNp
-ln6XuWeCZtMBPQ3M8T4iThgp4oYIJ5KbbtObp5+PKlW1pERndgN9M8AAVYUSMpRxDLn5m7W+pY/p
-Sw+b4uKQtLa0qbDgdMbwMLmLOMmbmOlxlNvlMmDf5i+cQYanjlWJcajNwBhIhp2ci+mX7cYLy0zn
-lgifGmfQbhyj8rA0MzDlSyTRKqhCbd0lsj2htRJcMXkA8BVIMTSzqecxOLTFpYAOcRDs+dcBPA6Q
-M2Xw5KPVvDJfiuV6qkuiYBs/1y5N6Nl7KoVka+hFuY4HYEEYCAuxjqrhW56Z5o2Rhc1jX8X9DqBV
-+cUpG9aynIUr2kJ6W7evV5pQhPu50z7JqMKYImsHveAAU4ZZ7gp0akuSXCW7njFg72V4vKwUGYRI
-39w69RZ1FfRwrzX9XAV5tUmtotqWJvKutk/IrFDVeWArj4B1G5pAYFNvepZVVaiVzDsW2H1Z4dpM
-jEUM+3qTCR3Dd5WI7VRMZ8LICRBipbUwW0yVdlp3t1NCjZfADOXJ1Xk3I1kh96WsAfNjy3y2Gv9C
-mnn92c/u9tIZm42vnHDTpoFaaBb5kxVQoxX+cG5xRPXzDuPKE7S4yV0SV5XfjjCRe/vJUsN26Idw
-VZPqOzqWexli08DZ6MktCsktQX9EtRkVXOwi/CyHcWs1PPKg9abrLpbtetCH4RB3Rr1sZR3s+zI4
-xWF5hcVqr2Dvyf04OaCXJepVVhtaRAQfY92rDzY9M45uC3l99vlEqaG2SdbL8M5yZIljs637kJVe
-L7pw4WtEtj6FYanT7fp6ODIo6NNx2ANVd6aTTakCkS3MEns91rJbDZ4yGfO1ySBJeevatlhlxJeZ
-C0Iso/E9IsetEwvHCgpzx9PwC730nab73Qaa9Tzyafv7AFza2hin+hJKePuys8WZwcLXcrLi9aSc
-K2xYjdzDBmMvW8tVSsDZTekq+60einEpzXx6M2qjOfekH2xio/usQCqve9vszl7XWSs84uJAQFc/
-t+71LYMe88TApbyGlCpraO2oBzX3BatbsCizVr72TTiyDamExfM+OGRaDLJc6jrRTTWpGV1MTDbz
-BR6V5C4yuo63uuc/+Boxf0SSHieLQpuxwIdr4igWZUbmpZEs00K8R6lZM5OP/cMYTk6+lsZc9IeM
-UN50hoUfbmLLU9/nNXV8LXYWDIV9Jf17HVONPsNKJo1deZPspynwiN2bxHgSbN/vYJZMX1IAXuc6
-yt5pQOGnFybpoou+mWc0eVCsSL54L7OMp75WZh9uB/gSblbTADGKu01l6NUz5YuzNtk8XKEiTktq
-oKsVS/vGklNYA55NrYMugFa748Sd1ub9k9P27ZGA0fw0pZ2H4WRs0pskL12QZZ4VvSEIIUUcfvqw
-gSXDo0D3SReZ5S0FdUDqex9eqHNwdKFtXNk1eF8atNzPk5Xlb1PEEpbxvCU0jnx3Zj3pff6Qz+t8
-e17sB/OKH9LEALNq2sfz+l/NQgCiR5NLPIsDyDA2Vs53xQDpFzFLJcDJjDkLLqGQokR+Vxfks9CA
-od0sOsAv/l2DQPU8SxKGfwgUrFmswJSo+xbNAgZ3ljJUs6gBnv1nMssc6lnwwFT9BLQ5o89CDOFk
-encbzgIJwvyYZM+iiWmWT9izkKKaJRVyFlfwwh5p/IKVS9jLhrRYb59+V2N8H2X8/6nP30x9GNTM
-Ktf/fOpzjnMkKMWsGvz8bmXef/zv//Xjb/1z7uP/IfCqwFGZjcSY7lDr/WCz+C7BWzPZAWm5xRDY
-4Xf9mPsI/w8wtvO8B5+xP1uW/zUHEtYfJJSAbTEgV9jfHcv//m+/4DXr3/78s4CRCf2s4PtJ4afT
-omK15CwzZ6czLuhfJ0FWhN+4YSJ9BFGO/56scwEgYqAg2MWNMah1Iiwe1aPVsf4bNAvyiaMa63PA
-kwL0aYq5d9qxhuoU0HARJiSnL4wtBSQC9hWkPdYGuEszfMwGipc4dOwvHc7cMyBvklJ6n9jGuJDE
-HRaR5p7htswltTP45G7IKNnxwM+PrhymXTbYd2nVWG+kWgTjUWdk7y0wrDanTkKSebSSoHVP9VRO
-OrF9Ts/dJJh9f8hpZGtt1hy+8xDcl2pDWFG/mqjMVlalW1hWrPaZoW3PGKxliYYUMWaZDRoddwjz
-aPs+DNKM/pWuJlmrNIgfDaLUF9hU8mlZxbJz9iB4WP+zcbl3GOjsa7eJtuYgP9LSJ/3HjWnD9DJm
-UETvswU18DCSuHRL5Gggd/yIdR5dSeQzBM541+QWQWJUrda6MbTXAWLUAix71s/TLW055b61LhH1
-0+SwNV9N1FP2ehJafTX01D53Pgsy/LOusW9JCiiOzeQHT1PmuffKtYOHqhlNb4/MxppzcZSdHtMa
-3e/SrQL5tetBDGqW6S4Tx3X5DFS3KFuaV8cv0iP5snyWbQbS3nSQHi6SceyPTUv9RwwvfFg3dqZr
-mZN+qm8ReVe7xHCSRVONbFKbnrCffsp5sIKTYM9S0teNQbAji8P8qibAf4RkatMDyYspEqiQ0mkn
-NN1Ln+KKgfhj6CGH0YmOnVcka3ww5GNtzVYiE9pHoU32VCbJMzNew3qq5k1CypPbJgMoqwWtsBIX
-fDo9BRH6NQe61j7upqtHROLaJ5mD1J2il/OoYo7eLCE6OrNLtkU8tUgnErwW9Cb9GoNEt6yoX5Bb
-uA8JifeZbe7Dtjrbo0f/jRrLjUkTKqdy2ZJiJAYUMm6CZtRJ6kdNi+4GdLYLQiHDTYjxfpF147Oh
-99PGdeNgE3TjvZ7Keg+DN1pPTilPZabpe2WjkkIsS5CqlrPkqo2aWSja1wx+7IEFB4lDXkEuVTpO
-e73k1jSd1Hz0R/MlbzyxLI0QqmfUaEvRyG5T5G7THKBpy30d928VEqlDFZMVUDpuizErY16pxm1B
-349ist0INnVJopWrONPyZVhqBFYiEIpI4og+max8dWE5L/ygUAun1BlViSqhqRRev6KSDU+sn3Ok
-kqPCQTPds9GlKqCEp5+yg6Ug8+6WVy+P0h61akHkk9pj4Go/VarGlRdZfDjcbDsKmVXCyIAea2p2
-RVnu895mLJle4T6dJiPY+lWrU9pND7HTbAu99g8oa6+1H+9zmsqVp4/rUPLph3BCYTs+1mW59cbh
-LE1tIHuzHTaVSpt1BzabmGLxNAscFn2e1Ssjw7kmEKyYee+sZBq197GWn73SMJZ+47D8bWwOwRih
-8LwEltkwkL3Dltn0THGHgiJfZwQvLF2Y9FxbqjZyvg9na9ZZjfjJb3delb7DCYwXpan7B4fj8kAo
-OPzBwJIXinO5a6mMVtwVxh3d410n67Xm8aamIr8MnpCvFHLWMmkDEgg8SXytUqa4xmZJILViCMEX
-hoJjUHMgefQV/CdQGnP4FjWZsQvduiUfEA0SxJhxCYDUP7QjmV+Affy7xurZe0844Ij5uQZOdddj
-rNhwTKCSlBqDdnQhzRfOFdjiqEg6qLiNvEiz7ZYlPNct+R72htawveBjiK7WMPjnatCvU6U1KyGz
-5zrEBi/99mYcAK6WwLsGqRj45vW1dnJOF3qaoNXlRlqJxcsrxGsk4gtzap4O7PyGxPC3sWweUkhH
-G5OR3X2f9GdQNNVyMBr56Gry0Q5J4wUZ81pP/lcnNPdmaztcx63aZGlK+2z2m7png+7ILfF8wDpl
-KcDHhOW296r3nEzatV1N9U5vzAdiymkWAcZAIYrS7miXPenihnVtYTvD0nxyEhMBajqtGVfgx6tn
-cZ3/wgSS0DVkYsl8lirNu/Vqa0swxXAd+OooAcloXnKMei9JEBpfUzBVq8pyudU0hn6m253dsVt3
-ZXJwPbNBjFGax8qR3qLsFC7twC+iZTKmHuyLdtpH0IQbJQ9dHCTbJtXjZehrwFc7bcPDLF1OARna
-Xi/8jEV4K97RF2K8bgrNu4yTLu6ijLpzcqvynKJrWI5oFddK2rhaWK0uaQJPQ1zyTOjTR0N0O/oF
-NrWMjqhc/bVZNfcYnS5YvrP3bsh3gN++AtCnM+X9OAN8zyWcrfjYjRaKOUKcMEJ5JqQ0e7oMtiA1
-yA5KheQzMo52bIcbhlb0xW1oPQdFS32sG+wYIEeh2/ISTqYus/LbUOvqZFFUoIIanmsqRlcCcF6u
-DMMAbdWq9mTC5ljGJsnT/pzmTFTRY6T18+O5D1eF4y80z770ums+aXma3+ih6oaVGFOBpmWcZHsl
-h9Pb+3UyHYbOehSDrt6IrtJCIFl5C/vXRcy8sFKDDBkhsGHueM6a667x3zM0z0bkxsuGzu1a2/kt
-82htWSbaXTZG7U0yxF/qysKQMzjFoZycL7R06cMQJwdTM5q1wdtbmXlKOjKLxl1PABbRYgwACM2p
-EM5qpJEWzGid2V7heYrlfCJ4s3X37IchU1CdCKGw65MnsE89zXftfXNaO8S1wPTHjqz0tfDc8d7t
-0S4lLYF6CUCAzMvcJxdS10oLHH1pupF8yEOIAkOv1yRjIZ21rIFsGTHfRHxhcmENFinPkMa5r3l5
-zIthx8oPVSVvI/jtq+/n3RfIIozz2+iS6igjRmLlF65UBqmKxC4Tda+YTim9So81cPQdqj9BjZCH
-Z3pKtEJQVTQb0G/b+sXVy5jictxG7Z1WWt6OUIHyizb5u4L4+gfMfMCBUVvFS39K4hNMrI8y8d45
-ndMN7avPLCZoH3EqHR0CvLfKxyRvow1bB8rhAYFMa9WYVreMgKWgpC+kecktCwmxaZcn/E3sO5p6
-PGWi93d9QXqeG5XvkDyNZTuksXGrVGfcc0DWkK1ai3mV0/RRusVlUW9EJhIeXrWWP2Nqt46hM9qb
-lFrwSe8ra1yyqfUAqkFUuM9ort/y1HbeBI05kiPihwDtlgvNSCkYWj5zc955TOz6KIC7g9uCPI5b
-fZaX3DD0gUW07GHUIGyFGZFReWC8jZGcIeIwsj46Vm3vbpKsC+99jULUOFNoLbO8eyJDdO+Y/UcR
-OM62VO60yhrFzpZIpX2QF+ZiGoBA8JDc8q0dbDkPaWGkr9KCnn0Q7UvHlpYx+ZyCpPBeAi9GWRWU
-PP+SYheJnPj4QMEo8QwW040pFlEluwMRPOugsi4yktZjDIFmmyrHIw8yK47M1jM8Ev79OJEU2pXk
-WUWd2OrGG0GKFEwyQFyTBY9IljMI3qQcaQKYfIR2srYr8M4Sc44z5mu3xEucc90hj6xZL5jGstBy
-tYxFt/LmjCkgVPaCzATm1GW38KYkeulnjjgF/kb3+IgzXz0OBfmz0F8USz5sG2ifGFp72YpWBfVY
-oyF8Dl2kTSg3YCGLq99nYuuE1nuat4+FQuqsOdNdwxKIctkeN0PPaqRSzQplJ6F/iLfPGgaNDVRJ
-8yntYRBAzM4eWQeiFjGR1g2jJkCfVdqCtc1SRnDxFqYsilOSTY9ZqYZNUVPTxeilPpLKWBl4FO6m
-mKt8SB0ElFjFHTIQH10jPZVRKy4VujCgyfk3it96xuyuDUlKQaQxq0N2dzNENUaUtM0eKyFj7Fct
-8YaCADwhKHbMkvQ3bOrpOQk5XMaenbav2+XF8YI3va7ClZ8Mzjbqk+GuHBnD+TX5m+h9qHqIsL0h
-4epCQHp7Mcnoy4qyR4RUJVCW9fFiSv+gGR6xUQ7OI7frSAYByHZiU/9R0G+khvZsetNrqJyta9Tt
-iTZ35MNAWo/sD5Roh45B26bRN80rWRyS+nRiMaJ2ZVLdlrF1zIeI4zFiOdJ2sb5Riva2MyuLAWu3
-NQvbWKDxPM7sFuoE/aAn3qPtRhZBw9MrnKn3oA3f8HNx/RTWXducXUTsRTc1yLPy8AU1PpNpke7Z
-XSK8s9zT5HtfAYGtKt8vtkimmDeF8GWCgEmpBmf6JIS6kz3VmVZLZvsYIQjGZAx2SYKipzzTblun
-7DwUcMPEI4E5+YLcUo4GXVPRZvS8el9xBb+MVfRpzbtwK+hHnBgmsm40CTMD0M6eIYpnxZr8z+zC
-I4sZ91BYKQVeUbkrM6ryu74xm12nsUognyDZyhgDEEFjlR4ti6RRzyaGO8bpHbG8tiof+5ZQ0q5D
-3k1Vnex9N8q3AurJRo1TeOz11tlU7IDHCjRrWfg3vtfK2zzWjG92XLfHKYqdg7K8amemY3KALDlu
-bPQfDwJc+8qrzFd6eHlOckjMQajfTFMIErAuwpM1uNayNUz7bOiOWCOlH7ZWQZyY7OiWOlfATsT1
-iA+QQaNFLGoHenwVDgSXZSVyvhh9yIrZBvHgln7DzNlbOkpaazNKAxYqjbNz0/HNy1p/kZnuqxum
-fGIUtee8TfMd0PC9XXUErfXdxcgKyoqaIA1ysV/Y48dstFxrJTEFLMi3ySmD0KxiOaDg9skj4N4J
-ceVyuWb9RpiIU5vBJAZ4kBuGm+meunFPwDUxvYRbb2b075rTfOSrt/N1mrAVjNQNzZR3BbAhtrTC
-TFysAZsO4YFU0kJPzjyqeQrhBlSXsfaPeZ17C5VIsTID1160SQYQl/YDzXF5dMmOXDhhGu/qRBjL
-qoJ+mTS1fkSv2xzqwvpWTu159JFqzr0F7pgLUg3SEoh3nvHwx6lInAWaFnNNnC4Kl14zyEyOG/wn
-nnZklX8bmxkZM0V2Dh33qfCALVBf44ybFwX1AOTe0Ldhz7wjbWx6GTsaN22CNkjzWnMBf/dzKtSd
-UzSkA7IqrkZcaKG1ZspAn4Ube5lpBIL3DUTJIGVcY9VLPRo4lW092EVFSip5omyKFtZ13KnLFjjR
-Qm8bzkjbqFYUgG+dK99i197jLb4dmoIcZtD4K1rII0f0E+6pHDHPsKbV4koGu49sqUbObsT6ZTJa
-c4v4nDHKxENXNBYSR+M6Sm3vsaOZOoQZZYlUnkZnyr+UgtDmRd/33gbxywNn59VE0cE76pp14vR0
-Xl6/DCFPrkD9M8+HwcFEYEWQeX+IQCCgoM7fGHj7dzKERkw1uy17tuMOLLxHzxC3Luj21aAMc2XV
-+qapbYSnVSWdJYWytnLYzLGmcOVDFkSfnlFe6sk8Jp7zahnmRqWvjYFMvfG+VfgkaHPjEe7cJJd1
-5q9KmS8NEqRXqBu+qYYo31RLXqKSxO1SoNclPneZmOT4pJPHrGSSZDvmObOAyMDQw6n1Igt5W8Ed
-h13SVs6wVLC7brK2Mw8aNb1aDGFKukFHU46koeKHeJKrDi2AryuMAfWQV6uoAS1SOkfFDqvS7aUj
-Sf/EV5W2G6Y44YFHFjmqk+GWPKHHsj1p5K1uRW2mPj4NVNRxWga3kJL0hghOo7IzSuMSnfVARd48
-aJg16k3m1ZhvKi3pKxJvI0ZtDj0Cee+l2cYbKXyjRDHNZ2Sz9KvCFoXnqXU98YZt2E2aU2D4ANt/
-ZBD9T8/r0SzO4sX63+Z/8TvFBedc1Pz7r39kmPzj986ax1/+sP4+8r5rP6vx+lm3KX/1H3Po+Sf/
-q//wx+D8bybxBjs0RuD/+SR+n6ZxjpH250H8j7/0z0G8y9wc4AYoJSbevjOrLP85iDf+AMjleDPT
-6PuwHSTQPwfxJMrpSJ08wC8EYnGd/WsQbwFJd1yYiOgoYWvojO//+QH8IAf81SCeTcCvc3jIgzBG
-EWQiBZ2xEf7MGvhJkRk7sZCpUUeHoURUhiiAhDQbbcdRlS7TMrLSBJZldnoqKZnSzIwGltqdZyMl
-qFk+7SojA07kFalzmCZXBOu0K6Z+0ej6cIdQhULTkIDI7xJfVl9KdPz2EvdQKJdjkHJTdWZNykOf
-eeUiDfBWL9pMn9Akgqk4+ZL4nAWTkWk/GVMjFrks/DXR1Va17vCnRkurLzD71gHTYuFp5ZsvR/f9
-uz6p8XwcIpMODZ2EhKZejh5m2pUR9sI8+Sbnce1nzrkX6M2yroX1a2obtwZGsyA1WKdLcIz4Xkk5
-3g2R3lyq0Myus9iOmn0oNAw53hDai9zWQ1oqqa6prZCmhWRjYDIbdyFovIOpqvhoRN6W3Tm1cVTE
-BfE8SNLMOsKd0PRmYqwGZg0b0bjml5TnFLKYKr03TDgCTIdfQg66G0D0/ootn3XbUmzvO7j0q8gw
-byNnqld4aN21NrLzHZSW3lqull6svL/aOgMfO01xS6rBjd7xR6mtAAu6ZKGZHI0swxDlDOW1Y8rD
-xx7F4RnTgrj0UQ4smzKvPdEBlRyZl0BV2TfWDT5hTwJBrg0HLKzc+mo6/rsdsKw1AmxCJBnBiiYN
-j4Ju+uIjeF1UVAuEqNiHri/YzePgvZdVbTGJ84ejpdz+Fvcw9tAkeuNpGb3ahcOKJByOqU6Sto17
-ZeHgd0aOorS7rhiy+7SiQsgTovBMKyF1aW4/Aj+5q1LZXDRmWXQZcf3IkjNAJ2MOlxEP90qBZ1gb
-Nq9Uw4q10rsgfJgg8NOdeZyaS5kXxLqTSINcSCnjaEWlfhj19iPl529CCuY7t8uxXCDn9a8uLvU7
-OngiPlheBKxPp+ki6FqXUhFfmmAI205am191kyvaddrmRBCTOI48QFRlMRDgsj8XPBSfuwrZz1pr
-muggJERqXMlpyUyjE6sySfotKdGka5Xt0QHKe9Aj59x1dcmE0smxwRYePHU5EPKbp13CpoBJ9aCz
-0GgDNLTO1DxpxI8iz7nyrNQ3gXsUHdYLFDSIgKh3I6u60RpMVmPlr/xUXI1ST9e5p95r5br7TBZP
-48zOQgfwkrlVusFu0IxQq82jLXrcC/M3NX5oIQ+awgDJNbX6F9HOK6LRD3aq77RzT4LEOmhVuJK6
-eOYwrG9MlQ0bra4KsMOhTcJHLZ5Y//WQC9x6lQXAxNgFcVtpBxf25AKXzTPj3XLduhltOBpcbEWH
-qYlPTdYwjGjQRSMRzQM6E7TsTOZEBoZSEozSq3iT9HJYCnJ3r7Dn0zvl2eEekhZWeiLA9zAMh7ts
-SKdt3iTwLJQiMoX28CyqDoOVxfprFAEbRaPu73rRPKFz03ZaOTKpI4mFRCae1KLXkd7RaFOIGJUp
-b8egt7ITFo9LVnlvRVnYa8eZ/AeJQo7KOqeb9OLgdrS8+AaZx2sulNjbJTK6iU2SozobBi1VwEtd
-8ZbnMIsVKwLzGKY5ee+mzSWthymDR5HisI/S25FjF078nP5QVFjN3Hx8mVoGz13A+YzUpTnF4zC+
-+ONA45HFenlfVugFdeKDQvInbgp0sUAwfEKQb0M7QLKoyODaMstnrp/axPDUkyz2Kukw5cZ5A/hT
-5f61ke43VeiUhSYWmz7yUiykHllSMHbI8FZOnlHWihgWFCntrS1RGcWOtqHqmjZMkrPNGOGC4nCH
-NTK0T1E61obYjV3eHLJcj1qeLVr5nmj4KOnAJWQXGmSTMOrKww4t6ax2jAvldBpE5dwNPLDvLaY7
-7iKhjvX3FXr0r7URV4doysgLAptqvzVc/fHSAOIYLQ0tcAVmceVeS1ghzGqQlhwKE0hsOQZzsyZz
-5qtls2cvEd5EaZveY+um/Wbw6m4J7OPC9ac+elaeqNedKbKdQc3z6gEbpkfzEHFgA2jEKbQqIv5c
-oUAlTD2A2k4xE+2teYaAth9ZDEf7tzwROohqYfZnCvn6dhzMUsfLPJLUPqHtQvyE53yYwWztFx2/
-32tZ6fEzz2SU3zhyzii2spugs/1v+hC1MC/SwLpqWJq+aEQJXTLd3bukYX9mmeV82Llvx2jPLGYR
-rd2h7gFfsreLbp9x2i5r6odxNaaVR5kb8CkC+Iu8p5ba8pQ6dfqhSZ1ZVtaajGkcRt53QSmcJ54j
-/lrRhW3acSQwG0GjCmDoGlG4r4j/eU/i2BccRiHSPtIMbsGwobthEK3dxtKpwYZaWfUMISO5WKkK
-Q67iRrhL088mLB9l8iGaMrminrlPa1LSCCnPg31iEDNHSCk3qypID5hKixVN3dceEwmAKdl6NH39
-rNKof7b7sf8MvKh88QQ2zlyTPlSo0GeqOZSjdqgM2d0C1WGnZtWV9s7op74h7QswloXheocxRVU7
-V+vVix8ObIrGKWj3ymBltZKxLEcospn8whxaiAWTmOYqBbYHnKkWY6hGpXvuOQxcramrcTmKoVzw
-yv215Vb6c+A3gVjnsZ4MK6PTSF5MRXwNfKVvccq5y7xtydlAyo8Wz4rYwdhGly2txHRPY9+UByNq
-HFI7hM5ku62RcXLBuamaZoYkEwkmYTQmJkEUEXCJBYysO6OtG0aTtn9iT4WEwUWrtBoYiSMpYKK2
-yNK8ek4qSXuDUIl4XMhuxddkxPewbjACltAGyukTTJF1DvRerSyTSXEY+Y/MXbLXIqyLjcW6Kl1x
-xLNtInsMlRxcIU5Em8SDfezq7tmfhPvS2VWKWFMhLTdDewIFYo3Wm4tA4NgEhvXkozNkw5BZg0An
-gJCYEXCxw4TG/02I3vF2GGjHq5cEZbcczMh47fwOi3BuqxeiIZo720c8upSDqT+3EwXkOtT7lmtJ
-r9sFjg3jwy/NUq6DzAm1A+vh4Ct6q/wRIa1Tb6w8Go5t3Y7bTrJVX00Vq54MxMtehsmtTm7X1zJ3
-L+HY4UDKGAl5SAY8KL/52Ph3ovH1S4vcbRX65A+tbBwzNxhNNfL5QndbIqBjhlt14g1ksQmgr1Dh
-E9G4tMVMZFiJGShhxqVRo3Pw0zC81I05IWuegr0pU1T9wm5Wk7LSTavr7cmg+XXaKvuMWIkC0God
-FyIVJOdFhzJ/xe60egxtN3hzRBFsukKHVMO3Oc2KV9GeI3Mg2oIyC4l2YKNti6sQSEyYCNYpqCLz
-RTX/j9KilKPF6s8FVK0vaTCkD7GtR1s9tjX6g6A9VWrwJRc48/OkyvxlqFMjZvTDHiSHepNXJXvo
-2Gf9Ch86+VrjRasWUdB3mChiG8k3K2VnXQbTdEw0Qx16Rxgn3mF6MkUcvwdT3GBaappdpspuE/pW
-vi/T0FqZyfRFjUOPvMg0qtfQKt1bqyy1T3Ieq38Q+f+n+99z/F4VdfGt+bXj/d7E/Uc7/P9Sl4zQ
-/a+a5P+TvtbJL1o14/vf+NEhE/j1Bx0y/SyTRx3K8r86ZMM1yTbSwcDBuUNX5OAm/NEgu8YfUFv4
-cbpjiPao2P7VINv8I5tudkY1u2AuCdD4bzTIFk34Tzq1+eVwZdj04Yz0he79HumAiX7MslYXnxGu
-cYl5aAosfdX3JgvrVdNIc3ySEAeaTT1aKc/LerTtdwjjKj8ZyKpLxlba7Oqd543ISXM/wKtLeBje
-x8dKzzQ5AjhXzuQs4mAIOzxXVlfioLXSdpyIH5X4yG/Izp639hjQtP4xaqB6rFNJaofHbthHaDGX
-3ba3teowLu3FgATWrxDCD5oXbHL0GujbxzoKcu1veJe/MYEppSEUzVn1/JcFnvn7p1OwNgHuNtmf
-qu6pHBdZ6EZYVZAiW8kZPggifWQQcZ59K/Efjw8COSAvzYzaiveDgTMcHn+6tn5MOH6WFn7HmP6H
-sJCXhDcCJoSwPbj1CF1+4xS60hyI/qnCD4MWMjkrEYfJYRItsYrbCFE59j9OXvBWbJWU1y4SOagE
-jZKuiuS1GOoRO5/bAmY4pHpXw3CAtjihTcLlhJenaShbn6LKCbDdOVNSOpdpSgx+DEZObbPzCOsW
-u+Rfv6lfWaqYd/mQUXJCPobq4PyJ4I65mqBYIps+dficzr3NmqK4ZmlQTLd//Yt+9efOvwi+uYBL
-bxMaQCv2mypzTLMSFscQfOAVwQ8yiw6pRhemzh0+WK4UNz1uPoKHRsdO6TAVT63umsR2/nf42F9x
-k99fCW5jhBQ2izNmXfNH8tNcijnMSMCydD7QCVTOxWa43iCLI5PbtQ4hCbYoaP76vf/pQybG0OMo
-mZMHXT6F3967hsDBLZgtvadtObsBy1FRNGOQmALWen/9u+aL8KeLlM+Zg0sQFMMFD9DcndWxP707
-E0pJomLb/BiMsI7FJ+nJbhTtA4U16RBiiOEjTkcHfcH6r3/xn98k15Az/8dk3vUnICqzpbqCzFu/
-D6gfmINLdw7wDEyNh+ffvMffcLTzV4hamDYJ6DFXFNulX98k618j6QF6fNQpbh53R1h5/piaDWfU
-snHDIFQ3gz8FOhFmcZU7+truomR6krWrlEXFyYHIKgR5KtsEJoHoB6IuN9NTAnPMG3fw0wVKz7/+
-fP70xdCa2oxCgasauoEx/tfXbGDGMikM83fKNRzKi0rzE/mto+O3vxZFxsp3RcZF0fwd4N748xfD
-AtoxHU83TLgLvx9bgQYMS1W29gbD0DCJH2Ys1NZL11NMAZaGxQQm3XGbJO4r3X6I5KWsKpLZ2S8N
-ZvcA8ainTI+8YWrewhyGGpWqYwItBapNYN3ffEre77cnL9CF6sxt4nvkOP3+3RJ0yUiwrYo3phgm
-t6L0xma6rZ2h4qKaRpw4HboSVTsXzQpi7qY6F4KHQQ7KlcPST0Q4vnMBZvIbC3A+GR5/ImFu3Blw
-Sb/94wAWgeJ0wRMWOl9JlYB9w7yDBUazwB9Z8+3kFS7wBoWJ0fGNRFkwH9FaHUX8QpPAde8Oh3gz
-PIO8pIRYQFEJ+CxMKakBF/oUI3PdmKK0ub/LqI+HW+UgCvxExI1zdGE1QT3dcvv7NiDKnEuz+r/s
-ncd23ciWbf/l9ZEDARMBNF7nOB56K8p0MChSgvdAwHz9m0Ep301RVVTdat9OaihJHQMT2LH3WnOt
-dcZnFE0WVozuq1F8yvu6yar9KGkgPa6Dq/SD7lqp7/qM/zNtkipjBdkkiaw5Zw4IF966dJM0xwvk
-NhY3OtaYmi9T22ytkZollax8ut6Zw2/ShI74lVSqvsTQD956uB0mVfIwW1qS/IZtjwACfGQWh7y1
-lU4hv77SF+fdLJji8soNc4K92Yj6mvw93aaXhYeB8oR+1lydMyBbxrNxHpG+sz0E3rMY5qdYzgPd
-I5DY2Ph/+KMNIoe7rQnaoWcijGgmz9lovX4BEuoSvmqFAkVmO5u4DA6ob1dcfv0cm0WsKJWNSZm4
-RskfqWoWCGs9U9/u79dom9bq9m7KfAGJLI6Xad64yepzDEY3XXjruUlYHBe35jvFP46qR4eUI+cH
-zcgvTExZ87Oq6EYYkCIJzTu6lqJqW5pIcliaRbV8PaNk43Kp2dRl390cqlG/zyKZlXfV4NOpQOvp
-msulAULFPaWrMOSqiZ2u4Jy5SO74V2xQInUgYz0P3DMLLfSCV2nWHMN6ZmNYbH0WRhHdB4UtOSar
-Qo0wnUay0jlSyBUaG3oAMhP52SKpFvkSGUa9mWk589x4TyylOe8QAlgF9t3qar5M7UTm+u1c5rTl
-Pg7c1tVneNI9XgXym8etMGZkJGWc+UHx7OqIF+IjLXx7/icNX/NZvDBxPbllyMQtuARtzpXirlJ6
-R82wio+XlWlg6rYIT3Z61XsB1386MrpHwkb3gY/FiNEc41YjBfg+sr3icNJNN9dcQQnoHbNh9jg+
-sU0LFxs5pbV+aIKK/7YiKLiBVTawNlA6rlQZ5CJyn5PsbSazq4lff8patzO3NN4OXrSzPcGZ8Hvq
-RqyfjXD1g8K2x1FIamWAO3oGrVReAmwTvGDb0bJBZEotZq5qN007tEx5uAr/OAfEpnX0oh+gWaeh
-3glCRs3KlBQ4qg/Stg5+HsaNexjI0aSFwrVN3z/WADZv/GWZufyDHgy7tw9LvIYVhcJUSxCRpDiy
-abWHosXyG2Vuel0L0i37DbW6OcPY1hYb9AP3srYY4tvwt0h5x5EKoKzoe2s6zwl54TNGVs+5aQkD
-qP2nCsk2X4ZQN0Cq92HZRl51xQ4znBGG2Clt+D0LMcvNfmCstrSEQo0kbWGulfRENpEjsdWj5UZr
-GYObZZmVz+vkWx5dAALs+c5hNuOsTTZdMidJfJHXySjU1TAzJebiSTOzpKiBTEpsKRgn+JtN+4dr
-CEtYm8fnNV5VftY6euwEZgeXpZIRA0dpV0LvoiU92xbN1qt+knRWDlnVjpwlIuMcngXkl068Vtja
-ZhXEuxBy5UKqigZ9sIdm4jfZwuDZ2wxdZNal3NblfIsw3VSECcovlqfGgwSIJSSxWB00R5F7QThD
-zwWlW6SM9Slnn5b9ebDEXOlB0a988GS2Rt7aEyjtcLpjH+VZvzQMyRhC+FAlSVsuzEN2GMaWy3GW
-fkrbCoLuwvqwBInlXTNu6ejJskT50BvagZb1PqADT7O2BMwFkJ1Yr+WZASe7kZ/7EFZ9c3Amsl7r
-8CTvWFUB5yUZvuzTMYOvjJCeUK8d4Ngq2ntkmbX3UTvz5dOah/+yh9ai+MQqm2C2HOjcK27sbFwp
-p+mjkGiWb35e1mWKd5RFxqtdLtw1nU3hLGvLLPe9FfDQEsgDOMY0HsMOu8xSxGgPlBWn3LleEPlK
-AH8RqHWclGV314d5N1gIKMQiv1gIsLt7m+nJQ+g44GuxF7cppNkKYcRB1npsnpuSZ8x5F5eWdxnx
-Sd1tXaEY/5Ky5q64Zaq6eGEGvXZ3ZS3L7mmCtjJdr6FV2Cbja6jPG9efGgh8kLRNRhhK0p5I1ckP
-9FXXJhFcMKyLpbhwCx6r+ygYtNi2nKOORX4O2hVEWqU7hFrxnGtT0q/dtBQbTzGPCxnIWcvwGeXl
-6N3LYlg8QmOInJ+tTVg4C7OOJuT7g3deong4HRKeZMVWrQCEVtiixWp3h8ihj3g+c3OMyGvzy8m2
-RXMA30YLyqdAWx/izElQtyk5qLN+WcaABj8Ixe0iWOFg7cUDoAELhB6hako5pFb4RXxEWDDs4NFO
-6zkpwLZ9IiZyhg9Rg09u2AyqWNNtErm+ddOgYPI+gEEFZndiNzSn230IgWV+mPF2DZdWP1TWnWd5
-/fo4VFzVdBml7D6sSseESxWDVF2DUsjHG7SxtWrkLsROl59EKbQggD9eUNabMK9dJ9kqvAht8FWU
-WVC9JE5TI1Knl7i038LMdyGkjqqpFS383h8gRUZV6we7Mbf9Qp5EpZXLK7QSVp6faNlQ1ibfkgDr
-WYj0NQAKyTDZHzCHYwfHKhZfdQ5fJgNI81p9gyqIpLgDbVBDPpzgUPNYakoXvuIHsoGaxts10dRh
-BaltspdzBkmGrYBpbOKG6Wg1c/1XVpdRQXXurM1jJWQh4eZukUTxrOUBzu2QeNKscCU6DZaS1FoY
-cB+ypYBraL5YMwXnaxtblKToczSPHj8BXUJLqPJjZz1ZFEan6DAySGEJAFVndg4qE0jAafbrsghP
-xrZM5Scf/RsfRTSWysOT2BroNTRj67NM+n1PZY+/gKN0Ak2LKniyqd2sbbhMiHbPswDM23TO/CkC
-IuOWvW+ji4Cv7B4BfxWURJXDjt86LRFV8EWpSwBQAAUpO7MglgWKO+xbcJGn02kJBw5QU5EaUmyD
-dpr5pF2cKN57BEtar/fa81t+VkchhiI2ZnXEvdT7NcHZJz3qDlaU3FMFv+JkIuQTVRF2o+4pJPqK
-XwkjzWoD8KWTX6epreDgOZmqLuI60zwWh6YxtVTVKFOy4Dsyx2ioKzmI76PVLzmQlkIYIBfPQ/oG
-GyZKM8c2tDufw88avpgS6bXdI/vSPKV+PsE8UXMcc/SLrGgynMynFy7cL/JYYqjw9cmSlmw6itHi
-wLLMZOYTjD1Mgvz495EALg2Vb2zIdKU/VCW8Yl0OsgRyK6olKDYUROZSTG3qgDu/nCP/U9EJek8/
-TiMPTCEe2f6Nw0PQRjPf2M0QfnfHsdd0u6+qONdTgjU1s6Pws8b/meXHBHYD/kvYV1I/rMoxVaxY
-YUDN+65DHpycNnZligp7yFJK8MlZzEY+kC0XS0m/DsBfOtmdwu2E+I3C2UGqxwpYN13nH+0m7nVw
-sw6JU6eEaiubz7OsDFn7vYu+la+qc4rMB5ya5hZhPG0aXlXW8guR9kyhJgq2xmnLzBTUczSSrwT9
-QhXU2UhazdM10TrmoTmCL+VvrttQBUoC2Kk3B2mux6jIwIZvIUqx1Y5W1CkLoobF/DZVSbfeTEWg
-eFyKhM/lbJNEmdIwlyP8751wG/Npf9we+eBzXgrIipzUrmfhK5Hjujr+ooMpTrujL1QO6atE5cBl
-mi7UBKA5QKRxwovKCavLchKIHXdxweRzPOMFSpeidqpJx9iOli55LzgzfAW70alpVghTWocaGMdd
-rMK0e9LdmLrlps/HZmBxARrnXniTAK2/gefPdVbajtkEZo3Pjs0WWPa5jbyQ8pKNJ+d5WPx1OXcn
-h/2TVMzr9cnsuG3+pBMxc1BAwJrKp49tTa3R10HHtwVilFMY/NwRB5h1KQxmUlvYfVVxi3b8ELNn
-AR9tWdb8DIu1XW9sS4OJcBPgvcFOJ13cW8dANu74INfCBQBmTYLjj03QbLqBfpoqrJuBuqCgDDtT
-yMdNzfUR9VHMWRsY6VCuzwH2F5Ba2q+oUUK/Xh856mbFXUXLlvEUHAacWbN/4HKSUDV5oQ7CDi/b
-sCbLI4ZhEzwKk4RL/ygCfM/PSx5QR/249SCnmNKqsMoQ++0CdKRvdwPKGHNhVJPpH1mRy7h24yo7
-mHBSefNctRwQHLUJK741cCAnAdYzP7JbjptLKVEYX60LpJGTKKnm8VZiUuhPg3HGFhKQtkDS26gs
-j/qAmADN0imhAPMyoUdsRniS4T/mTDpMsFhnph+7xjmPc+7SNkOvVhrg7igRjqJBK/ZhrM0u8MfG
-oohW86HrdTZILe6yBVTrgL8jO/N0gPRhxybJ5upHnVVxSlMxmo8+AskDncGYHzDGHnGal18qI3fj
-F9eFK2phAsa1NnAa0azNeQ8yfCOttF+ZDCSQc56Qppsd+vJj5Qjn3hS6pUDinP+hIfhf9IwCeoKh
-y0BH+eJtgxVybDCRcTx9nfGAczvpxCoIlsVe1KJ+RXPL9/3DW77tqtGmCtieeqad52DTftNnXZqK
-zNlBDl99OZnpzY9Lo4DyzqPr/Z7Y728FQ5MaF6mnQ/P8bXyek8TNip+w/pp6kVmfaum5YMBmFmvW
-rvff67Ub+M/+saB1rIg9cxQh479PpXpboHoocvfr7JYjG5kxMUzorT94CbchfGHBsxCDCosGtnWf
-1JBRF21A1OTgsO+mC2EmGyFbXrP2/FiZf84+qi42W4RK+T3PBLxsE397/+P/dqhc2sIUtiTcsx13
-bPPzf3S/5y4qjcvefxpSMfM5eECZbSEPV7ZQ77/Vb9ccaFOX8HfJJMjBZMJw8Z9vRRkFFZgC6ilM
-CBxZjhFm+elRrMrcIjKKpz9ecm9HKPhuSKZ0HJ/39B3nbbJ91/awTenfPzVkE/DqAxzD9WZk9s4D
-wgHNvOyikHqfYmLh798QZ9jdNasd+P73v/vbw8zU1PfNLIMxqS8Aiv363adqmDUMePcLPQm2jguy
-ieUZgYPZzr//Tm+PsuO7Nt/WtRFpMEF627zOKQwDF8TeF/BqKr9E3WIeUGnGTu2oE8dUje+/4a8J
-aAxNyB+j7cyQF1k1RdObK2jIMJ8H09J9QZBj+sn41c0yx6K4cF6jri1mhP2gDJNwC6Qo4cn4/gd4
-zVj75x1IqeU6pLD5aLH/i6g/domGTKWqL21iLwA8mWWt+Z6uRxJmJz/KFt0lpjQm99us3z+b4pYP
-4sfdl3IACn46/Tg4ZeabFg+t/4W7uIbpwm5hLYKKR0JPQvYrgHKwAiLXRD6wWqvJNw9LDTJQ17sk
-srnxN2ROm/7roIgTehZTN4PLwJ5QZfuAYt4ZTlNGy8G6q3PL1Fa97k3ZZXUOgV2vHnzOGRIuahvV
-u+YRjxKy4WOpHw36ntKeVTPHXm56OMHwWvE5whTLUVZmrCR2H08c/yDOOjqTjp61abJUOW3Z9w//
-bxec8hygNr5COe/+fmmP7CwSy16Xz6BjEIod4wZMXr2D7m8qgJ8t6/ff0twtv5xwllpCppnRBGgB
-lFEc/HMlYVBGqFUfTLiZpekxjmko80sT7J5bV3Zv8wk2yD9HNlGziExRaBWl+TTvf4y339x10fCz
-cpqwEO65tymexCZCJka+/jmvaX+eAQ8fyg9OPjndhdMPV++/2dsVBD+Ar1w6RRIuEFFhzq/fWQo7
-hlzc919022Tro58pc1lkGaaO6g/fy3lzS/PqgSK/08bwwHPBtd9MC+Nptoui0s4HiO42+FfalwOo
-Etqo7HTTbOLpgCtgLflD0bDhupx9N3ykFPY7ZKa0dWnBsOUx8/tmcgvqULEi7Xuw05gdSqJYBJ6T
-OktMW2u2TBsgGLCCJac6kKZNnJdMRx40kVp8OSv3eRbFMcg8lhUNRJBdlYAb156i+kqXAoyBHXuX
-/9bx5hiErCs296mn3N8npr4fD5gSxvnDWBJakPN9GVXkG2uq2Tm//1aG/P3P69mcUxYvieACEhTr
-6JvreaobeqrCix4I6nt9L3z48ioH8GAeTSz1LEE/Zu9AlcxOsJor0yX9+bdO42pK2SDYHFzfU6af
-yV6wYaVzyj6io2CBebTWC8wZCbE8aVOiZl9ctIPunkBCtscpxDW2JT8Hf0yLzBDJInKMe2cN7JWf
-6bo0J3z1M97Fep2Oqx+tCS3ogA47y0/MmcR6HPOPlWbhr3ekzpjG8s8RGnck127GzIPnXhTR5XA3
-iygnWiDvH9Lg19sFCJCx+hiWFbR018ZT8+vt0vINdGA30XOhXfUp6yoiIR3Go0eZB41Hjz8ZDpCZ
-QxDQaREh9Y+qY+nkxaOOU1u/0vcZmsYuWMMFXJ5MhvZDxP61vynmHnRREmjnmIbZbcmo7Vk3ZPRs
-ZGcly5ZZjrzW2BvOEzvtL3kiJYCkcHnmO0y77seVObI+izpoU5uGoGxvR9cwf7RWa2BzUCCo3uII
-u/F4KuUHr7BcYB+d3g3Ngp0l5BPCpvTOisJhSpA1A+28Op8Y4Q2i+IJqAmLfHMN8HtfWFju36dSD
-w/P5qUlI5dhEnUxoYcSGmpRV1cOk3PExdV1oAYFtERZh0bf7nI9hj9ui6e7JHuopi6LxmM1jhgHT
-WxoQrwyXsfeGqbUZDV+gwPI+TFBtNkGSZR/HQOImCqKRiK6pqx+AZdAS81BA0u2zvC0x4bfesNhf
-nWXovwi1eh+S0Sc3fpblea76FMz6kp6/f0X8ulhzQTBWZjGDZ8RMn0LhzQVBYlmuWj+uXjhfZLM4
-UZXvZVGTwic7W354/81+vaF/vJlCKGce89Rw7pvFOlo9SrsurF6krUo0QrP9gFrcAZZW5pfac9Gg
-znFd3jIiVPkf6rHfrvzXr4lWh5ENi/hb2cTo92Gde135ApqVjSuS7RyAoos17A+PiddX+tdj+PVb
-eg6WNRNFzwP57SZydsoc0k+SvIip5p6BjUZbrmbDk+7mpFB3wJaju7SPgM0AJQsRIusmLU506kNa
-LwZkX4j15HUnu/Csslr1gectrhH6isNjWVK8OENVIj8fBPQknVXfibgILiras7ea9ICPYcY+FYiU
-sMkPyeNrtzTUC0uVku5NzixOTCGNtS5cXrI6xhDUjt1BxL79ZM+Du105f3+ohd6I8DgkpgygDOK4
-APBx3pYEwlL97AXL+uJBxiQHNHUTDOdZcZzX+YmA2eKza4XzbnRihh5tZ8kjHna/2r1/+fnmYv7l
-zCgj1jR6EIFwTKo3DxRBfh3jg0S9xCODA9ppEBPmwFfhrmdKMuy0V85HVQ5gZlOrwUxHR/9Y07e6
-1I3UBIyo2LpeRQxHlARB5hNR+AVNb+Vvu9y6TJcKcbu7nFRu6T7QAy2ua4uTtpEMxpbtOsyMXbK6
-j7aqCdUdZSNBK5OXfl8QPF+5ijjEnE7xMSXF7Lr0B/L06qgfvy4QtT7Y0J9vrQrM1UbOwtich4n4
-GZyrDzA/k2yLG4wvkMwCg8wQMwIA/gSFjKCw6h7UM+kGyeJ9FHS1I+TRuT//4bI3x+7tsfXoLpDE
-wW5WOeb++8eOmXAWxmu2il7a1POvLGiHj2QQLAs29somkdMEDL1/OsWvwleuKsU2C9UteiQXCZ73
-ZvcoiD/oIHdk3/BUe2e0zfDKRVAJzmlUZgcGEVjUXT/uXhrXhpQXz/iL0tC+tXToHt7/LPL3S4tS
-0/AiAwdningrBuym0u9xt1Tf4pkBA/t28o3qbsWU35ak2ba2k9PhwGeEb9GnV7iDcOYfE+SwO/ok
-IWnwNbGCu66W6lM64EKg9UsLvbL65DKXaX9sXXe+kiPuFOTwsUf+pkmE6xfhkFbU2CUwVRHAly9X
-vzmBdd4csnywLkMpUKjTyrAusD0uWHUmHmcZ4ZMHkAFDu61Fml8AEGEEbrmgbWDBFMCr9ZQxw2Xo
-+ehrtqbUIv394MzVaVIWLghGhVyGK5Fx0VbS9btxw7Ri5IqijpynmbnSIIsiho2hmsupAUdIVlsj
-0dUGTo1vK8AscWIDGvs4dHX6Ce7t8N1LHdLAesAzf2p8/b7+cKWEiOaQrknOz9sl2XWYhObzlH8L
-JP2BTUiu5ldUHiYmhFPGnkq9rD1uJ1lZXxedTTg6pG7K/8UFGxgJMo++IPToDfx6j6CU6st+VcU3
-jBsEVLyeEElcaEH0iBwO9qrDhxbkx2GRCYaCMJo/J0GnG66TVTy8f8W+adC93j2QVOkts3SgtQyd
-Xz/MWo4Qy+Y8+xYrW963UvR3BD9axsaVnvNcHK/GAoJF41XlKcAlYEeV4kEGL2O+SVUSIEiuJn1B
-YqH7HeV862+CNs3v//ApfysZlETv6nOLo5lmU/nmkOkyWsqw9cZvdL3b+AOVBbBzOolkzfS2vnKk
-zpkp9StpX0Hn198TwlAImcBJPJ24qu4ffUwoF7aa8g8OhhEmJDwFDl2GUdReAR5uoUlDAnr91P/x
-WTwsDZlOTy9lWpHnySbleXgDFiB+6T0aQfWSPlW/Oi3ofPNv/oYReH9xo5rF3NgioAP/fxZBEPwF
-FDIM2RPSUgEqwI/+ZhGIv5QfKhvZAT17ijuePX09Dsn//T+u+gvwqW3+2U+Ewb9jtfAM1eAfTzm6
-9IJeA68W+rjDeNq9uRxHXPHpiibHZE3OO0Jxiyc/I+F4M6a2Q2FDtgNZ1v1CLjyjuGmbx464kHS7
-L1cZIe8Qgvqa+D79okZRXq+EnwC9yYiyjBmOAVIla2431xFeoWqtvpR+5J6SVOVcEw8gyXHCCX+J
-+CRYt3lWMlbpQwQLqQzuFblpd9086mtbP5V1h8wLA//joO3uc50DNdyuuqhWKoxmfuqLoZyh+FjL
-yqLPwHU3hxV+TRfNMxhf2eZfwVjBGXC7EtzPQrAuyr4lJYujhQEW0UO6NKlRLh4uivqd3zmBty+A
-42Hdd8OMoPsgc0/a0AQRz0mUXLiZ0sEeaV5KOFJVSGCckM2em75pPteDvV6N/QKc2C368zjsp+eg
-1NVnb0iJn8M0iqhoytvbpcniJydxIBBkTg1LZCROp2y2cnRssOLBhLBrrm98tFSkQQUz9EWEWwrc
-Y5pfBS6KLK8AmNosw27p61OlJpJYW+z4uhrJvvUQnDqpuhFtHzqbzC2f5x7onjuXwQ1uhOaUqeZw
-7y5Tz73RM9CdFvfIUEwU7N/y6swfYrXLlnU8B2eTRqdrL9ozjTKPrmPshwiw/FZdBHbpVFsEPcUj
-ipDxfvSQ5GWjgI475lp8SlUefRqsZj5tJh9mSxVaF9MK6YdurGT6tsCom6P1Yo3F+BG5Z9Nu/bDs
-LiZayudJQAw8Oyz0RNh5rZzawkuutVcV+6YNkUZVUwj1RwilL8EGdGITEsf41L4y84ku9U9idAYE
-O2ZT/yXLSK002YNtgzfIjW+qADTwkaIwvUua3P3oxGV6G64+70YzprsXAIkOY5t458JBMEHuVJ0c
-QQ4Aul8Ik3AG3R6nRTBkoIjYSiJXP1tV3J25dhl+m7pJdWgbS2ob4U5BumcCHd4B2FjZ+ZPsa33K
-YlfewDbFma4DxBGbEIncs8d4FylhQjpKbK/lLvQHtFWlqB44j/kHNMTJjZqz/rIXS3KmiKgJ96Ke
-2gvcRt7Okktc7rhc6wfEqsCsyF4kb6Pl56Kme9Zqb6yRcJbNVVYpsA2bqeQu/zQjYPdgJKH59jg8
-s0NX5SyEhsYfdSVMM24O9ZLJOyODtIsLtFEziiiH5DCI3dM4kcFMku0d3FB3OUv8BNr1JG9EkGEN
-9tSKDAET/MLc/34uuHv2/TwWn6MoXDaiQKeyU6MX9rBSnXoLhde/H+kVgAlMxQA/E41lgjn3CuLu
-fDH4hAN5ZM8yR+sNzXkhMA1lzJ55E5ci98td1M/URSlpQR/mVywAQAg7u1EMhuAFeA3urXtv7Ynq
-YmOB+Bv0a2sdp7F79BjQ3Vp5EOa72ZAIXJAECLbkZW0oBaXhFRSGXID+ebmFBuEgH4RrUBvCQbD0
-xS0Yx+6u+Mk/IOzODYu9ajiR1FEb8nXTjWiTqzLj/jAkBRukgs7OSPzklVyrRfoDdQGL2WdpOAy0
-4c6yDFgImrQNU/melzHUBsNvSBj2nEaG6SAM3UEZzkMK8CE05Ady78I9Y0brMgOXfARxPG+X0f5Y
-GWZEZOgR+fLS9RpmOMcwGuxz5naAJug92Qe7Tz7MrxQKcBQgQuFSAKjAFlDs4arcob8MCakoHrHX
-X8spy26GtvpEzsiMmPFcGe5Fadf32ogyylkxmjeADCK5X3GmtFfHuQmOKiHzYjFQjVH3hq8BaaNN
-RX/Wuf05PEeE+WEAf88FzCFQI7UbOj7Y8sM8Oeti5aV8vWb9nMx9fxmyDTjICQYzl9G55Gxf2HHn
-oAQ1SJC5rU8s5j0nHo7i7bDU6xVKRSgifS0gPKZ+c9suS3jnrl2O7pj9ym1uICQy7F5UndhneRqL
-85XCbW/1U1DCJJuFWWZbdmgBl98DA8V4R2sKj8gM9mQ1AJRYxstVYaAoixbo/vJ4hGHq9cT2pLd+
-Z7XcEuBUOjQUECtArHRlUd7rIopufQNg8QyKxa9tELucJlyM0y43wJZijp6SHoSLY2AujsG6pF3v
-3kmDekGIU24HV571BgNDM4+V37I/ouNuN76BxSTZHG1xo+GMyNXzhIX7LrBCtV3HeTm4yxoexkkV
-WESi6mqd9r2B0kyDB5+mG3vvijXGusiGFH5Nm5TtHbl9xa5FQHROdQqu2SBvUDQkz94rByesexw1
-+XjHRVhcIY8sboiM9jfSIHRAHwMyE/aNIl1pZ7Ayp6VB7hT4t3bWaDA8k/ji6w4fsrDy+9LAevxB
-sclCeQ+/2bB8WA4N10fbkjwDVR2WV+4PxrMTYVBAlgYK5PfTQgxYOp/KgUck0mt5ahVse3f/qZNf
-2V9/qJMxDbqUr/89tevqm356+aVM/vlP/nYkC+8vlAl0F/Gu0WX8R3gGYoV/FcbOXxTFLu03x2O8
-rgRKgL8LY58fMf+3IXhRxvpsD/8NDzINl18LY2pQdpRoCtjaMvf+bfaYDN6sq66hK4+y/RFFGcwc
-V4Cs99cCxgOXfgtUrz6TImwFIJ4WuDHmh/1EVt8JZXV74Uf26HzyE4JmalWAUmjhR5NO0LBC7EYy
-+x5Z2PSnIS+7HXFCGJaahWDhUAc0LRpKs90sEVGfjJQYd6Pb158rHenrtWMbvQ2QgWOkXTvF0IEh
-wyGFK3xUXQb6rstJR8TvM5xIErQRU3PLk4oa1x4D0oXYSm9ZlDwkMwI9VKsC+SvbZvsrlol+wQOZ
-5y+AyNrrNPZ1uZmmcr6GN9VTWhKOYe/KplzyTUYNqk7rpfPWA8jDuTmBkMhPESA3ztlIjXvTJn67
-nMZWBY+7LJcZsgMfkGjNaGXZJHehdG8dMKi3IXaquzXL9XVbEEDK3HfYTUkZxNuor038Y6eOZVhU
-7Tbz6jU+pgisb8iJyJljeB0RApdwOD6gZh3U2uymyIZEcowEbr6TMnJiV50EfpXHB9Wl9mqDwyg7
-IuLyKpjpUq5lJXgkYA/xelGT9NbELTjxjG1Zxd4mDZAtzh/7pvBYYjUZdpsOjSdzD6hser7KKajC
-aI91skPXXgMfPjRBE7CBYjsoY/j1SRZdY6KwDkB84Blt/X5wHQ7mqNVw0aMH5InT0tytj3Y/iejc
-6aDH7Ije1ObCUeuRnEd/PVizGffnpZwKsnmHcWzoQuKeGEz3qu/1tJbgd5ypF5/iiD3F+nlOscp0
-L8PUIqkkd2ol3v72Pwve/2TBMz13ttL//YJ3Wk+/LHc//8HP5S60/8IvT9/ONKz+1RII5V+SYc5r
-S4+xpjQD4r9bAq7BEyKC8Oi0mY7Av1oCHnnRaFKJZUR45ynzr/6NlY8l983Kx4oHWEDSrghtpj6u
-WRn/0fheymHQlUqDMxt73bkFygBarZPfzYwvX4CDr6dEggEGUoVxN2HAgBf0Sg7KDEQoUr11g0Ud
-tBDrmb7x3CF6zFfqmfPWUIiSIc3iU9qzYIKiioJ3i0UUZpGIIJYRNPS4+MN0O7Ly9ptuwXB/Bmyn
-eNGGfqTbMXhM5jrD6POKRxpeUUmVoSYBATpNDEdJG6JSlrgtvpBX0FJlmEvktxbfKjBMcQGPKQtn
-/RFTtHcHSQpc06ib6PtgGE4M/y8hh8Jfg26WfYY80T55Uaw/zjE5MQ5Ih+9k92I+grTAgL6bFQZW
-4o5388LMmHCj+XJVnYAmzQL/XZWWdVtX2QSwGkHDlbYcerKvMKoYsTPsx9r1Lpwky/GgUCEBQprG
-5Glt4upYyKjHnh0ln8XixvPWDcrgpDdAyQ2CheJ+EUlyzRYJcNRYsyZORXxCwGJwhjVcn9j13KBn
-Kkt5XybxigwYs53aLAuAGZ5WzsjjJmdbt6u8OnxZBE5ocI2dsrcQg8ZzCl/w7VHeno1Rnu2zXkgC
-LuqaLMWWYXq3UsMbZCWehLAJrjwaFOx0tBrvtCrbIyKw+phbdk/bBW/QNkzLot56q2zuWeGHM6EC
-AFXOzMEJCwZKVlMVEDcQw2+CeM2uU7nUZP8h1v5UjDZendEbAqiOtQJOsy7krUQIv9lnywjdeDll
-+6KvuusKr+I2JaWCXFDZtOh356TG19YPZ0OGAZjx/hzfBEPzvedVxqM9rC0pBwQNf5/inCAi0sB5
-AKXeOjxXrPLWMYqIJIrGOTvVbtXu13DJ3NOmkvqpYSLH+JGJPUg2/wA/v6OB7LbuQdQhnaY5FTiq
-hj7OHlub1GF9u1p4CxlWIgAYTpTQ6d20qOSmdMJFFC+cXWfCbl922GvgrVeJ1V/YK64RMqylKqOr
-uG/DXYmxYiO8QX+e/Emy4RQOYUm8B5GdRNWs9x723/2EPRvDvxC6OkaVMImyAKBALcqtRih8Bhkt
-P/RlXnJ7ux0gYKjeMX1nVcEA8kKv3iOuKslzMQacJF8Ytg4OWZ8hQ5nYLXdFLs4d3EOXtS3IjgZv
-b3vhsZhs/2JFYrFd7A5kHDaJI7RLjvs4zwwftAepuYLjDUitau0rC8im3PX96G6hx4WHNFuHMxzP
-uJVhip7Cq5wuRlJ5dlNb5ietP46Mncu1PZd9O5452VjeLaLyqk1aS/9EZtVwZ4X97ZpwY+aI/tG6
-fBAWy0AR5C9BV3u7TCKLqdOsf7BGp7gC16K2fQUCKZ19cd95OatWULIhDTEHbHDSAhrPmUdlE6lX
-2vFwwY/5jetVj6HXFZiKubGt2sV7G99JWUEkqUW2hUMN6wp5CVwY0kqP3SpLdOCIHgDqTQ8osZKd
-DazxVNXeuncKqU8CJ3PuZGPAYQWaRrok/qnyvXIvfSK+NrHXj5c+G/M9BvT5At/j+tFFFfRJldRW
-SU4TA6s2zaBxUA80lcfzZpKk3IRxz5rCvgyUXOpH1rO9zjVd3Txer+2cuzet4uwGJHXxDWp/cKxR
-bx2x5JAwKZhf7+M+no3TbtzisSy3U+/H2zjN2ysQzaSSd6VhSzlPKOcYX8RERM5RuSL1bweCuEy8
-tMtBuZ3oGO6jFV7mFq44R9vBGdtRwobhc5ouxiLrauCFpqzDW2dVFyl4xv/H3plsx21kW/td/jm8
-Ak2gGfyT7DPJZE9J5ASLpCz0PRAA4unvB1q+JVNV1vW8Jq7yqmI2yEDgxDl7f/s6Rfn3VQlJei0g
-ADovltgKv2bY53jDru384gvtF/8m7iNwbhE//5fUlztLDsaVzKbyGudSAkcvEg8Mi/Jv3ez0Tx7D
-7nuvmcpbgoei7Qx8c5fXgLeU7v0jtEziZHJauVtIKTmbbpwQ/uTY1cmPO/vF7ljStt2Ml5PVkAhl
-1t1hMqR53XUyW089DdyOyeJ9ZBauvyoMM7nqFdERgu7UZSfz8CBima7x1mYb7H1smXl0DRk6PSRk
-zN8YGchogmZ9D3ghXlTypOkNh7ihTyKH61/QI79KrDx8jEvghysMeN0z512mjNpQyaWlsu5APHBD
-7qc5vRb9kK21XesHW9nQ2MIUABB45T6C3N49NtFoXWqIX5c4KZc5qStS1lsT30l3MO+tSFmME9N6
-Q94tfSFybePPdVMzGgVXcxN3FVMCNqbmwBN9eomzJn+wY4c4sgEL1HYc7WwtCBVYp6zKk2z7234g
-EJaGpG32/RfRuMtpfqZnk4kvswFk81BNVOif0VssQeh95Q48iTLhp9e6ihV4bXsotmgUm81sq4lk
-ezHpr36v3G2YzfT92oQtGKM9LZ22HVEFxPOwH0XxME5Ts0+yMdqySMMjP2W+Gcoyv7WX1rksSd+K
-jHrTwEv6Q6Tz38HZLxoCtE4s8+/q4ws89C/dX2Ztf/zJnxWy85v04UpJ4S9wJPQt/zs4Qwbxm5CO
-RbnL+MpxJAXqn1UyrYI/+wFAu2kmwDmwYAyZwOn+SVXM1O2nqhgTjecjtJc2pIF3vcQPVXET9n6e
-RpOL3rX2zTVEAXPcuCZIS8L/OqNG1OfBBKQNnmFfC6+qcuYR3Eph0CrVPavyPq8a+BinrsOKN20N
-PbVOeEA+Z7oMipTsuCtzXV9lMYg0b1e0ioChqx4GRDwxsvKoDpzOWBS6fUdG5aVymu4ti8Zb4oU9
-SJ+WwfA3dj3kokEAMboh0sLS873ha21eYjhMMHIHZgkHkP0w1XvLbAlCKfFayXXaCYiIHuL57oBr
-ZWhuUiPM7tsGY2SXa5s2JQ/dJQ5CpfWFW7bM80FkfzHQclW8xezq7YR5O9kDMRZ4wOYSEkiV+NfI
-ZdynhtnUxgiq8TlBg3GjaeLtqmGWONZitF2psohHrOzY8JdAMtKndZEf6UfEz24nmy9WZzMfI0Yw
-eKsC/y2f5itftOm71n4+IrgPz2pw7etEJuIQBJ657VM7WE8MYvj/2EGDAq9EcCkg4aBVJMB+RRG+
-BKENQANyJ3Tn1WgCaykNXdwMkDk/TaBtjhZplnsQ6/Nt0FnziQfjMoJLKFxRtRrJIc7T5CvrQd7S
-vFBAExCIX8dFCX1cuu2hqyaTOVZfPsTaowT3h+qGR6y3VlMUUw/7vXV2pLI+G5jpyMBuLPu6cqJh
-E9SUywUNqiNYGH2R9xK2JTyQYWta5bA1lt1wNMJpZ4+2PuROOlUQRxr9bMxFvUPpauxBAugjCV36
-jfmcd4w7s77XYg6vBqOpLisjGoq9o435mug4V5nmblK4411Kz+//yaDDUfHZkFZdA/gWENxIN1fk
-r7antMZ1UJ4YZox5tfEIqwR+ZLUGnWTTHwVim7wbScOL4fq+/bfj8H/pOKCVttiT/nPH4bF/iX/c
-T7//wZ8NVhGwaYqFf4z+hLM9/YPvoQjm0ntdBDMISmlriEUj8Od+yk67tFnxXvxrY/VotAqB2Nr0
-MIMQqvNPNtYPAm4+Ec4ausd0fMEro2pY9t0f9lUo3QnoKH8+B6U2dLb2x3qed3S5ArShjs2Enm49
-2d9RfdExO/lqznMC258KZG7K9kDCdnUBDmG6ITCO+FfcbXfxPMubojY7gbuTWTkBUJzsxKCYUxau
-E453hjdjTV0D7UDW9AjOIijqw1AwlHajUVGhijw0roMCasCpatO2C9aWaVb+NxvMQzIcRleKSR0j
-NA/UE6E34RklX6hR97XiIt8beLKsLW40yyGElDCFC66lY1+DgpnW2IMXBVstiIwvrAgUuKPn/q4t
-HHq3Y55chUsCe8PTxMbS6oYPZWHFD7rnnMGXwhmtB+OV9mjy4KdOS+hhEae3UyWhx7TNUcskIjgo
-HF4QHyV0BiF0rZKMyobyzl4HlYJ7twY04VnlKWUnRHy30tk4WZRsQjUX1h8d0XTpjsYY5I3jNFYj
-sscMWMu9MZsgTzZgHtJoFzo1dsm9lWCG3as/2q74V2BWg6XMsDVMdy45lO25hlxc8iuQn2sV6g8P
-wH9rrF/WWMj//m5HuPi97Ie3bP5xV6AQWv7o+67gm3BgA27hYGkbLgqk73uCH/wGZGYpvDzWLXPL
-f3Ui7eA3ZM8sHvYA112cF//aGlySV/yAbBPTMV3AN/+oE/mBz4c2Cccq1i/5PoIxfxJZ25hH8D6F
-0UmZnIEYlpreLagAzVOv7PdJQwdIMbUwRqQljeOMgOn94E5Vqj8g51R7uzGbPeN1/PY/XMabP0TA
-PwJPpcV3/KtsCjgo9zjFJZMoCtIPsqmpk7PMcK0dPSXr6jrgaH7ta5fqj7JJQgIaqvvEdAxnm0DE
-6SMEHUatEPrRQgm/Mlgwbzuk/U27BZBWeJ91DXUFKP+IUYpH9VMRgxOHOKtqpivKNfxNDhlNXKOL
-IIhog2nE8A9jFuoNjLCSZBX4PfBzOFR6WfsYzyriMGVgEFwHMm/IYOhy7Ox4DAtsVmVw8tvBXBRQ
-6XZqkWgCy26HbQCX5Eab7vAYVHW+GtumUAuQJ2eYgVjxtZgLceeE6Nxp5RALtmbnpjnno702GW4Q
-lnbqySLMdkC38hwNkO3clk234eA1wpsOP01hZOzbRLcnQtfM/cBQ6y0RcctOS7YNtIILM6pOdeV2
-D14JGtAMpnnvdUN/EYaxOk2GMjaJp6nBcmQ0V41jz5dlFO+MJM3oagxmdWc4wZOw026F376qSH7P
-iSgLgRquxCDHs4Hs5hZgOWkZHr7V7Zio6TLy9L0Yovy6nYdkNemg9GABuma0AwTjvLKFknddx91q
-wqCmqdVF4t4JP6vvVFLaZGn6xY1U2otBCLdmdqbR0dmPaQTzezKNhJy6Zkvry9o1OPEfZnQzq4UD
-cJzcWu5JdSt3NRny2dpsXTKzaGpuNUj0w2SH9ZbwLsL7tGhop9XVkc7kuDYhjdxy1ZsL383aHeMy
-cYpMOzgtvt1TbIo82oSlyL/Uvdk9VB6tsGbkAURetEEDtks0aTXWdGkrZMLQg90diPZmi/yM54Wl
-+nU+q3ZrJVXvEjeqnJ3G/4XDL6vjl4xljwOkncCJovPS1IF3wlPjVUC1eCHHbtjCzQ9Q58T5tjdA
-yVsj0dK67O070qeJuhXaWkVtErOk28ILdyNNC8wERBh8warnrI0pp7r2g2Erg9F8sSJE/0U6z79b
-jB/PGKycjT9N7YHwDvSIcDncJ2pzTSINepKjpdy03VSjPZMo2xPIsacm57mOtZ5wd6spPAt5GaGc
-K7AJ8yaP8mhhBYXGg5w6FEMO9KsjsB0Tzb0kQGTiOh6Vp1s8PaSuXkZ0zS7wbnH1nCHUa0ct3XFF
-IulsyRQ/Wei8wVYbgWsS2vmggWhdBnkQcPl0g3cVceXOroIQ3Xiy3F2x30B35wSiIDPldo6oLBhv
-vRKOO6F4lXvM+vYxiEf96ik9bcOxc444jkkDcWemDrVpVFfshOOTimnfr2rfnQVIaF2amyxpM7Dv
-Y0nyI3Rm77kMvWDYSCJIUkYApq+uEOw5x8mk/7MqGHiBi1eY4i/ninbvKpiVOlaRW0lSCnKmHynN
-cIKRKrddqSSyrtHijbduq0zaTWWsOKSWXX7tcGOgO8QhxnRDVQadOpOInJou6JXLdnBREF+Iby3M
-i08cjZq7ZLD7ilBSixiDRaYG5RvFmreI15JFxuZxqMo35pA4G7HI3FzWaLBtF/Gb0rI9j1YcEymI
-IJoEuPLBX+Ry0TyQRlOP9PHe1XSyy7K3NOrR2CXvejva9e5Nh6nU+EIyFoq8aRHnWe86Pe9dsxfV
-GJZ2ziLlgwXZnObCHJ8iP0bAuUj+zEX8RzN1ow0XVUC0SAPFu0qwXwSDcaDSnTeq9l7aFXrC0HTj
-Wwpz63OliuSO+pMk9q7tohvHcWoyueaeiG6ylrvnahYAVhyMZHLfLkLGcJE0xs2iM5DmpM49YlL0
-teYogULbPuqXjN7ctTEtAkmpiIxBxterb+zvwV1gxOOu8dzumUhy3iIKhL6ENmRD1rLTY5tZ07YZ
-EWayN0zHdBFrElti8g8WHfs8N3mGTInA2GoRaukYFNa74jNdxJ+4rNCBerO1aEI75KHosKiIFZ3Q
-ix574PvPdjD8+AIaFr5ABLFrS5netovdt9RG0TT6Dj7gZrI/IfSrjyntgxtoCSbvWrxZKB5ZiDKz
-ryejvkxDtn4t88to9kPErBURowRnuNKAM2cWxsYXpIPDI0uvZqiie4dWAn+gJ+u65EYncWbR1MpF
-XWtZg0WY+4ywruUfCa7IZ+brzW1r2dOFIxsnX3d1jGZXBupNLTreDG/vpiWiZb/UJa9EHVZvrFJp
-rwmLQAbsvEuC50UdjGqBEp/HaXth+4vCGDgFUmKSoz1ni6GHMDGUh5h25tZIgPegRvzkwm8ot82i
-VSaZDNny/C5hjpxFzpy+S5txUCFz9mNvpLsGR3Bfvwuhh0UTnSzqaI51/Fzxi+Gk6toQTnY3C/c+
-A4y1T9/l1baDYGRddrF97t4F2Esj7zokUhUxcFw9z4tSu18024iY+b3Cdym3ATbr2ZZNwWui9LYW
-zTejNwSF3qIE95vOvOzYzriLFqV49C4ap+5CQJ77PW1iKDHZixl4T51huhs5m0swNfDVU4rs1eNw
-5pNlbCPAjtdDDoBxa6AOuRuBaFxVSxycg9ME1eiSEbfEnUSrdomOG7ruLgpGHtbSl+dYVjFKc26x
-y4QZuwSmh6h5jR8NJ5AsHCSiOe4lkJ6o3tKpefWDpqZTrI3ghP5sXApMabXklhN4N79n37VLDJ7/
-nogXVITj9e85eXgbSRibDO3R8ktTddmYWJSI8VsS9tr3tD3Kk/YzpDUy+JD8kMc38NC/5a7VIwzk
-JbEvWML7FAC3JacpKZtDBmN02kxjGIc8Wh3qryq3/ftpIgywQo7Tsb6ICPQR90yrOLAhB1Zunp7b
-eM4mSKVegZ7Xnz61VtDcoTf2npvQT/eViwB4lSUZcTpmuGSreE25b7qWkbkRFZyQyeLkkdF4HOES
-zpc3ICfj4uTXSUAGm1d/A4LoJOtcROJY+2ku1mWljFVnDy5KGsTRdn/h+rPFaPi/jZ7/S6PHDMDT
-/3AeWTI2v2dnLiGe////XVZD0v3kOvnjr/481/m/0fIm1wG1yLsiBEPK95NdQLMHNICgdeOCiqd/
-87/dHtv+jZOMBTHaR/GGD5FG0PduusULLm4zVCnYEymN/lE3nTyQvxyfTJMbnB4UGhhOih6ChL82
-fZK5HYcqMdujZOECMUgN807EjT77Ch9f1UA6WcnaE6+d4YUPXhy0x7koQ0JhE7Inef4jPvHMy0q4
-5T5ztFqeKTlKXOr1B78uqB7imoi/SvQBVOp0ugbnO/yetnhXpjjKPzkWE8q68OFC0+Zliu3E06a0
-PLVpgSCvzUi0474vDH1gH3Lvh3KYfoH5+DBO4Ao4NPQcyWXgmv6Egkgp1jio1vWRUnO6QeoBiHIe
-aDP1/fK9+Nw/LJF/d2T96YpzmF/6bDTaAGV/tJ1ZC+sel2x9HI3WXmJ1X5fh9Zre2PeR1x+Br//m
-nT44ipZv5hFUQWeQkzu6yg8NPc30T/N0z1EJcfYD/E4s1yyNvQ+U/l5ZubOfUcTd/eOvt5Ag6Bew
-mNCA0sn4sYuYCgspP9XncXDZD1fGopzuUDchtJxkO6/++bst+TQQzmB6EFzw13eLAn9MyiLNj6YY
-IQyXbaF3k4vq53rIg4e/f68PVk9UrkjHlkYrXiMidn7yWEKzy+MiE8mxiaccpUTMWX7TNMWSiG6i
-4pnj6XrgOH85dpk6kNTa19ukc7t//J2lEODcCGdlLMem8tfvTF6tN+PLT48NceE8aLu527hRGD4E
-bo0z4e+/9M9rCIPkUg37Ekkbo76/vlnLQdnuWzcl3E3rW2iLHeHX3MFElGXxce4SVA9eSXDEL953
-WSb/8nwv15qABVBCHJQJtXHFh30po1ebRCS/H8uxURTl/JqjPYxw9pMh/Wfv5QSS14eogJmPXVC8
-065+aHw7CaBHFQfJMeE8j2tgxuZZi3a+iObRfvz76/lhv31/L2niWXN8T6Cc/vDjpVBTjZba7ahn
-PZq48L3ilIOm+q5//4/3/se22PKdUNajUGSTYblaf/3dBpeoE7eakmMopEqpZjhPrJy5RMSgbHkf
-J0mBjQhHUkKKa52GW05a8S+APh/WzvJdkV6x0RGXsfiAP6wdDmdkL8iez6A6JqCmIpgbBGV0Bk5J
-Nz/yOc669vyL/fyD+1gubwsqgC+Oc59n6Puc44efU0Uu1V3oJceYwNPPxKsXJyYe8xVJFfG+teuS
-GEyjmoiLhNvircNxmNVxdMvpK8rEpn2rERGesrDEqbMMiUOiE0+hTo0/BLv/8Rf6d59T8sMwBKU6
-wHb64fJk0g5H7RnGgbwc9xUsttOuQfhwzCIbenSZgHIEW5FW7xFxXI3ZWcDgyFc2+KDjAHvzIuiD
-8Ig50b4KDLeDyKkgPBG8F3hq/09XrS+4mgzx0fW7P43cRUCqPSyB5FgEYs6wnsJU4+zS9du/f58P
-dz0/HUMvfjJOIT7//PhsTAxYexAjEzS9lb4NEg1Wp8wg7DCUlfd//14ft/P3NwNLY/F0lPTKP/Jp
-gAzJzplStvOqzTaRH6oN2p5hjSUuQ2pVR+t6GucLFPXek1GU0Z4jTf+LC2uKd4zYDzvd8jEYu3lg
-kygK+DgfHmE5lDmLOyM8eMPYzkcvt9hM+2Cy62M01PqWub54lXEIXTkZCOScMRFE/HcSYBfyu7zo
-IhWegmGYb1A4WcOqa9K6XTd5jyXdygp9zuMO7S5s4ju4tuE3hXfskz/n+ox0d0If27TuIsTKUPz5
-8kK1gg0X8ZR1J4fMvXfjWhx6/G6XMVmMw0bUifFgeKO+naPQHlY5DafrohX9Sx7O4hVDQXhGhYGL
-IpjK8FvhG7I+lUWDHK1E3HvAu+p0tErjAWif1y41AvQcsSoby3mJiVl9K4fCfhzR9jYrYjgKY92R
-kPstV70zbooeM9y289P4jGWzODmSrcVsVfI6xGzeeCPkNzrLvoVzkbKR45jAvDAmQTTsyI929iM4
-r24DW7f76nuDtQXn7D3BuW79OxSDrDfu/ijbZVXA2+MzNG59q2PvJB/Te9IY63BoBNHZW/4W/Dcf
-Y5Y2saLJ2KHaZN7/EFT2fOY5k39qCMe4fr+8oTv2W6uMxW1tNwABK1ANJF6ZkWufLFEA4iASc9g2
-Ok7pNL/vVgQtX7S9Zofyzcl4LquMFQnU3hTrPDf1YUhqrt0swaCvWyHiB2dKnM9DC9yZ6FBR3iyJ
-qItEj9cZ4yQ+uz1eRNx9yWsrAjgUYdvO0T7QQa5XSHvkPSZY+9EnLMBaGRbXtrCt5DVnMrozkWy+
-0GYy4I/LLm/JpC70rRxpdK37rJ1uGFdO1wls93gD4S55hjnB1oTR7JM5C0Ka7WUdFktevT8g4VzP
-sd8nGz2ZFDBmUWmC+kAur7yi1+dohHIPbSXBAtN3St8W0mBwtOQXb4a4Q2GY8gXoAqejJuCWBbbF
-JFm/xGMkmLX4rF6ZOdhSQgTqhyHmxIDHznhwkc8ufmlnPkeA1k6ZD4ZY06hD/TPB08mbHXHOJuH1
-utoS1iPXs1G1txFynaPw2/KC4YmzRj+dbFyrE2eiPfRpwC9ywFkQPkS9B4B9sTy7ZXYGs5Gt4bx5
-14X29lmiUfyU4UQqaGo/+bi4Ce0o0IbPSK6zwd4IchJoOlrW2kTSswsmvINEz4IS4qpan4JEYQIq
-51NqBrs4RtuMOr06Ma9j2mJgzs2KMVg1BV8rz/x2DR45J/62H3AFO4y9pPPUMnM6Y6u+xqbjr9DI
-TBs1+86aB469k03y6IYuGcFdbV3keOPFkMk1DO9xnwUFFh1tLoJvQTJC7ehVEsR3MF9eSXB9qQeD
-CCGjsAnzQQJs0XM6GsL/0izGRTQ/db6eJ5+n2lBbz4UNTgeK8EpZyVXsJhgpHfdBqfCiKr3oS49O
-ivSBeTrFZOmsa9Dhm6qw5is3se0z/tjmlpF2dzKUzDZau5cgxma/XjkF2ekBCZONFXW/I/OuD7NZ
-kbZdhiok6jyy05NZOZW5Co3IuxxkzgeqcsdGITNb+lFqx95NYx4O215ZwQWC7eaaQsmJN6O7DM48
-kT+29Rw90rIc7+dKUj9U3eIuqpWez5mn7SUz19s5We9/JUSoPU65Ox1pFhe8KVX0uY3EnS/H8c4b
-53lr62HYLs8fpMlVDd8uqZvipsM3tfa40/IjI0tKASsjP7ydqUUyn2FVVrod8gEvYSsqR/QKIU8E
-Lwq8Q51y9EGXlG0KyrxdoAW9rlHR0m1rq7juRP+JxIxmYzJou3Ia7RPLDVYBYirob+IWUgtRdN1l
-uzLN5M0ScbNzYal+7tNovLCHadMn4XhKx4F8FMsfg2c7nbpwJUuypdeKffJYBm18QpGLt9waCYnW
-qmBhEhbWc0TIjdt8br1tMbdfShzaO1GgnB+c0v+Gvw9du1ua1oNVSO/zNOpA74VMDFzSBGGF1UA9
-Bn7xUGsdXE1G496S5EcaVVXVaxh+3oETdHAIJtPqV7U5tL/Xlu9vazhDp6bHN1g44hxgzcvXTmBe
-0kcuKWFKD393HtzmYUMmaWiHNof/NHZoU7QmWWIG3Yc+D078qPjkJd4UHsI4JEpDOW+TFt2tB0vh
-ODVlt/Grxtr4LksA7TtO+TCSe7hI+c5FFLuFOOA8ZnAhbqK+I9svNNNjmDbWmSuYbCAjwYIPzb2S
-koUNhR/Ij1gT/GfdRE0uD3T37csgAnXQ1lreh7IxN4U/VvucUNZdrjv/ZVgyndlomrXqGPKt/b5q
-k1UWSn8fL6mBq3JkNBTBqf9Uism+GoRfXQsdUvZD2yXsqzOIcZszo3IAYKh8n2el9yQzlyZO1UQX
-KKv9ahOGTn6ciYn4vec4fonPZ7jtHWMizqUOGKkzz+aZ7gRju3Qm5RUndvSDiOc4AJjVKTfnnrsL
-j+CYFvlN7cr+2u+m6WA3HaTiJPAPxaTb40j+1gqhgX9RNVN4TgdEfE6kitesZHqyzeqg+ezg+dmR
-55V9C2SRhOuazJUjBnN6SWnefvK6+rngpbdtUzE+CKS2GCLA2H8RjCTgIxidcSQpilrWN0W/buJS
-bpwUvoYZzslaVEzj5ZBss8J6Gw04eslQg45CH0EAQhTNZ8Z31atnluqEJZBpR8AzkAYs0ScSZwWD
-t/7GFKp7TduMPbvJeWqwCbQZTDzleE0mH3sxAD16w4XmOyvhlFP8LTZgK/QJmTDc2H3JMak3vjU4
-T88TTs6rZJTDoxGF6tVpE/8pGgJQrQvEg1hxoX0a3xKXlles6YiUB8N15hPz1iACt6w+zz0KeJEV
-DSYbBXoEghuTyzEz11RRCB6s2duQ3UVXw2pCjExgmfhU/QQtLxVn8Ps5VpORZwajrLlY58PgulSX
-hGWtzLSZDma4mIlasCOb3rEqtrNZR/e+TUTwepIW3qhg4jFi0h1iXdKVX0edNh4ScJw7gnX43Xgo
-7G1Rg4XSyfBGjM37dCTflEbBVWj95DkkXYAMeUqc85LMUiLzbaeDK+zw04zQ7sWwauObhfTjMiTo
-6kGWOl0jFTP3kzMFjyYJZCtrkO1zSCwu5aQI1kzgHymMw20fukBFsubOtT9FzGxXs2Z7DfOQRVV8
-ErIUK+Ebd56a8Nt6pV4jUN4h2nRXbYkiH7tKsZooTjYedEayEVucFJyxEco7FRKv5DXLrbhcG5yT
-4Yn0FY/K6IB41doN7vh7DyBiz1neWTcMDXYZKkCAvO7J6gq5NhNlItcadn4UYGL1LThaIctZpJN5
-MctiP2gTnxovHFeDv7fmBnVXMed7GDcT8C0ii0jiis5pqb4ZNWOGBp/tylXKOiU0drcd3axT0s4E
-bBJauLImhWerboc9wRTiNeuxrXDG56lDIXSCWOJABkqaXTH2uKL6Kb3MzGmfuRHVPAXXmkO1i7B3
-uh6RJRFQNrkHSU7VWhTK52hSb8iuwHdCKXgzmZ2Av5qik+273/vWqLa1Uem96SYLgid4bgm12bVz
-7V70Nb0DzeADeswtVsWXxHV2VQj8VQzBFZCSU2E0T2Ohr4csPGFYeKzb8MyWS8MIm8WF2+pvQL4+
-mUFwh9xuT9wxVNU0fwlEgq44o0np9cErTalurdtF92uY8rHCSrwVlfU6BSaFlRGxycfWMXeJOgos
-sUuHGgWCN+K4cd8KFUDOLOhqQ3fgRBCNw/BZ2/ptUsnRTQdEJ16ejOs5mKPPAtmuxhvhZyf0O3Cd
-5hnvVGLvTb0lpPLLpKbuAIbqUjaPwlcDwiBC0uIuuffsKD54Y5Ct20YNXwyr9bfTiNBKcYa5HIaW
-0PkpXW7zWZyknXhf3M4pGSg1cMzItGyPSePSHh3T5TjhBfG0r7AYbREHZg5mFVdf9koa7S4upjvw
-bsFXPG+zcTLqnIbOKiMNUuwtZY32BdPvrkuBT6jpJrfIgcNI2GTpC9ZMd6RxgVbsGGEWChi/Z4x/
-6Wo6aU92Um7uzA7d9SqjHjoAxPWMqx7DFMBCo0qblRHQNHWxYF/GWUAQ02CFT36Uhd9I0OQG5F0Z
-MUg0EC2lCAepDYmZHIsilv0AmzfM6TMtM425GsKnIeKAEBoNZ4zKIjYq0dMViSQcgZtwPhuO5JSc
-eMaWBC9XXIFaTtS2D2aOHYPHtjR2aDVLczmdmMmkfk+1NV6n7mxeCjPTwE3b7BRnY/gUFQZN7sjx
-zDuzk/3WleD16HchjKsqZKrnPlbLkTfoK0IqZN19bkpF6ZAbrtjXcLeP1Pa8tAEpECoQB3TGs0js
-PNPjfAWi69nNC2uTtJR/Kyeub2QLqgtf4bGsGXeiSm2PVoY+Nuns8GTHkqYAfoGzP3j0CJZJzfv7
-qdoxtjPKEfI4bWY2WY5F1XOKL+//l8AvYMq4HPsrLw32npT6YNlZ/dIVPWewqbXoEvj2eD1qyh6D
-wyazHl2690HGxcRCIFci7pvde6O4zifGKASfbIaMvnFeJLVYJUkc7I2Aj1jEY3ZydV/uXQiXn6uk
-5wskKa/IPqJR5Q3TjUxy8wsJ9PzqJQTTY0h+1bEF73uTTdS7xLqIg84GfZ7QKvfrSfC9CJwPH2rJ
-sa9RcV2t5Zw2e0q1BdE85F67UVmIfz/RdEVoXrIZDCanE4E7pHKUbI5ZKIqC9S+0cRlUUf1C8y/Z
-iyylo+jri6BtO5yfedDTksGNAmM50tWuz8bRucybXlxJBCEXhOUyIdOS5lWos9P7ujOSUu9Uyi9g
-a5g9eZvr2xi2M8ekyVg+X4z7GRQrX9fgmHWbD8s1yQembCb/ym81ASJQXDaalGvHrPXZKs1yD9ql
-hw9TasjVIWbXfIRRXSUEejqsgN4RvHaglhfMU/c+sgJjG0Dr3mBuoJ/v1f5mAtL8pRD8CQqE9uiV
-y/9a9Vwt051YsAR/zGfFC20ReAVy04yG+BKbEpBF1pPdlnSs+9igvDY9+qwQbTjwm5isv2nToamU
-sppszYumk1G90Eos7Q2Pc/UI+dO8DMwxPKk4rF7CGFb0jNatXhkxtzDkZmaTYx+eQhTXL5nXIQpr
-JgOKeafIqEd/EJp3HA74hiUS0QE/cpRRAaNd2AdlYl1ybmk/98FyeQuRZ6eh4jKprrLuxgwW9fsN
-a3VZ/LUAr/9CUjBvPQ0djO1+Do89LddiNfhG96LJJorIQb3tG/4uaJMMQIT/Cv5ZrWMz4ejR12+l
-8ANM1iEGcdWGJ9Hz6xAexs0+cQeCkA3oWJRku7Wq30aVO59tWuDnulDhUzuiZV1rV5sXOXC/69J2
-w5PMbT55z8lHbkq2w72wJc0PxqL+Ri6rYMQEdSlrSUsB/5ZaZz7ivtUYDKwST4vXSKQ1vlDfqNCI
-1NzTVSvDTcXpFAUg+2PgcKUAJBkPmgPBNy+s+cJBv6zBVsysPFmHJ0Rm0Kx9oEQHwxv8DbEgHPt8
-N1ZwTzknrzlgTF/IzJmeJ+UzheooyFtaqXW0jSkreDLWKdyzTpVX8dgPD4kY/a+1csJvSTWhHpZx
-PsOS5cnkJGOzm6U34+zHBH1UQRM+pa6U5aqD5xVuvIoG9yavk+p7rsl/9eu/0K9bgmnUD93zn4QO
-5xfqv5fy64/69e9/9F3n4AH9cfCTMRtwFlXCD9ggL0CLzjCKXACq4sWl8qepBQE7HS2cMIGDl49Y
-JNQWf5oGvd+WOauJGt5zPNrj9j/xtnyY8fP2LHDKCxHA67TInPnrNKwUQ9oWcaYPXmRKzQjMIXlx
-iubHAhUfPB4pfzHk/2nM9w5HWvi3fHLOuR+a+vQNYiS37nyYprS9hSyj1q47Jr+YHvw05OMrLZoF
-nJe4Kn+S5feyo+8q4+lAOEuC0nNqbrOqRUuAamlL8m6+Mrt23MDnM+660Zt+MctERPDXKS3XFXOB
-tcz4fIt/+WnKOJDloGavh9yIyZ0GWqx3ucczmbRMH2d23J5wybfdfmbOaa5quixLFyMxkjWWIHlP
-I+h/2Duv9biNLW1fEfaDUEinnZtsRjGIPMFDUiJSASjkAq5+XrQ9/0iyx/r3Pp4TW7IldiNU1Vrf
-+oIVryratStoX9i3xxbhrME85juy25bwaPKRi7UjjXlAV59xULpRyybZBdP0WXdTfu9kAUggWZiH
-RLjssL5XA9mgVIwwn9gv44MUHyHsebA5crAjYHY4H8xaWw+eY6vrhhb4gZ5H33ZOH12MGKe8BUWR
-mmuYg9Nngj3Fbijl8CR7GMxtpstTZBG/0kQp2tOxskvMHs3qlVQU9QJbhb846jQ8tez3W2bb0X04
-gGoTJqLM6sitKgsIkgza1hEzYmePtpvLNP3WhmCe2g8TCqyNr6vkxq3n8kQaEo4CnAZypfy0uasI
-14hXg486IetQqLdewhjH0emBmmXcQOxoLkiRre+o16KLuff13qsteay7ma9D4MhTRiP2VGez94Wn
-gz0e3IxtaQP49hhEfEzYFK5jLDEIziynx6SLqhd44jyZWpXmAS0Ya4iAWbIhy/Dkwak/oN6fPsde
-TY9EIk2PGE60zx5uAKdIx+JYx5310ANSPWfdWJ50VYWnogi4Iyg4cbkUxYgDlYeSaZVLqbatijAG
-JQlnC6SW3ysvCVc9Y5I1tqzNh4j4bZxDasJlwMZ/CvCpXZWir+GgspwDo5v2XtrLI26Q6nry1Qgz
-LqNDaJ2yKaFKQkxRbcCAbQZA9gGv9oYV5fcx2nfAuqS+hnXhgonHw/fchI1Xdl2+K6RpsmlY1Wuq
-6+EpCqv5KqwHfpSTTHuF7GBlaa44HA11HaE/XXtG7d4YsTmAOHItHkGrzPSSYj1gkYn/RlIO35mO
-T4Sv2uImFjyJaAgD3DjUtCloH3H2AJ76HDGDeAOldAn/iDLAWk0JyYg3iu49M6o/XDjEV+WYTI/2
-WKR7kNUcMn+d78Dium9m5lkPsKzHDVQrehWDe9vGPMclkp3Gn1dUlvQ0E1qJ3ZxPixfWzJMQXjXt
-Ee9Pn3Ac1YuM/ehCtvnLaLQ9g8QGc57gk8ab8is1Cow82qiwEba6rybww6Ly6J9im3dzZRt5urdN
-WgAh5KuI/AHs0FfM4l1eyqUk0gkPyvONbhfVQt0QZixuwm50b3pChx/KtFUvvetVr2RW8rb6tFyN
-HVWvTuFOl5ljuF90sAwAjIy6KyjH6i2mNCnXqTMRYd1gHXq+uCBhEWBRatxrYhHxc8Ph5GrEJPQZ
-6BNubsWAczVgqgbma0UXWuLe5o1meugqTN/XOtLp3tUp5AC8GXhMBf4QyxCr/orHfXjKzMl3thg5
-1dedZ8eB/RzkoZV7L0OF/fxH2vTiJbXKIo8PgzOX4pB2s1FuyYEa+6upHiP3YoydXtw7OUBALfT0
-aAX0Mxgv4H9kubqBZzR7O95DF8gEZiDTB92xNfXldV8xJ+h4wy6Ekd92ZouXjynvDbe/FoUqdrCU
-3buZpmnl+mC/jRuDIUfXACaMnXwWUWzPyZEonkdkndYW2m+/7cX0ngZMJMXQf8sTuzhip/sBRSE5
-JrMXr0qrV6cKnvFWuoMGWo27b1jQ19s4bS9x34h2aC6sCz0TXGyB+6+l78abWMXptZgZwIGpDtO6
-oUPysuDCyLEISmVdkroWRvURigDyC0ODh2FvvCrSHJZ9IeVnrPAGWTn4ROz7VkyEj5b3RGOkW7sw
-wsuMFMqr1svGnZewYOussC7TKdLbPgxiCDc8SNsazKMJhH8ofLoa1TkB1qUGlhyLMcuA8+4+MX21
-Jl3MvBzdNDz0sfXFKfDE8RBtnawydOTW5t5/tGocCZ2sQ2NeYYWzuFzIbjjYKoWJYY0MbCPwmBak
-jhzq/hiPoQXCSmwaR9hinBG1H0419vvYjTnzOMCD3YD97wpbqG6bEXV2D1fRWhGd2+5ikAO4xrlB
-3xHo1wBKzwpXD31Z6hjXVJnnL6ERVf7a0960Z1gIzuR7tHWQDwjqIP+GCtGp76jOgC17nKuOiv0V
-90Q2kQSjamW3K8W6uhKyVZfMVWc0aaZ9tLXC5jZJWFXtlsaKIKyKNxA02b0gc0E/zqMD1TpjhhG0
-5WGUG2cwKoBgb35T0nSP9lTMDyrDjg/OfUgoixseiz6abtPcmTdD1NcXOdKXtWfLgtc9H1aEjBMl
-KBxx57cipzhA54pMacS1VgW7mhTirbGMrEfMhTcwLbOvvoe9eWBOI+qpaVgh6jV2iJ4qYLniTloG
-ZzntxjFNSZNaiWHYxEYcPskgtvYy5Y33nCo5BoOGCz5G4or4ZMHwZDTuIRsE11Y9TxcLSVQyJQ8T
-Rv1eU3wXcX2dENd8CjVa/bUYRyBf6dou47ckv1LtbB1VUjCRSROvuZTYl7300NAF+qcReY+NLv8y
-mZjqrTMrM7+roigkusDS0xszM4fjjAoGQbHR7HtcIV5G2acMzPM0Owlcrz8KJ/MYQbdimGPwZtQf
-LyFxxocxIeV2hUIEYI5E3HznJ+7wXmVWte7kuNQFqr7TupMbrx4IkQrQwFwi9JLkrU1+hmuLXSRH
-AgybU1i3lVg3cPdRIFZuetBoqlrslCr3ZiJJ+zAnpXq3Fb0xM8YpX54Njd9SImWZwzm0sBQyt0V2
-ZTNMJ8+x+xYwRCQ6aLSrfGfmLQcOWfLTZyklcMNkRPeKSSprAPrFyY9IE9vE7tJuJikeWDCJb+Y0
-Ne4NDKC5XKJ+dj2EemKE8S5ZFxR5CYJMrd616me1TVwekjVzOhM8jGzoXHzVqW09ZNbUfsPdMgs2
-NgZH1MkFWP9KT5O9pQz1vmhEAO1qKRjLrY30hkwVWx7haZUn2czzQZgtXJRqZDNuMnzsC8XYZJO4
-LYd7WFTGfRmHxHzZTnwTF1Qapeup63g+f4uw/uqgVEpX2J8vmzLEhk8yPQOG6j7lSVjX1i3bYPnN
-UV41bAz4bJzacHy8mI1oVWCOhcm8mvYJllpPSQqogY+1EZRg7M20jwtvuiS8ievvh3GD2ei0ryi2
-XoCci3U7LeVv6FUvfqflkXGMuXJiYT0EhZ4+g4mkIGySK2gxaQjgOcLBmLBPZViuHHnMkTT8jgb3
-dz3EQhD0MZOFsLew4H8kDDPwyCuiBrtDbNj1RRSyGVIO++W6xuLjjhE15b1TLwndqXptpybAab7k
-Zved+7uGxlrasp+4WPQzyzeBsAGg5Ye/sDP7ysGNPau7g0ip/NcEqLg3vofhWtwBUE2CgpCEU7Xt
-YlAqP64KFIeucwB7fY2jkhezRJ7WOsN0SdZy/bXvhbgZMCl5HKm4dz904H/D7rZojv/yZQmNWEx1
-CIQlOeLnG0cwa+4PhtMejHShMbSgsJNioZlWhgSt563jKOIFswbe+LwjotDknFom6dVbpqibfSae
-v6F8njmdP99BtFcQv5cv5UOs/6XxjfuadySNW/wdHKaJ5GFHmzboa5ytjGHfNH2yYWuetxPeXUzd
-eyqoTNG8+smyTMWQ32ejqC8c6cFwitzqGxof/y7wYrUNu3o+REZTYX7Sucbmn28nFOO/3E/Y8gHg
-BU01Np6/kg8xK4OqMo3NAaO8bI2QTGXbusC/p4K+wr0sx02YOP4nLMzhAOsy3hmW/RZk6nksY2eb
-upRLhjvGm14V1dXQ2OJlUKq8SmcnvzTNwnm1RZ7oKxWrcrhskiQAgrfyDaKeeZcCYO8LtpJDHKbu
-jWklaosyiHpVFuGJApLxhXamS5FQzTd1P26qZYexRW/cDzEEPgPEDLJdbLqEsAuBVLllj/UE9P+W
-BM1jj83eEYSVmp1mmb4kzvlDWODwhjSL+8Uftbou5/quJKiJPSVcyvacgh5ROKIntNZfBLOAra0j
-vJFIMzllPWMVHNXpGYdkeFrIvQkiQVu+Ng7cwYtOzj6qrIiI+ecxhRhi6LbTWzfOEyI5lBNJAxM3
-JJDN2rU7A+txLqi0n6pIWAwLHZUffW+W8RF1XbrBuI7/EFHQRxuzRXazjlIP8ezKpeK+DE08SXzp
-YJ8pRmr6xkyyEs5CwhXHZYiulU04WUlNKe/DolsZE0U+7bR5oPtmiw1E+2xmtJpA6u66dSF/rQvy
-vq50Q+MWJEK9T1mf75q0S/f9QHVl5iNvJBOMbpOUXv/UpfLVb+gfIbapl2CUTrpppoVvs9y7MIcI
-cjHPi0jGTYz7JrOdo8XBcZdjureP8oRND82sPHawLd407LM3gSEl9b608VzTPE+nC5pbOtHgNNUm
-ItCRpt+TZftcwo57RqJGpotmN+qW3o40ZomNZYcaUMxSM2WUY7+z5rg4Nm1G11L6DjYrqX9XOE3/
-ZFpQGsHkqze3bZh3CDosZdE9b5py5gTo8ExGSgegVNdSXTOu81nBgt2ki8pg4wQdnVEkROevK3dm
-jbRQHKyVtvif5LDUH1WpuSvFDImQ7nDl4u55KBPOxFrVoHLI03FdDZcjNCGTYedOONgx8qq/4s4Z
-nKwRmAUhaHiKLdVcpJNfnjxcU/YNB+i+NG13XQXl8ITNDe39iDdNsCBAiKnVdZGDD/nE1D0GYzl/
-MnWMZ/ykZ/WCF+TtoH31zvyRdtt0cQEsBeTCEedpS/BDS1Jw787fWouFy4V1KC9GJZdn4IwoT5al
-qpf93czzcQN7Qb26te53uikywlnN0d7i0QgysjSvqTZp4BMt6juzbHgyVUYpcj6LVRkToAfWMyFw
-BVpfil5wHYdZKMAqVyf96XKOGRnoAXTt/BoyPKGQiPHwPOjemK5EDOLhtFN9d0Z8MB/F/4UQgbVn
-gZwQXSKPsrRSjKooqGTgBac+8tz1GR4wcN5770RNZwvgyK1fgLw5DaZdDnd/PSbJJyYg09XMcivX
-mnCTaDVqsLAgBr0ylc7vayU0gmnGFPQplGR9xewSe23AubLjEccjGn49c0UYVdqAODNLsMJc4MGO
-4BkD7ZiQDnuIAMg2gTMA7sZtWbBiYl24N3buLdIF02wAvoYWbloDIjiLvP46o6eVJBKM9UeMh9kW
-vtv0WKK1WkV2I4/k8i19o2Bbo6NnMrogNcuIfBVQasBXmlN+UmED9tQzW5xj8fFn/OZ8SOoc7Las
-EgGx0fhumkQ8Yq9s8PhkQbFUtyYmrudXE0rNDjsEeSwrK7o3LVmeVGXnmxqTlRM0h/prZYGhMf4G
-U+uXWnnEDpccHTotpksdm7tht98qGVavOqbYacw6PI0++2w1JtzCxEWiYJYODyTPsQ5paZ+2rUd5
-jgFDeFre57pZtuEWo3h48xJEMkx9at684a9ziBJ5hCDwIVlQb+qS5RSgQXu1Al4JMfftt75mEJdY
-UXzjQ0CH/Lu8P7mgAWAnwpySy4kW9Otc3gYkMe1izNjvC/wjdgstceP5cPnOZ4PVAQHDPklufLZ8
-cKfFBoLkjRviLtHMk5YXnOqQMqSecvsB/vuwXryeiCykEha0w+vEy6wH5eFBnfY8SBIL4KBJszzN
-JMycXJsitlieQUJ5+NK2Y6N2zVxRnI8Wuxm8MRIDKJNVDj5nVtJ+gMrPZss+9rVqA/WCPo4xbcS2
-f4YECbgUx8Bm5BVjU8e0kvKzZTdRa9qcfLcIH3Z1pSlOOpqds/lq5zigoBWB9bjtDtUrgmgA6hHM
-2EkjWoWOwtnx6nFjAy4TtLu8POdtVvvcDZAjeN54zT3T1U9wB+0lFwvyGihUQ0JAA2jziBSfwRvm
-EBMEv4GbabK9JQPrKIeS9mx6g6LHc3jXDHJ/9AhehmdqkR5L9PMXo5KAiMtW6RCGt21yJ7+ZAxt7
-VS91Qb2g7zo1PtyrBMiENdmATpcd814Mi6wHp/b77/7CXe746jBsST6BrEcTwvRYvbdFQ8lRE+Zz
-zEoWWarS5Abi+eswuNw1BC7OEQsKlsqQcw86adINDWP9laokEyuiTmBfSrMKqVt6N71mrswmO0Iq
-eaqqiApyGqbN0PPApyCfr3IbSP382/PCnIqMI8aA8/nhjpypaE3FsZw7fattA/OyJEuht1Qs6JSq
-MvZdNhmSouMbofzZxcEgna+UN9ORjf60023+2Yu58mDa0MCegeKFSihsOtNxqQImXdOSQVLu9wAJ
-XPGIYCMbD30gXuANJZt5mcR0ACrb3mXcivtxH1x0UVf9oVn7v1Hlb0aVlnP24v/fzfcOb+Nbmv44
-qPzzr/y3/Z4r/hUs80RSlJ3FTot+809BNrOsf9mE/GGZRRg9f4QO4U/7Pdv+l80wEmc+uDACKyxG
-cX9OKq3gX0y+EC6Ro8K+FjAk+zdM/92fW1BqEweb1UXCBo68qAQXidQP6jXORTljXm9/aVvcHvGq
-KWjBB4vvuZ6XVkCJuLlLUgkU7bNlJklu3NOVUwEJg/UmU45d2WpOM5Mc+o3hEakRGmrrapD81jT5
-OR5ENkrxoUpvs0arhWviOscqYWvrhW1vlcVBYhu0uEnIbo6lEwiCzaxtzvC4DGPKsgV6+L7YBBIG
-KEaB4wmrXkO1k4QDduNbiBH0m890JN3EAKoWFcZAodLkDYQmadYX7kSx0eO3/9bF44Tf8mTB4sqm
-l6nBQCjEA91fwzbovg9NTJQUmR/HGJOyuzjx7qzOgFqJUaf92DtAzL/pBM9Z4f/Tw54fgYdqkqeK
-IhTx9NIo/vAICqy38Q5rvS9z44RH1+ndrbJ1461CnLwwMESyTqCZXYS3RNDap3K0lxmjF1SYqObm
-sEfEM21938UUZe6Hqzlyk2u7FxUIeW48l7Xb3idLAq+bZtlV73YoK4JkoQNJaCNxwgnWt051EwTN
-YycdCOBqPPlgZg92YtMoh98yvEne/7n9XRwFfkATuGgGW8sLjC0lCliqkZ8vGruiIAZwK7+Iqohe
-AE31bVxV1lfLFvrW8OFe9RjUHxHddFuRYISIqTYDiNbh8Na9Nt9VvpSioQv1My5FfkGgAmT1iV/V
-jm1/xxnSugTiGW+S3rNOTlzD7gqip1hoG8Q6lU85ma/UGdI80GqX+8RojH0+ON4GU/xuO5sF77TT
-mcOlOTvfaLdOIy4Chw6U4AA8S34shmibVE853G1qblOFyc5NX6QKswshqvEDkzRnJaGtf0AOdY7+
-JJtD0+FRHSUYhqmh33XpqO9ZlPk1yAqLqc3TQ+58M4s0I8UxajyUINnsXgYCKA2Sj+43KVOP1Zks
-Z84NAerpAleWpb7H1tKrl2jF7KogA4PjS9rQsEv1PcDCqYGS37TeysUCC1Tct3Zl0rZoGFR6KbvO
-vILbqm+D0hqu3Lzm4mynl8W2TubsMDVJFq5n7GjujbTTNy1qlRNarXiXzvQ5o7usTSOHwTiM7TMu
-dvV7SFr7SZD4tzZjrX+juP1lz1rU6PiFWqbjYG3GswwXpOqHBbPMsAnm8A18xUzoUWFfMlVt5ROJ
-0BSwPmYK4PS8O001f+BHRYJpt8i4xDgl3xgN6GvlUZPDnKuffYaAG4LMzH0dqK96KTPq3isesUQL
-1/nQuLjZEQCxlzz7U0V3vzI7ejns8PV2KiB1aXPhsfoTlzqdO6JFOcl2Ne3gJEAPU3OVXzSu6qyt
-2xlEKZh9zc+EAXDd5IhOz68tGCA8Soy9rprahdKmquiTAs/8GhhF+xxmNML4E9fXuIPAHC4A+pON
-45Tpe2kSj1A1Bv6h+AvC9oQnvyfqLve3eZAEN4FZ/zdr6X8VEv+KuXH7Hc4dACtMIF038Jel/cPt
-H2urNajaons4uJ6x6bCRXU1NbXzJ5pArsLArXCNiMh4ysIhk5WoVKkCNEupvQCQHdG/WIEoxWSPP
-Y+D7lg8eTg1hPS4aWKuBmYbwkzttS+tYp73xGyTz7y4A9w2+lgcFyLcXG/EfL6Cc87axkti/B/Xr
-tjqzoG6qON7VXgTFty3ZZ/AjY7+wF9i8TAgi8BgnvJmI2y+t0Ys+WXsOG/NUvTnaJxZ31LBybdVH
-u1oG0YP0a5rVBOup3/kUnM/j/zkslnffETCULOg3GLWgk/z5u2MelTazGN37ql8oamPbRp+8zRFh
-E22D/HGmwkTno2+kP0AFRK2YUv2XBIaodLioFueTMbSbo3ShZmMJZDx0XhHuwxH6PhTvvqRUb9OT
-b3P9I9Fb4DDt2H4OHBM8olS8twjYj+Y8B1D/6lnf9mLMy70/+CSJkFa10nbDNtT30bOdWBkOYEZw
-0SIG3kYB0WP4I8Y7JRP9Qis975txiI7plDSL8WEZrBk16+9WTJEPtV0YoGTKtrbgcCHeefm7VWCt
-jYFivQIXVEcpYDECKkHbHDk1xLL0otCIvzURRtlbeki+XglBf4ZIfC/tFrp2kdHKhnadfIMTP+8y
-nKpfePOG70IWyw6y3JoM/kEPdfZKQMnFMLxg51NpwxzSLvIHk3I8XonaSwnhyBiqFhW0k0Qf89Fm
-MrUwnw0h7VOiidd1famviZbnLPnnA5QikSf905sQOgsH6iwnX8rBX8oG9uqix/ijvk+kBQaGdxwz
-2/PeTLpJDQUKFQQwNxdAdnG8oxRTb57dzXezxZ60jYv2mBi1v0lkJi9qVI5w6GHk5uvByNJiFcfl
-jsZiWa4WfjwTUMoj23/3TljN8L2H82VsCJMsfFj+QQVcQTl2NQC7bAvaRd4DUZIcibFhJHfSAghe
-hQS1H4LY0JtpVv5Ri+IRg2G4NXjfTXJtYCEf1p5xB3NvGjctbNFvNdlld7xfyQYYvjpgWNjuxYLV
-I21YSs7luZKf2j23Oj+4Rk7vpu103obO9GwBhm+cKnBWfJ+kYFLIgghjCNh+hkp1TaaW/0F8d7Eh
-hxOJNGPRA+JkeByeM9f7ubaT6grsWTAX7fPkiXMgfUK4hsHprEYnIE6myJ6BccOZ4JAagU1C3aLX
-hcNusEIhnHwjXdO6B7ZZCpxGVxdmoDmq2sLbNOQoEUqd9EjUMJw3udycLQ9+9EJmHZlbkP5xlt9j
-5B7BfG2FwP8Zl8MYUR8uG+Ksnsic9wQSFiEolqfyS/KFlvInnFARp5WxnePafCeAiX21q4tgM7Gz
-m2ujJBUgdmHDT7wIAShZVV0aYsKYnjGV89WqQOF4n/r5jhY7QojgZ/q+obY8YKOI61/bzjPCpzw4
-Bv1sbGVf5N4q8JCXwxMmOZRWFXJM66WMtJrIX43NwoZOa6rMFSDTpsPXz8DmKTI3qTPLT98f77sK
-1drapWwF5ctBpuWYF9e+XyS3duFj4G8j3Vq1i1DivJD+r7P9TWdrm/iO/7Dn/A0Jt23fPpIeKVTX
-/tjg/vk3/2xwvfBfIX7HFjay8DgwhYab+meD65+j6xzXxc0HEqz7Q4Mr7DPflhgPgj5EcLah+LPB
-FRa9L8n0kHcd749E0H+nwf15l+RHszuFNN9oA9BW/koZZSPwoPsY6kA2wmfCEGtvBLxi2D6Ov9mR
-fzUTWT7Jppmhq4HKyaD055NZkkcllkHMIbAx+ytM9arIp1vh69evf3gOt3/s8T+5UP/NNfEZyHKF
-b/+1Z487I5obTHkP3Zj3kPzNm3bAqdir56d/+4PAB2yBZ5zHZf3q1jb4kqFcMyNuB6nKZf7JafKZ
-8e//5GNcTLV8nvhfnlEHqbRNKBOZto7hNgygzS4+Yutcp//BreNdxdCO2ETI4WeTnB9q11iZhagS
-rmhAyX7SuA6g97aDU1Nmv7ko768PCTM98lR4Tov3+kLZ/uGT/IHSC0dfdUhG1D9eP91PsX6iMXhS
-A7qUf76DP6M4vNnABiQoeFiS2YzmF9P2Hz8M8WDF2qzUARIN/SD10yFDb7aqjPTNDJbmUVCwWlPU
-/fuvYuAJoK3FGgzrrF9eeq+pmPPCyzkwVK++9JjooVo28icj41f/fI3LDfuh3vnjGhn2syv4psmq
-/vka5z7rpxS+xMHo6+aA1n/a0mlEX/75U/5mFQdoAP7fp/xaVaEdGAzoqgdS0FwEN/ppKAg8wcT8
-P7p1P3zSL7eO4y2poHrzgsh+2ng6e5sxBVn/fyyvswnez7cOvCUgXxnvJxC1Xy3ciAB0g6JSxUEN
-drVR5gCsNKlO386imLbki1cbK2wsbMpd92BSqRAoSIa8U4vyAsY/0uuRydo20OSYN1BMP84EKT8D
-1Vis+Xa9n3/i7eEc4xkAQfkYNeAdANxgh7AnKsUfwR232DLAtiF+gzH5ui7uaJrt59y3q6NLJPvr
-UFC+kTnsHiJ/hok3oVsaM97n3Nfk6VK9Q92GTgI3p2Zq0nVJue1zWW478P8vnZGJCzOcx486Ype3
-Oo/v7ll8SiaqSwwihmyd+EFSkbEnCQ/IEwPpIt/HsEPxVkRcdI5ZwK4CS7yBolptOhcdBBP7iBwN
-C38/DUGrQzgdgZjVJjzPrAZ8MTBUWhcmVzeTDI1LDKH3ML9spAFsLkmcllvP4wjAAsjadQgEkeSH
-lnMhCgYkGbOjSxwBsPQrAPKDEAsh8Er7OU4G91LHVvYaB5V88kZ4zdRP6qX2Cvs54trVyh+Z+qtC
-9DPfaYiAQn0VdpjZTqx17QlqLkKS5VM7YrPEOKm4owzrXiNuzWWS1erG67NP0+KZ9plnP9Mafup2
-jL503lwdSU3h27dtdTnJhT3XMEhBaRxipXubpZ6+JwZaHNnRuzWih3Q/xNJZUQakFLF2X6LgwuBr
-JYhdu45p35CwxuUnRtTWNT4p3MReuiWc2xEe2vm1l22MU4sZBSdcWsptjofwc9QnCE0FquuC/vwh
-mBfgM/bT/DWckZ8VJMBsADszyOsdHmzram48uU/hv6orC8ZEuPGSaPiaRMoIt1Bx2wCjCLxxVh6z
-8JOBYPGZNG33Ad5i8YkDNwV6Hk/bEj7xika8Pggksk8VnsIPDg4T2dpl9kSXjPAjx8A9Gapdr8HI
-AbWdFUIgHkEX6RyHFdy8qpUR5wayeS98auuGZbd0k9gxcMTNUxjsOwcIcOXKUSVPXWnE5H0HZfYW
-Au/uUKINVwRDU1GnIf4Y7RBpJkLh8HVu5nzvqr6TOww97XSXKcedtzOyFEJpMeUn9VLn1vscqvab
-PbO2hAGldSNHt30kd1q9xBkCyTMYWUDxcFcNRKQLZFYp9NYRExQr50m4BMC81jFJMUQ3lFCDWnuN
-av2T0VqIIgUbKb4Isuq4mEgWb5m0JRDzr2PyFYjak+E+M3hCvcPRh3weWkjAbNnFbutLNjSYxiRK
-J99LFbqHMvdgingJQnBh9V9VOw17p6hAAEJ68O2MPccFVs5osZcUKqODXWvJfdjE37u+oXtt9Rdc
-eCDOD+89+P9FUXoQICLlXXIU+ndJz6KERq23DMeHq6Frwm2cs87J4IoA+v38OUDXemmGeoejyRLt
-qVW3LsacPEjorykYsOSlZldkPiGRS5R9Ft44FJUQUFn1eU/AxoDTGAwocHiAIfeAWcGwt5ZzVwmu
-2y6yt7Q1gOPGzH2Tug3unKGzritkIA8ZMPKF7nmjcjbU1z5EFGDKqdoMJZfvtmSZrgrU+Ddd2Y8f
-rdEAUcUte04i8uDO8kBbhCnfMHMB+2zYPzza0Ls5pQe1cdzaRD5GUCumCsFdVOUNvJaenexcaeHo
-UePqUvSbbMrYxOy+2ngjH91AOTmkLfm9hB+NH4lbEn0ry1UctiZvMBKeJpU3juqqXUInzEMo1E1b
-L3V1ZVeX0lK8TMxUiZUoLLHOfe5OGoVMycmXxKOUXRf51UuXB9Z3c2S3GpZ3xDVn6zqPuvQ6c3W8
-G3CLZY+jklgZRudeZ7G7a6EQrocK4NslHnZPXoBeD7NXPSKUCW9mPyrxJgGJEgZx6z1PGEN8s2kO
-MafBw6DipZMuS+wV++Ku7dl7jJjdYwxZ9PmAseqA2/fOyVyimcohvXYi23wPrb67hERAPVr1BDm1
-8tB6jF2ypAr3RRgbV12T3jiYan41sqy9mXTSXUXZ/JyazogwA4FVQJYvmWuWC8AAOlEmGKoro4lu
-Zf7i101BG5x8VnEUr0HhHlnPT81gYtgR0MMncYFLi+moGzHB7udYxBnQE+9k6IKh+hx6+MNBFEkT
-DOBKdt6mZMcxiwApjgmSjMAXOsEfm6wnWrWbeQY7ei+MUTwNbhSIck1si+4Phe2KZg+Na2VDMhpB
-/sIMaxIp2cwymryaVyQLi8UlOT9ilGpi1YFMDKl8UzTYf9WM56RyAI8Yt3QmwoOxLlaqsB/bwi4u
-xtrBhtPvTAVzCiI+1vr9preKyZYQPHTle5fTaOuCmHFTNux/9P3RfQ1Pa4T6liXGXqRDkVzgH+9g
-hY5CeAguEIxUeMt5PQPYNbV403urOWz8z3bKkmAVEBH4XblISKw0BnOCnYWMbgqbhYPgkqrbavb1
-KfBzfHi6putuS49YrCYTfUgkSxBn204ljYAT3FsDfGarfQ1yM0cro+WXMXM0SjnLg0JBcQ2Nn5Sw
-4aKUWb7BfOBdBD1GWRnU+In8HeEayc4m4HrDxjHckQhiLKZuBjIrH3d/Q9jTnnVqk12WAbv1OOgf
-7BqESNfRW564+dYf7XxrL/ImkFuMCjpbX+OFj80YsIq5KYXdE9Ignfma5Rp/xFhl96scuB5yFd4I
-mTSMI4HHZrDzgf8waPXYvkVMdUK3RIzSKELpbhQXfMjh+sFCnNzfeXueCdY/FaOMOYHWmHW6kIn/
-wDV/aIzAjmLRt6Y8wLlgv7FHci3iHpOJoKFO6CgtryfHwNbGnqkr8rCpLlnw7mXnFOgurPB3jdrP
-k0h6p+X7gBBYPggFze6vjRrDadYA36cprKfehB2Ts6eOPkbssr+PJo65f24x/tIZhqZl0hpiVLt4
-sf5K/EVD4RYxJBksVCjCyqiPOKCYDZZlcsbhquM/f571l55m+UAf01EEyY7jBL90TmVDgSOYdLKh
-4KOwYpeoNmmLO+YGmfIb5rThNgevvPHcYLw9HzvYoVrePrFHa4eSzSALW7pv1VwPe0YLvwNOnL/7
-fpgUoy9aFN1/acqVBqsMsJI7JAT/XfRDW3xWDkFRq7EbW5yOsJ3TW4mXRLZKMqu7XvJyVlbON1YW
-hTYCwTdKmfIisOHtTzadZ5sqhK9y6t1LYSOPLZusgavWhhiC1TDhzlPcOGJXdjSN61YQs/7FEaZ4
-I9UUQUjIP/ZEWvp3qAI5gKNJyyfzv9g7j+XIkS3b/subowzSHRi8SSB0kEGtcgJjKmitHPj6XmBV
-98skqzMt3/ia3bpGsyoSEQBcnbP32nGcfHpbFYuCRr4/zikJ4b95VsuzeDc6wF/T3cTaTsL3B8J4
-j++S1SvddyJZyD5tuQJ6BFLUsp9ruDF7VONYsPCHbB3AGD4hD8dff4QP52xi3IRrYuVcGO745X8+
-Z3cEM4sqRrTpcd7eOQRnneAi/m4a+FCx4CoUKkxBhd2UtOJ+vkof90MgijLeC5vNswiZuIpKgEbD
-n0G6dErrfEo4PKDtHJ5//QXNj/eYLQq+ARfcN3kE74/DcKLtocnGaE/4RxggTsX9owWB9ynv2RoD
-cXKmK09zvEcAtI+pN9WArJwRYs9ACnpXFhFZYWFDukYNXMrCrFGxnSQvhxZciMwZM9TXOlhoRIuq
-I/y74vKfevXv6tWG4fGS/O9KrMv4SxSHr8VPpeq/f+mfUrVr/gW2gDkXKMTfuYf/U6r29L9sXPDe
-mxaKyrhAcPWPFst2/zJYI5AcYNPQKSTzKf5fqVog0QKjzEGXQUNY6h+Uqo13KxE1J9orNq4uggxs
-W38foABmBitr1hqnAklvB1wRfKraN86i1odqImAKRIgOLhKkLyNbXrJ7sHFEFT1rr3JeZQx70cBj
-SYtTrZxEzBOyD5uQ4FNoLixdTF6MLQCSEBJ+uNP/UpF+t6TBDOQDo8pAFIAkgGnj59HstsSXBs1M
-6FGoq1sjKjTfYZt2MQ1SR2I5cTL+9QVZmH+eKBekvU7TwSZ5j8IW9+znS2pxZlVaX4YnqpIXkIO0
-xM8G1pZdYmOWxN5fa/XeaHSceyMJWsrv7UHae08w8WydMDJK4lshQ6zmQXJXiFuljmJ2YlHBxLir
-S6I/rqNFuZyZRjfv7KAoT0lrBA2m44I1wkgR6KzqBtK07yj6zFsS17jXmhjULehTzn3EA72iwClb
-+IdLI96jHBFuGhkshw4nAAM1Co2qhOCJsLnu2r7fBgQ+gfOFzdAYFi/BaLH0NhZbocnWPBrlXWWc
-G5c6hi/DeApJMvTIt6eoA7YrsjOs21Fo3huoo+Dmypbv1jbY8bRF4BOKkY9Bi9RVG8sxqxdzGAnZ
-FYDU0NNFOZ+IyA7rwKYnUg+IUaI55tCNoctMIqM9mSUdiTOhsVLbCjmJ6hmdUBEdu6bl/Qvhf1FO
-k85wOzcF0mcrM9VT5RrwpC2z487F9GlD7LylKg9NBfjCH5qUXwoE3ibODktTlGYrn45ANVZwNdfY
-aTQ9SaLFhkJFsWyKxXWJGzn2k7RwXsE7B4/9xJln6AFeovEGC7muY3ETUWSCnNjW3CSoxjwFYdPq
-eo7gPVR7G4VXvuE+Wr3vxAv0KAbJDL/Bwfd1R2eUxzqYjomKjK5wdJyXRyKXm+PVccrzq6zy5NXE
-4mIl70hgn4dhvIygOd9ork4rngIZrFG8ji4GltgAmAVfkI44Rn0OGEKOcl0OZraBUhAS8lkbi0tX
-Tff4/7ozqw9nszwJ8IbMTg9mIOmcy2kKxaM2SOM8DlV2TTpb+Eo7Pt5TOLZdPzYL+VqQ3PtUWeAa
-sd7wykYj0roBYp/rR8myp8+zAEioqYSDJBAi36OGWKe7oW2ukdA1SF6boZHc3jHORXMFc9Gxtgie
-tCLz8762iB6ZbDeaLaoGtgawNFc8u9hik/B9Sqa+euHHPPkOzV7dxrlOiUNk9HbLkHekRYne+5yc
-jXuIKzyeLIWvu9KINxR4oJGcAl0oqxfuDIMLtBeDMq3KMdi2OrjgZzDZ6pbdPANBI1ld7WOzMsUO
-FV95cuAKVKtAtZz3h4SaZRKYqEIsp9730TypC6voufWyXJRtFMmSeWUw2rwN0Bzui/QWu2vvcN4A
-fGU29+k8a9qj1pM7etGRcd5cTwrHNoGPFtPvnHOMfIhtPU9vA/K89rjnyGQm7sI6zLDPhtU85dxL
-zpTcS6WPbDs9L+RG0INq9kHmQrCxmVWiY1UD3fHfXuSUQGm1LXGcN2sxLIOia5Dwr9SIeY3JvDTv
-EUShmaAhFIlnlbm9eZUE2CywxRhvuXSjAejaZfPoLgQ8cN9hovYyCJvkU2M0WONWTg8+wQrcLn1q
-mCGMCOAEeYpXZY5QyGVvowXeRmahRhZoavCX8DAmx7YGOo2gvjHOCQRR9eT2QZ1+c2RhmtSgJkI6
-N7k+mOZVzvoz1+jrcbcdgsIE8rciPFLXD5FpUSMgX5z6vhaHOoCTGadFHLrnglSRZ2foA8q4xp0c
-QkXeaV72DyBqtA1+0ggSV9X6Vh9GByvzAugzQQydMR7GlWEZk7OOZO7sqfyIEZBNUmsxZXSOmlub
-AkBB8mU1AQjPIPdWlas/tkBufSvXP2mUehBOYpNIp6JbxdGo3L2RmuHnrA3kNxVaAQCKprjqMnHR
-j009bdKsUTeilOEnxxqKTc4itWbbZ93SdCs+GXaUb82CPGxfzjmIQrh2114I/VdWKacTk3Day7gK
-swczaeXK09tuO2sdJYBBkejWIDCk6VRdDdmcXzhUODY9nqobpvXqU4LM726ws+tR6irZNXVrb+up
-VmAuy2I3APW8C1uRPYy53Ybbpiuww7OAQdOtZ5CiXrpFYEbqQD2SS5JJqjfxYJX3LDrVc+EgLVwn
-c1ts3VgvnyIhllub45OjZ9YXPoTuRTypLHiXQ74OA9l+jxugfRnO4705kww+4h08O2Er7XUEx3bC
-5M52YL3QHinI5uUONSpiH/pL5UFGytyGjnGTBGW108kSXzd8x2esQ1SfoLWIQ8H5a0BpKftz3dnB
-nVdFAgXNnG4dqJ2+lmizu50mIc4aHMgTE/a014tiOoya4R1mIIkg5psGYZnd+3U/JTjDWnE/xMP8
-Vdez5ERSx3xqisbL1r/eoXzYzIEno+Yk3874Fmfvn/cndZlbhOZh7FFdRTmlWMq6o8UiZGuUhEEu
-lCcw7c3+11d9d3hjV4TQG1Em0DHDlBDbf76qHcyRjEbHO9aofl5g8TAxVJ3JHuPX13l3ZH+7DtZ1
-gXXABKT2Pi+J5BfRt14YHG3q5MypesOcvfgtHRUwYfz5xZaWL7fTQBnyXituMIa1kE3g0c1onpSL
-L+5NH6DFvbf59aU+bmSpkSDZYi+ugz1+30ivQdtXmtLF0QK5ei4wUu6cEVsrtfDy1Eoqb398vcUT
-ghYVhB2QsnelGcMtGbZZ7iBRjILHv5cgYjtYMZxi6aq08cTt/fU13x29eXZ8OZe8G0huPLz3m/Up
-D+3Oazr7iAST3ZXEYxizLeGsiul34S7a6FssX8sHftapaas/fklpBDrcZ53gHRNN688vaVnYta4y
-/Np9Hzf7ccSypYyxPP36a34cClxFGrAKBBUVTiY/XyULzLEIyEM7ApJu9lOMDU+60++KV/92FQ6U
-ruMsuosP9RrRYc9AeCiOb8oLEdNBwlr5//GaOEQ6wvbjtMNx890dS2u6wwAonaMZYBSFe8tLMUwg
-9jZIOoxzV6lh/s2R7uP8xZzObMLXsjFBvR900MuDacyEfdTKQDwbmCppzw5sRfqMemGBl9VciXbm
-Ffn1Y/s4s7iEVFkUZnTLMz+MCI9yPzkDjglXjtEdECR96gSCmTnBPfzrS/3LV+TlQNrEHhz1yvvJ
-UsKM4lK5ifNx8drlRnmaWzqkmb0UwJcTnFreml9f9N++H/mBroGqihLfe5nYgB/birA3HDOBjKXI
-UU1kuhvtOOj8dqS/VdF+qCYy1D2qE3BYbelJ9+NIW9qu6IJ1urUtZsnEyB2wrVLPbokRaYjYRbtD
-cZNtshrZ19H7m9rzUMMm2lKEtDlclDQscc9/NbAosuucC/r/biqq7De35ePECzABMT56KRRMxnup
-WRE7YwyQhzc8p4SN2QV77cLubVfwi3nVEo9t/a+fhPFx7CIyZFQtpUh0bu/rgGFGvSRgjTsiUmev
-q1yL80MHregrAYssmdCRl/c9iY1z3Wf1CxbT2Vhbsadu69ass10d9vOSC4Fbu4OcEP3x4kBzAOUk
-OjWLZ/dWx/yhU6KTUzFDt3WO+eyy6dad5JMR0qxvM7wfeFb135VxPrybiAqX0UAph1fUfn/BmiwI
-Nv3TfASUa7+20CmS1VQXvKZqqaf/+vb/28WoG1kUuj2mmverAGoOTw9rbzoqLELXSQHXDsoGpxxH
-rzgl/fpiHx4138zF4Li4hljx3lLRfriVeaoZVRvo01EEDgfLMCZgjrSEiFPiry/0Jrv/acghh0Ms
-yYrAlxPUxd4tO1YUK1HJkR1EE7XXOme43tfctksfAtIG2lOVDFRC7BCDfjRGNP6yCgsDteRlGSxr
-dRth2yN3YuSwRL8RaMQsaWHrmqCURdXL2urZUv0Ya0Dku5Hu1XVXABHL/3QiFkT0evRlWNcQf77f
-CsUFnEMJ+/5ozrSwR5pGJygV8S7Upz/edXEp3gGMLegJ5IcGFXgjsxsU1v1GFxZ2+ITvX5ckEGim
-Kk+Elfy2fvhuD0TNn/kQBy3/T8jCh6dUzLll1I1jH0Wt7G8YnYZjYwfe41tBRMiWqk49Z0QyKOyC
-v3lD3r8i9iLSRKxpceWl6fXew2NnaByQ2hARhUMznwGwuSIFWgv/yUIZoQL3M6Ce1F4PJf3msxei
-xiisJoz3Zjch5iBmZbrV+5wqIk4vpqi6kcvBom/4+c0B3+SiTSC5GfG17Cat4C+NsbPHG5PSqU5d
-q7xxkhaZwfJ6ZRqLwW7qGqM6Ds1UtStTtLifRkVprA3oH59SCkdIOOohlGs3pAt96eha2qzJJMhv
-RqoN50Z0GsEnsbguJ0Obd6Us6C8PHYxFXYL+u6AsrRd+K53ew8PbVBddis0JtVs1Axea6pkD9Bwf
-YdYYPkALpwc3Y0Q15Mm+jp2O2rc+gNu05mRRVWdGQvGor4zM+DoSa0FRXINvQ/ZJtRRDAd1F1wN+
-wHAjiWIoD6KkRIlqyAuivRhSTkVFPfNv51r+s/mE0k/lBf8Hi01dMdaiInOA/hYtcMOU3AUO7lOj
-vPQQupq6rdSMNQGhUlZepGE9dDct+p98jaKI0V0aeZXeljOKlnXTd0a9pSOsblMdqXEoRJneokNo
-vyra4DMVXnxT3yxR9Db+P2MpRY0Zjxl0C7/IV3deHRBk812FsJlWrZnYF8MC7aOiAVtxG0PEV1tR
-wRdaUwehctXNEYVwN5+IiEK/yF8kHTlAFDZaxaFWSa/dqTLm0nU6s2p5OsqBehVlVmte4Yp1ulsj
-1kiXSXldomvOq7i4jUmC0kNBaB+GoSGicN13g+bPVQECRphM4c4c8gYVpEwg/JRjLC/wZxnjIQLa
-QiacMlDUlE1GTcut+nbeqYwz7Ir2LFVGBACquTcKp8ng6Di8YEWEvPqsxQ1rw9s+gJo9bx9AGkoN
-kaALdzSEBFEVUAhxa6ptpfrudXNwDW4KZetbCc7Jej6MFSnj3k5M5zXGehuQXNCiy/57WOGdWwBw
-zL2jhO38WhAB0VCcn4x7QxkRXVBWxZp0brQVfiMc3qLaXegaUeZwX812qZlbSdt/Rpw8DluFNvL6
-79YMrv/XwLGWjURos7dzS4nQ1EiWSmxDeX5VJRx/QENRgX9b/qToKTJG1K7khSPpR6xSPVYJ6Rap
-3p6QGjFM80qj05BNNjfWBixubRPPDOObtqj5IIZO7WRbYXW7xeRTq0+9kpYG5FI6aXrrlp7qLx2V
-GfciSQrb78FKT99cjU7GBr24ad9MRkUVOJrYG1uMv1HmrMe0AQhPiShX8K5g+yeaKrI7Sz6xMU87
-utRNB65vlRFlADE0CNBt+EzhDhk2TUu1fsoshARU0GaXkgSCt2Ou64pSGxXyzqVAhrUoGf/TJ/1W
-dHE3/bZPyqryw4r00dcTt+3yv6r6CVthLqsRvdPXtvu//0dzaXrqC5mCBeodtsIz/mKIYeYx2dH9
-0yO1+PGfnqil/0UvlHoG7lTY9xL39h/0RIX77mDADgRRsYHIQliWx5mJz/ijtSGWZDqnBAWCAgCD
-LUOgVhCLGIzEZyAp7cD8dJim4ckZ3SLDguxjr4YFlE7+4vQwg3ytV/QeQFCUqQDa5BkY/P106Q00
-MX5v0obYYlWgIkw8gnE/n4JYTv2mwHsKmImEUE8CbVukz8FqikgPPL/xtKF5sj7WMTS9JrLIyEjY
-GN7SEJIAasHXuCMW2jeCdLVgu6HiBkdyHBn3ZD8XF3xM/LvEhlSvlkdMC3UpSDVocQ8TZUpjJSJb
-w1eRTVXYN3cGkkXt6KpoxGtN2qX8OoRWKLajJzXzUR+CMN7kfaiwhyNsd14i3UNzuACPuuhUdhZL
-/mpERT1e16bEXChDdwzPs6dF7rYEhhHekmYq2FkS2UYmX5ijETPbodPXRN5YzsGwl/8yhOoln1WT
-VoTo1Dr7aHjbzkpg4CV9lKB4snFHl7xNRMTCCKFz5CLALkXPOfycE2hyNcip3JQAreJVK6e6Whlh
-7T7Pveq0TWGMasNCB2xZzNjKyWJkzYe0k9TDWbqJ3vqpHlr7jJ0VAlecDGOAvLvJbijiZru8yXUI
-tS4LiLetmoHEyYEz9qnJx21t1xWBeanJC1NJKKp9XPra5AU3g5jUQ1o56bMeEdcqiRf2LRpuBOOl
-zjetUMkte3ek/56q14TfEYcK0OzQwXR8ATabruCUoaaSTXGIiZ482gEyK8PIcOUm6c2gKMBTYSNV
-F70klIJRHNuyOChvuocDNjRkT3ntZ2eBd+UA+dYKuNMhDQVeibHLT5zUWxj1du7TiM0eygHTa60Z
-0S5UpfdFAEjOVk3QJNcDTbzXcDAc4OHVpJ+9yZ2jVZcY2hHkHb816YV+07RQH0fQ3o+Wmd0nWmW+
-CFCXoQ8p8kuMKulRuAwquqv2FkAtDJQ0H/CVKQh+1vgtCMh+nFGXb7yq1MHERGH32syksc4sZEY0
-2qu0Gk+DHTlXGTrZrTXM6B4FQqt9wxJ4oO0nLuFGGy8AAEAdywKMtTkSsZOkIMxs0mowgLb3LX39
-K2t0SmgYuUWc8KTO9MvmfR5Wzg36ROOMvD95rosoeeGJZjuleuvUl3O274sCWuRsZ18qVL+BHzSh
-PMaNNV+TDT9c5B1lHfpiBhiOypW3U9KxxGmaxbRCrsGlOzXWjUfwLOozhsQ+U5jJV5Ubx8cCIO5V
-7/btxdBY8RObNxhW1jTql1U6xORtpfU9Lt7xDpJDdaQ3W2zg1HgvpT0lCHpFd+qckigk1cvkqM9y
-Jug4j/JrKqXBocLRsOtmPeQ04Lnbph6c786APpujzPSkEiBooUfoaVrl8BqDSxqe0Cb7SCd6h0au
-UYQH06tOk6NPeOCtVZXa/dceVgxW+SLbLxiOVeFUGH0Ixdk1cSG3ZqQroixgu4Bx7U86UarbzEYH
-Kwp7vElKB+R06k77sumtG4qB03OPZeILuoXhhhsSXCn2n0+znIzF1ZCvGScd6bkqgcttJzuSLwGS
-5H2ZPmCezzgRGIwWjbQdT6bVV5jE3W4GA9ySuq1bGyWUDTGw6a6Jg0DVN7B7JYUBgATB6eb32Yw8
-baWj0uBVRkLroUkAAThc4iu6robOO5ulGT6T/pLtgH7XWwWRf1gBLtMvBZicS4/YqLNGuO/NpIae
-haKd0I2Ui5cgg5ZQ9xVYZgYqRekQuS/sxdwnZFIdYjb/x6oE7kkPYkmHs4rLvu5WSEqZapDFo/hg
-q2PWtnEnptwxfR2Dpt/WYvpCx10RjqS5xKP2bZLsW7wSn1MhN4qd2pG1hBJnXZqfEjoNh6x1qCnZ
-cXxvNEl7G8pOnjnx0ReEe8pxaErrh7YggFA5csmUqrTXquwx1iPSv81iklNXjB4JIWicvoLzTCaf
-owkWi8IZj1qYD7ugNYYzHgjrCONz6fLV9eOIdeBaLTmiE3TvnRWr6IaVrXoRS+io2xXy+8QRI1uJ
-rkVe4YVfx1QlC1jOw6NebUfE3KdJtc4ad3Dna+USc+otiaeukRJ+qrfZ8FqhR8/QU6BmAXOssTOM
-7PoxWBJUgRqVB/ctVtVZElYLm1NP6w31kxsWQmzsMsw/W2Ho7ooln7VfkloHt0DTrEhvjYhxJXsK
-YTxwBtaTzO6yc2frOI7cvL1MlxDY3m3LY11qyPI7dreJnTrnET4G/daif4LNxXnlLVG2JaCDkBNr
-7G+qsHUv5iV8VoeE0y9mFJZr7GzhKRs7DRCWI16QjjL1pEuMLVkPRNoyaVfoz5ekW+ikJRTCwjrH
-elAwLWFuS91sIgt1ycmVb5G5HESIzzU9DfWPgf8eEbz7mlKU3uqx9Urfq7zUwsK5c5c4XkNX1sXY
-eTbT4GRec2QmgzAoLpcHSL/PMnZz1yPlL+Il7MS8xP+QQLFCSdlERXldhqb1IJeAYLVEBdd16ey0
-t/xgaoIbKhAmTeKYlL3SqhAA6e2NJCrgSxc1pBAbXTWv+3Hw7gyHAM2C+if59o1xj3OPDOOc+Ljr
-9C3Z2BwUIcdL3DHFotIfdevCfctCFksscq0b5MMJdfQ6091wyqy/4RIhR1mbiFQOlnBllFyV3y6B
-y0UwtdfVnFXX6VTVezSv5l6RxuDD0dP88S23OQAX+cRewLxXlpegmsek/t3Ntf4lX2Kfg7R6Jt1a
-brTEu7FMOLR8P71j34EjEHX9kh6ddAmmgiVSWrylS9MqaAIW7Xr+EldNjhl5iaI2yaR2Spa3KXWB
-J4Z2u82X6OqAvemWOLb81L8lW49uI5O19ZZ4rZiEzxaQ6jUOMKKQSTJBiUNGdrDEZbPeFVCCcEOh
-H5q2WmzIvQn25+otghEyHKnbnkYAN2EjbEAI5e6rJPBDJLHmShqNkR6cLDR83mzkAOUS6t3YS8C3
-1Eu2r0OLTkFLx1vRNNFqnK3xIPQJFQNcRMYJ5UleDk9+ZeMbbZCvmruUeI5L2oZsphU71QISsD7e
-DXoWPuhpmT3YJntAmyBd23eAyV9Vaeed5lSwWwmd4ECQRY9YG/kh6ruSFQz3BXSXfmjmNSKK5Jh0
-nlejNzDini2mV+7zt/h0658w9ZQaulutgK9fBAM4cc6GDXl0UX2DSM66tO1mOnt1Y6y9NEaHC9Hr
-GBXjvAnZ+D/Pwj0ltrgPl4z3nrB3OgoG39I+5qk0PoErMVeEjmV+HQhqSjKnpzUPJvnSkjTEMbLg
-PgGmrKz5tYkII5HajUskIpK9QSzgDQCnNWjTsiOhXrc0TE0YghRHhBORkfkmS8IHHou1JaLK9r3W
-69dWxuZGy2Jgq7F1SdbJi9HaVHWGjnwJcjDXaerCzMkzbkw+eqCHsem4llWB98J3G0a1tS16dxuF
-xXQk9+oqmmzz0WoQqviuKnNfF0WzNeiw+rOm0NClvbWey6lblXZOqxOd/hwn1stEEXVHHGQFXdrd
-eYEjr5SIUr8SBVUWXr9XrZUbVHvBPQpEsa/wCx4dsyX1OM/i9RCOtj+7DctcG8WHuCKJeGq72aee
-7viT3Y8rPK3huUA9R7RyMl05Ol8ucbNNPHc554Sq6Xwq4u1v6tPvS7gLtJAUN5z1KGZdzoc/Hwyj
-wJ4y6GfxIckhH4H6htrTkEtNxAEs8DtbL+ovFXupgiUbCOgPR+Z/Eby+a15wKhUQE034Ua5jARR4
-d/E5LhoBxSY+GIqcqDlpYKHGWYQ9zEtvf32pd62L5VKwzflnOf1+lCTEdZwIpJlcqjKJh2CMTCjB
-prD89uvrfDDmLBeiBO9x6EcKDZLw5xualtNkN6kMD4SPT1tah/ZB9G+ZTXF3XTcpDZrBi/SYh56/
-VnKBOo4zqF0tiJbDdRDx6X79kT4+YhqC9KPwByx6Bfnu7N/rHaBCThnULKExIZubdlayKFjtzKNC
-rwMv/IJ1kucMNexvG8R/dPa/qR9B1bN52/93nf39N/Xa/iiy/+c3/qkceQv0hZnOY1BIJFCLn+q/
-gae6+AvpyKLFoKv0N/TlvwtIgtBGzCaLpIhuDOvO/xSUTOcvF4YM4xyflkSJL/6koGTYbx32Hzp0
-oNMcG24qOBOK7khgkPr/WFFid64NdVnqh7E2m6dBs+WqzaYvrjKz82xo9SaCJrhS+VKlH91LwKjD
-sxiS+q4qtbuavLkjcmNSjFxWS7vstcMEND3YDSW18r6otddeynJF5omOg9wNoNYjmQ/b60I6k3Vj
-23Fq5ivUtIY8zEbjmmfcRnr50GY1ikn0mnNp7Vhaq+rSrRpdJj6Nj5njG06YLrepr6aJvcVFp7OD
-rcamqR9gQXeOWskiz4xj5ClBC8NEFLoBqc4+Jcpsszp2NgUZGulFCpITdd1EGw+C1WwcZTmZj/YU
-tkS5z6UBVxSpnXJ3rone+UCpxNEDtJGxTO6DSdN6tO8S8Ng6Kh2iPYrA/RpiVqI2b7aKTK4momwj
-AEDJWL9jj55U646P0O5SVZonV7fmln6EF50CwGhwxTvptFsaGsmwmTmzYJctE7a46NdUwb5qlRVW
-t8dP7m5G2uUvuHBs1kliycEh3oWk+PGw+uSyNotyn5jjY7IEmxP/xxmPmvk+HcOIFlkeRk+xiun5
-TBy1WB4vS7tBHd33TwTVFH6ftdfWW5x6MXhQm4lY71QwYo8fXyDktr4JozFVMC5U+sgiTkllSWmn
-5/w5jMtmY7H+3s1UB1ZwavNdzy3VoAagtqjGXSsjuXUJgqfZejvM8aPITAiPJMXPS2Y8lqfzHNUI
-vvvupVzS5Qly26ddXK1lbK1pNVGaXHLpqwqURlPP17iCiTM308cK8da6X7LsKdV8A50gLnNBE2T0
-SrGiQkEqXY/BkIzudTr16c4eiLpQ83BlJqBOh2FQsMPQJuLwii6CPmsu3Q6aKZoS/SDLOCYGBHB1
-D+Hdn9va/Rz35rDLByf+THqhQjkzTZsKBdQtBF57VSThN0I3yytH6+6cLsabn0/ZTq9yXMIomBa3
-v1j1MaVDq5wcjZIEFFRETwfmhWgLPM/bhrnD/pJs590gxm+lk1LwiCBkBMwdqzQECuATj/e5tOzS
-H5yCvWfYcC7V85YMaspN8Bsn30HMjpBgyDaGRkCVa6p7wyn0VZPBpsmCwzwXACTaqobhrz1x+CWW
-iFPtMaodz+cwE38Hw9t86mdJXla3StKRbLB2qAUI8UlPL/Ih7XGedIz4vnHrtWXP2vcSlzledmA9
-Dns4l1pOkwzzhLJIaXsz1fvbyRhGeZfZaXXN7iKnmIee61zRL4ZvGLubQCKp9Y2sT+5bkXf4vonP
-2MVJaR6LPmwQKVkdV+PFSomVJeoPWYrl68EwXCcki/oDJnZc+kNGboRS01cCEnR9E0p7OvZdXNA/
-Hjln7TpeLUX9U4Crq/m0wFbasftu1JyHwMEF1Vaovo+Q87ceY2306hnIANXjM6Sv9oW97DiY9IBA
-8WOK1k9R4eW7MXYrP8IsstNNLNl1Cqt8SgQE4ZJZQuH5L/VQ2yCY7ldWNaMqr2prE3jzoqMJoFS6
-87NCkfAo44pyX6K9MqSezDkmFTNLy01ed8dOq22EMBTDmsxMToUWf6Um2axxAcSPeZMQwiZgsl+a
-kP0Nak8I1mcjN67BcT7UmQnsjoSgBWqdERrndVsUp8PF0MfVrW152l1qt/LVzB0o0qlX02HwqKej
-N2cYjwpSdYDEdTvRIr4UAXVsOOvtOuy67py1cGX4OwXSfX3aNcuoTe1A3JAlYQETpUKn1Vm0k9lw
-TeUjxo/S7kdDjwiCp1nLWjITR4Qh8ma0phekFs7eHnLvS2NyCld2NK7a1Br2ZJ48C9q8q1gnGd20
-hoNNLsg67fGVrTqj6r4HpW1vEq3TTnhfo6079Ma60GdvA/Y2Xk2hG27JumE+cKdzPLqA+TV9uJxi
-L2FL2ct1jAJ0pdqEoSXNfkPXM9xFno28fDRd30sSiLZGs5u0sGEO7i69nllrtkiRXER9VL5UcaCx
-T09gbBzidcfbHqHPKsVns+FYkq74bt6+VuSgTrV3aOhc+KWh9BWCjfzLVJXDRteszu8NTQOIn9br
-hBZ7QLyH2d57ceKtLYgK65oNIDkJ9YGCPGYarfquavmQx7LczB6hM3pbIZCZPOxIoJg3UaGIbutz
-RfRj/XWA6591QX8yyKFbzaNT+xkEoSuTncmFqXiwhT4lW7CS+mFG97kn64gwkwpBw1AUxJCHKccN
-l+/cp0kGhyBlvqvFJ6JMp1XhSmMTpd0noDnpCcYh5u6pyFaBNU4rWvTGBe9Au2tjO1oSNb73IvO2
-qpo/hRV/NQVdQEGCCDTK5EZgIn5j6gfw8DmvDCCIWUccT2oGfoQZ6jza7sDiblYAbcKX0nC+V179
-DYQExE2HDcOg7KcclKSfp21NACF/am7sBoeV6r43sNf9pIVUQB8qX0kCka9LJ0tuPLOsDrprzhc0
-d7kNMv3U56AamUxLZu14eAJnwYLRWUuhG3ZEqHrMTi7zuoizz2bRmXAipvLQ27nYJnR8fPomxbZN
-cDOYhrkYaakgDNb0uY0Cugg0ESli8xkIE0w3ule7j61uztcpkVLcUJLoBWijXhXcMHgqq6FLkxeG
-fdpdkvHr3tfS4Xctfbpr+uBAMPToayTq3vRtNl47MEBeZCLuEGOSfpOFZ9ss272FntUiDJZwNacN
-uNFRHNkPcClHXzmiwaLmbuw5EKZf09XiSQ/jtJ7rfFrFAnyTH5bmV4c2ngMtPIW0Uhnl1WDM3V6f
-FSUs5bifIMjohBmrL0kVdFczRYNkMxBbtU+qzrpycjFsjJlEFmbWqiNUCsyRZ3LAWgWOwxuh57e1
-6zm346QDXWHW1NhiYHbyHbvNvreN5drLQA15pmjny9UkG7GrKsNhyBSio+PSgoP3wUlANA+tO5As
-vQ984wJKQPLcwuH7XIT1ERt0MK+TMgr9OrS+ZqJ17gqsbl+MMNFy6EvCW6w6vTpUIzWdVZxGSY9J
-blJfdFoyawrQ7d08NvUBq5q8HCKNgnohriHenuj0dHI9sByoPZqghNdZDPJrEEr6WWYrCd514ien
-amxwTbGzplOXQam3Kr8qKfuROybzDc3L8rYhbodzJ7firFIYRIQNlNS5uqoP13Pjdvl6UO10VQB5
-3IUUz7cBkdXURogf+S/2zmxJbuRatr9yfwC0wAy8YsipMmtmDXyBFYsk5ikwBfD1ZyWlbuuW2dU5
-etebTBKLZDIR2OHbfXnHn2s/SkfbF3aR1PsedOwrp1n5yitueoOVK57KYkwOonDzo7AXJt6kd059
-AweXTCAGKPBES0XDcF6sgGBWKhc3vGq+ZvBAZGIpY67+PgsAesnw87HlgH3bRc6cCjDyg3wYNzW+
-Cm+bfoDWnw+o0f5NWxTjHegN+RVuvWTxOLTFiGzoRGV9bQ1hutpecOnXbcH1YVieU50TNuSeNPkR
-cCfT4RLcrXOcFzwPxFisa5oxqZyvS+JtzhvsqZzCU0/xZvUmy+dBlGrEweSoNLbAQdw6Zpm9U+3t
-aAwr01O1NVypB6K7F0qa83eYcc1OJl5tRfVG6800NQJVp0ipI7ZKDZm8XupXMGjsUPm/En/jeJW1
-/7TUzMbYUabvTd207I/dYueMW0rKhpG0amZ2JyPZgmcWhhDLwU7uF68uyc0P/W6tx4yqub4KO22r
-aKKSnb1b9GZ5qCxbysjekhoie17Gc6FP57rZpsAyCvR1V6X3BhVv66PnFrK9UyCZ7chPlegdBDPX
-AR72g3yTvw5eQDudAR+LcTP3phTyUr9YT6hY2PA4xtbWc+VwKPys9oOlWOftplIWZKWh0OMKx5Ok
-8yrjHFVk+BidHPMwZo79alBpNEXYyjr3wI6807+TGac7TiuS9JzPMwArvsKyiA08dHim2GGGpeay
-o8tG2Z7nEUwpqRr9UfUAnWtKNlllOVk0Y+E79YvsjpLvJL4rMz/D2gZ2bUzuLzD3Fg1NJWIlbPCx
-2Ku6ex5KP8nfdaIzYW35y2W8Eqg92Ct25Aye97P1uvTgTDUjOJ1JGjYG6b5sxSJiKPSbFftDRcWU
-MWwfgsH6BoKQDdetumVZI/YtP/a0UUvBKjbv3mgXqx+XhYpeBLElBNzdgfrSETL1rAaPUFIn0Aq6
-dQQ4adYlsx5KWbS3ltVfDWu69ZWtVA0HGUTNRiVynPKuYzgnZweOm/VN5R41Ogyjlov745jm/k7i
-pPuwLcUqhKxYkJScTASevMDN22wPe26GYUVpGSwi0D/ATZbvla/N+4r2c1NRaQEA7m7mTxLIUdDG
-bBjrgd76nlFqSs+EtTwFacZaYr43/a4DBRn/9pVA4a9EoBd5Fi9JncU+UQFuI1r5je5ghFvfrQ9a
-Ti+EtvAmaRanAUFUjUj4QqOAoMC8S9dgHTTYNu5Gc1uhV2eHSZEHVCUBOzvF58kErlVxtWbZz65z
-rAsxx5yDtk8PCTwoAlcc/GwCwpXegnCThFllSRO0q5b1gUYE/3ZWVBoXTe4cShqXYqMSHJhD255y
-od97Hiv9YRhUi30y/aCOrIgaVOOSwa73bonjylDVoox1DABBUeFzSH3dDcxlwAJe51n9ThD3vTdd
-XGCzt7dsHGw4EecfQvFiJTi4HdcaQVbn4knQ0EbuVpDww7U0UR/c1ImoWPywfTOLiSuC+WnUG3nM
-mywF3rL1P5qieoPVff2+TaKNp7EpwUab9J0DQcdk5ienIidKXNJZFdS4VjBQrr+x1qqoYokziAWu
-6s8tuy2+LYO7x2HnhgY52nNFp/Q9+oMQ0WSpyYvnTsy3w8i8jZ/SiPqr/KO8oSPk3VfA56iSSwtP
-/FwarmgsiijytsYpWrTeeChGF0Wgk6zI1HhyKe0IBB2pGDymKMvWDuS+0/MC1sqT4dbzw1aCYU/z
-/jv3NUYx9nTAl2ikOzYTwXcqLYf1dR4TyuoIkpuEkV8YpZ5ZkfWhK0f3JnPMJezVxuBIgXSybD3F
-OJMm6beavvl6f1n01YSQY7w0GkdeMVvWrnMkoBq4R694IOFy9bLB7gm736DH5Bn8t00hcGncNGt2
-zrXmHXfMAO03e5KO/ovIBPPfynTU0CH6lLXGuwkO6Ejk1frBrhr/byrNqNPqFwVQ7FfX1RrlbI3n
-jAGqB8M3xchZsDn1I+3yAo04LSgl7zxYn+AlaQbFSYpAsS6PvQ6UPqA7gUoaBIhlZ9O3njP81zp3
-HGXvWW74jw0H1hh0pt1iDZgBbMKMykaNJ4FAtyjliQA8mnSeKq46CdXY/HUuZWETpXUsBmudVe01
-fZtjrzI2yKGzV+lDPImsuzV0xzvyH/ifysb7ZaTGo1W0HB5enp38TkBLt3m56tS5sFSc+j27tRTX
-wkT7h4vz1q7Uacvdkkddf5G8kkKw/HTuGVctkK7FcPUnl7UdtEOeCaa8XLf3hs0kjDeNI8FRcl4O
-RTsd3LmH+rmdFF94CpY6gSFIuyT+wKwDJwDsqHvCvzLugCC4sVs61amzkf96H4dUw6hPdlDBH7X6
-s0znB78Yro0yfOOT1Y591TzQedJECDMulpuSVaI2ZnvuLgiIW63dLYb1muvWcDMmWhctEs8DbE8K
-ckQHR6Gt9YMquJxJexqODdZ9lAvqxkRp/+iWxH+YNIEMlyy0oLTrtzLVUc7G1dy5JR6IYjS/J/as
-P4EkLSNHUX8bFlO7/LQHd37i7CNT5tgydEU/nWSPGEW7cKgnmnWppKehs+Q58EGaLwF5NBd2/QO7
-VNOaIiNf/Cl2U7126cDMwODzfqT6sN2V+dp9DHrbvpPYMOuo1LbtE3JTovA0l9pH69SShjuqYQte
-eDIwXVcdvBJglFtyRXJ9YEsEwdKT1Kw0Nut1/c6cxaOVdvVHXujeXUs4/7KN2fSp5c6vVOos8vxM
-YymPDP2wKSuBMOEuTdjRC//VU/Z0bxiZtd1K5bVdgMm23aOC1hQUjmYXbZvv7PSWdXDklLmKOoNt
-U5hva7fLO4hTlki0Wz2HCxPavAwOeTI/r6n9lQnBfgJ+2+7Sfh0PPAdr7MiBdjvfe1lY8Add1hhP
-qajYr2fmnacPCeAsWC1FnWDZY5OYRxWXdO1mMRhqzlWDtNqzgLlhhhjVLgX3jLcxd6aT1XD+4AgR
-XbFPE5x6iEQVW2a0MGaa2tFJzG8F4x17aTt0nVa+yM7qb/re8yj+Azshgkmg8a3XlfbKufDutMo3
-b4kpiOeZH+BEXj9tr9PVecJjjO/HRKCmpbRZhwv2lOns8u3pQ9EtI562Jj9vXdcRRUfgAZowpUxM
-64JzwRjrkdf8dRLilHmnq8D9ZsnM49GeivHQeXibe031DK2e5QG51Crqij1TPdlTB8WQjh08HVzD
-KGU2NP8Fc3X6Az5qkUYNyEYVoakB9y5nVYYmDxqZArXmDPRcvJXBK5oRtO6i2ex+LYzXMSuCh6s5
-J9jASJ660hkjeK7LPs2T/kGls/FaFEzgkW1xYG/S1u8ha+okdPvZexzwWjPxyrS9rzZtftWsfDqZ
-FClOQb353gXEyPhadpq4FfAp9gbwFZ/L62A+DOwWH312u3VAobF/o2mZ8Z0NankaB29+MgwTMRRb
-Hk9p23CsBrXtNVj1hyyLcnsoeCghjayYQFAFA1P6aXGLwj/yPvGlWd0UurHau9FZbP6l6yJORpkW
-kSqH+y0F24lJ9GqnRYZ6xvqWngqLo5Iw4fqr6mr9HfMog9rmjJjzEJhuM59W7yAt8v51cux2t2i8
-ddPW4mXGVyrispPHIiXj0mmLJ6iurW9kotzjvIgx7ganPIOGg3DA7l+cWwo6v45Fg43TUXkdZRor
-bYe8D8fJqD3AZOhu7XXxDnWmp/Ewb90e7pwVUv/Mt0STy3jxqtp8Q73VeIkt3bNgvjtTSbLsppHp
-HznTRaXRskeYpXPo4dRHtG+LMO2G+jKN/qcGmgijQp0cnMweIw3AzsWfeTTMwsjivL/24enefYML
-7rgAXTw5mkuLAIVEkYWLky+N74bozfI0ZP500QC0nEnEf288pcckdcWu8NaPdK2zEC8nNwOvQFbU
-E/iOvVxfqGxPdq7Us5jyGjOGtufR59kN4HdW41gOLZpNWzYr+B9vizJT6ZEDUjDAsMgsS9vRe44z
-MOSqsFEHppyNF9kw3XsunBYGvaqKGtuYq0dlZ3m0UpkbFXbZAtSg5uSsuT2BCtY3aKywrdY22xFB
-wlrRbrf0u/Dfi4T0jFrvFurLAmMuX/zBeDNTDmtba+LcMjfiv+rDZ+keAFzNo2XJ0mjQKpiXrtbu
-DIhuhwXXg5UWj5vXcVWAGxX6k6ADON3uyOQRTyj6127oi3tgczQNGAcGq3E/b9b8TaOOKzRM7Y1c
-n9iJjQlZgQ/ZdzMvauVNHzWGqodl6h+m1qjWAALn1UJ0vQhmlXbn0bgSJsLIjj290KRetB+W5k4X
-TOgykJz/AZgTidDjW2/jYmP/qNV57jp1lFX/+nsX+9+19f+ytia+cDU0/P/X1hcyDy2n11831//8
-RX9kHvwvMEl9CFZ0fl7DDf9cW/v2F5eurX/w3f5IPFjii6ODExMGky02kOtv/kcCwvkiWGHja9d1
-6rqQXv6ThTX+NPbRf9lXk1F0jWtaHLgA+wjorH/fV0vdATRPw9Rps4Xinlulzkz7IHQjFGXHmt9F
-WrsQo+z2Me/W5nZbcMr2HuQlhNepiPXrHrYYy23ldqTKuwxfII0UGkgc35V75efmCbg0+5I57/rI
-9ghCY+fwLYZUSF+g++3sZq6W9ix+3wR5BM4gYst7tzW9fS38bH/dW+2tEvNlmNZaEtFm5Oy3PJPH
-klDEZRpwl26UfGjgewgaBvXiGTeuapdvzAorVi/4RKGZTVCVNWM8zE2bPLa9BZI21xZ1nMT3krX4
-h1tW3mUrzQRLo/IohrRY5y6zo3Zlopy7haU14T/Hr0SY0Th1vDJ5D6U0tM+rdvnL7XLI3UXjHWlE
-kD9TZSQ9il2n3+dZNwFkN+WjNVjLqShdQdoPM1N9PaB/FqIVIfLhFlBtbMKjhsN1m4omvRm6TfvE
-GA4MEtYyebWtb45r3r/N5AUei+XKpsq8+WvWjeOTzxDFOpsW0+9X6Neb1PDUhJNtrUy9Ka/wrfHJ
-m3sNRABynYEhcgyutn+9vRq6/OgJNE6c78sr5iSDD7mpvrNDHg/+lqN2Yhz+3MRUnXMh77QttU+l
-HLuTTLbtpksYahrbHXYu11sjYqpfEQXWyZABvunyzc99his+pYmfVmsD6Q9e6qvuJjQ+1A5/UcWO
-CPzddNZzm1nZFtkeMHH1DM4je2WhiKWMMAt3/FW1bOvwROsRgX7RBQSZSyhPfPeOvbSmC3Lk1QLQ
-ChNpVQfHl11r1qoUeTdEZcjw25l4EEGgLb/ygpEk7NQ18d5UpAa7Imvuc+BlgdWv7jml5BFVcIWF
-Lb360lEDQZesqWN9rhe6xjHfu2uAcTN9oVWCDbKPOvC9V4tFWTJcKFZyXEGpqKgPG0tJ5GrXSqOW
-drXbrbb9hzRZuW97WkzpIvLuOkeOtG/Re+dPmufKI3YQGH1ciJDphmndW7Sw3Wzb6AwE88bmq98W
-yZuGCqWdkt7oi9hvXP1Hv4hhumrHE26ApU3ieS3195GEUROmSKcPOlPiN0kWNfS7Rf8opYm4PK/j
-+jiAgvIOllkuQyA9TJS5sQ6BX5u8ZpKRWvJgSnTzxZxFdtMDBPw+kdRpAgI8a4qOQEKi44b+rXAF
-V2NbrYIwSuk/86JuuUhTfQeoOqtmBKd0aHde1tQfJC/9r2SlvmtiQdfupIle76w/Ue5X3LG63ja0
-+yXNW5FOgx5WEmWEf6xGvo+uxXtvdQvEkKQdo1qbsYiORL7OmaHGqBvlA5Edlsx9zvNMvUIPjFta
-sUcsmC0S0aFtnoZIWV0eWUw+SDJjfypb3T3ZYriuHrPC43Mgb9CiUBeBNMlfadzX93Nl5Y/GrNn7
-NhelijR/TKzYcqV4N8qMEgZEIpZPomPv0iDeYMnuqmO6mv0tq1vix35rjo/Syy0+WJr+XmkD6Neg
-10dz4TBLpiPDP52FnrZ039hyQXmyyPkfwKKnAPfFOtxZg9Q+W9ulzGDQixnLNkJuUW4Q1lsMyVQc
-WNa809D6vzlcVn6yIl7eV6vRLyaeYyTRhT1tYNqrTEI/MXssoH5SRp7R1VRbLAk8NY29ui66J1TW
-LsJ9uNxIh1VJDe8rchr3ZHXrSJVAQ0gqGyrcnHlyxM2Qxoi4/Z6byTP+8mk/SMyqOVY8tEFUZBcb
-0tqE/jg7cS/U9mMD6VbHs+70UWtOpJPajMmvEl5xpwTFCtONVfVOM4aWXLr8ddPSqjms+FhL8eat
-JebyIJOmPo5v07QOxR1rAy0w/MK50wuQepteyUenrsSjo7vpPceiwsFabkfcpy+21TSPPX6yx4kb
-qxGIvEhe0CWaN5No8hTQHLmcMiLfLx7dDxxSC4+VBwH6XlDPcQ+0lDwBrpJrpMsiTV8PYTtvRlzY
-MuXY5m2H4Lnmt5PhTztcXT327aGubwtf8Md1Sm1HuWzGB0NQnked3GOgy8E5Q2x07ljtGBeaOBPU
-921MnixPOsciL1nYTBqx5GxOsp/mprGc0tKp3uNgaMnCr8mt33bdE84e95jyF//s8h7w/SrtPRDY
-aaeSfvtWWgUy7dZrqJB6te4Kiwld6eMU9+yv43K0OY+mXN9u6HV0j+wwW5orivu+mqDs9YZ5l1Bb
-bXHIlhTKb8kRTdS4SNWmbdhs1hX+P7X3KSDF/fXzfJat0s9+sRHmYoDdF73U7spyns3YMBb7oWLv
-9SMZ4U3mSgMkLnsFe9YW40qToLs+GKVc9v7q+8dZn4YXmbT1/azb8+FqhWCTO7WoK53r49FZUph7
-G9uQiHtZRleD6TNgX6/PZDBN2gNJmMaZnYtD0VfW3VTWKCyur44DL0aS08Zy2/jep2hz/1MfTAOf
-1WD3b/lUZd/EkpTHodW6PYAPFlX5zFHD1y/jJW1RcM0tXbi7fC7K+8RnBOnoH4zKUXfeDTw4d8aK
-p2jMrocmmgallNuy0LCCN8lon5rVfwOzCepwzrysA2nXT3ooGs/ISCwt/nuuJeUTtIuhv0d7ydk0
-u0BCudk6pQ3PU++xGDhjznvM1xvBQmjM8o61h88n30LaeJJ9GiGEeOvOzByX3YPjhhlcxiQs0oXu
-TqMtbkZZDfVhGrXszUYNzT8Mh0c8hKgp7Fgum0xxSjmq35yLrivMavs2pVFnOvGVNWR5ohoWS/1H
-n2zvjL3qtSy15rOYlfHij5P7rPdpd4JZ+tw37hrXZl8f3X7oQneiAcFt1aNTbe8cgL+sPPsoRufd
-nZbpO2w7JghL2gBn7end9bXi4Lhedc9iJeZypp35x0FQoLmOGNvY/zI3eyZj0PUs0OmG8EARTjkY
-fpYRDyb1lGs4TVbWBx1aQ/rsOZOM683YHrKNeScYwXTXWvDf29P/LTSOsfbf3p7aZvxoPv5+efr9
-a/55eSIt/gWaiQO8C7sBIG3zz/sTt6QvAhCVAJ+NaEAB2Z+5cYsrlxD8T/CGWF1j4//zFmVZX2Dt
-w+nmdoXJBp7hf3KLsq5dk3+7RdkO1QJY9U0TOiL6xr9wea493NQkr9md2/HohZVWs96HsWOHeHfK
-9eBCAm52AGIzOn9ys7ukRqUhv6fZj4GNektkuja6ELRvr44ZVpCGza/rfG7S8OO6ybFjWHW3ntu+
-lNVrvqG+t8MmfhRmqvxAn0pcMgLy6XodgmZzn2tO+9UdR9c4Dr0/zydl5nK5UKndxBlAD8amq9RQ
-rk556dhFhvqUjIG9amcxrV1OwZqXhnrRbGytVvltZpLnlM6qozUrMqBrQbcO1KXJDlYgxDvfw6Uf
-Eze3s9BysvxSgYQ5kmxzD5qc5HFu66Jjgdyoh5m9s1FMRtQa/uvSKHOPqWNk95e21z/VuhWvyuY4
-MCfE6gmubuajRh9wEktdj7AhJmM0tVVBshOwEQsbShqI57fAIMKN43HTA/7l+ZTFNnH1MnL7ZBXb
-cD90S+HcLLprf/KJrDfl4BeJfN6cbjtCwR0068aVuG/jQuoBtGFHdXvpdVkVG8pYLm1hVblVUQ28
-ci9vdg7hUlbNi5Vlo3koiDUCVwqHspsn94bEOczPLdSZXg0V4zyaCl7xfirBjh71utT9maCfj9gN
-poIrpfeb++K6HSIwUZ7ZNPTHYQCpXfW+pn4w1XfFL5+m9l94SYk53hrNYNf6E8USOvYHnGlDgIrt
-vnULsFTsyP58XogBnRy2f3xQskwy9lhTccwtvzFjjKoPDNYyFjnTY5KVy92wVgRaKaHga6nKNlq7
-MgW3resnr8AfmaZi2215Xu7LNrvTMVE+jmyn8ijRKiPKfUKAYdWPKZZlxvLQMvm0Q6PwcL6AgRzj
-ysTsXSshd5yvw0drdNWnMfa6SapncOgJ66+Jci/xqiAdC2kGDVaF02COS2CZaUWIiWXIwWqmb1lh
-zWO4ocHda3yCmGGtLv2WSkvcUD5W76j40/azaTWRy293Ic/f7fVNVw9NO+r7bCmZKjEpujS8eQsF
-NoYobwil9RTUwCRgynWaq9DLNQxzFwPRWFlnB8HzxBQmgq0QJC0n3kzSLMAq1PQTYvtyMkQJtr7O
-WbguEHBVJt+YCfwdoO+ZW6VpxWVfNqdJd7uvsJFubfz6D9dv9h3itIhQBGjy6/XLVnCh5KU9hp6J
-OYVBkzu0ZXbiV6uv4g7DcvqWdjlU2d4CRDyX9EVVThesuZPuMbmXe6iUSZD014I2TGJ7drT+U2pp
-mCbB4J9ZIb9shrhrzILFr5Y4Z1RUm3hRz627GJZXu28xzhSlWs4qN433GjOWwrWysa1cKmE+OoY1
-kQgfzF8ahYd1OPJp7MqtGI/Uxn1CfvNDmWOgi7QJE2ZQshx96sxFoR27c/tpeWv6bBdWylq/lPZ3
-PEjUe/vDwM/otCOuL7jJwPeDfpqr4yKc9lRS5xh6NB3FoLDVzmxS74CPjipnfBvYbWi33I02u8DA
-xYd8o/vZ9EywtAwrPp/nQfUPfK3bR89Yz/6CSmSXiX/Q3AxHh2ey7vSkBoTYtyrvh3Ka7N6vvJwK
-17b5gbblR5Vg9Ak6qDJOvLYWRe1CPyZO8TjW0juu3F2ikm/3k65Rghnoy2qQGTYTogfbV9xwdCYo
-O2U56/Z0j0EFDEhVm98wC2JDYcMeqUW32GUIx2aHuOBBpTHukXVVHnKdXF7LbCB0Zhbtxag6lI7Z
-VZ+aauZ4NszxV1ouGmnBfovbKsP/ApP1zQBAdrfpyFGz8rb7tWHFoVfpeG9I2d1QziaeCHhuZUhu
-tOx3bTuwl2h78eF1k4xwLrSPhaVRJbmSXITrPmmBRQrylyIVcmjmxn03uRFo0cZXK944csKM9hJK
-utNswe3Bye9Ryh243uxcjH5LMT1qJtFO3fia9mAEvMXOTq0vO4a3bI7GnkBHvPrZ+jNfJc7+Oe2L
-kIhJFg1irbjl6ANpeQXJXdcJVW6kAqbQMvqf7GnMmIyczy3WaC+qwLei4UI4g6bH0+VqMWlx/9LP
-hs3KbM2z5GhS2HzJhN5HOnrJt2qYjediqLqL23nrk1j0gUC8k/mPlq+QCj0i+i0uNyLYibWEM8uH
-Ozl35WtNWPs19Rp530xV8tKVSX4zKUjZGYiSr7q01jgTbbFf5bzGyTr2gXAaKOMWf1uS2KMhxmNT
-bXNH5eT0FW8w7t7cGppIIwkeOja+YvQVcX81iJqxi75xahYNBbQul/XGRjssqSbCgei1lsnnOC5v
-lnLxW8wgrFdVE9ctmMBPeq47nwY/XwvbpMnvwdUuoVMI/3Xd7OEgrI0Xvdcg7AVDOuQ7aAbOGY98
-95y4M6YGzZasdtMEoSLyFnWe+lbuYIZgJ/rvcPx/Go6pN/+3w/Htz+/yYyj/Ph3/4xf9EYqzvxCr
-syz7muYUDLr8vD9DcQzOIFeFQ8rNN132Dv/MxFkmwzG0So8cnQ+99a/FM+I/GYaNfy1PEZ5lM2uy
-b+OtxTf1mtH7awSuMnFprEk2n022xnOGps7tlm+RafXF2pwpgbBWQCMwgDPy+Vcdo7xKGvZV3Biu
-MkdVeygeDX/8i7zKIMZVEFG/tZHxKpMYvxUTw5TaDqrf9GZdBRX5W1uZrzKLP3r5rXGVXsrfKgwE
-Qqy6QGZDe7XN2/Eq1wB263di9mr0INHc4wqaHrEWo/BQe1K+yHVZTtZvBUhdxSDRLxSBiEwj/Oa1
-/mOVefWjNEaYNghJAy0ke/cqLjm9vT2iWcnHK9l/Z15FqC0ZSWgs5ngqO6ZChbMmpDxYxVZmEVzO
-4ew8TzkrSNete3JnbQJqY4P01vMWvwcxnL32dTmtIQdKF5npbOz8zGX6s/vs0VYOzm9hzTyrolGY
-chbe8v3wlXg19DQGUJcBgokyFCySn5txKkOhq++lUpJN+1xyCGhzfu7zhr1N09nDNwpoGAF6/g2/
-VmVR33qkt3bYeDYcuMR7g4yZP6pmj/QScT/Av4mW3xv+UBy0Kr1byqLYuYUqoy2zixAvuH8QS8s4
-kTXTudF0arf02vGCEQ/BEyfjtCsRicMRGe/OkwqHGEnki9uL5cyBuB5IE5sf4K/aU+Hr4xPtYpXi
-GNTKuDE6nIUyM7xjzZF0AUondr3uahFA/OaBOlfzaVyt8R0WdPVrJXX+bJCjwfiimrt6sLVbM3fp
-CECJ47NCqiUJ7HPkevWbKfN5p3tXKxNnNeCoEhqqsLVYM6VCYR+GOwxYgCHVqELfvLpvC744RMVg
-Ln2aZsFeoZc6moW2mXSbqCorY4vp4qEZZsGCzO9H8Nr1FtSinXcYIbYApfpjNmbv5jcZnmqR7taS
-ehrija4ZxfHbZ0OqdkqnPTyeGX7P3QausEo778ArtPpZNGlxLzoIBHnJYroEptHRrZlonx7LtDpI
-0gHDRr+QYgg8WJk3uDhdVqNZdsq5Vwa4AovoytZ7y/VavEpVqDMOfRFn1jBdcrdjL9J2/fwgtXR7
-7ysuKzAIOnVDKip99iGf3HkAvrg2pft5dtmkUD6BSs7dsLTN8Rp02EpGJB0jnd1iwMGajI3aGUbs
-nsPSaGzkPIeXdFEkR8PX5dHGDlIFXq/jP2YC4JYLPaN+4RjpmGtgNpEyEGSjajvOtU5c3Aw39x7r
-M3oSoj9p0bW/q9M6vZOZZURO75jfKvYr0EM1qV6HJKOPkx38+oSEZqYhzZYadcd6dmC+rE/ThvIV
-1Liok3DWenveNfCvqETBWBxqNs3OtxoujhdXb6DDYERKutDq+4STJAdpstXtj4oyvuuMWquLubnX
-iEdp5yXtNrP2gimT0sBCt/0EyQCzj5nrhKOAkPbGTqGw0W/qdeoBj63+KoekmfB8GLLrd5XTsq69
-6Gx1FSA0M63J0u+YTNLaD9NldVhVKjEN4ikZVmN1vpKK6MbH8boFPbRX4HuDn9oYtC0cvaJWXWTN
-Rrk8yUKl3qeVcl9sKDSvxGJ/rcEn9m7sdZDod9o0jcWPFZlDL/ce/0SSFxd78/9aDP43i4HJxenf
-iWS3rRyz/xd9lO3491ngH7/wj1nA+WJjMOD969BBCPH4X2YBVDBfAL5HXSPq/ucw8FspI5VjYTkQ
-wF/+opTZX+DlC4RkYfzDi/CfDAeWy+//F6XMQlq/EjVMA9cBjkj9Xwn1lu9hoFKucd6YZNJtnw/p
-OiaoQSKo8d5pIxDarnahAs0ebL4AV+X2ThjG0UMj1w8DFNBzglciXnut3qVr3yIab8OlTZsDS6Dp
-RAupG5Hgc27aqSFSD2kxbJtUuxlz76rs1M7TzEP1tfDYoAZTW2h7vetbIgHciB1Ul4Cfp+8MJGqQ
-THNC2rvn+eTPzXBvk/jOs4tj1tiBfba8WZ884JW+U0MbUTAirjKdfugHiKUeowEEYuek4wVLptKP
-srT/Mdk6CJkCd1Q9yyKUZrNeoMjhNACHqGbxmWkOrWjVoMVJUei7VWzbnsOSErnU2FMo37z661zE
-Q1fmOHatGIbcnSxXKwa/DDDPGM1d5dZe2LFAPZi1w+9fczXmk7KisfF8DNhT/uimgAVrfNGHriT5
-s7Tr9TrdzZRZF3dy9QXRtHIjFoubmdUVeSDRmVxpbDNKc8SEhQMHEGY1nMrcvWS6TxLRrB8JSpPA
-w67h15QTWxS0J6DACLMDxUTHEZGRiL2GlEMGe30BmbeGMwJLzM12jEZuzRG1qmkobc2JaZ/6Xg/c
-h5WqTx1cxJtO5mtooqi1mwvRqOp2No6ICDuIFuS26wY9eUo/8U/jiqXCK8ku5luivaxmTrgQtZJr
-Lpd+c1Jq9z/sncmWnEi6rV/lrDu+5AIzMGBwJu6Ot9Eo+pAmrJAUou+Mnqe/H8rMWillHdWpO65J
-DSoVQXiDYbb/vb8t7MgH0VXMJ1HF6SNDZLZxljfsmNcw0ZssB5OCMe/aybRBM5ISdLzoMPVktBsE
-xoB4/qd6qu1LYyAClCG0Xkc2u55Z50bm5Folhmy/wfKS80jJ0uaRKM+zNy1XUATcTYQssjfKxAws
-c4kPLm7fBQJ/Sg/RIa1CzShwhPjlp2RzhP9OAJwi58F3dnwnHnMOqWrkK+Hp6A4PQLXvIwYaIiJq
-n0XddvCsZUuQjzBJ55wakVqfZgrCt5luL8RJPi+zPQVT7NVBSurs6JR0yZNZ93iY811gI9js3KgG
-hLwg9djwEcmG8v9lln41WuJwmTuFzH/bYUuGsqGLnk+wgq+6V2mh96FMn7RQ0XVp0lQlvc9rsTsc
-fhfreK2MR8DMDEl7EKQ70nLJPWl3b0tvkonqBMoUG41+ZCfr7SDBZvcL9Zi7tl2uW+ZSe7TIMUAZ
-UPsl6zHw4ZMKygk7RycME+OGXgKTLUbA2D/G+wJ1DHmWci43VSdLMOhOIm84ChGBORzEpTXMfmeI
-uH7qHcm76BGuEQCStyqiT94ZwXOZTpVsWyc1n7D7wPY0LMWd2yz7Lq5dTIDozUgp5UNmyBlcV2+e
-ra4dnY2v0MG3o5HFgao9mv+6QoGBKLNAzjC9+FPxGBsk+n1lXFFVC8Iwo2fKzj4ng+LwXnr5aWjY
-nfTeYOzchfezXlrn6IL+ZIJgfpvCmAoRKjTO6/Fmk6ruwYRXBApOnT2Gruuw7F6FaQPYQpJSxjJE
-HDlXO9tmYCka/wt63X2CyBxa/YccWB4tX4l1mBPjvbCXeZ9rVMbOvUpG/j1JnsOoSCWXzMsp+Db0
-ttCYAuZwICcCdR8PSPLWVIhapAse2kpQC7d2juSZa2xGr++22NnmQCQV/iBYe1sTw/f1LNx9X4g3
-vyHQ5QGUYs7ZOg+hIDFauD76DVhGbjWEreZ9IHJLioDptqNTeTBzxGkEY6r4cjEEUNxaBp4ZqQK/
-8I6xRC3NxSel2qs0stNT60zP3kgjmovqvqVmT+H8SspH3x9eqBcdaSZ33/E9oPKESbcdo/xRWP3F
-tTu9MhTOYDgKdq1Vfp1jHAG3RtY+hJIpY28Lr+yb1r2JEA6Ey1n66mDbHDRC9q9BM3b51UwdzMGe
-tIeUh/qYpxjCZfwJkqr/ONtgMPPSuiwq7feDmBuoFTkmX48rlsvy2AD5+tAizKQWD6HJCMG1jIyZ
-YEfme907lMAVzkOdQcNWXZNc5qY9RZodKaMgAz29x0xBdmsXF436mGfT6xj2JEFm92sFcGMTRzkB
-dtGNh6mcDCI2oLeIFFGXDlDAjEDMYJZb//Dxum7acNs5jKoKPHTpUgWjSva0XI+kb+38ZMXGS+/X
-6ep5/yoRr1kL+/7kDQsM8CTRHHlCRSRtSs4xWM9DZLDKYYBytoAuCtJsgtnVIp195I5yj+CJe8Ku
-rUPkpi/jkDinxfAe5669EN4nImlE36RRu+e8zMO94eaAJGpl7elZAP9nF+bZq0l1VTZP8oVVdY97
-Ba6vN3Mk+0wYueyebFR+OLtQ9ykDOE7gnwDo4ZHwqvG5I0nlrjoa0UwqI/j2Fd4tDR8+hDs3Ftl6
-k1Vp4bTy2DDcZxzk1hDfn2Q/lhK9Y551yz7caStW72zTIJUmHLFF6NxLu3CVpogS9FR51nJoSXul
-Fc32DpiTPDFiKFy1XrS+/s/2+n8ls61tHL/cXr+P/3V8K2owc/r9h0n07z/5x/7a/e7MRXKwzb+6
-eF3xm+O41JmbHjbaH/fWqHMMhyF4s/9DpFtnx394eW3xGw3P/HMpqRLzMPr+W3vrH3bWIKwQ8iQz
-cvqd+StQ/H6U3WyD8PWKjaIOkDGsXBiQ8BR+/sub8r9A032/CG0qgNN5nX9rteqqwajpO1qOUFFJ
-dLgthn53cLcQgbvg15f68aTw++uxeVtcxzZdNpYM9v8qI1YFB/40kstxGhKKMwmTXMiRsM9cxyw5
-JTvHwtLUgiyOTbAAsMavL7+qlH8xRtuAdJi1rlYgy+JDc36C8Il88ZxRCcig5fgoCvfFA1/660us
-v+Jvl3DwNNCjhWylfipe09qYezO0miNngkeKcJ+ZeRKcFQRizaXhW/oPQ/o/+eTIT/79crYAYmUr
-m02Tb/JF/OsbKqPGVhOTtqM9yuYMfdviZOQbxTlz0DrywX6yw7HBoRk1nclyz9rGQcSnU5UcdKF3
-CJOMUQSsAHKgjKzpDfXpWK4GaDbATqKK5K/Pg000Fg2bBT5EjWZ7EmkhP4uUxX5ou2+l7WHHXYPR
-zzPF4isnnY0cFiF5EzfQB2ScyV1PXvB5Zj5/xVhzjDYcJzWzk8YvHhVU0pdkXnOPhYYcHVXOrUOK
-9145WC4Gm0cmBbQRCO/SIgpBkysEYUBMmD/3Q78sJ/Sa6z41hr0sim+2m99Xif2Fcf4dKfmCgb7H
-YcOcPkU8nrhEqgJGIMWmkOmyy+qFZOaa/dOltSO2NL4z421Obhrf1rMyePwzU7dF0QcInupmmlB6
-gayGZxHJZ9ewCBfH7C0Y6nAyGQZqWQz/caIEZjdbaQoxv4keO56j256jo+kPEa202D2nMRyOINrD
-IKXH9JrZ/7aPaU8MaRy8OJGpsoCBG2AqlJ/IBx+f9tM+IQb32LiU28Wo/1vhUZlSw0EzKYC3sA2U
-k9bqySbi8hJng74tK4vfA9hJPFZWhj9BJ/3RlA4CtdZdwaeKUT8siE1WOUYwUTbZHk8aX5GC2AvI
-u5mS4ZK8ELbv/ZDk5rNdZYSuB/Z6RpyI/iNkrgY505ytK+qVo8cECkVQJpW1CcH37mKes3i1krVa
-1dDhVRjG+q5eGLGx07wK/Vl+bBave7R7mR0bI7aurUmqY1HyXcCMlpCWKqdDWciPMYNlzC1JH+1T
-V05Hu038OxMT/MGQtb5eIqP60OfzTuCpvgZ2XzcYoXNzr0eqzCvlIOMCWUc8n5zkoH27v8Do5Si7
-xOpDgss9DCWFWGHnWtCxI/DaWYz50XmZhuhsF2Gzm+rxrp6zJxwbyPIDEoNdlMMFAGpGAzA75qHH
-bkcvtXUQEhsiHtv8CJ3CPjl121w4va69MZFT3RYzzw2+0Vic6LGOzDsZNvNbC2Z4LbdmmBKlKBuR
-Egc5+Wz/clRJgs20uABMdneN2XC1KJMV9wsc+i378nAf1jHFaIYXfgRzA/DMi3xyluF4mRiyI6f0
-jAjJmx1QqgnBZxjhhE3AGt8ywruTMW5V+QijIbauVjPhPkyV/1xVRNKKLCl3yo2ha8kX3yIUEnWd
-eZ/gBD+KQX5y+VwNL48essrE6OryTstkgR5YwZYGtLBZbKPbheOQ7UCHxdC802ujbeo7hpnEwJrl
-Kwc4EBuUmM4bL4yGU4jxFQybeTfNwN4wnwLzA3RY4Ww/LBm/NgpV86Qtw8UY2o5wnxrNSU9U8q0d
-aGWu4loF7bRv6kg+Ok7tb0sro2+hdIf2Q2/UEvuj6Z2SYuTEYRG4nFY5O477tUvOrpebMM86trlh
-PT9VnISvWJAWwK0+5FrhfNQVTnpwlesZKKy2VPYSrTDjK0bHh5gHALEY7DHkyGjAygurvGkL75QP
-4onNvLkRoYVl39Nnm3wytnDCLyF0lOsozN5DIhO4d9vA7YX91pt2/Tnt5XBbMw3zN07OvceSoG6T
-GRXfVyTrVSFQhDzU52pcxteKQRRWE732sAK3nre54gaCHTmtXiMjf7HGxmQMvNh39GIpkMMcOay8
-IKAJykmSbYi7QEGC5j5R09eimPHzNtCo2rZEanDTZycG3TL7cMyZheT91rIne5sSRkLboeAQ/p19
-lctkbDDuLgMTGc84wmpV26Zxv7iWxEA9+HzuTeikJy/13FX5sA60KEGlEEQG3WGmtowgdYCJCtRF
-UlWXauqdo0MK4FYlVnaMjSj65DlBESXzAewFb/8QT08WKxdHfcoQeJPyR0m/+dYxLTD9RpeJB7tR
-gaKW7KWjSeXTxIn8Rmm1vLSl3FVZAsgurbW+6a2622cFp7aOGMKRjJLe5IovGQ/Pb4TlAbBhsdjT
-UdGeeD6OpyGVrBkNJHZ16awCE95O5G3/+77iPxr6v9TQLetfbvLP77p9n3/c4X//sT93+PI3pG7l
-+raNm/P3mfkf03TXYZfPguYiK5k/VBTZFn5SSMKeWLdzv3Np/9jkS+83n19nmvwXSo9MBu3/RmUR
-J4OfdnH+qs87JKtB3Lo2t8OPuzgBZKNY8ZFHfyB4S6G7ZJAYVTq7xIDNL3jemuEhgjt2rswk7k9D
-UnZ3cY3UechSmATgcYa82MB5T7YE3+Um7OEQinqKtlEU2smdP7TmYe0WgPWIEWfBjX8TZRYQcxJv
-4eMkSueV2/4tJwYV8aseB+7Phy6rlrtW+4+EodIt4X6KkiqVAxzBlkqYiP3TdT+urUTcyLgbFc0B
-HQn4Vz9jxE9HSiLuy3LMzq3GLlgVHk0hK9Z7VNh4bMedbgoIMDvLsKz7cBFGULSG/60VujJBhEt4
-5ENBY0M0IEFuqL6g+GiwOhI9Ldwfu4VAuL5R33t3tRt/5vNP6Jtr+enRGhg0AqoHDmIJv9qmRX9a
-wOBuXdnzg60zkmkTTP7ImRd+4b8M6dJE5Ms989UtqHBS9QA8S/hUyBBnORKswfJq9Fzd8saRAz0A
-/jbpkNkT8i0MPX3whQTqsJWNLQccnXrsgUUdGR/7XjoPRCgLmB29tK601/rmYXSs/HnOctfbDVFv
-vepi3URnk8lvy4t4uvXq3Pi2xKO/nWQTnrN4ir8aLJY3NRPCw/e/r13/Kr7Zet6k/O9J5B0fRok/
-cesqQi57U/floe/nYQu/aWH/yJtMQqgLSlJSlDp1ieCxRTYr3vRdlo1XaB1xfAxzK1uOzHC13MeO
-myUHuazbjTRcILAaVXZe7Oo0aJunJIgblsokEq9ABDw4FPXsmeCIbc6TXcF3wauzc9q37Y6rJ5Du
-WychVOU4D/go82dtyPwhrvX82tRxe+WV0n9MlwGKvRRa7diIyjN5o+gSNqQG03mtjfNn58KRFbAi
-9R8EF4DCcWThRaYL03xnEW15ADlNuZDTYDZVfqc2GMmIIJQgDjy79Q85qtS3UUkaCkNdwEC1JIXq
-u0iQxNn7qdnFN1le8bv8npGEqpQgNmVLRDsIRRrtOegIUN2HhT9fJ8sIyIFHyG7pzBCabgErlRyS
-d7A6H/puHsvnnN3/ofDoJSRnEfs52nFSeIfMMtuHrrJfnS4HTuaYL+TzZ0hNQ7M6NvvFWAL8oNdF
-FC4d3a5K7RNvCXERItcBqYf6H3q2IAfh6dtlyasPrVqKu9aQNH3NM1VBiW2d+6jEUC6aKEChso+L
-q7qASddyplJlZUjiPt6OuSOf8C1zSCxmYFahVtyoxEc3dotruBT0ewN0CLN92Q1TIKrOZjsbpnRq
-jq1xaGrZXpPJId3lyQzO6uh8wL8pSL0wDNqYbmuuKfY8TDee4bNFoCURKtJkuq8DWc7r0LKiL7NO
-UyrtqpOGOrdb6rXfTEk1blKLec5mBkBcbk1+5m1pgD7ujFRP5TGqiuYBlE2dkuwFWNDHg0yIo5XL
-E9RBiHppE98MHBKoI6+rZ7p3wFw0rglcAqoGpI8IJHJQAlhAXM07eyfisg1kX1IHMbJQMCzLR3M3
-KDVfIN1Wd/G0tC8+r19SqLhM6akuKrcFUhXpc0+7CedftVYxQkvtNsXaD7kxm57+udit0BPRALc6
-F/GjoiUO61COq1XoIr0MpKyZnemEnG0qmBhKxUhR+8MESicCZjkXb9ViwstOYDBUnAVuqrk3HqmG
-YPHvBXBdf5zQ290y74gIeYv+QNMp6R0stewPWcyJ/bAqtaoPP35fWZqsC7/5U5Gd84o7VGCqJre8
-3kU1s2hY3KxRGol0p4D0mIQfK+qV6LojTl2p8jBFLM/4K4TN7TCKe6JbXAif7rQrBbGsbb6iU0dz
-xBMZj4Zf3mCymG9aTXUA7OWlC4gkL9fas5zLd2XkP9ulf7Fdwjiwxv3/ISL9rczx5b3t/us50VFS
-Jj94Dv74yT93TO5vUA0o2uYDcYS0Jb/0jx2Th8LJg8+zabGAMvBdMv3TgIiSuhIvXM/1sZ6rtX/h
-zy2T+xvbG0VQbrUkMF32/50tE2Gfn7ZM1He49KEyAYb3x1/5k5QXzTaVt2kUn9rC7S/Erx3yBaJu
-L3JGd4ArQHwi42l731rGZi4i7kFg7hi/rfGYxRq0ahj27l7z3H7wPf6Nz1nomUxxfqA3bD3C9v56
-8EBiwujTZdspi51TG1Ktve/TPly2jkGiBJXSyXnwZw5sdB8wgVMX07EJ7XPpZf1Agwzc46jwoifs
-9QzUB2dN5qr01R/HZ1KiIVN47DxPSzcw3h2JbCaDQcbRTvu7aKysc1eVrAfoSesMfgUNcWBs7p25
-Sa74EaveadMljVAZd0lYp+0untLxqGVTXS/jXAJ8leYLI4fhkkpzfuREK/eMMOLV20fZmr+sr5wJ
-ZhuIQiU7vEr5nopOHO0xy81DFIOWFXKqt2nLf8ZfaV1IODxVGTTVyOuGa8+e9x7L5tbABL2LUA5J
-8yV295DVqfsBJjF6ni1NTGbwc6w9C9bKIfWMZef3oY9lbbADUcNVVHOTg8LkLZRtR9qkQoYSBgaA
-cJJAnbL6aCXxlUug9WD18S0TyaHbidm0853L8X1rO7QJlnm02FedoQeI1UBtMWws3SYsIB6M62So
-ndN0Q9TCCoxBYF9IZwndqGX364NZuVo8cexS8yMMAWfX81qCLOyew3I2z/6on2YsGVufYsRPqErz
-2WJajMHFi3dOhijCXH5Hq09039qlpEDbZayID6u5oSGSobPPps4lclApuotbBayYkz+s0+FjqENx
-h+klDZxITVe0xLx3QsIQ5pmkaHtLog/LmLbnyae7MVVyK7GmXuUqQ16wVLjDEhPeWbJ7JX8PERLj
-3SnGUhddsJ/kw91Eb3Hzhh2lJeja9AASButOFbVzSaNGPmQkq3YoTP2V07aN2nbsuTt8I4W+7oX5
-aZxopKL3EXr4aL7bZfHJHccKp4tTNhx9bTarTK5v59y12l2hZ+8jkYH+cTFoxIS4l5OACZEJlgKa
-Ntb03gG1SxdzznFiHD/F0VKZnEEAqget0eCBAKNmoRjNInDcrgiS1Vp5N9DTuM3wzl/VDSOZ7cSp
-5W6oxQc20R+X1v/IPnejTekH2gWdBeotQfSx3bjRByCJ4mAitr04ofcYhfW7CcqQDTNF4oFm8HJ0
-8mHwbimcqMFsckZJYyWOEWvOPb8hIpLWxjd0OV0YnYynySoLxBLKByawke0orlu/BbnvhZPG1qnr
-jwWuxf5eox7wJwF1MPrww9BDhNdNVl/PA6jRdiWQ9CYwM1vGJ0glQ3MnFuER0Q0t3H6YF9NLJmn8
-C5KW5yvN3pVz3TJmDlwJyjEmIxY09bq3dSHrWbXyXlDJZ2fTLZeScmosP218oD0uQocVxt4JZ7Jq
-5jzuyzVHF0159spwgmhh2owXZOS9XaIHU+NjgUgETbrJdOrcxVUBq1gBXlQjsSBvyNB62JKDJICw
-BD+hPgwIsdvBKqLrcXBG3oF0HW6jJp+cztPXk9kZz2O0i/v8wn412hV5iyCTRJUXTIYs9ml9oVD1
-VYBj2VW6FadpCZfA4V9dcsesrq1cNgmqnDHpTVM1wtw5+DrcU6Y4IyhXN3cSmtij52AOUbgydrED
-Jng718t8CA2A0ls/zzIKOXx2spOLtm5bdKbo4RNqWkravo8nKjd8vRcOEDqKLm7yJZq/9fHCFH1w
-XQ5AEVtd8hP9YQrbLyTTASW4MX7TWDEywOUG2IHSim2Fx+cqyftPPFjYfjNpP5YLHvNNDoZ14WQ8
-jvhMiqT7IkqeNoGLU/wKbdnfD5H1ELnKO0qDcoTEdGumEV56IO7CqZ50fQvvdGPxgA1QxsFqlQaO
-F12aJ3N2Leo7EavViAGI+LR5Ud0IhK7SHqEO6FK9a/mXqXQT4Lj5fajol3DbyD2MtY/qSp3Etx7S
-98oDJ5GKo9TecnrOd74UzanxLezMaQQbwpzkB80oy6gmsdZl2PN1XEcJZYWTt83yGhbIgh/OwdF3
-xgEe7qFfXWA8N7h3pvarU2mKQ4p6DFIKWK5A50Bv6+34pBf/M7a94hQ5+mvjo/z22fi5KLApmdYM
-yKzncWPp+OTpNjr2Yy53wAdvBgpwO6S7G1lgRvP6wbmDNlfstdHeRHN635utcTfG6YeJ9/UcTg5t
-bmZ+g2d22U8qw08NodExN4ryeSxnLSEpqPmksgZsLdqe5ic7wxoz9ryv902fROpMHm7ur+fWjCqO
-T4RXqaKf8LhgSZ8jguwY7kzEU2/BXB369fIAQ9M3XlEappnCXxdQGlw8TPtDVrrLhlrcHJOV27El
-PuK2fnBcrdLdMixsZVrQSDcD7iy+Vo4lNwIVH2ampYv3mfoD3CE9DkVaDMHI1KleXmTdTy9FZU5n
-t0utS49H8gA8ZMQ5VriTWsmVw5mp0sjSn9MejeTdMZ4wl8AqWDG9zFBvRIBTJoJ9eh5M4m4bBwrt
-vbf0CfXrRbtDWguYV4/7GRz1V7qHjEMLnexDO3vNfsTQvZfQpPFWU8O4yRrJG5TN2bTn8BI923NI
-N026khVJvLHpKCQgSr3Yw85cnH4zVj0MZ55uQOxIf8qLphswDjqs0Tgdxdz7cBnSwdw7Lc+2jTfH
-1DW3LsDgJcvj89xSaLtbvHboYbLO/QVvvnEC2KbWUyrs2I0pbf/WwoTYbatuaZI94oAfVB6zUPh1
-PRh1bOc0laSxtZtSM73zYg2QyU9HYDlqTmid8B1qGMJpr9GzjzT8TQOlJfg7N+as3TWSO3cvue/7
-u5Ch71WRrk31OR/+6yITjHStc5BQOEDiL13PqKNEq2+yhObXiqoOLJgjBaN4ZwM5GcWNPVORtO6A
-QJsXijiEndjmCwO0FRJokv2Nepot9jX0F0gjWWeSHYOWwuK9BEz4sMr61meYiXhWXMcsmAdAqce6
-tWJbfY2Fbex66i+xGolt1yna/kh5F7cUdXrWVmUxXR5OfF07Y82psuiuxt51TgqDIe0MdNzdtbnu
-s6B1yhyEkdIBzll59vq2GXY5RZVfp9DDC8We+wmvunsJ7bhU22Qe3KvWZGu2CyMr8q8L06HOdHZf
-u0K2L3OIu0xFjr3PwVFtxeSYJy3mRW+pwlUfZW0P47b1MMEm0mUdwNp4nTPmeBfM0bbYpKw31tPk
-nIyGhZnYVq8DYRjITrpwMRM1Cfa6zsRZF3WYGueyk/e9VcnAUSMRztnNgsxO/AMH4j5wYA1fFncY
-b+Y2Gu9bcLRUYY0TWC/YNFVWx29zM2LAE1Vl0+dJl8+mtmodNGIg0re2p0jqSQOSh2ovBtP9Kkox
-XdVtstx4+IYewDS5zpb1PKUHyKKspDTz18iiPHOHxcw/VxCJzwl+/bNZhw04XKe5mE2kmNx0IzWp
-lOCKVQ0wOK4zdrPrYIYUxd6fTKvjhP2WMgUQW1lelPtR1c4hzQ2KxE324rWfj4+VzuXeMHUAUCO9
-TSIInmlaDDcpdLkLiwSgmCLmZnHBXLdMgK8lQN5tbDR1wHiEdCeez2qbDRCdKgoV2THY6aWGGxnk
-BUVmkU90OM6UsxCwj0eQlb36NnTV+JXcBP66Oven60GISe5HbVf7/5z//3eeqO/2+//5/H+DJ+r6
-fUq+VD+NS1Yvzh+Hf6IBBAlt5UifL8tqi/rH4d8yiRVQYMnUg7GISyzhH4ED6fJDzDZo1mFq8uO8
-hFEK2R4CixYBQmHZ3r9z+Hd+svGYPgoCJiLHdhxmgFiJfhyXNHAb6Ewo0yst2Lq82XADKFGz3c4O
-TA7viJ1yXE9orBJVWxinCjewo7fYtspjNSbmAZbN/FXTs0sGy4SpOn2vbJhK5b4z1KTUiICeXpoj
-tOrvBQ9ZPs72A3Wmy1r+MPzeBZG7Jfkqc45wOzGEAF7s35qJ0bkcV/rBkmycO13PD7LUIX2m49CZ
-H3M55sm8TsShzq+1d2VxTuCBbScPS62gF4NN1CZanGyKr9RAAsl7iIULjpZSP0+iWVowynHvpGVd
-tI8tKokVeATpcvMladxu6Q9lPXii2LZmUbKVtJIMBJrZEEFo9d5t6vmDI/ISDto8Qon11Gwsn2qO
-DMl/TIlIz0k3/ysBzjFXXM3/fAM+v+sCNs5f7z75+8/8Kb1Zv9mulAhopiX4eq/mwj+HlfI3W9qA
-9oDbgMZxFFf6U3pzfuP/wK0oXG4v8jgIZn9Ib1gSaUXlcMD94llEcNx/5+776eYTuAQtfI/8hVyE
-kPn637+83Sdl1P73/7H+r2fhuEpoyj56HjUdRRwTFkVH2PzlPfknzrbV2PiDjQ7uDq+RYb0k1CR/
-RpiGdLQKiU/q2Kclpi/2o4AdprD6tE4fPhTKlad8AZyzQ0SuP/762uvn9beLk7fyaCWlqII3+8eX
-GKs8x+VFrCay/SoDg9yOu2GyuK5jZvcpRK23yC9qH4mJ2rZ2mZP3yehKaB9ayV2urWUz92ly6GgL
-2MrGaM79SlhpvXRFp+dYsbtZI3hAGoZ06ob3Bd6b3f/Hi3ARWnGpkhwTP1tHTc1+jEGmf2yWSQST
-XS37wijsU+KO81MjzWEbWpkrA6NgcGaZU/0RHr5HY3k0r+A7f/pAufn0oWpJA5s0UB58nwHD4GU5
-/MchQ/Qbrcci6Tv2UUvHkRqk0eHXr+FvGi9fAvpSfMujFNNF2f7xc2htyejSpeYdutKI0LkghMCf
-Pqxbpl9fiafW3z5x/LUScyjPFcbwP17JoRyNjBdXGgg0HTm+8uEprznrTjZ3pkOW5tfX++kmsj1e
-mY9MbtNSyZfsZx+ssNqyLOgcO4JX1HesKC2H4ci/+vVV/sn7Z5uE9rEjw4GRPz8nfSL6Xj4a3lGL
-MTlQkvqtln5yzFrv8dcXEv/kdnUEqVemyqwLf1sUUjgg/sh38CiYGJ0Wt8VOBXPtMM98cHMh13aX
-mIFiVXXZPX2s3lWNfrmzU07xMSOgS+E4zZ3Gb5lwIudpXluJSe8FU9ljhMHqTJZiPiR8N5+GyC1J
-jC0mrNYoHXkW2hEXIbbFw9ETybEVqn0Z1ZIcf/0i5Xcbxg+LEi5sy+LtFKtNmu3Cj9+SUKBkosZM
-x3G1/EC3orBytQHRgJPtq9UapPAIMdDDLLTahvjypkfMVQRAvpuKVnsRET+cRh2eI+iX5oslsuTG
-8WcbWRVrEmSxQFujeLD8okHtHXOqj2C6P0I08qHe4sSjXWF6ouJdUCaA/SmL9oBCo08sZ9lRrRap
-qBfOkaKc6sLTJT4W2NMCScv9kY3RjJqA0Sqm6fjQysp71KsNKzWoIykJtncbijW/xDx4tgVT3xNe
-OMxnOaaxzbAau4rV4jWEygnqQUDEt+t+q3qFF6yzouqY6Sp7RpSBGoVmSV+Icev49fx1ngHOequ1
-jDijPDihjd8sVYj2C00JO8D19p1DuOex7tvihRhj9g2yQ4UYbPp42FYQFUlG6L8UDcTTq+uV2c5d
-jW8Y9PNTuprhGAirW7Ua5OBErBvAIhlvMY82n4leOG8mnjpjNdfFuOyM1W5HnbKxo+A4CgxXn4uC
-yTJ51CYgOXmaBqO8IfeN2X4qR5x8q6nPIC3FjPlqfT93wMrAma0WQNp4McthUHViBtX2FJsnXNjF
-lb2aB43vPkJy98uN1Ru4C+fVaGjyfMGQgvlQVL536hdbvulQtR84yba0YZq9v23cVj5m9r5crYyY
-e7JN30j5Vq1GxwyI607SJVZAYi71E/0WHPagO/HRTHhbVsPkiHMyjuWdCDnKsrYNpy6v5s1sTB30
-21h8lZrPXCurvpt1fp2ExAvQHzK8KHlP8QuH3bjo2KOaNE4IhAgzsil38qfoganbdRipT/FqAI1X
-K2hoYQpNtXohqkUbalnuRt2C7VktpB2qO7qQpsZy6kesHFhNgaliOjVRAPu0MTbdakmF/hizRGFT
-tYoyZTJTTRfDw8RKaxOgytXYaqwW13o1uxLUsbeYyrGk6O9uWB5G7o7HECG8yFO4ZceEkuPVQqvb
-1rg4S1UxFcJgq7EEvCHpmHd90roeI5bVi2uKtL5lEsEnBN8Ns+5s2Sc6QPOjtVp53YrbRRlYeDOM
-ftQB9QxD6FWJGTBsqHEJt5OZll/0YEevKcm7r8pt51c56PFc0F5yygYf1yPpyyttAhltuox+l9Ac
-Tr3F/WXMFIFhXaZzkbm/21qnMvHdBZpRo4qgMKOCeNgyPdkDjDqOAPEJHb0OaKRFjJ+pavZlnxwA
-7ZZXCXYqYmyIbKSLy6u07InOJXA9v/cR7VTVzwdDeXS0tGaGxXeYOZHrsbrhFJPvwppNwTLMlB5X
-FObWgrl/EvHksJbQgy3e14E5UPXMK9ZnPCQChzrjOhGb8wXnS/tCk6p9K7hRb2Zs4f2O4RnGIoSK
-4d1KSeP5uUkbRJrqL7E7RbhqEvcZ73x5BWfcejRM9hd0ssUQZEd2JwNbPsBTSLSRn/LX5VPTbHqL
-M9CEjnmfR3bzmqYy22XmMu4Sg32h4dQYQjNLnkacLfs68vvnqmvzU4Pw+nUxYpOUns3aAyh7gzsY
-m1dehecFL8xxnmV9I+MlPLsAjQ/zSL5niwkCrkNV1oGvB145QfHbNQ/NEEKKoOlg0IDwiW4Xt8YV
-h+eJnxF+3r5EtBIxDZL8JVmP22sYOl6SodZYq3TRtqgkdQLpx87/Y+/ctts2si36RchAAYXbK++k
-JEqiZNnyC4ZsJSjc7ygAX38m6PRo2+kTd977oT2StCWSYKFQe++15roXbAzwXFvSIzprJlXSzdaB
-14cnzirOugrdANt81pwGmvvIlAhA4Qw8vMRDw75eWgxjwPzBi3Akk1Ezr/dhYTgQX0vjMvECamNg
-i1vNoVfztiflfNb43Za5kOouTBr4JzKyL41p1RtUdOKT6TtY8fBneoTe79vEoiPLedG+cUZz39Vs
-CqLpbRQ1NZFGCrZlnlruesgStSvtUG3Lon8mgMkCltYxuUk1XePYfGjCIhhWJJoN+6YaJrXn8nvp
-VyZwtbpt2rxGvjXBfiQQmOYo/Tlz0yABC28DgiUrdlbacITlWlKdiYYe8/l4fbz/TzHyi4LVQjtB
-hfn/F6xLx+gVren3FeufP/TvihW7iQWAQuLfdul3/LtiDX7zXNOSLuT1K7AVR9gPFavvALLyOOd/
-LxYhK0OSq+0Egsrvm173H+hr/3IMdlyKZofxBHpd3/3ZkiUGtx5MhjbHwTdIukmLyLm3G12d50z7
-vyi7/lJI8FogUswFxiEFhcuPR0RktgQ6+KI4erYmEGCYxDlBFvcycQVu65pc7e++iv+mTnZozwHI
-pSdArfftyPpdNY560oJyZ/J6uaB3TlcY6X+CbuvcjdImbi10beYJvnjG1Gv94tj/s2zZB0uy9CKo
-l9h7lq7eD62A2jA5a7QYK2YmD+95lpOFmonBv53EPF7GcA5eQsv81Uf+D5eYiZdvS5ceCd7FpXr/
-7iN3LSxR7Xv5sckpyRn+dO8DOH7igeJmfIjM6R+/IE7PpR3KK2LqAy384wsmJqmE5LwF+A7C8sbz
-GTJP6H23uW8bn+1wcH/Rf1j07T9WowxkFvMgx9elPPyZPMwsy5yjcBwOfTnWnPzcsLVQd9ZURL5G
-grFGLyHOPmOWo0cMxKUenOKlqCpPr5WbziSSea136SbLQhUxOMiQqkVbK8Zg/MTs7herAMnVX98v
-zDHufayI6Ox/hsMVeeBHTPb6g+NBDn42cssJb9oog8aG9ISArjoS+oSGc0KP0HaOeOYenC5GkDUH
-y1TgTGI6mceczNi3yG4b0rvdjLUEu7+8yWdfnMdY5YqppEVuY9EM4pxbtE7XderMYtOTr7aM9GOL
-0DVr9neVM4oziVdGs+09s7ypjGm8iA76WkgYKAnuzVA6X3w0oRPhHPM4bP0UosZNYzt0Pdgl3E2M
-1iFYIj6Nj0mmgvBSN2g0jw3sBbtYcbwzsEZasxLid1Ypo+SVAEg63oG6GeTjWEz6FlRGhuDdSZCx
-Y0wA57BsBA2UR/BUQ8tpRXfjQ5DWBG4C769e+8SqXmdkLEeXIHX8l8NQvfq5PTyYJBXl66Dm/LEc
-NRe+VOO8+Y05XpjigG/Lh7AiarMbL0ZtiGeno5MTz7Hz5gSOhfFpCkbi8jqaznQWOSO2oTNeetnw
-SVFqY+zMWl4QwlX4YiUpbbUeoOdb1nMd0Vlx3dBuPfcBX9rs18GLrmfnzcWcfIkjaFe1rR1kZWXc
-+etgNAijbqlELt/WqsLvC+UMS1B/F6coAbKkpMqXDh/WmoaKaHs9ZER/cpYkN9ML4/yY0jPjEOui
-QmQMKS31UQ06ePE5NxAHmhLdvM0nyToBSy/faFFVryqquPmhJN8GUxO8VJTduNuKmJWBccBYSzyB
-Nw38O05KZMo90FmiazC41N9r7u7qdRwR6BPTjp0AU2nDlxQQSXzsVRKTuFgtn1VLFFg+vozD9frD
-3CAaoPflVqWet6EahEZYF4F5vv6dLiSbJZ/MhH1jVgeDz/qovG7Y6CgIdn29pONCmEZb26W6OrRt
-EoY3ArlTtR5azem5Hv3gQty1AJ3c0fzvVx32hOTcYaqsnBUR2Nb4BP3bXE5zEE2HXQbJeBUScoEW
-MouFedSi84YRAaJRqFPbdrGxn8w+0Zs6MqbwUlWFkxGuiEduVai+C2+tOZhesYjr92EyOJKhO5vj
-Bz0Zlv7YXo9tdK6GfYtGWq9mk6BdA5bJmsoIybUzOFzn9plQbbUdl7wgznzTDq3Lul4OiliUOTL6
-iX12qPTWw6APWEBHvI7l+OzmKMZUhR0ZwdJ0lk7qMt/nPNouJ1NKP3fVTaO4Z57aXbSqOQ0Cc3A+
-d+g2KAbtFhF7xLz5ZvAQx0i/pG7qSZJnRENsnE++43vdsm2izvdOaCrdc2UWKDIpv6dbCHM5X/iI
-eQSqRAS9uJq79wA3q960Rh/FGxZ3cJJQH4kvlEOLnt7zwhe7aMkzFIb80KnIYAJfvxXCS2AC04Y/
-1Jo2K3/RZtE1qD6i1ZRShyjBv6AE7ccLjznWshUWKj64RshTel5qj5aetoN54CWfFMZHL1qUBM4w
-jBdMCuHLqDhbVFJUr2Bnxmw1pPptLGHWJY7Lhknx9pwYZvIRXQg3Fm4J+xia1BcxzTsyhgPSnYMA
-zgmP0RLzdb6d46TYIJSVNJPs3HdOTjabwce5rcTnvDGM+Tgr2ftHO29mIoVFhbnSbgTBEK5l21/m
-aHDoUhSoyIMqvNVGFT3QAFDHCBKKp1T9knXN25SPy+4fixfMjP0m6blOtGTY5x26fSfSTazPNEno
-ADAuNu+qQHtPtBRTxnGDPjoQSIeNrWux5r70bmS4CJwCfAn3Y2+N/W6W1kuOPGFTjkggcA4BLkZG
-WJNMQxL8gNs7LM44o+WXTNj8/YonVvPBUYEVfgl8HSMvq6uw3M0+4J4VCVe9XKdtatwC3ey5dHlY
-Ues70Sd0UmQoycK/9+hZbRI+0t5j8J8SpxG2r+XocxapOnqcto4BOYuBr7Um83IbE63CZiGzqAFt
-2k6AphP/bIwTj4UcZ/61UnuHyxTcOtRoSyTHzKLBOzBe2og40QhODEsJPwdWFVWKM1NX9tLatdjT
-E4JUXgaLd+N2KrhFmmgjwM8C9sGcaQQJjFjLV3El+Q8qheC+Gm1azm5WkXAZWSn7fTM0h0kN7IOD
-E7XtHkSWf4uNmqmFX/LKCQ8TAs48f3yobF7edTQNQW/iOQ7pDpdQOMu3GZ9Gv75ugR6W2mbrQTFj
-6WszUw+dLkhM7SstEZT0eNIyB51d0xnte2GnPDmE3bAirLl23gDGjQ9t7LBP55gomg0a2Yysr87x
-ODFM1DX7b29LFE6T7WuVcJIIDYPHl0dkzU2dNc0B4cL40A2cfXNA3FtBiPN0onsD6or+bC4BLrqR
-RdR8E5Sv2sKEdG85A+86zis+K3nevGSB48K7yLrKEDsy1pVYxTPIb5hntG8iElxHo3SZ8iy8ubh2
-pqfQKJ1Xl04qGHfE5re6ahCEpOD6Wx4ZInrWDHXpxpqZeytn22/ZFz3xlJUG/bZeGX90TR3sVa8D
-cuW5iwUNDi94sUZid2ilMvhe10Ennu2m5vEU4YNJd40n05l3Ei9XtC75xjOHUca6r3yHB2bDVvUU
-Lt8oXRO+pj5nxWUtX6MhaqoGmg8mRbfTVkaMmZcG1YswJtobXCeOlk+uHRv9E8pV2PTrWKtI+Rca
-roHLowoG7gJ7iuop3k1pbEQCFh+nZehqunNWnuC4kaFh3camDNN1mOXxptMZXV0XdW6OIwgKFI2k
-U0rQLpI+miXwcqYt/8N5T+jHKUvmCkqBqi8l8cq01JTxaTSC+GR00BSGVvHomRDQRhYqzmn0jF3W
-03nAlOxuCuRSK9MLbuQE6qjO7cfIZ0u3m6jfCTMSm2YmObcZx/pYDgB2oy4Tl0KyxQBCIHwwwZND
-FDgnks7N0z/gCUHxH8rwQFp0TjO/HsoNd6Besyv8UZAbaGTTfTBKfWRdczDoa/M+6CrzHmvVsBkg
-v7rtlB8wNdfQ+KLwaXR7spp4iG7wKmmGdfJemp28I123eOTb5rlMM/LEky+HOpDCYTds0gRydxsF
-2V2f0tKyuVT35lRFHyrD7fGoW/a5HHLQo0y0OECO9T5D6L9xhwc7FxdOfsWWLDDzD6Cozsn+5mzL
-CdgixagguDf0D0Yy/85Agi9E9tzCO/AxWm3y3sxKDtrGAOiDJzCArn5YdhC1tE95XrEbdkmJAtEy
-jq491dUdYkYWaa7YbWCksSJnhOEEGgDQbR+mVCcoiDl2/6IUlz9XJQtZybMdGgsMy/9CYpkHKwl4
-4lVoK6+HflJO0IAuB9+/L8H/Uv0wnWQqxPSdsl9SuP1YHgahQkhXdtUhIyOJMD0cK8912xgZPStR
-3qAUp3S5bod//7p/mbnxuosFGZcOIzcqxR9fl5I8I0FgrA5jkrlvnZE3h7wds3GnPcX+VebFdAFY
-x15cw4GNfzHBpG/zY43Kqy/mZ9ijmHrQ4fz46kSy0T0RbnnQTkgBMvuN9Qzpubyhg81uD3qZP82q
-oSxZTt6WJPzqm0bgfx27X3Xslk7Pd2vlLx6v+zR7Q5r/g73L+vZDf3bsAomQBIc81i4BYMoJWDx/
-aky+ib9cTD6edZVq8X/92bG7KryWXhqyL4su27+sXTbJtg7aEpcXWX7un6m7HLqP3y8tJGaIyKwA
-5QJ3rv2XHloDO5JYa1GfZGfAT5YZXMahg+3T+YwJC1UeHTKdCQJDj4XyqnF744PqnOQdiN9yEBqN
-BsQMSvsgDvdGD937ucdcdMM0KU4eOrcg/KiJvVdndouTgrd30+nE2gTLwaEmLic/MWOC8JAGBFkM
-CXOUqjbKV0Zx5R3HiWre5xP4Oo3LOpqVVe3yQTfB68CRxD8Q9xRxnqkntKd67P2HyXI8kD94l5LF
-NLu1kXURlBhVfvw2dIb61F+z2Upmp9GuWnJwbzuiUrtoZ6CjlIvLN8aikOvYt/U5U9yR3o457Fyd
-sWzycdXYNh6ezymR4QEcjd3wsCf6AwhUgYSO9B1yNwIMTdTNeXj2LYLYNAxXridS5Cnvdb0OEZGA
-sB0G5hdChcL8qnXW6nmbqthhBJPCJ2LSXgDcS9d538wGCbQ9NqelI2/k0PWAJFJJ+nMtoSgllZzX
-ODSiAiNDVFkKFjgAo3JO3ueQIacDGj5HZ8K0EVITT345RHsrHcPmjPneOJoaQpBJ0tBqDgx7pUFA
-rZJWFUdlGMM+cioLNqeL9ttuCeweqN4eRaadncu0+Y1cJdhJWZ+t8WsRRU/K3G6gWL4lEsbel63M
-j8gQ+n1aDDUD76KkaTlkC9BwJLBOQUDKi3Jjuyq6xwZZEBCSjRsXfvZGdo7N3JpJdzsH4WOT6/wj
-w5aOYNgw81czj8T7LHE/pGUePYLmah80DpJHQLjDq8L8vSENOTw1lRofWQ/lbhrK+AVHf/iQWeVE
-Kky1TE36nkmRZ4UbLWLvHARp+KKq0T6MyjXujTFcyJ2NgWnEa+zbEHHA3kiMeN4IIqGml6r2OW+F
-mfuhdkXxROBUilQhVNG4Br1sj+s4b7xxXU5gs4oGC+gq6Nocl0XRHfU4N3udpdELLRL7JpjJ0yGl
-2NHPMhBAlP2K/hdo3ib7Q2iJsp5JFvj4qET6lFolqidEow9NPHvHRjvPCbCiNumlvZL26N0KDicR
-RH1O4LhO+uG+jyLrhrTB8sDjjeZGMvFd91nbPKrMLV4aBr9MtL3qC7PWj6Imz5b+h3/im863cADk
-emor0p2nbHxkeq5OBSzO5wjJyKfenvN8MUNbX5OyMW+MufDgV9a2d9LZGOxkUv0O4Sw80PittyQ7
-4dYOveQpSP3+k+km2ccpneOPtu7iJe3NTz/WiCdIKuMOc42u2dOUsbaBp7tdXLk3uiQYC7pFtidB
-itzOoHBOemzBBRVEQlfgdwKD2FJAkbODTHSF9ix+KMJkBNhUjc2arEWbVUyrSpGljTuKY+NGGvW0
-LXVPgmgIC4Dr0pE3lKH7N8w1kQ76VJpBsSGlyHqRnAfvcT1+iOfmKakM7310SK9D87/kEjiMMp21
-Vc0gkZtE3uR0wW45XlYrN2nDjRdHx0C23t2kGw7AZd8+zUQ2bZzGLL+6PaT7Ss/lA4jT+UutCXxe
-CYOwgSDXFelckfwQKems3RoXOAjpeoJpFER30hL9a+cQ20Aq0jpMcxOxB2zqdTLiko+r6A1Wavx7
-pqlk2qG+xZOnFx3+uMGSRd6RCmPcUJ7lQ0rT06010nWXqYvYooMLzB0nlXkWNWzTphQGDQ3TLx/T
-BAvjuupEsL32Loc2RjmShYuWSJFzOh6spUdaatniWYq0/TR0of8l1WixVn3cUwcimAqwBqvpIo3Q
-J42rcN56pylvAhckAjBawT7XmzbNRlHQEuh9hT1FS3IKAiGeJ4H/yGPuPK3wZ+gNaiKEQG0MTCz3
-STCtJuHfGigIz0R9QprQTrnuzPFrzTPvIqiGjpERtmt+KeiWBG2RQ23F1FWOt0a34DOYPnyVZeP8
-URryPa5q61ZAtSLXqSaHgGJ/WzfEvcU5kUjkc/l3gZ2mt8okx3WVzF8VvbRVvRzg5Th+KM3miUQC
-sNr4q9bwrkn0BQWyi/GE7814Dh5r0ZQ4GCxlryWwkUNkqHOWDtEOEm4I87cRyI4d8NaRY+64378m
-IKcvtUUtpOqsfI5ojKD8aqqTTkA4Nxy/szunhBjntMVwVxZmdCCvfaLpl7vdnola+cjKRY1kBvoh
-nkosYSNEZ1g2IuPYI/2XyMVczTsE9UZWGHqmiho7S538IQ8NZ5dZU3kUBHyszdYcN7i14lujibyV
-WxTlvuvHfiP7sXu1GuiDmV8Wq8FLP3et+JLUVQo0wZpvB5qBpFK0Wj0wnYbX25YkzufolSZ7bP8Q
-JKxse0yrT4mJFGqQmtN2hBeHpqNPVWmET4Bj27Nret1eBxDEpzZu7sG62WKbzAHtWniCPh1vZRx1
-f0NQtlo7hf7SYGb+TNJ4vwMekr7ndAS200xLl23vs/Kz35s0bo+0d721ibFnUzv8U4h5cTUxtULz
-1WEITDK5GWJh7egEidu5MpKvQeIj6cyUsQcPQ/BXG2aPSZfZJxgN8a7qkvpIb7/a9pAhD7Ysl8x3
-Tl4GIOp9aqnhJs5L6rVshHzeCQyn5gSNZETXsbW9tvjaOTpe896fofOJdT8p96CRB6xj526WtLYL
-alZqgcDalcL5WpvVY09m/aqASo7QZ96zRePRt41PIibZXim4f3E6c8LIsLKkZnn2qubRM+lHtTXh
-ujm5mERmbUxVXHzQXqeknKNd0YCBBwOCCC8uLCLJaXjPWbQLZXZn54ZxCVoUUpnbBwc5JXjF7PwR
-SMjDBG9jB6gGI1lpENOVTdCSerEhvyjD31aVm24mMkbiWF05qgdVNth0WQzPvje60cIybHjPzCji
-w5xAgwsc8XsdumBoJlCbcU56uRVjvoGEp3ge2P2jJuDha5xPNY0xll/ZGgd3HIpH1yD4LujITKQ1
-TERwUPXHMWfsSAQMUsd49k95Nz1msfNZht6Ha4Hwv1rqV7UUBom/Vz9cIzrWb02ZxT/F2X770X9p
-IJzfGFm5HtJeyhbraoz5FzCDYFpaENJEi+su2nwq+X9VVER70D3AL4f42OLHKKP/XVXxVwVFth1A
-qcMH8E9U+8B1f6yqOKFJGr6BR+mGCQB73I8Fu7ckLlJpJAcUgMuxDs+wt5nbiAmHNTSkD3VDZZYr
-3/SUewytKZJHmuuBD68RSMva0u6S0zjDitmWiMRrgqFKoQF2M3zHAans9j2PaXqTEiaPFY62M0RB
-eexkT3tgsqBwZpVrgy5bHqAaLxrgoQzEF3li9JhVSIG1zPEqc6Z5MSTtMnUreFgKxKpv32a+AWOs
-JfeDQ2tfWn61tzJPNds2NZYfsUP61imJTQ9WzegE9gcvrGH70KFr/fESjQ4DlViMlyaxmIig0gyZ
-BY5ecx9ZRVqeSh7z/skNvPa99U0iGYplVCsUon3MpcxyKwlZn+MmLRVEXXyMKliGkJYVNQeTSvZ5
-sS29edaIbL40+oM9KPvDrOmWFzZDQ1AclGtu3opzZNV8/gr18AtyL341ySSg7j3GIcR7kqb6njQx
-V6CQpfUck2X4CiOUQ8xoN/y1a18pZ2r3NkVL+5eDNFpYoXm3OuPVUFaSgBjSIlj31DEzBKyRTy1T
-XtNP7eqVOSGfPbj23ntt2mcX6/RNgZ7xbKd0q/0hJAJBx+NdEsbD0S4DEriXEQiNx+V6umO4TBXG
-nPkx65r/8u0LzcyIGjqKQzrV/fINX7vvfKVt+8mdSpJ/9YIY2IwpAOGN2WZp/IhagI9QTtQwrCXF
-n36bMbZyqOAIW0iMxYc/GkuveJIGFHvDYz5Xd7kzkHMCUfNj4+IU2GX5DFxr0PMfimAWek9Dgewm
-05eOiAU8CsqVa06C4Qt4sOTRGyR8MCSFxroSufVc0Ox9vc7VSidnoadgL8IdFQu/aQ4t/qSpxntT
-yyLqluMfcl/+nXkuq8FqlkI8sDv8FNdxG0KpXhIq4NHsrKKWxUfcjdqEA060laer7t2TgY62ZleJ
-s9I1N6EXjHzBZJnwBPODiCEIpQOziiIJFtFSAONpi2yB9Sa4LW9Lct7lwSO26mgkAwdXBIu87xi3
-NvljKeN3G2ZUuGKwyYpBlNq+j3SkI8hvBt/dsKwTVAGoDpYBiW936C+cHr2BaPllHX0Qpj8EVXvM
-0PfTMJDgswwcmyoJX65L+DqPmNIWSM5ysy+Bm6+hy4hS2z2XRFvR9DBG3ApEsJc3UpErt1vcEC/f
-ZlZdWTGeqjJ/ERssIo1v3dPrLQFyjSFWvMwurv3kGofQEStb/Tp7jHRqGDtqg+5cPOO5D1+MRaax
-qhg4Qqir8WpkDQXwyi1RAgHViPeZcrBW6zjn45gxFph25Autr2IAJP8sMMPmJm/TgetzlTpcx2jE
-9LCDoHmxj54qg1tdZgFCc5evsIsnfkNZiYQhi+Gj4Oi9VtkPSY09YWM0lN0QseZgY2aVd3AppXbf
-xnoULAwxldGsxjJl/dhQQ/RubqdebQNuCiTnDfi+FSOh8ZJbpVaXqR2ruyjpg20M9Wdvk917AVUg
-j36RGqiQRMbvkS7WnjSliZ50bBkmCPLnzql6riAzrkvFQo9Xlkrr19QM6wPlfLQPO2U9X3VqLgbH
-cOcrBsZPLcYHyWyCLdKe+cBjmrKijMDii8osxCUh6UXVKSo9hkp2kWO+J2Iu3icmfo9eEqGwph3W
-HLI4lG9tbLE1i3BiTQGqY4FPAHnqddMuonwdcIePBWVT3U/iOXEmTRBzk9NWIkGP9SJaZFZlwSrV
-ECzdVe7W4hxjbH/Okbs1QJGrKNwOxK1wJwoE7uSCL/MFUnPa9yglhThWDqt7qczsZe01sSOSG2wL
-zaEXHvqk65qXFhGua7Nb6j+rXtY/AA9x7uMheMENx4TeNpdtD8dT3ZF2jjtzZ8Yt+xszNX8D329Z
-j8FEUUn7JXgxaD+Ef25pSSsYjjA/YykhhW/6Y+K3iN7ra9lQwb58kC53V5al2BN6zeW16eFf77h8
-8OUL3KJRrEfO+mp33VnLUjH51MqvX0RsFwV4lWhKP1Lls09kctmlxIBqW9ITfcPojVqor/NHoXqL
-qWzxjoUiODZVtTwManN5OIcRO3DAkPGsZ4eNjHw77mCKmQogilKFYCY6qenA9mOjfRZRzxFiafuA
-s3PLObjJkUGoleWFTPgbwNzZ45wQXWjG0C3XWWdELzxKG+y0DMBOsjC5a9JFW4QZFwa9YotBR6It
-oiXtunHfyyJ/KSPRnIJw7E29mkip5RxCH5cxwrEMlgdR6xbUG1NU3fCM8R+IHzRD7t3B3jU1+L9a
-iO6Myq68acnyJj0pUh9ir0btQq7T5xrtumGVNSiCwFkTiEM9lXAPrPpc5IY+dN10bFVf3XhJAEv5
-wVSSk33QfSxItqwqGooGsNEHcASrJPcuoSUd8+PEJB1wmFfmxB1SyObsqrB2UBXCMkS9Y20q1Jkb
-y7VoTnvI4EAd1DJZV6WVH4SoQYgQVEJZKFN7lxbWEACdmXdmP+oTVIo0XZNZCMYHaqmadpMLcukQ
-sCybddT2tOEsmDQ3nS3ne3/svFMLuuLRi0fSR+ky4dTU4oMUQ3lnkFp8H8+pf6LJyOoVTA/hOpAH
-7yfVItenqElSoGoNaIs7FH34blrDGd8yWSYfJi//QJpSnd1mdSsf61QVW6Nrtb+WcxMwFrWHP9qp
-Cb4oUGqrVgfMhlhk29rx4o0P2HE3GUlwMAc4EdMI4Sn3K3LEpSRNpbfb5M5vVDLdcb3c96Tzi93c
-k9I6ZaRqRbH+EARJtSOerNl7of6MymztxIn3JarH6aKcCS1ORs6indLuszqneQTWojj+FCARxnz8
-mvTWs5F4BE7otr3zYzU/5jN+x9Lrc9hkhtyHAYQK2KJyS//2uQ56Eggal5MRLhqgah39602a5pxP
-tKq2EeeGU583glK6MQ5OULbHNOjlbYlBjTTJsQDfWQNSdLGq4F/wt0aAwTthxyLzIk8fiM9lOOCf
-DJpj9zwEljCmodiRXeMeM5qJj1EJ74tG+8HCwL33lyeEPVUECdFjOtAcUjSXJuO1JVhjA786IG3e
-wduSWwTDFeYFjBNNrCnrPlijZdxOeUX4tuF7/Jzm7PqlGzIQ86FlAWwfi3qfxF35KeH4vohGchpW
-SY6aCBm+f/C0bZxNtzbXPHm9TerLHUiQZW6d5oS6e96bkebM5BdVhPAyNCRN0+5I8JELW4ghAk2D
-fm9SB68d9JZwmWKqcKIf9mGkuiONtvdKRdDgOrFIjMxs2a3EcaKn+hY2Jr2HsGzHT5yIt5yuG06C
-sVlsptRMt/TH3OewZkdh52+ghpUCOVpseQcG3/Y+VwQDtBZWMgdDnb5VveERG2j3CxSqdRlb0tdw
-zMug00xsIzp2+NU8fLPJJQ4FAaUiyWV28OZ2iN7Z/KOdStCkIUytNqExMOSIVMh4pCQeGN+oMtiY
-mtgFqtPrFwNfoM9jL7RcumtCbZqqowJRlP8kF93hQgK7Z3f6BYgX1kkX1VyAFHI3z90My3TRaiUe
-Id5WZn7Q0eizxO28lMYpJhxjsNhI8zj4ipo+ukX+eGZS1n40VNDf5I1/5zK4WfPwCp9yYG5A7oDn
-rHpqF3KLa8QaH1uXeDMcHDByT0YtZqs/sGsFO8gQfQ2rSSxQmojCLbwPu4BJUQUVbzU6OMBfwzpj
-UyfRUFcT2/dkoqZzCKEHIw+saKblnEladxH9O8BgdAh7+9VXsEF2FuQZd+0z0Yp2MGWd/KY2MXLt
-SBBA6WI6TPpYPRaSKafnDKoaxWmr0KBTcIfiCkZjU2XTyVxk5pOFDxltDJQccCwP8B84n303Pf0v
-RPaUzg6FPdNN1PSU0T/p3MnlQL/QxckhLANkSHkJm/rjLOe+/SSZo9Q7mQecRkrElOCIdcrD9+/f
-gFg07d87T3kHsDOWGh4rL+/ip1m/Vq4oZ6uLDs6I1hpZZYt+pWeaZJ1pOKuIw2ZY7WM7VtFNV4Vz
-AXyiDc9R0Yln3+zFmdwOTpV//65+FiDwbnAcLPACl77GX4T49LJCsLwyOhQGR7+ayRQBtXHJmXQh
-/K9hS3Py6fOZw5GB++1XKvlFYfDTNeHlIZQyd4bcLn9yhxfgegjGm7kmU0YplIh6gizX1n6e8IWo
-CSoOYkUfG6UXGkexqOoKmcGoGRByWffSnYDTrsy0i9ShWyroqoYp8sdVGk3YFxvt31+u//AlLrRS
-JCnoJhgQ/WxcGAIQTzZJGYeCELJmhfK1bxfBPhasBp12vYbpAUNgbOu3HPjYpe7oVdSKWj4ux+aS
-F/UvNBxi6fn8eAkxcMBxWGb6tuAx/GNPyHBqY+45N0ArB9a+uiq6O1pSLy0tHiy7V+Getqz2XaJi
-PVYD9UXBCCjbi4ZH8rptq6UG48r+/aWy/9Mbc5F1ua6Pducv6hIPEXSTN7U6VG7ECRWndZn1K5ip
-zC45Fdlt8VSpzJfHqVy0cSOcl/Q0SGtA1D4EzMQXubhpTlTL8nouFh1lrAHTdRvJmeP7Vbe+cPk4
-wy+9HlTb3NkGg1KOpl4zwnmjMfj+rSglKAS1/Lx0AYqpGi/MppjVQYwfH5Zz3FtcpKytuYW1vHK8
-igro7y+H9bPECHQOnnOAu/QNpBv8bLRRAnQV5CxjbyuHPZBRK3Juv19KnWLk3V917zg7BuOpsBbN
-L8MK3tYU9/PTGBCK9xTZgurEmQ2cx9ky/eJi8efoZVO0vbaHbGtR7OgmoUvTayTPhzKiA7aOvWqI
-ttFQN4d5Wmw2jkWAPHnrE9Ivn4Lg/fph/9eJ/lUnmqcLW9j/78O7V/GPzKZvP/Bn/9k3f3PYj03T
-Ikli6RbT1f53/9kXYJIR5tjANK44p3958MRvdIThANgCbcwCm/l3/9n/jW6xyZKzkUzCWv5Hqh7x
-c/vZQ8+Do8lZrH6CMu2nJ1iojWhQheMckeFV4cZK5vSiFrKDI+WwZordfgzsZN5VyAd2Qo/hyQdi
-/howxPvgFDSGJcPqjyaC+48RQr7td1fyv3jC8+4sk4/PG7Rs1/15IwR80oTgP+QxGWT55ig5PtSM
-lzAmj+yLdZxN+6DCHd1WJRkYf//aPL9/2oZ9FFg+NzZzf8AS1/nA9462UBGKiZqlPoZR+CmvQ/oP
-uo+DuzSAsr4B3ebdQv0Gn2dPkPRGGcQf8FPHn8e5mN+9K3IP3Kl9irKo3aZun+27K5wPEbD76F2R
-fSNH9WO4cPxEZVc7aVYSGxTm8WTMiQDC0ZDfK2jK1dpDrw5ritPhSuNx2PT9zGTZR5Ncr2w8VOx7
-rvVK1hE5S7TcVmx7mOKQ3G8ZofQX2PkFldQCJTS6BVAYIX1Xa1SSFPcLwdAApoDfynvuUZtkVI01
-247nVsW5kRwgDLWcOJuFiDixHa9TY0ZzQ+UANcvTQ70i+0mtK2Rg63xBKxZXyqKxABcdnRBhvEAY
-fR3CY4xNuP0wMxdOI18A53E7nXYaccl+DJilG9JCTgDgvL4sZd4jFolYbIAZwekqTXC09BSajU+7
-ZKt7u4l3A0bKaRVzK2Fu9CNCEuqFLznTaXkWfam2Refp/hj4AQw/hifdZYzRB6yFrVtG664wd7St
-8NIXYUcbHh0I/Z8tien2DcltNDqiKLY0HmnKElpxoDGrxJAHB0qescokR3ftOJ+85P/YO5PmtpFt
-W/+VG28OB5DoX8SbkGAjUqR6WfYEIcsW+r5JAL/+fUmX7y371Cnfmp+auMI2TZEAMnfuvda3Zm8T
-2055m5XttGWCI6jpbTYu64LfjPTJ2BIK127bHjrnTNNuRxsU+0ssxm2mJ1sf/3jAk+pfYdst7hds
-WDiMFPdzSSGAeiCkX3Eq1ftF8UH9vIYUmrQAhHpKUHwEqaB6p4E1ARdVnFGyTYxjqHnTAZI6pphU
-nSJkLJnLu3b8zZL6eGNcqKVJ6Rbf2OnwDSHxB39pJ2WxInANxu98AZ86roKg8uw9YKjBKTQQ+caA
-Pw0LRz6AP02metW4ZYVGipFIhJwkhA/l1X32tUzZmL1V36Y7oVfyK+3QAnRUFheEFtRw0fRT1/gt
-srsEBO3eL9kDb7quBQAwLPCkdDMdX5SXz79GVFO9LoisB+C6AxId12i0/q0MB0gErd838dohtiPZ
-9ENbapuK1D6kgQZgmo6hP9DakZL4YTared6T5YHGRQtL1RMs2yIK2gG32mcGAGBxCHwjsoWhQUkf
-R2b6fqERxFYAFaGNZVKjSDSr166i/FI1l73SJr26ou+e3SPvVIsh/bkVaqXyJl0G9yyGqvHXmvB5
-t1Z9tjkmyacNF0PSg+lCVRtZ3cc+cVJr1SYjP/0UETDaVKTcJJWsaSXYOCFGAPEr3x5pNcSSB3nT
-0YjSUL5Mwxc9bQf9lCatrZ/9kH4/Drq6eqWpS5g5fUVyKNRS7vPJ6ezQc9n06SXcRutHrJxiQfRm
-agnwSGkuWQdWGbLOErATGPOrPQwc9g+IZXR+yfDKIVTKZ4O851VlLHJ8KcFXJx3xQnb5Osx9wa3T
-Lt2xahfn3HQGPzFn1ErbyoEz28pCDbprPJHfMAPCCwd1AtpSZ6QTbZKIc0AFmX6VEDp909p5U6yZ
-L1Z24NGBvSLTq0dFNfZxcV0gu0hZEhfJvVvUTEcNwxvPVtPCXCHeOByCEiHmZ/oBErp40mb+Ghq9
-IkR7DrgJejseUJXGlZ8QLFXn2Jn9IiDBplqFnm5dRTRoNpnsqi+d0T8RfuRcjXS77B0+MHk3OLmZ
-BxoCtHHn0folaM9LCpqBlU8ajJ2GWwOh6Ck2RyCvmjaX1zHp1I+CNqvD6Gqw32D6owEaTQNMg8w2
-iFG1ZZ1jzLi2cGQew3iMQUUvLQKrhkbE1Hi1TXRkaxxNLe+vfFpE7oobiLwR9pmFj+zPgeWj8llh
-H3EFTtcOnjSDWUFUS48edQfgdmb1G520DVjHEf0otCvaWnxgCvf6n8Lxf0McpLn89wCHm/Ybvfif
-8A3fX/JH6WgYzgdOFaDuhO9yFlT9jR9icGF9UEQDD9imz11IascP6YLlfKBVTY4HRaLL+VtQ8f0A
-DlJV8ljCCKSa4dii/6OsD8rNn+sj3QZhhq5c0Glgn6bC/fmYmnXDksnBT27TjIXFX3OUhbvbRplz
-44e1Zd1ZTtN2OzJMy5YgT1CINprhxFln4VjJ6dyg5GDsmuGlx6wHguoeMRUaxo82J6ZMh3ZMGiw6
-hmzP86rL2z5v9K+FXku2ZPRNibdujRgAuwAWTDu5Aj/kjbvKtwhUipv0UKSl8W5iyiOQk/7DF03Z
-LSbHiw5uZjVAbCJOZD2xtDaFyY7IgyUwYeHAuUnYx8gVH4YVmzgiqSWviRFbTEt7cnXtizc5GG5U
-CC6xWO7ZicfkKoE0ylDOSq5cdEKfpVpeKed8Z9WWTnzful4WA/Ge5ltAjaEf1EIW7cas+cRUcUvP
-St7kdYAJND42yNyjMYFGE0nnSwKi9Ilogjg924I5JRIM9yZpdbxZczLFDJcchQbE0Imx1wcCuOp0
-BqEPrt1jguVKzC/hjKJJQ3Y64MEKowfXQja66irAzuuZH/8qccL4uMiJPi7Flr1zrAlgVmmOGx/S
-KulOtFqNrUsTlaIwMeuPc8vuG0UNvjnPHYuD1pWoVDTbAz1WhIt342XSHYikt7gl0iVh8XGnmAjr
-lOWoJTzVnT9RPDakvLbcWWtBUTAFfh5PQUJDkm2NHkGhpfG720Jjj6Mk23eJNWxlZDqBrVKqqOzc
-u2ahOsUkTYSBmHukpk7RHubKImizaIw7zfblphwLDIiWO2urtrWdr7L26U3w0JwxOixEIM1VEYN3
-nSmTtk2p1ddWpDPs0MtBd+sDUCvp1SjIEMKQdU/PuV5TupT1rZU1uB6WMjGslW4y9SKexcNKxbyq
-w0gZZiX9buoAz8tWNUBAKygWvr27oYu4Vosxug+4GRNEBkDQ6ue8HV3ik6tOB2SBrnXV6korYk6T
-irESxIggqQtbvKF1FH8tGncm/yV3Mxch4lxo16NN+4R57oSKVfOS67Hs46MTlvJVFLGDNreTAwpt
-AHBXUwRxCMA5nDJ8uI4ew39C7M7gysqNVW+gp11Lwnv7vQ6jewvSLrlNJvgh6EdHMr+qNix4skOP
-mQ24hqQP2lRBwuqQZtT1siRDEwjNIgQ35moG9Vio00uptaQWILuOgFgyqV23DDPc07QUOCg6W9+1
-zLeCOCJkhTvO0kAPueiLc81NzlpV5eN2DMMcobahO/R7c0++iKRDPupPTXSw9A4fdp8udxwb3rTF
-L3mmNKea1p4NwujcV2ZHrdwAUNtGw1y9wC0lGddjvPO4IDCtdsDh2nLHb6LEgFfc93tWovnBavwJ
-qLft0NehRBXOLtdjAWRQqTzMqm7fJU5ze8DCaSZ2tzyMmRjrvcxig8y0cJ4Cr9bYr7tOPy1hKu4s
-mnWI7S0/LTZpxGpmD9j7srlJd8tkeodU8wB4eVKbpuvJkJzj6KwR7IGZeed5YbfJjShETcy1qrYR
-AvJAAKu70+pZJ2t7iPPA8VNxJArM35heSudXS5Q2g3AU47FerAR1UC64zpkVpV/axk1fidbTnuBB
-jp842Y8th0bL4lmzppE4t8VEzoDA/oq0GtQ6DGi6jYMUuj3yF4iaMTQ1taafUc8MTz06yweL0SS4
-4xkAUK2vQGFxapoQMa9F55BvbDstWLWSMnYPpdGsNmFfSDJoUfkg0AHsNcCVLQEsGnNkPqMe+kjr
-mNyg7xIRkOxi73jSvXNsjoZRz/CvFzHp4D5nQ6Q0zJFJZ4Y9X020CMuws855IQCuYLIojJNsK3KY
-+sVJd15TmS9NP70giWGy2zsJfUsjwTeyHke9x4w8pnQdi7oAGzQb3T3WzRRrAPtXdGdMOJKZylr5
-vMz7wnR7l1k5AnUI8UxhpXe2vMzY/qee+l/VUygk6dD8+0bc7bey7GCqvf6SoMaDqV74QxBqfYCT
-QeMNP5bKdfX+1JBTvTo0Jz4F1AXwTN/9R0NOUFWBNaKP94cz77+rKhOUFoRnYFmeAVNGtdD+ARRL
-OKpq+nPz33NVGq5r6MKiOej82pHLqcCXotZnqD1lNgfUNtzidi7NM2E8la/kSIap8mraYit7p/FX
-zLjbK0Tu9DGWBsD6Os51DVZl1+d2EAMLAIcJS44D8luNseJGOkQm4pXTAytB7rFaQEtgRtK6jsHi
-bAWLkwvcMSbkiY27zIgUsH2gFWA6uuyUSeIZIRW7rApwpE+pI5helqdQaAg8LKSfm9aHyLlh72oe
-EB6SBalfciGNSUVEXtIis0tyZHVJkaRIyrAvTyRmxeU+cZfkG8mz0ZtcCKCceM2LPVfpgBGQgMr4
-klVpXHIrmeh0mD5UnGWlgi0ZweXHUYVdJlXcn0ZJAKahojBDHbX5quoJyKTSy0iqj9IRqwMBmhOy
-fhhFDuoajInTClAGeYoqdNNr+ZrJMmdsToajfigdMnBKl5GWUJGdwuebJ/vDOMjFL257Fe1JXEdx
-Bw65uk3pXN7ElwxQrD7lAW0ye7WKCM1k7G4FbU/ibLziRDREpG9mlyCnVZuxlK9LNCs0+PrrgfzR
-zo76B4OUb29HK5R8UoFKEM+2ii0twf09kxglthCMvB2aq5R80yUMT0wVk2A2dTyBFTmOtj12966D
-QX/jXFzlyl/OzlhurMK4d8fbQjnQO9iMOwqfW4ton0rVBqYaYg6flEHsCfXXdDN2qb32sbdrndev
-7YvjPcb7bioXPCNYoIB1Wt7Zem+dSAr/CJmH/Bblnyd5c96WylM/D7jrHc0u9hLDvV4Z/TrL0vSe
-ABb9ZlC+/FA59Dnsk6FMf6OwJKaVgRC78OLq95XBP/VDe0v+X/bO7OnNCH1ty34FFyDuQQRwk3OS
-VdiAbgEggFrO3BieLYOMCW7glPZdxd22hpl3hC0ar8DnQruNu5cFpfRqUZCCmN77ylbgAtlRKEUD
-MANjAIeSK8ABR6zoqlbQAzuvyQ5jYnZwkY8FKW7/Tcu2gOBLARPGhvvmQlGYFFChpumzGoDKBOmF
-t0B3mbO8gjDMCscAdNoCzeBYxQyowYOsmWxpoErVkjQWC6BD+h3vIL/DHmYNDtODABEiH2y2VZAQ
-NsIf49mwuBc2up0mR6fV3TtkYWH8cbIWUAkDUYLmtvQV7ClHzMn7j8nZ92ZBo78mTDQHojSu29BE
-wg2USrNfJt8s0yup4hpWOWZRSWqvvljlDpZlOz6MSWJJQqkvDcHo0h3MTH1MP2VZ3y4lyUmZylWK
-bTKW5trxl2DsaBEH3GZR9KkwkojhV2xQBmdaVQA9uAQ2TfNicKgzLlFOnpzdiBS/kgIcTkSfRcDA
-PevTUMEBfnMz38gcyDyLzxafD311oE8HNIyGLqdKfnHC7CqFc4E7mXq0Dx/LbHCoMRsOvWvRt7g6
-kVBO36cX/xmZ/W5k5hJO8nc79X1cff32X1dd/loyhfye33D19f/9H/H9hT92auODoazubAI+5gjy
-Bv67/+EaH+A4Wjq9kT+4lv+zT/MKVBlqQM1E7efuB3qRi2NDNUX+wR6NEOfXPZrOi6lbJj8DP5f5
-q2SggVDSFr5f7TX6EFS3cYVHFWMXWj0fmZOwX2Qxjqdcq1FqDfVLHtnKPU0buBpyVuUlhuOL4xlL
-U1He5oP+DNYlQmifNykrGfjLBX/8VYteC3yK5m6Z/koE+O65JroX/LVxm4KcefXN4uRIjFSaRDbM
-/K5HscCUSgVcjZTQo0qR04fkXPA9rhu3hvFTVs1K1zyCzmyGGom+kEil3zpGZyJwkq+qYoYO25Ij
-NGc45pP3Lk/ZnzmTbVDEnV1z2kmGz+jny3c/K0/SGO/JcSNoLRm26IxPw7zckuB51COVl5dqaFWT
-V6qIKqia5c3GGJaPxlvlOi/N3G1xsOWcA2PzY9io5DEPpY4OvK4i05VMc+9s9OZLNuavLhqkrR7J
-e73NTuob6NkF8Z7m7+jxUYlHfbo18xmLeCHRLEYuhi05PkamvFfcgrUnnOiqzf03KgB/Z8TWHn3u
-MRsEJ3hl9dBkxxej67Rtk4NQqtwpmx4dHKeytl5iMzvQ335tm5SwZ/sMY4oGhWN1G4sPRMTde9XP
-txZH1e1s9tvGr+n3WiqQnWHeRKOaFFzECaLiixIxSWmh3fYryoB4k2R+v4aiVSERYj2ONPVdxsUr
-Vka5wtKXrXpWRAiBHVp//oLWLLeQsm97IXdw74+Gh7ZeG/Vj7VbamrnKu0mYzcY2klOWTUeqRkJB
-KhpRacInrKz5eQl7bIO9kweJb2oBUVywEBNGTDHE5evWTgm5Wp5bqwlZtadHwsCCaS7luozbHrVf
-8lqi49gQofbmVctxFJEK52yTc9a4L8mkf/Ea88aXCSpkaWxn0e9JksMfMI2PS2PvMdD03KjmPiq4
-RppOGEfWj+xMw3LEHEACmuR6Mho3wQ5yJ0xLDw9AFCZeAv25jIw3Hwc4NpcW1kSUHzDaPjbt8GhN
-+XtB32atg1RE4DQ9mqERr7Kkr7GfUjkvjkbbGyDk+vK9G6WDjd96AcmdblG9nGsiWrAc8jo+J5YS
-l1vRdF5Qtc5YAbkd2SLORK7Wn9OQ+tpN4znAVTremZhognyKQuy+eK5nBnl7ujPjoanskSRkx1Ps
-eu0mg7S5aZaaODfO6ltAlOOBTmW3FlpuvhE29nkeW+fa8NAecddUSWMFRMLVaUDsgBm42SJfQ7eC
-eh/VgnFpajXlc1aGz8UEdiFYrM5PVvh21tDozlaZfUapOq5B0W2AFMxr4u6Cup+JQoOHD10Jgk26
-SnA6HLyKpBDHJRNXi2/Lyqo2dDSeKw1DMBpmvLSD/Qo8s30rS9ilJW25TU5MsefOxPYuvrMtcFTS
-gKvCW6MHFg1gAgJ7Kt4qo4I62RQ02UYaupMgjNCl98FPoRB/3IYNVItgQpkAWskddpPgppsz98XV
-nPMgGnkVju27Jtuj5WSHP206f6Eu+KV/bSlSDmdAjmyc3pirqj//E7E2SR0L5mIG54B28wphZa+a
-Z+fEbmjTGM5v9AS/Ki3Uu/lsaAC/dcvwLue+P70bKK2hdGairiIedWIdsoPITUTQuJZ/806/CgB5
-J6VcgHXAcZUxwC99eem6k5mGdbUXcP8ZBGYrtRynhiSfgxEbPmxEod+7Em/T/42+VX/xXf4rd4j3
-JOSIoQSJRvz683cZmaUfe11YUpfZ8cbuxkeAe/laI01Sana+Vp8X+9ix7Vjd/v4y/osq7fJ5fcU8
-5iAO7fYXHSj6KLkwfC/3XdGaYOEL73ZGjaCWiyPdmmyv+9Ob7Cam7HIcD+nY8dz6pblq4/ktps8a
-kXQyRIjomBfufeyM63RoN8KTR+mwfCN0rNeM+Ai6TU9kKuJOGe+nInrW7RjF1WSdB7r466mq/J1t
-V/WnCNv32vJYHv7+k/7FLUT6ki4Q3hk6oVK/XFiRJz4USavcx6LbWpV+q/sLPi7QD795n39RvnAH
-WQasY9dGZ4QV9uer6UuDEYen7lUfryhHqdsZD/hGpzlBMe2TRuplpz4yirt8nG/dXi/uYuXEtJbo
-vRlZl1WpkpIyiiluOkYaMgtfDo+a75zNdtzFHsu9Dd+QCULsIFEV9N9sMe+KSNSKUJocB73t7sts
-ep5atv1BJNahT7xiI5nvHzGmvIeJ7azKLOcqTl61m7T0PayWZw923NJz0phqc4/YdI9PJiHgdrl4
-So+Zi9JODMutOyNzYHZqbOHDfm5JCkdLQI3191/kX6wwSDg9n26O5wpmZD9/jwtO8sbCxLZfJF4h
-yomJlQ1MjoMu29z//XsppdZPfSOuma2zT4Efc5FMqT//0/rSiplQSmsucR+M96Q/H4rqdwvm5Un6
-5T1wWAkL1JRBj+LX3hTc1azPdZ24Pn+st10yke8eLm9qpU8Wc971CBsyYe19TZxl6Mcbt8wPsHE+
-khP6xYOwxIh+bAElpuZ+TNnEY5/VqZ6LEw2f98WR5gbQcLbPTYdBgW3i/MGkep0nzmb06iePBgv8
-B48EnDmZ12AUJenLIPdoL9Vb0ZL9YRIEshsmela6SN5tQC/IxLLTOGWHzGaswGCfApVI28k26nXJ
-WXxNm/e+KkW8sczl+Jtr8hdPLNcCZajOOmzhRP/5opSi7qdqLsq9kXNQGOMiWSc9qbcCT8aJQGw6
-2pRbQT575wLZ0TrsWp3BUHHDGOPZY4AE5aNk6BUukt60UdEi019kWpuBp3OmzkbnrFKt10Non2M6
-g9BhWIlqdLmE+s7PupBvS6evEjd5QIxLVdXwgVtt2mWx/jxTiJEtHtc7M5cI6eR9ZDtK4sT9iRdP
-mblGySCEIPoizP2dsJdnv27H75GE/3br+IuHhD1D/Uf/lNPbL9+RjBo37+VY7iUmCkoclMSSH8cC
-rBzW0W+uiGH8gjFTu77HLsyyhtHc+5dnsrHMmTbQUO5b0ZUbw+mqwAvTQ8hO5RtcH0IdGfjOHJBG
-wTJFwO0LHQosGxSAQxU6iIV8QJvF2DAbXWBJKAJQOXtfusy4hhVxk/sF+nGfan8qKzMw6+6tSJf7
-Kafp6qrNmNssMrPXUKoqVYp1uuinZiAdZ6rEmnJ1M6LL2fZc0svxkgmnSUI1f5F84ANjGF5Ry3Fb
-h0O/ykl9uZowDV8OQWE5VYHsMc2XWBaTnoOkR+d3vTQc9exFPrZ9hOHH8jFFj6hQjFv8p1AmqdYM
-Jm8IpudA/Y9W8DsQ9Lkh62HcGlbbbdRj1E32uXLlo8PIBYpppvE8AfHOG6olPUxPYPG9ACpIt2np
-GzWpzSPWh821b09vZBEEElMMI8vklJicWfyJUhzp/0saj9iTLYSUFRFZZG9qI5q3glyZFgslZKH8
-wKF4V4TsLEk0cmPydDiyP6GT+Rx3sjxkhn0eO0DEop3X6mCEiDHZSWKZjh6Vfd5bL6JNfrcfO3/x
-eFPr2FDYVJYFoRg/P975bKYNOpBi37nzW9mN98jMztQXfHk2j7Wqvy5H7ar3jW1PPB/YAp75Miad
-T3bkt6S8jIZWkPVluvHJaffG1nRh6Ua4ZYVXbvxpmPe5QTL3mGQFMkvEbaR4RW+ACvwTxrI4WMBQ
-b+CToHVnLV8vLpMCjTUm7efn0aTc0luzXsO2GtZT1GcMi6msIw6G9XSMzYoLAmyCYebw2OODX7UC
-HxTJ72t/yE/jMNxbNuzQKnemDeIp8tEksXCxBGRADlFhaCjPq/nN6ZZ622Khcjkd7LPEOY9sIhwy
-h0cTwL+q5nv3x/76nw7bbzps2GoMaol/Pwt7qIY+/q+/wqP88dIfPTbvg80/Rd/te24pN/gPdbr5
-AXUPBQUFzB9cyR9wFPuDwPthe3BLHAtMInf9HwojU3zQ2etsHgnQk0Qb/qNZmO2rpf/P9QYieN3W
-0Sp5/BywXH+pn4ZEoKVNk2o/QUCUG59sMboQ5HDtYjJ4tyRhWgPCwNS78xMTI5VIyuRMd7wKxjz2
-vKCF6cyNmpgfAdHNt5Ujyoexc8LPhMTAyl5MKEgu5up93SpjkQ9M9khiFZtnVqIbkBNykqDXJnLx
-YuCY5jV1fnxmeMV5EXq5eRiWJm82jZ+gvGvnmSqPxjIalgU+5XtXAFQDHjJb20zrrJsYceNtFofW
-WqvoB2z0RjMP6AOQ2nIJyjTQzJgYsXHq6tVYzc5JaG1Ys5whMxgK02TS5JlXrJp6uZnyZvykM3L2
-AyDR/TfexUCfbZWoxsOhpJnn1eSq8w/n83f2BYJcp4X+2FfZhkx7+jA6hesGQ2zxnnDB97DNidko
-bWALxpKEXxfHZgXOsOR+rBecmUR/Td1HC8bdx1ISuOpnOgkURIDcyCEsH2sE5zd9147zcWqmyIbn
-RXdrFcZMRhiu5UaIpqNhwLDEtXc3ZfxcDZsH65QRhsUK/Uw4cVCd3LslWerPRuR5t2FOJbNiLdeN
-IPRhXqAQktXW9YqO7cy9muqivsmMxr+1u1ihPC3f3nd8f9sRue018w3AVHGsrKVQrqYLQj2xy+oB
-X7d3p3GO4JQSsxPNnr0vDPYk9hhQCrgJrrDvmgcth0uBSL+6ydoGG8/CbGbjuKmBwIG5FE7LwWJv
-Fna3X7Si5zMb5tYsk+aLZP/61CK7/MgsFyGMT+vLUUrL7quhFd6m7WOS6Rls+HcTcp7VzK78wB4V
-3U3QfCIWfmCSa3s0P9PA61ROI4KKoEeG/+phEoeBb/jXdW260XaYddQvU1ome9LE+uWKEA0OU0k4
-aNcCIyyp9OjJgSXgUsWXzIC0v4ptpkarSNbDPYJzGxadOeGc9zTDXBl0hp5KJsGn+LtHFBUXhlHv
-u3vUuVhJI1IG8ZVqf7hML5bT+WI/hbqtPAbKlEpIIgbV7GJWxbOonKue63nbiChetOhEBWj9ob9Y
-XfOL7VXUHYZXmLY2UFPljHXDSHsAgEiLLAtPblEAPVNO2hhLbai8tfnFZpt+99yK7w7cqNDdMnCV
-M9c20dUnC+ZdXfl2Q+Xg1ZWXtzd14ueWSD4nvUgCzY+rE7aJZtOxh6XKD5zk6pyGqN7wkP7H8pnZ
-aeTseby1x1I5iqu2xVw8YLWqMWbgOU6U+9hRPmRqtA5LcsnPsJ/1BKvyOIghmPtJpSfq6VU10FOd
-/fK+WrzrHtwjDhejAyNYTQeZpMPGnZKc1jIyMRTgO7px2ld7YaXJw3bdhMtu8ox0NycCqHrdu2fA
-Jg8AdaLAjaTS/dvPRtsidx6QMC7zUN3Aw783TFMwEuAojC+DpAKrUcCZEEA8dr4t5tU1893yqJd1
-9y2d3bO+iPBT02ZyP5En8FA6FLfpWHUAXElysPJuvDWG0Nw2yq4nk3jeWc5yThqPsD+L+XYcd/l2
-NgCdThqvMugHEMXRVjUm9eVTFUK/BJZws9TtqZdkL9YiplsJkmnXhChGU0fTT6AJ5Y3TgXFF6PUF
-WXOzQ27nbZJwDrdYAZmXh3a3rgzR7EmTRAw5jtohhSd1nHOoDIMbfVbK8iAyOPlkLigC4Q8VhUnV
-fpRpI/d6EfVP9Ht6bgyp7aJ2eh9aJ9/N8A42fYuLeTRE+NnMbI3ER0XRQqJfEGzEKeOKkFWZ7c3C
-so8lyKctcRLMVWvwubsa/vvBC+k3TJrm3g117O+Sha0pLcj86G0LXt7oLO557pqSsyFegXTjNUkP
-Ea8Jn/2GABDTLsINe298hsZFZmqVVZxNpiR7qXHyoy3nMB0mwtsWEFl21TLWn2oZ6h9hGWqbfoQP
-VslyOQMDro5zIyGREyNyZ/IHp86ZtBuO0s8uLkV9bfggNKIOqT7DUGNawWLMjIM9pdG1nxWeT48M
-J2zeJ4O7zgRVI+kWwG0tiQnJJnhhPQrDPJsQOpGTxBOqQoSNJEKH3s6t3ewA6xGHRg2/sQH9/NzX
-egejtyubIBkAlupme++EaXVHs18/m2lWBl7PNz3k3AaW3OqT6NaTGtoIoAfkClgayjo3/WYyRfsG
-6YE+HLgXGDd9KG32QQdCE20Sk/DCxg6UTOypiofxPoYl+3XyhmhT+w3Rb6H4rPnDe0KO+guqoGmF
-Rl9fd5b9VFq2Bleiy9bCzFTmMW76ZW7Cp6i1djRYP4fO8OaJxt4tldVDo4I7jQb0ZR5nPyDVVQSu
-2742BRmxo6lfZeBskQaI+lsUugQuphrhBHj69yNhAtVaLLPFgCI0bknYajdZJ7O70nDOZYTjhBbf
-sCl6AXJSoAvu1zJuJUHlRrGco7kPN3XRfR3S+JExBKUU9QXdGIPhxQgdARZSwHQRwKivFtfMblQx
-03jrnlPdamKX25Djm7yKLHvUhMP8TDb651i4OE0Tz/1Gnsz9MBrvIacPr00ARGjupxIWDZxLskWm
-THcP/hwu17U+wIw2m0/oqusts/iDLLOQtbOuN2PZIGiMRnOfTnNxZY71lT1D1Eod4ymRc3adc89D
-nnSMrdF2tBrSHjeZnu7I2K0PVT89WEvcbY0lLplsEuEZp8tXoCrWujeH6oG2PckUcCWzVViYM/2U
-ctwQutODlemK7TQQDNJq3lsYiReILuEnvbHNG7Tb0Ak8+64xeu4r+60QhYGQe2DQFif1sS6ZyQ2N
-+OYWck1d8JWuZxOD485ryHOd3Ht1SK6vVVubhJQT4kCdeEfF4t4T0BEFOD3SLbLK6UaUbkjQZnVo
-uehV3oI/0s/x3FlrbMncokzwUPxOImiN1DibdfpENpbDVDUedrVM7GHlirK6H2KimFKOgu4INwXe
-9cpiS7/Wms4JOmd57sE9qWKzMcobHDLR2pI+p7zqHV3wngEaIHBNvwlld7PkiD/iHgFu567SuvjM
-XLTEMjg9ym64rY0eanF5olrDS+4sdNp6iC7zPBARMg7RegZit7JJjsauhuKVUZVr2ddY/rxrp2hK
-zPPtSszYoFa0uZZb0ZbZ9zbOfw5+vzv4mXT//+7g94gI8lvXffv2Z12F+f1Vf5z5POMDLEyAGbT2
-3f858Pn6B9OwTfzGiCMZ5Shh5I8Tn/MBPYWOFlEwuuIQRAvvx4nP+uAr+7LPIM32TJ+W8D9QVoA3
-+OXE5xEw4Bg095g+6D4CzZ87Ku7ckpgi7fJKG6lw691IBZiOm1CTUpA+S521UqZ8ed0rbkzRwbU2
-FEsGZKO7bworofMSAk7n2Gqcu8ZyaLlDonEUkyaKnM5eyxY1c+RMLwUKMRjApm2++opoIxTbZvBt
-ynrFu3FD9+tQ1hBwTKBsGCKjgNSrZm0oUg4UmAH8nq5zvIPMCw9/6rY2Vek6Lz0UgynycgvoGITM
-rrgapghgVOJshw7nrt4zCh3TJLoxFL+nnJP8EZIzUB+2NZRraJKql9gYmp3ArnjoLigg8nOcL8jt
-AQRNF1hQgRb7VOGqfcrgMV1PNBHvB9kSP5+7d4By/ZOegjj2iij6TJ4LuBp2sf3iDiMIXdbaMNXb
-HUA+2q4JiVqKaVTVFYR4DLJbR8vY7Fj1b0rXP0TkutvVlN2S9s3iA3ZxhTTB22BrrlZDBkepxQC+
-kY2lr9GFWdd+OnVXQ7do+1BbOCplsXag/11Do29wECAoB0CvVyeYfahFG0/DSSOZDxmkYG0Ehvnr
-iHDhnQUCcisa0+Zf7Za7ehTdyU00tpRBPDqKGzVz2t50Ertz6Gbd3ZKxHkuAX1uHiM4AiDu4cMWh
-Gli+gDZ+1ouk2xk1u+4wRmIH8jB8Hr2k2qZp6HzFupHNTAdEeooQN9IoUwisaYKG5RX5GCS0FPbs
-zu2WZC8EljqaWMJ14WAophYMLf+L15byPeJQt130EjhaE4IO4bnBC0XDL7+e0/opRoL3hEljfiV3
-Wmegttj6Sauy8ehpbIkVDieQYz4Yqzri6OwIaGCx4oKFihBmKlYYES9P8QUfxoC12XtDld1NVaMd
-PCw7NwI68dFqEqqZGrBKu044cbr7QRuSedt2ijgDCwtw2aIYZpRx2/SCNVum1tzGinUmLtizRhHQ
-oLhRYy8+WDSaLXq5zsVQUCMsoyAVCaoiVUiymsRS3OL83MNLyVbxUDan1hGvVd644XUDOS8+Qgr/
-6CStew8hdYcr2dCuumSwQrHLewo+dzX6svTfiP1r0FGF83Kz0G+47QbhFW9Ma6kwrBLxgdcPT3Y9
-mbct5nfqohzPuhV2tE/bAUpUXvoHWbkC+3LYwZeqY6eGs6gVKTlQ8xjta8vN2ieRSyubAhtxbk+Q
-mONWpA92ttdpGLtSod+wUPK9F2O9bP8/e2e2HDdybdEvggNDYnqtiVUskuIkanhBUKKEeUpMCXz9
-XQna1012X3b4PjscYXfLIlFAAYmT5+y9duRltE5giUfmtyVpp35rQpS7aWGu+V9M+mQtsFt3tu4q
-FQ7RSxah6IAHEm5Y4TYJPhYmpxQp3LkueRshyR4orYSVb9WoA5jMPsx++EY0G8egGnERu3UxGZs6
-GIZ8N66Rl7oSENdTXOroQdJYc8AQ3Ckm9tuTlfTmuKlaIEv43MULzYY+v6BpgAWFKSc74dFIQ7ro
-tFnCfeXmHBIAt8RepUz4i/je4PN2BfMKcwLwydqHEbTPcdpsMBtjGynjNCMIIQ2r+hNhdXbtbeeh
-TZz+DJvPNXd1Decz9pUPODWpvE9q9NTB1VBT0yxGOG0u13jrgZt8JNnZPksPZtomJ7KA8IEynNCx
-ON51FYr2lKchz71yo50LVb5nVOv4F5CKk4vKH4OLOpH5bWUXV0uMNHAjLbe+UombnKOm8fHP9iKh
-Lxf42loChH83VAMuF8AIlwFoOuSfmX5WQdpZsZfuJRA342DCK3vwCwTrno1eeEtoqgFyp6rQeA31
-fTD6tK49um24eW0KcCc8z+CXNkUroZErETP1ZJuwWZahMDdlt8w/27n9wTtK3tBc9Q4TnKNtim86
-2Nhmaz7EixUdiIsNPrukct4J/CK8HKriVJAP/KnuAzLSjNm8HMlH+7nYnouawdp1PvI1ls7oCP7N
-/Jr7VrojsDH4NpK2UJO5aTfHzG3V2V/85ZpJZLCJW4XMcJozqnmHzVxb44uO1YHaTqBJMxGb906C
-BTMbHbHPqOFvme0j3Ecf1xVV83nx6/40e+MAV6haLtyxdDHzWTS+lg5z1lTUySeAuUw6pLKDM9TL
-BnuCg9lcOtWGwZ4CcyPcjW3RiYztKLnFIDShUU/yvchCpM6cwKEB8AqabhIJS+MivjrAJnkXumHz
-PAZ2f235i/WL/kl9cHucSLkVWUeva50vhuJ4dljHuwZu6oFA2GYvq764yc2pfRp4Dq/Z1stbWKHh
-FXKZasv2IbtiJwYWy0nGm7x2AQaipDoWy/i9DUR6NQOo/xLRnrmJIgtaddZ5VALlggkgqM1tXTrm
-TaewkG1TnvxbN/PVBX4S+YxaAseFl+8ctrB3yFxUuRFl4J1Ktl3YErVQL8vrHxNgiE2jSnOfz7V5
-Ssz4C2Mtjw0Fu/CCPau2iTtoSHMZAMkgTa+KzL0grufaTVMT13dHDiZvfwL4DKfZCTbFTBrxphv2
-APUUbyHdQgEcNSQogMRf5WEFQTuzpYVAoEMV28zLSy3hAbLlWTG/zZyCxQl4qOXY72qUFc+2opZX
-0IHBSpgZK4HEN4+GcaR35j840AsJ4yO/No2Tx86bm/RuLVr/W9//XX3vMlL5qL5/SmXMEOP5TXn/
-+kP/GukwnhEef2S7zLop4xmq/Hum4/k+4xTmKm7ggmj7d4kfwsnXoyDTBLRjE/b17xIfGD72cwQF
-nh/YNoXmf1Li+3+imwUc3sGE7rH7cE2y+d6W+MEIdLPG4XAMgrkC7jrWGLk18HWp5vYqRQPCLf99
-rgKosIMGxJpDw14W3sYZjt5w49ReygsUpKzrR1a0l4iYbhONnJUaPltXoGQ37H5ObdQ/RrBI9Z3d
-PptOk8t0J7nAn4GCVk92z2CyKSfu7pFJy4sbVUCzEzAjYlbuc2US5rWl7+Q+Ow1xThtwe+FT79XG
-r1z56jONylL9Yl8U+hlB6WK6SWp/L5n9g6DJzmaWN8GFNzIZYbSNOHkTGwNKsR75+s5OauPREC76
-C5akcU/4Mr5qWq2brtSiT9921I0lFS2zPAm+F3nBa7Prx4DLAsjhiFIpJv7MGrZD7rU0t+nI7aNg
-ImvLavG0Rl3+Q5RLdY5BlbBTX8TOhTP/VWZIHlwrEjuDiRPcdWd6ggsx65qMUkJ0etLLTOWWUCHT
-BwBCtxM7qPGt7wrAhgjBPidml7CDgFa2aZex9Z+ajo781qediMJWMtzBHRIBjYxCrQjzF9Hbn1qm
-c8B5GRo+SpbZ56ERcHG8AqyJiAVdA02CVpMOZEaUwLWA6209hjnkATIKaMHG8E+ZIjUuv753Cgoe
-qenmHR3tYev3HSx1p6lAsQcu3dpNkIQg0gzZAqueqqE+W7IAH73+Y4EBBktY41EBobrg781Jyc+4
-DrLTq0ZTre2QnKqt25fEAIgAaMDq7e1HoT0zCe/v3RpaENQ5jBUEDuGTNZB3upGkj1JbU9s9sovh
-NEoiOC8mvx5o2PchZmHNfm6Y3XUXoqeZhnatW85hRUDXZi5JpbRjC0xdJhZOyNcXhdoSNGKfE3d7
-iSuYDzDxvo/3ONi4umu+PLlbzC7jaCSfx2X/DCkIfpzYBT7zzpto1AzxrsdfcOqbEVBcXGf9C7Mc
-ihJ6zjTy6QFiU69b+IFFlmFyJnAFMQVFkKZri0ATcpSnTz5Y0CVtIO5xBeWkGVxLCwFnpZwrlfC1
-LB10MJxyJLsbDScRMcW5DdLRI92WI3r+AOVvNADHg3zl3nzNwMwmEhcmmcMXdYTLpkJM9rhcSGmJ
-Z5NgOijGOq3SM8mtbPHsjxCKlDxSl7ribmWw54624kPaRHtCYxaGfWsjNN/ETsFpzSWvM3Ch3hfR
-E2f2tH7KoFiG+FjMIq1AV7h8WLfxuMsMiqWbUBaQtIq8o5Dp0KURLYHiZ3lgUFHnmBb0V4r8Vl+T
-bDa7m34OdRYV2P1Z1vx7OGsW4WtggFHD4cxrzfdHx01XfCpYofwMdJ8oTWs+pGBTfy+LDhFg6KHv
-KcuG3xK7RlBe1MM44QC3SjUwUMsVcMC8n3Z9aC/k3Xn4IXSSxZjNzTek1QORyfXAyKpIKihLoQib
-qz4YtnXjwshybcLjN52Nqn4oGWJtZxqAOhApOq8x1XyZkC20O/UecXsPRF92zbdeDF10YBKmyOUK
-nYtsCsoDDWaynMbYBdfTdz8zg/k9O2ZiGMizVQ+BZ5Rb36bhvbHlJDkZLsCVZwqDsyvz2iHWB6DC
-tge25OzcsCIgjEs2LkcVuv5xskL/Z9tkBDdYVR04ewGpjsWhYzAbx5k4MWPl+s46dl36PivIQHXL
-Acvp02S5Yk9yoQ21rEdCiKLcCqmYRHNylI4aLIIk2aL9jemwN9V9MWKUZ/4CbgcYSWJ/DuvFPyA5
-n38Jv3QuI0wwx2wMrJfC9VeFqfIPpD9mV6300l8OyVCPiOTnE5hQEvCyItrWqfEZ54t8IiSl29H7
-7pk4hUQekEOGCYTYjCtLVRN/pqqDGTBTrmJz+QVBgsmuQ8TjGbuir1mW/iyIYomcbyTWdecegBoN
-eGi4p2HBBlO65Ee64Ddhz6oeL1saLf6VG7c30pPlL4RLCVOFgCY6jf6WkUivghs2l/fg1G2FQ9By
-kAQEY2ddFbQF2jswAggQzPCi13u4BWr4rmvz5hrteg0Ta4huq1Gymsw+zXqjGe6tqvrqxBNGgT7s
-lvhiHFLnqiHG3P4cNU79BNZNPrDXvk3csQUKrFmWcWfdR6SgPlQ+eHoS4frgU8vcAu9v0ewhg5tf
-Y3tSZ8KOHxcaX1+GDvNkTXYee7ipqkOejwZS2ChBwKEIOaomJFKlsW+7jqa4VzYJCdNmYhINsRA3
-GbW9edcldb1XNniAIpMWCjJHqk0CQqrZg6OrzB0Wyel7RGVebC0xuLTuy2Gg/9EWBZgwSxRE2bT1
-NlBm/2hXefAttUOz41Xo4FvNoCCUptGcRg8U4pbMj+/EYzdn8i6HGwY33ycZtNcNm8OenY5qPIJB
-o/6K5nq2G0VoP8zILM+zyqy73PL630Dc5Pc5jOv2mY1aMd5BFYlgCMslP8VFXm2bVn615yW6SxIr
-2uWoEzeUgupq7HEtF9ii2bbKy6FzjE9S9jTJbAxc8L7LX2gt1VWrh42RO9t3kMXHb3S+ol0MYeE2
-bEL3kxqm2CdcNGHkg9inuaE7kV8TUGFXO6y4xh2gOHfni4FM7LKgcyM8ddl0ZfU9HXqGGnXzORoa
-UsNN+dTzStzD5XZ1y++bZcenbMq6K2N2xddpih20L/ks6ap2Fl1e4DddLOJPTlAP14MvaW2hl8t9
-G6mwybAZjH+jxNWU9IIzDKytnQgAXNhhhp6Xn0FiDreKiRSknAIMEIX1JcqEv4kLjwmQXYsthtF8
-h3+22FnNyH1g03JM2CPxpgijRQ/FkZV7vMIPIYI/8P1249wFsfBug1D2D7UUAy96JkOcT4J3eVGw
-1Hsy82Tubpoh/uyZrXWuGAMDBFcgyKvZhexXlg9pRmoh2+esONiAYTC9FHA0GlPj23q0Npu5S5Jb
-bE3EDDjm/GhKOZ7nztFsRn5wZOBzzQo0EhxASOGuL8M7h9bPRVMNCf9qi+bMBLS9T1yalVsGX9Me
-fyw772SqrcsB4NtdmnrmTkbeiSYI/Pk8nj+T9oOmFezGUzIkXxH1RVv2y0S8xmqMP49MSTd+p3re
-uJ1z6TWlOiozJn4FuwddVo/vAbDfRDOpxIwAC2jAHzHnCUBRr+zzbaNcONwAfkmSQRMLI7AsmGkR
-GNiEnPhIzuYDc1//0Kk2yva8DhmrkTK1I/OOZlkEx0dJC7SvV3UbAATQCeYYqJygzbUxk3k4Kynq
-AzBkhRCB9RSRCPmKW5/15iVrB+83Y6oJj53nLsck7Iufje+3x1CG0b7QpRWjU8lIccavJKyy3hZl
-5qGPapt9Rg9pGwzBcD01lr2LoPVvQefRP4e5fQa2O94sRGM5n3m/4YaocPOMWxgC5W3Wpw6xNS4j
-u1LF3n0REj2ydY1QbpD2UhZUk/iRY9+JDyH5hzxAJrUgm/GcyCv1EI+FuqpycAxM3ELFyC+I7jrK
-gGuApA0r7+zEX/1yJA53cZCmAZL5FsOJuF8ipOGbMk4ObT7MV27nujdtlbRArdvWAJjkDpdOXfRn
-BZT7IqhSdWu5ffeYTOVlO7XnJljUrg3t9lPZ1d1PKJTmxdi38tIa3ehCxsEThdp08AE4jb4Ud9k4
-F3BfxjyHqYAhprgk+hnLXxouxAROglSibV1UdYYpzVvuB8dsfqi8LAhaDO1iBP7ITNKhqUvbmvZu
-Pkij/Dnrrq8R0v81EkS8+7hhAPoj6JvHZpgr+sTytWsMr8IxTpHCP4I2776mvdysjeZqbTo7lfnc
-T2FzrVwKOcyN7XCCAA+GD69Qvg/yLPHvQ8S75peUrBCsr/AXqui2bogRcWmKkBS/dZvpy6JDRoQj
-g9i/xZ7S3vL2O/WvgSR/2Mn/hYfqvRAeJ7EeoVkO1mVLCO/d7CvGIjPbMXWtL6U4TQ47UTdN7Mdl
-JvoslNbf4etdhn1v5ZWmcAAf2MwBTTqC790JzG9nFKBdfayYGFwhSIMyycL8nBs9bV+8yj8hiQhx
-gzVqwI0sUXNB0iTWtbzO3Iw4nJXc7bWVkJ9KOVo3BI+RQSRtOmdjQkbQmCPM2YiliijbSq97MUkt
-CdnQi355sD2dD0ePUh7TgYirvsncZwyTU/+Ats3t8PFYiA+3lUcb9fvCfoLxc6DYsMWRS/CUE+u8
-GlaMx9J3iCIq5u6FW6b6HSxj9eCQnKmZiR1/H1B9g1hSKHUVszcy9NppssGyjOhuAXHRHULAkN1F
-EBMHN/MXJfjJhjQfmVjInjsrIIRM74XXoKOPv/T3tp0QLrQn6NSA8sPA9t68llMhk5Js1uDy9X6Z
-2BT2BoNFZNvp4wPpu+eNllYfCD4NZQChBfb7uyuQ7ODaggMVCSFPNCdKVONVy/fDs6cjoXT8YAzR
-3oPoi4ntPz16YDoBs91AkCMf6gnyH91JjTGT6zSTKS2zhuHdhDMhBZ5O/VjIY000PGbq3mcTYEwl
-27aPD26993yEJqoX28SBaWnM//tzn9AHRpDTCAi3Gn77OMWMUwAPEjCXdWybhaXTw0Yx48GONW/d
-lNXAxq+K/eII48p6XD/Qf9ubf9veDATfzf+tW//yjE4XTdNbLibLov6xfzY4NReTRdL1PFdb3jBl
-/2+D04KLqRuLuuvJYvcvKET4D4ywAgo7P4QJSzPY/ylfEC76d3Y5uMltX7DqWv9Jb/PteirY3CKT
-CC24E4glbB6ztzc5AMkWgs3g3ZUjsYdb3q/DHdme6HwRUHbf/3Bh/uJt8fZ5Xg+GY0rbe0Phcbrv
-bFOxqzRrqRd3icHWf02knPsxfMJApB8mveTFpi+ewzGTx//HoVHjm0Hg4fh9/zCnRm6pvrbEHbIH
-Do3mkaV+npg5UP4xUgwUqwoER1puUBzokXx8+LfvSX3mvi1oUWPkIj9nVaP8cS2xnTSuQig2dwVx
-2pRoBjXK1uwHXj1prQ+ndLvn42Pab5eQfx6UW0UwWoW777y73FUDZDpuQvvOtSuWDSaAJ7v06GpC
-bw2fmp6IVZFCT2btHniVJP3Qv3j0Ri8KcrrpRsE3vmjo2qljhxYy2i8Li64X2Cx5kTua1nlcIzjT
-RYtpye/gBayKij7Wx+fxNrLi9TTWxjvjAcQF79NZAoJXBuUn9h0dS+6VAXuvKnRPLuhY5eBG1GeV
-o1H/+Khv3eH/PCo+SAYIPBj879sHg0ainylXWneZNRLqsebS+FXy28xUewdVUt27gsRN1w9pC6/Z
-kh8f/88Ppk+h4wQ+E3fum/fPyhiGFZRZZRHm7Kn7VD8wM/zw23gkuPDjQ71716zn6li81WlYcMA/
-eaej2e8r0xysO5GG6t4AiZ8fXtN1I4cwXhCx4nk0Pf10mnSZG3/iYSH8DAsfOpm/+br/6sQB1bBa
-Qh13/nTX2sKow9aMzLuhb3lIBAGc9ZXdl+a4SXU6ysfn/lcPidaV8VzyH5/C8u33bDVkCxrOaDP/
-ZBRZzQl94rVzO+go0VLqxt1Ij5RYXe7yNdqwHEOlFYWYBDZIVeuz4RFWGtPfjckYt1HH58QwWj2z
-miQZCWSt1khaF6bLdBlCcyoOH5/Ein34d6G0foG+zfcHYdRFAhq8Mx1lRRwNwRxadxEaqfawUI0f
-1/sGIRBJqxI8AORR1r2ZC1gGkFAIAad06+awPeJlpnxIc9EWRKIvhNdYkdm9BNJU9x9/zr9YBX0E
-rtRT1I1sU959TEPZw+hFwrrDCMOys15mq6FBbumQ0baQf3dn6zfoHypImEr0erR91kEBiNDu/RHL
-PrYzM5+7u4nO3pnxiPsMb1j/l0NrezBJ35WORx4ocb5U9iDAUOtOiKEeUuICGnZ6c//i1CN3ug4l
-NQ0egtRh/CP0PbFeIhCpvLyQC4RX3ejTTCe25IoMJHGyfU5IWxn+xhD8WmH/8fvmZc2mg5GkJUAu
-/gm4uAR56FOKxncQZudt2MwLCaa+kX1CtzT3x2pMcNBk/pj1O9sFlouWgzyiQwiTONvghnfM7UwH
-cmtn9rg3y94/kH4FOTfxusGiVRnPzgbpD80l01logZjJZHxuDGwHO9Ova9IjVhgvU1PaOLCQeTIy
-TerlFaChvRmTABE01d2gcb5BV2ZXdhnUN2NGL3gX1BKfNDQY46tF8hZ5DnPx00Q6uSuoA2ANEYTW
-8PnG5GXGp+ld9nNS7dKe9/clM1d4Dq2TNbekqqACUit1WGgAsetDs6fF5hvN01AV2bRzIt9/CDGQ
-m9hWYXzTTqMZsindGKhvSMyqJHvBDn5gTCV3t8KRkB8XtBA2U7ZByJNNrh37dXYnV3Y8UG43Y3Rp
-oizF3zMyyfRp2cs7uAjAlDO3r1zkFDZSy5JQhubWj8tCblGTJNEuyEiRirF0PTU594hPlwTsrI4V
-bjGmxntKAxKFrZ4x0ZrG3YWCMqEKCFKlBNTj3oa3APmM/Bhbax0ArXOGwZcw1FT05/wrglDygTez
-lVign5dXEDSRm1ChPYeAUnjNsKLjV3B0k6rgJOI0uRlBOf0Mqtxj3mEnJo1IEPtAumJcFYLgD/A8
-dcveaiLd+CvJT4CmxgA8MHXAD+jVNds/RoN+aEcHe3Hq72hH3K+IlFzcFk3ywo2ifsVDlOmxcVzt
-zIGvZ5tEPSi+uHFx4/rjlhurJGmcMDqlCDhETbIB7/MiWtPbKpTgzSOU7jQ/j1XANOWyqvCrP/oj
-LOSQGwCAlr8r/TLAmNdD7w08DOtuSEqiZnlMNo5uGOcGXCX8cTPuSAC3YfPVSGh883HzrJI7Jg1l
-cDDIbbkoFuCGNf0hGN2acGXGAcUQK7h4buH3wvlmBjzTsoqKz8ro+MbmiLluOc9MwUZy1xmZ6elZ
-OnNXAte2eJmKquV3oP8ihgg1Y4qybOFLpb1qbE1TBrspJAMUoQuTe6RFLNmpiO8Gn+Hldpk98Rwx
-MdnEqUm92uu87aycwBtFS/i0Zqp1dHxwnkBzNgTrkE+K4L6UYJpoXiaMIsvS4ddjK+HDseOoz5R1
-0dOAO2qXz2V9zqvcfmxhw/CXdDR13yPAQ4jj08wsREjQCCG4/EmMGahDVkfh8zpJXHw9WwxcLo60
-dVR2Xzj8DZoQ2Q2KSpYY9tWBjpMMr0K/VveQbzWS2mBFXddIarjgKnJ5ia7DxagOupc21JdynUl3
-3cA/rp+W0QbjMwcQ1G1N8ruNjS2dbwnB4B/zwqMBsiYDxzFNHTBNFm5uKsNZj+JHMIv7VTQw6CBm
-p8h0qL3N67lXzUTwJ9XjbHPtrVLPlXkkOVKejN1LWnMz4PXvXkY505xhhI28IB/d50DHIQMY6l6a
-QieJh3H7LcuxvG5V2s33a6Gw5C2x6yorvFd10ppsLls+DNqz7IUxAKOx1HecE0JY8wYlIuPmOkKu
-JYu8vuI24ruj5U7xXre8eDp6PWuooJmZFOE1hlGkETlp6YPGwc05mpB9ZIdU6QB58RzVUL5ObSf5
-5CM/Qyh8PRHK1hqSFtNa4Ay6VMkXxuuvmx9HD61nAn/LHawSAcvPyFtA+HA/UXOCFwVn6woyfQBv
-X/Da4QM2NkpuEv6qKcPVY0U/MBxz8Gp9hKzIJUt+VFKXQbx5oK5Pd4GYupci7PiOmiiguONfw9ji
-BYyDibWt1lsVTK7phTUjKGAZcE4e3/QNJmH/xOnUZ4eB/H06DzN5oUnBp2WKJ4+MFa2bXt+eLnaf
-GzPOeDPl8OzkPhspVwWT7+G6mWIjOZYJRDRgGiC7NzDpGNjS8OLDkFlDE07kuhVnEWCoxtR/zPKg
-Lfa9zrJ/DZ1fO1JJOXFNcfRy/usiANsHMGoKdX9boAu9IuXAObUQkM6Npw9fTsgFVlVB0VvNt8yq
-mcDrDh7lfnskrotvFecf/Hhe5FyHiRI0rFKC6ZNZ3ao59p5lAE0oB2uEYSBdDG8XuzzxUnZ8kvVO
-xFVrdec1ot61qNH3r0ISEbdxdxsSkDOdglp/QVkLb+1g14S4Ezsc4ipdFDhxtqMdtq6eosgOtBvc
-RsT7MJt0Op0sQ97BhB/7ccY2RGDpRCpE2xkHgDZzs86H5GKnoRZUNDzoLZPD2/UMeRNRI3ceK5Cs
-AV2sG95lMppvC93lxzFmi5qydJubiS3t49DyhzUODmff6yptgYJcvFaM62tzXkzuqKYAOekEq4rD
-baBJ2IGBg9Qud3IY2MnoqyabUYVgaC1ygaT+OInHWeQ6U74Zep7XSuunGFCqe3OZnWjnO4uD7aFA
-keCiTHyBIsLDZQPHAgnXSdfZJNzyyLrziADHNPKc/UQKAsFWLmoeFwaFe6/kRAoTMxOkMYY03ed/
-KlZShDdrziITWnHKsaHWeywlU3FZjh4/XQyJ3T7A05qo2KOcCw340LrBXqvXPmVnxgVx5izylCKx
-3pKLnv0K2s76vOgL8LoW6Y37mNmsC3phlbHPG2e9d6NY8VpTfSOPyk/nH5iao7v1/hT2EF1gIh4u
-8L2J/NofAm6RwASCKNx8vEziGXHn6w1RTmXwu/HHnNmRHOXRyID2F1rkHROI97jeFZ7KdasbYybz
-TWyVVltZN+CRWF7zTgc2MUSygOq5q5ppAcvitzZNCNBC6HtSfUKvbVVgQ8A2xcT/N1MIyR3rvXUD
-LlgeueWsRzfBz0pWd8yT5RPcfG+jRHMOdcNNM2Q1q72TWp+AWZOxkCzc1CY48EGLOORxXQFF3tNO
-xdrLxe6jVfGC3BpPiz/pZhAvoGoD0X8mKWLsWRTqWI7RoTWYre6rQX/abIATsnfamePGzazuy1mw
-JWjYqj2Faqbwc2POe5hHkl8mW/TGLhMSirmkFiJ6gfwldeyHsUo+WdpkciK91bqR5sincINe65/S
-mrvdtIiGfuzdgSIkNvLwaRW/VxgLOF8/nMBg2/7DEKjyE4rmn4kRGds8zLojYVS4fiQr+5TH2e/Y
-wQTja2qh47Gl3o61wwOs0NShR+aNNKfTsu1peYZUKLP3lGcz1zlt+EJrd1rUhTFkzsGsCLZCsI1j
-MRlVeULKnF07orOsLW/N8sTOXh21WgUvXtNU11Ht1L9DVVAveDZ4Ntz13GGys8mRUarrzUtAlEjG
-sgj02TZEJHBDsAJYTLtAaG7Uto5W9fnqMJRPxkOc2Xw9smz47za0uEiOu6hbOoBQZx18wyh+WZfa
-kRqn1CVdmwTqPo/xfxaqNbY4+3lm9EY5Z8JwnpyQRzVMWkYZpuTjoUqh2WTX1AcIefikan2ZRIjP
-vy1QA/JfNTUmbxfkB3tEP4SqoXR/igAzxZhO9WJnwpSEIJjpVN6eNa32FKol+mmMy1ALXqVhzMys
-Ca2bVZtnGX33Yi9zsPMcrRnidoJ67dm8PwGKcLeWMavV4qX245qKvK6bYZazOCKbdfZzW/FMFLre
-bKIwuCK1m9Rk0k1Yo5VovuUFMJu6Z92TCNJu+gLnRBoZGJ1r9+DFemVelpo3EHu75Gi7SfpLjJ7Z
-nd1m4InrtdPHzWFUEAmnK4wWp6lWxZV5FYiT7yO/PLFhU71GCzEgJX3tou674VAI2w7YqyAkNPPF
-egwCZIPKDVmV6PNwSXzyPopNFNnsJNZ5lceU7zGhY71bxXqNq3gelpiX0WvJ7AIA8Zg7b+iSleYh
-zks/2Htzbx84cvKIx0Z9hh+6XCVQ1z4jcch3HU8IqzO7neWAsnLw4YyUJnhv0Ri3cs1coZwmf8WR
-jjraCNl+Do3jvmThsPwqqCp/14XqKLcnZsHUVfbZAtZ4ZVGUXRQ61gWhMgkvw5r20sJnhXxQq/bS
-RcB1A3w42MWZl34pmz5+8Kjx1XYo8frkOkMGlMd8A8o8+pwYfv6zbmd+k7vGzaRr9MyyxtAwYIPW
-ArpQYlAJR+913vXfCc/fTXi8tYHywYQn7X7WVZe+CT5Dcq5l4P8yqHr/WNvEFiNpeCB/BH+H9j+4
-oT1a6sIJVjDRv6c8/j9M5pqCFA58qujL+YX/mvLY/2AB9OlnMP7UY4P/yKT6vvEWIkCEG8LUnN+m
-6eRvm5wMJpKcXE/vtdiUJSQh12K1WOaZVa+XbH3+s06fPqBv07oWuu/mWe+6qjln3dhN6Z4dXD07
-ayTHftHda68I2mM8U/l/fLz3fb71eMLjejFewULwrrMYZt7SoTEUZ79OvOdMby3WYrVzUTN/fKj3
-QywOxVfNSMDVIbtoCd5eS6I0UfTnljjneg+e+oyqMPmwNBF3xaq6sCf3czzxMuKl8/Gh/+IsuZMY
-IQYBUHiGOm8PPbX5OJuGFOfOpi1NlLFuwxNpjOcvZkP38cGs9+MjTpQ7kGgZNO60c96bHlRddCVM
-F3GeaoZ5bAGpSDZTZlIMj73P26KiDZdc4klmuzNLNsmsgTXbFjI1aWvY1d/16v98+h7zO7BfAVE4
-PqqAt6efWQn73DgS52ASnO4qTDYZp138P4+FnpPBK7cwN867GyrOgO0kAI6IwJroJwije/HhbN8P
-uqz++ELrG+aPzVwUBvTtYfq5vsmt9X7Sk1KN8/oZxHmMkt+vQmebhv3HB/mra8ciBLSSg7FKvbtr
-aWwLv7cLcSYltT5nwchmJtAgRIva+++mnZa+Ou9PyUHSayNz4RK+t8QHEZbfBS7TObNBAO7WAYoV
-GVTfqzo7aHN2RN7MQ6oHTnPSOycYic7p43P+izsYdTbLnqkfVV1kvL1hIhuhSuTl4qyC3r50yLYz
-Nq0ujRqj4w5l41Pu89ymVp8XCKu79eFFVZ9esIL83QT6r74BYpKQr+tvmhn42w+TFyH+77zh4cXf
-c7/Wqau5g51MuP/4xP/qUCiMiEBCT+r8ac6umoAttt8659Tl8oarq4WQSpb6QMv9Pz7Y23cLy7cO
-tTB9ciVQqvz59m2SHst02xiXET0CgPOE5H6rnIIqeRX5V9oK8fERrbdLsD4k+fMkhXqIg/iC3w/z
-m3wRNgPv8NKM6CTg9qDQ72Sn7qEhMSvtIr7XdTeQBPTO0hjvQMn04OwbFeU8ymHAS7pYXleQ11bP
-vNBNgfyG+X+X6rbMxx8Z99mbRwLFhwdWQUMGkXRgdHvPUq8ClQlVOuKyK8zyYC7JcqhTzzjEVpcP
-+KLLmZkimwVZo8XPmtnbW/yyO0lzZVXos/NE6MraG5Gv9LI4Zf+iMFx6m9ddrc0MI9lRGdKFcS22
-efiFqdLXTQ/ce3k0M35M6k6aj6RdIgW2MbTYWfut11Mr5MKA/TIuICj7bL7FY0kvEdlK+ASn0yCg
-K4xa62h1Lr+684H57Mow8fJtIdPI2cRo6MkYrFqOoRtUK7uwbQkn24hRgOikkYT3Kam5QxrBFoqe
-fU8yFyW3d7nO5ro+LunDS6tKLnNALy9MkdpvfgOP+JLAnfneCqhaDLs3cOygd0q/W3PIV+Yvjpfn
-m4n+0BMJwtx7fe4955hRmeOi4X6erbB7eRVReSON25I26c9miewjVrD2XnqkQeFcaLd+Ggt4jF04
-kvlKdGa5XbuPBhL6Mz0NZn4RbQpHCXVfMC58moWdXqwD8nV0vO5Qe4xG9P/xPNwj7F+e7JHWchPq
-dgCp45iulOxecpjh9sZzUBsuXYT4PYDD8DQ0M38LTz28xKjit5R62730XDcgBmzL1rdcxZsa+zEZ
-zrivEplpqRe21tn39UY18QSTiWpe/MtEFybrjH5tvptYYe5zpmkKm4FB23BtkLZpy12DdNt99r2c
-qzlnWUMUe43NEch05HuX61bSoL/VXXRiZERMuDQfxnH9vNzLnveiVyc8f7UZz4TYLoF1kxgMvnaz
-W9KSoaFP5wJLCO+bV4O+VTncyyNbvqcOfT4Sxp5QFIzBOBstne3d9z7ijrngvbxhpsb+vsHxf734
-BbnPVsoIF1Ki++xpQCJ6N0nEGCQD+RA7i31cFnwAOzv2xPdqHKvHYEnna8CTxa7tVG1t6AlYwcFK
-TXmZFvWIM0GPErpCgc6slnrYmV3kPYL9Twky8ZiLbchHnG8C1HrnUiREQ5R5GG5Tt6PRz9gD0foy
-P+bQdlGuJw0x46Z2LHNPQhUzu+qOllGAhD4aShoGsv8diAVcgu0PN8QDQDvDQAHpY8hZmbaL7upO
-ZoOyukfw8dUrctkd4DR4P9XiY6jvq+qKUaeMD1rIAZNhaNDsZ3V1MdZDfRNmowVsdOmS77GewOGF
-J+rLS9AbV3N0tsjSbi+CbvK+AbKH51s1y3cvnupLR5RYLdQklu9IkfM9hJAF1ezI1xgg9SHubKq+
-Z3ib+h2zZRwkpvQvdDGKIlUx89xpicG+pQbc4HovD3i1SYpJwPZVxJXdD7T8TshZmlMmQWLN7jD/
-iuJ62idGatxhQyu/pvlITOdcQfeuUgCbbfc/7J1bc5vIFoX/SirvUnEV8DBTdSzJVhI7zn2SeVER
-WxZICBAXgfTrz9eAHIEdT8adB+rU4WkmklvQdO/el7XX8umySFwrg4jSJtE9maMIO853iXq+iSMG
-sgfknylYghydR3T6JPACTEYW9SdaHLaOpcOpBrhnGYk3HxeXeLr2jD65vTkJfUjCjTm07VACOvMJ
-/REeSfE4hTWKVtFDtB9MtU2Uf45pVY3HuzA9zwXdfugpN4GVRl+dwNfgO1HL83Qw1yd5wH046IG+
-51RC/OaAeb8cGdsCWj2FN2qBQrgk/xC+A/IVQ5eWsagHCF5nblU2GGgrtkQqSjvTKM601Ru0W3Cw
-Nb0kh461zW6XiYJBig70mO5RFUJKPqOSlVjw9EztvDTpzfe9koRqtFWoIVOKO4wp/Uff5ioFsyrj
-Ze3BrWapw3ls5+acvlDNoHs4CcRoahmnFzUOD6SEYPSKsLYlcVSaUtaajHYkbnaxwdbPPXM7M0p4
-T2dV8SmOWbbjyIJmkUJcGHzTou0Sf86DNETVIy2CKcFLYewyV54d3+3jnSFKi3DABbTBTsOVUSzA
-pGwRdV8PzL9QEXZeJZ6TzgJarr2zsFz6+RktsN73dJe5K9KqU9NAh20Mn+I2/RocBvngI/yrkT6z
-Nc9+uyNbNh4F/nrqFcV2tgLgfY7UBtwQDvI9Z3CyFp93ZrL5QIniTgsOX0vNUK/XmUbiCpFnxBYc
-OFoMmrNul5m3vD34fvFxmVu8OXb8arolL4uO4hIWXujxfWiHtkFqvYawD172sgjiDQxk2HF4ddNl
-MUPpV3ljbKP91TZFL3wEFyKizpt1rp6NeAuIr5JP+EL7aglFrpoFV2WSGNd0uQbXW7q6Pmx8eztO
-IjW9MXaDYBpBKPEdaaTdG1hID2Tk5po/OkttHapID/REkR8KWge3AeYCyUGoG23jNXCF7/N4UHws
-suUaHF2uXEHbav69LkYISia0uXBWCuVnctjLtw5Js6ukhCt44BSIMHm7ZepqfhFDBg9MIaS54Y06
-UgbzMyNDv+RCxeTRfBjC0wSKUpuf+cbcKs89sICfRuuYrrdQP3yMfW9+qezzw/vMQ3fb2S2Lb3mQ
-bfOpkqaG/7r0y9Icw1gxgGN2Xtjrt6OSBPeF4+XpjCh3cLmyDtFnxU80ZzxY0wyKJIGlrMmL2sXb
-ghP+Tt1t06s8jncX9P7u3wCU3gST2PHmZO1VwgsP43aBKorqU1IWClzLnbV7v9R2Bewrq7mJ7g8m
-79u6zJDo2AfmZelrmFE6m+AW3yLrXkwgKsrnkF5E2lVm7Q/mGQgquD3twDIwiGqxiDT0V84dFK+o
-BZDfNYytNtWDEZ2vueV/SDfq9nOu7tMvNm280115gNNoVVIVsUYG5HikvSEPXlkTPS4snx6zg3cL
-QIdzKFMQRoIa1w/QQCVBvTsQp4QBKWy61+b+Nfiw8rOSFANINzLAFL6+1c/tgZ7QfROH5vk2teAJ
-izTfSS9y1u4dstTlX7GtZzeFCXFYMUJJ+Fyh0AupKiz1KBxGgQVZp03eHibaLUQEHmimmZXFd6ZX
-Lt+lK2AFZwc/zV7rRYlkfRRBjglVyXYPm0dCmyan8/UATsGppozm2cRZCmquw74sQRRFKGmZdFXY
-CJrBEjkwrN1XJJ8iYDXLw+qavLCloKYQBtehEwQw0NODCnBY563RNqEas01cBGX+pfS25dyo8br/
-z4X+Qy4UkDpx6c9ToRNeZuLfZC+iuxf0QeWb721ej/rvj7QegN4VYFQ2OLwjvr2h9bCsIdkVyLpF
-MFTBz++Toro9JFVK0ROcNEknC+6OY1KUj1AlIeZAAYuKnfbvaD0qlY4fWQoTcL0CUztobI0kxUgX
-T34Kyt5TKVGpECuzdRmNN8u7YDm4LvfwGkPDHhbhbOMrr3FRp848/6quKSzr6eRk8h4BxDudSLa6
-BcJYaIx5ZrS2OhmKiI6B2LaXygxaPPh7jK97mt/T3XoabqhqIGmsYCAnDsKFeCrzqxiR1AuQ5jDX
-ad+MnQY70CSMB8sr5TA48yMUOOhAjKER3AqNKMPcnYFvnQx2HKNKfEP8yZeIxaDUHqz/XqXaVPzn
-3sDw+PvP6SG68GEpTwfTvenMKL1B0wFq7hKPIoRbT8kioTsMgcVEWefjvR5+2dvoLbImZuXIPkNv
-8czQ9DfLvLCo0xzeczqQZBI8yDZGyVzZZ3qmp9N0fUlL/Xu6/XNoU/ByBk72fuR8U/XBNF0it5xy
-B5sVTAAjfUzOd7xBthjDiIMdTKg0jpN8/aEczD9BhSxoZzdT6rJ/EwwoF36Qv1umFsJh4fcDIiIU
-coGxF8HF6MBtFKhygOgMbzaloSDVC7vAXiluQmM5WWL1Lmk/RYRSQSdylPJjh3N/rV8vN6tlnb/4
-nzEuzYNM3MydVjLn7/NFsv+wSDmO0yNVpvj0XeSH2afoeV96eqBGYrU2VzcRQFFxB9S5W0UYOmRO
-Ntz9LVX3+9QIgZuhWXS7+OMlUugmiDdL9BNWl/7yRRCFkLNUHw8cGnGA4Y9E3q666h88maKfTcLT
-z1fP5tPfaT2Be7vxQbnW5rdNpaRodHa0bHZ1Tw9noTPGj1kwjCGtdiQKzc7jW9qQUgdpNpo8q4tU
-I7/Uo8eHEILWDamn160hxFMkE+mBqC4qIadrQFWdIYEb+WyjFn2qf7BHkyDg4LKToA05akmSa/Tf
-nD69TWkTpipdUzh3q6tvS4ASTb0sa/2uJ8zATzeAbgw1HAvRaFo/Y2cS0ORiI4AaRlfmuET6tQ9o
-L3vguv1rM6AMqddCLVjVUZkI3JHWUmCN4H9Rp/5hLHs2CyjGy+4EQxuy2XXLsES/IFfHHKDkTVsJ
-O8JmkfTr8ekx52bljKGBTrlDI5iKYRVXZw0AZ6CIxSqhVFldvTsRyOOJcq3ULNBkC88pG15vZqFj
-D0bOEBwFbbMQE1ZX79wC1N6ll4JoQqYBEbBg/ZCce6fmwDKHMD6MBCFD/XnvlgKUdYqsb6Rj9EDg
-WPTwPjoLNs6BSW8yR2e9IYhX+2UV6Heu70nifBRBOcTgPGX9kB2bqCqiK52q7Ki2vj3yjXgzjaGW
-e3xqMuyDzg4YcSAiK3sfHfTu6S0g8rK2UB2CHkNnAa3e6uq8e2KEWnxB693+V+kXl93/GnqDDk4R
-QJJHH9/mQISeGzhS84XerQENvMEvxsk/dZANawi9jw70qgkEOzuBCITDQLjQTYjUvxgJyyU7C5wF
-IwOCYoOW/Me2gq0zS6QSDMrB1dW7taAaFbuxnHNkDOHFUcgzNu+64yKqqsGRSJwAGqhvZyFgRq1+
-Kc8/DQwFF5l0QfOOHwYI1hDiBpLbJ2FUvzwC4IZC+FduFShDuGtEbqxxgTsWAb+In4Fq5d5x6tta
-INaX9gwIFokBqEaAgjvu+FMf2dHJLyqCXaf5vHfeIS/Jlj0jyaKSPHMgovhh905ngRwSqRV4xcki
-VVf/7IJqivqQ1I6gPKWPoE9RKk56npMBT2dBhM6A/IHFNnazd7NASCsIUmRnATAzFEIC4yqujrvo
-MEvA18kw/Ait+2UdNRK+sgETGXWbDBJcLI+fkbaJ06wIqv3m8/7ZBTwd2TQKmXXCJo1qbZM77ngK
-zIJmW+wJys7V1b8d4eDXy+4IBcE5HEbqvI9mEBwVf0JFp4LidnX1LplEBKFK2wUyBJDWiT6k+ik7
-KTULf8E2dfo76gy70rsdAT2e9BlhjEgsAnhAdrBe8V3raAzJX+qErfVp1KdEigBsSG4FwkgS56LC
-8Li7hIgLERZHMY0j1U/16PlJCGuyxwKOkk5pgZxqk0vpuAhVnclqJGt6lkbEPo2k3z+5JOqoYgbq
-5d95fsrtWErBP9hsj94dCFTZ9Pqmnh9AilVQ03o2prBzLAq60JGJLURZvpqm2vb2aC8wC05d/Xr+
-LBg6Eq30FkKIWq8FztlTd5k6G31SNM7SXlRd/bOIOiA2WYtIGK3ziLTJ3T9laxbIpVB70Gj47Klz
-AHCuyfw+fy3oJiADdj30rI/OAgGkbsAATWG2/ryHO4JOO8m1AAqBJjrB6tdYx86OgEFgCBcoy0Uo
-HfcsaIICvr6p568CkimUUuhSP6YJOs9PwZFCm4LNaFJO/XMRWcTS4QKOMvK6JJXqpf4ggCaoYhEo
-UK83JqF3a8HgFUnuBU4HOvkpLwul7upqnw5ITQzBIFB4FGTa/doL1Fuk06skk0BjmeQPmtC5Ey7Z
-Cpg0oDiO0pwb9bLrkY+ACvkDYch/i0gSCQRVAwpO92x1dTwli1nCVTRFA3J19W4WECWVngUDxJGG
-zDzMD/XVnQU8JbDyigCo9XMWwLgL/gipxCIpNWC4OErQitRX2yJQcIBTilItbL/V1bu1AA+soEqQ
-mgUdu6iANyBJef+Up/4idsF2qD8SSdaT1LszUswCC1hqFlgLcNnAdn08AzvWkbkZEqOQaWk2X5/s
-IhMgHUGqVNshDeI116uA4/Z0FRBHww4mcvA/Eq89OyNrgQy5VQAoQYUo3rIb699dBZWPIPLYTUWm
-d14zzo3AW8vNAl4ztC4ER43175wO5FPwlFBnwp882s1fXQu/sG3uO0LGnh/cVr0g/iJ9rGXkZ184
-dkE8/LzpgHh1+8dL0erR+qJoDal/e1E1qYj//7OFX6naFE4+PLYtVL/T/HnzgA9/uvVbx6c6/uPM
-XyRucuMhckkjyb65zbfuho6S/wTud3fjnrZosEc5i37cyR8vW/d58v7/YeB03RlXAF2lx01Q6Ajb
-A1eIevmB126YuunxFsVrrBHKsiOP3cC/i5KOqHjdCiI9Nkq4iXsbnd51jaCUHzkMFzeZf5NnrcEr
-iJ7s4JNF4BZusjgducYAS4/8az2f95vweav7nFn3b9ursEbvyd7/xSJCgL49co0Fkx15xoz7/umM
-qzpY4OM/1M1rz9nqr25dr7UAG9iW7A2/ggY8jPz2jqyxQNJDh7e+27EiNbJEeuSoaL+8GrYjO+yb
-h7apRj9ID8wA+c16f1wGldmri+myQ19GuZ8+mOa6RC079pXrhy3r0fRRyI8LVYIb3p5OR4PJlh86
-Td0b+B8WWdZa0zC+iTYg6fH9G89fuu2W0xocIj80Z0EaZa2V3RSY5cdOUdNNIVxu2aamGeJ3jB7l
-SXdoURmXHjoKs44NEZxyjvzIbxffE5Qz2rNd1zNlb/rtYue2z62mRCg/cPFi5m7i1PPbx3pTfPsd
-479eJOmiZalgQBI1rd8x+NWi9G9axxiDiyLJ7xj8G+rUx5Gq+KCuP0gPHSWZ92LsJhEnZXu51BiY
-3/MDE3fd3fs1SF92+GvPb8943RYqPew6wCNpRzV0nIpah/TQyWLZ7eqvygeyA79bhGG6D3ZuJ0xo
-IOCyw3/wotvFi1fpg7OtTvjKDv8xyn+yEJss4u/5gYcLsUnPyQ7/idlfpOmi5VI0pWL5sct2VKnX
-KTXZcT9nrndc0MKmNIgf2WG/LJINJ1trZPoSf4Mh/OIT2XSWd1N2kb3pp2VtJYO9vxZp9uLRm68r
-Z9I3/xRju+y9o5CG3m/rbdZZvKfv+rFM0z2TxsP805Eg5LE/ayfXxDdugoWb/PlfAAAA//8=</cx:binary>
+                <cx:binary>1H1rUxy3tvZfcfnz20Rq3Vq7dk5VumcGMAZsY5zEX7rGQPp+Vd9//XmaAQydic2uzam3IClPQY9G
+S3qktZ51kebfV8O/rtKbbf1myNLc/Otq+PVt2DTlv375xVyFN9nWHGTRVV2Y4q/m4KrIfin++iu6
+uvnlut72UR78YhPKf7kKt3VzM7z9n3/j04Kb4n1xtW2iIv/Y3tTjpxvTpo35wbO9j95sr7MoX0Wm
+qaOrhv769jQypmjr6O2bm7yJmvHzWN78+vbJu96++WX5WX/r900K0Zr2Gm2Zc8CkEg7hlNz+2G/f
+pEUe3D22tH3AlWKK2lTf/oj7vs+2Gdo/R6JbebbX1/WNMRjS7evjlk/kx4Pzt2+uijZv5nkLMIW/
+vr3Mo+bm+s1Fs21uzNs3kSm83Ru8Yh7E5cXtqH95OvP/8+/FHzAPi788Amc5aT979Ddsfku337bZ
+9n56XgAa+0BJyW3bVk8xceSBwwljNrF3mOj7TneYPEOS/ZA8NFwg8tv7V4nIl5s6K/LmfnL+e0Q4
+PyBK2PiPPUVE2QdS2lJLh+3dJc+QZD8iDw0XiHz5/CoRObvp37y7qc3N+IKgkAPKNNGC7ddgih9I
+5Qgo6bvNwu/73u2W58m0H57HbRcInb17lQidbqP85n6CXmDHiAPGocQEE7vZX6gyqQ9sKikniu+e
+L8D5qTj7cblrtoDkdP0qIfmtjqYif0nDwg9szWzboXeTvgCFUgp1xoWWQt5yAnq/IO7sy88F2g/L
+w0gWwPz29VUCM+/+P4s6uZ+dF9gu9oFm2uazbb/9WdoZcSDxRGDH7LaLvO/7uy77mUT7ofk+lgU2
+Z3++Smx+q5NtbrYgiy/GlPmBo7VDGL1TZc5TDjAzZaapECDTtz8LpvwcifZj873lApvfPr1KbLxt
+Gv1V1Hn0kjpNHdgClkZTvZt96KzHfgyl+kBSZSvK73jA/crY7ZznybQfn8dtFwh5v71KhFY36bbf
+1i9IBJg+IMRR0r4nAvBZHuOjxAGXjuSMYpPNP4vd8xyJ9qPzveUCm9XroAM/doUfa7cn7/xP4wD6
+QBAmFGdqt38WlkcDP+owyfR+orbw0P9ZrP0gLZo/GcnrcP8virYJ33jbukijFyVr7EATzLpN79yb
+BTAOgVnixAFp222cBSV4vlz7kVm2X2yiC+9VKjivSIt6e13cG4H/nrohkAZ2IAThd9RtaYCIOBBc
+zVvovtM7y/MMUfZD830QC1C81xlB2wCT6PoFSYHtHAgtBOVsp9PIAhMHlM1RjNvO3RsW0DxDoP3I
+PDRcALN5nYG02Tk4vRmiq5fcL/wAOg2BZb7zMclCr1EiDyhBPA2q7emGeZ40+4F53HaBzdnpK9Vk
+eX5z1URX7UsGOumBUIIKxsReNo14p2IOAgj2gqZ5xbOk2Q/Ok8YLdLzXGfA8vCnq4EX9HESaOWae
+6zs6sFRp7IBzkDgwggcetyNjO2vzDIH2g/PQcAHM4W+vctscX2/DF9RmyAwwRxNl33uXi+AApYhC
+C82UQxY75qeC7IfjrtkCjOPVqwTj7KbbvqTdh7PJhOSIOpMdJ/4bGhJoCOYoZ7dL/mZhfibPflDu
+x7FA5ezLq0TldGvM9ipszU3TmHsT/N8TZW4fIA4DDaXuSNdCgykEnwl8UaBz3+lOdT1bnv3gLJov
+MDp9pWoshbdZRC8JD9Jp0GLwU+4c/UWgxtEHlDuSCecuDIrnjw3M8TMk2g/Q95YLbI5fJ2s+zq+j
+7YuGAvQBwpuaO/cR5gVlRl0AKJnSyO3sbP/S1PxcoH9A5r7hEpizV6nYzm6+1VuTbO8X7gvoNPBl
+hJaZUnfOzLKKRh84FOxgzh/c/iyQeY5E+6H53nKBzdn6VWLzvmgj88LbhhxozD6R8r4C4GnoWVNE
+0KiDfOgdW1jkoJ8l0n50HjVdwPP+ldqbon/JbWOjnoZLRJ35g7PyOCmgGYLSAI6Su+eL2ObxT6TZ
+D8qu1QKP49eJx4ebPDdj2m1fNJnG55gycml3yoos42ZKHTjMcbRS3/n1Yw7wXKn24/O09QKnD68T
+p5OXTkY7iFxyGBRAcPtDFzoNZZ0OEjZI6ew8oAWX/rk8+7G5b7dA5eTiVRqbz9g9qEm9uXk5JsAE
+ajNh58mdZ0kWTAAcjXFmz6noB+Aeb51nibQfm0dNF/B8fp087QQT014l4wuio2aeZjtS3FXOLgID
+jgCDVqh3pne+6YKnPUei/eB8b7nA5uTPV7l1zuuboMhfDhmONCdzUAHA5E5hLdxOapMDVNZQghza
+fa+7sMDPJdmPyH27BR7nr7Om5nRbj+k2v76fm//ep5kTmtgsMCBPTYuSB4pQFBDeVwLAC32swZ4j
+yX5EvrdcYHL6OsOap9FVGAXbl9wlqEFD4Ewr586V+bv+QlRNIwSwvxjgORL9AzYPY1lic/wq9ddp
+NJv+onlJb2Y27RrJ5nvevORk/IBqZJpRebvYMc+R5Z9geRjGEpfXafPnBO3RNitNGL1k+RnMi3RQ
+NqvvE5qL0BmCzgLBGxvnCHa0bAHRs8XaD9Oi+QKqs6NXuoWMwXm0qCyj+/X8AlYHmWUbhYIP0eWF
+9UH4GVXpNqps7vjzIiQwn0d7hlD7YXrSeAHS6et0cXblW6tt8rKqDsUbDEXo2DMP7uXjwA2ibQc2
+I9CGchFMe648+wF62nqB0MUrZQk4ovaiaQKuDpA9E1SjCOD2Z6HrKMEe4oLaki3AOf25KPtxeWi4
+gOT086vUbL/fmObNlwiVGy8aVgOjxnFOAfJ2530uzt2glFMih4CSp++lno+Z9bPF2g/SovkCqt9f
+Z5L6PElRyPGix25Rp+kwjrD0bvcsg58aMQTUpRFyr/tgoR6j9ByJ9gP0veUCm/OTV7mNzor6/6Yk
+Gggx1NI8lHcs9pFCitpBdYeUd9m4BUd4vlz7cVq2X6B15r1itF6cKSjUo0mGIs67k9ELPjczBS7n
+04jfk3OPd9Nurn8u1Y+Qum+9xOl18oXzMHrJwjVMP86sgSx8T+U8ZnIokcYTGCX+/VzIY3x+Js1+
+XHatFnicv0436FOIOyjeHJuXjb5xVEHZjq3F3XEovYj0zA4rRY5hPqZ7+wOS9xiX50q1H5+nrRc4
+fTp+lfrt883wosdBKfQWczgO3ux4wjLagxpEHONFgu57quExQD8VZz8yd80WkHz+41VCctlsw/tl
++wKhA8w46goRxbljbovU2+2xdoU6D1suCMHP5NgPxa7VAonL1+nx/B84O6DJ1HY0bhfaKailAoMz
+hECpQNH0XgX2HIn24/K95QKbL7+9yl3y+xbB0DxoXjTdBlpGKc57Ov8QwLlNt+Gkwf29UNBuj7XX
+82Taj8/jtguEfn+lCEXmqshN9LKZHpy1xaU28o6XLXgz4qAK1kXgTMFDkOcJQM8R6R/w+d50Cc/r
+tPy/jwWuUQvuV/B/b2lQwg6dhQuf/uEqCJR6IllNcQCB3KF33/cuZf0Mgf4BmvuRLIH58/+PZvvn
+69Qe7pxbbZvt+vayukc3qv346e3YcYXeoumdAtoL327pH1/jQjtG5kNpD5fgzR/yRHU9KpP5W6ub
+rWl+fWs5IN8IbaPOHSep8GE94oH4syYHuPyDgWCgyvr2+NvbN/kc40CvOFCC4gSJ2p9ZY1IBhmHm
+E+F4xFF+Olc1KBwPxnlGhz/cEfihSEdUUTzMxt3vb/I2+1BEeWN+fYtTEm/flLv3zcMTOPyFpUdx
+5Jve6gYHdrW82n7CAsfb6f9TY82ssBf5sdUlhpaHnfKDuFv7Vt/bbpPBE3epVHb/vrHH0ctMNa6o
+GdihCnx1VGU8cn3hm2yNQCU9MxWXn4eEJGsZkXwVBNIIr6/ZOgvk8Ec2DFW1GplgWx3k9NguSeq1
+WvReFQZ8rXx13eZlc9wxExwKSLiSTlJ51E9Cb5qa9nDsCHGVZrxwJz2YjQirzEtzJ0ndeCz+4GXl
+bPPaZMftEEwbEslNa5RakaYjXhdHwTmtfecoH6P0sx2yLnI7w5vARX1V8UdI2+rQ7qzpnelSHa4C
+0L5vvqPK0B2yMq3crA6C06Iem8skbpz3QzyRT21f26s8VR+7lupTErNq5WRB8DUNTehqlnRHk2q7
+VRJVvuvHpD6slZ8f9RH3kpqNH4uyUMd1bucbaSWjO7UdPc+VfhfkyUoUQ/LBcnzLVb6duHTsnXUa
+mMJtk0pc1ITl677ixCMT5+91PJjj1kzWkW9N9B1PQutdavJyndjV5IVWPK1MTIrTSoYqXFeOZcVu
+37efaVTytU2Feh/4mTjkJc02dsUEPtVMH8vONqcqsnw3ae3PcsiGqzFp5dr0cej6KjEfp8THB40y
+3ci2GFZWOYyfeBSrb60/eGU+fiVZZA5pyeKjtgvsQ5gg/0vnRMUmjn157UQyGU/b0Y5PA5ElbuqU
+Q+gNQ5OtnSztVlHoOEdG1vWmkna0GlFHssaZedsNnCZ167HW35w67/8K+lFvJpIPjlf5Wb6eA7If
++dib9P0Yl5dhS+NLZyjGrYXaYObmkyCnVpF0J45FbLfICECOdFiuy8AxrrR9ZxVOifPOJzI/Z7Qr
+TtOeXoaDVTauxXh15LRF8nEoKuudk7Pu3M5qfcKrSA5umfK49iJqZeqotdpo3NQmmTpXtzxJvKkd
++ncymjZxbnfanYaabUJeOp5NqyB0q8LOjsbWib180iJwbd6S3EvtNluxfursVVwFamVoFrmDPWUf
+LEscaVElbtjm1Wkt7W2RVsp/X7F0CE9Kmv4uo1p9ygpx6ENLWccmarlvH6YNixPldrrP9dXExypa
+B/44nU/dYD6Y1nayK50zf3rP89bNnaa9FOXAPtROG9btOk3UZ+6beK3rlq6DNNfv+kLZmat9k46r
+MpTlp3Kwsrj3orELjkqukvrSTnueDCtBkrwJV7lUhXqXG+EYa5WJ2CbnUJSY96wrp40v41zW6yLw
+yZ9TWPWNR0orOKtGlanfiXDsql4bMdKP+aBb/zr2K+OJaNIu2I8bUm7xNWmLC6xckbiOztre1TWn
+iTd0aVS6pNHxN2X5o3Xk5B0pjkWR9pZbOG2brLq2TgLXH8KWn/ZBpr9kYym2CcWVpm5BRhoc07Ah
+nZtX/fAhbxS/HjlrkkPbH7rySI2VyledFenEbajv63UuEnQ5pUEt3Wwg9DMLpiLzEpMGsUv6MjqE
+7kOPTeL7qWtrk4WrLIhi5naRzotz5Yx2Ib2xrULWnCRpL8iqKDrLDdSggjUJc3k+dHLYCN7jV5J2
+sVsLzLEnqT9+TnvHPqmlZWo3KeqKeFOm+8MY6djTXPPqOIk09v0g/JVIUt54dsvUYUvt8DBXnXNY
+hHXyIbfT91OgqXJrKor3QyjCE78s1aboGx666Xwpgpt3UVmt2rylbhNL+52j6kNh5fG8V2Por0BG
+6zoomLUhKiIXKi3jtbTNRD3WC8uVVp6fqbAtPjmdkmeNrLo/Rezbo2szfTIyh7lpVdNVMvDgsKmb
+ybjT1KbEzcw0XlVj9Q02qj5DjlJueuVbXtRFxHFtUpGLYKL+ZiCxcyl4YD5ybvkwDnl6nAbKnBeN
+Y21SayTvupz4V5MtxYfRpyujZHAM1ekfZfioPxJFo5XJtPNnR6uhcBvfLo9iUQ0nalLTKRe24wbV
+kKzKfoy/hjaj70RVdGc8GDaNlXN3aMgUew0LaenGHePrePSnD1LH8TpM9KFJ8/JyUkVzPMquPaR1
+Ph2KLhOVG9O+9yZjdV6fFuE5rj4U8aoebOckYlDxGnckrcqa5W6P/i8GzYVr0yh0A9sPP5Rj0Hvd
+FCZrHuvgUGIAm9IkXerSnodQjRP/g7Gqhi0Uutx2jt2cUjXRm661i41oJrZOqE+PpKnY79aA/mxd
+BKuSmmATo5ZjXedNepaQvvrSYh+etnVTf5gDxO8dRXNvCvP4fRIO0WHFwu4sKcTkCTuVR+nUfa0c
+Hr0feRj+7hctOfN9qvEhRoIJZFPqtk5BvCJj5MwMYdZ4EXb+BxGr4VDbst46KvcqI5MVG6bmY23E
+kLk8c+Rxpo3+mMhwOqFxUnzrTVC55ZCRdTIW5Dgkwe9+nUuP5hkBeVDKtayRrSM7qR2XUOuPIffJ
+mtdBeSqiiJwwy0TpbP2r1WCxcsVpyGN3oM2lZbeNs2pNYIzL1bDWVl+4phuk9ipBlDdpZ4zcPLAb
+r8ocW0mXJJIG+DTSOxNzsKnrrlkVfiS29uCAU/AwnlxFYmiCuk50hl0lx1BdsDp2Api8IIuC8LOR
+Yxl9fHyH8RNmeFWUY4333V0g/fDr/3wuMvx/e6nx9z/O909//w0Vf7uLq3/4Lhzunz0Ts3zTzO8f
+Puv79ckzp364S3nB0ndXXf8Dhf/hwyf8/urxBdD33tNMgG2OooV/ZveLi6S+M/zbdnf8XsoDrRgD
+x5+JOW4fBVvfcXyU5c9hK5Tvo1IM98nN7PqO4iPizlB8jPt77u69uOP3FHWyzMYG0RRHADWumPtP
++D17Su/nHlHqDILPsLxQEW0v6H1K4zqnfSJuHOo3rV7bJS+tFPa0i6YvQrRlsuVWLcwmr0Yz8lVj
+DyIcPKvwybcgr3lueYU9JOqdDsXYrhJt5dVRr7PUnKYiK63RLZJBlN9E0sRDsbKkTGPmBUpxeqNA
+udpPaTiodOs4ovSvWMYqeQZTUJXMzWhkIAovRZ2dh5Q0PTyGVNRJ6Ra9yLL3FNYUIgdZRscTO2N5
+/JdlugJtHkG6xwlCfveRC4R0IcEdmRon/OdDSpgurIgnLhD4VBvK0Lnx+yKPq6Mm4yk/SnlnanU0
+maCJoH+jErcQpsSPbH/z4+4pAslP+59vRGe4phPuHAionp8/csGmmDlGEhldxzRhSeQ1BVwk+A/a
+tqp4Uw99UDerOmwCGFuLW1OZf+g5G43tUT7Jnr1rZJibxC2KitX0DEmgCs9+IiQidI+FVIhO4BCX
+lvATBa6emD3Sx0KqDMB3eVd+VaIQsfBKgkuSK9f3W61rj07Kgsj+qAJVbdK05XjWttpqjkvqO3g0
+9A2T1abt2UBspFIf9uQeAPnc+XcnFgeXsIs0gr+U2sjTA8mnwiVDYjI/LMqvZY1C0GrNTOLwU5uG
+bDxhph2rCuS0S6cvWTiMo3LBY/sq9Dpi9/JTUE2+dVRnPJ6+1FZr5Bn8knnhD7zLUn2YtCIrxlVh
+mO4Sd+yU6D6VdZxMX6ZUJn3ikjSdwYh0avkNbqXRIf7IoIOnLw583sZ3mYhHvJiJBLAYpTDMbKRq
+B7RKhiDCxoEnje61E1hj7zrFEOMjCmwKSB5Z+bzmmxIu0nYwMq/Kje5q2l1wVkzNe1gKv3bTNKvt
+zLPgyA1HAcei+TN3cp9/6UgHb2StnAD7p6vyAlvvx9OPEMZy9hXKV3DInyuJe7MXS4P5Yx5QXaZf
+J5qZOoBvQlRp3L6Ii/SYtVVv+PrHPc5a6wne8xFPmzqztoVaW/ZoamLCPmP9n2xq58XYtzyr85Vt
+VILlJ7tKyK9+zCYswh5G2gSnCkEMrNMfizFHgp7IAZ9E2goFpLgP3ObQ/k/X3cS6trK0zL5kPM8a
+5jZFK6ybogqrUZyEicnpuvZVEX3ojBNMvVuGogjWYMR2V7g4OdSnndvYQXWS+o68GFidOqNreiq7
+T2ClJAKPmIbiBIuIhG5MuA9XgvuS0vwdCQnWYdGFiBYd+3HSYIkkHe4wOZ+/AaAcXYYQw9Ad/njE
+FHHixyN2cI8GmTNe9u3Vc7B1T0ecSD/M+8qoy67NCZSzqGsbyrmb5nXLUePJj0LaI87jDolmeAma
+W41tyXJe0qyNe9u/8Ac5L2m7iqasPopKm2GFxtVkCN1UaVea6HASY4Jd5/fZbCvo6GTYnYpW2EY/
+HtJSd6C4keEGCmSWcAvybHCfjmgII8sOEQS7llYNhbAKpp0Oc3jDiJvXjZRfE0H8BtHsHymthdVR
+6JdrqC6kF21gtOy3bMdCFRZzroMR1lS6HSlT80cI/zwP3D6O2ug89/G9Io0bhgUg+cmwF0Cie4Vk
+8xz+43CYwQ6eDjsQXWSRIWTXlkpVxTzREym2oAhQ2cUUqfQssmhBT1lSje1FYgiZQheZpRST8uOJ
+WG4iImxkhnAaa67ExnchLABoECqMxyT3r3w95aI+LKoy88e15WdGj4ejU//cYPx98CgJl6jJwxn9
++TbMxSpGEMxP45HU11z24C+bkcqJJhtR9y10VeT4XH6tW8x65RqJFPFXeP5drdddVJCy/8lCoAuO
+puasJQ5xzhQEtz5hgy2g0FMM36uxvsF2wc4eDQ1CAiGiBUWIby5p+5hP3IsyM9qlO8Ddg1QiImF7
+kZUyHr3cgrN4obNwVoGVKGr7EzzW3Hz7MUxLnYv8HoHWRaUvrnLDblnY2Lb3nZpU0/BtgIuHRUDa
+hGCyyNAz+O+IZHXWRWkn1bxpmr6YX6IyaP/TyaJQ1HMFGLK9nPG/mXqnsk0zGll8y1OEFywvBi+D
+Zu1G0kDnMl+A0ZoAQZxtFoscSqYuM4QtjhwrRoTbrULwyJnTjiFa5dGUdid8SEqEZH48XUtNqXCB
+KpLVNr4swgbCUi6Y98D6vNT5xL4Z35azemtMmbYfqqmJytzrEbKAcJbKOjwrxmqmGE4yjdZFX5b+
+sdF1GgdeNk1kPMnCKofeyzWRIBitIFb6CZ58MGUeoiMzi7CteJyNwgQOAjsQ+T1U748H9HSbCixS
+iW+JIfjqBdgXiruXn65SONQVnAOrOwtNMnO9KeuxMUoj8vbjaDktx7U7P9KP+/rD9ae7OrG59vJp
+f2oYShQEkPYMJmJmmkMQVoiYFUkkCrc2OCn3n/UH/jJXQKHQEylQfnvS4DHBZb0Ps9pF8ZkfB1jK
+eQIFYa9Ukiq2zk2lMOQfd2gvKLUDxetgt4JOgzqg7mexQiqWZ1OBSPCl04QMpK4pg9nyNRZrZ854
+SyBxbAVh742P4DOgB0mfuWxdVljfVkjhF9FBzH8qqgRX1KQ6Vvwo6tPZAFdjX8gzvxrwrihks20d
+g0yaTWIpxJ1Lp0aixRuxTLH0fjK0hXHD0DTFRaj4mifMKIeZeQpeMyBgmrbFeMmCbqbITV2B00zp
+FBVXDXESO3fHpqimL8rO522ZWQUFExhklgbjesokbYKNZlbbX8I41piOXsUMK5x1E2hsHlka3Ib3
+aYlHpgVfP4rsssdOaKAI0WHU+AS/wWmlmIos4JiKplGh1XgibWPs/VDbMX7bzc/Mwecbfp6/gJHs
+kyjYgoEXiHRp8jcLS/uJy1FW1ucuQ7C72uysqh06Q5d4cNXDIP+JzrEXXGbukuNImk3gD6GWb+nJ
+kriA5SoH9dm0FCukGXEVG0JvU4P54XHJC7H2e6sYkORI2YgJTzs/h6aE3scs9fWQNh+UNI4fb/yG
+O2ChYILdpxolnnA9MguMsxlyeEh3sAVVn2Mqh9TJQdJA32Y4gmSYgbDiiOJFj7HuPpEiKyCJSBI4
+RYlsZsf/x7PN9cKMYvCz9wF2itsRoXyXhApWyFgBGcbPYYiMlO82bcJKz++JH59Je+L1uK7CWpaO
+q21bI4VV11VUvSNpywbhllCy1kkdZBY/9bNQMa/qiyG4IlFKjnq/5XKVqLxIr3mcTjVyKjLD97lN
+NO3PeUfJMK2cONei9CqYLdNu+l443VldhT6CxTIjGX3PSE31Ks9rTb14aNrad4vBqabYDfOu5oMX
+DEmHzdBNdT+m7mCJmMcbbdOWX8i0GXngkYG2fXtY6j6kPsyGHzTHTahgEDw1pf00IU6ApVgeD8no
+t25lylhuOq0CthKZNUyfe1nY0ZeWp4G/YryxqTeCFhejK4PG6JWO7D7xApEGR7h0r1lVBemnE1/n
+hBzSnob2JrCME5J1mRQZvxxFFyTWpS7IMHwemoE1p5ZpcusTXBXVXotayhpB7S7IC7csChqaj3qY
+0uTQjxAu2kwFd7LC1UnB7NBT9WQq5xvNYie/Du2y6IYVlspY3ei26XviIflhaHzU+HklEHdNiEjl
+oZ9ZiTxDcsJKksNOlrZJw5sQabkGszxQ5tT8dGJFhyU90dqU4UfkwRtJ1nnOkcM4brUfhen7XAxJ
+FazjLmj67n0v/CCKNj7P+lZ88nObVccy5mHgbLBWJEvcspsI/MnUOFGv3cDismpWoV9P8XjcB8YK
+o8M+yuDmeInuORRsV0at+KOwWinMMRZHb/lez+Av07O2hLuv3QZZjkGep7ZSeGl2f7SiKMUz1FRz
+dDcVhlffprbSdvculnUZ2Ed0sCylvDEWSasOhzymWeoK3s0OGRFWhOEETMCobAd/RILMi0WI5OL5
+2Jd9qT7EvhX36UYlzLLL46QdtdOdy5iJSLuV1nM4R9WNCJMvyPgju3zCeWowU9ZYQWWfQmtXoTix
+mF+r9D2NqoimH+K4jx1/3cdQBMG6iFDMX3tQWbNIY2elxF6TIByjakXKJK6dVd4QS+R/2IGdo78s
+TrW+bAOnqrwa9BszazttBAviURnOHwL54Su7VaVn34CHBqP3ypDmTG7isJ9njKVNgpfChA2MeaZm
+lc+7JnCUp/umwAKYcnhVh42uM7yv3A01bMSE6ati3OqhYEuMj97SkM6EgEYzPLTkoS1+p+kwz3PO
+dYzgnNVaNaCw8sQJ+U1VIZJWbeoogovv9Q4dVeVFTihaCwjytmq/NHHeRjnmywqn4nDOwtDh1InV
+LHIEpMvpQmJloQeGR9U33xrmBSZrfMNi906MFv6W6myemq6jeCtMrFP1kKFDYRnGeDeeukZy5xsi
+mCH+JoaykBeJ4L5mHu81/E63VCHFXNytHn8yGh+pYmsenN+Mt5PRYtXU3l1wRYtJzL8xI5JTRqLa
+uribamv39vtJ3r0PDoqdnCq7zCAAza2w+5ZEsozqwyhnIwZd2RO+RhPJKhYgLQjeHxTaFTugiqlr
+sNRA+Ns6OM6pHn3h0iTsRnmOrG6BWersLMVb7BKufe3Bu/KRV0/IOEdbggz3tmCPqoBU3/RuBosS
+Owh6bTem0I4QHPTKIpc9nTPvs1NAdtDulof0kxTzI3mEFmuh0nnww5yUqTYBreduQh5K/HEsKqLC
+y8mKeNu8w0jZPL27hTS1yN8i8GOz+VNoVBu0Qzklw+oyTTiLvptQa+on/FKkrOBqbREBGno8obZm
+KA+D2ZEm6z5qC+xpfctSS9MD36hTdvWNyiDH8kFOPZsHX3eIspwbJAfmD7S7+YV3gYOXNCfzdsgm
+McuftzII+8s2DdIg2uSBg8UeVowG7Cgxo6LNCdutlSg2ulGHd1Ou466GOEPEEnwILECBzuMySmDn
+kSKdJLkEc4udblVWVpNHHjGBj85FHOLLfFZNWiKkksJPgacImML2WBXBvJ1b2Ff8LRlbGTubBGRx
+GN8xbdKhOGp4QTLU/GieZp3rmwDRCqppi/eHTWXwAtIo0rOsavHveOuiCNJTeKgVkiPpWZc0Pph8
+X8fonYZB0X2RuY9qhTUKIOa132uo8ngzsMqGhnHqMG1ReJPBxGbrwcp9bY6Fhqka/iRyiKFvgrQo
+kuToLj4fN2lYx5s2TBFovRq5wZdzHZVxiOk4ZLd7piqcFBNm/D7xpy8sdJBFv6xYH/byqNkNfdCB
+wRSxcpgSjCgJeiPWciIUWq6p+Tx9FN4RJhNu8rzEd2EbxyQ9ZoC29jzeJopsvNRY4HNcIEIExnKj
+dEI4C18PkuTaRax8lNkpK/+XvS9rjhvH1vxFvMGdxCuXTCm1WLJkt+wXhGWXSQIEAYIECPDXz0fJ
+d27ZHVMd8zoxERWu7nJmcjs4OOdbDiONT+Q+OsBTm5kFjfw7ur9H2ajpCeoSTePrjs47fmN/7/gp
+8GCAFXOWcsA0NOLAXIUAaDfV6whEPLsRBwm7VWu6DWA1Ol6Ct2+SnHrseYtHpmEnQKrHzTNDcmDU
+sSk5yA02Th2+jgk1uMovG8ozGlw2umg93JOEHdiINNju7gpOk3yF0mcWnraOssD3p3xT2bg0wMzR
+41UF2If8a9olEVpIbIbk6FyDdMdV5ZM4tg2R0SPcdKwjBN/7nWSrBACWDOGQ2Mu2Z4IWj3w3W/Ck
+UUwD9djVTPKvyLdogYNN7bgDDBK7I4zUFCD5/2paxwH1KiprIuSmvubE93P0mroxH+/zfFaentJY
+Lmvwcxsi5miLHS0Zs2oZAbsFdTlGhQYpkG58fQ67mXVdTTOf9O7jVqC2mX8QO9g5/rLQEpj4WXNj
+BamDeF/45z01MYRyBruDA8ocRRI1ZVFkxEQGUS4YiWuL/xgUtio2UH3Qb71fyfuznBUDLlVj7rU/
+Lust3YyjPfIf8d2RTVD9H4t3WMTxiekNNKQM+rGwyqIwwCd8548P0gSwuGgBGR+Q6jBShaXcoVqk
+9/vqI9UyLNRjVRJx/M2vkEVNiUxEoKzEX73DcEc6DbpaO6gWiyqKdVg+mL7owLtv4QTQLvU7JfH1
+Nk/HKu+C/eChFrT8+Be0H8gW8x4ivtMQsOc94JLjzIEo4Ku/DpRpgi1tRqgET+8d2zSwveAVm5RJ
+H/l7wuLvDNcMESeiIRjnAxFZdK7TFOodMUta9XNugiczZArXvG6gRe1liLujjOtTh2MUdjxOy7wt
+OMjRsI9ASwmtGkqZ+OBtm2lzR0wWdI/5UGX9MgnR9gxCGHp6vyGAn46kxzEIC7+bLlHAbqA9GYuy
+/ef26o+GHgA18gMiOEZyy6N/Q7P6FdAlYLL4qZcyx1kXXeewGjaJNDsH6bGCRgvEv4dsaT7O/Z8P
+f4CLfyN8jsPjFZLwUB/vX8Hx/wAftXEy2KDIgbzlLTUykI84C/QBWEn/fKg/sGGsphCYE44FrgR/
+5gcu9Tc2doPktKQoJf87RkLupKxnRdP0A0YpHdFN8v54qGZgeMIy1Ske2a/k+M/n8icGBnUt/jm8
+x9AXIM7/gMapTWLwhqx7wnAGpLEhi456fFkguGp3idL5P93nfz/gIQeGgqGEhgbP+k+Qr9dhNIqQ
+fpzdhI2i49jxrwvPkeZ+rex/vsDoQPH+58FmeInbYQWFNhjuRMxl/ZNBcyNLOyiI8o+/MsbW7wdb
+7PPEZ9nJpUtpT0zRXT+aLfGsEWY68nmikRqCZU+xH/2HM/o90nFGaKWOAb5JQTJI7v9E4z0Jg63w
+yfxxfF9UG+o6rHFnOEVeH0o74BH0qTnQQQJZJs5gDvrjRJhKZrPXdkZnf8pEIrOwckgtvkaqn/Fx
+rA8a3Q8+QT8JWfQbjK7e0+w/X8TvywVwIgFNf7xoHXqUFADcH/Db5nc36D3jV8UUaJ7VhRBF8jXX
+vP+PEfPvhwIqXALnhlYdPdGfK1PQWHjT5d3V+85pMzTzuOx4hnDrPz2a3wFT/DoUGphXHh8eFbxN
+9k/adwrXnjKnyPeQAVX9FQVxzo/KRifi6H620k6iDkWq46Iq9AhGuBpROS1Q3k2u+MS2EGv2n+/2
+L4nI38IYkBtuwduk9INWw+DB35NGGIJXL4Z+Oes9DvsFanh3cIkGg4eM/LnsE+ioWi4dIEpSCbqj
+6arWrFsjcYNND9KgrpZcAUC5jVO08OGDoFnXySuPLTaT99QNPHK+pjHA/i/LPAt0E5rF6TS3YjQ7
+FGahDPNFNKXOgFjdJi6SSf5A3vUYPEdNn3ygk4B08Y53vSWQ8hibDxGgBQYJyRXq9WIQzRgwhRD5
+tc8XAb7WV/x9d0ahC+Vtlb9lg/eKnb/dza0XMTIgOqxjN91sHKAulHGJcnuKDW43KpXcFPfJMh5A
+fvBeIihQG3huoSqjfaj4sopor6ZFk2loclWMzFT/jRzM2H366lc98FaIQBmx4f7uc3nshcVsAdCg
+ROd53KpS4pCCozi3lxBs89DVoxOY83QGLD6y8VOC6pEk97lfSaquWR4GR0+9WA240r+3M2TzC8T8
+PTcC6CWAjAJgfcX6tZS0DozstlBUM4YaZ/EDmYkqtrabYa6enzNP7C6fAdsfdBxKqTDO7+W6AIt/
+HhRA265BnIMMPPV6jiJWiwi120+PDm4pL1nutvhrlDm/lvdAn6h6nAhhPG7ZtAQhGkrMt3ZrDRcJ
+mLB2kh7PttmgBte+CgM0+LZGhRNlEBemnm63nCzrslcgk7YBTSkpNXQtQx8u5zQc1+01DwX3fUNT
+1K1TJYpJ6JcJAEZgqvJdMvGrkp3BZnX5bSmQ/thp6sc8NihG38oV4MdHueWn9cjd76ExvhVVUzFy
+dD6agM9WldVhLiKQN50scBox53G18cCSZ+RCWT6piQTjSQxZl1V9121PmR+gdfXDRs9DapOrIUz2
+a6GdvQIgID8WkLzXjmT9fTGsYwjo1epniqC+SrtMLhVWX//KtBpfunCQjSMRhJXlmKxn9IxAZuIp
+uylV+FVyLMdpU/ltvg2qKSBJxdMNA32C2hRCXTmYDzsb17BFcbu2pQ+TERGbi++9Mk9xlKobnQbd
+jbDL2mYLkFzQyN2VlYY0PdnKR7hIZrByavgxLDNtxl51lU+nqckomS/lHouTpxNUPJPKUvx06ac6
+ZVNx2vCT1yXamlftpDmDtaQ/ZsLHM3fRuFeesOzUw9nxpFJA3NUIpGOBRUF2nza3l9/GYMrQERvx
+DBn40IbxGl7SkPRDJYMguU2Bdp30umC0ISvoIzC4AWqDNSE/IjAmaAsiFX20MeuHk/JT0EaLWD8u
+NkXfjlTQLN6ZS7Joz6tMbGVNC0L78mWwMfHXILvN9yVOWdRKo1Z0C4PofWWTrPyrXLNCNAEN9EUQ
+yMmaNFrZo7MJR7sh5E22rNFc07KX30K2qFuH0VQ3Sx4dEUqzQwPT2e3iUBXehQW31wCRg8vAkz5u
+SmS/HxBMQw6972XUo/tUwZdNzdtfcxC4Oh6i/duyMBlDEaYga9z3BZHbj2qsoHfQplH7xt0lN93c
+VWGkhnsfFUjE6ExquyVjcoHLdVQX7WZ9ipWJb7JRuAqA6eds899DQ+l9GmH52MWsDRC6cKg6J2zR
+ZF4mbVqs073qU/3FK4fSJoQ8qVtg6oGGjdfF0GWqCkySfoOySFZJPE5niX4bQnaxPrpo4o9L71de
+83XtPs29n1+0UyKuZmdcTSOtWMVwflDMlICusPBcv9epK7cHEi/9CGOJZd+YUHsFrkR8xstgII5W
+NnokwOKvVazL2uiQXtJhSr8tZe5uGWBzC/Q+NTgoXStqghmNnelu8zKQQzVGnHzTAWrqpkSZw6qM
+LfNDvuX8hESf5zUZ9uJqjSTE6FJAm7f1cIPICVYz46IzUzb/phP6aUO7+WmfxV6eZ5X6is2i+8vj
+hpz7tTCmRTXln1ZNMlrpdAbxybu1Cntrr3PC1XlGORfBFLGQT2RayWviVPLMNJWvdrf7XwYB3thC
+xncphGFnCLHjZnbz+oQyLaiybbK3AZw6X/dQTudkhHWinoDK3vc+TLGXOWSkkA0lYJWM51cF+I1a
+LRM788zoT1BmJDh/G1+icEpOLE+WL4C35gcy9foq8iN5EkLvN93C5tYVSLnoJsVwP6XhetEm3R6m
+hepnXZbpd5jGkBzi2cM64AUWD6ChD1Gymhuni+162FwiAX+U05nmIm3QZUL5CfSAXO+BpreU9vpx
+j8v+Uwna/Mu8l+szNvwOxjBd3O1RsEKBkA+nkdDsFkRxlNSrIGNT7n5KEO96Ou1dIB84kOyHzkk1
+11D2hSe9sfmLWk0Kb0y277eapOYGMgOOJlvI5y7ZoVbvO+HapODlVQTqrIaVJ/1Q2i4BwK2DHwGN
+oSC59Vm6D6T2wqEnaAoDZLi85Vlii7UNpebjWo1E0dstUN0DwIrxPkj99Hlc9Td8pwNeOkSfYcQw
+DTMFu3eEQTyVqWi4EKniryagZqvHfgvvINU0n4bY2vncx2OS1qSPipuUSl2eSCjgWxJ9qRrQoele
+WdDGTUl2UVRsX4mtREKnexmANr/xwVzgXufhturbmVjwJZHT0XY9pbP4kLg0eCwmMqg6d7qXbU+U
+/si6wYoWzKnvb8TA5dAEesqgZ4LNITgXdln2j76ctOnPR+kRNgSuklFy3DW5dfzC0drqsY4KVC51
+Jgy1dwAd2FInJuqet2KXvpbhmN9CbAO3yhahRLxZ0c+un7MBTZRGHtFqzXIUTt0EWeiVXfPiksUu
+nNjznnga28q7OSTmEiPZhddlCmD9PI9+0k1vl8w8kaDj8PfF3Uh0pQPajbwOUuKehgSqxyru0/FR
++ijYzxv6NVaHxRyHtxvciFMdw2xU3MHms28N5C17IwEQXVi8DjWm2fPLGni3sA+jD3Kyw+wkptCJ
+BnCH4IfKVsWZ+LCuKSvXxucsH2Pg1IvEeijBEtYm8rFo08iMPewlIDkrMQEtrffVzVOVCA/+pDCM
+X01Dmsm227Ltjg9AGxvmBneVdHhlFdylYV8AWWI6uuadVmD1TFbAcbSBRM7XeL0PMuKKWjCaLlWR
+8gSIFqCvz5EK9A972HASrXx8lpJGSdvZPjZxjRKuD2QNihtS4q0q+vyjD1JZoDAz8IOMNTLpig/I
+MBjwjlQkobnM216Nqsq6OXKk5aKIYNNUsZNZdhcFNjefwIkKesVgmfnWWft13/vuU9errx1RGavQ
+JoinDRKJlpZUn0NsHiGSRK7BIhX7zejj8V4ngznZXpNazWpXVQGRlaqEyMSTnsa80Tr38NwMKfKr
+XcX3taP7qZAj2LDO0TsQdWVYR27Z5mbHZpM+kKVPngoIQHUzWEAmiAcEDHQ6w/Yjkoo/qnlaynYp
+iu52kZN8MvOydi28uZZeA3zt4LwRjlwLyeYmnubxxGeaQXgTRi1Ze3nDaRbcxdylN7EC9ye7BRww
+QVvUxDHFO0xMYc67i2P4aQpswk1I7Ly0KsrlPfTfG6TneqMVWbbQ1TPvWJ3mi1UViQT8YRKCdnO9
+5Li41gMrftop3iZMQR/PZwaaqtFYlFu1e67vsctj84dZdWwGhvoCp0A/YtcZTqYgeQ3Tcv8Z9uLo
+KwAsd4L2hZxlSMSpUAV7COD7ra3I+5dwEp9GBiVvh8btVMSUfZFbvMoqS6T8koRUX0ycUFdR7VhZ
+D8AYL1TFuOguBFA8OFujCU8+MLQlF7tFw3feJ8VXTrvohUfJdmtBgDaZmuV1AuT1MzDsmB85zakq
+YeF8l1OaoG5FcjyCMP2e8qNJ95M4dm0XL6/SlsHQjvkAPhGYrMyvp2waZL3owa2gbHYJzK3YGEx7
+I/IIXHsDy+5GtcSvfd+vvIpHnEPFxqIva47frYEiISZ6eCivRW7iokELb0eNWot3F6Hk+i+Frq2v
+uUqS8Cs23k1XJCg3exWsPG9WxYKrYc7iTwf9fop2y001+EB9yDLHXo0tFbYHdJ4naSCcrSTNklsw
+YPpGeWgzKri4Yn3rFqNeeby6oV6A1tlqsKP7vq4eawWLEn2aUQADf1iQP7DqMmvbidnkAqy3g/Jo
+cDuK+SKzf2FYt6UnUfTrTerRv1UBypG1GekcZG0wCyj2wt1mn9dlHL8Uyjr4PJOlGcNgDu/NVkRP
+IKlKAnENargqX7d+PG8oqi7IftPWurnvGUo5gtITYohA3if9FgW1oYeS2oswg99OWeiDIexAENVp
+L3qWcnvqoHyYieA14yjSdHu0sbamcPbGqKmTie4v02Im/iGW0bbAZbtQjpRGcrmrWkemG/0ZXmg2
+pR9yk9Cy4tE8JN9GyP6DqbZB6Rg9gXfiLrzjvcwlqdFtu1RVZu/FYuoCG27mmx40UAnrHrSYqW8m
+66ngN76kgHTqxaABUw+jBWqVVA4iTWJO2qh5eOk6nsJVuGGpgI2ASyiZdGXdLPP11KFWm65NbwLx
+c5kXZzP4Jflw2LxnUFZPNIxBYZwV9Ebr1GifBiF7YEZxPIc0gOrIMDhRAKVbiFRx+X+JgBQh7uPC
+Jt8Q1bvsJdNZ3D+9Y56BOnD7dSQHwhhH1KkbTO84GHDQ7gedgHW4Fz+6lIYuP0Ovu2O9zdFChi9G
+bX3QwzENAC5AZ0vZlmOLQDpeP5segEJ5u6KgdPchI6FPa9MtZubnHSQRnha2PCbZa1KayYomG1fj
+p5vE4PL2apAQKyw1tCOJoE/Jmqkhb3MYDYbkEhozewk5z7CixkHv0M0npUqGfByssuEQ89zF0ESh
+dFcEGdOTAUVUmZ6HtRDeK4CZFoDkUEOZZODSbrvJpcPYqg3CFQLsYJLl7Y7Sr8RUiDGnIJMsJcpU
+UToTjG3we5KeQZ+Jz6o046cAIpW1iiVMcVVqsHZaiDbEj3DiqLKgXYWjuJX5ghELVkPu4ao9nsHh
+7bnxbxrZCxk6+wA9qr0CnDrcypAmNY9zc8ci70WrEgHNkyXgU1UwPjHituJ6RglXVLDDehhtp41P
+Z72GEAO6Um0TpPWW/1B7SDlSaypolWMfNc2a7P7jMgSbQ4EQjC0qUHSIlKksO+s8XUVDReleg506
+r+Bg3uboY8kHnjUbRvB/13hzgq4WZtEaTHtg0Y1oFvUtygm9XJk+4/ZHF7gDcUFFHcMMy/vuBP+Y
+pcFJmKiExiWeyVTTMJWyTX24XEWLLL6MdkwBWGLuQydrAIpDhg618Ms93K2haeIwM+sLFARQH0AK
+CrFaDWnEDEu6iWLIcwBu3XfovGGHnVGH3znwVq7aEl60Bc/HS3BMkVhgnIE0GhI1JaCAiL1ZmnLK
+CJidYO3PUB3jwRSuC6oEErWrGRMwWG0AmL3u4P0RG5Q8miCUuM5dnfJIuQePh92khJakZZAo/BVA
+AwTwkKnuNkAaXr6iudz6x4IJfVRdSTxcoYLJLzotsuEVKTLx58Sm7KPcEnoHtWH3o9MR7ny57Q6q
+L2qAjOz7gCELQ7hhoENmHjY9wlasYK8DyVoIiWxaCJjNeEY+RoAPi4YwuV1HAC2GZoPE5F9bksLf
+mPElvZpSxqDy09nTTDt5WuMpfMn1ElWkgJyv1+MOh9Wy+wruBX8PrydmUMRmsbBkwKy9VGSwxF53
+uYbIa5l2qCo7ujmcLhkPhQG6YczAKHx8AtECujJMYHhsOptg0AoqHwoUZlUFVHpJt8woCia/3CVG
+mdsujmzZhFkHiz30BOp5c8UK8e464SpBqhdfU92XXSVQgH+Yg6PiXTBZcKpQU8NwnHNKoOrg89A3
+2NAZBEyASx5g/I9hms+VyltuoVNrEkznaPfZ4TtdBlUa1BdCNTZRP7eln9qYLq7e1sx/KZAt7I1b
+J62acbblxyXTq8HhsmxGQzAABRKxvEtGGt+UPeZDQG1Dvah0RMlNEPTxqx8HfsH8jOUBkjdWQ0oV
+f4Om3UyQVhfE10O2YGxGsaWDbwwM9Es16nKlremHckT+1cl4w6LYZ6c137LPAe2VuwdyxROAAVL4
+alQi+oKBCZ2vBPQM9xJCjbAttsyjKSAxXGkzDTPRioj1zzxzequxb6KqQ33e9Imey+O+5R+2ZAMM
+ncSS3pejSF5miBW6yprxS7II+aJXKSuMVwP2CGEi9EadRciP+ksXbGGH2soFdYDK404biPMX4C5f
+p84E15phUTd64MWH1azysmaYXIOOnN8CFyiuAhqWn4EYDwXCoMtfVQzfvUvD5aPVPr7mePNIXDNb
+bke1FgooUCZAPMWyYDxKggkQzQ7vua7EQNx5ymI7foSLd2g0wK1GI9TTek4y06J8iW4mL3tI7Lbo
+pafevRC6RpVaTAjjU8ZbUY70J9S5YZNm6fqpRLl/jlIavUoIuV9CfCWrAocbB8vWCzyT5Z0DV35W
+dsWqK8036HzXB2VCT6tylWGEdbA/kC7AhAsdpeKM/UBPaDOWpCkLaDzw7dttjvW/GMCOpnRoVGbM
+Mtor10fyc1CO6RPrk1TUKVD9a6UmTKCoIFjkSfLdG6D/uuUKeJB+xQbFhW1AJcOF+oKOVgr1UaeL
+TLMPK8MUEdcueAkhJD56hi8bXLvzTMzgGsDbyQ+phyLFn7cYXru4SWTo1v46NL1g+zX00Bj7Qwe3
+Zd+zKZX8islSrGlNUx2uQVNaDN/QSF4cohBwbZAZMBINedhAvxbtKBvL0A+15rkO3bXxDihmlccu
+O6XptJVf82lakVRmxUc3Io9lfYiRDnYC3d8EPu866EJSSJWg6kUZD3GSh0cbiwZqcAx78LZX8q9w
+DnyxNOB2oXdrF7V53kPqMnQcohvV0UOLjRicQYN0rNvD+dEm5YoWZkgcJux8luVGLWvAZ5bo+2C4
+HRy7Z0wuRjbLhjdtRW2oErPMrwbzbCJf4VfU4OtNpijJql31yAxX9BhOQWog1seVpHkXkhEDTpwt
+5n+ZoNvjrBpoyfF3kJQXubsJ1gUN8w3zCx3z2oWkLOzpn+m53wldsIYQLISgDg+/G7wdh+H/74Q+
+oLJyDSG2/0tIdXhA7bskI8kwKipFe9qnBgoqG7oAfoGBgaL7DyfwO6l+nAB4bVjcMH4PLCFIod9P
+YMg8PKTdUPzg7ycg3oUSgpMRERdI8GLvTOmv+WgP78zj+5yvv89T+Pt4hf+Xpzn8Nq7u79McMEMf
+N/d/mzT+bVgbzNfTX9/X4btZ//1rv6Y5YDBDcfDnOR4VipDysOv/mthWJHibTAYkOynKFG/GzqEd
++TXOATP8Dp4d7wLEjDcCXw/OA7TtMbENrz8lEPxi6FT2pnMg0f/NRIf0LV7/xjUf03QS8uY3hhMv
+hNnj93DKYg+bvhzslYTtuolhyWz7fSJ1tq4vPuevZYgRQArO8HZCx1Vzli+Vc55fyoirOlzL59KW
+/BJAIH3nzHhrywPdCvL7eNaYshMGU1UwC4T2KBvRjOynNBFhM3eweIB1JCdFgqEmuSF1QeJHRW3Y
+YGNA25+WvI1mlPRdhGOCYLA1iyYcE1N4GsaXF0xWezbZIJHqZIxuhr3mgQqbEa4kdJw7MB5b6Gtl
+9UtU9qreM5sAjc2CFgK8z9hhP8ID9Go1Dp9n6mWUw0/Zreglwb3XmLP3GPXlUsUTrgcuGMDJen7J
+IwZpvS4wHifA5WHsHShDtNuNDTB7TZfXkJ+sLV1wayyhbbcKGFkY/xnzwFV5jlspS7004YwfhTM5
+qTCs6RMuAbchLK8x3mxpqManLMYaAbtNg7YHiIQJA7G8YqlWJwldbZPPOf6Wp49badb2+CZL0WUP
+BM0pJg5NFYRyC4aHgV3M1mh/7OT4SPCi3nZccMgRW/NNls44/S2JWzPjhBKF0Tfh3n2CRAeIUWHK
+hsjpp59meTUnGjgk9bzZuI+7iozddzoGmMykyTPeWLW2yTSqeglR/x4b3CldyxISXhvXmpHlGSAi
+B86dg+MIxv2Ezmm/2krcveSYt7NlxTWGiT2/Bckw+7Lx6bw0qkAcRD55FBjwVqM5AucY2Trm+API
+xaMdcFId4+l1Emhyihg6DgnC4FKQNW6tOqJoxWfRVd0PS8ThPVnitrA9q3OKyWp7jMAyo1C1yLJ7
+xPNPR1D+xdAZVOM2vEIPg2e/4/8xmrkKQw+mZltL9FFW4jsCd2mJVNnAHbPfgSYltV70y9vzFh2K
+ZzsirKDT209dj5DBToFHP6MwN3k5XsKo+4lFjqjO8dmyR3SWBUJFHmuhm1f/aYSztMpLNPARTgQr
+r6ys4sM9IOVrvITv2e948tuMdQLfP71sUGnf9QVWBymWlwIgdp1DXIYFh2AqsRrfbsaksCi2AB9V
+XLxCRBq3FCj7ZYyhCE4pgnbkC734iUQfUVirGiY4IPba2zpZlYIMNY5bzWXYCJ3iloYW59D1yw3m
+rrlzl8fRbTJTzBlY97jloMfgB0zAC7EJ3aRElE34S7dN/K6MsVDRMYDls/2IWUrd2IZYJxg4Njza
+Prt/W14J2/erEApkVK8jPDqydIdWV1ahwONOe8IvXR9OZxcmvAVUiGXIS1m/PdtA4PIDOt3mUK4j
+hSAEJoBamA+Ge/MW5ZBh7iepNKZlYWZaC/8COUEZMjbo3lX9FgBHhGOJPw7pDh7PI40R9GttupP9
+6u0xr9CRYR0gjBwQwdayiH5TQxZcZT0udQ9wLPTRGKRIEmQvNKaQa+ERRPxnB28zyHSsnjDAahZw
+GNXxFNFLqM10i6Fm7j5z2bnc2GvQDb4KoKq9pTzmLeSYQ232MLjqMqxTuWfRrS96cipyBNkER/Jt
+APyo3iekL/THePszkkO0T8Ca0jPpR0gZMHvrlkabrdMlyetiDRMg9tlSwQ+trzd49ppiQtfoBhFe
+hTJLIErtkBS7CMltw6MLCk7O1MSPPWaKnvdo8me1Ipmo1No6m3HZcE4MmKQRYRUVSl5hYhX+KNBn
+vOWmmLi4fVu0AMIt5owEz/jt/gHDe8JGZ+lj7Jk/55gzWGUr4EHONgTT7BSUqmDGuERL0c/hdOvy
+1N2bgv/EYALcGo8V8Havc5Lxhgv8JDg/ckqnHDPL3Lo0AV7OgiFzGaAJDFh5iKNdNIC+xnNJ559z
+gf8sDGux6FUFjYG7pME4nCBp/15C0NDCHQ9t1Vx8FjKVLQ/6h2Az95izxqpkK7uLHxwG8QXjMkYN
+IChIPPgm4V13QW4aGFYx++GwGsDmneYtKaMFAvhds9eYYeBlpBjJasB3z1kHcmApN8XuPFC9ywDb
+YVkB0weADHw+Ne1RuVe9HNYHuPtz2lV5hPlzJw1Ek9WeQ1ziPNFLu6e9iqAYxHBJRc03QHjyx0Ls
+93QIpam6xPGf5ZwEe44sgf6uRvrfrtCayxPwX0cUiDqMc1AMlKJgqQ2aDltRA6MuvSOb3DHrLpm2
+5Z7DiFpcYwbgIq5g3FmDFw/JR92bzo63tCfJWmk9Rnk9eyAJ95nNYw8Dy0SDjxNk+pe+yJ//Vor9
+qln/Pov2KIP/qGvSHFLsPC8O/emfYteRQLcOb4O5KgbvIaTrfw4cm0sylc9GywRhhVWXDoj0fz7u
+76ZZFG0FdL7g+yDEKkO87/SPeor4NPZkVeYq2t6SHdZgMvAf0xbwyin+85+P9nsz8Otoh4Q6TuEK
+xsj636u3fYNXcNgnczV6BMhRCRBOgxa2yvD9uv5/E/AfRjbD3RKiZv8/dwG/vZfxbyPd3r/330Ob
+y/+CHhlO4jjByANMYP6fNoBgnjMaa1hG8HD/e2Iz/uevej8J/wu9QYEJblDxQYCflf+LvfNYrhvp
+tvQT4Qa8mR5veEgeOpGaIEiKgjcJZMI9/f2g+m+3RKrJrh73oCqiIlTKA5dmr7W+/W/2+5yk330X
+M5UdshUfBvt+W3f4Ib+fXxMP/SuD2bgv0mo6eRFroGa2uO+mgu2MI2N9JwXO8IVJaD5dGHyw9qKj
+4HzBjDfeT6FCPEI8ZSNYUYHIEUDHqllmoTlcNwm7Ag897WmqM0rNlLMTReA38UZFaa4215YhpxMB
+Yn3HryRVPcbgMi47EstvXupbaikSeLYNq0rLAcByb+Y6BNvIcGAlBJH6a82urXjE82CHh8oZNEqU
+JasZP9MpFyH8gWcLUMYGVgsrvtKs/ajG1Fi4sa2VNd8JFJHm1ggnBW53QBBbjBotP39gLImAfQae
+Zj7oHYHddaGigQUV+rHzFOvBiDsp6JGSj5W0Mt9a9IWo+2theiomwOD30SV1s9jfVNloRDd9pLsb
+Pc8KYS+SCPL1xqTWy8oZ65azhyrLn4yMOPAeBxh15dYVuov7hfQInlhUDexXrRetjH/YjsZ/UI+F
+y4bNXYgyeimmMbrqvLFaV/qUI8LAt5t1BeE/AgaW2hpS37DuSwGB1Z1Wkv+aN+XNq5OK7tLzU71d
+ZjqxvNy1jPOUMK33Ydg9NpwVfOosBUvxyWh9VkZOJw2l32WXu+JIwHUjbFFfizgzeWFqj0CKQtbV
+xiA8Q5gc7rPamat7OPm8vIyXFAtxMKB0vGnlkN74rRwIAw9ihUET4ypR2L1kBn9Kndl8BJ9olXhN
+uaf+Kg92mO+I6Oc3cZ5m546qMTteLfKWcKO2mtG7B8wA+yEY77wSjR0JNWhfnMoIb4os9laDZSW4
+MdxijdumOHp63lLNogAYT0l+X3WclYRmxFu8ScGry54MkTds0uuO1BXWCMMh9V2P+mUw+gCLZGpo
+hzJ2+b9GvdTPBMCp8QnAE1jr7lKtNp9cN6qjpWlnr4npGg+uz0dloxJswjy09xE1ReSiodg3Vv8W
+hq3/PCHwr4MaJNCiiyP5jFK7TqcEo1fc24us7o+dHTtXbMzzDbgKqyBbH5JqYsu6rwLDPYWVZzwN
+hN3QFEocCiZWBTy+OXaiMVgqu2rhN1TRFWDcapehhh77eBwuc3KD7GFr51wTdb5UXZ0+ijJOn3ii
++XYYlHVU1ZTvVFnWl9lk5691JDnDhU3kHZLGmq6FI7uLQgowy0ltkJ+sfe9mTCVBVeygTCvWkJx8
+slXnYNLdGRHOZ58PDRDy2k/wD7uRdaV81V50uEm+Da2OqEqGVed00iUnGWfiTmWqv00Stz5YWVSu
+tSEJnip7TB+azpVH6XBgIkvhpbBqvMncGGCLEPuCcF+TK9xKCHkr1FF/04jO+el0jdgCnRu/DSlW
+hijQ9mVWF3vphKccp94qVLFObMwZ1kYZ7c2gPo7YBOcN5aLObAVPHoq9lZX5To+GYVE6dbUyUIO2
+TYK71oz1ATOLK15qnMxHXfQY42wqtW5p9+e0csRljBd3x6bEOpMEHx9VlUyvTmh0Z25IeIU/Tn2b
+vNFYdnaP+b6V4FyLId31YMC3tZ26CDawwu8JPOdbHjtfi9aLTeBl9Q9Lc+V2ghBIeSbUqfe7g70Q
+RQOCw+hKwnnF6C5Ts4sXfuuYP6fZXrOAAKR4lcdqBRfirgYYcYrD4pr6e3BpVmb0ONvut0S0BRHW
+UesWFJ71k5tk+imQWXCpVYV5HoeOuoPRjsEFUIZ8G+TDVS4UFliDD/WgVGSvJjsgaBv2ctiTPYgO
+NaSaVeSzBeNmlCclJDKZxVRT5uVRo5RzMIVt3LojoWuKTNANWuGOr3HaDw0X7UMYVm2a7gh+ihc0
+rDVA5uzAWhKsQ1GZ31PVJfu8dfKtsJPkzmjS9ibypHdpSqRITYmZCMxW9L4tVXA5ON506tpae65B
+B7OiGf1NnlT4Jvh6vIuy78cfo1ZBx8oi4ezK0ukPWlR027A1usuO5M3BzOHu+4kQDz3i1/XgjCGF
+jG7aUvmOz6xs9ZMbqOrFl6X3c0wy8LsuJEGwnNEPHMLpmm1cQEa+3vSQw4+42ZyVB8UUdiq/kzRE
+q1Em4Ri00Nu8e8bmaOTLzsRCvHQnLT3ksS0eQiKR64rj1t53iiTEPMaRuiTxv2HLL77BbHTdNdaI
+4sWKIn9bCpxYikjrsfNLbZEjpuwBAO4CleGCwhLHepLbAJmlrQdXqV+0p8wY5Rq9pTqISpOnUGp4
+4OyM83qO1ULrSvUNmg9mvjroOEzYCNaL1urVuY5aZH8tGN90S+UKgn3Cch1wj495LzUoK477JJKK
+qSfTKhvSgpaW86Rdu5yQwnAN5wd8eVZal4lO1wNcDeMq8/PRmAs0/taT1a93ok+spRngKS6MuFpS
+yvOfMx1Nmezts43l76RFpXPrR7ikwaxYFz0iNNPgaF7jKtTJ3ZWn+QEeRG4ZW2wKy24kQRKkwjwp
+0OP7yOTs0MRldV2Rv7/3fNnhwSVnIARcfA3UPJYw11r7LotjniHRUpGv9yM50TNle/tVogTLhSHr
+CWmyC24NJ63B5bbmBi+DceeEaWwvC622r7NQzDa4bgjOeVR6257ei8tety4w5fU89sLWT0I3TtJ2
+hwNVLx8UgCbeYpWYNBYY+2AXSuHtPEI4yzZvsSCHY3tdT3l9nY212KWxae4GhAsqo4m27HuqGiSv
+G+8bewHzbrCCFAufY3k//UJTT0XlOxtqRI+OyIEJpMHZMps25fp0yb6j99udyZQXLVL0sUNfNxq2
+PLOlamC7sGk8TUyvSd0UJGhx+uISBd9fsbyNmR/xatotMmLmXIfsTTdGwmKt3AxgDZVCD2ck1uOU
+GoutLq1IiVUrmodSh/Tb9Z3NkX/S7S3rXbnpbKj7OdL1RkOv35lV7l/hfxxYFbzkiQ2a28ISoo4k
+xnCn6jRcRvDSTcIJjZHtMbcYS97s/Lqv6i5eNvaQOiC0K7avXTty4M/6G/QtBPnJ6veuPpZXMhM9
+34nlNrwcAbIMZ821bWfmNtOZVtBw2EzjvRxQ1E29v+30PLrXqWDckyfxN+SI4fE5oRBXdSaD45S5
+7FYiJ9yDPVXFIqIPCJFcaPvdwsfqmKiumVZDZKWHVAY4LJLOSHCxRQH1FWFG7ZtVpPjWs0VGGNrH
+q4dPKCRItxqk3xycPBZnAP7Wybab8TIQUPCxHkZLGYnhAI1zWlOIiR4n1z+mtF+J3KRfKRN3OXFR
+rtI+FLDrvyeebS6I1Oe0yHADtmSF+0jF3dwTAKf42ccWUAwN+6Q1PTfx+JJ42tmvsewEceeu8oko
+RSsSgOyy7Le6pdHCxMmXA0eEY5IbxRpa3T2Pxdqo0cdp3eLPtnI2NxRjrjBfWKfWsZ+MFnfp0OEd
+iDLqJZjMm2Vd5NyYmcGS02ph4VsW/GfPLikUCmtDrWGDdjce/KS7ijmqP1i4VbMl7TyI+blls5l9
+GdTtMP+GmbJW+KLlokJp9vwB+yaNFJ5GzRy2aYLTDfr9FuO7dzW4cbasXeqaJa/fs9Z6azS68K6Q
+rburMS9glG71U1zkyaqLenuJoZplDv7lPqk9fzO2ciIAEDrErBRc10pGl8AGWdnBxl3R5CJfpX6+
+TiZZcE6oG7kk0tYufju1/l8UTIjQmI5FWhXJyfU5H/55MIxDG1sFjt19CkaILdzghYdm8pmlHZW5
+5JdL8UqByi9ZsvXsi6rJ+zrGPLgLvIDwJ13FjODd4FNS4hee6mRvDFXzOhFFvqiTPL7ysyC7+fw6
+7Q8HYM4zhG2N+fSLK+DdUDCFUjzVBUPVpijXfCOQDEpaIb19Ps47ELfzC8BpoxRz6Cd2/SHkDm92
+tJvMi/aqDsdNDDpq7yrKnnlJ1Q7kXhZcdEEMlne0i+faizhR91MUX2FHmQ/XYcyv+/wnva+JAR0w
+ySMbHnRCzrTvmWYKtS6WnDL2eBNRLYoGi1Tac4K2kY6NFRSl5nVQHc+Z1kaHX2P///rRF/UjIwAB
+8Ntj+qAin56Tklfrf1eO/vN//NYOwHLJdc9oR0TfgPf5fwRk4790aoy8aIbBE52bgf2Pfuz9F1lz
+jxhxoJvgKHTodv+jH1tIy4A5dE+nYmizIv2behJDvKuy0iAL6q2NEQba/Pu89sjbZslRm3ZVuB7h
+N49gp65+uxt/mZc+DsHHA8+XChg/mcZ1f85LYa9yjYV12nWz3Xzy2dogmbnc0v9Vs/t/GGX+Fb9x
+GpowGDA5MYpXfm+179XwJp0vmIJfXci7icdLKrusOoZQ09nTz2OyEtPL51dh6L+m6T/q3j7FPcL6
+zKWebRjmu9vV5lpNplk0O3i2zWvlETNaY3BE++wZ2gFAdYPuhsyUq/BgtbraDK01rN2U9BwnuX7L
+Hq15MOPJMpbJxP6ukd7ZdIrOIcYz9BdBQ96rCtEDLEnk0OjC8BbJYq6BIZzcsZsbEJ28lIRl5y19
+KPoFqajU99t1XhlEbXHmcZ7koK1RvVhBD42x/EMYz4QCbZg01dFtVLqPcR4ddX9yn2h+VRqL2Blj
+hFbNPaKAj0vkr3ZNZa47yqhQwyIbZL6aKBdcqKCY7hPJf8Z1jM/NE6+uWXiHMCnYlmuioxfPVGxt
+s71gkybvh3JESA+VsdWUl68rq0n3dqET9FeGvWkzH0loqI2Tr2dgdy1cDIM5dDeWx2JsQyG68HA/
+rqvJp7tQN7bGiVgE3wP9cZZRpeJzmHb9ayCL8Uz1RuG6DgkBeSiFWy2Z3vrSDR/J/TbAKIJ8uifp
+6Fj4poy3phngMDr0lPupCXvuZEZm+CEwQb9tBlfa5w6TwNKbb7BjG6dqdNj2FxIp0h0dd1UAxLrA
+X43yktgRyB2n9Oolv4/DpCO9pcpT7RL60RvRInvRj1L9SKfh3p7MtwDyJBUlJ1raSkseJcfTvT4K
+bkkDcGhb9vbbxHGL5li9mEgR6QRW85qH4IQT1nSdv6+gyx1USpJZRHLbh2Su4pKX944FXb9ONVH0
+teU0xla1eHj73ORgReuzFai6ZtPD6d1Cy54IAlNOWwYhOCZ/GPV0OeVobA77tt1kuAxgTihKIpXb
+vvCx0Tlpd5tVk7qVdcgfboKWF8NPHM5PI6JxHuJasXx7gZFfrbsgIE8YcDuJ3hshknZtzm5o71KS
+OUv3qekWG4zKRFoHOIQhSdbQuLFVGJ3HGS4Hcy/DPNwnzpVJYxR8aRFUS7sJX0LPsQLeEi28NPuA
+iD+VSE8tbIP+Z2kY2lfUd83VTDNakgWxD2PdiAuhecaNUUxzALV2r0PN0rbwJS3KN0V00dvOQ1iI
+6Qx0tu2Xg9PpeKWFa+5FQylBqSEnHZLE4YvEhLMI6r6SCwuQ4JbEoP/TTjP/J6k9uWy1tj82yA0v
+Ma6lNWcpG4cyJOO11koKEFUw34+QlMTKmIYfOPy4k3QhwhUU1TqOcmNEyw3MizyK7Dt9yCZQZz7V
+P0BpxpYuSvTp6u3+0ceY/r0MnfisF0LfdQltmla2IjODAoEPp0BCezXgNBxEoYpLqFw9uV1KQaWK
+gqvBmKy7PJBUkHGlUuIThnMkOThe44rEUlE3/nWaNOXzGDv9uRnH4XoAp3A5UCW6MAZvPLUicI7E
+gMqtIRzSEKN0b+vR8ldyGqedoISETq2bDCCMefLKzVCem0nn9DI7+70FpRJnRcav2nRhr/+0E1cS
+SaVl1q3AoPPDmVz89R2TUKYVgDpCw1kNiM5E2+t2KwldFqu25vjPqmKvIXfQlaF3ZzgrMYu7ySyQ
+bNFG+TudEM9wGnjh0vTK6cCvje5Mo5oOYzaKI83sxmXuhIlYpi6gvYUDamvP7t3ZVGnqrjw7CvZO
+G2A4d4cKL1CkbZuYQAsXQKpq6eOh2LBLwGYwNs1ea/ScyxD+CAQaoRDDOPkeU8+DZUdHH1y31TTg
+efLpRpc34qUXUjKNddk5J9G9jVPKoZJZ4HuSBNMafxVZbDNFvCGzsDEj3zniYSi3fZXkPopyWj+3
+WWW8SK9scVUHCW7gQOUPYzv0V4GhZ4dff9wsXee2IMa+H4eI+PnkeP1VP6XDVetTb8JfVo10HOPJ
+8xyppxtR0XAqZ0iOYchTbovWTONHRCPokfoLqaX2mzer/Z0T80cBSmlrqsjjqawJ7pltZN7Y5RA+
+kQKrHrqkKAB3qnLrOFPIKcvQF6mmF8ueOCuMXJUd3Eo9o1DIvc/RiZAyvLgVriZ9RxcKirBj010G
+EnvvooyxlzVGkJzcbOhIW8ooWIzkJnYVtS9z4deGtW9Mq4MG4HfFIW2NAZWEZJJa0bJlQnqv+cH6
+4E67IOHYRURSf5RtN+FBaXl0FP6SpVMT2PZ68nI4ZRXDJhkeIBANFLUahe/NE9odmZ6+5xjHo/et
+ybioPKvZq9yKfwRI04csT93bonGdY2hUAeYdrGemIHXK16/5W3ajzZ5ITPbQB0mwLUvh3gbC1daO
+TebTl7LcRhkOj2Ze7NoAm4eWUmXpXU9D5MMoUwUtBj+sVtcWKapnoxD5uqx5wd3Qzg4Tb/SS3Ltc
+U8Uq31LW8D1HZKSKzJ0eeJGia9isEVZrFdyWadEtXbsNtkmDUoZ1zH2UbEglzCwzvMh7fPrLlgT2
+1oRsei1lNp0nTe/eOvwF94VXhyR50W5WsxHqn+eUySH8Oer82MG2+o1u18alk+S4UMKMScbKxkNK
+p8y15gzJE1FhH6JBN2w0XTnfLDXa37AN2t9Spx4v524am1jEGmSRRKNrqR3vvDCsTiTfm5sqJlpm
+NmWx1jJruPx116VDV8YK+/iVmekbvSwpv1NJOzpNZdC1k7olsABClbyIm8Gp9KMnCFCUQSr3xSit
+dS0KZKlGt/mIiTsQ8xzzq9Cfm0kCxciWv95lcBXTOdBs1BlOKMfJT4ZLry3DdYGje2nYsqPvA0DQ
+K4wkxR7VzsW8H3ZbSOe4wP2ExVCfbB7/JKYTkYHpZAhcbhHMQ0ol2MGZAg3jJtaSlyZDT2JSGOnB
+G5ZX4CynVVI5CioJAtkDLE/HoU1qn64nNbYbdIvgggMnQbrMS68sBNaNskzK96pwjinxnGvD67V1
+2NTDlfBalm4vLuXWozCHO5NMfYYBpQkTmDIxXTSGvNsHv9ipBKvrUy/z0liW0LXvVDWUG3KBFFwR
+aNqjYZvySkSY4BqF6yiK8+k09kZ9oIjVbyzToAGZyErtrtVhByz9omPHTGhnkXdMG3rU8mkSlsNk
+2c4kGb/DwiVw1m+lUeYPuuJ1goXBtjpIjBc9sseTXeBltPtef4GEbKrFkFA+1mxMdnHLh5kYjnlA
+qZrOFAq8g9vb49qXY7OnTSfZYhxnNZJP4HYDKbmKma5srekMs4dvXrOgAZD2coc7WxPQK8CldBeE
+wdNlyB+9xtxa0vVpEuEOzjX5vJl2Q4jKRbEEXsQVXXnxQLFrJt4ATSIQqJLi1hwyeqVCH4dKGWtb
+JDbZAJcdze9jOc4xwFLcWp1FzSRLtGMUdteqpgdWZdMBq0+1N19Ib2PY5SNlfgqGtKW84DKoyeoV
+M6cDb2/j+02/xshqbsMwIWjGvgSOgtOoZU7Kf80OMT7UYDKXxBuvzZqq9y86DvSx13ZyrogWWxtz
+6GdkkiH2fuxRvp2Su74CTtL4WoRAI7bcCADPuo3MFBYNlTT/USuJ3MuUeDSUScA5SPaEbCwSDbov
+0QId2hfnHnSZ/4BzFJ1mmLFLMm8k1ss4oiUSIqSbYBVeVBZ9Nacpjb9HqnN22T8EHTUgB/jTnwQd
+klXHOHXr6xK58REKAuZmcyyeWq1Wr3UHh5DqM8BMGhZne9WN08Gk4+vWzmO102LiRThbhX1t+4Rf
+0shtbusowe9YKG+kvXGDf21C1xm8ZlZn43ib0wJm04mMI7meJ4coNUbilVK8BM1UHI1As3ZTNqOH
+V30VWX298RW4mGNbvrC9R0t2S/9kQEnXl43pVOcOAqNGBFP11+E0Vns5xsEcam830qfYbhZ0PF5k
+WB8I5TQ8xdUQOi82ehStQuNpvPqF4ymx8W1oYNw8kVohOTkYsXk5+oF8yvLYO2QQYr6RtNFDvA3K
+etDnFdI1Ctrrxn68G8pSHQlv2dRQW/kN8KezG6ToD7kTdcdeG7NX4A6oJcR8Zp6JDK87ry5+FK1H
+r25aNf0O6TEy074AeYXRQuOATeIFiWyZtLjqRk3a91bpQfEMHeTVpOtiqB3jW9Z5/qNZeUhSweQv
+owhjr9PmKTEq4mLs8SaWQuLTaqG0oV+5Y8NMlubpDiANmC08ajxeVtvDyKliVcXWtOhhRkQtMlCb
+FHfUtR+HUtLgill+QeEGinkwcig26m+NlVqg63Elg6DyhCLMG8htRaOwuyorqgs55SbecwLr7OdB
+10bguDPCs9rOajH77jguudrbKHNV4+XFe4IF+UFq5Pw4d/pbTjH9wtSS8D63NHnBophfs1VMn0HC
+VvepyMRjrerBIxNN+wsCNyLJtl3lEDrK8INzmJLl2baMvly2VTJ8zxqaPCwUiJdDZ6q3qPd7VCTf
+uMDDTAKZne1rWev0IA7ngJGWXU5VlxMhtbR8KzPY5j08pYusI/28CEQtL23Tjy5TNkM4gvK0XYNJ
+E6cmwovQAq274fv/IUs4CIo1LVgoj/7mVignAC6tugb/wLkjyuOHoWktFi7PQNwvwnNLTOvF0urv
+dtr2kF6H20mZrY2JFlqDVvawhASmX1lrFtq5ym/9wKN1dByL5sbBRoKaTfMTN1b6Zuo6tXB443ea
+X9nbOHa9CzNzRyaXRnn7uAg4m6Zm9OKMWGxLZkIYDVq08SN6a3DUYT2JguJ7WHg62argmz3Y/VGv
+DXPL3/IfsJCd2D+83G+uukqOL9EUdhtaofjYfkClnIJg6rdd43HHKh/iUZQik2sBN8UKvW+43u27
+pKsAkKmED7YJ0K9K9lQjqPGNozlb+gib15xBHpiQs6uhntyDAAUEaFa66zovw+cqyKZl3vT+Dj8o
+HTCGED+xA8RlYTbsbpGrxZJcaHlT0uKSHa52Loo5We2PxTlMNPfaE3gxQK+Yl0bcWT+NqCyXVdqD
+IFBJdAjLWF2VzhBf5E7m3NoIDWW0BL+L8JiiTYe0v9vSvihdE5qoV4BZ9DMRXjr/9rVCRcqq7dhZ
+OUH7CJLq3Fg4CDpIcbm6i9SESoRJ9GBF1biVffM9Dkpvl0YxKxYbwQMTqbYrgDFcsJXzDr1dRJdt
+JDL2v2QglEy7BEmxfrFEWj+1viRlT3PmOHupiDzoR6NW4ZG8W7qiWtLzsrXmnTLBFy7B6zvBZZJD
+8ydLJMSwsJqqdjaiHCaOZtBTLsuxye/KAgmtgPW3jZOWdsiUsO7oZv02DGhb+sRWpSGEgcelf4Ub
+USDi0ZuRTRWHJNGNC5qNpWRHAmPNcWKnmWZ64Pt3HhHlHoqIvTGQomjHrjCnI4cPRi1RK/xG4ZJO
+adfm2Pc7NbjPHkeQIZ0unEY/s4fCLIJfYqkp33glk9ofafdirV0BL4qm680VGcBdRzD3Z+xaDuqq
+Zp7bIfgpBlt7QIts703Ta+KV01YC31wzhPiZ6fkNQq7a6sGg1mYiwITLCFmzpALweSF0rqX+WQWl
+gyfaDnzPwJibIf9ZznUH7BhwJppdb1O/6zSKcUld8U6KLefxYvv5aB8qu/S90z16FOk+SCTcnH+O
+5g3OwD7Ja3ZjNZO9Wv6VFN6wzqM6X/37oTCREgpzTMdh6vtzKL11a8qPBhdGZvtuSG2WjLQzTrqE
+c/T5UH8mHfEWc1WGSW7NtmGRkk/7cyjYG/qIC6LZlU2pLiBpZTsCBmw5eXlnik+xrTpers8H/dut
+NA3LsKjDOTM9+M9BnSQ0TDhw7W7MuIsm5MWF21Cy40xqf3F9f6KZ/7k+Pmh0MA9EMc2N/xyKFiWA
+i2Av7YoxtsJFTusSJjc/3WcmFc2c8sd1PRpUEPMpPql8GL4Yf34r3r+jpgXhNZjlVvN9eyUM8nWs
+Z1G7w15BAb7kAl3R339+P99LfvNDtOCh+GT70IreS36DwXIhSazvJNlhagYxu4jIs8LL3CSGNY0m
+2SYVDOuqYZP8+dB/e38s03VMfOkQMGcV7HdJJXDswcAj08xFkhEngCPxhsyFYA/0qIBTwA5sjInl
+fz7s/Ia8v62Wjf0eKz4gYQPp6/dhrZY4o5cwLGTR/GAU3T2g/GkXuby1gcf7+/lwf3thLeYYksBQ
+EYz3OYMIMJmh4XLcea107oQpthz+h7UIPf2LWcaYb9iHKwsc0+YEzkTzIVowgbf/9SzdSfWv7a93
+k75MP2iVhKeNyMmJkrK+df1Jf47DuZjUU4r//HL/9tIS6XFBM1smlPD3H41nSUIHerOzvMg+Y+yl
+mk9rnS9G+dtN5RHO8pWO8Pnei2APoa3sgqnn1yzQpSFSRIBxz6Dt2BfP728XZNNRHdsDVflgFlF/
+f12yYXaS5T0Tai/yldlX312/+v7vb9rvY7yb1BJHmi4LNZ5eU54mt9nSqOr8+RB/fTl4/wweDq8H
+qeI/rwOsr983pmx2NXvXU6R08wAWE6Gs65PHGFjpWpSdfhXRWXNVWxGAvtD6akb7+OmRdyGZDIVd
+DyhdzPf6NxHVdmplaVUgdpGBg0RW0p2jbuICDrTYZ3XwFV/+47NjPOLVZCMc0/Def3uCY5U/gknf
+FeXABsUdz/Qf8r7YSnx8Fy00dDIblHaJ2/+yefx2UQF2qAmOpNglMlLLtq6SJd6wCw/03xev4l9G
+4iJ8B0Oc4ZAvfPeaBC3Zh3H0qx1TGyYqrT1ao3dXN+nD5+/KXx6TgT9LN3hWzFz2PHH/dkVuXWT0
+dwBDCyoKpuQzXAxIX+UyEf8xfUAGiN5wOOa4YsrfQ1jmxzWWfOpvQ72bLqhRuWHhMpTqAgr3JcBP
+8N/QKYagU2tawE/3sL2KLX0iwmYlSA6v9EaET7iFtDUpUrlOUX+3ZksZrQDbUiAcTdnB8dP6IK1B
+20cg/k+036WgL0CO0uZLW3OukuvclKk80BVjuOwhJ29LGgDRvpWK46J3k+kfd8v/8ULtP2Hy82aC
+FRxdT+cDMCx6W/x5T/N80oidKO4pLcK+BUTCL8Hu3IyumzwXk8IGnefop3n41AxZtPFwYKJZu/vZ
+7Jc4KLMGvI6lqe6LkIORhGFXVsVN3funKQTNXFSZWM8NeRaA1Dy4U6llLmhU0i2azvQOWqqp5WBX
+9g5tu19J6ZO9Bu+xooTnXWSQmXnAQbgcmK9XQdQv6UoNXYnVJ+BumVDGAtotvnhhX36xaP3lXaMn
+tIGDgzWLLf+7dy0sOrrLNSP3JdVakIKBteep01M+bcjxDqHV7z5/uT9ueCzLpKE7/itsLx/6NoqK
+BGpfF9Uu8KW9p95arEXUyAvXquU29CN5EVN6vbOTIDp+PvJfPl92czo9LPHifDxzNBHN6GLl4k0m
+cfjYub3xXaD33NF5IH37fKi/XCQGjxn+4Tv8837riC7KeXNU5a7oiC/jAEXEQwnCbJyWzR6Gb+Iv
+WwT2EdwqRfvPB//LdbKvsly0cE4G+Ez+fNW9LFKUncpy14YV7UD78i4aCOT46dj8622APU9ShofD
+CODye6seNaA2qoyUBJDvfxvHsl+Z/qD4iizrX7+mbDcwTGGM4vShu++uqW4rmibAZcJXoPoV9Lid
+ZqVXfe+4GwpPP/7tDbR1iwszyQOiIr9ftqIkr0s7F1wWbT12Wj3Sz7If0XTmRk1f2To/foAMxtaG
+rYGDoP1++aKhlhG7quDKNPsutrRvOKl/pIN1F/XuF3uQ+Vv+c3/KUBxLXS6NOf99tLCw6ABWahgx
+rDoH3FyuA/r5EAHrpsVUdgfKlF/tRv8+YsBWlIQkH9375cXGPVvNIwqjO2RB/Qw/+M5qMvogxW6+
+iJX579pIM81jGoXY8mvXwYjz3f5t6XRazh0y9LKdptQBosYOo/cVaKYvhvm4sZmH4WgI4ofdx/uC
+QufrQ5LwV+86zdTuNK+09/XAivj5e/hxFmEUQ2ez4Zu0dnsfHoZQRHOQ1KDbnEVFi0rPkjYZP73S
+PadCIqj709Iaqy9myXd9queVklGZODyHJCqz5btPLSzgYXPsy3YBNLVFnweU4co6m05DgEr/C1pA
+lAhCMzGQjD6uEyH0stW9LTDmaJ+jI296tkXT6IgbkirkuOqazcG8LSD54xyxxbn3gUn/O3rQOl/8
++r8+GMgcvHGGH/xD0/nt+WNJiOekTb6jOl2uUzomHLSBOufnD+bjDMstwldJSSkwvQ9bzsIWLCNA
+W3al9PJFVXU7PTPufE9+tWv5ywfrwBLCVem6LmfYd28zOAaYGMTZzKG2MLKE8X5wYQ5/fjV/m4FI
+xFOG8zmUc+/+HGWiK8EAtS7DPNRCtvFYpgYHeknb5i9dav/7XTRnRmyiLBn0TiD7/+dwvgQogeEq
+4+wY/pjvXZO456IJv31+VX/7eOaQv4cll4PB+9d4aLPSmCo+HlqT+ARqDCS20PmB2FJtmsjxX+km
+nu6pFrZfLFV/m/NwxOLiZvH9eOihdKqDsOuyXRSZV3RHfp7SaFOnD3R+umW6/mK0v73wHHtMXnZO
+lh+KZDnX6LlEcnZ0k8+2het4555O56vPb+avXkvvlw5uIjws27CwOb+bVwOQ2ApeebbzVa8/JLFe
+bbT/Zu/MdiM3sq77RDQ4D5d/MmdJKSk164ZQlWTOY5AMkk//Lcp2/1UpQYL7utFAw7CrRCWTjDhx
+zt5rozhekK7QZ8zmHHmXaKBdurLtL+uxSA9W5pAE4KLpnEY8YlaYVEutDrpVJl30GF2XfHe61T69
+8w4nbN5MA8PCyevSBEK1ZJ6z2wwmY4K2ftFar/RRlYld7LgP3UB3gnAWhhiFEd+nkrSVwCufcTT7
+kDLbfSVzc0cXycPireATi/gcX9/IT941ZtqUoKR1YY853RAzh98hHii3SVKHUau1a7VCTBng6S7H
+l6+v9cntmEl4c10xh1WdljG6NhJ8B5ZxOwXaq0rDYZlb6osYs2LreEWymtMDvqkwPnnpNI2JHRUN
+O9aHtn7fZONAVA8fL7EeozhUfB3VDnOMZqZsjvVd3QCUR43Rb//9Z9U0uph0pCgQT1dKUyFyqMH2
+uOWsdqht6JigD67pxkMjT8P70bXCb2rfz75Jbi1tAAgUHkvZ78sY74okGhT8lkJUpz9qeNsLYsiv
+JWDubU7w0zfX+2TP4QNSQ2GOoV97moaWgzLGX8itHfqQyYXZyKValzWQJsv5by4FrcQAb4fh57S6
+qRwTe1/BEU2DMXZlZTXgYae1z+JO075Zvj57RucAvtmHMHf69d/vYo8krpjoDGxF3t12UflmEaqV
+Cb6/OKyvXfyy//pwxAKG6UK3NJ3xyekLqA3M2nQS2raTPqHxc+Sx6ZplRR/gmwt9sjDTUldxbNF5
+xsYxf5+/VCLVhBNaxfC7zULrATf6xp3q268fesvgZ5ysyr9d43RVVpI0gQDN+5w42gIjdbUXlrCO
+emfDIcqk4C6qcmFJSL4EX4R3pWzgZoND3nQuCAupdaghi5hJrzmggDM0bSWxW21jo232k2lG17oX
+Dn4x9sFTUEHyygXiLE63o48MNthFlsuQgqi2K0ubg6ESxvdHsmEQWxUaPtESqxr5FHXgcYAawssk
+U6kOyzgGWBw3l9HgRBvw2eMus5Bo9kaUX/RK02+xld3GZSp87nC6zukVNYsIoeAWcWK+KOVUrWAB
+WIiFUwn3xIBkRTrn+uvb+9mz+e7F4jnB83a6ftq1APRm82wiE36ph/bFjapL01DWRl7CRieF9uvr
+ffaGU3NT7NG+ZyB08i5YETQ/IxwL+C7R3HM6SD3dybb4pnj92PIz6ZUy2KI2oU3nnVwGD35kNINX
+bBGRX1egCtAMuj/r9I4h9AWCFL+z9OcQg9/Xn874/Lp0aXG3cbg+Lci8Kq/zSlr0RMpxeozmQAks
+d8o1Rhc1W6GZ4YxTk728atO+XmYFIkGlIxjArvV+Z6Hyt7DC7Qy1U9Zaa8JRRxjKA1dtmHcywfaS
+H5bWc1AH8OWnzhQuvVaz6b040zLUghs9NYXvTlaN7xZH/KKdqnCV8PvM2eRveD60Kzyc06YaZmKD
+pfHvSUz3I9EmK0dx9HuYyt99FZ9941B74QcxhuMLmW/ZL2tErAorL9K+2Krty8ikcAFcY5Nqbf/N
+k/XZWvTLdU4LI2iLeVZ6sti6Vqb6AFI6P4+i1ddf8Gcboo01lbkC8zYCQn//MGqtV2VtNsWWoRN5
+hPhSOYw/EHSMpl6M35jOPr0Y/UrOLKQxfCh77YbFqIAmh/7OzjmJThts5msUoGip2/ib2/fZQmDT
+9me3wLL3ofjNxtGwE1RU2yZprnXh2D6BYQ9l1ry1MZqFyP7mTmqfPRfzzJsDLBIC53ROM4kq4/5S
+pyVDFuHy0jVSAxu5g4huLktDibZmVbc+2ajGEdpCtB1DTA0hJO0LN3TTNelu452DJQh7RhDi6v76
+m/7012NBpI1E//YDuk0OgVDSiDJH1tWb4YX3kd7fZAY6kv/iOpD2ZjyvPVvmfn+iRE8SYoUeb8tJ
+tKKb074Uo0K+VNd8s5F+VrbSnEK0gesW5vTJe2iA8CcWfgKNh2ckwh3uyuK6Ka194mqXWVnfgp78
+plHx2QP8yyVPC9YEYA8aPTXfKhIyZ1e+eWaGuJ18hLL/5sxhfPb8ciJlSEb5yFn45FzUStcEt+Pk
+LDP6+NxGEP9jz4YWpbk+7dvQVyqwpjkr8iquZ6+Bos3KzAbRH5SQB5OmykNQw4/odBwLuNrwGUVt
+cxNOXkmMBJCBHFLSenCke+9arJoQvwSCKUXA20nn1map/6lKHTtLCbOSCM6k7A5IcaoVwU9vhCzL
+RT4a8arLR/2mQnTNZg87/Oun6bO74M1OXVocPLenA9iM3CJBpAGVXzXtpnaCj6uaD1ZlndEzfWjj
+UX5zwc++4tmZhVDGodl6eturRAthlvCaxDUUpL7qwANPnH6XRghsCjwtmvSvP+K7duKkIEQxo/MB
+eV04Zp580yEgdqakWb6188nzI9nBBYig7Bbka59FpHvdV3ruQoRBOfluF8Bvnt3nHfRospe8jSIl
+yvWvf6lP7jvFxmyB9jAGfjjyevbo5q1uZFvCvMxV1Iz2RRFRNo7Q5h9IT5m26CJ/fH1N7eO4z0SV
+QNdnXrUhaOu/Lx3hYE2QqnmjxRQgZSUBbo0g1VgTvCg2ZN4DN7YtlJNWtvLCJvJHZjI4L0xt+fUv
+YnyyVs6+cOQYGsccUAO//yIq0gg7b+Mc33JiMBqZfQ2xkU3XaKvJo+XOOLs2QY2MxYpEkYwmsqbk
+zFHjJuqvyKdQ1+MYqI+RSeGtA8x6pCwuNpHkkcIxla4R9UGh7aI3MksXLNn9yrSTaIVW2Fw2StFu
+I7sGvxR1ztINz/QyNW5SsrEveW0xoYECnR4it/P2hD89qaCMvjmYf/b5mYDhQXfmCf1p44h2W5KJ
+1uDzZ+lwEyFL20K+ih9iTYnWX9/rzy6F8BqtAW50to2TAoShE0nZ87bklUa0rGp3dvOB9NyD1A0f
+vr7WB3gEXXKOBbRwOL2yDZ4e/wvFzjqZxxwOeguyZ8vAGLPXZGqbgFTmJUnI2plGmNFVO+jyoOtK
+eK23iuebRlZtKtA4u/df6H/4hu/wDTpNrF++uw/4hs1b2YQxrbNfAA5//Z1/0J/qH0w8oI0488AP
+mRHVwd8AB9f6w1Y9RmWEShj2XP/9h+Awv+j/nwBqzJoQBqAuD7mr/xtgA5hLVoRf13BvThrghzH3
+oW9g2fNj/suhwEMV5Aalm20NN3ySaYS1CI/miiPjI0/dTdMr20Lt6kc31x7RBmukEo6sAv2+HR13
+NSm1vjNkPu4ENpMFjElrxxQm2zSjStY1rgIfFT4J5AGcnzJy4FO7QiWyKaueVctWj4pOxOWkIDYG
+6AP1BhLgOoALuepC54jS2r2SUwzZCwBUIWPJT8PPbABZXAmUzctRmgihCYCu+/xyFOziVWu2+M+H
+XYP24dqCorMsHen42ii729lI44fjQCshjkh6VrRryE3WhujIB9vM4wUVR0bsWhZdtGqsnSUGv5Oq
+FvEVmQPNygIDeeUaDnS27L4bwGEZAznZtW3Bsu5fSvLKF73Ry2VjVsOPuEBTkErqYcObSvj7tU0a
+q0RjYzbgu0hk8qWZ0VwzjNeWEeza7PRgyXwZeavTvej9KH2l7feJl+bkltdymUxFDIWsCFd8q6Ax
+neKIoWzdZuN6KpXLYEyyFQHKw7YyCGkanFI7epWePba9VT1YfbLOPXlNFzg/EqTnnmPKbbCguw7h
+0ORfXTQIweRKd3vCzos6feymMr5OjQiovlBaHzs21pAq7Jub2lA44nLwPzPTcZqjNq2G+ZpdA3cm
+1LopM/kYeLp49dBk3w85kETmVozS0WK651Hv5SshgfXXXUZ+uSTol8ghUnwyHe9Ua7jVkxMnHHwS
+BDv3RcrOBajK26g46w9mgS0bkTtxtsT3Vc25UxP1W8WzaT/29A42xMykFXpV7BsRBNgpSrXY18rU
+kS/pFg6MrCyVykIrSUlWIWCTIWhoa52E02dHB/WJYwlfl6XHwX2iZ+UNoT/5asjj8kbDvXwwcFaf
+mTLxzumzJc9VFWC89TTitREHTBrcMtR1rWoQWmb1IPpbUJUokUwigmICciaZI5ckVzdbWDHUOtKh
+zJea0Pf7MR7VH03nGDvFMLrEDwX6vbAp+TOwNq64gYrfE6gFNktVtVsK+mKPqzneOHo3dksV3+uV
+jpzg3uqIZ9haoufD14AFjg7BGzGqIXU4pnZXnonSslOmuXwPlZvxA7V2iOpVBrhyNWJhAg6WV08R
+798mtpmsEfEBWj4YYmEvyKekrtMKssuJrXiN66nfaJ1RvZF7NVwFXVlhSuE3S8i6c9d9p/HjM6RA
+1+EUKWRxNZbtG0S5X5sDzyB2ofzPDLP3njDQ7lYkJk5Xe+6Pgv4Yl2zl43HsrPbOGXL+YBYk+s7q
+WUSWePFH7FfgNhNpJs/vT1pitVwN+wwOHEJ8rbN4kEiaTK+8lBWTZUKkk863pjq7Nz2pP8hCictV
+m5vOdQONb1emwXDUBlmCvycUSw87x2TL5UvtOqBhRCXwrekBHrlM5u0r9AVIaGppX3IeGs9qxOrH
+QE3co6yVfBXxRKYL/JTBM5onIuTw+dKJDAZ+UO9yRYfB1ToLI+UGW2a/meykvKnDmnzXrPVW799W
+LvPyJg5HgYAnDWhP063hFAU/Bca/aZ1TVQM9owbHpWSH/HjyzULfyQae+on/i133ibbX6OsEX/ki
+mQ6iiA59PV6BY7vt67Bc9Fb5XMTuIszt0ffcC73tLlUZXkX9DD1po22eNH9a0jvzjBIVJ0VFoTtH
+KDHwZ6NNa0/3YSPsJeG07jl8Dha6wFqlkOz1aix9VyfOrGUf6xa6UXYbLdbsI36eO0yo2sHuWcNT
+zcUK5FSGD7HW9ON8PMSDt5RDskRStMd/F1xphCdeaoOerN0yxCrMUC/a2CUB0q7Xm6uRAIuFU4G5
+6XvCGlo3rSMisbXXgnZyX+tviF3LMwItq7Nk6sSq0HNtZ+jWz0Zrt4VrXaNPyLBzdsYlpvfgCcLQ
+o1BcQsDKHLGKyNekW4FTGYt+peTGuEzEhH5Pb3RYErZN+jCuCeyNyfQKGcfXpwg31IQlsmoH/Opd
+tQfKClyrjXygAnzBsa2th7oLSBsb03Noznf2qOJb9RDGDmO+UxnCMrSrSWFxu2o1FGmwmMO0qxB4
+pUKgb612cxhlSeQ5XMF9w4O/SZB7Ly165yr2ep/Ei0WnjX8aY3WsYtd5i3Un3pqyVp8dW4FUm6a3
+rSaSl3FUjBXvOu174IC+2hViEQgP2LIX4Cfpp4n1gLkrIj0oQAsL/Zk/Af33gps6F69kfwYrtXDH
+wxA1GLiMsI9bv2h1EMbF1HQrOIDQwjX7wKAlveaxalaAZrUrYxrNldS7ovTzDrNFih12aQqwskLT
+qzdhEW5BxMhuRO24MKrqpctK7G+u8JaJ1j+qAUcUtWS39/R6Zm12P1VTfaojY0MrKrjDyD0usO73
+uOtkysiBvOfGtO4CQu5g8JICksRF+IhOTfgFiXGtprrnJOiEK4oE99XEWnUkO1K7g7sx1xCQryCY
+2iOT3kBai14P3AGPW3KXOF26MIWZv4nASd7apsn2XkPUO3FAASGJSr9mT5frVPB3QybUnILUgxMk
+5TVjqoEIhZrKCmDKQgIyOVRYHZ8LvDbPktHjAbRP6TNnHheQlqZlxlvESt7GneNHBS67IIW/srCH
+JDwHh51qe6EHuFQiMZG55NUdtsI6V3klwnuQIMqlrTWkJxv6UPMlluoMcKZbkCbduWM1Jk9MgYmv
+rK0KK+ck2QYRiR5KvFp7c+6WB/TMCTSqg3uvjtujTIEgriZRw+FuvUI5tEA/dlQK6UZTy3oVD1ng
+Z6Cm56P48GdBYswlAJv2Tjax3FaRUz/YNSHVGWshGYEeFjxHols0q9gHl7lLc6qwvO+VvVqygGGC
+rGGLWcKvmha3LSigNUGcZMfWJGuPZvbDEZBGRBPIy9RW1IsmAOKYGSVRzHqEhonYXJ+a4WIok7Wp
+KBsoe7afudNT0mDFWyYF8gI68o2PiQ5zawRlGyJF65dNam4mqAdDDGy+AQm60AlOXluZ6K+mOXw2
+7UvBztW7lyPOgZsaG+nWNVLlyQCeTE6VeJOw9he1PbZriD7husuCCtc+VOGmieNl1+BLnAfdC+Re
+R3bQ8pL82m5Bqu5Ia5tcSqMaNgPzhiWm/5uR3vhhiHXaSq6bbMZC29gyFn6mYdfvy/CN5M2N0bLl
+9XVJ+izzKqDIw7BHHYqzPxHBjrigc8aeR7z2wIUDnE7jRFpekLiR1y5xdEMit43p6KWsrtqZ0xFM
+068Ssvi0apPmMgmvaVTXS15hIfHyCGni0vYUkvjuw7BWwZR6ajjmJG8yp98N1L/YCSlVCJIO89Ra
+jcTbLgnR1cHYYDtOABX1HYmAOURpwgKAj4B4Rtra44QymKNu2Q0fhty8VlSvXwP46PwQQOZN4Ezk
+AI+TOISJVa6T3jIvWmt6rCeafFNlH2OvVPwE6McRqyccXmIEIUlU1g8xwExI9GL6oQmtvZC5o6xj
+rX9DvKuvJFmXF27fG0vHdcy9OXD6WViRuPIgVJ1Lx66PIaUKUaaQQQGdPnN0x68O9uxFtjjhYqUx
+CdUKgn2uxMD8E5Ww9VqQeN3HJAFXkJWqYIart2a8odFw6ymQ8K0UOgf4Ixxnyaujy35h1nlzsAF1
+wdz5GRHOtAza2NuP4WSjOdPmoj8cm/aHasr21Umt5FzKQlDHk0Jr2LFFPqh3o2LrUhfQKSZlmfZt
+uoOiDB+GFsJ4bsaNcl1l+fSQwQO6EFH+kwMokLBSr2eTeDtZZ2MRwOEvop91nrPrK3X+6vT2vGYF
+bbvuirhfN5pKVGnt2SukysOxDbzJpwY6GsS4XxrJNDOW9YxIadOrlwQ786ZBUL+3O9md1aCZzqes
+dyu/xpp+mZJTYMFFNaIfRS0IPw3QsaxniHPKPjgHrnE0LKkDMs99dQmCjPw+tLRjjOL/oW0cIieM
+vPgxRSUwAkiBpsKSjwzF71QEygVF/8rSJvcsKOEQCBbGFXyUXTwSoFVJDlmQ2NNDHHbyCbsH2T21
+Y0CrKCJs/UnCKFbn4qBDKEoI64w4+MZee4tIpQkZKJZ1MeGLpXqGLuUPsSRYfmkIzLtNLfo/I5HT
+n2JutG1ABW8HpXhL55miwALP8VGcYxOH7BM27tHO1f4qjNrqaCTetEwBrJEfZyrom0p3BWwnBhXl
+BoQQxHcc/IKl40VIpZLc3dHaC/8WYP+v6/Nd1weJ71dNn/+Xvfx4yX9v+rz/lX96PuYfs6NMw8ij
+zVo9ld79Pz0f9w/TmR286CHtGdv5a8/nD+xM1jwmIkPIJvXl1x6QrqPA41CDYlxlAPpvmkBzp/K3
+FhAdY4RFcGlR9n1smSdapZP7ZSpb1m6TM0OCP7LzTHH7yz25+usH/ur+OW2Y8ssy65qdw/Rn52Hq
+752mSRMkx030kyBca7cpwcpLo1Pdy1z2Sv7NFOB0GDKf9jC/GbTlaa8Tp/P7tfguEoZJRrAFtuVd
+qnbTXyASNfYm6pGrys7j78YOxocpqmehsWMcrdLV0zB+zDOCXxppQwrzQAO6soVqQglF7kB7TrYD
+B6JSyUuLOGfp3eMYN0C7Yy4w4HaAw+EQI/ViU1uYyayeoIcFuAIij9GX0Vie42zI7VJ/FEPcEJoI
+84o0cW8jpybecF7TgbhznCRGOr/O0szbZErT3mmtXey9nvmPEtDiCMY2PphsjQWjoCLagG7Md3EI
+v7xuRX6tK+b0hp5tuo9Ss7l3qvCCxny8koS1+MQ2qGiXjBQ+ON5pP2KqwEy6y/+cjKm8nAyZ3Olq
+TM6cGmRrCzAV8dugJLqykCTFsWfUU61v3B7IRVOPcqXRIudUaYgzR2vLQ1OBA2kJXH4Bg66QPYNe
+b2oUua0ZLZG3MHjMU1xFL38KN8/P7SkfkC5OgFXUWpJSjhd8rQq9eYpTxZNAzaPGERA6RxlK8YR5
+1hrFeVRUydp5X/7l+1agvm8L6rxDdPNekcy7Bm02/ei9byVSFd5r4grQTtr7ZpPrIxuPMu9BJN+w
+HanzzpRGmUtAG+aNS4IK2bqQ4ZXnzryfYcaR9+68x6VB3Cz1ed8D6MYWaM67Ic2qYzQAPA+GZDxG
+854p5t0zd8p+XcJoW7vvm+tQ2vlrM++4EVvv2CBqDXEMnoUep0Iy/MDZrQQ3JyqC7KKed3CU6sq1
+UcTTufq+wYsBjr2N1ZNtP04CMKulcmPOVUGAr3gLokOsDAIoztUk7F5DYbc/CHWgpJjeywtlrjS4
+BWIJu+1n3WaIuGRzAFrS01/MXulySbLNzbNgrl1S0ks9QWJ3Pdc1ylzhTEo++GKABlNi7gXeSSUE
+U+kseS+OhrlOslU3eeFUGfCHnWdjrqaiua4a5gormGstm6LLei+/mKqbPNq8PcNcnRmpqVMC9W/D
+XLlZDRkU6VzNtXNdxzdr/SDEBEfGXPWlc/1XW63C2dQ91rXHAJgiUeka48CBXV/pcwWpzLWk9Gx5
+U7zXlxqV5kjJWVB64pOnCI3/qkghVVCeFu+lavBettp/1bDje0ELKrdfpu9lrv1e8o7v5a/7Xgpn
+f9XF0XuRHLwXzOlf1TPBPXMtPSlILbuxF8mt2SS41AhPSQYG17fO2EYr+HpkQUHARVSnBHNGlFUT
+F+W1bgFssZ9sUqQUM3TXzpjq1i53Jflv4OxGdy0SERNBFeatvQ5TAOPHPrX4k0YV9+HBrhsGsmXe
+FPIqpIBwSbpBmBadeYHSc+4UnHyf9CqCT7tQoelFK4m2S79POqnAMWE26Lw67ylaURu1yh5b4xyv
+leJiBLWheSJ9UqwqvfH6PN409NXniznWtlfpKTrBqDR+YOgBPrXONvbW0JcE8GBZhqej0P+1WsPY
+Sz2ogXoO1lbPlbk1yShsXDKA1m71qCSjTNTzv3YCO7gZR5zxNrmCLqOJolqbJLvvyoxDHHiggsSQ
+LsNKI2gPvzcKW0bThZ/XAX07xZV0jExT1NB5HW3NAKBcvjdIrcqjvyFUyMYoRnK+gcB7Hhr+qW6V
+4gbnJG1Xq1C6aon3ML8eDLN6MzHxnvOL0CSGN1WeVfReifywQRGtmlES0QJ08zKzYvsFTwu/n5H1
+2joQTn6tyNRJ/ZRI18JX7Ir/Zs1NU91tsntDbYerjBTmaelOtApDWowVkFRGEbA76fXy3v7NHPlf
+FfhNFQh/YOaP/Acj/mH2dxH/RGT+Uvw6/Pv7L/1TCOp/MJNnOEO6H3UJpoH/FIKe+gdMAA0MBrUL
+jiibQd0/+HbSAgkNR2eBoARL3SzG/gffrv0xz+4M5s8IHqivrH9TCJ5aGmDDzzUTqjqOqiZi7Lms
++qWGqQcFjFomtLOiMvu25kyVx8O2YYyxCUjWRftWRrTjzpNUU+RdPGBEIw8tqpqF8CrrBZRvoWtL
+0MwGiEKLpxIPKNujmZyFek3PxAsKpjx1IZBF/HKnPykuTwo+nZkqxI1ZaOMykP+AiHBFJzM0Vc0Z
+LANa+FGh0DRjRDP2jkp68Ejf/usLGgxafyubuSRzXI0uOyY2e64yf79ZSpwBRCVK7cy2ibpqCdbx
+eWc1e4NImpUdgrlSb7VGrZ48WXv1QPhazzjBs7s+WFshbLpd4MRUeFOPiXYB+bubNjpn0Su3iB1j
+VZKwfoW3R7vNdE6hGzMoyrNEzObeMC6mfqGlQUP4X1Pnk0+bjmFCKAvutWL3wzGbSGIjztZ6gSFb
+Ep9Yu/OYKgr6cNXQfMyJ2mZegftdYbjAdJOFjoCSrmPRUcaL0Y7120YzeAgIlbJeGoMVe8T4gLO4
+rbRD45bpnAAcj+EKeZcMV1Sdw5UamRnG/SjUbzUNoPkidgSfDTJb/aSQM8euMgdMDGDLB5DfevWk
+9/QQfZtWQ3RJDge/kTdapDSSCTPcNfWM0iOTT2dxTyJNoCjBIXFAh81+bzujXT3qRldE+7YRPH+h
+yCZf0efW7dQU+i3AAX14qFxtUJ4NveXOxQK//WJsy6HcUXySQtZDcyDeBfifvsiqnv9adVDrV3CM
+ixwiN7HWCwWyV3QV0DqzFyX01mgO8ePzg0mwXhIZBvfdyKCz7xr+uic1IIw1NjOUr/xoVTCDW8Uj
+4WEL22xb8RjJoq+2nEXyfMV9JOfSig1uS0zIi6SyaWsafFPJ19rPpIszGqNZtJ/mr8SZbw6t15Tv
+D2TdmUcipsbe3ioObI9eXkQh+FDFVRnkg6QYtmiRIAvWIMux2DUjL2HmafyWDY4Sh+60nhH1TTWR
+cXoB5ymH8dZu9fagWB5g+jwBogqAuStfwqS1LsYxtO8V9sOD7KvsivZ6+KJLM97SETVdP9YL56UI
+0/6hMtRkWJMyXZ5FkjMXwUztfHzAMOXnkNfHvT7YJOvByfLuGauL9lqPJ2avVu/w2ACv4/bKOLeb
+S7Y4CymVFSoF0r8Oyiczd5Oui7FMeCL1nzIf+O5iozLln2Mykq3GP+bJn2irhyOR1dptYiM/8okp
+tV6EXpBuGpGVeDvq8zefpUptEw0u+W4piLJ8NUHRf+LO8HI5YN2nTVqVMlgLVanEI4KC4Qj8jxdB
+mRxucKwjGt2kYPzOLOrIahEMgrFtnzCfTuYYVEgz9bYDfTmcG0DiQ/jOHVexATIweOVt81bMkbkv
+HJ7zADgimQcFYZrNbTpNinKvdM5Un7d6ozRX4+Dxm2SjwfI75XL07mJTzdNj0CfNdsiVhoFAT40z
+9Qi4FtOYcy8bCMjkrKuSyoB8OW5ERdbLNiDycVibrCrgVWsU/P77g5wOCl8ceGreY7ufX4q2IYxu
+MUiDNbQwS/027hTN8F3NjezHIXM7/TIJPBYKN2Q+/tMxpHaIbDcJF0gDuaaShskAAzlskudGa2RY
+0e4N21cjcNv0oWGF0EgzCCaruSzzorDdxRAqgbdyOBECI0+RjNIYV5O9qB2+8zZrtEPS0iN9cLug
+Tt8sp9D1emGOTO5WNMwYMeTsP1NNix4+6i4odBeKeFnaqrqLdGNqFjAGiBNQsKs8x8PE4CsO3UOB
+quzR6rtgRi3fOPiepK/lZXc3lqOygiEeLXkwhG90YbQzMi9YGjMfcZHHCEqRL49EYji5tQWpb882
+kaRW4ocwMjuxNivLLpJFWc0NxoxAvqpy1XvBkMU3cvVZKfp40ZI8tUjHAjhxJAd3C5c0/JExUnoj
+3Sugfm0IF8vs805ykF6lWTNco6YIny2jL1Y5m9SyZIx1dOugeNbMKF/rhRoGGKZzGHSt01x5IZ13
+p0qhFBOmkF3EVZjd6YlwkBOIdo0Ih4K2H/DfQE+GJysZ5GdTfm6ZsFk62gHXLOvVc+J10U1vkonm
+qEOyoaVprusRmKGalMWmj8v4hmNkdoe5UYTrhoTWc+zb2jJL62mfKV66phkVM5bg6Mncx2HZ643y
+lk2neiysvIqQuYg5PFEtH8hWnW8tMEMiXqyu8G2nGw6VPZAbH/c5LF9H/Bk3TrPMOtPc6rP3lQOj
+fgAs7JjLSLUKcKwj5cBSMKs9q0VebtyM5oKfMBXazcTjNX3j6yQoq42KbHEJnLF6TNKmQkCj9/au
+GAnkXI250x3q1gxuvCqyN4qYUkiZqJpBrUwkdiFYOChRW5+xYI9bzALjTiqah/A3lcw5GkDDukmc
+MdnD26gQ9m0f99OrqmbJGem601lTNN53bMATJSz1Ca5P/qexGHm4dU/6bXWZGy5BHJDg26phuhrg
+jJQGm5CpNIhyVSbiAW/59uu66KSZ+H7VWRGJtxtaIJ7k36siM5giJ5KWR2Qiq2iMt6/2q1anxvj6
+OifdxPfr2IBHKJfnrqV6Un31tAg64YXB3kznCsNRG9bsYqierCFgwfj3F0PCTVuPAhld7cmt1HiH
+OQzb3t7N0JOUJZIoAVHCV+LOW319qY+FLBo9FCnU4ipa4lPISR16TgWlHzypPWqHoqP0RnyR+YBG
+0e3MivZ/fb05f5zWM/QFoDwnGm5c1Ly2WW7tpyEK7v/aggpAhMQKFIJqRMRA1765nfPt+qXhzHc3
+d4AxP+hzg/ZDsT7modl6TWvuGzIs+gUAQIofFlR24GIgC2Nh0iU1UDD0/LOqJGwfX3/ojw+pi9KR
++4zUEm/mqTi/LMxaHbLU3ncdfVYpiQUfNM77/8VVkLZ4wBQsnZPJ769CFuiSA7+w9yEpn9sxpq/r
+uN/q/j/7LBwoXXg4zAPQ7f1+Fbs1kD8ofBavFu7SjhGywG/4Lx4TC88/0wFOOxw3Tx6TtKYpAXrd
+2usBrWfU4jwUCBShmo5Bqx3aaiDc9uvb93H9Yk1nDeNj4dblsr9/MEaKpCJntrlXysB+1Dqyfia1
+pxRBB+KtEJwgmLHFxCPy9XU/riyIuj3Mp3xa1N2nHxVWSExELCT+tOPtDpimn7XM9ZdTYrvfuBQ/
++Yg8HKh9qcFnSe/JYukAGuRSub5/bx/B/CnPJtFWT5nJA5POJ7hhfmr+/efDz+Xi5WV89IE31Ktx
+YURMMvbEt0NzzU1jl6lutOGg8+2b/u4T//1V9+hO4IIxmV/N1NHfv8QychtXZT3ZT43w3EWi5RYO
+YUfNjoyim0OZZEilArijV4OkrpPUWgJ9Wj8E6DOEyeGitF7IBhCvOKUMqs6pyKIrN7VpMH99Wz4u
+vDj7DAxmrEgMj05dcASaynhUAp7w3OBCcRAzGBgU9kuoJDxqiUdZ//Ul38PqTu+Ow1vF9kxAyQd+
+UJjRLwnY4/aKq1DrDkwVqgX4zvbVbTS2zKgK5uc9ibUDUtn6qe9J2VgasTcca6HXxFmDs67XVEnx
+hnjXLPrXmwMOB4tuEC8D392pp0il9Tv1Lm99PrkU3aqVPGuhYuwhUxXxQtbqd22cD++ezQyNt4FW
+Do8oUvjfH5c6FnPRT+RBbwZQ+hlKJOirCx7ToeI0/vXt/+xi9I3ge0E7Yjs4uZg7gXFGrzDuB4S8
+V0lBDokqXE45llpxSvr6Yh+WaT6Zi41DU9HwsJydvOp5qmhEuqojgTcWB8swbnmyeBE5JX59oVOi
+ku6CI7Ln4sHiwzFsnn+TX5p4RPrEA4GwkgqiYXCicobrfIX4eDzXWFfFWZX0dELMkI50JKMcuHHl
+GM2izuZtsKyHY8Q0jchXyWHJF9qEmMJpmq1K8/nJo+tlrFXU2hzP65TD8XsOV1uUHlLJrz/Jx+9n
+5vZATmBfg7FyWgrFBIxUTi7EXp9GdynBKZ7lpF5vQpVsya8v9eHlZ/rLM0A+Kw1boJsnj0Ibqnrb
+MzzcNwBody5Im4zondpbAcVC7E041Hf9w3n3+uXVN9nWoALORiWXmfH/sXdmy3Ej2Zb9lbZ+RxoG
+x2TW3WYXgZjJ4CiK0guMopIYHPPs+PpekJR5JWXelNV7vlSpSgoGAwG4+zln77X/8i2VS2EZTWuL
+kwM+5ncQLuOpFZH/9KUh4rjgfBmd5va7ap7NX6x05s+3iOCdcZgQegsCDnTNz+NxkaMgEjAMToZB
+J2kJ0Sw7UBoUJGHL3OC49T4hOJIiRNRmdBc/rngCLYwvB7NHCRTAlFf3+lDQRVzk2q9p4IdSWAwt
+f15c7qO2cLpsD8EjvXVJBC35SUTjoTCI0ewaEvH2nY2I9glDHtudxmawV31L9s7YkpgWmE4H5GGa
+aY11kaTvJ2kcRUHajPFqLANVcA1jXrahbsjibqLbcGmdXtvPBLPdQn3Tlj3pHMgyx75c4G40JkJZ
+PdMJpXDtgahC0dZXvUQUgVgaeEZY4Z2kgF7SEykKxkaMuY3RZDCYzSLeb1KbaLZKH6fqxVqysuKZ
+AUS4MB83cuPz1BJJdpVpGc+LP9drM1TFMrkd1cyf16jz6ugQnIMXsCWW5wCRiqqobBb+dkFa9PXw
+OcqIzoufr+eapuZZS8rcVm90y/G9SAO0NOEkjNvkEarpfF8TfZTcAofIiceIm7G/66yOL8SsYadu
+K6Oo5X216OwX7dAbzc7QHdT/uuldxSiW5b1bG93nudP5FJOV2cvvllMO4rptjLUVNZHyEMx4YJod
+H91+sREjA5TC1+RvpZmJq5GrOdLRIBEe2wOhkDunVrw9fRA6V/2S0Aj3CmSKW2QY/MTBSSLj0zJZ
+5bGZs0F7mAmFWzaNXNi1fL0UtHCS3OrMm3Ia7f6e8PqkY4IqabxSr5K/ZCh3qjealorjOOLukeHQ
+j9pmqcsaY4m5UkGWmDuoJJvdCUx3St0rMUbGdEyIzozYVw3sGFWb09PyoGMu+xkHphlgCqLLGA/6
+3D4apd3mezIiucGwjRJPoaW4Gr6eA+jZc/ctMcR/bI4VfTPDcS11hu09w7wmDGd+8/sluvUW7Bpf
+W3B2PvDLWMlsPIrMtF/SKEmibceUtz58fawck7WF6DHrOLlW5r2UIIyI4rFBFxrE4qQHur305s1e
+sIy3js1d1HgOlVmS21xXs1t75lbWDZ9UWk3jbk7pw38dzQD7fYlsaz1IxIKznUf0+UthZGsntqU9
+H3yRmcwE7y2bL9uf6ww0GRN6V+6VTRggslY9nbMdWU16dy78mMe0qLXVtqAEF1ZEo7B2mY/r5K4r
+G34RQ6d3Qk6m2RH9YTTzx2F2LSTduWtLee9V8Mqu7Tk3Hp0sQ+xPiGaqfvc0JhnbzGtMcaeMmi5w
+ojgbw+81JsxYTLdtoFnEx9EGD33BNEfyBPeW+56DuYQjb7d9VVtBno61lgVRtBT05rXczk5529Gt
+VzlNyR0dtMWjJZEJJJm6TsAOAVxz79EgW4Yxm77u+P/OSX8xJ2UNYCf/n8ek/8UmUJU/quW+vOTb
+kNTQ/d/YEG0L04WFKXHdnb6p5QwDJR0yutVnDYoD5tefQ1LLRS3Hq7y1Ol3/ht/hD8ek8RvEOtoq
+bOxU44b3n8xIwTb9uHPTNUDpxWkBsgG/D2etH89XReN2DJFo8RppTYitE3hTX+TgZWyHcD5g4B5x
+LFnj9suwlybmav1970H82UrCHLtHsxA9LWiDFgnh7zA+6ilDYlA2tfeQOgjFnR59dpkaw6aeZlHu
+hEU6zwY5ijpkOOY1+Ji2aRbjsWWM0GHbWHrAVfU1gJKMfRZhbEeEa11e2ewnJ8Rno37M1rRLJaLo
+MbMalkjNeda6aiSZcyT+T8dugya6vsoK3GRFNqMesG1pPiZYDgCBJ8g7Ar+Y1iWkHf3thPV5Qgyx
+IG5zcraVRY72i16bPJdl343XqZ7wQJtJj3KjHQcOBT5z2XxfziN6Z7htXmj7VXp0irhxL77fj6TK
+Kh3hkIa5JWAn6fd9ix8n0HJSj5MC9mkdtdMuW1p3oWFU8oMZdUbzphij8ca0o/JDPynjfnKSctxX
+wL7DpOvQo8c1xeWmi9USdLJow8xuxmdGGuopWlmGmzZuasTplUfwZtTafFAR6YP5DES8uZpsI993
+psNp2ZDj1onrxsCd0l5NVWXgbxXuhJdlLdqI3LSPDnqNJz9j0GP2k9/t00w0/S7pUFUj7DVEqFmD
+0u8aR25xZ5cFAn3sEU5l4yIds94lhy7LGFyPxejS8BZtFWLzwdPqjMWhqaIknKESe1gVp2k79RnG
+mdgc450ye50LHde1vTG6fHpzo1R/WWwDsYnN07hbRWh4dIRi9Yeev8OeYu+JQ6wfjLJNztLp82fS
+i5wg0kdj2tRa3B/yMYn10Gzdm6JQbTiY7FttQpboZnUAcNOwO41bos+anVoZcYnbktRrNzXqr3bY
+DI2IT4kP6YhsvEI+OLllM/hJBkRjmUZs3Ork6wuXuDp2mo88DS3ZfxlJxEDCDWSPHRE2+7hvzMco
+T4fjhKNmZ+bjGmpVRt2DJ8ZXXBFaOCpvCSOvVWTc5io9Vm5NJKWKZ1JHY4egscLJxUnCDvuwii/3
+I53bKLC7xTAYNpoMp9ERWVjNmkeb4fWl8fTlE0m8UTg0sXoa0ro4RAsCJo4eup8FtbZwpqm17ob9
+vrw0NoJwwg2yDPfwmEYbm4zw0Eii6p0TN30waX55LP00fo+yglrL66P8XgomP8wQ6v1IbHhfedyH
+LiEXgS2kfmcnzbBR/Wz5OzqV5sTKEhnRmZkRGZl2X9+0ReTvOkfPfy8NqY7oQqsN/k3Mx7PycRz0
+r5meitDCr72xvVQcstwnglWYL/Ok3tt5a2/QYfhz6I+m28oQ1hTfI97eJqkH53bqCPLibaXtDH9A
+vP/dFX+1KwpIP/+0LR6r6cc98esLvm2KyIMAWrg0RuhRsbV92xB95zcH4S20nXXMY6Io+nNDFNZv
+NqZ++opMLGjhrICKP1RD+m/wBXxam0QNUYnyqv/3f34IN+h++t/f67rRnf+8IwJcYR+km49KCfwJ
+G/b3HQdV9P1Yuql30ptiPmtZV4eTNOX9DPvvc1GOyxGXiCDph3xGUvA4vl0sq2g/kFjdMS93O+3W
+iF1ktUmtRublffQkFzMS5yad59ekT7P4WDVWQ6AlaZDapiEnfTcYzIijOXeflN1Pd+BurC5gFcgJ
+U828/PM4KvtqbAbvKZmrrA2WvPUK3FKGqUIKOOJELSoDX6TH0R7zbZZYzQBJyLfx6BaW8xkhP8+X
+7h5j0hwumT+PUHsacS8JoUO5N9bRW28txU2sjdcyH2hjqjLNPiyR1byIKB7fzxjvNqbqkjfs3DW6
+kNjGl97O7i3ruV+Es7K628yO52vaK8ZEKppQb26haXdVmeH7cUeC5yB+R0dH1C4to85jXZwqS1yZ
+CShGOKeLQbA8DJ0X6HKgH9l/tvg/kw8GCJp5Y3mFt6feJSHCZxF8YA6a3Az2cLQrZEuHdMrjPdIS
+70R0y7jX2Q6scCkK56FI4gWjepnkbqBUQihURQ9pgW1aGnGIBsD/rAx9rjfKa0nUTPJxODsMdDYc
+AJrTEMlsi07JWUgJrbDXoQs9t3hgUIQpp8S/U3sXoSof0gP45/vRLYiIUUl1kJrefUo0dAEbP4Uh
+txFwch+afOpPhutpSIhnLo6fY8XV6jK/MVxKr8CLlwzouqqwg9nu+AzgTwXOIHrvjF+I/WKVXsxB
+FLv+iV5g1Icx5rVtDp7phpzBdpPOaYNV1KkbZD0zhYaedv2pzyDYB04yx7deX7/RCVUDSKulSUNY
+xNXbFMtcgKKAsRSkYulfy9ZytEMUeflTBHf3OFpls10INraOdemMLxTP3i2s2DGs6tLekbsKHZPj
+mLXDo2DF1CLGdLP0XZw9NTpG9PFu0bwU857BaJ68Y6rXe1DnyW1h+vR6P/PtIr3hcNSmXFtOigmR
+GvpCugZYA8ctokvcNX7IUIGyTPTjh8meHKKEDfNd7PEeuDhDehgPopvRcJU0iza9YYAHjEpjNRlH
+bKg8oZsRKPlJ9QL4TyELHm9icxX1eI1+OHDRJQTCF9W20+tVAWtEuyyRKtDc3sT+6a/nEqtg+m+c
+zd43riud2L+5EvfYwIhr1O2rpRbRRumtjkGxVAdnbrjuwzzXRTAKFYWl13IHirLRESVVygm7brA2
+VssemGLqo1/fEpoCC/RooY65GiyAIVNTSEwVw9AjMF6as9M1w8nMhuJeGaUog7Ry7L2Tlf295nd3
+S8KDKavsDcPZO0NjGcg9SQu+EmHmOGiU06x71AYzv+QToigqXTLWZ9t4aNmuORMXJdLGTviB7mQ4
++6SZ4OuOPdRbuJPHQd5aonzyRZtv4oUHW6usQ9bH945TJtj8DRKa8c9uslQf7WDGwHpoFwfpmXTW
+q11Nj7SUk1AflX90K7FszdwZ9/QozXuHNkbI8iS3SrT2kTkMuiLbt+cgFh2Fti/1Ld2W+UoV9vLe
+yoV4RqGShYkkkGkGTX1yh959dOmJnevJyYlEizvWFLdi7QhSO9Je9WWu6pVqvNzokqcXz3RGb4O1
+Uca1d6jAth4GeMhXk6ERHBd38byLzGXYEMJabCZkWxviiZtLsU6y3bbwzrI1X4ARQk9Bw7GbSQAI
+bL8h+r1biQN0oZK7KU/kNlosBF8opLnappXxoHqa77+mSA655taIm5bqfd4k8GKuUoyZN1nnTZ9H
+3cbQXEo6FXjQtzqVEAQyd9i1nVc8NwSi3iY9VcEm5ut/zjx7Z9qDdrHlXN4Y1Co0C2L9kTFR/tYp
+0X9wjVg8uM1c3jXoGrfKaPRdXovhelx675jpogOTIDW5RRORs+gm6fCQCqs6eQysXqyOWxpU1HQ1
+mw28RIYAh1mzjZuus+UGte3AUzWph9goED4VmpFeAOb0V7ofjVednUcHPbGzzZh1MqyEx5KZxzcI
+6bNDCnbkVpOD6+E99lywNlYcghgwzSDqk+Wk53WyK2RWXFIzj94lJK4nQVHb3UeVmsiWFm1Mr8xR
+dgcc4w1VpDF/KvpBbharXh7J9DY3dZS5LUZUoq4Ct+neNTRer5Ykmq4WCkdwLY6+cr2b5J6TovFg
+xqMJiAaTChboHmMHXoX3dVN3WP3pSSVdhS+Khak5sKPPL4ls8kfoMm4XDI4xbycklRvdFPSiuCtP
+9HTu+gGP8BpSZvT9s944WHQC5RAipj8rGELloZrdNn1PdOTKxuiRhLATSfwkN0uVjCbzlaHYDobT
+hApFGLATfV4+e/3obFEglhuM1yzBq8SW4KR2ioI4UcN+0ovHaZ6bPTVdDIcojQgV7/JwAAF6Z1Ga
+hnZJgFOs1WHjtN/mRP+ej391PmbQ80/H4/9q5UvZvXTfi+tRy/OaP7T1PkdhpPOrXAD4JC2g/z4l
+i984IjNph1OIQgIhw5+nZMtZT8nsYOvRdZW+f9c2sn6jwcO/9lbTIu2e/6hvtIK5fpj4rKR6hn9r
+6wpEPr/pT3O5JqW9WZuDONq554E91sZLW/ZwX6JkPuVxY5PJUxFIWU2T+mxXHS1YKcADMJyd7oH/
+kGTc1dpLDsznWmIjuCxlZK191JSnqnbgJ3TCvXAY6+4V3uPHguVjL1l2j0XsGB+rOvK2eeZmJ4ZD
+2151zSf8RRmrkdeiwcsAiAfdUC+vei3h9AASNLGnSfOh7VKgdmVe0ui28v3AMdua+/K6ss104+dR
+QcxUQS987KZjmZLzvCk0xwpNLXZPBQbyHDb4fFMBGtrXuYckH2d/FrjObN7N2uBf3FTq14ZK9Wtl
+KVrFY2U1O+qdfM/JJX42/BSAgiZvjdkZriOU4IuuwJcglw/KRvgaVsDaAnOiiLFm4LDxOMOQd1a0
+/S3nJIFzCjG9JeyZ8oBOwh4ocf2ZxabZWS2u7ial489sUb5rROY0AUOBbF8Xc3bwu74PJzEVoe4q
+g8ORObyvvDS66YdkuuvxiL/6alLPZTtYdzGU8gPh2+3FsbL5DskVBAvTTHdNxOaqz07zqbCGORzL
+2N2RAj9yoJN8DEbPgZCErozlxNxHiuGz5lvwGG21sfz6bJYxbXaIUkOa4ynQK6SMdnRdyLo4oho4
+5piDwripsP6NbbNvmtF+IzUemGrWpwhXxLQHOhcdzSIpbo3FXej+AHI/JaqLtC3DLHZ+obKnWKX+
+B7chf45eYX2Kaixw9Tg1j0Bg0usFwPY1LrJ5jXK30veUc91VBkn7gZS5el+s1oxgair9QHOfTD3J
+lPhuUW56HQME3inXzRko1557X6Y1qy3Z9l6YdtZ4hXRBv/Vb7pUq7glxz0DVvq6nv0vkOPlBzYN1
+dnrUHkXtpB8Gz02fmzpBGRfX9l0BQvsw4yu46NponU1AI4eW2uYGaEr3CK7G38xFlx8LbeAMHrHC
+Q8H0LmZTmx9KqNLXDXORY2rkNYnsOaz3QkL8mERi3+T1dDaTSXA7opLR9H47JHH/kgwe1YWaYWOY
+deS+NNb0u93MxTFW9QggqLCpVCNy4z0kWApl8pMl5Ct4lxrubSzMD65XPlajtTx1Xa32i17qdxUy
+1zJAfqedbK0jpZ2oBP2SjKDbNxPa+BcwotmtG7NfBsKyOAJFyHXKkRdRp+XvkMpiY7AQkKDgKc5o
+ngtatBbt1SF3QsjOxYNrdf0n+gTERsCIeeyr8kiHxzlVU7MvS9pPeAYLDnd5Ju9QRuX3dpQfHEXh
+5ZDsfhQkvIUdvohgYLH80FO7cdgsop0CGRS6HcrhqJyz+7rTxe/L3FQbi7ndZkkUkP7als+urs3v
+3LKGM2EW1YYvlMINERk8H8eoGfDN6Had5ty0o5dtfGLoKb/2UTfp157no3PJ78YoGp+R6VehZLB9
+l+mxdSgJMYJ5MukjGK6xfbV6UmExtoZYDtx9ZUzzFuwwqQMJo4Hn3lVNHdT6klNGu6ralouKb5au
+knt8T/hMlLLdTTvOjs9RE8pDHKntQII9h6NqAIBGiPy7GGpRxoHPr2mAxw3LXJdy+q9b/Ux3uL5m
+PK5v8b48Z6ZsoWrFdAvT3KfmcRr8r21JQYwuHBOpjuyq07f0XVGqZ7L6lDvJApEi8e/swnOOnBBn
+6FOx1t+lvSZD1y3RZNbdi5O58x4xjnerd9BeN3Vh6RdkOvrG4zANmcbLnW1hVf6Tz65xWUSSvG89
+kV4Vy/jRX3rnwI64bFTWjQTbAx8pxym76jIHWKPS/KtiEO1tn0XNdaZPzZMWpfmF3nnNUBlFNykd
+cbiYSb21u8Z6z2DePDjI8cFReNUumTPzd+Ikh2s0wPWLsJp1cxkW8ZwUefquN40xDzDN+juIFvF+
+WDjoV4oISs2IklvkAiziDIuCMW7mB33g0peJvYRK9fW2m03vjHSWAmbOq+TGcpnZWZKGta8JSPu1
+jhxFxdawLykMjtJf6nf5EO1To862dJ2WWzlaYluPI1AQ1etLthm0UgDTYHjdAMI2xtg8+UYsP06N
+KcMJjVIwGmy3KY/4uYvM+gDBYa6wdrX+B0mYZ1iUk/6M8yw6sDIlx6iHSUmb7nYZMu21BgJ6qntP
+2xWx290YaZkfbaFFO4zi3V2uJu9dPHkRo/lGf0jGVOft3EjbQORydhYN9Uurmk9ltyjKsIHlf2j7
+BdH8LOL9zEQzXMjeDcxOO9ulbo59ULbpDPWrmuwCvmE56KCiZKrfrd119v4six8Hm4NIkA1NruA0
++/0dxLn8UGGIwZZVg4IMlq6dSvyzXvPmt7U8jnkCC2qetKvULLbKK4vbkfrq0NvDB2h+uPSrjhKN
+qKbhk+ydD3aavBBF8ubmywevmu8JxqJ3vjC7L62mOLalq7Ztkz5CWqtPIKDcx7GW5pPMpvIVddj8
+vo144VhiTHtxUlQhEuwZnwL6WdOhc9gzcWoW55qjVhk7wWJK3d6mZtWLrVOlCYWW7YbDNA/ebdM3
+ynnunOiNEE7LY6Yx8cXh2jVpcMCi2ESVvoedWFMsJnWFJaLRqg81CyhnL38MjTmSu0aquDgxo27D
+bsrMkEOePAPbLk/IXdwPtrKbjzr2luw2Ig7u7Ca20RIuQ520pzLPGaDN3bQgj4l7O/vsJXOnvbOb
+aLaBIYz4QSotldWxIaQ8LDUduhQxOLvR6d5j8p7oF8Z5qDMbC/pYvCekbzo4ae1uaLoOF/7lqhhx
+OU5iEEtbcTUgLMcuo1V2IGN2Gc0FuMFZ5F25JPk2oY98YgfRHhLML1c4+I1NXBrqwqynubR8m6el
+Z5qRpNOLkCjjWt/Rgk5ogPtKeKflsB63rMUcAiRb7TlNjzLaSddR6Hui/uDlloBx5KX7Dr3dRkXi
+rgCDF2KFiY+LiPvjEMFDagszPfV6fOUY0Nx116ivwAv0oYrd5uNgIaz3ZlvtUfuku6zvUGHFOsOn
+NK+2UwRaFReqZCOL6m71PXqHgdEjFAmT4GA90t/EEHGMrmVNY49JqGV8djxsRe870HZu9zoIt5Fw
+4BrBiYOU45xW41fl2r9F3C+KOGutpP6pinuvgKqW8fdF3LfX/Dn8F78x+jddCrl1vr6mMPw5/Df4
+KyoxbtBvU5A/DNI2lRrl2xcBH6fZlan836MO8sBdQ4fIsYaDQ9b+abTxj6OOH0s4PAs2eBdr1SSi
+aPYtisXvBx3RMBk0xZrpMhSwMnIkOJ++uxp/Y2PmYn2vCvzLG/ykLWhnMq3rmTfwGMYSZxcM/ks6
+XlLo+sXnf36rL4rT7xSImM2JC7ZgDzG2oR79Wf6qjM4ASC+M68xGc5bVdJ9M+uOKR8aUjf2xy+bY
+e00q2vH6nies05ZNhSItLU+UuU1cfK7oprkx0imRIL7YgxLU9+wPw+8p5o+0uBpa0WnirDtEIOSd
+n0Xto5fp6uwIusuPitl4Zqb2icwb0nCaigmq4tRBJweP5trig2rJTNXRSJaaRvYqkDlFk8gHMqSh
+EINbKUcXwkzlFZjmoOFwWBjMU2vU6Ts158M5jxowicuo8mlXjChXi7PLGhzas7NcPEPa00etApwh
+NXzuTGbNlsWISdeN0Nx6OWe9D5t1wpwiyq1FAJWvwRaVWT9HexcUxDfx87+rxi9WjZV2/t29+xeu
+AndV1b58rr5fNb6+5s9Fw0QxRPnCpuOQnOXRFfpj0VjFRPRa0PcSiMDOz9Lwx6rBcsLdjz2HID+U
+0t8rhpzffCwAKILpF+Ggg5r+n6waq3r4hyftS/QKyxCCXxozPztZdM4WeqQt2pnhf5P5HKF9Tw3P
+7eiLsj1lerGSISUtqCTbU0xB57my/LyYtnHBWdjtA8Yeoo5XIKsnrevy23Oq9Sg0eG69L/fi8PXG
+lIgX0/TKjqeRQ9nC/xsNhwhIsy/e6TYFPTl08VAMc3JljAWZuzKYPFdjsdE4hI/slMVpTSIegIRO
+eaoCaCij/sEs2wgMptO3tXrIGsQTFlzleHLvONAMiX+Tpj2SFF8gZmQupRUb7JoWZle4lpoCyASn
+hvFcRQT6v3vt1+yAXzw1bJFrC/F/1tndJ9Xn3/8X4P2Xkq3h6888fv6///vbC789O67x2wp+M3gG
+yXH5oW3KX+F1FDrs8q9okT+fHB43dPJgLxiC//jkCH4cewmdWXaW/whGwvb842NDNDRiPp5rfgd+
+L6w5P+62TRsPbeH7ZF665PtkTIgfGAD06Tb2AJenpv08gYa9Rj2eUtDUz0Qfakd9ci8mBnu54eQp
+wxou7x24ofKWsfCTHekxqte8QdIqiMZZhlWqbmCZEwA8dyi3psDr3EudM1E1Z3aleWpfsOVfO1N+
+jel+H/V1FPat7cOSRTfK5JuarU3fBn1ILwXXcdO4NYrxsmo4hXv45m2UNBjKzpWv3zpGZzHnn16q
+eVpRny1zO1okbZ++dbRewoJAvjW16OJa8x79cs2QtXzzZXk9GeM9JUMCP2zYCdTJg1puRabOesy/
+ajON/lH6ouq+CqtmebV7eQJG8orC7blR3a7Kcf+2RWKRrCQOZJc6wQTkbFt1EfBKzbsYvfUsx/zF
+RTBOsNl0r7fyer0CMJG8UMj8LathqnRxn+2snP6rhRyQCR7jddAOj7E13XvlTPPVdOJjm/uvUyT9
+vZEIconVWQ5mdVxWBgN7ORcGEqqw05OZDCZjzvnRSdT9VNMjsOQpnvOXtsleqsW+uInVOoEjuq3g
+A8GZeKt6dStyvitl9bvGr5tAE/K0cOQP5j5hYm3iGDIrLpSZtKRSMkWCD62TcCihNg1QrM59napt
+rK3XMileBoIhAn1dBvsJaNj6XrXgHyDaRwil3/bmtKeYOwMpp4od9XPtVmD4ZfJmsTpCEU2vpZzP
+Jl/OAXmzA1WaT0gi2tMS9VGQ904epr4Ffq3jjRBnMn31xXLVIk4mmfCpFU0UJPb8WOg2kpByIjCv
+7cOoSl9oy/hbACavXrVgLI/RNCdtepGN+5zO+ievsW78CbMCA7FVAngA09ESRjw+LswSSOfsuVGt
+Q1zwHWm6B4qup0UwDMvZqRTkLuD3Gx+/M2xy7oR56fugwfsW1J3+VMbGq29NIM/nFrJznCPAGB+h
+gz2KOX8rdOorHUdDOBTzoxUZSSDTHii+iTFzcVCo0shhNrBed6N0EHiKZ6CoGX0P+1Lj+dz16+v4
+nAGZnNyKlvOcuu06++d21Aws/qYGaSDS/I2bJeQfaNEIbJjbLp9hGqhG2BuFavTQuGok590ejx3z
+0+M8atqNTFS+bbBV3pRarXY6E5FTkTTdxtRy67U3GICOrXNleLKOuWsqRD1hK5M6C/2iAfYrl+kl
+cqtWQzvKqB2cT1M+YZ9/KmYg4+EiOlolVLBI7iLSKOTH1lLjRs75dk5A6AMdDutetdtGzAnmC8dx
+YGqSU3zykKUy/2wuuZbclhWaiUkTT5WGmLIbbHs7DvbLXKr2tQRRwlO55ioxkPBcgPf14juEgBRD
+CIpw5eFzNI5JawcHa75WBiP6riGRKSG7g8GKsbPciu8NEmVA2hZU4sjQw9kU3o3Q3WHPLDoKlHSf
+Xc25DGYzHaOxfdOm9iwc+YtU+bVk+e7wwypOTbh6q3j0oZl+cYh+Z0dLM0cM2SSrgxg1xvsDSYKQ
+0y+01K5Jina+ngZ+EKd9L0ZbK7Cf342TG5QsLFUkm/5k5PLFNJQOffcDsqwqRB55Ar2IjMdiQf9u
+M739+jO/f6efDVx8LmRvHkJ0jJF/DXibXHe2MtKXsETJFz9iNVyX48yYmNt0QVcd+ZO+++f3/Elo
+t15LCxAVh19IYet/8+m/u5axVfqJ10XlQfV2Qv91fKxmHmzNEgcAfPlm/bzIQc7AkH4JOF1FfD9d
+WQpv2jYulnawV+v1+O69awlYKKO6Izu5hbxTFd6tihDHsFycsyqTB92fXyeSgXZyGkmtGTueW7+0
+aPOr11VyG5fLGfApu66FEcwvQHIPiMS96Tw5LN+YbeqNJM2CQvC6dNpdAcVpLuInHcpl6MziMni5
+tpkrIgNtG7ZEjCN+AwdIhf98kf/mFmLir5u24Rh/E6Rn5qlfAKssD4kJuaXSb3V/uS0WEjx+8T5/
+d0WFsQZR49TkVvrpisKJ8mb+knvVB0PYYWBSRiq2es4iXDo+8ReevO5Rhtzlo8JGpxcQWNhDxRK/
+NSPr8npUySQHCMOcz7HWMd6ahkewJBerHfeJx3Jv12mxiWOYJc1szs+xbao9onEiJVKVnge9xacj
+56e5XTNOzFSc+tRjeuQAmxBl+halNkwGpnn0Ib1qDxvoLaqWJy8edijV2Lxr65Ao+5AkZbqJiUch
+qGE+SxfRPoLBWwYu9KdNfrbvaR9bW6qNa3DG+ucL+TcrDPhimEskNLh/NezjNyQJVrOIWpyML8eJ
+mZUNtg5Up8k6/PN7ccL+y1OAYABQBvHhoEfWv//uKWhNBWBBkARry/FedOmJcIpfLJhfnqSfnjRy
+bekwrf9Jv/an90iTRvY5qVOHyh/rXZfO5gasyuu60qeLpfZ9G52kCUlOMy9T5Cdbt8xP2hy9Z5z/
+yXPGMsAd0lIWZtYBWxObLGjcoFbFtWHEb4szWVsMAvKQW0g0M9IxgkFfuqs8dbZQbN95ZLoAVvCY
+O6tUbej4wOAxrH4DxK7ekXkCnNIH6jvMdR/oZvoGZGcdo8vrcZYnaKJq4zkZB1Q0rYjkaPuv3PRR
+7++r0ky2wlp+xdn4myeW74K6mi4TGMCfvdWlWa/A16I8GIg6gzHB/ZWiZApMTfKZE64A4/QszJV3
+KWyn3kQ4MtA7FTd9xr0cyXKr4X3cTdFC79sxqnBI9OcpQw4LQGSNdnAu0YBXZIjsS+KbNJBaViKg
+YFXoZupJN6fXpdNh3aUPs8Xp0CdpZtNq814mOqlOXKaaXKy9lU97v57uY9shdqvl/hQ1C1/nwI9i
+gpWFRQTC2bSXJ8aJ4/X/Z+/MlttGsi36K/cHUAEgMeUrQZASJVGjxxeELduYp8SMr78LtKuvTLut
+W/3cFdEVXVWWQGJI5Dln77X/fOP+5iHhnbH+dQqkpw/60407YrTJuxF15+iVsHApP9yRj2NhHAnr
+6JUrYhh0XM6fE/xRCGpsA6fWLxCNxhKzMNeseGW2ZWCs8FQvTA/gly+kwfVZKm5JbN0YX9bBFTrT
+90mU3zgZG8Ae3semKmVNFtDQBBLqM5PplvHW7H1uM+Oa+KTbXBatH0t2+6TgiK2o2+ciXR6mfL4q
+3PVlzG0WiexTOK671NFEWKDfND1awKkyfbarwdCl3q7jkp7Ky8WaxBYGhMmMNjs4GvFPaY2dsg7R
+kOZLF19OHkbQtQhi1F1txy6rDmU/PiUdhaSXwe9eGko9exmfFH5yEHWSQf7wBMDsDhIYYxd2a4bb
+k6KQzdv1/2gF/4ZgPG7Iuh92hqXaYH2M2sk+kln35ERrAWGjxvGcWkNHzW4JtuzN1OAwcWv+tNLs
+901q84jRWLpG9/msVslKv9of8+QmEdQscmIrDoPzfRoPD6OwSN+qIO7S5tGG9LAUqyYdMtim6/ID
+RfG+CHmzJNHAjcnT4YzdTW7YH+N2LA+ZYR+HdtgKU80Arcb9tHLIxwZgHam0x7yz3psKGO8rd+5v
+Hm/2OrYtaeRxR/3C0ZlFinTKJl3VhbjcDg+tzntvoMwiuSTdrvuvU6ldoS/edZKd3umZL+NuN4/t
+uGlSfqwpxDbryjSQmdx6gxLuNu8ifLWmVwa4UueL3CC0asAP36CeTYKmzKNnoKXyplYyxvbLexFb
+s7wuWcv9xRVHU2ONSbv57SDYbulKQADXk96fog5JqMfOOqIw5H0Yk9lD5gnbbDftn7qBFVSZ3YPy
+KEklwXvgox8suyd2gtFmkKhMbJtxuSri8SkNCdAt8LOvPcBncDf1TtXdg0t1cJElznHgJUKR2T+R
+Sne37uY79+/363/70q902Ljj2ID/+wab/ymn4aDKn+M+v//U351pDKuG4OanvQyXFjHh/3WmTQvi
+L2MXOmigwwyLJfTvzjT9NQwNjkcJgx3vFArxt5fV/MumBGC7o393uv6j5IfzZVpfm9/0/uhzAzuy
+eIh+fisg26jqpoepV45CBsPIawq7Xrrypt1xuCfgZT6kE9P+QNezDuGPNbzJMAyQryjL5t2Ls/eb
+iuocP7x+GrqNpkuYtL6Wi+tL5cXmCiJ3ncm4HxBolcYxyhA4bnq3csBDDmiO6DRZ/QcX712yQUgO
+QqFJV+BquAD789kfll9k1+m3/A5AfmaeG28WW/OM/ezY4VdjprHwSj122u692KqdPjH8JkpcCbSI
+N97ZJ05cIAFy7o5iwtpElbLkbwaMXWKH2IgZPAQII90miCnAYjhk9s6ZLvbszsB7qKHqvqAGaA2i
+gmp723ZJNWy6Itbx/rBXjoKoAn6QkZZctJIpOoQ6+baNm6uMRC3WiVZzbiBxDcX+z9fhfAgJmppV
+lvxsFy4clsiz/Se9+mjU6rw98laRb6vIw9dvYWpAO7UiiRGKysc6NPL3fz7s2TLPmJ/K0nNhbp3A
+W6dc+RdX39anyKrbqDyW3mIcjSzuj4Ci/cQL47d/PtJaWL28auuRkPvqFLHMfhgK/3zVaoywS4OX
+9ejVOtmbI0wIGrvebG6yOg70ZqX2Cn32Kj8V9li8dtOc9bX5otwoJrUDL1vGVeeHd12RxFFJMseq
+Q/hUpLR9MiZg+d5eijZwFA7oWefS70dwwKsmtHK/drlsL0c5W9eTI5TuE7xRkaPllsUboWqTyARv
+nr/W2lBvdW0pXB9/taUumJct/SvllvHrhYJUxbKxTu7hs1lrl+LFhdKd3i5tvCE3Rh8WnxKFZWmD
+QLdDSoUKt4wOQHqyzzTp62sorPHOqawp8VF+ud864hUqf4aj4VtVOnxNeA9/IZ02dl8rouxfLjJb
+BROU+brjZcDtnpkSHYUsUsWduKF/V4fS2zLNBflxstV2vHF9NTX6PWGnRFPGcYzwzyjxeqt6n6/u
+3CxviocaxAYb5XyM3o1pUV3OKII3NR7nNwS4E4jalCFRJ6v1N+kENuAwbcvjuHqDiZsVmKMNDMPa
+yTxsUpZc2BitH8w0ukM9JGDI9DQD2bk9dScLsrO6kY1kBpaqrH6BWzN66XW+OpexpFuHeHUzLydj
+8whou2Buit8Z+TbW53F1QRsjfuglnZ7rtukee12j8zsWnQvSu+lREZvmUxMbY7YPXYwmG+Yj4Wd5
+Ml4nZaN97Fc3dl235mVWlfWl0cj8C0QNh+d+dXAnJzP3sPq61erwRvdU7w3LlLcNBObAGhWQGWM1
+hee0ASN/wAIFQn71jRetwEFey1s0rpjKDaPqLnjVmDS7V9e517n5+6nQ4ytTyfrRFh3udJlq5g59
+4/LJcyoVoD1Ol92QedFOmyb9k7n63NuT5X052d/LkxV+Wl3xYvXHz9FqlVera568meKixB2/4QWE
+qR47PQb7lHJZ891wdPE7rRZ8a3Xji5MxX2HRJ1tu1u/H1befUDDmFCmrnZ/oXqz9k3CnawdAcx7e
+97hdCsLtk3wu1Zc4jOl4fGhHbXILtLyKpbx6Nuci7YTa9F3f1/qxy7oimw6S9Nz9IPsuvMTFByv5
+lDd8gsGks2AG23MN6NQ29Na4XIXnbcmT431IZM7YBA4GFd1XOaa727jB84eFcnZHeCdTjofIaWFD
+RpsxRLc5+j3vwh29+TS8RQUpnMhnFotWzBAZ+aZlnii5yRteXmEwDQlk21Ay5dvMIdwAnzlRUVBu
+9dCnRxwIxM6E7Ap2KPCglHuLzYpZmojX/SJWsLNo/kXtXZtoEM6rKPG+aT1cb32rV2a3Tyyv9442
+JnOSy4TbuRicyqltlvmihaag4qCOYneNmRyA20nVlsluzp0CsG7bFrVPD4sumItEjJzxpEkouDFJ
+v9PqYoXjCQc2Ov/Ttds81TXMRSCI38HXlsWlULLLgyzunIel7wCZQSKArw4FrSVSzo0hVqBiGery
+kZexOKQR4sJdT6VVBlWXQ0WGJL8gDk7nerwpvJlbW+NRUdvQMPqDEradwyQWUb91QTpDhTjR78sl
+FctXQo4kamw+AJCkmYHEpYFJ/yJK3MzxzQws8xZ2cshMMsxsOleqlndpOKaWL5IGUnhRpygIiFmy
+dkYdRjYfF1QspKkYulSMdzQKMmnFuPj5c+QWEXrD7ROJxp/GhPqhmxJacOUKs4a4nHnmETp7sqB7
+GWiePaGRMfujU0uGLCV2vBvm97ySIjhL/IBcmYi7MImN8gPR26CPGpzW064d7SW5Mrqo+443Ar4L
+psvDfywIBQT9E7TOAv6jIBodE6hostb3xjBIjKT5kI8jOwsQf8Njazvj51rFNKxccPqBl0Eu25BM
+z++x8wouVqkG47jQb7Tu286GjdRp/Inv6QUdaCiU3maRJhdqMk18KEQBmLeJBly+1Jv15kzTpkW1
+00LEm7D1kXPbrDwTUPx8sKpl0b3iDSbfIr3n7i5YJdWWhgoxAQgQQ/MuVT0AI4pFSeaFlY79TUfc
+KpvPNdWAGp3CrUIKPV5W1QJ6HYwtkQ36CY5WrB99ZH3ic9WFcbTskm/RNwjoMVZWwJdkNvDo1Dky
+1/tSuTzyqmdXEPHfWFPNroxvG8OaKcxFHetc7lFN/U2hxaDSEMY2027SXZ1k2aEBEsU/A4ziG7GA
+TNJY98ldWbwNTSEP3pCQ9ezFdsZ9Acz/E8ZfPsakALqJboLyFLHNTcHYlFn66PG22LelDn5SRs0H
+MJjMo2IrTsxD5UWyvwpJ3Bm2s3KbkQ3uLPY1wyRcfG4zP2d5Zt9NfatXF40+D9m7EdxLe1GEWvFt
+JtGANQTxZbylDvDQyJvzmpfsFPKdpocE3o911Gxci2VuVmP8kFRdeyXxM9pbmx5kxLLHIJFmnynf
+Mv4m1SI3Sx6TRQuFvLTKymi+FizI88EzuKUCWHLcI6mtcUZh1Q4BL5mxuTJUbzo+YKlu4E0rBp2t
+dwOnXg7ySZvZph8WCZfuS4ePs90UCBaHy2Q0+VUTaZSLb40RA++ay4J6JmNGt1TD0N1M8KseTy0K
+z20vrGIi134ZHS5OphuQx+o8qyqmHJN1rXU6k8C4KYvhKprHOvY9G2bVEzuR9osu8csgCk/aYZPR
+g4HsMw5ew1tgbh7xjBnJe6NCBQ7rnx3Y/KbuBHECDDvB78Qu5P2DFtbjZ3RC2uDnbuvgdpG6cY8G
+OVz2qm/aJEiWFdCTmF0q7ib0yvaxgK4K/7AedOfGYoY/+bRgxjYY45qrRgMRx5la3FUz17b40ycx
+qe2Qk0i0XzykRpvMmiClzeGMOwOVrtO8O/HMGF9zr/Gmk2+514v2rpRMrJg71JJg7yJ2aBj3H0yU
+5J5BmNjgvrHNEtLQaEeddYO0yBsesK0TvTBH3NFBnQiuJoUDxJ1E0JC7dlUdiztz0nO4/1Ml+V7T
+pEU3mdKAxBUAOHHHlkVPUwvjGmWkzKJdG3tZTN448QBMlnnuZ5i9CRyg2P3ehP1vJ+WVToqJjICG
+879vpRy/jv9z83VKnn8S+f34sb97KTqGTB0ln2BPivbphcHzhAyjlqFf8iNY6V+9lBMXTKwGThjn
+lFYvMChi5YLh8kIBztzARM/0T1R+9loWv6wqpeTwtHgsm8khitqzXkCTWjlAxzK9ViZug08Y42wE
+qZaLL0GPpVZKYBFqTOeLBAh/oV1WVNS28ildmPTggttjeJi/KHYPCE302vbJBhyWq6l03K+Nyt1t
+QidCLc1F2UXQOpGt5uNsPWqQKUgthzNgmqwYuctrG0FLxNQxYH+aos3TE61z74eqH1Dt1d81fOIk
+6HPGodM/QMdblX4LYSqURXGl0xxOVj3gtCoDzR8ywWjBIx9fM19aUWWx6dLDB0KChMsMjO9Qs/RE
+OGu9lXbmpZbI9XdJcwKhlfUJi9bqRalf8fbPyIXXm2eQFWrnNvV8Z5t5iVZ3HlN+1Jm15WMNfCX5
+7wP4/xILItNbmbb//gG84tf0z9n8Uij444d+PH6e8RdBEn8/XyZNgR8SW0/+RT2HHB6ZB4hv4wWD
+SEjUgDxiCLrAzZqrjvZvYT7Ga/pggK8R5hqOvv7UP5DYnpO06RbqQJDor64aBcM8b8QBRI6Vt4TR
+YTCgH/hCGO79aETLDngeFUfjysOgf4afN13WpPqNm7Ty5MNQDd2FcothLxqj2etdgjLtxWn8TVPT
+PucF8tH4cjbSftMxV13B2qh40S6ZWhxCmYmhz6XRUd1Kmem33uL0fAZw4wwr+uoxMSzNovMPpTQS
+Eqfs0PoF8JTwC5GOxn3LutOooJ7dwn231Fp0nONm7Hwrbo0PRUw9g71rqJcdYA7NI8spNfVb/N9e
+q20tuLjeBcH3y9bSs7KLt0Y+Wtm0JUkrU29i4G1gFLQCL5208+bBC9t83kJlEAXRPSVbRtUbRIHP
+aUDj76nx+lj1gRw9cbcYTv9GVji8qf2LYUPOSx5t+jHF6zwXOsnygozuAdZuCkSwwjjLvn4ydkNo
+xvmhE1We7RLU+ZTWPTvisgH4SnAre/3w7RRGGtXdog5NlBr7Htv5M1hBdSsLe9o6aYsFqzrUldM+
+udj97tiqz4in++4qDOPhMGmDRt+VNh/BEqlzXAeS12UU77QkzdBJ9Ub1oFnygw45lSCgtqogGefx
+ezMMa3ej9/Z4o0WVdo+AWk6+i1s6GJNhuo7cBVtilN+quccwt8jS3ZD3A2nPyzTrM7TRFDNo3DL5
+tiFZ9EJPnAcdqdnDkJTCL0KvuLOHxY0HCDZGdgPipBVv0kjFmwki6+2yNAHQG3NH4T8+zbo+YYCE
+mQvR297neVHuareLM99QDmhk3pPBUrrGxSTCOnAX3FmCZRWQDhlDMIkIMGoi556z3lxBeFa7FHjA
+IWJCjM3R8Q6xQezuNiz1/H2NMO6pcoHgNKNB9nrWa/Uj28PlKEpzumZn7H5B7ensrLBrAnz9bJ6Y
+3Po5YrrAZHcOPDAerN3SjEwHMF/FnzJu+w2zwsnvuNPwFa6yUncYj7QVhyt7bPsgtxK5txqsaZ22
+oFsYE8EX6sRD3BVqhyzB3EQqibmlwf/RegBXwuytsZz3Nr/E16Zc24Se7AMbNc0ntJ8xkWU0QvEW
+hjdNEVtbb5rUhVVbw+h3TJk/tMS8kjLqxsYl1pJUbatRzFiVO7ec90MF2Xrj2m3rbcymcE3aqOTY
+bAiKmLd5RAdg42Cbf4IloLvk6OTdpZyUcSVru7KDifN4ObgkHVAo5PF1BC/nijRUzh76VGqFYeVi
+DTHwXNMmMtkLrecCvoDDdHtUTzgk16gkKTl9SwPg2k7DHS7e0Dcx0/B0xV5DcmsOdHcPf0fkTD7l
+eO+WemLv3axyLrNOvZHxuHx2h2UKSDSzLqUDCgBvDLyx2tCqIyvh+IHkWk9tal6z+qaIltIgG1hl
+4BLHcpw3Vavcj2Xoyn5rN2oitgpKxnAURU3la0B+2RSg7qB4Dwhur+fK7dbMvmG4rCJQltAJ6Jz6
+KRisWxv8l9oMSWTetrk13jsUwnipy5h0yLls81uLBwOAPL4HuGZDpcHoMephW8M/OjosB4xAJWbt
+PswpX7uyeUh60VXBlJviBhtWc601XcVgRDT6Lcra6smtEHlujR76oY63/drhHpWBoklyGAgYuxnN
+OL5LzDF7QyFePnl2hwFy7ottUY8QfOqKxReAY/acRvQB4XoxrN8A6nLoZc259r4WEJz8qWnkgykg
+hQeuTpgNQlGFYM3SC/lVLaI5zPQPPkRenPvDjHDb6IbmAozSloA7TWG/qOILnXxBfdM1sXUVy4F8
+6nFQdD6rBX6x4cT3JMqY7ypych/cmVLzolVtdIcpraYcnLsMfZUbtx+rmb3axiLb1t6rNbY5JIX4
+E9DyBoKrMQ03nVcMGNnpDMcbHLBZDn6vi2/xu+Mot4eWw+VRN3xjfZcPUovHXeM67UeHnC5oVVJf
+ri3WZpTxIr1UmTkFzWg3AWvDdMmUMHw/ZIPB37jpWOd5yDMiAdfpBUQsvN105vTCBG1lN+61EdkS
+jtBsxtlGb43mIGlMhZfkjPZXnec4p8t2oXnxVaErDQSY4EsOhhsA7HxOhU4d6FlIBJtJvCXNsL5M
+a9e9kyKmVhTFs9m0khvRzsTtpIGyDVn66UteR7MXPk/oMaXbFxvH1iYfSZ2GtKesg7q20uMMc39v
+VVrNDywTAHIedGszJt54tHtTRyLQm9siZjzUK/6GuU37iKK1uVemmK5wnlvEM9Vx+cGy5fA8iBxc
+vcCDrIpq2q/7ks+5dgrGa2yB0cBNWDpSd/AC+ofxNRjegTa9h51WeHRuNjbOb+HTJXCtoJ+12dqO
+hZJiNystqbbTgo/BSbuuDBqnyT5bHWCIYJbrPCGyIjPcpq0G7LYDYQptNHZHsDpgMvZ1lkBL7wdi
+xpM2zt4yi+ZyxZ8QHg23mm5lD7PuPGZTaO/TtIgKkCmwdgk6jsUNBHqn26CXNG9RS1nY3OPqIzrk
+btf1Gu2zTud6hajCKx6WtPwo7KbgdybDF9NYZ8dOSA/Bpfq/8ZrWuG5ZzniK2nkBiIb+Z8O+yyQW
+HnsUN4hrZp8o2D60mkEc5GxgKSbJtT6kXqi51FCets6ZpjDG9ByOaLcqJjVjrHekyaTzveUYyLDy
+QRdbpzXg6qnc1HaQBB4iSaufTZF9E9sVLF0ANiaedsKbtpIxbOtjMMCyZBdWFEAaH7bYiN3nMZ2a
+zx7SNxhRiyYPrtWO6waTLlRQpAjeZ2PprI0a1XKJa9OtNlAXnOuu0BdrUyd5b24mkiLpZaXpcN2Q
+yFpviO6MUl+VFLs+2xP1zkyZut7Tly+sfc9L/56nFjGazj0QBhJZyIGAR94EVsKk5iKDMDJtJ6b1
+Ia9Wi/1XlQvvcZoYVVSNS88bKbJz5amMhTaWot57lZOnNyhxM+L9Qrc4pqU3vVWmbB4MMbofm9BL
+95UTocjPCP94tgxgJB6w33LftApYJg5JXWxiY+GV0bhxv0+K2rgzkyjGGl8nEhOoW3+TpW4lfq5H
++iWw2lz3y2rAPy56B/V538Siu3IYswKFPG2y/9tXeaWvggSE2fW/r+q2X/NP4yf19WVV9/1nfhR1
+Ls5pDIloqiyU+diT/k+fwn9ymfPaJ23Kd3fkD3kKVR0VPF5KCTWJtvKqJfxbnuL9ZVnwrejP2CTY
+mbr4R1WdPJdIr5IvdhcWaTYUi0CGfq6dsnSIU2ORzcXszPF7qN5lvXVqMfZsveHIQH8rul3dzHd5
+ZfJi5qH1cYFL7nG93gHBInRzEYvxPkx6ZnFlyaiF/uf4deoc3gD8cpApvLB4Bd6VRDDRds8/nuIR
+BdznXRkx6ZuFTmLyJDFGcxKTi5Cszce0G8trcpqWY57aEBM8tqoXIPJCyydaWR1QlhNPUYUkarp5
+DFAB9TiFq7qaGoUHpBDQkCY73Y98OPbIyqkv3YWXYaWp7qGUEdF4bfIxdRvtfZIX2lPUlKhFgRAy
+FzUj5mM1Ph2vrW+XidC3YmrvBy/6QgwcXzLkmxqxeW+Zc7aj2mQcaAuNOQuFsB5l32oATiwtEqtY
+qS8dux4I4WaDf6dZODrcvHtHTKuctbvpwO5uaCzdJ4b3FA79DdDdEtNO+YiR1Liexnpl4ZQDzBnA
+luSsXqPDvba8+n1YoKBcjG46gM/4KB0otiBWNisXCsX6x8ZeGWBV9TgRoPkhy0t9W4s43mYkc7Dv
+x1DDSudzCz5R2gShy5Q4C531IzS8w/nVkm3A3l1c/VZkmrYDFl6ROyrzt9XcW29pSZd7aqvapxAQ
+OyYM1FFdx/BCL74hortDlbVchJZ26MiN/VRZIDtqDEWbOGFM4os6p81t1ncIbS5Cb2FiYnfN7TzE
+6r2VeU9Om1T7akL8aDDovHbCzCU1WBpkdTheAN7+TU6VTiatGN9EwIAPVlG18I+jtrg3Zdg/a3qj
+St9tdHHfYVA5FgmDeYAz8eQBt2iWgFi0R4FgKRBEgzIjqcRDm3dQv72wZMYZM7PgycFsNiRQCGju
+D8XUyD0ZMRBbotowNkRzV+St2R7M48GpjqYx9VcRNCGEzuhG3zBaSa6swtE/WnzxbTt3iV8kGPLZ
+FjKc2BkeU35Ib7N+Nc6N3V1WqW4TC4Dg8ZtW2ou2B5Bahd9m6Y43ualw2USllQU5IBPiDfIILlFq
+PP53oS+7pJtfWegNoDJ/bKDvEAglXz69XOh//Mzf7Tv9L36FbuORYBiOD54Xx98NPPcvVF5wYenu
+0aITLr29v5d6PPKYeUFd8AFWtjdN7x9LPfJF20QCRLAGfWci8/6R2/dMrWOR+gZYgf453f01vIwv
++7JJFjF9Wby66i/YbENlga+F3sAykdtavZAtNbkqrzOnT8qtjPEQvXgr/q5J93PrnlkyXTqPGQUG
+Esh85y26pgGDTcnc7cfeHAJ3LpzAgJoKwC0pLv6DQxEhwmsIWzMA9p+/qBLpYBCC2O1ZcpI9wcjj
+RrTAtJCJNf/Bt+JUSljvOOGQdPx8qMWYsnq2LIBJ05SgWFmarSIL3O8mt7/887dim/By9nE6gWtC
+oIXxzhS/WJmQZ/ZZbnMCZRKi05xNxti9820anG1UhuSbVLyBIAlkPoq76pUW69ng5cfBsQCtdzGa
+lLPv2eHDDEUNIlurLAfc4xQHpWE1r2R1nqneOIpNj9kE5WA5oGbOvXdt5Il2aMIePpPlKO7NEkeC
+PTXuEKR1QTzEn8/omQjzdDiEvzozMJPbZB1bvXwg7GYwqWy7fh/NlF7wjr66wvzmRaTsGXlx5YSA
+H/58xF9PI/UOfiOSVmnJ/7LXCmMIXJ6o+hUtR0AEM3EulqyCPx9lvRgvpmSn72UyE6BFpAOvOEfo
+0AijIiQ4cC/o/G6Epl1jXLudaen7k46j/s9H+91ZfHm0s1uDIWLURGRw7b1hNDaYqjfRACymXnvA
+FbkzG5Vln/98yPNwvdM39FBv24KtMzfk2VI2x5njjSOPnRE71i1jwPxtpPfsf6oFVFUVsTFsHtxh
+9vwmt9ovTqd7h9oWF32kqv3QyyHoJ4wkanTr52kS2uXsYCUxabs+LmomSSuOfIMw9VcWpvMRyvq5
+oS24zFFwtZq/3HFeGzlA1HiMkrG3MNBoYwa1cLKHQNME20FaNn7tVSOQ6awGQj5ZH6lPp7ve8Ooj
+Qz7hR3UkbxFzRK88C+ej1e8fjfV5fcLxgJwrklOZI7Wz8w75ZhyYYWxv0T1PCNicLmibqH0zJYJR
+5OgQol5BXDtMZaqu0awNMBUmtnWDXiJKaNNNM5f6RiCgouvt6SsuYL6KelMdTWfRLpcMSxeIOTw0
+Lq6aplPybY966m03eCFm+aTxFWygHRGfJNgL5QWE6By6jI7vqOUwz0ObQIbcvoqt7A0qhvaYWTOp
+fYK4eEVJsR217raS7nLRMJvAIoSxkmjJ8FqPZ/2dppphTw4bDiNy/7JZPHQeThJJg+eic+Lult9c
+7v58t/76gHi2zcaAp553ML2Vn5eZqY1sZh3rRW/jIzTxGL21fmkk01O/MFLo+8L4x48kR0Saw0jM
+Jnz7PPNYqmkg8T7r9ioML43WCggTepalda0EQkMkNO///A1/XbfJ62K1AfIjVx3gWQnZRnIouTbd
+Pp3zmmG2NV5G9PwDz1SvOZV+XUFxujHl0xEdw+Rf8Swv1+yop6gZUfXvpTfYV5XWGIS+9O4rJ/C3
+R7Ecj20KojvO4c9HKUAJFd3ICdQcpRPb6krtAqGfd/fn82asKvifV2q+DXBpj90iHLZzV2WGaNBA
+D4jWdcISiYYUfgN+bLpqZYU4pnXZUnDj665AEOy9Q5O1r6wseW1ZEr/5GGxhKFQMmDKAmn7+uk1D
+5EEyuO0e8oQbjMzFdqgiu501YlX2hbVYl7AJafLr1de8Gt2HrEvHfWTrw02xLOKA+va1hHDzt58J
+MQlNCSHZs569ViJL07QwFu2+jPryUld2IHXmuUyummPY1r0fu3394WTdyxttvu1BjvgOTc6t9EpM
+o2X+Nac7f8y8abss40dgoabfgNB4nEsGa3VHVCppk+OhnPMj7OHXNhe//wIS165gS8/zv177FzPp
+0FCymL2Rkwp5JVJuvetHK3oTs4r5deOm27A1dL9wnY43lioOiEw/eYn71CpHXvZ1GCINUUOAFlHe
+V4tbPXnW8nUhhe0gvFju0O7NRACl2hpIkO8Q6davvBKM9bKf350ULP/6BmdPwdgxxI4IC9/PWhod
+Qgaxh86esHdq+rZLFIt8T8cmTfVLUdFNaGvozn9+QMRv7wLp6fSoVnHR+ePuzawluAfafarFXU0s
+vWd/Zlt1R4cY8JXUv1T5ML1zTSN+xsfS9UPkp4h+tpkgLGiI2p2pY4tVDjJGMC5jsXHNvvZjDrin
+N5T6VhoZX+fSMFgqXRDODKj0FPW6Jt/RXVUXxmDr12RJ5BdLVX1yB/3RmTlQZJ2iA2Vrv3LOf926
+eQ7VIA0+EqP0k6Lr5U1Dw4+JDzHo+ybN35Uw8IY032oLwGpYPeKVfeJvlm2HHQmVp+Xyi89Nn23O
+8FSx6OxPBCRMQLy1aRlZjNxfOdJacZ3dSRxptXBZluPq5xv7Joz62g1t7iQVPWVMDN6RirNizGaq
+CXvOkCfoqCoOoQPn5s+30G/evmjW4KLAYKQ2P2dqdBGZAGFKinrvzh9wIN1NbkMwTvgtd7vPlLzO
+9s/HO+09f/muSFSwbFFw06P9+bmXg9ZiB+aWpQwvH3rBvmcOxXZmJOuLYfmK8vaJXN5pG801mxsC
+R/yhjYhZZrfy54/y25sJMB9vFnByv0TLJ2T32vHA8zuCxdnqNTZWi3EYWowq8u04/fbnw/3mpeng
+HeAyk+gAxPFsxYamkUVA77jIs5r2NMhCf+m9+JUa8bfn16CTwZ3E6bXO0Q1piyjFsOp2T41MXg2R
+4gD/U+k7Iaj+sRU8nSi9t9rc0GAMcWfTDYAbNGhXC1FXrzyvvxbl2NuoCinK8YsCVf35Yo9zbwPf
+zfgwiPwCPFdIXdVyMw8zmTx4iv26Lcp9vM7vq6zXX3mszm1ibNpxsJoOJ5t9OxbYs8N3WMhNUepq
+PxtW/Ll2aTpuRhV1t21i2DiWnMpxfEZlKCm0WeLpHJwmt8kihwa9IWUVlcuozePNEAs4TWbX9YZv
+R3b75c93xm8WGk8CYWKNwX/IFOTnsxSTsTXbpdPsgU8hObGQhlvkZgXs5ZNXTslvDoW42sJ7uKJK
+ODs/HypJjbZu0MrvCYkuvqFIcu8RQxRqozn6f/C12IOiQnXWltovqxqh2EtXe1azt81E3aPCc3bV
+7IZXqeroIv5rpHT3ffV4CUL6zSLGkWiLsEXEDXjeqTBR3aVVz5ESJiVbZBr1I7GuZsDbDQvbVFgA
+wuP5leXjt6eS+ppprmMwVz+7alGkl/j57GaPzWHwkYQB2UsLc6t0s33lUKALuS5nqyY7DR2AJwJH
+lINnd7KXWVUfkWa9xz2mNztnBkqOoM0aly0ejjWkSrXm1mFPnvuNGEZtR+XYT8GCAaYgpMLm4YLF
+sMjLsJ3ztybxH/FWlZnXbxHaO6C9wyb+BLVdu8kE6v9dFOeALdpyxeGXfCXhuw7BVeR12rDeRvyz
+85WtxXKfYL1YApyeKGhInCdWu4e2s80tsIO71CgmJyBEJDbfI49Kiq9OSrMk2tRUMDHKJCXCrUoy
+Fb9p88qYL/OS7toeL1FhBSiQjUOxoJ7ft302tEe7KHvvxiKSKbxnsJ6XO/5ZA6w7qjabNr0FpnBb
+YmSJbmAarQh21Czprreb/HGASQT2u9SqC0OBUtvMkTIViqbkbdHCfED2jx30Et55VPteX1XZbs7I
++QqKGkvddbpSDhLfkfVIHG87ymyLoWJGwjhgT7sqIB/p9B2K2tzWhb1urhLifD65uCBAj4ZkhC2e
+VanH2sYRRDhwm853Y+gOj2ViqS6YtUa6DzpEK+KekEP2l2xip13jTUQUWjDma0At0bL4bZvKfbnK
+MIL8f9k7s926cW1dP5EANVR3eWbvvncS3whJHKuXqI6i9PT7Y5KNVXFtOFj3B6hKKuWZKYkiBwfH
++JvElP9sy42RvgFT8FRkXbXVVd1620FkitaMlP6pjqY76ryHCejnpwQ5uc+VFdn3YxNAFsVo+WQZ
+0I7XxTdTtRxAPB10Fjb3gK82SuA2BgU+P7qinHdlXNaHdFLnnlrmLUjvr0UZ4F0wgfiYCu0dYGi9
+CiQq8T5bBu6hD48B/hl7HC6Do4jXdkPGjN4P3cWLQUj9LRyhVogJcbkmVF/XLkAVxDNOxAi940H/
+jHLBPsB+5NaP637v2E1+W2J3uMVVwLmI6iq7gmeJNUcI/XXIQWyunn/0Lecuz6GKQ4tKzpJYYHJW
+lBNJBf2vil0C975wvSsrfdaNuOPl6+LzS3lTUl3Ss+jPS63d3WqXoBhHkOxFliCuF+JrMmOCR7sr
+uk0icQ/3Se+dOcoO69rjZUFba5e4i3tcSV3vk7SSL0002JdNFuLDMnbBTttj/xZYXbO1RljSEQXr
+Iw1I36hVYindJPoMsKZ7NiwhLTytzmmYHXJfOngoL59rWFafmzw5oQ/9kE/LZ5huzX62Ywp1U/K5
+DqwUYFdZR2dqCpHvtzqYfL71iKpvcj4kaAIGaRvt7UJYvIcOsmkRrzuQu/I+7y1126V9dD9Mmn3R
+Gy7HJQmxeYCct1jNj6Gb5SnyxvyUDzVE1jpSb2IYJxinM7aau1Ll47pARO4a9Bw2ZJo9FLo2j8fH
+so0ybDiZPJ9qmvV6F3acI9hMCRJFOs1f6P2W193MLCsWvAii0jkD3or8ZTu2tE3X6IL/AHHHgtgn
+vusvw2W0gNEdvixZHw7dZsGndS53K8zpL5bjHewihVRqQQOTx9By2+86XEt58srKnXZ11Idqs7SI
+X1xaVoAcYhlGPUZyi/Ktc8qz9kCRtoPF1zNSWNU01W4FwfaYUdW/dasCM+i6KfOzuQDx7EOfvXaA
+Dx7aXAFAw3dGn2f5YH8L7IR8kvquAcXa1YVkk/0+ImkV7KslhdY/+7lH/34IHoQqk7eY4v6EuUoA
+JUgid7xDmUg/0Weq33qgfVi71oPzAp+x33FE829iJKe+QLCcd/AJEeQiY3mM8IX5osC6MBkryICj
+252vLefpXIOYcoU3fKIKZxrxEDboV0/MhAwhrc8ZNOnvncRfs9RW9zns3PxUoLZc4Wc5ApCGRPXJ
+b+Fb0i+f512Q+DWSRuvA4gDZBFIX7NYuDYASFSRcZ/AK8YqhhLznVBr3h5JzU32qJQID4KxS9dwl
+s2Gy+rT0sXuck3zb2qKLtzWtQVySssrMQWs+x0Uqe0C7GnRR2E9wsRlO6xn+I48YGqGOi9RdudWg
+VM/K1dN8lSZJCg4Ta6fWlutVO0bRpcgE3+rJ/CiAQj+oEX2rDZlIdx7gP3kDrUy+ULpz9xTOfKz+
+WKr7Bs/Owzrp8jC3WtRHeD3pTVVJFW6ljzcTi6hjUfF2KcJ35yUq2TdhlslvvUr7O7H2zuOQM95A
+vbFYggN4jDIG1cJg98Jiat5Jv5fffHPC3DbBCuK07Ir8yMjmJ19jdBNY6Fw4vejOpVPEl6sa5Ldx
+kf1nlTGuaxh2aG6mYDpWwPAw5Zo6OU+pRoDOGIfXGNfLG7F2FnqvbZzeaBS5wXwF+Ki/QgUWYBGk
+ixJTBZjNSZZLh20Zx+S4wCIKjC/yQ01WNESoKRlQQ7SdR+ks/k3ut8mTDLL0OvCn9iWABLTDiWxF
+6haJAWejIpJIf/LcfTpGYFB7O9ml8K4vjN3GScShfoqsgriYJvnJk/xtaVvpzQRmAWvfyCcDb8AJ
+3eDZU4H1NERe8MUl8iXljKdyPfKBRMXG02iuxl2xynbaAPeWlLGa4RPmSctbFKrhNUyRZ02SpTpz
++tHM8glbcXourv+Q15l6Fu2ILP/ccpOVb5f30djLr16RBQ9WvOJxJZs5u1mCunE2AwLpn6tu1bdR
+MEzPttTlfW5et4vb0KVfOMl9JxQXKq3lEIewvNBNxRpIDIxahHTsrZ1ay5u9tvnR0hBvwdpEyT1M
+YXHW2VlzGXgz39iu5T0pu36C4jW84tEKMARpqyHbW+A+30JJmW+bTJi6b6i3DD3yjNbcbAOrhTYu
+ihUty9wKknuRceTaYMraLWdIU6OOmU3MpNUCR72jgMRMI2ZlN1VZtM62dtb2FrwkRVxIELxre4gy
+dRZ4bdRs42F8a4EkoSFj18W2q+fuDXtA51mkMBnVPDg/AlUgY8HS6+6IFisY3kLiiuAix4citD/9
+gEm5+rwzUEuWlAxLwE4+HO25dPoNkkRY6bmVdR+PNtEsDNQPLaPubkwAxk6dK3EiXeQXDZL2zhmj
+9CYJuvw4xuhB51C8zohjhokZsb4bKx0/dSB27LveQpVScaA0TmiQzd/IqMMrzsTJAbG7niCGBw11
+09GbaAh70cs6RON1Usv0qKpKnURQ82rYNi893HWnjR+m+S2qzPKAbMvw1EuEyfo1exvTlv81SCl3
+iZLeN7DF/gEo5LqVeEvvQOYCH1JecHQYrw0dTYH8V886RAtiuXfqXt+ShMwQ9IrkGdqKwJarfUDA
+/goLJrR9bTvnLNP3qKnFxXVH/cee4JUUtey5bBnc2DNUbmQKiBs4Dh81JLsrHVjypln85CFIULxG
+eg1i3pjjcOs0NBs7gHNnfj6eq2VBFZq1eYXUdg8vJWzO06xZNqT6pIAx7T9KqF9jH5WAMmz0fYll
+3KuqxHmX2w4hDVGj1Ru6fROgr6hHcaF1IT6Rb6M7Z+v2WzybPlM7HjIqy2dd0oZ0yzISUlW0y6dI
+z+m93QD2DrU8BW3V7eIZQ6BN3rWnaF6/Uv+rv5Q18Cr2HAbJtURKoOeEsw2XRWTboiyHM+y6vY1K
+LBSXaoFQJZT1i8yZ5I4Mdb4F228fvaIYHqbOCgh1cXo/DVxk8pPwdoLZvKEwvWw4lIqvqBUEz+hV
+VOhWh88aS4Qj5VJU12xSuU1toExtPmdXeUThBjPyswTg3LfMTuaDiiz7iK/YuotgB+xmxWIEjT1u
+5pJSYboAhCW5EJ8K4R8bX7cHlhMBuC04naYBmClDuXhT5eR+0lI413Edr6AWavEoMTPbanLYA3wq
+/6KGGPXs+GF4tyjeEuB53R1C8sJNP/aINeFZ+GOl1YRvbjrm1+jyJQ84fiE4b+kGjK6UOFSKuhhQ
+TS169DUQB1lBsk1hQEIv0uIr+vPon8/NacTqr9j4wgJOh5nkarufRrQ0DizFA5zngkTNRwEqCafr
+WvjJE2xy0gyB9C4hELHoaMzvI7tfd2XtRRcDli3bBC3uzK9KsPK9f4MPcNtuszl2aFpU69mytOoq
+8C22nRqnKxZc0OC6pQs0NDwc0RGgMKIEPebPm8oqWEb00NRVnIzF59oVwdF3KMBTWmvZsZDeRugk
+t/RtnHjd5UIxm1NdiLTeZuqxnkS03L73QzCORahPCSQiFQ3lFRTU9mJoDEZbtBXNUXQ7m3kY8ako
+MHTH8tjRVvw5pmfKOedr3zZGbcRft50MlJFCypDiV6PzGX2HHnZt+M1Zgx9J33YvZKzVSzWg4FMM
+uG+FFVIonprS/Qgn4G4JyFiqBToWTuYjmHSw5ZJ0SJ+QlFD5ueW1s9ip0B7CU1iid0nQCNobCwf4
+dNMsYXtD+aa1N25UpC1tABSYmaN+8VLXRXPndlF9h48Z1It8IYAW6JG+VoNrf2uGInvtEnuVSJPz
+hR0oAGyPi/ZhEeApP/dkPLy3nEMO3PiKXcIKvLNKokO5xlp+YbekdrZWDqzdlILkWZvk7iP5MSfT
+Eu7TeVrq4bUukRkbpoEiwgDT5a1E1zfbDKiCv9hD4Xwrf5LyEazXt0OnkxdsCzmEiyRHfF2uyfBq
++dKqN+6qYkCOpd88VJ0mMAyZnttDCHmkPYgYx+7dpDOmR+ZOJDgQQNqHDDIKmjtpm7xAG+XvxFJX
+PZqpcenvBLwliUMzZJadGrhLxBmAS+0aUFoQJFwoicAbRTNc5Ks/cm60G+Vk21nOeXogeeWbVwsz
+vjMxU37cZSJerKO1mBRgpEOKcpyu48sis0WzC3q8V7dVEvCWrJWtblvpKXlRvcpALU456jooqtRv
+7gSdYTN1HvJss/Dil1+D6SsrnTYe7UmES6Ew19vQWbEB5DzRHmG4pluvQxAKdp8pCiAY1DzgC+A2
+xyovKPeALMg5YJa6PEkoqfGN2xkW5Oiv/sXSj+2DP4Oo4BXSb93OScfzlaFPPaSXdllcDKAY1LFe
+AH5cxQqujgqojYLKRTbrKrCc7LFclIuFLTI3NcSJuzKMu2QrZWQ/otgwLCdNGT65ERMPfXKVzT2S
+lXPXeZPw8oJFNxAk5tYIiNs5a5faP6ra1GUYRWWNfH5t3OE15/SSb7hZ4+Grhh85CkrVMZ56lFWm
+GOwoeie5q8H/s342M69zPTXU/85npOrwrm1HMjo/E7I4s4OeIkpPbwV6Wpcbl4ZGcOBmE2b/2taT
+nZQQ5CZgVe6KqN5NpjwbuT9SSAjuLoqsYAOfnALqOfw8+5yedH+a68m7q9NIX4Jlyp/XNZufZqiG
+v8rq/59s8DcMKui+f1SG/2XT9P+qr0NJ7fg/TjPOz7/xv/INbgyBnJ4AWAxwRoGRO/8FQKWgCmsA
+BzewZ+BBfpIQfuNPsaDhPMTHkeoDK+aYvs1v/KnPj3wgZAYEYRpIQFP/CwL5z473f2q85nYAv/q0
+Nh1UNxEteFdQZntaaqad+JERj4u3Ci1zDx/Z2YViuBvHwl2eC/by8TAseLRRClx8/zvYHdlcOi3H
+c/cgLbNeyi6yWuZunLAK0OAuM/3U27WFY0YvZLBC9kx0ChNLeUip0XWrcHJB+qkgQt+gYEGfZJPa
+0pqfspF8GddO8LA4sCxx7przJravR2+gcehvdF74cY/9LRbeyaFRxSDz7TJkCRrF/3iR/0eJ/123
+XQQxZ3+jE8q/wHSB/f7ZuWgHVLHHYfV/yGFWMRkZVGByiV5A97si8465pMbftH7rWNnLIz3dmFtz
+s6nneRrEqfTTx7f0E7fzzxfGaQ7oRYgSO4gw2nrvbiksXA2ovk9fMWj1yysp8vSnEQyc5WNmBTka
+0PhqUTiC5CajaVMWWgJoK2zZlvjvDAsH7RAX9uK8shWuy3v6GCv2HpXmVexHpH7X56wPjPV2sJZd
+cL2upcPHOH0Ofrex02GiSvvxQ/3ZpQR7xyDT8gZTQL4U/AsbRdhCpAsyxA+bzlfw4De51d7XFZL7
+fwH3/NkaNBcCOWQQXz5wPFAs70A1Cz56ZLk6eTUiikYUpEpKQQZjs8IRSirEzTy0EBE3SKdWFhbD
+Thqq+zL3m781Zv9s5Py8EzBTwJR9zoFYUJkh+QcShXb7grhdEbyqIeqDa18uBRqLfW2BXDlPUQ/D
+gOC/HGSEYoxMhceJPjQdsj+viN2KFbZV6H2vJpSrl123IJtZUj5Zk+W/syYwT0fgEkCwDYjBI/z9
+eS2X/B8bUt991U465OIHynUUqs7Q+2bepS2E0IziZzBNfwM1/Gsm+cyhwPyDKIZpxP55Ya+vhp6e
+9/Bd2xzYKfuHRjwpca2c0f14PN81es1DoikPdB44ATMqtt8NaNG2TjmTKr9C8vbr8IRQZPNUuSMx
+CnpimqTyRsdrYkMOyvsmsPe+ysr1uRhCKb0NttCJTjY2StfxHQx9AEvbTDVudVlSzYuWE8gkUfen
+j2/aRId/RI+QMOngGGDQ3A6I1/cBzYkRwNOu3Xxv6OVxFz2E5+JNIRLsf27bOkBSHvRoiwD7x9d9
+h7JlsH7KmLtoOzv02pz3YSuxKDPJ3re+0R1wXKTfQh88xjaMZIasq+NVCFueWCZl+HWhC4jSfNf3
+qGJua0u76pFawowMXBbh1/QN617cBL0mcGkHAleBCvbx3bIu3o0TNxiCl2CZIKAUIeTy5zzCRlD2
+9dS337IoB5q7KaJlXG+HQKO2gn6/nS7qGA9yCK4tL8lZTUMjBJsBJjwLwTIuRbp8ZwLWxVswGCQV
+258oobYqh47f268ALNDcUPe+nlLMmtOYUyV0prBkpqpqHHg7TT8GbMMNpWzeSFYnJkQjfJRxQRex
+y+iOjHPUX2gmkUJsOJ8kjIVbFB5B3l7zAMM3V3TGyaLLZtRCZCAK2qHz5OTOxhuTYb1l+cc+LZ6G
+qdmvbcE94hseN5Mx0nY+l0Mri2Y/Bbpan9fRC9Wj6rtA3WOTiu7TJmsKIsgmy4KWdwaRa+bStYcS
+7oKKsLRY6EnEd3gbDN+LLD0sWRM0/mbAUppPQlpO+AgSTxhZHX2AI+PdOIc1m9nSwZEbt0MPHmzZ
+F2nMpa18hvgOt5ECebuzQOvg+RKXiCpivuwrmG2qy68q0UTLcXYG3Vxk4BCn80lPmrmkI47Fi+mm
+OctFpIaMzdJORrNndlHistooBI74u7SikWV5+v0AcL8yHrUB2R8UOxsgKgPq2w3Tb9CpCWJVHdpW
+vYcIGfAbBnbInlKNKUGr/f6ODovtfu/l1NpRunPBk+uNl60+YzB5+cKltcwIjovX8kzIaZlRFWU5
+M3J+JCc+MM8ooJw3VT/RXXGy2FzRw7G1eFtkghAQVidhx+MR6M10aWNk/988NG2ZNEUSFPV9M0L5
+x+/P88x0kZR3WFOqiWNmTer2Fe/MQ0OFvwWuOMGuDEX/yDu30DFevneo+TGGrVYF14c0Qk3qIaqg
+xBa7NcSkCDetoFElhjgrdc5oV8BG5GdLQLbIQ8BlD/RV5yGgmu4hfJr3HrqKKLBHPELxMC0qNNxJ
+73WCP9GbAlRwHg9K8C3UVAVLYSpgHxS8+TFk7+oB7nNL+DGZC80TpbpiJ+LMuD0A+mYJLlFXMlO8
+FWG1Ey6fHrdX1Hlk8jYaXmV+PWDC6H/OJ0SCsG4Dm8JtFSI2Y9zhn1i8TXpGqHazRpQEMWIjBRSn
+YtSC8UntwExRk1qrRxk1/No5UcUCDvHvDq5JHVeyDBiHrHNUFVcTPIz05dei83qzpEVsvrRHYY03
+4Q/kjdiXScdTj2FeYie6z9rQHGUVEpVFfUUp1OELu35AbXa7kouZWe3liFHvaE2tjn/CGMtHlrCw
+H8GJ5MbMHfquiUxZlaEkHNjWAY/3VCLVDkNVgBrNVooYqaJ1desvi2b6RwMAJ7GP6xklSRKFuUWX
+xIcf2UMkHasOs7Wk8PKb1oE3OmzI1c0bbmC22M4B2N+grDP6kUZcTfdGqgSEAAWo+aIEPs09JtbA
+u+mA2bU+Mg0O1UOINwUtyge86BLRXLdDG+toi6+EmKs9gZhwsx9RD1g66BYTHJbNRN6u1SZxgzE7
+JV4xoURPI5cwG3xfZ0qfWDQiHsozx4UuV4o/cCeyLL0s22xywutRx4OZPHlhQko4wvaUh3KBU4Wp
+BZA55hD9665ML9q1XflZ56qpR4zV9wiVQ0efHQoydTG0E7RtOVN3PcyBS8gtmm7iLUHGMk6AMINn
+vivubBMFJwafmUsNKBnVwR7lzCc5wnT8DIMjE5dKG1LrXYxsDxMpE1NKeJKCGvt8MWYW0UExiqwF
+x6W1C26h672lPePtd4t/ESFuKk5RNazceKatiUsLp9LcP+GS7YjeBqw0PHd8+jV42VZmkwVk1jEd
+deDn+PjQm16ID0uUWeJG20svKZEvtS9OEkVVHilq+xbRkJqSF1AnCDPL9zqi/3q1ismcQ4j6ZnBm
+WNS4lpU9UZWSdFbQXz2bCpALmPdCl9nRkm2SvYAl1D0knebh85bNf9lTSUcd7xAWEEfUoa2zkIVd
+TCvp9Ily90+vk1/Tus4pgxFkROsxcddcm8Q5aC0T7gcLAZBnh9IKY+yFPQ6kGzLR1GZ9WinigFsR
+JZAANnPmhPIaVYcG87G47EdrE67OErxYzVz1NIN19RjD6SiYQ32X08NF169E4F1N8rtE09i66NPa
+Eldw0NEwQRo5715yYu5KRQvflFcBtLa/r9ug7r/OCAnPN2hWVbZhz+A4JlHbxzw1AqNi2DfwRQfI
+yrOP+lDfZQkVt6C2a+fSq9hW90k0KgcOUG9cDvHB69CyyRrVIzWS6lKZlH7t56XaiHCp3Hgje2sZ
+v8SuM4mHoBoXARwbuU+NunEFCrbdyJjnBzixJOl4NmbsZNU2XKt5XenaVavdHxJEBtoLzeKYNsFY
+Xs3ApeWBwmjqgQSz9PqYFm7WsvEFY3g+LMsUbTxBc2ILBjJuqWKn4xDvEJ0OoSuFIYbjsNPSExjZ
+ER9zG9MX+PXgv50ZBv8hkdppxg3q6Gu+zRLPt25l2dbiiQYjZeIjqNlFduiD2Fo/6lF745U1jI11
+j5jcsD6PDbN6A4o46J/WUKXQNrAjRSL1GOFWseqNrUIZoH2yVkjC5yMqy2srohoFk7L13Gwb9uvQ
+Rd+cuoia18yVrdK7MhiX7keMbRi9RzQ/2nBDz8rHIp6+YedHu6m0fVwzk9oqcf50EKEtjyqQpLXZ
+jyxqPEx6tm1Eu6XdOf64rICMPFRr02u81WRX3P7Ovm06ooFzP6d1S09hBuHBtiRrVKj8J1D3Uoqd
+TOY+odVoo2pQnhYV+mRjiT2zYHpo68z/xuoLlmHvaWOX58cEEhZ3F5n0sWcDZzlkIjARrqb2TCjJ
+rSVxEuSOkPyvzIPJObpYu9QiJaUZp9h6cCMEQ7kbGx/4w3EJQ74TlFtr8hSKwObkEKJZwd0uQtUY
+ek1dnQef/WZouBVHWiHGuKk1UmuQYDUIk/4wkNmjH8coHYXrkwXPNrkb6knoARPLiogC6nyRWHMC
+P81D2M/eK4xVV+8UC7ciJWoA9xBT6gnpJKySrQqJ8q3v170JiHXlskfPEYiD+Wxe4pEBkg143Gob
+dbPmTnv01rn2RMOvXR8Ukkb8rE3QNms4mLUJa2nwWyQpjgNqNUSUUoQVH3ELJ+aOGjR+HXySIZXw
+kThRRBt3nPrg2zx3DRVm5G2aS9xMFNviKKXJpRoZmpQli0czRmPbBKPzNqGAij3TXDlqqjbsh9QN
+NqFMNGMbQ7Nh+Inhi0mRfpZ7gqE2u9TvHUw4LeNYtrapWAQxPiXNxvESi4GUKXir9rjkNYeOarIY
+WMJMYe5gGqyM6fO/IwFsg3r3JGFLUx9qMr6xrUea0rvSwX8MWSsLc2gM5mgpc2ap0Uv6XPUOtadf
+r5EN03GeOf5N42PUJZonRhGJfvNpGlTo9NdNWqo5u13nwk7iL4pKP96ZmQzSej4TpKPqcYWdyVM5
+qzTFp76fVJ6dSbsxSYU9Fjkp+IwPIZtiFCDvRwMO+pTe5rPdhyNezejrXCMEZbJ51cq+90+2TAcV
+3eJi5rY5chWolvWnZRVmHXjYifCoCgF69VgNwiyRDlcwCl5N0fGBRAmTqDkVR+O8c8wE85IJ5sKx
+c8OKPDv9tbtmSqVsmhONQRaU50mywABpE/LNMTDzMakKADlbmxHARnKlI4JTIBq3fJqspF9v5yoK
+2S6djPtyt3hymNQQ0j/Imp3jSXO3v5ZHOfq8l4qeBS+1Hwh89aWnPZW+qGhOc3xPnLCky1N3zAUQ
+WAs5QXEQvTBzt2rcuLmqUQdV4y6thgjpfr6g9khq5xbcqbGJrrlWs/Y8gi1VbooV2KHgEKxajnxp
+GOf9V9VPORqZQznJkeCy0DC6FLMDaA1fMpd5VtuuOQQW0ufEZjvavJBBxKSXHDx5z+Pir8uFN7uc
+n4IwXrQ6aheJ/K8qczSDQnPVZD5DaityjaGNep4210hWL/vfJ+JoBVegDho8NKevJu08/pRyZgGY
+AUdNf6fLiZG1jXE1njEZbfFoh4hJOlgnPOW86TFYK2+yttbsMP4gis2hm3aaycJ67ZhDfhj3JpFP
+0cZTj8mQpLy1saagixZZZOGGkPfKb8hRYh9nUEbdRFzA0px5z7oQLM9gzg9Mp4B+FV/UJ6sJlZKY
+HJxkiGgAdP1QM/VPTuTgFbuUEXnUr6XXqMqkVpVVx+jcLV1bDd1uVGowE6OZTf0IvfefwvhQiObm
+xhZaNyi8p6s5cfuxNTKQCFqaJc5pOZVXQVDS5TdCw+kxyRo93QVAFIezaNIwqSJwjHCoptAS5AcA
+8BShM6C/ztfEAkBqfCy6xmSiLtxh4sz869SoS7T7s7MOPgdBioR/CrYDlSu32sepMqfAXweLKlnN
+TbernmFhsMoWA0mJVk68QqFgiPIq3XFm/5w1Da80dyZz63gpsBPudTYl47gHTyDKq1BSHOGD68KM
+WtzSBKyR14j9ti4HwDibAGHTlc4AAqLlV6/V5oS+/IocCJ6ZRLd2SjMrP64a/R81o4iaYOzR0AmR
+931XM6Ini8UD8qXfdDKac6bKLExsdhZKO1W8Gaae5/3LJd+XOylT4Y3sY5CMAjjOrO6fZapFNrC5
+x2D85gez6d78mhoV+Cm2ro+f7t+XMv5Nbowgh0vx/D0xzc1SuSqqE99ykZj41AbCw1VeE6yJXR9f
+62c18J9lSofScQihyA2R7/h3VwoUGzY3OId80149cZCZMoO22PqjyFiGdO4d9sI1aAkaU4PeOEUU
+VXVYQsvR5dxNFcJ0NmKOvCb2/IrMv3sfTY+gNylS6A/sCWGAsON/W2mHnIlkhkD/GWUXx7XNUP6j
+tq97RKBSmPRfx9zR3AcblDkWsrlyhPp4pP415xA58ZBVCegEIebyvt5NGkW/nQTqKyqp3rSckiUq
+5mdnDc0SCZJ0/uuUe99CQY0AzieQXa7pI5zxrsJO09uLUur3XyWoP7591Cy22yknst+nLqCHZZfE
+5PskEwt//lG5od3fEO0Axn387O9nJF1TJOcp0tIm9R2YRX8O89yMWoGu8l6oSXB0XLKMKlXUIN/2
+N77i+1E2ChE8rYeZCJRF733xuiQxhB9TOC9T04Z4U8vKbFA5Su9s8plrssaPH+1PbhFNE5g9lJ1p
+8vpGkPj9DMKhdSWYLD3GNfSJsj2MFRPmCIoL7zXpu0o7aHalSxZvw9LP2Bk/voGf7KV/rkBSLUwC
+YFKFqOHx6O8ji4CL48iweekyRPUbZAMQc9hT9cji4vgrbVF9ZlJjFDVM/P5dFLd8MPbevg5G4DZn
+86/BqQvflHgo/cMtpbgae5wW1ipq2BIGtCeiYRd5yHVDZnLKkWgdzr7ZLNUyIY+7yxKbhb9BzcHU
+X8EuUTxysIKZ4c6VlOj2Ecm8O57ltJaxA2tLy+RWQDVM2mX1LlSYrfFc4Z0FMie3CWEk8vVS9pLb
+Cn8V6AdSe6JmWbomaSqi8WfG5zomWUbcDuVTgKowACiPpUVPZdJVWpkiS1NSlv14+P814UJMKaGw
+4e7tQv5/P7UnThaZZa/LF0TRPHLWVI7mCARuzmQAv0vWH1/SrJY/XjihFvkGZKBgT0bhe6YojTLo
+IkM0f4nTwNQYQQcFiDEjmVJa1/ZgcwcbUcUThyjtJCYptKra3M3Ht/H+yT3kI2wip4Hhsubey1ZA
+SGxm3mX2pUTSGDuGuh/rJ7ec3f7SHcbrjy/2PoJgj+GHHgXQAGtRSDjvJjlqhSmcnWF4UR3uUc9+
+EZppURTSZFYfX8p9t6T5drSTjPJVSOfN8+x32YFR+qqqRrlPYKVsPPQoX47pIaWMykk3L2Z2Bzgg
+a81vIQUb5qWG4PhMKuz30UZS1qUEw5HH9O/l7FXkoc4qTKKep5xQMuRxlu8Z9ommrKUtUwaIxqBl
+EaooMGXisqY78qggq/BwVumzFyGLZzpFECVMvOZAUOruzLKIo9Whae1U/MWM+914MwYIA6GnBuU8
+RELt/Rj4+NnEdTDpp6kGDljyvLQqEJqeEa95/ni8vXfz2bxTglcA4AKbV+LoO5zE3Epqqo5IHqHA
+/bzW5FM6LRUm82xNhHpC0K/eewVIh1FodGOqpL//1Ct4GDkHBJvB9UVo6pmcBSWRzsVPh4qCVRaT
+taK2IzMA77msyxnRzIkD0x6qH8fjfCWoqcPvxh/dItNEsiDzsHbWCAlKdVBtbV746hdcxfrZHQ9/
+lSaUQwV03Fl+Zt5k4ZC1zJtQEfjbHXhuU1j+3UJjRTJ34VeYw3OCXBJfuDj1TAnk4yGN/nx9sE0g
+S7gYxtixz16I7NmfG27HE0C2kMn3Snnh56JvIFu6tEdPAfKVgho/ztOp0PHFEuVVspMiaU61W1bP
+Ks1t9RPXRtM09XB9X6Jhg7RP95Rwfh1uK40+PBIQyj3lcXFX02r7riTo902AJPaypZcT3Cg/aS8y
+Ox+u2JGyldN6BgvMGgrv00ofWZ0n2Mz4G4kEhdhRNSyfrdVC+3KsEKPfYp90K9iVyoOoLO8qXHq1
+G+XS7emJV88ZPfzzqnLpEhRypJzXljMtvNGpXkBNgFfUKRjAae1srPZkHz667M9fZQbedZP0QUYJ
+Ix2Go1s0zeMcetNzjlglOCjbAoZpUbf7gp8tLjWIbT+A6h9Ii5LpVOipONAmWIyTOc1lmIBxbm0m
+Uavzqmn34xwrCjZZUXyaUAqnap5MkF/mvn1ci4mSmHAQoG4sS2wR4LgT42J/c5dxeHHCVTxBykCR
+RQf1RRnidyXyJf+L3/2fwZoJQVuZYOaTKgg40O/hNHCByrDz0+aV9wXq2U0QvQ6qFn5b0NvB01+m
+3x8b1K+LhQDlzDZPDvc+I0lWQWrXx80rzPkajJC2H9F/dzEdqMsrJTw0nDQycXe0CPFx/vja/5r5
+Px8TrA4tG4L4e9jE5A9xW4q+fu0aY0zmVbLUME8dgG8fX+jnN/1nG/75lMJ1AR4Y+1Yvfn+I1G5d
+ugqszKszt6wZ76fcHlI0Tr7TWRXeN26d3OeYMciNXfmx3HkKse2jyn2onjhiwofOx+CmD/r4vLG6
+8In9diBPmqrxua5JXnDVq9GDGh1xZ6uieQM8Gl02lGfvlLu4n+KCc+rGaR0bZG6Z3ng1rtKo+dYB
+1ZuSXpwzxxTW+nh5LVoUK4tu6g9I3NtfbT1625X395dc6B0IjyExaQBpEOOCaM+/PG4cKxy0iJb1
+VUxm8LPcy45QPqqTXvVXqNvVF8zf9G5C0wxOWm8FJxy1/Wb38ZvxTXT7483A8TenOsCAAMfQ/vwf
+9s6kOW4rjbL/pdcNB+YHLHoD5JzJZDI5c4OgRAkz8DAPv74PaLvKkh12eF+LCleEQsoJePiGe8/9
+8fTTcIaxPoiIA+lYHDBOq1NvXBhcq4YtSbvqibvbibwdO49c65xtT5nvSuZWN720e6S7IlRuZy00
+dwbePPYTATrrmHm6X6fKTTwV4jQZ05ZcQuOBGWh2Wyr8aJ7NYozsj3Zk7ZKQR+oLiWubshEJM+D2
+75OdxGdDYDRMmRTvYvxBt3A2caqVQdN9mbKoe1QtPb1TCocHhD1qw8bQ2wFhdx2HD0PmQoOOKpUP
+EI0a/us2ZAUgkopMESw4xb1pKc4pjibzWWOqHeD2JczmHy77H2VJ/MR8t6BIafdtulnxM+gO2TPr
+NVUEH1VsWmelMpInQu6mCYNioeJ1XaT7f/9z/oT5+nxJagNaHA2q5SJX++nnVHWyVXh0fktkYh4Y
+m6GAD8gdINRkTjYsIlpOeiusP6ShZk9xOLanGIb2ndKTSfD37+UT5/3jpUWpyfGpOzogDu1nMWA9
+5BYm3aL4Fo4sGOjbcQ6UuL36VUVOs1epesqEIy+h85ABikYd06C1i5DDrpiTuHBWSgx7q7q0xUvc
+Zv0y+mWEXihNdJPacbOrDGM8210U7kOMZSbO1sVr1YCfxAcg1bzzao3YbyeH0r9V+Fo2SdoqN0RO
+kdHAKEMhVBdT4YRTHdQUts5NOPD0xu4Rp6ecNS8VpZH3OJqrrEBSQtzbumfp+WT1tKbUIs19q4/F
+Psozo/Zq4pxUrkTWRQsdrLkYblywckVRh4NiZK/U2hkg5Qbtw80Aiq3BBSWBj/L9lRqUAjHUW9UO
+9ee2LuOXrhja72as47Np+gQB/d//On8+fwToEkRzSNfw6P1prmfobELTcUi/OTbzAZIo3eQLKo+J
+rSE/GT2V+JibBXRZKF8mSHjYpu1e/hN2668uWGeRIPPoc1yT2cCPFyxKqSYnHCP7FuT21IGj4wex
+MeJmpziz242KUeUBuna3mWzyeSWp1a+RU/eS62TWHv7hO/mLGxaDI7Nljg60lq7+45uZ8w7f8pgm
+30Kh2veVrTVXLJUKZk+KDJ6L3bnLqvYgzSLfZ6Oh3bSFYL8ksna8xCJyECQXQ3/CC2h8RzlfWZ5T
+xen9P7zLH3uA5R630bta3OJopmkqf/rK+jyYcrcyu29MvavwccFBki+mm5PXNWoP+7JP2Sk1Mz4a
+p7bK7xHGotSbA10OW0OUzZPlZuFJFeTm6ESTsyHhKbCpkzrj6w4Twtwr1r2/Xm//81k8TPLb//s/
+7x85sOq4oUn52v7gmjCZ+P7hB/6T0WL/8R79kJMJUmj5G78bLTSg3UzcKHoJdkDPBdzvN9I38bS/
+6IuoDQAvwCPK2N98FqYL51ulEUWYSsP7ac74zWdhkvvHXc/FTXw1Y4J/F+mA+IQ74r9n/AL9hCTO
+2wKdCGbY+LlWTrWg6iwRIPWOTGUfBjSbxwJXKbwCB5u7CJfs5NSA4YrKMLufY2m5X7iwv0VQ5u5N
+QbSOr5XGg83O8zkVSnxE6T1SVugOFkVZ2E6Or5I6daVQX7RXDJkh3P+QVfSjWlSB4hHNnRk0A27c
+bPuepeRZABqvvKHKnA2m72LP/QJyJ+kqP5+0cFXkmbkClGltYOPo+jpxu7uUuIAaN8EQnDJDylPT
+kWzOeVcddOQ1H2hb3sy8dT5MtyFgcyBhSJWxfKvzVPVRSdvYvJt3o040Pi9uK8IQ9Do6zlM07lRZ
+mqjHHOVckBCIcVz0mwiVYR34NekPfU3p02l5j3AggwKix0Nyq0SR/tyTg2t2hlzBb0X1E0fqdQLW
+eUXUVKz6Vn3OEMI9jtY43dLjG1upu8/j6NjrXmU7a/T5nZko1c7sav1c53m97xwj8NUkjk9ooYe9
+ZUfxDXqddyQEFo5+fOLMEtJjlSNpyEql/9KkIthPgWVs0kLLvqHtrtdz4mjfDNY2FXq6uty5evyt
+60jPwQc6vmBQ4EERxknoVcTR+1WeOW+63gE7FMiMRqd8zuP8uWIYc0PwKDKraOhh5SkWm2taQ4ij
+wrekyMlvH4oeEV7eW2h6Yze/FzNrVHKJIrlfrsjHqm/sDWpNiqigy1JkN10VexESDt59L1aF0vfG
+Vu0NewLMhNzRs1MtvJqpll6mqZlvA2KG/Gg2q1Nk6MTsxOpo8SpGucatYm550AMcwroQ3w92k50s
+8EWnaLKNGx4c0FOjYLgMdVVviqYZv7aocxAoqEbrd6lCeA54oY4iw9S2OYKvUz3DaRjRjZxaIihK
+RGlDiAonU/xsQQtFWluE3tRJcdSki0c3boVKzDgBPfQ8c+bViEIKH4my64VO0z0R5QCjFG+jDhMk
+rSafzPB4pYcR45dIhyOi4FLyylx3j32ek/vWShoNv6/KeoOY4kQK/XASlS0PzTw1j2EtWMn2qR59
+L7u5XDtO5u4Qa9on1O0f+DZAcEZ07CxoQ+zftTIQhDSDvDOggaBoU91ndJJIFGpxlAFwodzB6JrR
+QX3pbS1joKLZX0k6mg/zmDMUsfvI3i7JFZRo7fDilqZxUdJAwCbE/dS1kDb8Ih2mYzkoZus7TlAe
+yDwcJBI/JVpPgLEuwHvK9Vy5oBtsWKEopuD9YHi9YiGytkwWuyf4IiUEowJiGSUUxZgbxkdFYlS3
+iL3LfcflI9nIpHDLZC5PUTFgy6r7aa3NfQKgOpjWMdumx36sRgrASttEhIOuIpemDBxGcIMIqr7Y
+drXSAqd+IG3JvrpGt6sLY74dOnVAWSwOVsdt7SWZPu7jIB9w5dvlBcCZQt+pNQR7SWe6T5tM3uRN
+rz/o7NXeYpUIAcVOsb4SNLx3pjgK9oXqCkJWKhJTkJ8ao1RvcqGs1aIc7kKzqk8Tdb/P4ameMfAX
+fmkVkV/k5DD2auWuQmNQ93Ol0YZb9lmaVbHXtV7f502HlF9rch9vu87oMgi3NWTuVRDLB7TYE4wv
+RG33sxtN33JVSn9WxLSbkty8ExOKKH5FynqmG5GvxVa6hVgjVzhBgGrpc3uMI6ajRaaam0oWoW87
+vX2j4lP1ypKDyIWNuwqARLwapRrtJrhgSxYkEGBGPwoJaJb9ykNw3uG1Ur5pSaV44xAZ/mSb3fck
+IAfRROB5bajXfAkYlpgb9T2c83BdaRm5ikSyQYxvlNqXkNle9TlsT3WeXYkJ7Q6Raxe+UdfyCDai
+vcyFRQOKQumiauRgNVFNj4J1b16boV1vc7OMfd0YnVWTOv2qE5H5LZyKfj2I8Wu3BBalnJmZF6Sk
+itVY8E+ITSuvlNbwLAGQ+aYm5ytEeXdFYKr9CrSSe8OwCRO0HMAncTreFFGncGCF1HBWbL6lWY+I
+UlTxWQuKYjurpfY+EFO4Iq/oMeg40vVh0ncWqrwc1Wpg3cfsZ6HBzM4+d7Mr6tL9gkv03JoV4DpV
+ERd4Bau6lYj7u0Gm4TPhRbAru7yhxC+iS5I1dPJKFQ5PamiT7GdU4hA6+O44QQN3x7kJlKFVT41Q
+jOs8d5eO6YxXZbCZIOikvsW195BMer5AoDxuiXhbuBp4ljmM9q6jXFMSLJkK1iWCSiMIfbBszi4e
+7W4TOm22BruU+6oTnDBSpwSZNd2eODrHK2YwHoMEKcINFW1oHeNt2HaJp48ZgDEnyE+hVXN8o6x7
+j2KVpo/Q++PcN+KrJrLsS91I5Ww19R1xuNY9GLlHFZ/NOXWD6jQMhtijkZ23Tie6dYXM57HJo+4A
+PeM9mZN2HyUwN6uUsKC+m1BxzBlYKvLom0PM2JNJZGheG3SZl3mBNgG6snq2LncgS/RXhTDOEwAF
+Gk9DC/pnLY6VXTb31imXcXLQY2tTGknlq0T9QoJ7GpXB9FQnz9YEzQaeCHu0uk4otx00oFuQEBqJ
+e6jd1Sr45qQhR2AYRVsH6TeyXzxHDbuHU2Saw1FaafjSu0zLRMPWUc7wQUiqm7+D8nuI8qLw9TQR
+92nAW2jZU/q8P6StiXHTc6quZaS9BQ3cn7w0ATzJ8pThZoSNMp4QV5qPWZUWh4o5/ZqkrX4Lyd/d
+xGMavNXdNG7NMa7fRoW4q9BlAVoSD7gXQ9JtMmIpB41zhUhJjba7B+iPJCbriDDsrGlVT4QUCCeZ
+D64L9S8Ns+PYHgXyDB0AZd6fzQyyLHRluBeqyB4TxS7uKarSY1E5POotjB4eYhgnuS3LVtsi6pVn
+uDCb3F4C9EaV9FCDrr8YLWUbJWa+USM9PAnEyutaT7pdGCQxtB7QZJfKIh8zMjNtMzpdvZqSxCJc
+cHgj3TTxoWkxXBgGbb6VAzrg1Kq1QznXxcZyhvG9c4hO9ZoKrlNAyrtFzHtYoeWZKnOFwmr8yppV
+vtkwrVXK3Pc8dIMVb4T5ZV5tkrxwS39C97qfGtUhDDdVduFck3smqpRsYs1Mixs56qlvpKa9HlBm
+RT50lw9YN/rKLGbkWrnN5BMbG9iZNLml7vXJZ8w2AyCDjRpInqBDoB1mzgFW2FSbkeOoGA8UFfyT
+Y3ntlPVe17KmLdnsreFO1h6lR72G6XxnQYNj161OIznNDZb+QocGwE/9Bus53OljEKxF0cnGC6cm
+JQUNb1xISvyqGrLOBHYfiBc28bW70TqxkAPVOyF5IHnIqRIGZK32dZQiuwVcyYHQ65lvBClK6mIG
+bnnvjEGXEP3QO1H5Ne7y3ja9vMjc/EGMyKzMQ2A5cXpsR8ctH4ap51sDnjEqyuS5BZWyl9Qw8ciU
+zDTR+wVblhUQulSspihkvdEGCZa1cBq/SeBmHwPePo8awXrh75RvCqy1zaT3ch9MwUhEVg/9HeRT
+fOh6p7qp0MJ5GK3LV4M7z0inesMrQgQlEHjFpl/fxoKAWsZUY/FRB6p2w0zV2ZO6PnMH08ydRWc/
+zGDQmP1a9oeZyQa3jpjlkVSKYW3Nbn1l0md4Cer7g5LL/E4diFyDNzWFpI4N3c7MWmc5DaYVVZ++
+wmk0evrQ5CC/4nRn15m5hp2iH9Wigd6i1pQAlkqUQhaNK8ue8mVly+upqSyJ5OjN5wZMxwgdUuYA
+QzRFZ4THyFjlm7sOkE79GB3+62AFt2GCD4JJvjves/sJV30SxoRb4nS4mWSo+9iIGgxR+DdQIrPH
+hdchnVuHp3DiUWl1gF2gaXmNLPLDmCfJQ4j96JU8UZueqenPUzGH97k1Nxtn+bLxJyRbxW3pviw9
+j85K0A810JKxX9udVPcTRpT7IMiZBuPESLbd7Fr7tKmLaxu6GPRJi39C9aG9aFg6XooyfAoY5Z1M
+BiYxsAxV2Rm6BHpWuCpg+F49CjeX9wyWm2JFwnghboClkHgeVe9ixm9G4vMYsl4APuA7UCXRF8+h
+CbcKEfxtmk3ZM7715BFNU7B1dFcL/anT9C2tUPuY1t3wsayzfQlFCFxIKFe8o2KT1Ak3ISro2avt
+1po8Wg9qHXwb+ooMleHLTNVHxa9YjYcafrpUwiEtsCBy+VqH8KpUAgFRBiedvm4cRVvrAoTtkJrx
+Pprn5GRFfbzPcT2f4enQwI42F5OqfMmccn6MyL2zsDWinfSMiUMDk/70nHJU6Fz5g+rPiZhvlamc
+VxmBAhCc+uxKiK2DR43rqp5Nti+VCtpfZ/0sqXxJBHTLXZEEGvgpONv0n0shq1n1yTIorqGPLVSZ
+mfDWqRoEjBuIwNVL2Q5OfqulSWMAf7RpxiqNpwDS6CZy/C6yGxUTo2nPH8pUqMNFc5VkZ0fkLMVF
+r0zPbTHK8WEelITnq9LS8LaXTm0Moa+7TuhCeq6BBOfIV1I7oCjDinA+o9HKLvX+b25irjRbZTzP
+4bglv7Z6IMR9fPrD+Ofy6/DkjwRm7cf5Hu3DsoQGhIBESWW68/OOX1bjkGSGNpzJUkJo6TLN1ojV
+FWO+V8AGB+GbnhvbPtEPRmptFLPeWJG2dkRwI7sZZXG75qNu3TlhzxBv//7N/bgb/e292YsOkFWR
+Syr7jxPSXOtZXQT6cEZldBaSWjHYxf0/CFj+6kUIJkB+oJrMmX/+AjCmjjS9RMsjCPCW/9kKyg1R
+/rqg+N9I8h9Hko7DZPs/VPA/jySLj/i9+BH+ghiXv/N7/KD5C7uDZb+0kFo+IwZ/Tx90flEd13WR
+qaDy+iFoltGjsFyh4oRCRmyjTPoP/cUQv4AyA8m97Mngxgjn39BfuFB+nEoSeYb8iX8N+DeTtT+p
+OTu9ieIZm+AClhtXEDCzdysBZwrHTCWaOvqMqZ6WxOoGd8Dgp6GunWwEuDfzZ7i1tuRcw+rqPwSj
+uds5GIs39zMQO0SvDyAZsBSJ0yRm58VcvOVWYABBIk+7/ozWTvrauGFm6Mx++hm+TZKpvY1t514A
+SbrWY9ffqv17vmR2R0t6d9ur9Wv5Gek991kxs/SU4zvzQEK/MQsRAK4YSxj4+BkMboBhSNfSJi88
+UlIetEadg+qaoGhiNp7iPXonkscDZG03lC8kprKJnKk3a90hoKl0MPPVhptAtXYSY1u5C3WU2L3o
+ZCRLkDluYULNlSKzDcZIZJ0vYMbXslXnc9dMqk+Ue3MkTHf4So9DTjr5NplPYi0+xyVHfZJJ+K5H
+OtnqiV56edVt+i6Xvt2Rvj4uOewz4L4Lp3zpeoNDhi5A3kGQaxinZ8fAJEqQ1ryRU7uaCHoXYgC7
+SMac3xcdoEsTD7wei4v2mRCfkBU/NhkjwjF3LgBSqMfapL03pqFhXN/gMRkmY4dOX8uQlNCrWG0o
+Vsk0d0fAiYT0zo1WHXrMwgghQ8vFE2oRb+98Jt3jMcyeMKl1952JSzjpNMDE8NO1l5jwlJdWoTGQ
+gwW5sXCV0zDrjNmK2MYQMBFzPgbzaQ617hkHuqz8Bbx9GlC5Himx+++IPrA4hmjiUtad9Fa9WWRr
+yTgrWRWDS5PA/L+/yZSx1jwX9tp7tdDFQziF1jbE+gTFLRmatyQBUbeAxirp4foJiT52C23Hcyi+
+RjI1nvUwj+/c2eLV0IfV95pkekl8t3nUdDxcQE3LaKcYbUj7X8qV3vbVbpg0dM/sNX0bvuKrUoT1
+wVBz9xujKFFjt2YAgRtrcOI1phj36iY2gc0NGE/lJQkN+xKZoBc8ctaUwnNx7X41cZzgbo70dB2q
+c75yLVrYKteKB37H9JExWHQRY9LcNNoUHUSt9+5aKwdms0FhMgebwnzF5Uo2kVGpC1m4bFZKxZ9r
+JYK+qje7Eld5LslCF+DJvSHnLn8ZYWqYQA7BUJh8PSMlkjy4fazyn7LQFn3g6PZTYjMMcpEynrBr
+jpg09QZL3y4fGLEGPdjK6zT0xnSIiDLZVYN90ZwE4K4pZt8wYua2WJHux4y7Z92MXfYaBDStWoZ1
+biU6dgZ+KvWSOVxj3YPV7KQ3xVrrt1go/KiI1bMp8/HUMpDfmoAmkfY3GYMkiPm479I1EvjCr7lf
+rkHDlNeLWXM8jsFg5Ce7a9XkIuJmztyVKQFK3ZtzM+RgjAU8CmKCK2U3dPWTiWfgTkmdBbZfG8Pe
+qPsDHlL7puRBvs3bVF9lkC+2ssunu6p0dBzNGYMrxwoZPTbZ3VAbDFaHZPTNNIk3geFmayH5IVnt
+esA0Y+q76Jwn3B95i9W8jU99cqCA5l8ylGrbiQBva6y/2hSrYBOUQ5LowPlg+GEUavhnlMEfq8Z8
+itiFEa1Ql77G14ITyWluY9V8dTsZrobZYIww9MpNMmsBXTr+4KlTnwuNzKYgDPiRp4+66Y/tzHcY
+tOoRK0E7+cjh1I3aRI/jEtcEp+7JEZPY5478CqmE0JZYv6pT7UKJJeDRqG/tIUkubVW8UPjSNk1H
+Abp7k6vlfb/4xPJR4BZSwXjD3+1XeoGNEEahdHYi0lJGkwXewr6pIDpG9k3FbPVQG82xTQJYIQTK
+bVG6sIXCIEmuNF6ClSDa+1CHwoz5eHJ+pbloblyUCRt70Dydy+ho82uf1LDWGfN1xVWFkL5VkKBv
+zWnmaqL4PmOeTgKuH633IIfIu2qa3CslOI0AI7rsLlXGAW5w/SHKSD2kcagdZ3bJa6WhrAbHPRI2
+1RcVohGHy+8Bj0O4Qi0Htma0QGWzq4dNHk5naPaMhHsNK3Iadr5iMUXT3fjOqpWKWyJl+Imt65zX
+ae4zas3v+ywI7izo8h77KGCopTqtDH4mwGqkIRCO+p6NwXvUqNWdLsVw0Ud3PMZ1Y1xtyOz3eANz
+vzXsQ8NqyEdfqGOLVZ9BS1Qe0RlsBJORSEebd6qn4usw9s3VUVxBLNA4bYxpdkEiiuy73QTFeR7W
+TTd3p6E1SW6vu8Y8c8Yop6SNBT1tlFdXK4uyVYWn8cjC3PAtdudbTFbRVzPLuLcYvgP5SbsrF2F2
+xrGdXeDD0iAVtljH9tywX1SX5DBz1epJvc9nw7hkjoFZvJvkrTVob1Zf28ynlfQ+d0nIsVqB7oMW
+fdMMeqpxZUQgRqkLbJ99cbGZYr1WPFhYW03WrDB628WiOky7wonHvd3yiIQGYe+VDCXO6rP4+1+d
+/M918qKt+Js6OcvigofJj/t+Z/lLvxfK4pdFXYy7DMeLYEvPH/1WKbvaL6zP7U9g22fJy2L/9/29
+zh8hJMf+hq6eJoj69rf9vWH/4sJ4IW5osdIsBfa/qZQxIfypUkaV6dJvol23MA4slfQfTF2xHbPm
+5GI7jJUmYjjV5XI4Q1mWlWAlOo2aSapI4t7LtALmvsQosUPuHWtchQ2Lll2NWjTwnTKzD/MszGCd
+9SWa7pbn6F0Hc9TcaomYlLsUq/lzBWrX8gF8hwl4mwzpb683PRNlOBteFjDV5+mhziYS+s4+UVQI
+hkBDPe9nbW5Nr0hKd83U3ajXGDPHyAeYRB4HWvXeMx2l+uImk/jK/AoNtOMCcZ5VJFzR4qz0J2xf
+1kpjIaufXJwYEDFy+2YweZ7mfXdtCF/YCFTuPMyzXgUAgTLpXibJdDdixDrXoY72McGruRZjiSkz
+ccbQ8gpLDdmKJPKaWbKHTj6gvJ7LaRcO3KD6cqsyntjydOHujcq43FiFZfv0J8vd/XmnjxYYaHO5
+/bPlIIiBvd1rOlE/bmS+hf1yXJSTuyIMxLh0y2HSl5O5ijT9Ei0HDTEXYq1MFJ0jrp+LIZTsbBTD
+1VKZ/Vqfp5UcRfQVhLncmsthxqY3PWp5DrPcHqsrvQqnXoft6obxrHnGqsqpyKyuO6nDutLL8hzI
+Ov+ecORsehJwN41FVCcLY8RRtvvVCgI8G3AWAOhzECPg4jS25mfXVLRFE1f4MrMO/XKAi+UoT5ZD
+3ViOd2M56OPlyJdp9CVZHgJWaQ8rhitHVrjTyloeFfby0Khtqdwhzcrvs+WRUqQZz5vlMbMcr37g
+pnc15rWzMtImxNyxj+nygDIbfTxPy0NLLo8vDaX9igdguFL7IHwAfcRzLnMqgMtJUbKRKpKkXrPd
+1I4G0tHDpHZI23lghp2Z3Ym+AChEO+VexfJodWDRsipenrdLnNDZpIT2E8nkJYXZvp0/H9E6V7RY
+Htt6appHwCWerA1zw4i7uSnJcH9lX04wmdK20cFMIo2aMqXsMpbioAKTtWXAHW6UqjvSOTcHlVqC
+5+pSVSwFBnVagud+ZD75WX80XIOrcSlKumCBJsztk8LkBKXclVg0dROIo9lDR8bv9jLBlbpEFDoK
+BY+2VD5uZl6Z0WXrgqKokYLqiDJp+qyX9OYtF+jDFkPa5OexfrQgGPnF8ktNH8pSd5VLBUYB+mx2
+7uj3kxvs5FKnDTTq62Cp3RKKOOiVza2+1HXKUuFlaWjtp6XqMz/rv0Q0LPjJ+1QMndtKOYilWgSE
+/QrHv1p3Iq+3GZkqDIgPMyVmu9SaVUv4chGfi6UKNSlHiQbJSYpO8vUwyHiT/la1UhIERnYnl5qW
+sEvSbthe7BkjjHegcOZtsVTBcqmHEUbaNyYl8rTUyvVkBumKDmW4G8z2qQMruFOgEp0Rd0QF5UDZ
+mIN6j7wHJ9mq0tgfXabP8hwKMzWQ86WsSmtt27P7kDA93Zg6vREIvuAyGU58a0XNe2FKtpqQGrw5
+1t5t2VtAkmq1fWtqPjK5LXJVy0w/hlnBqkq3uKTVkK47NzPmoFF2mTh2vWjkvMvAGJWInKe3uXPR
+yAecz33HNRhP4/QGmICGJY/V6r6qx/tCtUkocYr8FhwRweTgYDt5Ca0AQapkd4CqyGQomlk0is2c
+lHuZ9sB14qIlm1sW7rVNxHcJ68YPdSjYQ+RkLN8cLa6IwWP9IO0Cga9vxnk3smDqLEQxMraVjQaR
+dePobQ46D1A5hztr/7F7irKp0Uz4L0V7yKEydTxblOprquDGBBuVEL6G70Vnjl47JJYk5ejs0o5F
+4Wk0a/tu5IF9b9QBt0g6cOmx0e2tl0aL60M051PjkWxufWm5+mNf66oQvYISCNMbbCmuFXFeDNOB
+YhxKQHCHagqUTesmRbgLqnY/kfp2G2Vddk/yiiG8uid/LEoBufjuPESvBPQ16143850Wh9G7w3Sc
+1sipCX+lzTdPtBUaW1hTsjaeB6S1vWQjNBh9jyNinJU7ydH+vQDdOngkjA43bd80qJP1ivYArjds
+KqwhoUcYiDF65jh3zypI/veqVuNXnslhQdfb3TTGnN8GveV+VyEMEEuVBcYVQ1r/DIx2Pueq2CPX
+Rs6VG/aHBZwp9uLIqDogXj3zBRLG9lbZ73NOWx+chj6tpqxeZHgB3yIL7ch56vrJOrHCzT6UBNTn
+Ie90HCu2jIe7oDLtJ54j7lqiD9p0SAEVlqRgX4i515Bq1/E4fk2Z/pscRmHwRNBcfxkFywEyWiPl
+Eic2Bikdf+grIVbp2cgkBLQ+aE3h624+7zFrph9mW6VXOYCvRyqus18pgj3CrnylpRE3qyzb6nau
+DMjpzdA4Ew09whtwCa56I2mFX61hGr4FTlS9ObgNN4WSsAhSQjck8b2alEOtJf2F3Du2nUZTK19N
+dWpu8U+SXWmQibLrYDXVO6EM8s0Nx8Lxpzno9lJrjWGVxEnFilHkyTP8RtP0nNJor4mJSs1TRqM6
+21it99xzMNaZickJttCIXzGN3LUhavU1cNvAXDMYSMeV1ivWtsvM+Bq4Ut0i+BJ+gbQnge1oJljz
+IoQRFl5HVsA6XouhrQ5a1NorW0LBm/quWeFVt9Eoy9kn5tlcV6pV+Xait2vC9VzGOI2807qmXTUo
+Rk+4hTtiXQJiXEeRyH0jTIyVOb6Q17ROWqYPIWZAHzBO+ZJOuizWLax+zJtJNX8jSdC4oaPDv6Pb
+XzBbu48iKvL3MmzKjREh4V+NiQhgf/QpcJnBTTkRETCq+xgN+o07m+Ktt+psJyMJUEMPrRnZuTEZ
+X9DGR8c20Iwnt8UR7zm5MbJArpEIFqVe7uDE83/TuUsd2JTEYIPMq3p/1CPtvXd7UjwKS76xxWrv
+LLdFMpaMuvraAQALmEcNHdeS2nQePnvtw63QX63Ro4fKwSmT4IXsteKRHttuwLNG47Fruon9C5bS
+1Vw3yEpJYdsnYXpR5y5+qQpxBqS6KqO8ZyyqrAcHExdkWvfObF313AkzXIUuOGvWzVK/JQtCwaUa
+im1lU1hgoenNL66YdTJ0Sxk+FeYkkK+B21M8TTE0hhlNrBJ0EobnptXn9UBo515Psn47m1a7mqWR
+MfFVuxM2Ohagdf4tSvSOjMvOFoRGItHw+qYgudpu68cQ9e4X2ywDXJsqYXL8mnPjS3ThN5E+pvuQ
+MotZcmCx+ozrMDFxypjJh1RdZEksaQpPKlHG0WIMNyXyqucsACvHIjnaqrGl0B8E3alG+4RaIbWd
+Y1rnrh+q1IhQZw4OYUvNpqirDgCeW+H608P0pYHTyWQ8GFDLRLHVovuXOt1yMM/HVNHkYUAmfeIT
+ZifdjOOvwQzJHdNRSzBaBTHHNYp9lUFxA6PyLLF3dD70j/o9NCpxMaoKEZka17/6SP/XJf9Dl2zY
+xAH/XZf8HDdfS2hoxR/b5N/+1u9tsv0L3jOdSZKOn3xpa//bJuu/APO3AcybuNkFWUX/bZMFuyY8
+mmx7HGZkgsyA39tkkwwCWCtYehEEsZDiHf6LOAFe4g8id0iprkVzrOomrkKY+T/7JLEOR2lnRfYR
+Dki9w7U4XiyNiIp5mtLZb+vGYpf2nzHCX6yA/+oFBQ4UDDGsXG2ND/bHrjzlU0uKZOtoWDoErX6A
+weQSPWbTreyQ0mj/auH66wfEpMb3BeeHRd9PFuhlet9A/zERWEX2O6Hw2pmsJ+2hsfp/WiD/uNz+
+fCl+an5r9tqARz4JHX8YONTREIVdqpnHNB+s91jAEoatgQHS1kPt3M6z+yTSRDvXjF2vf/+t/rhW
+/vWlSTzgasDz5FLj/PitDlUKyZXe4NjoBMbR5ZD9w/wU3CmT8Nz/+xf7ydj0+WoL7YfRDuAJBj8/
+/YYjcKtcjLF5HEo2g56QtdoTowI+1u9bgUC+MBIZHfJxbKge6qhvXkDe0WKOWfz/2Tuv5biRbF2/
+ynkBdCDhcVu+it6ILeoGQYkteG8zn/58WereLVHaYsy+npgIzoykIlBAuvWv3xhr06rCd+LMf/76
+nslgwngIpxucOPSb+e7JZyLhAAJgfhEgdyvXWNKme9PI+fF/u5YQTBrBEGbgvBlQ+D+YRUK22IXd
+z+J6dAxyBGlm3gPcNs+/f9D6Of6rQNHP2YONgAkDUhRtk0+X+vuvlQ44gXokVl9MUfK1t/pwO1qE
+hv3+Ir96dixC4nwxVqk3LxNJseMPVuFcqLyvcXCc4GVhuWassYZEQf/7i72R5n37SjaaPItQHh6h
+Bg2//0pUqWJSUIAuMtR/dFgmrikwpPJWBQzWZ8yf3RfHk0xSso7uZTLYR+LZ7XeMEX4xgj2URzBO
+9VRFpvzmNiJL4FyNv9rFEgyaa1IJg5A/svwao2eEtmFZbvGVgd9DN5WMpfPkdRvMc1hB3rP4/9Ub
+cLR0PNRvGrLAj88kLyjTy7xh8k7Rcm+a1EhzNdYXTtO9l7bwq0vBHAqwFWRrwY/px0vRxMEH2G/t
+i9Tl8YZhzJQlBJalPvB4E79/2T8u9SzfyK/huIQOOwt8l7cXw0SPwL62IS9XmjTPDKNrngHgmmdF
+a/xWpz8H74zlt/wiLulD3TDZgpk6zk8eIk2usAMArT6ZUUeQK67hMFTxXbz3ZmPRKnzeq+2S0pkE
+RPSmMVOqXDD09Q1qdHL5vPagWra/8woyODn0TqmsVK2ixCCJOBX1ew+JPgbP/N9ZjhOJhzmCz0DE
+vMn22Bp/fCdVQCLiUtrOqS9MABANHtQaRogFjo2YxpZYWazJn+oAG2qcbjzQPte767BFpezLYE+S
+0B3xIiPcWl6VXUIERSpCrHCimFfa7CrZmAi4JoqpmSQ4QSH80pLMcF94bXcgCHl4xf3BPvrw57tN
+D1x5nK2sfR4mv74IYsc+dRkPcCVz8sjjtMAX38OL6onoGQMpOhRzcRA9ZOxV7yfdvMGBwENv35EU
+oEPL6OwUVcs1Ap70WQXbtoFprpyJbCx4K4247vHBwd4JCcGzrP1B7Y1Ihd5pbmyS9oa4hJrciSo5
+5TiWvOYAXM8YNlrNCZcFeU+Tdbk1rMEAtITrm34SZBDhB6lsL8+hYczRE9lbjL0h916A+RjtDgFd
+L1Jg8NEL1G4rb5rcl1Lm1heS5KzD1PrtPVTEcu9i6gK4GwOIsv5O7gozBXYYIYV4xIqHSbro7GAE
+OGuqNp5oRMA4qXjpPrLt/rXrMVTERVk8Dsri+UDf9+/7PlZP1uT2r00IsLMqvTl8EkvXv+ZlDLcE
+m2F6AT0V4ToAvXwaG8m/MpD6HQks4beUmSQRFdf5aweCn2bWs6NW7NQEfnqkDsoy6bIDxi4D6YTg
+E6SnJx4a2rKSyj8l+mBiZP5yG7cEz5mZpWM7pbdsC5Osa2D3QlzDvWTU5JjKvPheztOEGt6QdlEH
+EqWVTq0+NXq9NCafULXewedmT04JN4PHT15uURv0r16NoSIjOKbdX6qAFFKjJFZPuugN1xGxuvPG
+J6QTX8k8QlmCiy5jmeIzfOrNiF8bDES4LoZNDIYI2IuGwcfFQ2KpT3QeXjYQSe1YXSGxVjHinNJ9
+mUiqefGSMbRWfdWFxcaVonuIbWUdlJphx1ix53yqpql6DFQqr4qWur3tlxrCEP3FYCdSELIUkd0x
+LiSX6YtlwTpT1SMM6MiDFKmQO+GDBcyJIa68pmVmXpROUjcrxIWYjLq9jREUBi8weSWx6qa7hYXS
+NKfclAQXMyaJwzD76m5o+gAL5Ggs/6rdbvgaOKo+urTDr2n2QouQBNouKO5YmdaqYOGaTZouq8GQ
+zUfIql1Pt0J6X4g4FBvMtKvLuqenvTO12n4FoyDdiKyu9lM91tchdp/zulJ98im2UabBFm+ukJ17
++7aS0YWQg98isZg9ctbLYSerRpHbPNcn2lwxmQCzoz5V6CG2rksUTC8mXiNO7FoTNFefEGbh51tN
+Sb/B0sLf68NoD6mz7a1N15XGtuUMiKOJVe5KcFG9MEVgG3BPxrw3jlXeNsesS/qddEf5V0Ri5zYx
+UuNOhnX5Mc0nIm8lzJWmwjAgw64e0UT34tPiXgepMjbkgCTrcerEjvBwfhF6VIfOFsu/HdX1Ku9s
+ug+eX9j1sM7bECsXmi5+ENP675cGqSD2IQcL9MHdkIgwr5wo4kIA3hH9QWQ9Ac5UaxptQCK1NLZW
+WY8fmtxrG/gE/Y58AElWg/ml8MGNoCTT6ArFsuvxe92gmwLOiAaCNXH4QanO8n7pOe1MY8Xkjfqx
+lV3i7VDdmgPgdAHoYa8NjxPZi4wGcW1YGVOCNiAhqnVDR+iCLCwO2BaGr+2a1XZ4jTuTBalWoXiU
+pmLImsMUPnXI1OJtMC44cOP3uhBSgXRsImksIvTTco36GYnLgo9TS3wAKOhh6AkVWQeE3qZIlJ36
+ghx2/dvE0vT7PB1YgliNOZg1NavtQh2FDJQjnDdhVqCtn1o4yi6i3MXJloMr8ua5aRi2IKQwmBGH
+VMWzVbcYWkwJ3CNhg20x55O+KT+5IK/NV9lMDoYQPqBIgR3mtsqc+a8ymNt47eaG+2foRYDeSdgf
+MHOGhF4tcTqicMiSz/00vGSNa29dpErxGt1C238saFQZDynx3/YhsJLgeuqydO0VWPIn89weENao
+ncTT8IMKY3j/oe/MH8Doynsvbr5ahfq4WI64yQdrOLCu4vNhhR1iqLGxXuMhiV9Vms4P8ejz5pjx
+2bbFXTBcObEPlW5K0lwiHOv9ExkNPfT2uWhAnT3W8XU+4kt4GKBlXTgEwFy1/WDfe4pMtRW661Gs
+PN5CtuawEz4Z1URndhFDcbV0nXOjUlImW+GM96SitOuuFv0XZzKKbQ3+/7kOPQhCXqPgXUQWrVMC
+sNM10anJagYSBLRvC5aLMHI3WRk4J8hfnyNC/B7mIc7BSkfzCpMZ91M+e6hmugK7SierwPZbacfX
+oSPTqw6bu5OBqYa3Sqa4f7HSubkAJ8TWOXXHCwGznv7k0NPcESx5O/RhI7079OjRCitaf9klRYUs
+Pm+aw4SW9KFB/nlpylHdDYmJp/8Uz88Y6bTj1ux7Jz0twOouvRKTdOYgmoP82lsAYvdhMvYHzRK6
+hKFffwD3ssK1kY8orC3DN5GxMXiuZ3b4r3C7+6uxoY+9sBFeVFlPjxgxMlkoNd6Ix4TFbZ87tAHW
+DScLYx1P/nQXW9NMSkoWAV32LHnP+TJgNy0L95K2N8uobWJSv26bqZoxmevGCJOh2roafKnclQxb
+ESA5QW8NrXL+q7a8MdqFRqt2MTbvR8dpra1deOrQj35635ei/UADrn/CqcTZTovKkR4siAx9xD+O
+mSQCWXLm42Y2+3R4IpW8miX2aBAS0FhFBmYBG4dHdTsp6hTCkv1u7ZK0e4NPz/LB7GbjikhvWACp
+3dq7wLA7n85U5e7a3ncR81ppSDwqY/drhEzmzwYvvC8oXvzX2Ru8dGc2HhIn+KgwYjNi6Tpiouz6
+qxpUm266RMnx4A/NVzdZ4luSb3AuglM1nOx5QfJd11W7SZaU5oHjd906Z3e+MeDcbS3Ti4ZNiFP5
+KVZyIeuBAB0MsUdnAFEdTbkyHH/6mHiyHtd+rLIbXIeQfKJNKW5QgGC4VFmLcZfgB7Rmz9YdtvJb
+v2351n07FzX/xULfw0JdKDvf1X8/Mev/fIF5TkxU/SMY+u1jf4OhQsDxwSXa01AVLh2a/fOP44cF
+8d6mbKDtRtX6D11I231YDlIJPuRoxOBfHNT9w3VcYYe2RmGwEBH/CQ76tjDGNyTAcAYLVwFa+5NX
+j84LGg2k4nflRKLqukqXEd5FP8A9mdv+03cP5hcY6FugkIthFhdqWYADQPa2MI7dxSFdcXAYtJKy
+xKmtR6k37W+7LBKV5jk2fcLmJ07q/4dL22AI0Kx876cCmdBOQb2Lldw5mLsKiRPc6uyeZeuPnni0
+A9ZpVI+dDuGOdBz07y//Y61LNC6MMdAADVsDx4q38hcLRnEVogC6K7DhSdcBuWeULzBymlNa68tB
+dQ/eAQctxsh3BfbfF2WoOAJgVPhvfQhZ46IxbkILkmZlPVaYix2t0lPtDrux8EmbR146qU6MHsXY
+9ftkGIdXT2M9heHxHFo8WfeNH3OqQWgfR1ullPOCNoMTD0dgU1xMTQRGlKpaow2NwNhrYYez3wE3
+flR+fPsa3hkooJuAUfkbnCCYIUtDd7LYpamQchqnx6XAAHYX9It4xMlfB/5QVP7+jYW/eHiITWDm
+ndsY4Rtk2TNMP1vcTtyBH4jHilDyPeTR5KuZLeghSBe/dx0KUVz1MPiUyfgeqP7zxPRt3OsDn5YB
+4+btXJnCkPIgX8SdZ3ggOHrCSN0viKf2vVaB+MVAAdVlZgW6SHLfgpOR9AnLMkdx52jw0Wgwit6R
+PKhND3Qxv0B0eoG2qmenzlaH48VkOVfSWY5vwO8f/K++OEbprJYabP5p1FqOUZNAFpl349AySRwO
+7vUlpBIO8egP3kPQfzVJcErT85L/+D/BwOi9zdSwJ+vuDFlU8G5AScjOuBh9ExvjjrbCGaxt25RR
+HhZKXJcQrtB3ZsLgOJ+p+sLwpuU+bl0qj9y0gssh10qHwQNuSyaK/UpmzDI3ICPiFCb0OHe/f2Tn
+Nse/UNp5ivicZrTrI1bLjNgfoTRyr6MxkKG4i6LMbHecgLrDedwsQ9k861J0XQQzSy7hPZccDsk4
+4zSdrnvOaodGlmArae4AZahZUeGKyOxfgw59+e/v8xerIB09gH0TDqYDQ/XH2yQfdZwQY4k7V2EL
+RcHAY4b73DwLMxKPLSk97zTB9A76wxJIwC6jmj0XlSlNkrdXJN3Aysxc9phigKi5A1AJoUn6h001
+OZpALJ3tgRYCXxHJQlMAKcFMBNNDOubgYzY9/lebWK3bjJRSeitMgtR2WDg1gH9+RD27hrcSaRJe
+UsPVF5LW5qVhpM7R8nUIH87w7+DLfIO3X4tvwnumF4X7Oq6jb3oXKshD3ENkfFczStZhIxU5ir6R
+3bQ25ugHEAkUcEhXsmFDyVt46xSHuWQXJtg4rQp+twnK0oTEQ1nTlsO0v5sUWSkHtLajWCOikTq2
+xY3UxrSpEbWlk/GhMTDf3mBHTaLejKG/u4YnDfRBt4GZkfXzuGULgAAMTllD3m2qu7EakougL7NL
+qwzqazwP/XZDJp8JYwyfpI9C+vmNqGXxxcx7sSmothOEGUqRdrhMyauEJ+udBpJYN+nA/n2iO4yG
+HdfN5rblwIzjCGYvVF1AQBvXT6AcT75vNE9jVWTzxo58/wF1fmKuWrgciJatqQULwCyTuCovlN3a
+G6zgM0hxF2gtz0AGDbm9KAbG0emOVitTBId47V5a8Qhe10zRyeSM80D5iKzCh+3U3RmzLRwYXNog
+FeQHBmtJBElz68eAfusldJJogy48fIrB556IOAd2l2SFYFIkwy3e0HO85WhAloAYFHdXu+5LH2Kb
+ta4CVhuOgCzEOLMu930q+Zj0SWrDNppqLcDf21ktIiuQt+WoF9iZRSICzHyq0fSbkx0jcbzCQKC9
+JGgwwJZDQgpEza6dCRw85a+nPBzIoiAWbRVbgDZmmnWb0C513Bsy5A66IVTH5nk2TfVRaDMES9si
+ALpan+UAK9FNQSxx6Yx2ljZRKLWdQq2xtvZssaDNFuJR+y4obcFgEtxDqFg0VPsubtxNiSBuzcAq
+TQo0rOawcCAXScKvGl6dFqnE4qYxhkVn24eJJEs8IKpvhhCQFs2QAVCAnG9KvwwwOCQ00MdTauW4
+IXGb+UpYs0VSIYp4Q2B9LgltLzdBLsLmo5FMns3t5lkFNNvKMtgZpj78IGW8r/OcJ43dWH0BG5zD
+ECs4vYMAx2xcMuYGTDmOig+L0fPGzohVKbFUX09+yLoS1qwVKUmPPZRQdKc7p2r5HcgJmuew63mz
+mFTwUtMMxpRpdgRQkmzYrKoY2kGfTyzZqRPfjX6ACEjhifQSufOMBxsF7XYoaCJBHXJfECOGTzM0
+vddeJc7RGz0WHod1yHdK+jtd0vb4cSSgW/AC+fWydbk5Kg6CHEn9fhq9Kdjksqwv8iq3HiGR6X9U
+F+HlMEyszyxnUbQqnLCMEb8M/EmsFr7TpDsXlmnyB8onI3YXAPu+dKRXQDIHbcSsIBHZ9YgbXLiG
+zhFcngH30K+Xe1rrbOqpwYp6XiM5wwWXkcsmipFvdwAc71/bUD/KsHNgK/Qj//N8t+U4ooi1W8C7
+mmMn/HY3lbft+SySF57T3VRl3pEUMNGdVmCIk8PJUFozKJ1Q4dayMnk/ppQbNs72j1lksT0P4KAb
+qU+P0uLZi1LypZiSXCmnff9K7Otyn+n/NXUSRDLOOH2aOU0TvMjCLQ6oNDMKdts2jNtnYEFOv8TM
+yPvzQUFhCixPS1Z4L5Zul2TYgT13LTeDajF7RapEkyX1bftYt4Z5bSZMaa+OMPrCcaK+ZBjx7ix9
+t1XdsvH0UFU0JHpvZrr9UdeElZ4BR1gA7Oa0cehQRWQavHi9wvGbLDS89du+0+0FPkMUYz1jQdga
+HdDp+YCD8jXc5lghvX4rfmy9J8sszMpN4UqnWDtG3mIdAQjiXM2uDC6Jx3FeEh9Nw55thxtsrIUe
+VkACabZtShF9LgwCwFfVeQqJyCW1ciJcl2MQO8+w6ea7wJlxmNeUFCqIgMMd/zeMdSYaEUmsbbUu
+VfKkJI1R95tYBuyjx5u+rnB1OPJ16gt7wpWNEC8JTpIU3O00kio3z+y4gx6e52aOGdPcwIVo5Ddn
+E40fhzS78aqZYyM5lElEDSi8ilE7JiQgYJDHO7IilwH8rQU6oEh/WqbUf8zyoC22Q2umexqAjBHE
+ZO4LfDee6dJoieR5EcgLm+Z9WvFUijwNLz3p2kea6kw4T1++nGkAZXrWY9rcPGe6rXomIHHcbw9t
+ZPNWU4sAh4KNnOcwcwQNKzprRAsstwuJuS/nZmJu6r4I/VnaVrHLjO+6njs5j0QHt+L+Yk5ZAlx0
+OstWdAWLjxO3cX8bLhg9AOzrF5S1DkuTBcPvUHYifEoHtYTA5croSawadAs1oEmJv0xcPtDJdl/O
+BCLLCKgBwowyhB6geJxxDiywf0dejEYhC2m9pWHzDJTMRG/FjN2+plixE3FG7j1WIFrx6f5c8GLa
+QVdc2EzRmBI1ZekmapaS9nFs+UMaBLyWQZ/SFN1MgmL16Dxvm1KZjKiGgISjHSR8d/yg6QVagYGk
+2yo33ThSyein1jXTEm6yWRRq0+nbSTxoUDlhFy/NODBfqySGI5tXTCsl7Wjj2wp5PYAfJNw+ZjlK
+cyYXnDVWx6RHtIv8yMI7vcphLRAr7dm4NPntQaKZL7duOBbu/dLNVYf/kEPP1ehoJjqLXln41+ET
+eQCUrZglHfO2NrA2C4O5OGF1xKcxy7LaB0EuIUMkynnQSrdD0uy89i1WZuzrWOjE6GaKdUnuDNQr
+SUmD+fwAvq1FunDHS6R5Pi+sKFDZcc5jN4qJwVst8GsOi5/Kzx3b0N15fDrWGO0Rw497tKI6u24M
+GCKEZHYHx82nE5kthLt8GxAl2q6vDbHm07rsJt1TxWGrkI37EntgKedR4WG5rFa5FYlrz6mYyG0l
+rsmk5SHQ+krrtVdVguaMW7ESIdqgGdNagBBEiNJ0pRdHVTWXjL60A3ftnJm/kxyEOkQblrgWcEQO
+DDnxCIevnjcCo79gjZ6EHQbtnr0jwXq5HRGXPaHmFjeub6m7b7wA0xCog4imIPBTl3hOPtDNqSOf
+hz1Eht6+h4ynZPsz00ZvQPCVY8wH1s1E63JVx90U7VojCFmuRn232TgwzWw6BTYIt1zuS6nb27Rl
+wqdwkRz83HMmhySThGBQ3GY2mdORi9VxFlIPk0DveRjGqUpuRJ+Z9bFiGb2GW8ZduMHAFeK0ZrSb
+YN/d4+COHEJiIw+faAYAeDeL/r5+ON86o+U/jMFS3mAV/CUxImONRq8/uAShr/yOuQMNIvsa232N
+m20L792jpKa5jTrMXtges7RhR5LpDAUSyDPkhCK9J9gPPOeU8JZV7c5q2RskV+zMKpATRks1qpYJ
+H5u0abIrAqGFQK7llkcq++VQiaaSa+xQq6uoBjUPl4LzgmeB1kP2ZIR1vTUEWwhzg3lq9eJ/Qh0F
+EEmWA4X26MBZt+igHc9cggqUbVy3RTQbD+Q483q6suFnGwoe0pnfcmYRBfbMgtPpxb+dOONgFr/c
+n4kfeTxwwtO9v7GdmTO6UM4LRsFsh0zVMNG5AWbH7UXKB2yyak0iiGbudDlvJlHCuq3wpsxpXocs
+SXnYhNtM7+HCyKKnKNBtynNhGJtx1RDVkqHv6AbWtJocy+gCPA2VQVKHl2lINwTXeHEdLy5MCGPo
+Xy0lAwy/cudIDcZ7rYjmXXb07xitZcxqpbzUepy48vq8boZZzuIIA9TeSk3gsQp93jxTFFAppeUG
+ISVr9OKQ64Jh7qpGhvDStUyhoWDwpJGRn4za3XmxXpmVqtmBqO2Sg+Um6V/O5Jn9hduMzLjBwBjK
+pY98aXw7YUACGQ125jInxhpPDyzJjxRsC01D6ptVMI7dvh4ICC80EY1aZXBfzJymKeRgIDs3ZFUC
+5+GR+FAfwJoii0qi9NhYvEl6jwmI9Ua1vn3UIvbrTsV6OTgfmV2z/Iqr/rICJSvNXZyXfrD15GDt
+uHLymHR4ky5oKbFLlOmHZozx42CGsDpT7agdG+LoI+Ij/xWdRmPcarrhsuY4XWGV0tnLAZmC8WVs
+bPcVK2n1F7z86WtN9g/H7bnAi82TFshFb17idV/vC8AVmJ6m121GCB3I11qSebdtvbQn117S69Rv
+yBfNvPTPshniB1KoJxgOZUFsRO+ae4Ss8jq0m+hDQvj0l7qV/Ca3IkCIk3IVxliYGlSshRnPYu0P
+cJo0Td/7xrr8b4fnnQ4P2LhGBf+HzP1Th+fipepf+u+p7n9/5O/uTuj8QVsHCyRgWlo2UEr/7e6Y
+1h8mZu4QY+C060bOvy0e0K/vFOBIwwXWajbtGJQO/0lLRzg/4myuGdIcMiEEwoy2Awt68I84WxsN
+QZHFi0cKWxOIteX5Yt54An0UXIXe4GDG8o+4aV5RsNTRdV1JQbiLC5M63KgB3/qHAtYEqXZ979nd
+sjXU0jnRgVAn4eEVBIVr5beFaq7zBKt6f8cxoHTm68HUlAtci/zZWTs9asF4N/RF6V1OTtt/yeP5
+bnBSH9kYfeo13CyftQEz0F3fxpuGpe/BCJQSl8Rgp41e1StEJdqZW+3RejDbKhKA3XVGqYLvc9en
+MCLaYGxvcWHPHzqIrM99oWycKvoWHKvrpqy58KqOlAmglo8GWoCaS0hPbZeQCC26G75JWLasYEfW
+aXBDveY9t74/b4ywnj9hkJjdKnwcdvUo8ULEUHBYZZOFB3JtJ0bAYdlo9rkqi2MG4+WT17vtR6u3
+sUgSdRp+qcPgS7ForhQLuE6AlEd+RFfT6Nk3qZuahxBO+3bIbHAMvHj4N3bYkgtVEQNmSmmSoBVP
+AKUNa9cKPlNHNR55cjULdzrQkyhvObH1TwvH+aPVyXmPXl/ehb0lISpQT3MUp0fMymqkB6qk9JXx
+4N5l+TThHk1s4Q1msUjZXY+6sl4EVkZD9ZgoH21CMNa3tUKgN+F7WK8d+MJXjjtZfxqw4J2VB6Bx
+UzvxuAmbokYuhbaYloG6KAYXoVQ6OqCBVjVugVnw/sQlf2fPtjoUkGTwP41a9cmQZbMjf83YQ7pT
+Ryex1BcsmvxjAnPhQZkyuh6Ntr6sjXgs944yMMUflTcJTFsnZ9Dwzj//jcrXmZIrw9WejiS/I8Rq
+2fpDp+pOEIniuTrhZzMX9QaSTZuFO6szMBMRODmuprnoZ7U1E0SiX87LxH9X1HdWVDhjgi7e/76i
+Xv81/7/TX13/l/x+Vf37Y3+vqr79R2iyNEGjtm1XM4X/Z1X1aYHzJ8QvITehDc7f/NM3F3/YtDr9
+ALPrs3wIZPyfRTb4I+TXYcMYEnQsTJoo/4F+CO+7HzB4l9a8i48hzXPENb7D2v3jImuRYFPaowtn
+GqyMKrKzh62k0s0vEpS6F4vZtdND7PbRqTYxS2d2VMNd0pBcv0cMI3O9PBXlKiHlgsJlJFNzZF+3
+GlpLVHZOehdOvbn38woucdhma4V/9HWM3tbeCBlFj4tVuR+9anopkA/iJV0+Ti1O4UNeq7u+Cx/R
+GWIbXzU5IUpeEfUr+m0gc3amrkZKbAzIiX24x87WJkdgMD+Guchg2xq4JlXVnJ/6bhq2dRkAVjZ8
+cPbw8nRcf7kuwQA3whDiPlLY3Ze9ESLS6HB9gnDGEXMqVQfZLUNn6yx582JPYthiWxyuldNnq/OD
+Igs92HR+8pn3DxPf6Pn0LKbu6OadCvaBsHBJzsrxqPLMWfv2yAd7d4ZXaVUNWRxeGZbhn1Om4MhV
+RWB+JM5MXaGxD9euFWLzZS7qAKyEtYYxcnVm+gyhyWCrSYdwPae1Pa6SIezcFWpD3NNnJNaHLgvG
+cmM1sfE8jrb7EAxZWa680RaXXdCH5n52RfEk88IPNlM8io8doDMF7WLy24oyWW4CEImvKpn1et5G
+pzxZklej6Jfrhq7r/nx/vb4rRjZBFBk/jxYrZrWqSjWtYcxX887sxmo/jnCb6qBRu5R1GndXiQWo
+msZk5Q+pdRkHYiTLcxzgoV5ip8GBPSpErg5eP3Q2gQaU/HtwDGigGXQGkOw6PymnPk4dK+dqyKZx
+N6Sx9bEx0BftRCMDc89QUYeRTuvHMGjyUzbi6MvV0zXBFzha4DbjPtSlKp46wy4ekqaTH9sm6S+D
+ykbzq6Zgl9hW5xEF1tqnyh3jC5TjyZ+ZbGxclgmPNRpeduBldGLywUU0VfMlM8KW8T62+mrPycZZ
+5W47zCsv1BSUrFHPqprlHhk+ASbgWF9nz56JOSb9hE3WVgsuWFaW5rswM4fkOi9q7aM8Fs3Oqz3A
+/zXZ77zh1dTVfraF69ffR2Uor1I147CNPyPnHTO6Kr0yxeEinoM9McqCCiGxn4oxyPdlsBhwab0E
+UvUypGWwz4XZP+Dr9JHsuvGydHEqCxaJ+w2tXkI5R2Wo7ZQXV3QIgO974Xm7NFAYJvhWsx5N/Arj
+CPHjKh2D7kapor7tPVXe9RxPdrOU5S0RAeI0QhihfdHCIIcHd1C+N2ypu9QpcVqMZnJrttdz4dof
+FoiHK7eUwaLzPZmoaGNXTg+LsbKg9a79Ocp31TAtW6senIJM5kytx7ln221syIG4Rt4sgY3LujG7
+t4MbW1vahzDoTb+nT0cTK8pAd0PnsgjbdNwQD+x/RMuUXkVCxF8kXgh/VUN97CDrI1TGja5Cbkk0
+hsCXGfq8TRiDyWdeiPVg0htZt1QH4i8xqwixTAY7E8l2TCY7Jeu3Uh8WV5pE0uA8N9lNd1JmUz8Z
+niv3VuubEAelAeJA78g0ttD6BX5DxeBsrKTqt5jquYKpjBnXaixmczN5nryYcUS/SxbV/xny/e2j
+E6klOzZljTEJ8QXdCdQSi3XpjQBWsCwH9AJuyvenCbhWiV9Tc1VNBynUSh49H6vD9YJlzdrqyuxi
+AiuS66kjsQZBgYcvOAwaHK2nZZ9Q/69niVQerHLbpdI6grX617Ucjcc8x2Z4ReSB0tEtGWFGVTHQ
+tgtUd9sFeX7yK4CLemYxJ/yLVamHRPl8XlnIBY4AUsr8VOBZtsFeXJjfZlED8elhwb/siaA+YATD
+ZFmdrBrNNXUxDM7aq/YLbvNHSISWw3SYrXuOklxoSLplU1k9d4LtnbqazXkC7pyNsLpmt5e0JNBK
+bOpaDdt+rNRVhz/Wt772f49L7xyXEJQG1IX/+3Hpsh7T/if73m+f+vu0FAR//CipRuH2jyuZQ9qY
+1qHR+UT7xt75P8cl2/4DPopFTldAYCAZkxxy/j4uWfzCEEIQkBoOGrAN/qOaVOu2vyNiuIIgdgdf
+YYHqGnO7n2g2qezmsU4FG3wVsXtmmSHuzaRVVwHdxF3dkmK/chvf/NwbfvToJyH5CGUVnQzEVBxF
+LNaxwheXtckIZpua1tYkmEBBkBuPQVP2Gz9p2KNqk91d4Bx4Iypj/CvrMAFekrh4cqx2oDvFaQYL
+1OiqNh0c8SvLnzZda3drEZvdvB9KQx3qtvQexmpc3uGivCnKeQKO41kOYADMDfBX/fffa3Vl0E31
+1DTHpUO25UVsaLEc4WAMg/5e3Pd3Q+QXZMsfqS/6iYNF2PDl4HZirvA2UtAyhLmQgNocZ6OzQS+L
+zwRzT+s04hn8/kpvTsL6SoC5WlkJz1EAYfz4zRQESgQ2XnHEsZb1CIO1Fbu9sUeGkj6Q8ODsZZJF
+73CJfvH1fPglHOMZTKjm9N9//zhNC0/Uqi+OnIMIqTL04bk3Ld/doP3gbPX7r/irq7lY98EFJq8d
+r74frxbTokmrMiPOx5zd/KrqSrVbPNpJN2MRPv7+Wm+0wuc3R/AEF/FtbRfwNj+TFk2RkEKXHttk
+Key1DVsfsVZb1mQ/ChyhiKC7GbuRch0c8YB53tBs056t//f38fN3hqEVEIuGlJWf/pvXioWgL8vR
+zo7tmGtqZy/ZL2Mqj9DDHeqdi/08hlxToMK2Ag7CCGffVFNdGxY2Uhv2ZaHUXR10/WYwmMENfscJ
+USmpm238KsyDd677qy/pewIKtOeFcC3fMKloh8xp7DXZsZpbNryJtznboy4WUkKI/qMH6kB1wPwe
+NieLKkzWtz4JcFAocZIwPaYCvKtdID+tGuqAi1jO9offX+vNenu+lktkH2w7HBncM2Pw++lRDp7R
+GYwhJdUszu2tU5FSim1+f50fabJUwXwnpL1BiGWIHq7WjxNj9Iq+AztPSXNypwyxT8aXcmRlYbLM
+YSRJaeWtFqyd4YoQBRLBNouTq9/fw5uxo++BKpyFTnjaYePt2JmkyNPWHbiHqQdHRPNiwVQx4qvI
+luWpjgOX05Mt31nPz4/wX9Ll+atT+PPFaa6wh74l4U2xhz9b5JO1gbr/T5TC5Qnxv7xugO/2nd1U
+0AiMGgUalIvYX0czJd1x9qrlFauutvtCsVqe8qjC8lhDrTAQ+aEy4+73T+dX90nhBKXbx3AFH5Y3
+Uyt37WhWvmEcTNv3PksJs43MwAKpKHadsweOmDU+B3XDx3WynvMrUnlI67CrKDqOee1cYK4UHXF5
+t69Dw+v9HUF/dYYXUuhP+9/f6/9n78yaI0XSLPqLaHN2eA1il0JbSkpJL5iUmWIHd1aHXz8HVbdN
+V9ZMl837vE1Pd0ohApxvuffcv961AQpkm1E4qiDvL4NrEdJIIK8itCQUTEgKEFBFRBZjv/vPv+e3
+p547BgIrX5nvQwfnAfntOM8Mi4tidNnpq8DGNE0XXxeNe8Vo0/32n3/X78f51y9bJ1K8Hd1VZPzb
+9Z+Dzu0QZXCcMxzaJkE8bkXJmLLkUdmD8Ewiqaf5ykTk/mpUdXLQjdv/zYU1/6AO/Pl2DWy2Aigk
+KQr4OL/9zWUrDdSPVnz0h6mdT35pcZhixbPlKRnkck/7KT7cNCbZhuAlRscyzRP+b6B8jFuEe9UB
+pDiHDCbu8GxYw6ZTOV2RIuEUdURRLZcyZdiVZsp6WEo7/hyBcD8Hc4lRuSR/ZROq1vvmK12cEYO6
+VyMLbuxlFS2IOxTeNy+V4ojixrxOwWNhO5aZQVDhtNzPSbzOV+p0vK1a0b+XcBU+FoMyjl3GjJJT
+1/EnkxhXnutKVQv5sTI+EgLgdPvcT5mZgGBba4QGDt8GKR76Jch3P+qhsp8m25Zqo+MRjXQHtPCz
+HHsHKz/Rkyljlzy9JDZPtoMUZGu2Y/YxpBzeTZe4n5DxAwvZKGVjVMciSJgrhclA7JjnHCZHUAzV
+vkZJ7ZPPw0LQB/MxtcFDY+bcbzz9SbEvmpBfLwGeQB/tODtBlvmvC4TyrS7C5OKv/7ZzGz4GWiJI
+b9nUTRufqflj2NjzhfdM+azUPN1+Xd7YmxgT4Mq9l7ZKC1LL/DI9xWbi2WcL5OQFo2ZFEt6S5nLn
+f51Wgzlftf3CCRWY2nirm4I7shGaprIsTQZCmeTazQgw6WuFSNF3ZM73oRWlEVmJqO9WSB1Z6w4/
+Z0qz9AIKL9l2ys8+WhESHRu37ZyQXYMkbsOCzP1GmoD9FNRji4nA4tpWtpV9lEll7c22cd5zFz0u
+076uxGqXVcu9C8MCGHrR6jsxKn2LsnJMt8xkszfyxDma1o7XnAXcTHu9D6sVIRwM+YRIP0U/sV30
+6k0xq2bZ12PJvfQ1LUymmTzimNZr3vTduNxXriGIPQIpuR2w585Rzh/QQR2YmN503GD4MlP5jl5X
+HGFUcve6BWrENk51cxxSOgZg5cajlxZcMJE48yUxyvxcBOUuXIiEYIemb/HKqD2ETROeMKGsCj1f
+xEijvcdZm51E0NZXU8L6LCOad+tZnbiYdr2cB0RwR2bk8WPS+7vGWbMjvLpYvexFBMrNv60WDOiY
+fklsi/Uq47Vfg4DHTjrVQTRzz3RlsLfC0Nig6fkilG/tPtRoqKEBkvnFVbWew2y8xao0n3Mz3Kcp
+fslpSBviIm2GAcaAtrvCS0sEcH4ui6CNyGQrIRKuIcedEyPncV6BCNsX8iluWw0slE2T3o5zgJU9
+tOy9q7InL/bgd3TSuiqR9oihcCPZ19OhCCsRoQ8AELew+Q+lgxAoTB+Ij/8AqodaC2FablT2FkUs
+VlcSX05ML1/USoBncyZLROMBbzV8ym8rV2SB4c34I7tJvQwiveM9jmN81dR+8tKzbdwhDtDntKw4
+gJ21Rqqs+cbLbPtC0IC6N7OyOxsjsY/L4l0XvpoDuXEqcLYhYZvKSrpfihy142w2AFDreIyhzyZ2
+fjYbB6xCbCT+9eCWfKCmdEg+HGdreXIXx97jiCZbsh/J8e1NU91SKDnpdvI4LwpflE8toMSnwRLT
+txn5aQ2LltxlBF/LfCmAe6wYQ3+PbCn4mVcw73TpkWWIiotfShV9aRPxELjT9OAzTdzZyzDs1veP
+u9GNJKY3k6q663pyLnyetPLkGKy0N1YBZaWdqUUKBol1UXtdBOwr4yiqUR47MW8EPwn9o8xpfdju
+FduKMm8fLsI5DNPoyKiVVnXbif4ZLAXZuRMZUo5awBkn5NPk2x7sUL53c6tiDtwxkswL904Andx7
+/pB87/NkusLote2zeDrn5OwS2YFT5c3ONTF5LrMpBsackyfMe+nZVtTtSBPhdi5jxY2ZUzvQIpTG
+fTm3/q6aW1LfCATH3TC+Dk4dfPZsI0jBrE3r0apc/7uelnA5CBc0F7nLTE+bgXqMtPOjBFl2ow0F
+bIbcVMbEjYyMXvkENU7hMdQmLAeJZ+6XtIJgJ6d8PqvevviVIy5h3EJRdkLzGg16TQlT+5iLy/C+
+jFVMYqQd2zT/eeowpmjNR3APTB/6MjzzpRI44kJ35SW8unuN0QFyIbp7n1Cak1Z1h3WCZLgAwWHs
+5TVa7ThxDxN48L0X9ATWBpnzhNmluUv6zibBw8xPca6sC1cw29qgK9UYm4fRdbmxw/riMT6ImIZb
+AFFK90hGjn0dJglLIrm432JXmVu8QshbxCL3JVrk92HFbHLQqGjsJpZeQY+Uc1MQynhIx9oijmcy
+EUl3MYhLoe2bQQTNrViIjESz0CCJ69AK7ubCaByUPGN5QHbpv7qFxxAHRMKVRuffkL/nlKfZCOdf
+Pe34dW9PA7oBA2uALVmKYXWveac74YTCshndGzp2tvCsoGkAzObMPqzn6QL0MeVVeSc9t79FZq6P
+tuqw9WdALyrNDHQKamMzkvF81UArvuQDq3AnGauPolY+qboyVN+dxFV7j43FJ8YTMPmY5JsTGHBm
+SUSJP/udfKv40btWNWilQ9YY5eofHd+FdHKCZgwwH4kcqGUDU+CYT2sS8HKCighkRf3U5Du+8WxX
+VNYPRq3kK5O0VxDtaUOBSJL54odD8+Gb9XhmZm1s0RzqO5Xay2F2ZygdDKvvTDF2H3lbcGarkrcG
+h0CLzC0aHR+o2FMvhtrvfnjA40ifdWqdfuK+VSSG4iLhwe5R5tm98am8tL5oV1o32eQOT/C/xw+n
+zYLXZAihxa5pSCxASCB2ee3NVelXEROR+gi0Yz6jrYfNX3nj97k3sxtRVORcByMZTrnKQUtPhRlR
+RSU3szX72x51c2SjPwRKXGqbT9Xro1Pn4uJMePnLYuKdQerVXEXlMHiw9YsmHbDaKX0046k/m8j+
+hm3vWA3H2UxuZGDn1hwBhB9O8L14jZhMh7gvy5DTp1uMx6wMxT4syNGTvBQOtpD9WS7Z8EPSG9Fh
+EA1Sk67+qdDMvcXYZcH6UuJcUl9a5NZbrT56wo6fZ+A774YljU/LG6brOCBRxa2XPDIbfqx2dPhk
+snTZWCyG32LpZJSTmFRgtzxRGMe7PmZZkxbqwbOfk2Ql4bLeog+LuamqZ4HmayMIU/ZHDfHFr5cI
+mc8e6QPWpRpKu1OIaqMpTra+nxIhWLdoDemxwes4TRTq7KNgSVFHBn0yova+4VW5ZrYa1n7wpl+A
+MsIDvbwTKZAR+8IM/KiovLPVVS4codHEGjXsA5DJkRtYxtaPuZ0xvJpXoIsOw2K+L5IfnDZDcLBm
+VWyqai4PhIXpb8ojJ9waguSS1+OnIQUurQUgBYAp64yqVOw6plnnDIjEMRSMByw9zjzP7XCAlyY+
+it4MN/T4vHUohM5EPzm7LszUHsl8dy16nV/j4D4UZCJvbAouFivaQx6jbydPmFDEtXd0W6JyRTUG
+tCaS0MoALxml4J02O4ExJUdt0ne/+hbNtTSa5WB62ZplFr61s1Ht8Xd4V71kdrAk4kQMF1kXxnvm
+OfsmTmfqlPAGh9i5MtTrVC23QxGf+8Z7km184chlYIR77cprl89cJc9QBx98qz5IqmkyCMr3UGSo
+c8Ats78NPzArdtHSruoZw3SfmjLDe9hYHzo0KayMhEM+tU6l10KIsMQ+H+SVTv1pMyTeD9ynaPIr
+ptob16AjSKZh+L7Yyw9N2KeH+H2v/DKbojmck+8C8QvhomyUzk4rsSrhlyBMwT6Y7ChV9qJHDfi6
+T69d9SSCcXhUAZ6StMu++XaSHn1wzhE6huHFsFpkutPYwwib2mu0nXCASa3nMZ8FIsfMf/E6pz5k
+lfJIUk+n9pQpj/HohPw1QnuZ6kMzmZTQWYsiYTERZ4JxN9p9CkPStbzwp/AIFTkbsmSgg6y2YyNt
+jaw5r/qgArlDig+modJq159nqSJ/nxk6TwwuzLg/JVXPHe1PhWw3TDUd/GaCFJQ9mcVgOArqoSMq
+At+4weQOpbkzmhycfcjQ1ANnef2lwmgHK34NkiL+hHjFA8hvZcXgkvbcUorQSG2toKEtSrjth23D
+8cKcad1pgOiIX4eEBiFeKSegUFwyqhZ9o3jHPQcqni8GefaRlaGh6GfliZvccLNx14czbcfgcyxN
+6+qtNtfuxMz0+CtfrOk292agyOz192bSFue0mOLXpDIYcieObz7Anut3HnBpybxrFB+4ezz30qer
+TMAO+2aOUtiNRLSMlA6Y+lnxm3Z7orbnR5OubRCvRoMOLCxZ9r6JQ0XAPHnDiGBts5bybwOk7M5t
+yTw0xxpZOoqShVf+ySpQc2SdHZ/t1GUogOruEgw+M4J1U/P1+0bpGLu58doTBgl2NmTeHzAFVy9f
+/5MwqAjn8mj7WcuHB5QFCyQqxCJdRcxMpFuLKQEy7ttpoezBQbHuepba+xYWXEyEeC6e1F7tvwbF
+stSsUXQTbAfoYNsS2wAZoxhyD0bIR8RgWZy9BcehV7nd9waT6cnKcn4i5whaGQYvrNxL86UaBN96
+XSDKiCfdnlq31neFpt5dyP09LsWwXLSc5z7SSH1PDik5j9Kl7VOwQzFCzrk6UKrR2w8DnJjtWMRT
+QQI2UxGGlxwGA661WKCxbJzRVacixk3P/S8WA69XIt8Z/uExLnImisFyFbaI44mcC3tGMmg6AT8l
+S7PvCUFgF696cQPW0L0CIMiGbHEZXsULqo31vjOyetkDODUo/8kCId9quU9x9NAmkZXN50tl/Gkg
+W2AoQpt1Xw7rNSkHtmwm/5HvSt+Ar+KyMaSMHFMuFwu7xoF98z/Xvz5pGLdLObE6brJl7zncAb2z
+WgLDcf2BZe59S3BKEXnDehmJIPP8VQSta1+8VIJ/UtQOOph1yw3Zn6tlepob1rT9+TLyg3aYy0J3
+qyZDvKSm65B82xfhIeu471OD8tok2J0ncm34ya2OPxe88Vdjzt1kI0XZEqHSvDNKrEGG19b41Fvo
+G0Nzis9jGjfvcSo0iR4pj46R8gg79sBucurjcyzN5r3wu/4UKm0AFYSAJMZNW8bmA80Bf2FteYy/
+4iQpqIDjqT5g0bKu6Vva7324Xt6KDO3z0LAlxyVuPUxFTyrk+sBaXZH+rJZKYiXN+NV66MYzCdvx
+qWfkih4gMLr3BUx+IpjIwT/IN2FL3jmH78fgdmOUmhmtRy9/1KBGopBl3qEbW0zJPd9O38c87Jon
+MB7mkIlFHR76VcWVoFe/2IzAL7Ia49cWH5+LkWAxr8rEMm9h88Vnt1y9OSvvFRocx+FBIMrrNqxF
+g6273gUTUuJrV7qMFFBBQ8ALenrCKRy4S9D+f+A0lu+sIg2CSlLJM920brxt6E4h13M+hg5XiqQ5
+43GhIfj0YyBpWG3We7BdQU6+K+MzkqTVdkS629HAgrT1A5+2L/DS8Vfg0SdjqTL1S0ew+pseIWNt
+OgryllGqTHYpZQVvRlILrs1urG/SqR8eMzEFP+GrxZ9Zo8Pz6GIX3pDkNN062aT2s+vPGH5q7oAx
+VPFr7rmIsbqWuJGt3zDg3uKSaOY/xs//L3T4G6EDusuA5c3/LnS4vFP/vdc//6QK/eMf/UsV6q5i
+Bh/cOAwJVAn/hpX3QwDxLKNCF2EmKgeG/v9UhdrhP3w2i3AgyCKzbUugtviXKtSHRQ9pBQq97/ir
+nPT/ogr9bcfPr+cGp7wA/0uQNuCmP2/DajHkLfb65egnpgs8d3Tq60Qn81Nl6hFZp+v+zer9LwsT
+opcZ5jPt55PT5/421GdukPbG4s1HrfP2XhjjGHkeaPl/+xL+BynBX5Z8/EmrZgH/At4E6/cFW+9i
+LlUAzo4z2fSHydLqvmhatAS+I3fCmMAZduBvCTo1HjqYSk//+dcjIuC6/Wl3wZpfWOuOL7C4yH/Z
+Mg4zxyWUGiJwvVIzQEM2BUlKHEcHiBGJIO1ZY6vCIoiNz9xIpizrFCMzQJxwjn1jEGTi2qFdu3TM
+qCmXTJRwARrAPehf/reAFbH/2aWBnV/LnBelG3cckn0wz5+qn4sHOw+YBOpgOabI4CNAsIqRDXr/
+OFPzYV0fZLAtTYK6GmUrQtMsfzkKBaEI9pe8aWmBH+l59F1vDzFpF518x0ebiahrxvkz7fiLSCMb
+ER3W86HLdX0dmwbOxzjDwTE1Vk1qrmje0gwQEGoV/uGkcRh3nPc7dtvxQzgy1d6OncRAuAJ9qihB
+FGJGaA0d+2CxvOE09ztr5y84yOYGn5mvm/TWVQsIVSck9Iq3QbmRftbeN+UIj2H0J/LPep+GyktZ
+42BlOlKzrGANwpeKwVL31GvxeRl8fcC3VZ7I7eLj2P34nNOIPat88b7x7ZAzijZjV1sMfAdPqx8z
+ea9R4pvcQ1M9P6V93LwOEFbkRslaHAED8wxNvNjsHsSvZ+JfUCqdPyeYwCD9+CezaLvvXoNjO9bY
+6FTSYxpmSPU976f6Wjf466oq4IrggyAuGOs1yXBI/AREzlLuOomDbqpHa8dIrXiQ6Ds3A2uSiHzr
+9ocT8x/RWkMixme4JEeGT6TSOIMimZrHOTD6+eBlQ3kiVlfezCtqmARTOoTOrtt6J8hROoG5ZcG2
+MED2GV4dDDMuHjBwYX8MUnWD6sJlJp6Mv+DjspXq+2JfYZDn0DCbt0yr8TkGAHAJIfWeJPE3B1nF
+wcbU/MUhtumbGBcH+XzKvTUSMTJx5G/xnBwHd5hW0UjWcAWMsx5/sR2fDxhBnNvE4ZuIxzDYOKio
+txXtIzZ/xlOf+ELlO1NKN9JTnDOs1ZSQrHjj+MEDSfzDDcVyqad0frJw5R6YrBbbslXFnllc/1Pk
+nvmY8ULdIrWiVzG4tl3C94grhku93qJlTU8zt/z1CxFDhH8vfBMOVu6DY3L/tyv0okz8+Fx2xesE
+kY5FYlvdJsEnjTflV2ZU6J3hmFvYQ9w3wfjhBZT98JxY3Jsbaw09sAQtgOOUb8A2R2aHvmQX73JT
+riWRTvmi0LD3e0TJ8layILgN+8m9HeYYvlcGhH9wvebNYKy0A2uBS9CKmze7cuerHJzJNx2sCwAj
+p+4K6ql5TyhN6ihDj0qNhur1648LUh4Csp6NBz3LmrylDLn9FMzdd0afxcPcsODcEJFVMvM147OG
+XBB5k8iOfUN4QKRjnR1cnSEOKD3B1wQU1V+XWOrFzEA35WLG+wucTd30hGsE1vegCMngeR2beup/
+ZO3gvGYmHIzkONpL7Rzx9Bv1Di7eNFxmNcXueUrswXmwCwYBoDTmJxNledR4A9wj09UtOqPF23Mf
+uoxMUAayfdA4Jsehvhka9gQ9d9gZJsRdLzrjnpTcB8MdbpxKVvsg9d37haZpg0vAvmndhBlyfMPA
+hLWTz0OUWEt6qqziqUNqtRvWJcjgzB9ZwEbSGYefRWpVJ3LJfyBRSE/p4kFgMQd53VTjtCOuTjNa
+BdmO5VLBr+qudK/ifQny4QwzNMQV0fpR6bskMckku3EWFnDMVMc5aumQvDw4G4VU26xUNch14O0n
+JALl1jI08zBy4jcVyGUGQmX5mciF3ZXtrrP7zoGw5NQPc+1nMJCN8CoH73OBZDDtvZQHVuWVeZXN
+sd4NYZAguOGLtMxRnAQj/GPl09XI3g7IgDbIrLKJXRuJMEce7MvIMipxNblZeBwS8xuG6JBWyu+u
+zTq0SwTbuie2cZq8yFWhsWyqhe9wk5T9eLRkhhLDnFjYxsxjOiZ1tSWGUzKFxDYQrcAYOfbUdo67
+H3YzDQdM6LzzeIEH+5Ec9U2KjW2X1556QKtobsy+6PYJkwPNfNKg7wj0W4CkZzPZhb4COUz8dFkU
+r6ERN37kaW8+sCxkzuR7tHUILtLIHx2bCtFW91RnjC0H8G4nyflKaBmHCLbYQlod5Ke4uThlJ6/Y
+qy67xhLWyQK2vLXTlKeq29FYKTDZ3IFMk92z9Fr9tEx2HrU5O4ygq49TuQUA0jAI9pZ3SbDoyZqr
+5VHmsgGI3oVHvbjhqRri+S4r7GU7xoM6F5V0Is8qITN7xbgpp6RgMWY7937nFBQHs4naHeH0RsgA
+f/9Y7XAlL5uJlPYtSsv8xfcSUsrEPO2dGOv7gPFnr1JYV0NS3ZemwbucduOUZTZDbWcctwnpc89l
+kJiHEkn/zrMboNqjjnfg8J1LEzYOy5PJeEBsENyYapnPq0gUzIVLUOxOecR8ge24SfGiX4cax1vk
+QDhJiG4k97Zy0uIiu8U8ybRiI5OlXntVLrH9OuTQ5TewbX38RLjbrtKZrV6Um7n4JasKAjDx057e
+rkSY06JUGMnKaA8D3srXqRwyFuZFll87fdL9qOzcYwUN6H4hQAEymPsajkIcp7SARy4IicoJwMNy
+7qfu+NEg+o/6clrrAqnuNSD+rafGutkFY5VdGbosiw24wdzn9qvSU2uP7XWousaJWsLRyw3pmtmR
+7L24i/KscW9nK86OS1rLD0vSG7NjnIv1u6HxW0ukPLd5D60qhdztakKAWabDte5/BiwRZZRMFrQB
+0GK8cCSn8GeNU3srZyN+AMO1PgPIL679WMgYjMrabqZZxZJGutCmM+PBaCTAJsLh0z00uAILNw7g
+qKLIS7eOp+WHlsMid6nLlwRJA3TVQFX4R/GlMst8xOcFHyj38wAOW8rfR7IymgNNguKOMtT7pgtF
+WbYWjPXOGp1im6dWeUKnVV+X7bIcHdGhRYEDs+nbHCgRuAMVb1O34+UOVsZ4qJNweM4sUiyTikqD
+JGJ5kyxfnyJUL7bhUZbGSq2HMsKGzz6nJslCCGJMN5R5xzFY/7Sl14xbAz0bb200Pl6ykhmqlo/D
+mn4+pKZBiGfGUGNjwr3AzlG18yGp8FYAzOPvH8ZpmyS8yxuKrVdGzvC+57X8Db3m1e91eWIdIzZ2
+AtEpqPT8GcywB4jzbZDFZNhcELXMSExiCAOAO8pTYYXq72Rw/1MPsQoE6ZewRnMC/bk3Y+FRNMkK
+uUsMS53jcLXC+J1fRwqj7D0rasp7G4MKAHP51kE72dZTzcUeevfvGprf41poYf74JAg2GGgRIv7n
+zzKAwqiYU/RHJ6PyJ9V3cG8x+Fi7pGdANTsUhGnIle2B5sCRa6pd3rn2kdnrWxLX3Ji1rc6dPUL0
+nqR6AVbn3I5YfZ8mKu79f+6+TJrjvzRfa2gOKs8vgO9vH5Zwt8IfDbs7YnNExtAxhZ0lD5oAQH9r
+EAOw5VXEDUYCMlydHnqR4D21btIb2PTUzT4bz7+RfH61nH/uCMnTQPi9figfYf1vjW9CYKgVkmNz
+BG3GNhHobrztsIJfgxQaD207pFuO5mU32+igkIRQQeWS5tVP18fUGYuHfHLU+QtDPoB8+imz0r8P
+oBbtwl4tx9hoGyzEvWts//PlRM79l+uJWj5geEFTbWNI/e2ju4OBVGWGUKLhGEazD1gFCiAu+Ab5
+CtcSpnqY2v4nKszxiOoy2Rum9R7k8vtUJ/YucymXDJfI6wEP02VsLed1XAEr2YKJC0Cr/WY5GA8v
+MpH1eNWmacAI3iy2wmHqmjHAPlQcJcckzNxbYaZy1+qKerUkE4UCkvWFtucrJ6Wab9UwbZv1hLGc
+wXgAduh9M5iYIbZLhLuxaof8SmAytDQO8v9uapDjDxxgTFip2WmW6UvIljQ2GMm5Q1o0Xog21lpd
+14u6Bz6/ninhWrYXFPQh83mI75n3zWEXsLN0DGEASu51PrBWGZHfYXRNx+dV3JtuQtcq31ob7eAZ
+CJI/Xqt4SrhIGcIQchp6vXOTIhXRIO24JE/bzgecHq5FQgt+MWeorecGGCnLQlsWJ99byuRUUNJs
+42X9f8QU9PFWdNhuojjzzIAYISruq1A4JJ8B+pK8janpW5HmNZqFFUKFZ6/ZaQ7hdEN+CncbKrqN
+MVPk006LI903Ryxexu9kD7HWrqEudERStFEVMmLXLY1bkDryY86HYt9msGqGkepKFBN3JBuMfpvW
+3vDcZ+Wb39I/ImwjO2wqbUj086q3Wa9diIktOwNrxiTjpsZDm5NrZPLiuC9ssv/iIuXQCzAvnnrU
+Fu+AqZp3ZzapDa3SskiX4Pu0+6C9oxMNrmcl4KNNNP1eWXffa9Rx37U27ZPQnEb92tvVeCNXBhXM
+UWcpNVvGchr25pJUp7bL6Vpq395QO/n3ld0Oz8JE0shMvnl3O0BgqNfnK2nSPW/beuENAKa7+27l
+DJSUKuUN6zqfJ9jhNOljkv3soKczih2n96PGXXhGOiQOZASY/Je9WBTJlZqrglF109EdbrBTLsc6
+5Z2opGIqZ6HS3OhwfYWmkNv27oy9mZWXeplmP7g2ga69dRKoWmLiP8xmv772oDAcWl6gh1pYLr7c
+enwOHProfpqzQ7BOgIALy5uqYD7kZ7TJAdk5n2wdk2WH+VO+Fl51N2pffrB/pN0WboJDyUFcOKVe
+ZDr80NpYC+f1U2uIi+YmyACtRg0YsuvZnnCerI+qXs93gel3i3pBvrlKD3uND9Hb5GKydsOYMRlZ
+m9dMCxr4VDvqXtQt30yTU4p8vYtlnQA5YtYzXxU2o/W16GWuY7MLZbDKX1f689WSsDLQI9O1r9uQ
+5QmFRFIrcdSDMV+chImH3c3q/mviU9vcPtVEUohnMjlRFV1wSXoGuAcKqjIAATnEnht9jQeMxOAy
+OIrOloEjl34d5C1ZMO8LtPvRlKafbYDWbeFxqyM9JxQjk2YWFiRMr4TUxYOSjq5YThYhfQol2dCw
+u1TDyHCu7vmKk0mUyEL5i6C1AogiPoGqPwQFacXojBntCESHwwpfy7kFWWya0+7Lgp3oyr21Cm+1
+LkDmZPA1dmjTWiaCi1Ool8V2GJS5/aR+JJBAdujd5qcar9UmtlowVetwBTkfxxodPZvRdVKzrsg3
+AaUGeqUl4ydVFsMetXDE2Sa//mt+8/WS1AWz27oB5mkI4xfE1bVc9g2+vrKiWFKdKPZ/3JpIavbS
+YTRUk+PxIMyyvpaNVWyVC5wYmYN6aUxmaKy/makNa608wQC9HR06LbZLPYe7ATi0KcPmTScUO62A
+7DT5nLPNlHIJUxeLgqhtvpCCZJZdR/u064h0Ofbs2K7X+1m16zHcxU2Hbr5kIhlmPjVv0fLPeYnO
+V5CSzcd0nXpTl6xvARq0N2hnSE6Xofs5KBZxqRkntz4CdMS/6/0DqvVIq8Mw0uPPidfp11d5G0Bv
+A/RUFw/VNDJFQpZIthFavq93g4l/9Yz6JL31OfKZOzFEJWXbufUTw+VVMRHZpULKEAUk8xH9+0hY
+JkssD7sB5BGOyi8qIAbaDl82XySRCWjQSlFfL7iKr12LIrZavwOSquVr102t3LcL5LlqMjnN0I09
+zxNlsiyYz4mmtB6R8nPYco69NF0gX/HHsaaNOfa/RoJjz9AysFh5JcBe2FZSfnacJjKizSn2q/Fh
+Dz9q9ePT7FQ82AdYhUxBm5KHYhZj81aSxBL1EzNjO4tpFXoKZ9uDE2cxXN7xsufm+Tpmtc/VYHKE
+zhtiy3e6+hntoFWt/QSS97OGeHXXMrR5gofD4o0EbSzN3cjFJMcGZR/PUYEk7bvwRkmPZ3OvGYRY
+6Yl5mVXqKjvB7VTnSZYMEdejEhy3tWsLu7hdAuAKJSHYTL2Q79oq5P2QMjLhmWyZTtc9+14/NM1H
+W/nDL3/VLkO8Q0lIgWcj1qMJYXssP7oKjOJGdQusnZqHLCM95xbh+RsJdlw1DC6kGwQr93osuAZ9
+KeiGxkm9UJWQcD1olr0QtJqQugVy7A17ZQ7ZCVHJc9PEVJDzOAMR5QufA/zPhcVI/es/fj2Yc0UY
+0MZA8/nDnXin4jUlbnbp9Z22gEpUaZ4hb2l4oDOqysRfSbqjy53tSJ9IHIBxy0USvfBiT/68113x
+OZB65qG0oYH9GhSvUkLHojMlFR0iola0ZIiUhwODBP7iCcNGPh2HwHlFN0Qi17qJ6Rmo7Aa41+iy
+0WSd+7hv/vCs/f+q8m9WlTamNpZt//uq8plk9KzO3v99VfnPf/Tfq0pr3TcSjAyC3vrqOP9pyQ7s
+f3irpRIDq+vSVdn0AP+9qyQN1cEkKGzPs0zBMu5fu0rvH/w0OxBwQALLAuz1f9lV+n9p7KhQ1maY
+H8mnWEVRf+5Cg9FrGgLFzGNAuGEJuKUJIhwPlJX1rK6zyaaUjd/mOnCpADlbn8SA9soRkPQzEp9v
+7AbeQdiOyPr92Ix3VKTBHbMmecXrsnxs6pk6A3vrCfHKI/p4TSjyoN4F1XVLwcoFfupao362ek/f
+yWoFvI6W0f5045oUthQqKwJ99x0IGIxTbcFnZlLB/4jFKxmcXmP8KjSHVkEzrX+t7jc/P2cdHDKS
+lHZt1VEw6PxK5IUEvTLGNc5OJ1mlGMbg3Ay9ZZpgIzBsoM2SK568HncygILoq7bAmJQpZ8tSVN+Y
+raY2LdLgrSzQ8191/RhwWRrLOpp6Sq5zqlfyCj0aTQBvzS4GNuPuTSWcTdwVH0611FfJxHvYDRZn
+6zJXeWnzrgbPGztbg800qFd7ev4CVEN/N5OT05En0shK3sUI7P2DjikJhB6NV3Bq2XZAcvyUYkbZ
+MqcDAK+WUfnPJLeMPeNYDdZ4aRcOBYIUSYOIv9JufVCx1q3KbPJfDAa+j60KnPdB8vLbeBDNX52E
+ysFbT2I90TDhCDC5FnAqzcewcKnLv1DaSYZDb1PK9YDjhUPP07LTuOnYusPD7zv5X+yd2XLcSJql
+X2Wsrwdt2OFom56L2Blcg6RIiTcwihLh2Dd3bE8/H0LZ1SmqOjVV12VWliVZphSMCMDhfv5zvtNh
+6iwh2fKUwe0kZMgg0mgbFMJzt+8PGPH5lxTY8b1GyLv+qtFnDqws+DPorVlwVS+beFA+jGWpbYie
+UlfAi/Q0W0nVu2xGcxnTTHsmZ4oqgxJeKuC6dMQocJuCqD2XJtsP21qg5+cH6BBUet6PKoQZLIFR
+1mMOcJK+LTzsyI84ruDg8T4L8JQ0l8MDTd2ZN3R+PMF7ctNLlc0gStnQ8QMMVkPhB/040IGx1TC/
+GtghrDBOw5P1JkhLGzEGubsRASiam6jPh2jXqciML1TdL1TXCuz2mQadZDO//4MRXDWgtfM0BZ9c
+UYLX9StAHrwerb789fS48WvA8NBYqVblE2zZHJOuxb1/4foF5TjjmYfcqQXCrA0I3jVvIiJQcscU
+3Uc0rcCMB0uDDhBtKm9za5m79jafL5mp6GloyZasHdejN9Qd7H5GT7HcV4B0cK1/IJjNtv7SQB7p
+Vw1DowO1Ep57ilMNSxy9pbpInKTtSCloiKWNnfD3xw4utD2UfQji5E6fXZVOxtO8/JQin3V8oPwt
+Kdd0J/HDeiiSHeEwx7phLk3VW54xWGUzTjYbx3LfzA9qWMjzVb58pba5fD4inczuRlGeeYmvE4o5
+SKruJpwS9jkijOFZY/pN9ll1ZvwuVenBkLNCncHzbmFa0y5p6vx9nj2uyNQ3lmvKstH3gYGKYl8h
+c4Kpt4pRr0mlj+sxyNhHq9CmyW72h3usRuNdD+7oi8OV5mDv10z7clmy0SCZW18poddV7Ylp5dkG
+RRSdvVSbE/mkX6Dtghscl9FlGkIM5sv05QYomQV9flKwP5eWcOXqLtoFFNc+9FzF+3QQxW4GkLY2
++9g76UR1b6nhWM4q56HzlIf5+CB8o1hjYOfCttuh5c3wAVzhrjF4d0UG/WuuvLJjI9nmzobICgBY
+PjKOUmPoBYeBOq+3Bgnb2VpMfZ0tMFzSeRjZINTGKeU45fL5TqOM6N7k+Oxrdi68YIF3E9seg73Y
+jreGcoYV0jUmb3Tl+gIngbNnKythNfLEOC2c4PscXj0OxSwnMsA23v7E/DvYGezWv7tB4RyjViWH
+tBfWt9wL5icRk5jlMMyogmRp8t1pxuFRe94E2wegIw3R9EYnxqc2NdonabukMUHnVKCoRAJLmhkX
+xvj8yhpx4OdkSHemKCZiF+b8PTkPTDh1d5ec4YOUct5lpFIs0xXKoLtLZFpGLiDorAs9t9l1sUxk
+yFwxnInOgxp25MHVMhdolymOdx7ozOfhzjg107FcJj45ox+rMOxxayITUw4o+s6CRM5qfiInJi+I
+DuxV74+7uXd6IpUZkRZdYmc2dHRHfpLVZAogFRi1vrfK8rODvSBeq7Cb4z08fOeqztArPkV03zwN
+Mm8f8sG9Y07T3ON6iVdD3MFwA+X3UAa4S3M9KnHbANs4JAFzezOW5ufYHsZLNxKPc2z7z7qb7H01
+elW794ayCrk/2PMf+nZcbvzhMNYhvQK1fUfVc0VquJYe5crSvIJjRDovwrR6ovIajQw/05Zqb9S3
+1GkZOfYKdQNkU2luZCQHshNjwZCcGWJKhEvr4jA1MNPXBueybU8B9VqMpnq0y0x8SQDYEJ1Dnb7V
+qauxX5KXotyDq5qp4cvI4/2SuZa+Ubb5QgC3WcZmBCKBwdc+4KVIXUHgSjc9QbiHKTTcSyqIrVNm
++eq9d8f2ZYJg37yOysz7U+K3UXyp2jmjKTkr13XTfqaxJjpJTrKbzM8ivOLWeNUrzCMcizHR+BxN
+O8e4bVvlbztmNcw6guJ7TnrhqpmTdBt5k31KE4JqNLEziqJF5w6stAfvku7mVVbKolnB96lvAkCn
+18xSbbQdbRonl9A69hI9bPm4glXPVOpYY/x8SbRyacGsP5GGNI9Ymp8Uj8StpP+bonPzi2XHZBzS
+7sqYPPfzgCug4J6jEMeKOgsbu5Tkvd341hGVvtZBexB6UFRyknyTpqVZNat6dK8GqVze4QKZla6T
+M3m3teLhZ0B951IBfHhVDKJasNTPUeoGzK79ghoeBn4YFrKNz0RwY4GoZi2s3a0cfXw3TkjxUOw2
+/qr0eYTvQuKT48q2a+dEKbt/RwpKPVQtHcWkYvqK9yMpOJ7HnRGo/pqQvbcC+fzJNxvrsmwN+qAX
+sTYuJ28XqqJ4gCHdU0DN9mOHBJtsRio2um1tQkrVCksXll8p7wqOxTuKwKdHE1Lj5dQ55rPR8gd7
+P66uWYEQ58nV4WsuwpOjzH5fE0vjt7ZbXzpMQO6lV+Q9ddjdQBN2CSFMDhVgNzfVpyTxzU0b+Rcg
+BsVVleEpMrs88gG5MWrT8nNKtf3a8yzBhmLs4089abRV0I2KJ27nHP26GA+jGdvE4KTY+drne2BE
+ONCqXpjhvCZz7re7KZMed0KhMhgDJNncRPN0pNwWA05Q5Pt6cMVTHfLG+3psH6K0Cnbd2ETplsfh
+cBApuUFIERn1s2DRxxbrdeTDtWjJL27wKXeXlTu5JLjkpC+JN1e7wbZHZ8efGYlDjhImP+vNt7TR
+/rvI5bBNkNZQ6UKVvyE2NAesM7QeL1srIE7gbfupQWgjqo3ilfrbxGhqTAo9HmAt9PVQW/YmmnK1
+wPZ60rKBfZlhCriZkVicTzzfsmtV5o6kmYAc2F2qCCl2mVfd62KM/fs8NJx57Rlhu+qRsVYYedyv
+mWWb8S6kkIAbyFzyjExLbmMeslA1x6sy67rtpLNwBDwsolPHNuDaBmnPyjs5MeRJ5tuMDlP2WG5I
+XM6q7udoSOlFj+WuyfR05XWed9OUEiAvU1djoytPH50qV5ej1QA3LJPxzvJU9yiH4tgMzWUt5nHT
+hHZzW2AmesNLaO571bRHC1GB4iTxxEZt2AUdIYOgdU9pP+Wokpi+sl06FnF+xE84WLsknGdowUR/
+UmTdskLwsf35XpN/+zpmBSRzlryc4pCS3KBTAm0vnWi+ykj3FG8T2aA7UpjzrSHnNtnGdeLpr0LV
+jzjGyixYtVB+I3tfGCxuF9FIpzpjK+gG+TMz3FFeMt4JoiunNF/VENaEC9nIJYJr4QKZM+J7Tqds
+K7JUBveh7Xrmc1Lwq3ZYtVkZ3VE+3uwWDh/1ImuvHp5nScbNdVoRB3exXTeEmKcLVfAEHQ5/Osnf
+/Rgj/i/oDncVzNXuP//tVxuv4wmIZ86C4v47w8Vw0HjU2NcGbQuh3+Ek6iXSfsTaQ1FNa/3OX+v9
+wiMxXcZYgKycBdZjfyx7zCW8eyJh1aEsWtqXJJvijoX5NTMUVgO70m8yN133Ju6Fdi7a1neiad1Z
+9Oxcp16KI9bgxt76DZEKEBkUIBVUfNdH6GfhUy8VVadZxQbQncuIbVvhd9/MGHM1B3pXzQ823dzt
+FjBHe0i0ZpuJa+618vpBPXRW6HW7mZj60K1LUDjuy8x5AuSAGBeHaUS/TeLES9UHK8Yjbdg0hVFG
+/I1Lpnxn/lc+OGHMjl41Hf/9ueLVLNxxhGA6BsaydpocsHAMnqid0R0YTw4OewFH9zDxH7a3blVb
+/p5CKX/cdpaovpzPwueWgL/+0n+1Uge4m1FqgLibiDMfxrIZO+TI78zqQBqKE52XpJwN8MRwXPvr
+F1r+op9H17xQuARu0T4c++PoWrSc4BqUyMO5QwhxgiofVTZ8P9x77muXLEUzcTVyCJl5yn75R199
+QeyEEP/chRP/EUNXG5OFqguwok1r+9EfiHckVAmyf8xbqBYGr+qrgEPAj/qVv35x69fZ9w/wDpD8
+wMEh/+FDHlIP+1jUVofOqjkU9kNMrVSQNTRcpUwYNq61jGf6pblLxTV7VLMtNQe/Mg7yQ+zipj7/
+QP+SN38jb9quHeLz+J/lzdssf5VV8ZO8+ccf+kPepPWARYuOVk7h4ULo5ob6Q960TLiSRDQCLBqm
+zVXOv/oveTNY/o0DTc5DF/1vaRNB1PLQQiEkAukGfvePSJvsg36+x1BNnQVnGcKbtFnGP/L62j6j
+bNW3mqOrjHHjuPmOVKTaOYUSJ0+WKBReGBv0D/Gc9LZZ62sDE7qXfssD30Z64D6oZ1AHBRGrvYFj
+o33UHEAuBa6J9E6BTnmB+Qq6YPbLo7TinBNhapPmzXDQmkDPjpgXsEVkYb9RfYpTrW6M6ktJTvC6
+n5h27YvJ2kOAwdEwS7veYXFtwy+Mbx1xECbZ3pYBmv+5H0Yt7ibbC4gjsZnGna7creP3ZblmXRXJ
+a68M+ZmJVVccqpaN5K7ukCKvlEc+EudIXpjuAh1eehmKATfJcJNL7DTBjkIzChxI9PF25djhnWVM
+lNLyQE6QI9m2qM4NECVl5IIeHTsKOTpgRy6iG/GjPCLK+TybVTIVelgqoUNz2Oi+x/5qnWH6ww+y
+fiYTD/dXVnbe3ALhrqJsXegWnj9+/BJZpyRrTpOnCl1kRynmxrU2XkoucZ359IJBFuFYIWEjiVRX
+c/ptjlCivGytCphIgLirBLcjBQDx3s7GqL0hB2FcmBRw3Zkp++eZTd9q6N2WjlJZXkgDg1AM6OAh
+M3wNsLcz51VvlcPJypFt/bCeXoM6zbYcGTmzZpMEgs1WpBdFdsVpAt2ic4uLqlJ6n5V9o1ZNCdoi
+73O9mDvXgZY4+Qv2hEg48S048nLdy3zc+FhhNq7yHLSlmBVwDqNTWwzFM44uxQQnysVqNvr6luzk
+p6wq4pMTN93dIPvglNdZ/0XCot7EIb7xtpbjieuh2k19lTwBGI9IRlfTcyahfK1JhC8JFTvaDFYS
+3ISEZp9kPToHOnGMWwOXuSLjZoQ7No/OVYSmvjeIns4bK4Aj8VQ3wltR5uh/anyrfOimMYMMEMl4
+XHtp44ywidpgXFf0tF6ULWMKpr1dsdVgMS4GyBr7Ic/iJwca/GU4L8Mpq/aGR5AomPwEefl0yenm
+79aAaQg0F+VMPO7KckvbEj16BLvu2mQOLogpPqZNwPFOc8RwnTG4sqY6jldEXPMFK6X7Wx3HFPGM
+PM6AoWq45hPftYZJeJK5Xz613Vju+wjbxWDLZ6vBQER9pjjyTSMQ1Y67xuAorucpH088/OWx5Lj/
+GMMV/6wdpOeFzWy/pRTWXhpziQ7UNE5wHMgb79y0/r5EBg9k+RsOrhlboChIcd8I/dn00/x5QtR9
+dgaVeLi3RfbcUOWzGTLuMN9Q7d5keL0NSdjsMIJeMqT01+Bp833aOtNtGZZY9ccuhCuA4ETuAP7G
+rQXonFninMoVWMbkrozS8TgaHN3WFWFUrmKkOOmJkWpRXE4b9hkTtnNdr4dogBafd2oVkGNfx3iV
+a68bqCYIy40D1eLJZYB6q4z2UzK3D2ltBN+QeTJ7ZWL3xUo+MENa2/WcPgZUYl8WtHNAZXDrlZ92
+RCWT+CJ0u+AaW1vDraG7hzkXBMtbs3rzNX6dGtjVncM04yu9W22zIttEe1Mx1PRhxe6nmFDV2m+A
+Uq+GoplALsE+c21Lf1kceGWVx2va8IBzkclBlh9RVJI6fu0cSqrygdFD1zdXVNgNW88fxg0JeOez
+Dcvu4IDCEKtxGKYrnA+Lz8wf2I0q2+COc6WJ7Xo0dm3FXnoVQqs5oe6x+anBUVDGR+1U3yWLWyZK
+TObWxZDSDUVr6H01uIjhNNo4SLGR+JoNBbKoTjRD63M1KIaw6d41qLdEbPBetdcusnTE9gpTO+vc
+uXs6tsoIe4aQHa4k4EHnSQPSZHcDa0kTVNUO3XaOB4CgS+QFbQy0wdQTliDDsqsb1AfA94OH59oc
+3xqeeffW4E8XsYF/mr+UHHEadXQqEMdVpD2uDLXQ/EUt3lzSue+V4X5LIF6Qpe47ztRNMaGE4kZE
+MuUmN7LrgSP8dehk2ZU0Kz9dpfObNG2MkeZS8cwUqjLbh7GZzbWwWgkFjwlFApF3lwB7Rf6Zw1MD
+1G1rgAehg5LuA+y38ibP+ph8QBJh+WqtZ+id7j6NPUgXTfCWzqW4b3AMr2WTV4+kxFhBZFsfB/pV
+t20befm1VyF0YvlG7ilN4lnDOCXojb4iTmRVJ67cYlNCn7tLpqr91oydYa7s2srZ9qB4xJSQH/kJ
+p4091CUushqoTZ55xV0RGd4ut2lNtUqFrN6ZIx5oM7kyaFGEHVVWe6VHvXHRSr/YbSs3uaiQhILs
+RXXW17ThaITlYb7qhyLWK5+04Z0rmmJV4pLcjIWkcMwZu3fL6bOttib9kJq+t+3dod0CKqUpWGCG
+dFojekh6q1smAmo/hA45ji5pb/s4daxtOofozC4URSZr0rgY9GWbuHLtlQPIPfJPCOF6Fw8i+1YI
++oXoyuR7FeJFivx7myXdhWPwuDeDbPEL8SvwcSH2a88/9Ikit8JMcUOZj72zVUIbU22kb2GKzUrl
+0tgrrzToF4jyU0rZL+yYNNnVKm0uNBuSrUb6OQCj6XbByM7LwNC/z2zZXyZFhfM9H0ngKMswNuZE
+OcJYo0k65KjelDfAQ3Lzx4QgzFpP0j8MyLzrxLue3aE+lEShCGaE9q6yvLfGrE9aC7YOSZmusRfv
+WaKN1eRQKZ6400pCfNsxVGOHkZugnMzqJqjbU2B2+7BraLkv9MoscNFRuUsPkAKbUM3xrmxrsaKV
+wF7Ri8hxWUrACnm8g0d17RSGcR9247DPfR0e3CmNEX2KEwG4uwn8/05BNWCWYpRrP58ob9EWknSW
+75lwVRs11+XGjSsqRaW29iXpLBbhwLk11IjlMjSCR3JnRB3SCI6PZ31vIp9WDJyjdGHqYmUntceD
+LJM8Dxx9GjjYvyXF1GwDg8uPvNnBH/vy5BvAb0I1S8wn2lqbYa0vRiSFQ1rGBqySWRwLNZ3yxFsy
+cj9iuv86S/3uLEXB21+epa5fu+71TWrYQqr7s1/E/vEn/zhQ+SEFRcJfjlQegz3Q3387UNGF5HFq
+8jzw2GgUnsN5578aj+xzgJ12Ofrnzj6Tvx2qXOvf7eWoTxreYXAPB/4fOlT9fKTir0YYwDDiMbUD
+VvYxgx06k09+zqgPbFLeJa7wvSEqVnthDv8gJ3t5JUa2qPoB2WiSB/wkb6/3CfXn//lv1v/OS7d0
+F2fzgYV0YJpTv9RlNa6GSOr1n860f0fo+6i7La/Ea8C5czkguGL59396pVgZNKrWQByZJmuoGeZt
+1xe0CzXz0z/8QsIRtsuQxudt2Xy1f36hPshxubcztEisX1mevdPI9p7y///My3jCRV3xf83JK1La
+nfTGmvjC0k4uyKEvYP51Nib/xEfHtRoCdGAMLKwzdfrPH12NOldJ3lEPGvJqBOMJQNHGLlymv3lT
+H9VYviRkAWr++J4QZD/alIIe8qoKeQbIAZyOr6f7KR6fLIODSg/o5a8/wY/i3PnFMF4tDis//EUe
+g8ZVcW9W9YFUGnkwXIeHFIDTqjKSV1MQbErc1llRwKX+8UtR+C4OsoW17+NK/vkK8duK4ARBtwMp
+lepB00oBBtDIngxOXL+5v5aL7c8C5Pk9IoywKgSmyV3980vNOtVTQgDpYOimPQDPnLY0UUUPf/1J
+/p17SwDV+NurLBLNny6QBcZB9xbTYSMcPQg241Nf0MNXtv/cR/enV/rw0Q20E7DH5pVkridGiukr
+j+F8/f9xe51bJX7+6EKKPAVXBr10tv2xE6GKCk8UGLMONbU6m9rsDdDItaKC18U7EEJo2FgMCHYN
+kJKD2Y7VJs2dENurWx5BaMAyHLCqb8UY63VLZvvtnDgM0si5WLoudjrI3oHlOhd4m/rrOoB8ihC1
+VLGHVUM2jv9kklGxJRFiQ1JwvEMwNsVpakP7meEsslaURi99gZd1KEbvEAUz0dYJEBCzXsHAbPTj
+dUcBUYEeQ9qob7AhKyXLrc7ycqsw1D4oI3WPzBCHtyZilbdQu469b/EqqUtRsuj6dC0DIavt5Obm
+1zSTHBY6fp5zL3AR8aYz6Ju7iv0gY7SZ3Q8akk8EJqJJyqIwYyTxqCARRpioG5PgNDMhAeWrNtaF
+ybubCxYuSLu42VRpo2SwuEjcmFvf5xEAU9tCzoMate6Z4RzdAsdxihn70jIhHorF2SNCmNxBbtrP
+sVzK+GIrfYlFlT/5A+EjJqjYl/zCfo547/UqGIjR1IWLlcjHp4gIFdShWjsOJq4/DFcGtv+nboBb
+jj+bXZ+RqJeIj+ZSsue/9XX6blp8pzr17WeO8e9jN0QPyp+ri2FZGiUy2+WEREOsB2cy6L4wzOVd
+mvjjfQpP+4IVXa2hiFDcHufOim0A8+Lc1iVIJIj5K4bdyU3s1CFMuLh89yFg3QAe5kPUuVdubGMg
+2Hm+7HPm9rRmcfBkE4yokvAhRFpCbnPBGBZNHT8KevtIcwRJ9hLO8JwKzuSbyJMpNAhsAvO6mls/
+37MHNutriwhSuPEpNfwsoxpvIdl2jr5wwrGs+YRLrgwIYM/CKL1HgsDFu0259ZH3iJeGgP4K42lz
+cGHOPVU2tkMHZGu6RhiAh9dCUslWVH331U6P5M/akao4yDp8BSoameOP4PGrlRFnBhxKP3zqmpbb
+zoWYBt+UR9w8hQJjfN3rlYeJUT6p0oj7PUeD9DUcbGMXltxHPh1eMbFXgLMdNlQs1mH/ecbCsafa
+WuU7GnLsZJfWNIjTPCZIn7ddTIsaEEDr6xzWSy039xan+cnaIBJ2n/qAER32J+8ymJibUInID9ui
+Ex9xViXkxQeowlbGN+HJOHtpYrs8jlFckrXr7DUYyHe86iGIF7js/CBwCuNi2hhTh3VdQrqg6DGE
+JxDn4T41+IbQATL+waomBWEND379Q9q3Otug68nvJWaRQ4lauoIHDlnRtfTnupv6vVNUQLpCzYUw
+D6I8DhBJO4g1q8ZQxNWtfM9R8rvSbbCR3fgA1hoSRf9Vyyk5FnSPbzX+zEsehcFJam5KuATjlrRJ
+f92rNtzGGfc51bB4XuogexaA4i7NcNyBCM4RtsdarYsh67IVJi2UVpUvNWlLu7rM4Y+UOg1vHTaV
+JLq56zNNH3YPuh9JNp22c8vqBv2z31vLc7d2ed92kb4mnSFuBZOkV/q4xcnBaHNTYXx6RLt2jqPm
+ispYUF/00pFu5lO16Tklbr1u5jYqwFveqlIPb53RoqrEHWuOdDNxsnxUKdfMXz2PhbJtWT982rhP
+cwKgjJP+tMHxhRLkOVqcoiprCYppVrLzTgtEbgMmudCbdEI6KWxdbfyBl27JcB2STiiIENbwJr1y
+qV4rafTsTK5gmDhtkt86tap2cnAEX0JR33bNsq+ubJwaTMlYyRuJTl1Y7joL+HSSKCR24pPJOa+6
+g0y+qExY382B1apfrhHPnK2bLFLJTeqN8a6nfok1jp0E9Z7Ku0Fp2XUcmulfbO2152CKbBT95/3s
+V58gz4S3cxCVm9EMWsyj6DCabzglPNHi9ORp8NjXcbQWqCH0lWiaCzVrjxGzegwhN33W01TUh5Xe
+OSlmmhj3xo0T2ebX0NLqklQO+9FK34qsyw+dj28mxWS8L5jHXKs2uXVoqflspGl3i6lQXdNW+JyY
+zvAsMohFYqoSqoAt7zDT2kHysClua6NF/c6+YNsuNmT136s4wqaukk/cz09tjz4EtxPWZVyAPcZ9
+futO4DJ4LFK14btfDa8CXx/w0KNwgeRVImlUYOp4bEtWHLMQsG1MC8AjHs+p/rHI+m5X72a+gx1n
+L0jD/gimRbgo/UjJ+lAQCWj35CJXNqm9gTFTmML6zXMWs5RDXsMlkmKVA+SULc1DZogwHiwdJG3R
+wtNvGJTktZMUZObxzEHyGNCQ6sL+1BV2cRwah14biuBrooiQLZy80xttFZOdk5gaq8C/nAYbcCUP
+n7xl/SsogURSG8j0gpdExHGTvpAIaqHT46wqol4c3R6T0mqx7AbOmr14q5k/h23w3k2pFCuBq/l7
+7cFksZI4uBhFUMOlmkJsvk7jmWTTRtb1SWAiS9aqVequpCsRp5CrQ+RZEdO+WcsW25CjrR5AgNW9
+iMzMgM+M+cOQOojWTPoRsNlcw8Wog6k/lnmabaB5fnWFhjyPY8eYMKq5niF3ts/9xcLRnzwvNa5p
+STDgFmE6WhmuPe25T21nVaXMHHQu1MFu6IHF2vSKJSrbBoOdbW0Tra0KGsifyh5vqDuF208YztyU
+ro1xGpj+fMPtGr/FdM/pVWZ1BmlFYKNpbhgXyeiZYhfEBeub67N8uzG7E05L7oDlJsy9Tc0bPmSE
+Z4n1Tt7vynLOxIKfNqPg5oDXmUQySOdbtMb/tMPu5jnGEGzmB0JMrDf20F+rWENtFS37BMXW8gZF
+DE60PbOvyEIUaG5471I5BSATK/zdQQ2U38/niuXnQSGwAhQKDrsfDrkBRl/uAX6etrCetEncLGNN
+HQKaDXN9H0085v76iPHLyTA0LZOjoeviQkbn+OAmAEriFTGpM5jEbMLKCFvi2cZQMuC9NDAR/Ma5
+Yf1yplleMPDIlDJgdkji/PyJl1SXUiOR5SwogEkZ/LHOJ6jQ9SZti1fanrDBUhFy63tiuDs/djC+
+Yl+RNmYs0FAGU4wcb83c9PsRLfE3Bzvn7/18tH4B7AlAJP5yKK/HhEoauhkOsijco+674r1yGu6p
+QQ0d6HB6HMZtDpyVMVFqqZveZ69pMTS8rS022hC3XtnKlEdhA8KYbE6eXYI3bJ1P2rtEnwyvyjZt
+CX/iW1fwo8mAAE84xBGrsjNycN26zIcfHNd0X8lXEQ+gsbbf07QenMBs8QCOpjF/YkCevpyfiiUi
+vVgPMxLxbz4La/kuPtwd9Mn5BKl834M/9OHiiDUgM55e2UH5BEA8KqZXUMTp6HHczw0g5gMYBphG
+AFd2HqTZddyq419fnr+cs/HX+EsTuclXwmX64SdQkz/4dUIKmlEOWC8jri5rd/jdMvCLYsGrIFTY
+pLhcKs8/CjGMnHo8mVVy8F02z+fER1n7dA0APIlX/uLwR6tObghL95//+g3av37GbFEAcQj68yj4
+/HgcpnjN7dt8kAcmO3FE2hucjhFF4Uuh2RpDRfem29AgikCj01MWTg1keG8Agd17+NSrUibLetsy
+QofW7kA/qdlOuvjQ2H/DDYAu9I3MAHhvBlocXM8//b/06t/p1VYgCBX+z94fZmbqtXz9San+8Wf+
+UKot06U3FvQKAQcEJB4/f1OqWXMAtPIgcPxlqUQj+W+lOsT6AxnVxPZFwtFf7sg/ko2u++8sBx7P
+DiRxVBAeZf/3/7yN/xF/r/5QcbsPv/+zfRMb0s/3vsn0m6pb/oePk16Lj5JhPTO5jqKJAHNdh9Y6
+p9qBNVBCWfAaP5sOAYGxEqZTTG53lTj1NeBLY50nsfzWRWImfgKphCg2DbVU68wNRQZVF/hvMxSh
+LbluqjRA3k1XVYOR4TmZ3eaq6mbzW+rEIzgjolXMlzwrWBiLNCDtE4OddaBUYF90Tdj3x5F81HDd
+1n65lSqj44et27TKJh+kF6LrGoc9fbiTcWVqUEloQJSLWWk525tmwnqk7XZr25Loej+a03pK2f5j
+INUeI7DY3YUikoAeh9KTa9eXyTXJmuFC5zo4GC2c674qsBS0STme+sbY25QGbCo7hC8zOntp5KpY
+FxgQ+ammOX0eva5eO9qpN3oar2RoJWiis9USnwRqGinszDkNM6vAaT1CFeWCeKnIK61nwgqzteKb
+51M2Z23dJXbiHTl5dHdQ7VJcDww13vhEIFGwQ47ax9mv5wvVuh0hjKCNx2y7ZERYNaFt7VtRS6B4
+oz1cE+kGqZYfgnyyLLPc+bMoevajjOyUc0iTUVYNuMAMYSC4nPVYtnjirc6yCNuALtOp5NEUt4Ah
+L6wis8L+Mh+wnvp0VVp+KMh2CCMIahLYHnQdhhT3HTaYuxwK3/gtLPEHvYep1b1PIKsG58bG21RY
+Dzz7rJ2vkgBLVR1EwecaDxHxzCLsr6DNAcoudc0H1WaRXE+5Ti8SNyydbZtnJ8bWdEDgrIFKnw23
+3YQte3lOclmOGT0emCER2CzrKNKsApFnQqWnnI84m7wlvzfeK1+7sGuMHHY/DUnlGkR8fBRCBS6u
+aT7ttY0b6kDCBiJ4jufjohjNdkcHUvda2XX+ZqvGcihJAfKwammIWykR4fwiMcu5suxCC+KUGjDi
+YC9PiyS16GzRLzJ1SZ3OlevdGXyC3qpy6/glbl0TZ4db7FAhjX3vuOUm4OWuc9+pKZ+wxlNJbnQv
+h0ykt64VBYhQAskls01w51bcsIe2u34jMr+86AfTu0k4g9oriHLulS/S+VhGs4mF3JwwpclXfsZ0
+J4j073Qe3/gSE9xGu/4VTt/uM+6c6EW2MtxVBduROqU2I2uy8qitoP6UdvONVwbeabmybyOrMzeB
+6SA2Ntb1TO5rBfFBrYVTezuR1HbLJ1Cb7xWFc7eVl8Wf8cXPl23jDjg92Bp2uQ9dIfHjfZr22T5K
+0HCjZtGQUEL2pF3Dh9g1vBVBb/sKtNbTbJsg2NNmTbiHorG5967qpDEOHIGHZ68Bx7FKs3G4IjJn
+fwFHOo4rPc0V+a3cdO4xVGqieZ3zbqDJFtTkabnL5lRdoGy94QIO11RoI2kYGBjDVdb77kPt4Oug
+Ba6v3lwxxY9e6sbmCk3D+6oKtnJl2HX8HbVxgYnHRget2etqSByD6VfHDMV5LTiMgZJNx51TxuIw
+ej6QFnhTYgXfN90pL6YIKtAqubRCqR/Bc2TrnM/nkXgJ6Ze0uhf2BMgW7djLohDau2T2LpwmOApM
+dnBd3Fx8G/1S3oW5SJgyVeW3IDHDTW4SXuMszL6PfgkXSKRpAbhK71XRiouJA+0m4+p+sKD3FWS8
+Jpv9lxOtBzV/EmZqbciU4+UgfII8kpPnqbDivOAwQgf9f+ydyXLkSJZlf6Wk9wgBoBhFunphsHni
+TDq5gZAMOgDFrJjx9X3g5ZnlESkdmbnoXa1CQnwwOsxM9Q33nht3GhG2BmEDI7KMV6p4fy0Yat3D
+jk8Cy1UDCrsGlp6Q5eIBSRukH+MnAMR+05ui/R6BcwxSkMqbkjRMAoFMdEjFnN/MRuLf9BCxbqfC
+LrdGFrW3plLVifmR/uAaDCMDhpspkRZkS24axJfvXtWptTV25T2FLNPuaUBDE8sO+YXRRt9Hcmr2
+RU+AljDbWVvPfLQ2M0dOEFNgOSsc+wPSKU5+b1DaysXvfzHrOSInSRNbKzLMp6j2q5M32PGx9FV1
+WxsxctVa73myfjxhg8RoZfdRLakmQ+DG+pTVq9ho8iAcsWcZRm8eZkWkbEC++hc4a1yiY+mvhG2W
+l1HiOgFqpM5zUQ53GdknBGH5l7o37WTlTkkcwitBZIShjLw4s5ZvWdMDdGmy6uJW3vSgD0ZDOw+b
++d6Cf7nvvXY8lGOI3hNyF6QPGD03pJ+kLznrkZfIQ/JZwJWFwhImp26sMRYO3vxkKGsiHqCUu0n1
+0yacUK3q+Jhi5Ji1XiI9NfX2UGRzj/De7Z4s0PPk5FhNsdYSG0GHbQHfwcd4WzcuCDbXC8tjMWgW
+4810mE62nHICFHEQbLzSEjzHdvhmja6NJSd2dtOYk7sn63A+GonhfNLP6lpQhkVCUFs8BI7U/Zdp
+tpu9bs1c9B4c+YVd1SRbB7/U2U2q6hGkMaIfDWtyisWcpLe1h30Qsy0u0AqY2f8Ux19Fm7TTPy2O
+Adz/ZXGcFMVXU7Z/Ko9//Kmf5bFHEIGHN5si98fG+peMAt/9IckgJYC4MJQUzh/KYwj+NFOWzXQN
+Rfcv5bEg2cBHYm/ADIQW4tr/TnlMUcOr/Nob6z7lvG66nosLwECh/6c5hqAXzFur0E+FrpVx3WG0
+dTj5UCNCjDbGapNaAqc0h2mltoSgGECnq1Z8jWMGKy2fkwKH5dRcgOpYfsk2jyHtOGeW9WwwNEvX
+A1q4yDOjJ7zybkDAuv3SW1Z7AbPc3s4DDOFtUkobJD8j9kuEONsKemf0K3TIcbpXrSxOroR+RPVw
+l6lWfGgDzN2TDkscKrZjtudeAmV+EmnYuedmXhSIXeYMSKWsXHS/y3lCam42YxA6pITA0tzOEyjV
+OW0m5HU656grule2CAPC+A56/yUVCdwqZshutU15bx+gdOdOIEw2XZsKAeiTEWNO5FAllk0lsnfA
+Ldgw1QBFPjhWR2mPi3pnjpgIqGg3iZss6QN1gnu8N82dNJPHCSTSrSPdUO75LeICCTfMga0DdmoL
+0aqVYrK2aQ3tfSRZFtawzIcDZAANJIsvNjgCcSH2UI7Wc+zW9gYvVnNv6Jl96X173BhttxjSfb/G
+PoO8/HlG//dQLamxqp1M78DuXWhr2VR2tkRdI3R1kWPjMlDxRhMmaXAMlngGDEZqiuaj45c4GyqX
+Z9nhHoC80oQo+adpOMGxi9AfRlW8cRM8hXURWYm+CyMUEzin4Z+pCct/O+wn8nOp/ryJQ9AKa8q0
+KQz3Vpmb36pZQOGbG21+9DNQGas2Yly4t4h1zQDweF3xFHkus65Nx0h21DYDZOum2Zndwno4gBYr
+chbFmZ0Y7+T8qYh3jtBB285o0xorMOvKus5MzzejHlLRsQ08JP1872FjJZmIyMY0LQeJynARVJbU
+NbHjtyzy2gZww6yJZNXYJvDxOewDNXoVqZzuYzpCX7bNQ9Spiz15cjUPM5HM5RJ3WgcAUXfQ6cKj
+mxbbwkmbJ02L70ampivFy2xZi7UrFvSvhj6QuuUm4TbsuevwIB9qaJ0b6L0QDXJNP1S2lW5b3N5H
+XytwXzMz3zQayxwcdMnR6jL8tl4JVzmb5oNe89U0nQxswmS+FS2Ru7VBoYM5GgZIK/stybdteyQg
+RR6aBKloqbIjwtHoVEMDQXKd6xv4yrtSIzvIqrqtRZhwmmog03NUjVGt+Rojeol8PI6/7Ln+xiIe
+UHhYogKvMVH4lgIzjUgNgGk3RefCpoVsCKzYQS18aBOtWRllskTy2mFgKWnc8tPLk6TPpesZ2+pA
+Q999QRSYyL8TPBy+bPu6Woy+jLZIvyIApK5ZmNgPtcjuUy85z0bICrPTyW2YH+nfdjA//KMbDfek
+B0LoIskMYvcmkjz9yIkDr7eemrreedN4kaaGBp0Ar62qsnbThzPZpaH17LARWw2E/a2NPPvKLDCA
+ZjE4SDni7iHRiotXG0bgt2DRAMRyCCbexaro3GRObc6I3AABYFp3OlD9DTbyInB99MBAQxoD3zkV
+AYGLxJjGfrf3VPY5UwutalP3jw7H5bFTAsxLKOQVm7QE+SUIB3YT4y6K67sepzqp42uGFMV1JOfu
+PVtOs7TD5MAws9FOVWVa94lZO8eyauOAN0xtK8AM7Mfib7oGTiYzx+8xxtl95DasZpI6W4E3nfBF
+h/6RUaXYNBzrd60YKIdmxz+k0r0PHXU39K2+5ZggMVVqg0t/7bQvnCvd2uzdEBuxaOVVmphP6jZt
+dzpv1FYv6+5qR3Z8L8bRv6hRv5+V1pKCmr+C5zQD6Xds+vJtQcAHxCJs1US+3ZNVxunC7gJRntyC
++Rb8eISDx1YCEjbmdqjDgPU8iWCyfQQR42xN8BwPQzpcKq1WwWi08snV5JONZWuVaf07hptvTgRr
+vrNJojU6TFcZJgRm81twfgfk7TvflKRPydq6Li3obvDUZ0FW1oYIPIqz1nysQhcvDG5ab53HWX+y
+60G/xoa478C7ZE387KQmhFHAwzrOeAxH1QapxhtZtc0C1AnS5SytNO/Wa8SuSeR4P/LWsdqjyA44
+Rr23NIyMbxlGubUS7uLUIFabTu3COmzT1+kR3Vq7BeFhnhSRBmB76BUDkkLiIJ0yb8f2cT7EZbvH
+xHvskzDdQcJLgsjH75DAq+cyy4I59FkSsaMirMbqrE98Iu0CrNS8K1px6y7OF1ijq+oLNHjSkYee
+xExpxx8V+9JgMDt6UbzsxZA9GVa/L+D5+6RTr4X0kYfQM/RTc2XGnn/2Y7H3vembdFOwHfx7kFSU
+aWDZbnLqJ7C0rIq2FkxmM4jIALyOoDPh7NIvr7s5Nk52YkdbPD3Tquki8UpEc3UPXDAtVppqiwr3
+OCdTn4viNtJ69nClAqfaLgYOcmX2U2nLtWEY1Za5S3c24Z4GiWki7uvQaocCz582LNczMOUS8oTm
+2dcB9eazxo7+Ro8qeklryiy2ZQzCuvtCat7Bb9L5OPbiyRr16gMihBbtw7wA2Gu7gwB/lRkDMwKr
+hEzLPWtuQPV8Mga8NWKXzag1tPeNXdwOhaYFdard5VPc3SDQfGmUUMhg6LCJ4HjxGsTwY0IMoma0
+G4N/Hjl2Wf3G8WrtB3ak78sMbjPYoYKmo5kboBbxzgG1uPI8XAg5RiNkWf3rkui8IS5Ou0T9kEJ7
+YIZDirL33emIyugwwqFJF9l76bnTAyoBZ5V23qtI7Qo/Uu4+g4RM1kwmdAYGsXwEHqvjp1mU9C4B
+bkIg9xqt5UvEGyZXRB8ArvSAgUqfHy9SGMNy+Xul0o9J19x73y/6F9H0G93v8IHoqc26myvblZXB
+VCFR+BjmSlmrSlfZiRVnCcyTGdqMBfgCjGnfptgHgVBjNYBlce/lZs280Yu7O3JGvP3sOvWLNvv7
+sp3Gxx4t1NbwE5p3n0yDMyk7v2OT+eR0ztDoOf66U2H3xCzr5BTC31U+Og970JINshcuiMQnY9aE
+gRrbpk6sbinNawGGMyDhsz4zAATM1DbTOUeLtAfuMZIgUH9mUY6FYcwS+PqgTR44IJtxwwQVg5/T
+AuLZWUidt1ZupVxejVa81q4vTpEDoIQ85OR5UXJMrPYzb1lmT+Ihj4XxUWS28wEjixyNuY185oTo
+OYyMgqHjmZvIqPCGocRAD3d0u1nDiMMmW5g3IY0KVjcMkSRPwWpe51QeCImSPooDRpYwiE+qG9wt
+ZK3oAbdkq4wLhVaQgzlmcHpgtfx7GToAHqBZrvO2QpoEyfQAp4+03NH2V1ySO961I5OkduUnLESz
+EtrEaHVvfUubbM5VtyrI5VrbGeIWFdZLjHdJltaPGHPwe5VnZHsBPGUVK8nmXx82oRJXGUvxlFiO
+2mWV48EdzMuTbJlzpaSlT3O8zfpa3au4t3a68dFleC9bPBQbmYdPZKbmq4zE9FCzBAq2qlo3tkLJ
+IHFQOlOxcetsPxd87nJkWTDCTGMhrlVofBk8ZmPNccJA0yJ5EEg4u8I5jd8Gvz07FPjQonjEcLuf
+WJiWG6Tz8P2S/DQ4KHak4eVrWhVEM61G0EDkVtyJWYk1zrr3h9zakbHwmRXdU1lN9g2whjsGb1iU
+Whs66FAQh1G168qayHGtbHXR1NiDm9XMZ+JusK9lef404rkMYAZy1U2aBc6GGQ9MkUDGNqJUU5bl
+mWzMJwR/4xaDCHmtZZj8nipjbYzujK6JT/mYYUfTLYKxRi98co3sjNTIuioL9WNXF98pfkG/xs3G
+kHMZxBp+wNHqb0ZCC7Zz1uVPgFuSdYY4cYvC1d9YFsUOu2P2EJrMLoRKgdNDn7v1dbu+Ol74oTcq
+WvvpyE58SMe7enLR6DWOwTjcpeoxEC7olbwW49Rd0WcEuJCHYG4AMsaWPl1RzRw1w8MI6JSCwJm+
+X7l4KM+ecH8v6TdIYXk1vfk9qpydazTdmTZ34mFAH8zmQ+il/WbWtF0Wf9e8mqRdgA9no5HVnkXO
+LXDEE/noHI9x7QUgd/Ut66OSelWJHZlmO7O0WWdIefIMwQUqdWSO3hP8VbESyfw+ut1n2EXE8KZ8
+fkpx17UXtwyfyn5uAdAW0ZumAYDvIAuDuMUAJNzz7HvfPAxCyvfLXcrluDIjj3AvwMF4PnXjbFnV
+nSS7JNDANgVtNxO7koLfR99F6DQk/FsyRxi7pmTacyXIkH8uNwEDLq2Kt5PnNQfFJ/htUvGXYDoJ
+ZGJgpC1MaDuDhdwTw2j+mpUyLzdJYuRXrixrXo2lyCjwSoSB5LcVd0NrMn/TxnrRYaY7mWiRChiG
+63FQIgJ8ReCQBOPQszqwq/pp6Lzs0MPqP1BVp2ib42LHqsPaVsS1n5DEOlvADo+TmiERlf6N73Xy
+FpCZ8d1Omu40x4lzJCpJAY6alijVcNraYGwerQLRj6fMd3p4eSFClgY/0m9QwvQQi8vojEtYBB0e
+4gvKETJ05nHciRKlM0nM5bYniW3b+i4CP0ICQlHgDiY6HYok+8F8EUokTRutmW1o+Kx0AtM6L3DY
+F2xYtoU3DoLfZeX0QWIVIDvTfXejjCdGUXth7ljA1JgOtupJ3B76KxAjyoomdrmL/Tf2orCUPFes
+Zc7yiT14QRmkZnZo/PUYfYOO707kjJR7dP1byyRVAHMY8ijm6TFJWwfqxoObY3jLsrzfclzZG05z
+1oa5XWwydM0SIQfNlHffSc3a0QozcRGjfO1T318Q+np64armFoJeR2pd45+KpsCbm0oCEULGlV0K
+rBOd9gpaTI20tdERFGTJHtqfETCtlqu0bXQomHV7bErxvZ6JFfPRUS69hTknV4PTfcNgGvSS4m0s
+U0CKfkokYJYNEEU0Y+WQv7xOa087DZZkIZibsIvzS+S4z6XnNzvq6xpfIB9/IKfbwtChJDDvyFp2
+mVBHpyWJh7/K60wintuvuazunLK9TNUkV2oK1zPzWaYM9FmmAOCgsbodWhg6IctS6N6BHo+cyrYe
+7mOWlBsg7DZFy3QEDhoG3ZLOo3ctZ6RtKGhm/Ufvyg/iTQ6eVd+SeDAeEhh4a1rIE0f0cxX2BUbW
+cUOrxSfZmNyg7Rt2V0aiX2ejM3feODBGmbl0rRZ0T2XcoxA9QDLYzL2TBnWNpJZGZy5eaktjbDIM
+g7cFl/bI2XlvThFe6IiFHbZlOi9vQKZCO9hiZ51nnMNMBNZGmAzHGPzwyraKj6It/TsZAVSgmt0B
+k4pxRAhWH4Z1684+kXQVDC2gB9u2sd2VpRSbQQpljXwHdl00OPIRr/+XZ9TXZgav5TnvECa3Vfbe
+Gvmua73vzNAr2twEracxS3KG/XUtC/bTlVyjbPpetcuyR0vf4lqLNzVaumCR2WLvB744e8xKZulH
+66JgFhAbLBo5td5kKW9VzAEdNJ1yxqDCsnUDttU84nFlozZGpK0PPU15zwqc38RNXqFJxLVd1ZsC
+o79ax60L0dsBJWacEJgzWB/BEY5p1m2Z4kRHrix7xUrarbmhp7pDuQ6twEIM6q9chzjqJKvDW49T
+rWXfbyib9Pe4RvyIw9lpHzVUfs029xqI30pLBwWtNGbU5tAjTBwfZoeIHMxBjaOTZ2Rj7VYAWCf9
+3Lme9dFAK05bNN9+w8Ri9f9FzLL7Kq/v+VfzvxeVzCfFBedc3P6fP/4vWoufIpr1e/v+h/9Bss8M
+/a77UtP9V9Nl/NH/kmksv/Nf/cX/+Ncm8QK34V9N4q9fw3/s3/OqIQny6w9ilf/6kz+n8a4OWsYg
+pQX/o4lg7iejxjV/s+0lFRgJJQm6P4KE/2aptH8T6EewYKBl/Om2/JtQxfzNWfxuqP9cA23JvxcX
+/A8CMaKfBDIakJr8FCwFGNP/YpHi+z5GXAnzPl2UGmJmh2o60fMvD+WnOuZXNcw/aAKXF/GxLC2u
+Uv6z7AJ+eRHk/Frl++SSdCnG/dFt5nXs9m5QpVa7+euXQkX061oBLyCuKB6LuxC0dESpf3ypEu9P
+LSMBOhYf+SrJluRyk9sEPx2FOOjofU6VuiOczyK3Yyr/ycv/w+PkjMOb6ru09Fhk7UUu+su/lKkL
+sFbHrHE7D49m7r540Bn/+l/4D4rT5SVsZE8+Aiccgn9anCilTZ0eGvXeNobH0RbPyCLKoIN2hcCl
+/vrrFxNLOPYfHyinssnKx3IsTghf/5PCF/G3xVakafbWQOBXlOYGim9fy4+pHebHjFkmOF6U4aQE
+tqjEBVUcUjof9Xj+Q0neUPKDxokMH70nqhaaPFTnfQm4JIC8iRq9+aFMN2sDlXqOXl1JnwmZzMWH
+KYddBBbie2F5uIVUq5vPlAxVoE1+l68ZvIgrqyMW5HEq1sh9x+cJCc8Z5cMQrZgSAkewaj9/dOws
+eiFGp4T3ocRdGJHrZ7cEeTg2VRdcHnLvoza6dsRirqLcJzQeUTtZNAAr+w7GDOXuhYqm34o8/265
+2T3An09mZXetKnM0P15+BN75FuEI4iWgRrIlZS3AUmqdVnO9S+vFa1QAFWrk8IUMpD64RJdVGJqR
+yiC7AaXQbYZycK4j44vA15zwaEbi2SWz9yjjBDElOfPMz/ovFtY+Nie4mJMh5XX26+ixdVgkdF6K
+376P4DRFNDJD2JNpk4UbqY/xBXlQ0MWUFqHH6sSOdAe8EFPQiYjCKfIPLfXAyErM9R9rF09r7NkQ
+Vb0EDLouJWu6ykBZVIxKOU9W4WovcdqrG6Jf+Hu8cTQfSyNFwgSQca8LInUSpVqgAWR2n8K8Vpcy
+020il8jrzQeGfnVey9sa9n8gh8LYAKQyt32S6c9WScgh9oORiiQxu9cu0dkhBPpknLXZjR6TGGVD
+kSCTD53cWse1w8xtSAz/MGPCOMM8UXdws9RtrppzyIbrtZ699tFiQLGnFjAuxiicfV7wWeBGTbZd
+W4y7IhevMdoTClngD1vpihE9aeLf6bgBdqh01WWOtPJ2sQeZTTddorGsgC+T+7lVA4GDpWNDBUqc
+Cm/CaCc75VvdiQBIHMkzJN3EbbZhKMp8FbYuJG4jeiNeC5oKW0nQqvgHw5qqaLgjW/KJmQ5b9l5i
+kWD6cYKFBbMy7tF5dNFwp4WDsTNFou8NHdn5RHd5sKumPk2ljmeNENnyJp+4N/hEo4JcaTQndyKs
+p/dGK/Ug40tzhuGhAbdzTBTTPsVZpuHfkzmA/DSEdlTrNa8GzYdiydc0wahpZENUxROkHy989dK2
+gL6IMTMKw+E0osMJoI2jIvC1GHubTnJjmmsrvOistMJuDMiFRJEB4/84m7FxHkmj2IYSawvpD5Le
+hJwox43fRShefGNmV9K2+n0yTvre7MUbC8Kz5mXRQ1qSZ2C4PGl63WNrlV0AkEJBa2WaH5LJQ3dj
+LFmG8qI1NU1rHWYQt+ffEzJdPajBKfSnMOoPoRahWNL0O3r8bTuW0V5qnVyVfjXsZpxBUCWd+kkZ
+mptzPA3aGsQy/kCzFO9NT6ZNGVfOphm3OBnFo21XC4U6VcWhcPvmttMq8c657R2SfBDMhOIsGHvU
+kHFMcU+FXM3XMEvbBbZYTU+l4WVnDqT5YIywlirTflUlgCCy6LXVgMwjyKqQcl+PAVYWu5gLgN0d
+CrpVFIG6yXKjuDa5d8h68wkbMhOc0KCL89QRuxqSHCSQ6zDVvEsUpl/h6OPCrJuN25lEL+hW9SE7
+0d9UFiU0/kW+exwJzk0yyfHsO2RoYVFVe+El6boc5uFbOQ4CNZrilXVfTlOQOXyBmBOMixxRy14M
+rEQoRWbrTszSWYsM8asBSLdZlXYmdqCf2o1DpADfE2f8Pc8n7SatC7QmJFmnypXPNg61/eQnzJFI
+IVh0AYQjS7AGmwxe3K6bXetM2txQM5eae+i0nrZnHOPQx7ifriGidtXju1vXoS1pcjz3ETYZvBMm
+YxtlkqTs9lOyN1MyttFZxvuOkLNTOXb23m5t+8ZJDLwLWhQRPbzBpDLtsinm8ffx+GRwcq1NQte2
+PKTsURCri9EN/vgKfov5AC564+C0eWmn1HobezyUDunAL00h1lhVWV7LSqlrZ1Qtc07JJ4/l+95K
+aV7RDWhrLs/voH5NtHoKcF8EN4n7cTj0EHeg9v4wVdEALRYrc7Fb/bjq/0eL/k/lNthVfqmKljbi
+Z3uw9Cn/+b8uCa6rTiV/qO9pvvlD/622wQDlA/D4iZT8WeD79m+UoyYODOQyf6el/GgGDGcRv6A1
+p3H9uwZdIFzXqbZcugUd+i+i8b81Nz+r7L/SoFNb/7F2o3kBPck3g5E7jjn7z+YkZTi42usoPs62
+ziiZasvh2LBkaNJlO1b/qke5e9Vsu7xPqqm4LrKYVe3lOqFYfic3BmrHB0ngyMQ3Z0xvYlDh4C+0
+gpW7q3YIEsURJytkvh6G1xrqG/aaklxbJj0pw/wp5vYnc6Q86zAD3VVpZmf8aOmtWwpvByQ83oVo
+lHd8BRjQRzkn1UKO3M1JrA7of5wLtH/mKRBFNOTfE+oUUO7myR3L4S0l/BeelYvRUhD/i0l5GQ8S
+RX5f1hZlWAKR69DpH2k6l+/s/mDspVwwKzQULVPiIdoM6H248UbnZiAYKFqOg0wPluDQw2IA3KfK
+1D4XVNx3t0I6KWThHcAvqK9oNMM6iPMKOXlcdbi/hbq3Gms4yhTd7gpc3pQHQppfUufOlTZwYiQF
+gmXJFDnXSC+iU1PN2mfhYPmBTViaV22ui8OU1N96f6zv5WA6O+J++qe4atsH328JG8y0WX0ATYq+
+0fqnPjIPBssOFUrHvtqfgbgVB9ZZLiIZPVGH2PZTl/G8od7raRy6wLSGF8d0OMy6IvvIkrbd+3PS
+bg0rST5nBH/nRFc32hzZx1S1sJvDeT5VIQD5wqaAcUevMdfEXLAS0KnXFO9nlH5jtcXWnKfU8bcB
+4t6ajchOIH5D8BK5wz+UO2fVGGF3NhIbTTFY0B0uyCWdyYpf0jaJUxZDlWBOP5LLkDs2ClkttPWK
+xbhA35rw2UOXYpECYCEVJ2pRFzAvjD7cxjN9QRahxAmGpgCFNgts9rY/Dt8TVADMh0fSQVZF1sxo
+ruPiNnFAPVrM/M+RKue1PU8Yb5WXXyqYE2dTE8ZEusvA8rm0JoZRdllFz1xnJoTJLrI+4JpBHGRi
+x3A/4yaGh5Hv52omp4bJLsNWrzCuc277dxHmj2DwtA3Z6Gzvpn7tKCTkmd9/EkaaHnTFjniQKHPW
+PSUlC7l4PM0zko6t9NuC5BEZftNyJ9KOyG9quUHzb/zOsr/pqGSG7r6fByad/ZQar62fhdz5Rd3d
+GV1Rv6lJN6lOB+M9ZaPLXHpqp/tmcDNvT6wtxYXy/HKfmFNDtyJGQqJaQgVXXWiIZ9Hr8QmlqfXB
+VF8nU9niQxu4as72VVR4b9LV3UtqU5wdRj/1H2ekCCzoUZTRBCJIyNZV1JRbLy7ydzuK/Sf0PR+a
+PlRrp1ICloMzfdmVQseGF6IsiKoKi28yYo4YZEoyPmPxrV6xDCjMH+xkD5RA7WJiQVjHBe2fY3Nk
+MdWqO6MB8LKqE77PjNrIjPGUtfGyasba7OIc7ruGvXCVrC1kLsAHWhKhS8M92nrjBrOgHeU5WHJX
+gg1lciuYnGp+BeaeyNB7s9fsXZno6bjW/Da0sBUq/dVMYwTOFodpD5hiCoiWSuQOEkN2iCZRX9l4
+o5v1S9HeKwSyPFg3ly+gB+qJ0SxyFg6zsDuEEQHzxCwO1VvvTpVCbuY1ezzY9G22PjU3FmzUz9J2
+UfQ0huxvCWzROFxm2mOyg8gO8C2r32peXL/hCB++aoINXierMC6iSQAZ4LUk4kcQARUGfijqm3jy
+w3TtmVXOFnIIDzG4DjOghXiI0qbC4+APqDkUMVJZWq+dwj1a1dTCLSiyO5/YeBi3SXiQKcdmaVj1
+btTzx6iwu12jBngAwjJYUKpEuSstnQADkxmDXHmcf59Rw+eb3nDqdSk6sDFl3JsY+fFcjAvFoTtZ
+We0ULWqsoUpeiFVmiTG5VpHq37wpRczCNlYYbUvE+NTIm3AM6Sx86YAiJcxqNjJ17+SZfu/QGNxy
+LI47l/TEQx8Nzwyji/saK+19ZzQhINFELtFSDjE1Gsq+VeEWjK0J2nn2AE1wSA18rTBYFLc6LJBb
+cDj1liR5qINJal19bNYBizR0DojoOLa57YIxn5JrZ/odigO3lky18/wqfZ0f10m1rdEA1l81mQb/
+lLEG3YtqnHNt8OOjwTMvto2HZKXmNnywoLIfoKsOjwxsPTTuPSNwMWuQWOlW8l2r1eV5Anp69cuq
+ekBW5sLRz/RP1De47CdlkytWk8Ub1vNbaskRWkCtzfvIyCZmwhN7U8SZm7oNu03Kkrdfd4kxn9Dt
+u4cYji+YDDryrFMruzbFTViizuSQTYmDnMNFmmSinCqjkgBZayENdOVtNLvJbnmej6ocjTPhpmrP
+ceHuJLmsN2mK7wyP2IB+1p/j38PWSsgrYQWDt2eseB29nY4T0rM7M1XDjtAp/9AbXfOswpKoYsPu
+93yfnAnlZ6mo9hkc8RYR7rmap0lfo9BFud4Jv74bhJ6jk5TCD5bZ3Ca26Y9lnVk3rJPCy+z646Hh
+YsTTbw5Xsjs/9TLxP41GmOXKbuz6W8Le/k0fwvTQlFq1K0SsEfDZc9Tw8Yu5pK1M2IHQdXeb9DIl
+FI8SpHLdYZ22hvNqlol3Y05kPrXxcmgOfmYmQB4HcC5KmWb5UEz+t8QsIk7sGLr+qW7qBY8IeDpG
+PTT4rwlWtQebyXx966gmafbgxWs0UI6T2kEujVo/mxi7uMd8gzxCGK6YghZRLk++NOfpQdXReums
+p62IHXdb+Y4bxEXhhIFkbjBDayU87gelu1uA3XYl7IQ+la94gJ2F/koNyFfR3jjLruFiwDTuETNG
+4Hu6Ix9ZUyH96gtHa97xEbxS9o4vaDOLT9mP5rOP8PfRqKPqWNfJY1240yYXdX5wa6x7bgduwS3H
+eyebXzkAv1sJfqnWeXW7ofsQZUMFYSnE2I3dvbq+JveO62WYGLLNYOXamTeHID8weYcibevvYrYx
+zbRVnTL6QXKDgbJL8PyXU3sn7CGdAvQ67J8rhfLo0XM6tclnc76LcZoliMwGm+nE/3RP/4pZAYvr
+MuT+fzt59+/De/KH3unnH/mbkde2fvMY1S8NivhpR/jZPtEj/WYydwYr4SHHo1X6exNlmpgYDLwD
+NgZfxPaLm/jnfsTwfgM7aGMugHJo8Cv/lpHXXhYg/+3hp5cXzL6B8C0DG8/6Bz6jTk8wYxMwH5qm
+QkBUzTk4D1jtBKPPGbyoyoogfSeZ+gQ/ZD7Gcardmz6ROgV1U4WhF2gtAwinYPKaDWsNnUmLEnJj
+jz0JK7rO3+NoEYZVDYw6K+uxSpfNvDiUWAa3He7mDfpZn9JUh1nkEzmdyBSFtDml97Nk0eEjoWWH
+qXVfxUyDgEhlsACsJ/HNWGRk18RNO7zDQQMpL2AqraOYx0YMer9M1FOFxDnT6yM7++qjM2P5jv59
+uuUSJ5nUk9Mr+ghFKRnRSgh4uV9YgNAWVxkhLqa+CIKdO6PVOFm5L8ynToxz+k8WHj92Nn96Cxxa
+aN5VvNuQGP+0gshny5KL+/4BHpN/sEVnbypzySbxCQtJmfPXVI2s8f3b0q3McwF0i4Pe8Uo7SFLg
+PogCp43r2uXBn7v+MoMZu5qdVf5uJKn2UtR2cx9P2rghb0VeOrs14pUXt9lzloXeLgL7vO0aUd54
+nnoCN8ycqBrOyLvNRzM2d27sky3l1B+/fEl+NvO/rsyWPeMfP3fsr5YPMEs5YnXYKfHrv2ySKs/x
+olCviv/L3pksR46cW/pV2u4eMsAxL3oTiJkRnJNM5gZGJpOYAXeMDjx9f8iuq1bJWtLVXrsyqTIr
+yAB8OP8533kipRC/oVXq+6RprO+WcPS94Zvtacjt9lTlE7dZztpiUxn9su8YOVz1oM0PWVj8GkJ3
+0ndJ7RTnqbHdp3jmn5QtxC8hG+smMcR0lw6edWHOo+/dIH6h4UQcwiwrX4p6op28KOniqyeER4O5
+WTHa3haedb9bzIpn2u7N8cZc7M/aGy4TZT/H3zQOTuJw3oFhbRFxi512J7EzZZju3eytlGF+xps6
+/eTQQU0kh+KfEPnt02+MWdtzkIzBsUXkpvd9NulHXsri1meEyHtUZMfC/mSzz9vNSjKncy9fAOI5
+KxaTQqBhm2Wd2jQ+WDpzAS0lMrB+fl3jcq75ljZ9neVXvIyKju1SvM44eH8FpeKcXWNro/zMDdVR
+Lz6jDoB5x1DL7KZEjb7GKeFrLnfj1S0UP5ywBypmVbrkR3xNeQjbLhGPMPn0Xddb/EJFluyhHS/H
+yV3fTaNYHmjY6F6dtFMfYVIk+KraMDITrW//+bPzd2vW2qPM5ksDCqGokO9yrVn522dHJGOMyu0b
+j2lvYusLh/pgcBJ9QQXAduQPYURqjGeHG/DPCa9a1PUdlxlnmtPPXDb6VnoiPjPPU6++cjBSUv10
+UIH8rtcudDV4FZ4+/hYmQPQy56NdH0q++0vD9GVj9smy69xE7+aqEY8krgu6McBD0rxszFec1lnE
+cjXvR8cV64LaFGcMW721c3s8xBw2CAPketS3bdEsD78fW5krzIOZN19b5VoXBJP4i+pObghG1b2G
+TExeawSU26zLWlxU3LjX5tI6+6jN4kA+ESvKoHH7buxh8A7OvBT+rghSIG6mauZ/MQP+eyQJv35E
+PaBIAeXZaG/++mr/zas7KSBNydLGjwK6AgVTFiOfuVXGE9R0fgJOUiZFA53xnM/ZSI8CyQiqyVru
+/4fAxNuzsXkHkSVwgpxxo8h3EtPtjAI80X0trTZ+I0zKD2Pi0TmpbDD2//z5+f/9AKSC+Vge+qQv
+VrbG3/4ANRG11koT/7H0FohVuaVvmXRgsKSmgwtpzToTq4n1QngsMTVuz50X1PLdjE33xpq8+It3
+D0MiEPt33HDWhUKE4pwKOcT08gXxc+krBghpnWAE++ef/Tcv+f9tFuuzDwTGYf4umJALsmp//uxT
+xSUUXLv72AxcrjZT18VfPM1xANAFfqZFy/EVVIS+KznLHnrAvshlnJJPgczGM/UGWTSFoj2V7hrI
+8JXBbLUKD+EEzS1C5KrvlqDLLj6lpPdTxTEfstrUfY1sE3xFSB1dPA0nc1mCMSrw/t0PzlTUB+wO
+iFE58T4tIFL1wxC/MgrLj0ZgBGcCMMAyAt/bl52dYHRK9RvXKlqPpzE+IbjhEuOyGkS9EPqXlXSs
+V4KEBE4lKazdApRzbzfFh0XyrUvtmtlIIeWpdMb4DbGpPXEm0Pe/X704NJLPlnbNcecR8Lsf6iI+
+L7oVj6WAyrqtcrzmoVDpp0lF6T430/iNJ2/85ZTVuoKsvxq0Hsov6uW6UjBpha5Y+WTWkoMXVfFs
+SoGlkmFI9h3x4ydTz+aECK2p3BMdFj78pxiSxSXVU7d1/VLf5tbCXvLPHwQOiXzTf3oSQhu/Qkip
+3cpeImL65yeBtboaumKkBLO0em6sJi/Y5vfaXE5aHaiCTamGhIK9SZc02XMUk+/EOvElW6xJO277
+FPUwDk3LvDyrrMRTNwPYL6LRyDNAVkm97xVhzg1vkvkxT2b5jeW//xCTM/4aMt8xtqHnVrTHpCTk
+DjXHsetY90yVfHPmOXBqu9yUdhmX+9JCdN4gn5LGSugsmBcJ387BYY2jH5NxCosD9EZ2CJVnPNi8
+WBMirjl8KpdthecrBfOomqO2FtrEeWuxiGbrkXP9XuWU9a+dLo6YsoHyagG1EJT6qyUpBLApVN7w
+eVKu1jkvBPhBHtZckFyEnuP/hPhUbdtxLM6NlZsgD0t8qaTTaDBQNNdfmQyDd5AMs1/YB7KXDtN1
+uQEBYAebJkP76jCVEFEolJcwVvNNhsGgHyi3T2X6aXBZfzTGaT3gIC6cTSr9DsBtSR4hKzLmTSHm
+9TqtTH5cqBKbsun4RZGV4p/jfuA1YDi3rCTIznFQf636OUn67hSbDrvOYuX2R2rHGSYHy5PFjdHT
+s6DscH5IejhluyVR5kdVovFGvarwHbCym5FRL9Yl4R6JOIEbYZNMTAgJQaCRUJJsf7fo8A54nobl
+Ia/DGA83QeHHlrPlsackh1ssoZEv4RXBKSAEQYlLhQk18GKkabNdpp0zjggVHXzdyGvhjuDD4CnM
+FKfMFUZFn7dbGBtXxiYwyaX8QmZ47Bu1VgJybIVyUfiwVTC13/p+ld7jM5oiNoOQ3wxdmQ+/X6T/
+zAX/1VyQIgRulf/4Znv766N974r3P80F/+8f+uNuy/xvde9xeucCaWKh4u/777vtyq/iTovjjlD9
+Gqf/63xwLa4Dphh4zA59XDZcr/+42jrmvzMPJOD5dysit2iQTw58d6xjLh/szytiaQ8G+mE6XugG
+DseUgRjSFO4S21H5jC3Ep7hEVsSTUR7hkCBCUh8yPburMtmtGmVZBciVNR9/PcZ4d2JVM/VvYbNf
+NU7xW+4UdkvKb8mG77gKqtv2tzA6rhpp2AfZrVh10+K3hCpXNVVaaRcRcbRv+1VrjVfV1RyDCjHX
+rO/7VZMNf8uzayX6C5Hu6ez8lm+5AtbfTTXFkB5TQzC5bMLHMg2qx1b0L96qAneBhR68KsOecpdH
+BOf2USd2vLdXBXmJe70zJrs/FxI4E9YGFnfP0lyoHC7VWaHK54GE5DuvmYKh28Tsa4un72E9dvee
+76WvqqJdN4LrIbd2Mop9mPrWk++q9NHVXr4bTTrhNoZZ60vLjfESqO5bxeQNm5CFPW3jAHaK4MEu
+z3U/4N6y9EehNfkaynm6o2mM2UXRL1MQXHK7H2y5kHgU3+G3ks7h22AaU6wI6XJuK+gQmxT01rYc
+Az/KKSUPNjmb270IO04ZZXKHyz/fs1IVJPddPNMQ5o8mlrOLTuvhUhsWgD6rwjLUV9P8BKBk2BdM
+eKIeDf4uIJ50nIWqr74ypwtckvmI4dV+zx27ORO0658wK5as7oVR7GohSXO2KXn/CjLIdUG93CuL
+ttU6LusHwM/2Uz87/RsUivJrFp35LGiL33pwyHB0uMatnfl72pj67/yuuJooXYeQT4Lqu91m494K
+2LpoRzJ3U10sB9hMBvCAVjMe67o7i7qbS657HYX2CGg658FJcDKF4U/bzhkKqtZCcDQWu8aZQ15r
+5wD5eai7tWbMC1W/m+NqofWjIeJAO+OGMdP7KMbgpiaRcwCgIW+dFlPaUJt43MUyRBRd6b226BnY
+jTCoLhLN4lgmMjhCsil/0X2T33MBrnmmkuWuoFpQQuGNjZ9kdAJcYUmHP1JNHmFgvATDTZ15PusX
+7T8ZeLeNXdFYh7vG/U48xnxtNe4cLyzMXep0wzXzJUNNDGnjQ8vF402VmIg2Rin1jXSz5JlLm3sX
+KIdpl0wO4+gzBjW7nhEXpqTCtXv4tOOCj92y6J92SUsvm7SHMOB1vc9OTU6UcTr714ngUXwSpCpP
+9AJRLE8KnaAOlltgc+xk1QvLiAQvVC7Hmq11x8zO3WWGpFYspd7wAMcdMZiJ3a4FZHFXJVVy16aO
+2HrKs3+gVtHzzbutX7s49ZONDob5Cf3b5tpTl2zXuZUewTxV52FBtkbxACrMcUy5476WwLAoMSAW
+j5uNrdHAs/niW7UCru81sYwcpWJWkkwu26VqPkuLu8SGu6y+2otP7VhWuLic8nk0XjCdghfN8WfH
+pAgS6jszK2eekkMn32vkceLSgdQPojSt17aLaxxjJJGk2pdeg9fiikM50IhvdlINWuwBBOEqXZ2W
+qDqAIEDmPsWEOGbvW+JXsn/sVwsDZAGKA+rzIgU4ighHZqXl1hlFMT21uU6oTEvAttWAQ0pzcr9V
+Yz4pfxdIDnZ7Yxj6/HP2pbSKA6Jo27Jxsbn95xzwL84BqCgOu/M/Pgc8/9Lv3d8eAv74E/99CLAp
+Tgrh6VgMXHzfXnfdvx4CvL94CDRIBRZ2PjiRfz0FYAVyQoCtWIpAMTli1Qf/OAUI9y+cGVAEQUAF
+5ADMf6tTie3/744F7DQuTdChLxwCaTb/rT8fC8zeMEasuOZpUqJ9HQ3HZ2I5/wy0KAkQGVRLoh5t
+dNUUj/4UXBHCx+/emKsn2RhPCh8DxAaPfYkYwRVPpnGaY9uLD2OTp1wvlfE++KvzGgoOLQxB7CN5
+uCLp7gHezfaD42SFqHAQlpZ/Ik8eiFuIvWbzrSM3iykT4ayxD5KEn7wGsjX9PDLHiVDdBppsXzFi
+jwmP7cnfmT78h6lt1bcy4J6lNz6d8hZxY+1xOKA9tt/5qel0+7R0hMQ/mmRc39et0iRPLuY53HFj
+Wayz38zixZmTTtF12VjoyD3U4uAQCB9mIYZBslsgaDI/f45nwxhGbgBcNLdp4zbvdHYHnwnAX3+7
+iE53irWuYRfgwL/aqfTSclbo+QgdYctG3NCVvXpasCLexFyERyhxPoXnI65rkqJNviLnm/wIDVO+
+6TrDVF3C6cGwqoPdhHH/DZKtA7YuSTmhZE9JWUq+rCG/KrBBx1xML3lDY2xOO/DGAnF/ZIbPnqaq
+JH3NdMZAfx6zkx/oa+O0NynFra/MvGtYRt29XWkyZfVIsHhMvJ+9jifINNMbE5GOkC0KoKYnRhcv
+TApxa4RWDu3R+UgyHO12XAxPSzB0G+YSpLb4lRo0b2zIzU+Hzk+p/xX1gQJljCzZC9AYFL2sv1lA
+9m7ABt8uqSK2OPRvTdWdq7Gpj1iFJD2f9lYz/N50s/RupKSOBlLkPWT9ZlOI4kWaRkak3mh2RMl/
+UT/iXStvie+nkIbcztQGPh4g3Z0db4t5gJMzOhDXMZKKHGmbNK/mrkhtA5Tk9IKZo70GPeq1T97k
+RP9xhgV+IaVokFtfOhV8ULc5HqrRzT4wY1CFCopuJ5VrPHJscagaTn7FdtzcuUb/5PYZ/RbVXB5M
+WaGbZTJbGzO8DR53b2M3s0vk00X1ZiJ1Yl1I94gl4Z5DsRO5qREeRm/6Be+xOvUpLTO06zKsTRBi
+QOFlHw2Vh9EIjQgyJyih0CSn1jSg6tHrAKssUBVccyyxPRPfDYR+tlwwCnA/X4wyPi1LTfqik4Qe
+euPVBSqKhKTzc6pcsoGSzg7GLu0P3LcR1G5okJPDyWBUnrMZZrO4VGMx3Hhezxs/tIHa2s5ifDU9
+SIPNSBkUTE4/MJMtufoFWGylDRy45vCIiWvyn0qnkPcYJglKqrjNbiWxF/QsjgmrPbDDPzzkz51X
+9VFvWksCb6UR53ogW0+VZc9/jQeL8tt46n8OpbIjMx7H+xwybDRSBEHTxYp3IKQwfwJjMs1d4jvz
+GTBkfRQ97hmaSXm0CBzMHvKE4tPi8O6m/stSCtNuMsVyDxZnSL849OA4CqZQLRR1KDnd0pbXvXUu
+TwvHbydd9tZYmTdpHVaHKQsk/aGGOJiCWgNVTIw4cnxjacMqobHfNGZCw6JNcww3ALQBqewd/bTl
+QSWEZhDmv2vLCV+A7+nbMjfwxxevRFxNLFIAWCsSsJhCnNvcFMW2LUV+UxvZJ6DNdpsJmb1UbU5F
+qscZ8CraecSmOSz2drEq6x759RtVt4gbQN/WIWbZnK2QdnLfHi+cxOUjt0jjqXA6/11ULlPDgrzO
+UoXI60OS8hpPmskkREy9J3loXr2YLFUf990W735/C4em4fSX1fuGK+ehXd/a1cvxAPzURjyGFGbg
+WcJDN95TBp7tsrk7TpbJmD9euyNVsASbGag41o75Df+He3TGKvzZiu7BJ0A8bbrCHvGl99+93w2V
+pmnsoGScnNKiY2pAptn0+Ky/4sZxdrnRGzfw49N9sHZi1uYS7hhzgFRJgrVa02I9CObbjLrSu8Uw
+x+ucYVms58HfAijGONNx+Bt9MexoyEwOaQgYzWRwEoU53ksU+cNMFp01uL+GA6vWYs9owcxlIrPX
+9akvHFirU+tuEmt6HKg+Ij6PwtishaL8bOFRERE3ZhWeWnOMIyAeJmfWsPo5r+WkJjSMaLAoLJUd
+3ixS8iSEw0B0zxTBk32ilWSrnDLcdr06ccuh8cKQX1r53yowwLslpInV7CS69swl12D0tkthDOyH
+odJno1CfY7FcS2xBNxaBLEhiWOlKWrjuBCeTi9B8sbU553tkRPO0rBWtsE+4rci62HAKz6IgKXDA
+B/zMQ5GXCNMF653yfixr6Wu91r+mRf+D4qniBk2LLB4XBJLvMABITFsXnoEOEBHUlakovgavDPda
+Lj8Syd9a/O6ZzQmyXuPGwsI15iz9lKR8YL5F9Cr79j4GtB2la1UtOayRzV0AAzOTN1pav2SofiHc
+o7C6HBhG7bxWSIdcUjv1UgJu2SytQ4h30P1Xy6w9yjvaPpwV6eavvblEFvKHUDTyZAZro27R82ug
+aHeokOZYTBtW7Wx8JUfIhtHbT4yoYAEl3IZyHbCue1n5IdYW32rt8x2cytvnGP5wVxv1vsuX6iIs
+2G79vAAftOePLoWdMAoPSRBnIbjwooBSo4KXzhTLfWF3Db/QBbGJejBoDvzCJB9/7Iv8jde+6K/9
+VAfkt0gNY4nCEjTEJ+6UhNXLMHkYunK6d2EYv/m59wQDfYpgzt46osFsNAQJbrY0x5nQgX4g45E6
+39AhJ1itHjJrH+ycJfZERA4tWS+ME7FwtV6bPCrQoqQRny4SNywdvmcMAlZzN1rQ0sxF+zTEucGP
+qejMt8HUP3MZ93eLaRvoI/AZjjlcxzu38sYdWW54bY4pYUIQtGcOMa7UANfliTCrRxWE7uOE2dek
+Mmg0OGIISXuQ05VfkIsgovOiJnynyG6QI/3WO3Abcnllaq9vjm3H+J+g5DrBTuwnao2GiAKbCxP4
+/DtqiPnBnfVMlUC8bPMmTSKV2J+l17lPtZeJnxSbM0ZcEPkwaGSDPsnVGs6tMc2HrYaJ/NNc+8bl
+7+bxqVWnmMXzOsIyPyBf3TPhuIkpzMEnzHagj5axwJIevdH/jLkDRqno/Luwd7NXzLEONtnM3bbV
+VOJKsGUkG0l+v1V+tWt6u3lsbQevJi647lYXoIcwlzTuBh/qQCVwG/TVdtQdzsG1zT2x2nwf+7S8
+M/FDbuNzHfrWMw740uPqoBgVvLKaFa9sccN3ZiPmU5H3YLpzPzuZ7sSJNwblpmrmHrjquxjvtTeV
+L4nI8pkypZkA/JK2AAIFL0RqTrAqucmfxdp1n1baKtZZB/bfMTGxDXTtQ4/38RV4zfCJlWI8Bl0T
+gnPL+zvqa9pv+BRgrfhdk/dbW3lb2BIU5HG6Wl5CMoUwfVx6459JlIow4p5E/pOCNNvDoichlIHF
+7IsbshVVtQvi0vs2gdP3vtPfli3bMQDduwnwkfMitpj7ZoL+yY5hgXfr2UX6NvqTh6vbH57KpcYD
+06W1cS1rnb3Ru1jv2zggdFgtujxhGja3eZAn4I4c8lWbrpqqV6oE44eRf/WoK5bXtgqfpoqzcYc3
++6Ou6mZrpH6+93oYJG3NkbSsR9UjuY3Vs5Wi7uEJEYcpqAq6Jzq1J9+XbptElZE0lrLbuC0M8Akt
+5aEE3dFiYMd2nY9ZsRtzC9ZMvQzUcuf1cfB1ci+kHc+PgZ+3zZ1mBOduw0Sb9A9EzBoFhwVG5eFM
+NG4YhIAPznEzC4aE9jI1OU8NEUFQ7BzwAHO13TEPU0JiEwrJclNqh3ayLrcAU0q4B3aXso5qkEUc
+nTz72KdEG4mP0ke2TIn0jy0DSeuDqEy8NY08Ti5EWdHmeITbfCeCZNp6AnkoKtB0WH3I1V7Gnqrf
+gXjzo8bhE1UWRQGL6+GX73FDq6mVp5Zncjv0dnZhtppFsRj8L2wNzk+TlhyMtRkc14Ou5HNXhHH2
+ZlnOEFWg8K79OnEMmNOsKlcQ/GqQxo4ecpWxsXrSJgor88uST+YO18Hi7MKuLPad6JZ3k4P1zTRL
+F4hheYvjyDzgiB5INqr+QcpMwnp3qsdpslyUHEAhDGoldXmWvXbIV1SMFNhHCGtyOmB8eNAFrQEg
+MGB3OqqC9W2Bh+QUydyLmifYUPkuYa/jcK7mHePXfjeU/skAdL5tuLg/9kkW7tvCFO8uSbkjqWtJ
++oaVibFWsIEJmh7obxwZELrBhT4v6rMoCJo+ytAYD4B27myNhYkSxbuRT7JZQ9aRFGI+4r5UHKWG
+5FJwpdW0NTnTjudGYS3V7k4RcoNFupTmxsqzdDfFVboLS7bxGFfWj44zPYFKvzoaGT4gAypiBMES
+1ksArywyTAPDSW7bezDadNOHvnHX28vMtJJIHryMK1TCOnKT2qYibzLKHTG89JcktnSNY+xJRDKB
+3jHDcwp8ynoA9D3jU4mWFltOW/Qjm840P+CACW9HndDigKZ6LLyMFHJpsmB2TXPOTOs+CCoc2l2H
+X3qQyXvn1znI8hn9WloquAU+Ct6qMgsAMjGMqzK0336HmWwCJ2C7srR6M2T3pmyk0nQMDo6rLUj2
+cvw0NRsrHLrlNFeIuBYXz2wzuv2wAcRURpB4UR/8xNt6C51/oZ3uRr4t3Aj6uwy4RCQMJBf1Wefl
+d2az6/M2mM2OwDKIJm3DQ2bovSmzkIB41rnvRQe4pyLYTb/Q/HuMqfNy14I+IbiiqQfx8pqnpfMP
+FiGhSLROdimTpLhHfzDN7QDmPdiN0hxvu57zdm6OVH2s8g+5H3kKlSrJUIwYyvPA/DXVXNFykK5H
+oDLDdjKUeCC8gSIg2599qvuzj0lrY9IuAKZn2KbpTJJDesBphQFR0K/GB1hmsGgz9cF9jaPYXK+t
+lUtenUAljkWECDu/jn3cbdB7rjYa+AtHqefMUCszuPdvUs+emAwsHByb9BRP5Fo3jK3abT0OP2Cg
+XCdrJqyai5carE2Ujw7wJ68Nosm1g9dUW7ADVVtvafUaI0GL1DPjXoDpVEHd1HN6gbP6BnmYuUeX
+PrWe9QU9gfPfzOmoTnDmpY14s6nUOtlj7Xx2btluTdg4W2lUL5rw35eUlbHskzqg1APVg8O3lgyu
+F696DOaecHSTEHXqZUBfLhWt40aPI5micJ4elYUJYYNXBgsiAsS0dzsH82ZeVRZ3HO0eCozvjyCR
+6TvByN14/HixP2CSTmHtzrwDnlm0Z4GgPy1ZornqxCv/R5LdyV15RwcDIoFVGNC+wBICRRIL7btj
+UAL4ZZwmwY96wYl/4P8q6uBL4PFwciofQN6mZ2IyTMddNlcL+15cyAHGgVGgbVMBQrEBRYxuqc9L
+5kNKNK2Xli0pwoYBL0isWqCskwiGAx0IFmQ73glOeZnlHoTLSTjpBEuCp9txOubNcPRHRXMuxEse
+eAy10jwVFDXGYcdZp3QV1b3+WVpjv2d+5+/8wivP0kX+UyGxMAK1KuJkSocvFTltMj6Eebc6CHni
+Y7iqoa4f8LgxTqpm/4RRUmx8RmoH7i4IiATa7ibhvGaW0930sSG3xB1gmZZY3lJTJjtKrK2jJsW1
+bd2hO9V9YqJcAC4HK/kppzh8YOaKDBdPuN6a+UeRWChn/Wzv/aIlEAxXPHYBNFLrW2w9PUP0yYdm
++uV2/vjE2ic2VIu1ETPR4dyCUQhMK48saILXknQ3OkuWUeBpFsUx9Oqr05ddFC+2Aw43mwg9+YlV
+wV82U2wP7I9WuDT7Ahzye2c1zRst7vaK0ViWn4VIYx1Zc2G8N17V3vlmSVSPDY/ghe/rY1Dk7cUn
+NB35IYVlW50l59Zwkp1dzfMH5yxerURW7xncwbtmsgld9Onw08i8r6S1gDWFqdGdFTL0w6LBgrqZ
+P9UgUs3pW6Dd4Z4qIWe5bXUAyXnyq+aAClqlm7Cn82dZQm+/Ypt9BoSZ3kqR1W2ULbPcZ5LWNseM
+jVuKU9yRIo/OOWbx+Dwn7jdOCO4TBdLNPlFzf+Q9mHdEKywuV8HLFDD4lmktnhKzlBGuqbuAkNB7
+pWsjAt0YRNjPxUoWZKJ5g3PJsy9ljbSq+jG94QzR631CZXrU0tkznJ2a9Wfj9ZADoSJMjPGIgKQ4
+OwLFmabyrM0KquJ4NzXSjRhItS+tdNSNUkEA/w7shrkZTDS+WeZxNLMuvHk0fti3U+aazyN/gbcN
+GMy9DkVPMzHVPohGCNQp5aZzd7VXuKzP0wMcT079YVI1YGopZbtlwwo3fTsknJjmidiS6Cv44v16
+EmKVecOb4v9w2jTg1R7y/iip1d4oQ8Mvw7sTUBRrkAClbUA/uYOE8YKnUnobrmEB34QRvuAbSz7p
+GM7haVF7qrdoavPjXIy6IDBTZbtFwafmQM/FWwOxiziCVnI72vJr4ngNV109zHBNN5SMm2cJ0Hnr
+ygHySxarB81Q/TXPOYFvXYcFe2ld6552WovYpxqDR2ia7KesZc09sPTx1XCy4WynCl0Gj0NwbWej
+fy2kYd6aTLUPQtIjx+W1sx86nJuP1ABwfWmtOLwhiCk+ZoBBZ8jr45MQNmIoPkze0qZmWd3Qu16T
+QunSdJuBceGlnNae5WFCFdzYRE3yWxT+nv0kbEnA5pYAptp7k8s3XdFU07cJpS5Fd78kVN9uvFmK
+nY0M9WzCNTnnDktlXabzVwk77I0OIA5qi9dDeUZggsMdggtM8ky9Dh7tLZPBrps0DpsZj9SWy062
+M5MuP0hquM0N0uhNG2v/RG9Rv5MgRC7UK9aQNH3LvDRLM30jPtVrVtms2oIgxu7VOjHLSW88yELJ
+W3eegmOVWhTBjIs80N3oRLZkpgr2eOqvQVnZ31FvDTaxST6bnO8uWNBA8Pac/pEzfVQaI32k93ck
+k5WMiPagPhLZVdcBGrExWtaOxSk+eqnbbw2aOQE482qQmk53mVrzD1ZwX2tPk21zx7Nn+MuE57vc
+ApK3eGhCP0Jvbs8d4U7opH5xwc/zUQcamkw8m/s8mN+TuaJkyCm4GdDXlG6smI5U1c4vRoYHxMfk
+SpJgsXc0VgaHdJRdNLazOBWUb6DOFjWhObBV29TW1hbDtU8AteEsi7v1LStBSXBVWLB/aw+gHKjP
++8Bv0IGtsAQ74oqxfNRuCqaHjpht7kKdRs8ai4sB/G1yGd+gsVqcNJp0bxUw6cKGFqhi4X8344cO
+IuDdhF19I8biJezEdzthsXaNepc5NiNsbClhvYYgEgYe05Qm284ooe36RrMXtCIeSU4dnCR/XALw
+9ZRjuVE4gMhPMCDYaYbzPlevsgPDQ2HjMTbEkYNVfxgXZ/xhYL+OhG18t2nY25sLJ2StjOwgRzZq
+pvLvVZiTuhvUw0Cmf97QYsvWbq0XwbQ07kAbzBG1ZOlJ1aa4OKPxSSpwuDaipl+C9X+TMQZD6Amd
+7/3kDiCX9AVrgD61pXr9z9j6fxLMYmq9dqr847H1UzP06f+K3lvGan9uWvzjj/4xv/aDv7Cymr7n
+Uafo4mj/6/g6sP9iu3T6MTP2/wBfEHvq0//9X7b7F4HTzA0EbDnnT0UytqCcMcD6hlBsuWIdh/87
+jIvf7Li/cfk6oY+nDRAjf6dH3sH8OxzakImCQtgM7+voWxONGgWXAlTp8JBi/dh7NeVkEfab4AFa
+BW2wnB2y28kDGT5iFSMOYQ/Wcx5n9qvXpfN944n6aey8+AeYOX0vFxoIjv60uEfZcgNhrGa5NxlZ
+rS3dGhSWY2X1qE8xNHtASmLTvgSlkd4WVkMyCYnGxqqiSrVTLN/oEdSWWDQleKneLmMO3bhi1rLx
+w9nZF0bn3OEI1/dFGjuAvjUKp6kMGw4DwVIGAi43U8NOea0Q95jINjNtWkCvJLZw8jNDZdvniYr5
+U6gzs4asrCB8VHyoLeOe/hf/FbI1LZBkK4oH6to2gVRZyl9czrsQ/91Jx7XXUsDSM5wAn+Ees7Vs
+eWeT9fnK+MKPbuzqe692GRpjpI8/F89VmAQtYi3gLIiVxXyyVwev2ms9mcUjFiV9z3AyvZuGuH6W
+XdDc9R1gyhssQ4m7dQbBVRyvT9ABMsIFjQNOYfBdUhk8IALMO+VJfpG5FSNzmXYWA2/ItQ86epE/
+rCQI7uOymbgOL61pbekUoOQvBDiy94MKsYxos5bU2QN0De9dKI7pBTqme2QsL/djo8ILsHqszGk6
+XdIhxNuTjhVJIrdunixu/w+Gw9OSF8C+wzlwYQeSM6ri1nqOm8LBmM+3Y9ACeaI0o7lDdBmNp8Wp
+OGb6uXV2yJNHqiwGhwODcLsjc3BaJxhO7cmmqI9pqdRbywr6Ks3ZseHDK9dD8qDRxzIqPFKMefEN
+M7Z50DJJ0cqc8EmA06TKZUG1DHULU9uFkCVi3UEPh+MlsBYY0zuc8CCirIXRnrT9ZM+MFsqYRgM5
+xr7qF9RL3EeHLB6Mi4hxYEcTV/KdbeoAuHuHO7KHH1K44J0nOTz6FLAWF7bB8F7SpExhc+t532pr
+dq5pB9sBBEtJYw486rxZgJ7SJWcfEhARYbwx8nwiGsG4r2iPs5s1wZsC/wcyKZyAqEjPjvl+jGlk
+O7AHtUpMQbDn0rAItiWyO0w5vf/D3rk1t21kW/gXIYXGpQG88k5KoiRakiW/oORRjPutG/dffz7Q
+yRzHmfKZqfM6qUpScSyTBIHu3nuv9a26M49500zJZ9qUAQky/IVli9vnFQCM8YmTL2VVFt55RdHf
+JH2rP8dNcQ4DO7pFfo3XO4X0x95s2UXlGKeoMD0CgegEPbu2mWDUWqAmcztDfJ+ynSn5z9Y28yNh
+dcNL0lIIGAFyd53GzVbX7SXtBMdAhHaS3ABLAL/mHnqREib9gcfbIKTADveVUrNada5d1Gs0QDXe
+TQu6QjZGyDavx+aS93CYzISRUd9Z3Wai63djMJE4Vp3JMCUoL9Xs37aphr7AjGsd+NV4GhLgvR4C
+s60DuAN89bgnCs74IBFn2+QhCsdw3o++IG0usTAf1a13Jjz0UztTM2NdpKWQui9oxMgHoemPn76r
+7jk3XpibMpRQM1+bhgwXOSQb9DkUWVo3TEpLvdapW96YFEK/p5N3NmcrfINWNRzGockZlPT+fdpX
+muYW7VeHML0HcmTtXVMZOZS+GMyJnM9J44PVcsx2HYOW2AEZQIJh8FMim5YQO1XVGw5EbxVAaHoZ
+3v1cK0ZbWUhjEmcgYDq1b8JS7VJpmHdKhcO91FiJUOh+DVht92B9/W0STuGO/SpdlyFylUqA5Zyr
+KlnnfQ9Mo0jEDaPrftV50ZcqsZhcizhZZ95UbtAq03xpK/UZuN9wMIuofUY42nJjDMY+UuO3Tsl8
+z+F22rZqEE+9sMIvBFYYBbE5sXOUqVMgXfIt89jJasgOduG4NyVx5TuqA8T+dYQlBNuEc/LJS12P
+huE9djTj98nM1pQWOtm3rlNwV8jZg5PdIHdkTpukW79J2guUgPAlaFweWbcIyWrsYkCQfvOVcBWO
+mTOpHa814Rg70fUEGyWWvyt0G+yrGdcxbQnzc6DQHrQ9PdaKNLEzHILqZqJiPhR24T+iSSjvtByN
+e72oKKOmMGkeoAiO9CzPCsQckWVjm4mTS6D5bZAVfkAlukyO24S8tcxiMLrCAjRvnIEhodsu4hRL
+2Gd78QjORTwqbM5lsod57e89vNMnQ0WMuOqoo/rsjJe2NvVn7riS8KduqG9MGEsyTKvHcW7Ns51m
+5cZvudJdzm3gDDtzxF00itg5WJYKV712DMLGvPR3WzvF71hFFvIJwvc1LcUBRrwjp1PpsWOv06lh
+CkCA13OFCvMSBxmxn4xBtkyP/dsmtL4YQfctScroVVoS2N1UmmvtuM+l4xpMEnTGWZnuXS9Y5+ap
+CZ8j5exHO/0Syo6gj8bdE07bruYQdZedTK9TPwWbNq+sjecBZwK5suptulo4vrdKWPXvEVGLqyw1
+KjzYdnrora6sCLCYHJK5QvGQa6m2mR6yx1LIcxm15W0xq25btBYTd+yf4EKHWA31VotiPkdTG27r
+Qn+QOfwEvJ6jFOeLBFQSU+KeBGOiFTYu5/VmBRcaMby7NFJtAghaByk62Q42ioEQWESWPRmWrDb2
+0JhfYoucNEQ63u9KqEvXi2+APmlAEgYUGN4bej5z06B5YsJheqdgCufb2ly6gza8zGgmDi/oTui3
+kdKRi7HtYYNu/Ki3D+k4FfRUa0TGNLhTKZ6TYcrINmpCRFNS7ASjXCKjl2gpM92rPq9PVTt+cuZY
+74B5l6u8X2Cn6fzRcv5ct3ZXfWKC0a8TPXOtw8KeNvlEYKorK0aApS52RJzSBzD8f4SR9QrGInwz
+G9e+x0qRrwvffWxEy33l/qOwaMAmc6fBOiX1DVOY6qZrrN+9YlhzLvhgCg/unKDaek0i7nDw6xCu
+jFM71LRk0/S+jPecWLwLDtiIYmlId+gvx3sateED3BOaatUGKvw+iUl1mrBhoZfjFhV+RB05wt8S
+qTjbdfo80oW5hGPc7Wt6RN3KQ+536eKuQsRA1Cr8HVdGFc2x0b81Gi03Ws4vbYqHjMMmyPd7htER
+MrfgBiv4N3Tih8YqwAUY5n046Ps5p8MSM6lRmgZiXXxROfL1WY9PA4VuLdp7vE53nNZIGJRouhCQ
+jAykMTGEcErhQfGYuz70m41rJy44Ws9xb8vU929l0SBhRlNgTR6gWIOIkAdLldnNfwu/f6fws2zT
+/qVe+fx7//7xV9fS9x/5o+BjwPibyXNhM/eQgXDQF/9TsLxYhf+o8RwKOdOj+Uu8syuQDvwvgoPy
+zzRduvGmD5/iamH6D2o8YS2e3R9qPEDoCKcRQwe2jSba+5mqHbfO2Jeqtu+8UHsv0+C4hCzjGOSA
+T8djiotmoedWJ8kWJQiOaBBN0WTbDtIHGGrp5pbVrbNe3XjOmNjmCsAZ8VmEM9YNM/EOOzXYM6d/
+bbMC912EOzOuJwv/SO9j36lblAijjMt+T7NPXDp0OG9lH/b3swq4632jHIgNn5WHrDZUwy4hVung
+qRTXucpQ93mgtPYSlkBFxxkDzjqic0ctN9mYcqcJ2288+kN0oOSc0ZJkqfk1RX47rUgeyT4az2ju
+k8jtEfUMxXgfhsQzr1ii+OxFXUyUR2z33rGalEMiu+jIqcdbwP+1tVtbJ5Q900MTu810jIySODKg
+q6NxYqSfVjdOSFGywnhQ2I+WX1ePgZNGgEWy/r7JodGmJHhshrggEzjUFZTFQXkHbM9lA5O1miOA
+Tu34AEyL7dhwUFTUd3ZmPSPWbr2ZaUloVm1zCIWbdPsihGjt7X3sGRHNNwaj5mZMC8VuyoRpPNuM
+W0rwKDgwjg4Dio4GfdTEjLYkfeiSmpQKJ8ccAn1E25c+Q4CmbCk4nbr0/Mdz1vROEG4xWKlgVVc0
+QXfYNGhZdjYwyWjtElwZEq8+GTvCvIUe1q5ubdgrTdd77a3Gb8WZtzGlVx1MPYjwxlKErqCu0/1y
+44DJn0c83DvKfdDOtPWHvD+1mLlr8yymgmkO/S2tkacXK9zOZNC+RmFsWfMbZ/WpVB/t0LQFkQ7Z
+POfhf42a/2ZKg5DiV52uJaXhrVLZjx4N8AbLD/3Z4xK/sUrBbPAd4f2Ba/3Do+EFv3nSBENkeRIn
+OfKu/10BWebocbmYOOEK49fEWPGHR8Mx/z9xySzfP65/QIeWFhupqLS6iFH4Gfkvetn0phlVx943
+6GVnZeTe2xzvznMO0OOHS/PwfVX9ETzD4v6318IedHWWOAL8zF/NID0PwYwEujx69gDJsp/EGUJ0
+8DJxBW6bBuXsr1/vr3wlXCwuqRjsEp7p4Tyx/Z/6d2rJ/EXtwOsVAsf3gDQ+ZEGbxbkdHZuBaijt
+rU0t+0SsmfX06xf/K2Tn+uIunU0oT3x7vvgZstMYJrIPDbh7VsTyFXmB2ikXvX87iRliTDgHL6Fl
+/l8f+V9cYperZTuS7Qw8yOLH+YEP0uo2VYPvFUdV0GLMOGV99HAkGQAkCsqPiQ/l1x/zby9Ip9U0
+eTnuXg4HP++fqYnugElugAE/rG48lkQ2zZZ8Yt82vthhL99+/Xrib9eVpqyN35P8Ei6uBcf4L59w
+0oL9Nxz7Q1eNeGg6GWqLhKzGJMFucJDNTLAHz35eOkjiM3Fp8C28lHWNjz2W2czM0dPehbxoMCiq
+dzHY1HWsbwGkj6+Evf4fd4F7JbL8cMAgNYQTDPYnbkEgU+ia//p+yyLwo7Rou4Pr2ZHzZBTEA9/o
+CDDWLqoaRnBNJIaTqOIpx93fuuKJZ3C6GEFOPJgZS3lKNH3XAlXYe2RrpjKxpEhbAZ2sborZF2d6
+oEV86nHpF1uSecS5IM2xIH3TncWGIwq5X4ZKiBearNnf4ecUZ2Zahtp2nlnd1MY0Xkj+opmK3AeN
+tuor96vPCHWCKjuP/ZayA/2/spf+LKuE3CQ+kVuLiMf4TGhwEF4aZSluuTBt7JJhLIr1RfoRC/E7
+dynj/JVIsDrftU7QO49jOQ23pRmDHADHO6x6eKOUYstCoKaC53TsNRiqgb0/yBokNVAn67cuteo3
+OrH2USKVJt+jp9vgF3b/YILYpofaIDVZj2a6eCuV++4rc7wQAY11uejDGjFNO16MxhBPiKT8TTIn
+Lroo1wKsPwUjA/EWMRO8uEpzZd3x0jmKT0qKDOq4HPU7ONYkfCFqL1Obzh/c97zjOvpzz3VTjnjq
+Ar602W+Cl6GZ3XdJ+M0liXB6NjaSoN1ELhia/tFAbqr7cLx8v1dj8mRw+NrJgNU2G/VHnlZ0cKAX
+1W/WxNBwr4c+R9xD5xBljBcmxTFrjIYpu8T1dzUNxJ/jfghemMShKW0zxJnbYnK4T+ApOu+V9uu3
+OKp5+BuQcgGwpJcaZj5u8zLhzqDUIz+bzIkbhfcbVylTY3w2Uz1semlxSXm6MYdxlioQYmdzs+s5
+eOIBQnR4pA5mxDAQJnpJBifAtBtV6nC9/s7YMnDtfAeBvudtCBzAid+UgXm+/p42BCpcTGbKujHH
+B4PP+hh7bb8ZoiDYdc2if4uXx0O2GVMSrdMwvBG4qOt1r4eOiLXRDy4L5AwYUOvbZkdsJK3Nc9tI
+jX4Skas1fqplaSJFCqsx7Hd5SgODVFx+AHidwJIoWq8fGRAaZXzSmgTvPeCNdNg0kTGFFxAmEKjw
+3bk1HKKuDW8tGEtvRBANH/1kNLjpUj0nD8ME6YyDYz8RUFFykNdWjOFpNpHSGX5vYMXJkpXh0jdw
+Iv2EbDbejgvoOiyDaRfYZBHg7joSgYPOxU/ts+sv4RMIlIgYGcnSYIwvC2rvuEZfjLR2OjtuJtf4
+3MSrprOyIT1DrgiEFURtxu1liBsO8W3Yu19aJwsc7i892IQkJ+NN7xn9wfGriFQatOKEejAY9lFw
+fDSaZVNi6ziVSSzPtQl+ZNXNznSLIrjgCx8NXZFlFoGbqef2IyAtBVKM0UXJhps7ODkQD5iQOL0O
+8Cx64YtdahQLwnCeSY8z6L027yU4k3NKXItzaHARLOZGm5sOawq31JQxnYgF/4FqqxsvbHPcy1ZY
+xslBGiG79KyS/aTJY3RFG7ws0cLpyov8AmFd34+XeYzDFxIuxbl2RP02EUmW09kc3seKTmNKR+YG
+bFj2lBpm+jmFOj0zemE2FZq0RBPPtlERBgyNgiAsN2yj1ZOkC0pjtNxoPka0E/Qv3ZObz2bweda1
++FJAV5mPc+x0/tEumEwMa1ET3mHTtspOkhHmV/LtXLmlB3HKgzq8HYw6elD0+o+RHzx5cYxZpFXv
+2NaW1T8RL4RldJu04zrBNmedd2uRnMDyWl86IyQIBRqzeVcHWNuIYMlwEfXDEW4hAcp0zshtj4VH
+5VUpfxeUVnk/dtbY7WbHeiliv95Uo6Z53hfxsAHb24BUZpDYrwo7LM+M952vubD5/TU7lnp248AK
+vwb+kKgVWIqw2s3QhnDhRMydGAFlxi31UMelK2jjz60bvU6eD/zbKf17YkNRJvCRYGSQj7yerFC/
+EVXJWaRuF7nwQPZ2Jnq+1oa+9RYIEnaq2MkjBdZDT5ThqX82xoltAWF+sTHwS3yYObxKRoUsb5mc
+uWmajjtFRwiGotFYbqUuglgUxRWdLCtgLW2kxZqeQgB+6S3eDT7C4FYPfDUETQasg0WX8p48ootW
+SU2FuoqzkltwtKOAKNwaDUtkZaz3qmfGdJ3h9W6kCYimS3FLTA+SLr/ilVM2E8j8uF0fapuXly5j
+i/2VPMikINnb4ey8z1PKgn9dAj0iW9TWM8D1rRbCU/ywOGzKVVcPzi1WWRMHm8tUWbWG/igxEKCC
+sBV3hMUs753aeXzQCSaHDR465KFTU+VA6lvX48RAC0Puv78tUboK11+ccpIIDYPtywOHdNPkSh2I
+Rhof2p6zb4GmjLlrXk4na7Akap5uKhxgA0TKIyZXQfU2WE0d31tuz7tOiprPimKXlywV6VcXp6lz
+zW4h6cZjI46jBosVY5/e8xBlOfLUZTolBL5xp0+hUblvMhYsrJMCjT/UCsMcOYYpMfKdiJ4Gbya9
+iVBQeevMtq9ZF0Gf5Pj9TohcjW+tapjBd0OAcpynWGwSwwterBEBJZNKxU7eBK14shVDEfRKI+lD
+ynMyMmnHZLmidBbhRrlwSNBl+xgGCXRqy0/h8o2mqc3X1BXccbnmazTEwpNrrdlUJhFbNbnCuU/P
+54UuK3QerhNHy0/STozuE6EPuSRgGcVM7F9IvAkkWxX8F/T5fsSIcTdlRMuK59TntBztx6HFWSM4
+buRmBc3CdEj/DvMiQeeGEW+Qk7UvDLTxdGBj85QhpTvbRUuz2YinLX/Tm3Lc4JSnc00KVtxcKgSU
+xwxn0OtoBMnJaKG+9zpm65n84hBZiAWnkVDivBuuoTcSx+ICVvSCG2fS4bqhV4NxMdnYZDvuhBkJ
+cFlo4xRkimPVA5eJ2lxcSoclBp93qzCIoGITGSeSVhbZNyNx3J3fVyGJDRVO5JaB7IYncCB2uvxW
+Enhh5NN9MDrDkfuag0HXmHiTahOXFtzwHuqJ1FNxGDvUt5yNw0/IfoGMs4lu0iYetqPj3DPec+7Q
+z5WPfNvsy+WYn9j50CQhqERji6nRL+Q2CvI7xmAo6LhU9+ZUR8+1ITsykCz7XPUFzks7MjlAgmzL
+6TthI8KWLi6c/MotEHvzG0AQ92TTvwNCW0CGB79dIs2D+Gek8+9uI/lCHAzb2c517SHeFJ2JT4kT
+AW4Tgx1YryawLqwg8RKgxX7FatjSGqOtbxylPTX1nc6QHRNOx2qTSMUdOfdLTGsIPEY/TNmQJnCD
+CE37dRm1VB1/qUoArFFwuDQWBC2In8v+ubfSgB2vPtRwSDj09yPjELUcfH/9On+r1nwc2EhnhEvZ
+71C4/bX6CcK47dKqrQ85cO+EeagnnhoCCPKVM4olW3QpXa7L4a9f92+lP6/rLY1iSWUK7eKnqouS
+PLfTaqzRT+fyvTWAFxZ6zEcsljHrV1WU00Uys2OlgIGSrH/96gvV4qerSz4xVTEPOG9iwWz9WIWT
+JUD3RMjqMLghBcjsK+vJX1bd1NOs9mCH+KdZK8qS5eRtOVDbV9e38F+kytNUE5z0/lEQ3EZctUr+
+0f6l+eag/frh2/pb5NI9GTpV+S9+5J8jCvAo8KmQYAeeLe0FnPInU8VyfqNdxq0FdY1B5o/9Ovmb
+RcXFz9FsMmG00mf7s18nfgsCApw82nhoyaQZ/CeqNNv6qePC2Xh5bBH1mJbtYsP5qauV6W7Ohi4A
+6J0FNnBgsIJjQxRvJu+DsHacR0c2Su8JRUTFEIawY9zV0CdynYV9NYBbvba1vYzmCaezrLUv8ffe
+t0uxkoGPzYiXrPsyO0RzaQ4Pbd6YHwXSb5NtSJfgCdG2ogO2OlGhHKpiK/P7fRUg2C8QR5+KtMTO
+wikML4aGYmEszxf+iuiExr9ZVcxn12Pr5RfXH8J9NBOVYxOORKZDUhEHZEtEIw39BKQGeY2xHcuB
+8eyZxlefOQmHHZyiJbPTs4xhixA0n96OmQNlhJrhy5B2FhJX8glWqpTxRXl+Fm90NU4PZG2GAary
+oYAfUvOJsWrOOI81SCtsOjFzmzDbMd+G1xgN8msy9O2zJmgtPbvWaGx0Unv3gEjZjKdkRM2Rywl4
+Cyd4KrlgDDB6mW0yAWhrF512WE+vcAtKAG0BY5ppDKNPnmOHwQqjNbs8VJv+mMgwvpmHcXxlg8Gi
+Ip3RPGJL67cB7sgSxVpaiJ3XyjjCbWfXn9EDKyY8DQcl3+uLk6FL7MiG69co7sPZv/fJxkK9ny8x
+MumcEDzijTGZuEBVtLpmYL+13dQQG6m4s5A19cWIqg3NYGJ2BLWbnKAKI42/eSrnNB4l2QH7fLcb
+IqzNLkDgTVfF3mMzO9QrZZxFG2tqq0eEiuo0VQ7JfQj/Hw03GLYlzoJT6HhAPZVy5cdAuMRm5KE5
+syfNBDBNVRFnq2iCy75rSqO+dSIzne7MsjO9+kSK3gDkInBL7ftbLoRTr4s+hgHmMAavjjNCHGeF
+bm+KylXss3euukJzcg6zEgV/XNJ/Xnx2jr2Yarl6eNQjvqtZ9N4njq/JsPGMMahfONh7oEkqvYz7
+AkKKlRnTULLH0dMbCUwIBl0VKooBhHIfReOB3k9zL/OwUE0ESMBniXDG+GN11oaf3MJhjW9kWA7Q
+LWKivRFTdNuJ8/J0HKOJo5i+apUpZ8z4MKW5VR0CE7YEUImpFeuBNFCs7arwdmWUJA9QzsUM66Nn
+xF/BQePJhuYb0qiZiJpnzkZNWId139/OYBGbjWUg96tivs1N3Rf9kgNiqHmVLvRQ9JVAoNeq6Arv
+DtLNAEzDNfcq83DRRXYEbZCMlX6derRxc8NLzkZV5T0TrRDDCVu8VJsi94dXCznUviVNDOWfqSm8
+23R+DDrjH8YclDxTBgaTte8CVzi3lQ3rt23iot1F2H1fR3i0gE6gTD9BMraqvRPWqtzzi9RewAuI
+DmMlmj6RrjtWR8uVnImSPLfkHm+lBegEEtvRrmr1DV3as9txZkcFoOdPfWb19WHIYlHRi5zGjV8b
+4sbW2oTLn1qPTjnwPMKUTYttGrGauR3nuWxq0v082v4phTOBTGQwxvF2FAPdbFuX84ZXgnrmh3qb
+iyikj8F3he2nntONNTv2owEdjvDeLs43Mkitm0qWwdb2UyPYGkkNLdzBDvgEtS/ZmHaOZA5mR5R+
+xXCfvqcINJ5tlffENYy92mIvdnjWmElvOGDa20JIoz2qKHLWEDZTvZXQANUNv8EBDWvUnKNcS9ZT
+tJI+wqeTo5Fp0gJn4lObq3SC0rwZ0QyuLfwvhJdJFdH96useQb6yK4wjxRDhGHaLzrmryrrDQgtG
+8UlAMXhh1PjZ4RYm6xrEL98NgvuD9AfvcRE0AWMJp01rxcQNEx9mbsu5tbbIRAnNI8lzvJShds55
+YdFhLxQTmLtBVRXWrVmme7+p7NemHV8h1PdYiBBziY1Iwtyn8WW2VJ99OnZ3jKCZE01CXzir44qp
+2L+iRzFSgtIxdvJpntCUAT6AOemQRgtYXrNqnKH6i91/z1P/nuRDil+ep86LLP9fav2hXSw/+ucc
+1P2NtrVETC9d3G2I+v95rvKd32zKEPBIgkgWjIEcuf5U+8vfwBky0eKkY1v8GD/1x7nKtn/jtwoO
+2nbgmpxi7P/kXEWA+0+HduQoNH3Q/BP5QsCB9xPd3cvGBiu1Tg9juxzHRZDFYNZ0RJfT6hX0zRYD
+c7XyTS+Wx9CaIudIgy3wyQQm9HBtDTKl8TePBfQdF6wCYNRKDJALGMCZK5MmLGdaGl9Qcp1jXbXi
+DALGObaItjEoWyQ95wiWj30CIgwSAnIEWiIj4wfEl7dBHKILWXr5tTlTwPQp55EV8db+rYiJ2/0+
+9wloZa+rMlq4XxWSi72Ve/DdadQtP2KH9PCzNJkerIb2aQcOgKFQDdRshS1tvESjS1M1EeNFpRZd
+0ayg8WHXo6fuIwtj+KlyVeWfZOBptGimeMrLZVwjwFggSIuY59QOQRZTPlJWZd1SV9bBMoiwrEgd
+TGGLJ9MRtK6scXyoKqM72H1sP88DHbMS3e1B2yatOllocY6shs9fe1H4ksqcP5rkp1rjZkjpvNFQ
+0R+pSrgCpVNZT4nOqaTCZQQ42orfdq0tCzr371O0tIA6sGUHVwy82yHn1Uw7sjBmLNt8Z0uIdQho
++NSgNhhhZHb9xqxgMWRc+2/dYNpn6STFTRl79F8yOlZ+H4IzGJLxDntHz24UEB+1tEFpPizXU47h
+0lkcC2ZI3Nf8yvcvNDcjGnC4D+lWdcs3fO3A8ZVqDWyqmkZ6YSFjHMAr9J9MwBDJIxNDPkI1pfwp
+NZ0dGCM6p3Xt5h3XhZRHOlrxCGiNvoNjYAA1PHr0aEHc/lAvqc2fldSOvcuLGUc2i/q3OOyW+rMv
+Gb3nwwWVqbubyliyyYQMuUALpo8echdnlWPNWteisJ5KGj5v1946mwU3esYOFO5oqfAnzaHFP//g
+3S83UWuiPorRM2PNbHvuBktpvtnAbj37ux0EsQQ7Tu55bO5kOnLzQXiJN2Fv8eh5Q91+eKA0oq3Z
+1uIcD8DSNgSt8QUDnqBTgeuPRmiW1vQryzSgwMgwxpEFyC0qsaGWwW1FEeAcroeFRZ1vr6fB5n2j
+r6T3VxDNyvQoKlF9DgV3TCg6/THSlYrYxwy+u365T5gMMnlcmqTwt5jBYlJ9w8nLH9Y2JmpH1wq2
+2EIYSvQ92K9l6KDw2L5cb+FrT3LC73dTLQ87TNv6LZSMKQa745IMFtKpkf3vgfwwxFIxsMgdZL7g
+5Xvfuq1qWtR17i8Dx2VQ+72Dcn0kOtrSe8JSuXjXnhKyIvuYiKR5mz3auo27HDsk2TtPDjmeL0bK
+qHZVM3SoVmmDzSRXHg+nrFADzIBU9nns4pEYkoKPY2I5+b7fN9eBIEo8bjAoeMaaxAOuz3XceW2l
+T+bMCsLc2z4CngtuhyoPbudG8hVSCXFLVMRL0Wg1fKa4nadj+yFteuCVhsIxsCXMJdhgkPYO2NCx
+Al5b+w2lFp00BHhjBVZnZY8qGnYz8REQQHgowhWlIW+ItvB4KaxqwAeqx/qOpFoQm1NDn33iWQbj
+5Rz9MuMQVoicP8eRhXMkNtDfpC1LhmkyT2rxAnMF6XNf6sWDuLLirHnLzLA5BEJHe5JLraerVoWo
+IgIh/Zih0ScdBIyvmKtwCp35wCOF67wyAoIGN7nFgDkkoaM+RZVHY9kGExqfQCwn+9Sckz0gMNrQ
+PSTRQ56EzrtOLJZmEU7cUyENtB7+0czXqnTuvpv4vCmdS0HPrJuwkmGcnTaU50zZIUhzvwiE91tA
+efXbEOAsWxWyEeekCsQTMAfeT1rUSypgsPTePJFX08lJlx6jRQD4R5ThE0hil7s74CVw2zFqSVyR
+3jh1pw6d8NAoXO95x3L4IbPlM6+tZrn/O0+Kc5f0wYvrCqZ0mOd4iX4QgGp6kiPGHYUG65vSuIxz
+tPHcjwsNaF0D2gLWOfNFfl/SUi1okNJD51ZyQ0aRx9TXhBOitxsUAHdDPDiSpyvPM/Llu4HLa9PH
+uz5xRe87LwNeY7EeG1fFED9YWSvsvXI/xH7zIhK7LF+GKJqyzy4IB6p2Z0nlEP0AbDtu3XccXSgG
+uqZ4FHFnMZkpP8jygJZXL4drvzGXzTmMWIEJaxNn3HosZMjPeYJ9wD6YS2JKTeYiUzwdWH7sYtiI
+qOMIsaINVYm1rObgpmAUCn3FC6malU6C/HFOQXebSe75yJuN6IWtVB3KliY4fn+TpyZb9AUVzyS+
+V5YYqvzB4pgLVUR+VGXxUsHeOiER7ShkJn8YOYfY6olW4nEh40AdlGX+RHFc37DH+A/gt82QZxdE
+ompsxmJCtGeUNtWN7vJo3ftR/Jx4DRPvqQy/NBzlDatq0C0G7lpBSIKNyzNAiS0KYzi07XTUcVff
+EIalivCBSN9qTZI0iWcMD3H+7gzpYehy+lVaeJfQIj3g88Q0DU+3R3JzeCSft2BVTXnCHSk3MxN8
+a1Oj0NrQZ5vLtYcUhqqmcVIAZVZxwDJHsylxah/MYGbvstKicPCSeWd243ByU3h2a/hOmG6skoH4
+bpK4e6isjYSOie5gdljkqd2g2p/vffpPJ50GbHPJCH1/NOp2VQzi2RF9dWeYsrxPcLmdPCvk7oXP
+sZLkrGwjP62ZldRgGwnj7m7U2EMfZ4Rgr6i7xvfcqdLnySuendRr8tucYuSxycAQGK0e/LWDpJfR
+iN1/06gwvsY+tAVNIBBSAdhpjeslG19NajcZKfT8vuk309gWKKnqMV6TU4fYydbpHbwAuiRcL/mR
+tn65mztSCoALwB5NhucgSGswHESoe+HwBaUJOIzU+0oE23SJXfxHAvTxDphJurJaVz1qk8sqocht
+3bGAn9dZTwYZPCt8l/oOHAvJYjN9Lqhlxa6aDGcfBr13W5NGtI0a/dRQ9JNvLDkZbXXRVFhWqAoz
+dPdrd4jrLfFw5PkUSpwQiRkHN6j0MQs657bC+QlNfYQLkzUuQ54Kp2XT+FsjmFEds2KtuEOyB+Ij
+Nh6nTmPOxD2bAJBCpy93ETqkY67s6TGq7LVd2vBWDa32/rJD2BOu9DEK0FxlfGEaL+WbhiS/SWsV
+3AEYfuySAjdjWZqXTKX+bTXl7bM1WsbtVNQ5Ueq+x88NnF2/tn2OWS1EZ3tC3tDs06StXgkyYxJG
+F4W8WKCR2ROuIB8rr22cTdmYa3ZeD5eZs+s8d5ldgdUdTM97x4/AXG6ZjAoMVOteKb0zPG4biIID
+EUdz2+3NMIvXLpqrNYs/FBo3ZyOK4vbYl1Bf4sjZWi14SlGb+bJaieOUKvs9VBBeN6i3aSVW1pbT
+teIkmJjlZsrgS7WNI5/ChhWFlV8VoGVokRmJ5aFFHu19EefTRlsTLN8hF4tfFcPtqqbjEHQsJIwu
+mk3rmpd+yHLQCtCISPf2GgTLlwS7Fq0I2nOYfWbdg+tYLIiQkZoN4rR6gwO0rNcR5ENC3RfjIt1M
+g4VJgczys254MTJtAWSVoSVXyWJ9VHgg1WKG9GCg3CWAL4iqaYeXGsn9cV7sk8FipJwXS2UXL3oN
+aII7uRguhwiT6QaZxmLETL7bMrOrRxMWbXSLBOocLwZOA7DDTaH8O/hDzJw5DXwqFsNnMGB/glgX
+hFiVmsUTqq/+UEAmmJeM5mocZdUiEiu4GkrTq7s0onBD/H11ndaLAXW8elHDqy81/MOkCtUERY17
+9a96382s1tXZGn23uUYuPbs3Py7YdYGTT1C9E5/ELnII3OIGFjq/nlUcuTamWyAm65WFbMLtOIPG
+ik4sJ1nNQUT2DntTwjh+OkE0Hi+ThYmQ+Thmo2ZYcj4XDdoPE5R/Iez9edpG6exS2FsU0JZHGb38
+/x9Up10cMsNskxRPbYAUoYANPX6eHaxMrwTioRlzioDTSIWgirQicG3J/tdvQCy61h8nbrwD8pMc
+/gX8infx07xviCXJSVYbHdwRvSXSKs0MuwvAup6BUscRh83/Ye88luxGsiT6K/0DoEFEQGwBPJVa
+J8kNLIsCWsvA189Bkuwhs6aLXbOuRU+PWXXW08ANv+7Ho+aQWmkSnw9NtFa7xu6jq7gajAdXH40r
+gbdt+vtvC65jnNWM7ax+3ppxK2uM6iQT8RGUHSeyhbs/zq+amXTicBwMqcnkM5YId6E2xc3vnLJv
+FkXbm8HD29t/GMEJ2/z6qVTKAXM3kaOQquAoRM2zarjjtG6Z8YEkCh4hhiXXesidSDsZ2/hdiUJk
+5xNmDvOaECOpUGBTQ5wch+0EDRavyr6+2iPnaiMW/O0PEfuswVqa3SnOvbfv1+TFqWZpbnGsoqmk
+h14tY7+ZdhuGJryabVA1ZbWz4d6/kIJRd+2AVtEmnOXTeunuSoIjv3lGb9JBvIUwKLYABx559miv
+X7ufvtiapOUcqlhy7MBwcazfXJ0DktRTj8RDKv7VvDObZv8ZA7B1QoV3Q1RmDDdGxy05oM9gO4Px
+zv71E7P+rydmY+2gvJb9/Z82zA5GyK7s2uRIdpoJNQZUUIy+NxOhAS2WIlzfN0nhihP4YK4Yi1X3
++dkkzAlj6+QRwdwso7oOotQXr3OxMXCMhT3r7WKxMr6z02DmBoLIDL9pPTg3+WVrZYRakjsd4qxC
+GPz87VCalui947qpAJVqljt6OLGWTtm63Gxz3Eta5Xy3VgKM+cbo5wT012+H+dZmwOfkmOxWKXNG
+QvTemu0TQ2tThbfxYCWSa6BZr1g6XVLVfGcWnv2r9xV3NwyFChgdC8gy4WmpdFzvF8/m3Yotg9OJ
+XAlMZ0SAuLwKk/+7OIWKd6/ykGVuW/u5y1BpqBaPCajGKGBB6jRTvIuntjuuarPaS5MCJZL4CvuH
+y4Hg8+uL/Wez/7vNvkUa8KfvxZ82+9+U6PAlr4eXX/b73/7wuw7toSgjPm+/GYublrllC3/s93UB
+QAbThm4C6HptP/mhQwuP2KFOxIH9vakT7OAW92O/L995XBtgnegkprcr7d/RoYXzq3lEQD0RloPv
+gC0okDzjtVLlp2sOzgOYWotjXqxYAeL1kPZbyDqsTd0vVX+p4aIncY3/j8SvzEhFg2z6gHpmGzQS
+G8d+arQL8nTsHFut3Mf4AgOnXvvLOq6OCUiaM7ednRCou31ejxUtK1XfbKKxdj6kLlMfJPH7iTMH
+JjUPuvBYZ9rBaNoaSiwGPrsnO8i/z9ibSLKV700RBSAtZUY878VPJCUgaXJp44Y9Mz3BmreNbsFn
+XrP5DbdrrC+Ajh3bvoERg4E1cAr7zAAPhibpsYRsP48IteGYNT3r3i4LOqtSlxErsN08kOmb9E+J
+ZnN+LXptx2hl7FGh1oOsoUlUsXkghVg9e2rKQGnkKRBHsSuW7rrLCbhztR5eOnNAC3VKpAjZdMAT
+8EVSW9CziG4FZwLXg8k5pncOHtKwBJWJiAoMemZrj1jO5iwesutOeTq08nzFogbgkhmM66jekGXX
+pYW+q2G5KEeo8DSXn3Eau0wMZj/m0ju6M4CyR87BK8djQ3+rHxXm1m9CWbvgKBmakc51ODOo5VBP
+cpgUUIHtRdBSEw4j1SKFIgPdSc3Ghzj+UfZg+pelPGvYep83eDEDy1x29ersNRgie7m2VTjmHKdS
+br5+C2Lfi7yzQdV64Obg7NM10p6UhcDAkVKCe4Dsa43LsjdF7NEcz9raZIp5cLKGzjvDnQALzO2+
+Xwy5N3uNc8Oii7DCDetLF0vjSG0HFhOwxkb2sVkacd5q7glRoQxMabXh2HczBgWqDiwYnV7LsaWg
+fyvP2gfozk/usl5k5uz4MRjRvVZxrCXwQ5sDAMhVZh+zdhCHbR+P8j1XEOwzcM2m94VOkCwcJk+G
+fCceih783MxXwu3iW6/O6v0Y52qTvYogjwfkDnbqsN3hCw/yRLzF+KjECj6p688hDP8BDmHZLRim
+dxkg8qOsEE2pMXGxS/NdoDWvDZ24EcdkFSONfmoJUC8hGhvde62HkJ47SxTioqVEt1btwXD5BGvL
+E3ubTOo+srLHzrTjS1Iw5d5y/4i9Xj9bYgeaaGNrDwU0wq22JxEhAPX0jgIUN6jY4CI7gDlpUq97
+0KvFDQkc5ncrycOQWtBLzFLF3qU+Bc98Yu9XDj6hNHVnVy20gw6mpt/gkljJL+fljrtdEowyN8Nk
+sHAWgO0/GRxjgzR2J3AE8WmQk3nO0WQMNUT5R0gzvIsuvGUTeSOwY28O5QyVQZdbTl9m+qOKhO4P
+mmHzy23Z+SeNAxduZVOy5tV9rlnqJoK2c2Ygh0if2QYXzazlyc5u3DlE67BpBiKLa+Hc3/NUwU5q
+lLygBVxU+M4PdW5fIf78keLKoYaQ0+DUUuU2clsPnZX3s2GTcXQo1fVTS/8KLcUNabmVZ1sXJLCH
+4V530xMzsX3m4gjxRSc37Ee7Y8NDcQV2Bn+dCzsUhFd8s/U+jUNxl7LSYjtwU4zV4OtZasC90b6U
+YlX7olvP0cYuaJIffODOBwy7mz5RVXsn1roAV3ETqs0FmmAO8w2RvrR1DPfIRUWuzQX6LBNFkTsa
+TulxCLBQqp2Z1pAYqpavVGx3l8p09mNpvnjt5iFOMyuYKDG8j0xKBErH243YaygqhkQu2i8TLQyA
+ZVV0JbvMOuiFYZxFLnRxXCbTLlcsOoBPE532SveIP/+6LsyPtt1fZLHITr1cntwZJIOT2kNQKMs+
+jXpaPXje9Az4Zw4J0X2xE8BTU7RRQOLiwTTGc0cM3Varc5bWGMckhhH2OjYoz476FYIUkZW4QdS2
+X7tupHTWwyQk1xHbh6CVMaLsb9fOQ3HBJqo7iKVzfYlL6lhkMEKt5CNsLO9BCXWsi8o4xzsw7idT
+tfvBLdB4XB6xWtcHxOL0ps/ti8zgJrRosLzyGRZZbsTFvhulxJck77dtGIGiNoVG05/ijvq+abI0
+LM0jsGtw3iFxf/tDkS/v52gEDqycz/Vosl6LCzpNzGE+LNWiQV2OEFfKybseCvJnsQMmSYjtic+X
+TYuLeiC/hR/rrs7WGlJAul/alKCbLYqTkWjPo9dkPhjUz1bamFwLx/HkTmvHtSbt6IeMwDwtS3qW
+oIAfYo2r3Oyy16P7qMTdblpwfCy5j5Gb9mYBwGMRjXGInewZl588rZr7oIb+nD4Xds9a/NXSGues
+qIpok5oAJzVQTmTt4KkSpX7mNqzTasGdfOWquu+QXMLZVfRX/kHeohoeRQomG5uWq7UezQPs9DBi
+LQOFqPMTDufS4adI5opylpZvX+leE87wZpZ4+AK3HxnRDdlbAEBoMzECp6Ew/dEaOT/CyFWq6914
+J/uaq3fut2szp9TWmJG8s0SJ/POhnpZqrc46a+oBgGf1Zmum+arAAF/4VQMCq7v8Z7z+r4weiDco
+BP8Z6nidpPUvY/W3P/g+Vrv6O4neoDMdE3jFjIHz4/tYjb3DheHBwd61fkA/vts7BN5YrKxoFAYQ
+DnvzcPwYqy333VYmzIkOCyx/Tlr874A+3ro7HBy9hIalg5eEOO7b2HA0azHmQSnhG+pNFJrZmlPe
+3kRndBlDTlKyf8ZNu+6ZoCjampfojC6B5gM35uVRVvguhJ31zzqZtucYr/xvUtRvBTSencnpAlMv
+2ErbfqszeKPbRcbsCThson6RiaAHWE+qi0ouyA4UxKuD1+hMEw1swN/ILshjb8Qzl/Q/CfXtVOTg
+Ud7sNz/Ld1HCZcQeU2pl4uh92dIewfk29S5zr6tpEGikc2HqbmXzNtnO+SK89NHAfvFxWav1szP2
+bCqaVVlncQEYJYeadRiKboQ31db2rcMUpQIghhKMfjlcGI3V7JmVqVCnQog4fsl1Wkx9eZ2Yinin
+Y3CZ0F3EV38mRhiO4wrkyyX20/rWACJrymzzQ8xu16/ZaPuoCjj1SLVhnivGuwSqF4sKUW0UQMvF
+0Uu6LAkIIrA7S4X+rHWdRqTZeRgBO1KttLbcgx27qa46PK2EajZcYFdb01GhdgQQzC2ctJhm/dWZ
+p9aPI4YP4N40PZmLeg92iPihRpPIhZwzhr5ODc8Ym7eOZ71A1NeNZJl8PgDkbitX+zkp7MPimSl7
+LCgevm6b7d22RbklhYitLotb/UNR6zZyqaN3ocs2cjePdBPvJ1gFlCLxU4If4ALe565qE95gkflg
+4MvdVYMzjyfP9Qp42ZRD3S3pyJgHR7+PfOhW+p6tcOT6VTTgcsEOyHp1xxnTOq+Wjj1iHKfmDDIL
+1Z9NN97BJtPEkTnQ1ACOoozPUr53qI3cJdKubqCjLnsMUubGIUQXEgDxyNfri7GnYbLbd8MssQOZ
+VKuYLgnTxJz2OUREb5hAN0H9OUHGKO9Wks6EeOsxO1spvQldOTgvhIGb41rq684rmuGo0q5mokTh
+JaqXmYjj3PIXBnlOrxtx0DiPNHc5w0pM7jSD7ujOCTehwpHJFzHr07VB85n008opvyAkEc0lRWdx
+HErBn3oGLiGf6hlp+bbT2VnIb++ezCph3DFPR3JqtBnZ873RlenS+K1T4VSne7GNgwywKQWAdFJT
+poHuRcV1lx1MvZ4/4zYoDfKnCbZlv6kaloV963Xpy4SdtTl6FRLTNbbs6GylPO9U6FZG+Slxee9C
+SbN+WckxjUHkjXi+HaPVhk9VNGZw7DzctAEkVbrthrGrtB2OYHVJ/LtSQa87AwjrCcX5Xlm1Ukc1
+tQTitKjaVu5VV9KUOBII/4i/huaQfDswI7VKsPfxnOvHlT0rtwK4b10yU4rZMhu/9DXq5iZp8lVf
+9PqErSW/M0BscTFk/Q2gKK2us3V0rswR9CnF1R6P1m2vTSWRvO+iFYBuK/tokx5F/zykdkZpdDrx
+7Dn4rEc4k+sxhffNpk4SNpzoFvc9iVU1TGZ+yFjTRwo26fga/9AzJsnLDCq/fuVF2GkIqTf1C54J
+jn+s7VdS1VzKUQF4n8QWCRgyl+torg0TtARzfSp6S0vrIJ+tdavJicyoAFMnhKFeJCWTenPmTqnO
+f+XE0RExCmUwIYN/WufpfRUvRQpcTJPVy6iGkq9Ot/bndQe+sO0NnjEroFrbzyMrEV9oXXNoXbO4
+xmJF3NzeeJB+D4yXLWSMzF7X/LBSxvTrThZtCVDYrmXoYnA4LXDUTIxaQ1JelDAbMi6JK0hak+bz
+E7YQd7oSLY3d6PgyGsOq75yPrNtov+PNyb2gIMFhhLVrKxoAEuV2qDHOTHudVl8ltvLK0LWz2o9c
+XZxi9p+7fAZz2RvDo7XM9mlimSwPRK3nW6rzrCLUchFNBxdnhfANCpjYtdcoP4KyL2iQen6ZWFPE
++hSK4QX8OewIuBigmCaj/CTBEaAJW0ayB1q5y8yaHuqC7OOFAHpwHiV0oo7OChSQ2bI4La3byJ27
+dDi4tWI4eWxgKRDvI+0h5z6z8pI9Kl1ActY+CU3HBCbRb21TtUnoQQ1OpQ7VbCmufpOddVsTBZCm
+WIr9EnHB70urf/5ncPyvBkcMs0wU/3lwvPkC/V8V00uV/qrLfvvDH/5g8Q50AoMi2JrXvuqfBsht
+tsSC5GH92GbEbTz6MUCa5K4g3TB3WgYMN4ma+sMfDF0JCjj8JNcAM7KNfH9jgDRfI5E/rxhdB26d
+5Ri6KRhm7bcTJKUE/VpCUwbkUlGLSfqJu7UsZusKRHLtbe40wwooSwANNg926/lYHroTsAXuu2vb
+zVmQFNRwoBsOhQwTFDONqtF45IL+qYEcej3btjovFWxLmiYWA5QpZCniOH0P00SJcLULBDvNAkaw
+45SPZ4VmFawjLMvXg2aY9RO+OnI45GSvmKt1wuXr+hiZGn4fgRN413l0iOywvbb3+FCX6qi3YEhD
+Y9Gdl5WO4ooDM1qfX9uWPWN08XISrShZY1IdU2dNv2iGEX+aVy29XPib91LV2RjSCyoukrKARmk4
+XKahcFJpxkgQY0QA9X3DRrY4nwA/X6d1MlxOc4+iHGUrHP9IFH49TMuOkQmZwompdJC8KcGyzCPY
+GnuDd5fkvGEn6JgypfXodrzNhubgohi3VHRFx8CugsSEatXGO9PjnRepMOCVe+XNoFk2TRlreauv
+RX2TMWlfJzjtQBHreXWGVZ00j7sy6M3URpuM6UPAQfuycgwqBeHnzYlPv9wK6RcLEwPpcDHW4n0v
+4+He6PvKPTC6ewWxmywmxju6+aHqRutpKXJzD9TGPWDBy5ZgWqOIBnMkaWXpeVDW1Xop5dTf0dfi
+ZjvozgSNt8gx2ZlqJ0rjzpluNhhe2M+ipWxBvxF0fNVbesjadtrjB2MLNGMGXK4nyMmBR+JZ690h
+kK8h6IQ4tLUFo9nIR3AKsupW6oO4pGfnGVgL3YdbpFpt4epqi1mrkcC1rcnyOJPB1mtjCPI8y+6i
+LaA9blHtaAttc3M65Bn341IgBCW0hoXRa9Db2zLfmRfJ/bjlwFlFfqL6RNuTaCEqngykxvmSc+Xd
+kuT9uvWtUB+zM1w5h7SVCeRSeVvzbaMch8rGLZVeulQ0wo15v2KcBzxMbj3hrOjLLcs+b6n2eCTf
+bowQMoot884OPj41Ww5eFk1zST7fO4P/jvGHAPiuIziC/2/L0E8t35vXYP2yZewbhhR/hDMSZq8R
+fE5D3Hu4N93RaiPpJ08FaX0b+jrZfQqJlnTPwD9vI7SxCjL+2fya+If9v+X/lQaa596EGjHfS2Rb
+KAESH5jxZAi+CztdZum53enOLS7BKHlexEp6fjSywtpX3sb/gRyvePwpvfJcZXIwbQDXF3B1pqBD
+Tut2cIo0+Z4Onyo7zfXmmS5qGgX9BZOpqA4d9p/pfkpTMd8P3wbY+HWazS19yj7k+dCtFS0BeeWA
+o5S9GajG9qiw7DnScOJK4/hDaaQUyWWJQVCOKq+Sryc7EH23qNXAMmakyyZIzsqJQ7Q6InqgA4Y8
+PtLmKj6MdUVhtpN7Rm4Da4HGO/nFONCKN1RwpDiAkDvlv+woP2WgDzQifDqInYcqH21SaC2aQGAO
+wKD5YRnLt9P2PxvU32xQ8YAYnO3/8536/rW3488b1O9/+L8bVNRMnBGuB/CNfSn/zp83qNxqLX5Z
+wvkW8vlxp2ZNipTjITZQkGo5CDQ/FqjmO1B93KhtOmls3SAZ9Hdu1Jtq9bMXCMoat32yRFAYuVxj
+P/5VzqCZDbJf1GrnzPPTLVluGD5I/aeyWPOd04x9iKPdvLMKm1m2RjgwYGafXMOFG5PX84MizUps
+kBwdbmaXdaZOQSKrxirAz5sFjl0lO0wxd3FjHQVtkEQKNyFBYDQe85sZrzTic4xPleIz3yAVBN5U
+eL5XUk1NdSU5PCq1zfuhomGracyt0zsur8Q89Q8Em/ErOoMI1dgVn3WN5LBrPRJ++2o1Q+tTzXWr
+PEVHQG3LQztLUflWNpZ3KYevM1Z37blycLhhpSzzw2StXNHot7pQs+2cyngh+IiWcSa4Ze2HfgT+
+nNerDeBG1686WzMXTI8qCqeFagvfWVqLZgi9UscNfrJDs4GSL1t5oXfukUTmXaMbDqKMZ1yWOW1D
+0VKG2YJ4ELv4h/MkVz6Ozmg/YOsN+MLUO7cyQAnFOagdChri3OoCPqzyfAVUtXek5pAez+wgqqnk
+GIXT7BczZkxZKsuQzAXoM3mx3rcScPuskidaR8zHuZT2aRHO9KEyaupdOWOHOkff6KqhcEnfFXWS
+dkxdWmLo51MVWet91Vl5Pu7SuXa1T4SsDC6DiEcUKo4o2agZVd2vAYst/Msa1nfYJmRZ71qrcq+8
+GE8xinzL9avjhDkfSua8I2jh5eCUFSz9FJPa9VIiv2jOoAMBT7UyGXx37a0J9kMqKbvrdLjboHV3
+Wr5SQsLisoQgNIr8SlOp1Wg4bZaF5T/h003irr8r3vk3AZx/0SaHN9/EcSeqhk0q32Tz7puE7vV1
+uinqHT0D2XyL3FMeqpaq3fgaEi5ssT2CmD6uB7E23QDyXyGpPM762Ov32qRsRHnNy4rSY2XKBGju
+dVJ6cGaBLtVSXy7nFJ9Pu2fXUY2BUejGM1745XZeWui0KquwGONFgK+Sa5S2EW3nlKiNPZYibDra
+U5LLNCc966DsQY1ZLnMD3rNfeS01E3FL5rY1ozsay7QGoJJkT5Nh5H2KoPuWV1qmTCMoSd1er9Ns
+A3bD9h0FI6HwinVuVTEAG8mxrtgqpyv27IDlmkKCSNgVgn9bnvO0oGgbeov1sU2EGRZxGV+30HSu
+7TZ1t5xfE4AnquYDT4DwsN7LXYkst1uqApFCkUG3IXs+sTDE++q0xtZHQVPb1sNqdCczy6JT4mJy
+dxtHI2bcD/S3xgM4aNIMA5Y6zPh85KxhgUZZgyKOkJhYB/rhDlhwdcPRNz44nLETY5LXXjbFD1HR
+LOcNnSDSb7V4/WYV/OeG+LsbouBA+Vc3xMfhJfl550EWYfuD7zdCQ8cVJHV4ILr9vW/q3zfCDXSO
+VcgjFP/KCuEm9ONGCNx8Y5qzqfr3LdByNnuRbm13K9YkGz7kb9wCX4+iPx1VIe1wFMa3SOwL8C2H
+tV/vgDV8q6RWaIIeYbaVRu65UWqPgkm+s4R8my/LlkKKCYf0UlAJpFR6WFIYoKqtumPXEn5HUVs4
+LmEIfI2EJkrJG5w7PWGHmgE4Aq5gccGgtLcsbRHNXOwUBvlgBGzuiUcqP72Siu0SNcaOEc4JThSR
+du2VAm4FVyV6FgKTFIjLnc3BiHecsWIu0yl2GOejU+QsWgbx0m2n+2biTb7XqtoxCdkRd93F2czu
+nfdSWCAvCDnoPCyJm0a34TmaMTI9C3ps5KUg4jkX6VVUlsmhdczVCmbGzoeqNOEPACc48qLqsFhH
+7Q9Y5OmDmwmaLgnQZbdLDb5g6drTCuJhn9TR+OIZeoquSaDLTylZDWydjbxXT2RNoHuujlmdZTBE
+JJcaKC0oajPic3tufsOPMycvV0mcAyHHl7Blubg+qntNGSO8crKhGUU4opGmczBhjIyH6RvjHA5X
+ZHD1LfOpzZc7u9DT7rLBUVXxKZTSNMvp9I+Y9d+IWZtZG3XpP4/IT1+gDVa/IIe+/80PHct4h1cY
+wQno1Te16t/TsWO9gzYCIAiO7Ouc+5OO9cr7Nk1388//aTwGRWQwNEu2dBwWnb9zbdiM8D9dGrgg
+IaV5wIhwNSNo6ds//8ldyKFyXOnJkkfX7ck8JYnrs3GyfrNT3DaGPz0KGX/D4jVy5aPpgXdi++c/
+PUo0snOw6jg6jlnFemDSPcASgD8+Vmg9N6XNNqFg8UYkYGXJ+tPncfPtUX6mjG+f158enFWmq3u8
+bQ5v9q8PDh6ZBDrsvWMsvJqxsuth2S7gsEtJb1yGTvYSc22CxFOlVtivKv2yaMwNFPjaVljQDga1
+jcDmQGM1eTuthV1YJ9e9m231vQXej0F19N/Qdnk59k50V9rFHP4/XgTuVI/RiJuCab95B/VONJD+
+Vu9IysYEesf2q9SIsKZE3B5bjvFBZOSkqTWoeRiHXhOgcI0BD2xUotTbuvRMYvbAc1ggED9gC7ru
+JzdHWvemnBwaqZAyHQeS3+sAIbrE//3Xr4Hb2Z8+B9dh488NkhZH803+oCeHMipn9o4MtHPYob+B
+du4UtUzZ179+pO1+9vbrxk3Y2qjrLhj7N2+WnIyeqziPNOGgRIEgBTzYbnvWDVZ7q0vMe3/9eG9+
+RK9fb49duSDYwZfsrUXXNOD8llrB48Vpd8sVpffXkbXdXz/K//H+CYgYuJRdyzW5m//6PfY6LhfF
+rLnHziQw4/KuNZaXHvP+d5Dy13zOm/dPmozYDj88688XhYwIgTfzHTyaK5Xzq9MzjXp8Z9SGgVYl
+gBooD0ixBNnzOzUBsWgKOw8F3Yl3yVit56WU7W2nbLQre6J4B2YtUebJsNZjvJksMG+pQ8p385H4
+N1tKwn8C31UG0dcXMQ+CT9RECzTTY2/a/fNsr+nxr99N6xX3/8urZEsAixBJF5cDIe03usC25BuT
+tVuOc0Y9VUlm4gRfoj+Bwsn3dd7Th27VX5ei00KZF5wClZMdQWXjODOaYZ83HT63PJ3BZVRW2NoV
+ejBssytJ69FHZy7LZ44UqIyzeW94ZUtwgjBd0NEr/GDqubdPWJJiUU2WxySuTAqtU3WgrcRgvv/I
+5Sw/2oOU1/FoyuOU1kxgtpcwnURUOcd2egTgBBNVpuWOCcg49FbtPkBszE6ZRtygMlrOmAi5nxIE
+lqBEQz+JZp2uGwJ9rT+tjrhATy0YKWy5ayaTVmZi3gGUgJookhHXx7yr86cB7FjRolTAq9Kupdeo
+z0qR9qNuadjhn7YOMhIUkmZ2YgYrPVEh5cniVuImfEBaKZ/xTedfGyOpseDpHpFCr6Pgy5/rbXAk
+Wv3ewboROqXZkQb1ilOmsgVogGdf2wBTw8FNK8+3ynS+HlFI/sDrRRC+7XewuligRPkXLdfcS43T
+XSjilHOq050xgfKsbaPdYdU+LZNWXdVRAypgQYYEANtpvoY9k+XHxfZ+UoKVcbCESe73NRYMo7Q+
+yISNh1gS+GtwTy5gUqlHrchZvxqYEK4M4MtEo7dzms79hRb32Tqw/HRPILKtly6y+5uM96k6DYyi
+Qev0xKrEvqKDckeJGNHd1rJe6rar93ligjhoFtx8GwjskY71kULoZeajYZVLa0R8nNW4TxLr1ozK
+kVxtM52odFO+0mDT+F1ifrY6PvPONppb1RWXaSSTAN9KHk5xAaItytn00jkQdDrEXBOchR4LQap2
+ie+rLL6kSfJjQoXmMRkG/S4yVrXLOvsZb+iLiYQRzgCqAy2zIXkQyd9bXWdcOMs4n1Uy9/x6Wpeg
+hKHijxlB/WHSwZ6QKuQSBYvMKCtgTLA3zzU39g55v1QI4m70QSOVzZNZIkT8HCg5VYu1T6gReyw3
+IyfkNoTrN3btCjk9Jb0X2+ah63vtXFKteDFoONa7RaqXbO51due9g2KgpMuC3Mya65WVAZep3kAC
+U4Y4Jew+joaV6ken5udiazjec/zmJr7oHYzjBFNuguF3SKKtNqD61E0ifp9h9f1sO716b03dfFa6
+7gRO1yNrgd37otM1dvkDZZEAgKfTaPD70lQOYKZQELOwBzu9AQjGc9Y2NFqb8LYOaX3R1uVRTHq1
+t3QadvU8bnaiqAXtgDigCJKmB8Nuq4t0IVNW6SwDiDNUF1k14tXlVNaeYf7KQ7se1UGz6bNtez3f
+R9mkvk5DN9dXuqLeMNoMYuvEqh++bQ7psKTmIObOYaxYfkx9bHb6NJs7XnF35tgodDMx2pAVmkJ/
+0/vn1ZvFtckP9Uqlegu4OCKqyxawnr5g95pDII00kmPs+ZQ4RHwxMjhPr0aRCi/Pg6YzXxQ1iOg8
+n5lOJkY+eF06pz+UpJClSduy5MA6t+h2flfEon0PazkPc32dATgzF2qyUYcip1iAlVe+b0hwP9VD
+T1MqfLfPq5bo2IIJ42cdL7JtGL/sosY94wmel7KaKytZozOn3yjxM5vcgAQQ1GC4Zjuvm3jlJFOu
+twBGKEeLxP2wAoskY3O9Og3GFGpF+RvTK3C12PZmuIUIPwMy0g/TBHQ50uzNR4+ABiIyz+QOsVZe
+G1wYgrWCIN8AiT7q4IoCzxmjM2YVCZnP9sjpFN3ZZPN9NaxEfWUGnp5S4rs7qzbbMyhtE70LUpgH
+A3riIao0eT6wwrlTPADRUHy4IHYcEDgSfOBH4sBbpwG84zvdIRqJnWG863Ty1t3WCKC7Eu8vhnBn
+autDn5nrTB5Dt87loh+QMtHr2E9eTdZWN5BQPEBTgh1MRYYvY6smqKvxwaCyPZiHIaVNCk40OXL6
+AysQl3kST4futeqAt9/JP3XCbZMLDsTUIUD7QyhdKqxyQwksu7PIE1x4UYl/SiyKTgKaQEVytczm
+Uq7/HFj/q4Yqz/hr1274nZH7r/rrvwI07PKPX00Y3/7+x9nVfufpQGxdJlwLLwYy1A9By3HeIVoR
+TtOpXSdZvDX3fRe0cOpigvKwFVqM+kz6/KMfHgz3Hccwtj5US71S3/7WaufPKW9gyjrMNwkvxLKR
+uH6diDG45QZhG/2YL3VQxl+LWLteFO3FlK1Xc3UsU/2sB3PiReN7AxJ4ZvW/OZd521Hi5yEShzMP
+zfHW4jVzPHtz1KilTVjF5ZRRcxG6isR75TUXVLjtKrJ2OfYMfeDS6TVASUURXTYsfA+OKfDwmx/E
+xMgEMB9X/qW+ksiq3f2AEt04xhVddJEvJI0YDe19ExtWvfkklpL/UbKtpumy/Jgxl2//r+JeLlL1
+2K/1IaWLnCSckt5RUIeHBkYKooXthV9Vx1OJh6K3rFDPx0BZ1ZNCMOr4ThwX2/VLbuGYvM/jkbwV
+G6RbMfTsdLe2Y1fDnZCRBBusHn7chdDG2yKpRiTw2Dc1b7i1vQ+GpXEKxjrCTXpXZgZJHSsQtgNo
+wAN4l+zGuuDkXQaYge8IZTxQeLyVy8LpGpqPdKLrh7QYb+LeOc+MiqaMMRiyPGipvjvYK0+DSxBX
+xqr6VC5Cx3aA+1Xp86dKxGFsj/0FLajSLzANN3bPg637NLeuY8ptvp33/tHHf6ePc2jnC/6f1bDn
+L/3wr6e0i9M33i4it9tf/riuOO9YBtubzf9VJ98c5j/CAeY7W7IVJrv9elXZLjk/hHL9HdKRwTmb
+3jwgBhsP4Md1hasRl5TtxEokF4n7bzG1Kdt786smmIAgD8QCZxfa+Vtge6zEXDAYJ6e+hOtTuxVO
+4Mps+nMLOlhYiIHBLB8t4w7rla/KmN6cdElDFl/zMU/osNhF0ehgePa6ezzIGkNd4T2lEH4O8DZY
+OxGshwO3yJYNYznkwZIn8tRH4Nr2YzZG0HI0Mdu+50ostiKXdjh5DGeA3JZjG4kzhN4RW7qKO/Rt
+N36kAJhA6SQJ7Hl2BrdkfjL6IiKFGvXqcWW5RP1uofbppOnhgAf2Np5r42yoKffxF343ZFC1gnlR
+izDLgE274E+gteBKmQ5Nrd2mUZP1YUIZ5bGz4Pqss6r8pbf0Z/aR03lm6eqBMxLNVl2f3GDWtWl4
+XrdXToKv35mlDbUFS8vednB++smsyvs4kWRGrQXHVc8/dvTWOPeM9JFecbntjKdLVyiUqWIItBZj
+UYyPFsNQKob7nLbQG3o1rdtIWPqCQ60TBj7/kVdcuNpKjwRobZjY4HFYF/i2aouQ55yHVj+IQNRe
+yWWLAGy0WM9jnjdHI00uHDpwDsb4P9ydW3PbSJKF/0rHvFOB+2UjZiKWFClRtGRLdo8vLwhaYhMg
+ARDEHfz1+xUA2SIlue0uPyAW3U8iXQQSVVlZmeec9N/CyCtzpKzRYT63OeQBaa0M2kStDwYHj7RE
+Tiu2KOFah5wWz/mli+jYn0ZGMDxOgoM6HZUa9N1No9MpI4tN3odZvEHc+DLfKJ+DjUYjWJ5lSkT9
+Xy9ulCug138228ag/5ASfwEa2FypsCUheANCMLfNdK3mJria9fouMxA3Oi9taHWIG+1vwhiSGlaO
+fHucRDuLhEFmvdvqIw+oFEVwL/W0W0jfm6m5tqj8H5JVriHtzFnpYE29fbB+d6Bx1VXtkqDY4LDh
+y9RvSOd4yJpZYP3ikXer6vmnNeWFCVD87dy3Um+9gH4dlre1S9e6JXTs7ItS7WldvinVWytKzIVI
+I7/fWqL5rBkXb8ws21uTvIwwWZVE6XWhKV+q2ihuRok24gSmrOjWR96k2sH0pqI/LzeIGocwN99S
+TVGz8yhtnM/okhUfDiPRepq+GFNrTxJncoiKIrpUjMLczDyLSu8kjKvqi4+YvHKu0gCQ7Cx9qclA
+bFJglLzlqWkjpRXAyFVuy90BFrDiK2+SvWvDn1Mb77ZMtHeVqX4+ZO5nJaU1oKK709RWqGG5VpC4
+E4PTYnpRUim/UNaa9ZGD8Qc0ZVaKVnjgre0wmRIMK5dmWJbOWz8ENY44bACCytIu1/icO0aAaaJn
+/k0GBZEUVTWv1Zj9e0cbjHpSrLNKu87c7LC+cDxkDzmAJJ+jYJQQ3ueNzS1ls82o8JCyjzk577cg
+3FATO0ekvp4VinvRGDrNX9Cx2d9qMC6iy8JTKeFT/d4sQH5t6HKbJaR2QPCb1xk0y6mt7/y5H3nq
+dJ/kFeSH0ehcRWfpo5FGjTnOD4tYsUdQ3jP/YuvQoNCj/9jM9FBZc5WmmsUGAm7A4befapPG5xEb
+/MIJ7JkBqGMslEwLxEoN2tmmiG6BO90iu0M3e0CV0YQmgpyA9xEnoK1Oyb8okguoAbQ7UaP1dVWa
+FRbYCHIn/cLmZu6k17WSj1DzO/eLcAHcfI0YOQ17x8F650zrkR7NNsnCaupPAHKhz6SZNq8P3mFq
+8q1FaCq7azXUYXqYxqgGhgLIgI4+8Jrt+dYqHTxVur/V3VT/QJYZggWB3rlvqn4FOu7QXHi07KHI
+F263nw9CF8uo7WphGqrorlh+IXe1gdpQ+DUKJ24600yAivWhvAkP6+Yv8o6wSOmFNEMgAcirHSQF
+tIPs3vCs/bll+0SBviWw+pzT517UhGhde+kbwqMvbCwWgOKwvIwP+4pV6oGcH+dJVZHmi4L8HrVT
+PZzahp29MSKAPeVafb8GZn2pjyJlEXBInKSxs7kIbdoxkwC9zNBQHQO3doDN0mdJjekJR5d0Za40
+HIA9hI/nVgUBnhOrsrByzvDs2M4sgyoKRF91F3VsB9NaC+880Z7dJga8qBIX9L2XBn8VQVMIQTPH
+GEcJvrdSy/CcM8J+vnfVCCX69XZ/rtT6u1TdTUa7WkN1jCV67Sfr4Cagpfxki07gpDmgB2GCIrki
+n+/NqmK/qKNoD3udNonmLq0n6yipphuoNG9ynUj2UBj+PD24X5GtiOZrM33YuyCDi231laJ3MVXU
+BmJMwXajpv7cSbP1JZVh/TzynJuSRDaZT53uSogxOEVp3lYo/s7SUXazbjZ3hZKNbit/867Grlde
+bdIsRwlv1nZ0mNXWlu710HZMch1lZiG5QKsFAwXSeGyW0LpTDr9/olcEoa3Arnd78JUWVKe8Ka4b
+9Pd2U42dMx1T8gVSmSt6Q/SPcCtgSyt2DsrU99zk8J7DjTv6VLUQzcC2ncM5WRFtQus8geKst2qI
+yICdq2pzmZjBe7MlMh1aUhM9hoybEnUCppWp6mMQKtA+FOhMq6blRQEF2r/VdtrIh/KVHj7qSVF/
+jHZKfUW7IpV2RbCs9g09OWGf27U1UZtteUUap8L1hzE2KH04WoKtpUZ4TGc7spaN4HIRz21oTeoW
+OrI4cL0c5HevIiXKzsHyT23brWbI8sAN04rRRZYDFs8aZz8DXqWSdhR0sijGvW73OgbaNggT+cp6
+/V9Aasm5TZO6cZpsM4KOSDcug5ayphzMgmxzoVbkqHWSHzsqaYs0KSJ/mmspCIax1hQkp9i5lBnw
+3NSjGYHvbGioWARU7dFrpclsjPSek5XFXPGbYhH62xF1AsG2UzyF5uGAL9y3KiIc+WSXH/bBbGvu
+UWJ13ANynXoBuhq80GdUEXzElzbK5tbx0/0dipOkm12rCSY7OLQXWeDVM+SVrMtDyxKkuF/CGGxS
+G3k9QSQM6Sxz7glyYdTyDENBOTzAY5xZmXmh54CzEfAQ5EQHsst4vw08AOJwF5EggcY4Qjtmqtcj
+0IWNRRaYCGiPDBwC6HMQ8spHT7AiAU14PkhqQZZMWuJkts0V2jXm+Sec92GqY6QFmrJfDRv9psY2
+lQjJgQKiT7hVGqD5KRIOFX2emnFamNokB26fcA70o7fxPnNIw219OpWa/nViVsnMFSzQSvBBEdWE
+Ghoj/n6btYTRzIzDCyO20imkKx0BJ0EtpZNv8wDfES0AYu4/AarZC8/woaMKyScUSgnNzr21unav
+I87uE62xP+WC3kObFRRE11B+QkH+0WpTmadacwBzCMjws54YZTVBUj2lQGnjB5D2uA5J4q80Wgmg
+8ByoS/xpcBVUIxUxHcP6VJbbrEEkJLIh0+8D5CVyBWWJNekuyqi5fgcpRJ+aVhUjbmtvp/SlcS/c
+mhy+Sb/axcEuqxvyYNVdBgJwvImrerJBgmO8A922bPbA5yBU7YyZGuxya5yoSTrda2UOW4D+eLqX
+76c0+LRmWqnYDxrl3TcJin83Drz59wlkWXOCP9/8hdp09sGNlfDTWlVggiKx4F7tGrojBHaoXEF/
+3s9s5utC2a+tW/2QV5OKLO+cFnf8wAFZOJoZJ9MGCgSxv4IyKOQyFEBzf4trjuJZBSX4AoH6eF4r
+xOIJGrof0DzTZyMlnebJHp7HOvXHm01U3mxsW1vgJEqE7nwWi11qBCx4Pl3AZyD1JtNttLGmDZon
+wAXLZj/eRRlrPUWILgmIUUIEEQmg8vDe31rm4dKmA+Y02BcWyW9YlsAHfbR8Qre+hqda67MqNXaz
+9lD7/+b83z+IUMSC4xvkzW2xSpu7FdK9efYIJBOfvtsFcf5h98++9OOB/vipdCVF5lOuWHtP7Q3/
+aIhwyXMVD7T+0rUzUowGzSAo4IYIU/V/HzkWDSFIT2rA7rrr6Vv+0eP/+Mk6O/74O0e3fo9uVi7s
+vw5OO42BJDjKprzy8CcjPHl498wE5yAkwgRgsLXmUxu4IBJVshloCXUm6H7wyQR5bQr8+Pl+2Qav
+NmhTkUojkfMzVjgZ47sVNOcMvUcTbERnBAWu4FMrOIJRYIN9dPovdHNuSFZwDXJQUkbQjTONsJk0
+ff+qT5aDqqpnrBM0IgFDiQsj8YODMoLZ3dN9/T/r1e7bCv0VZ4C2CMUFhZpAN9/JLD6dCS4zAVaJ
+CXSumyqd1QdkhJdIOa94hVfXg2HwlJYQ4UVIRFynU0FRzlB3EXKmg/MHDrq9sisBp6eANNOg/3bX
+8SSwaT1kCWETlFnba3CTQFPwV7JWoAzHGaqlQD9dArZ1howOruJxSxicMzR5bbIPb59pUNGoTFKg
+E9fJjkA24wwVIYGuBf4qrsE5Q0vVpBeCw74H7w5874tWcNFUQqxXICU7I3RzbkDeEA4g1WO5fVGU
+o8FWUBd60QhAqM8AUYsgaXBzAGUB2fCYvUBHupaacj/RT3ZEClxU3Fz60IsOaMMKCNi+uFupt4+i
+mIkAmUn66MW3b3N6AE3bYRuG9fQq8/UnzwevRgIcjiyE+CEAcdIS14kfdKAgIGNhG8Dj22t4awAR
+ENk1oCtnVFnRa6ao3F3HAYGrEjWCJtYAp7TX4KIiSCDPKu+/HBUqZyjdidNgf0Bgz3saGDjuGT8D
+Bs75HjYNa0VoAnEk6xCg1uEMVGS1v834p1YQJD5OSVAs9CHOAkf2rKy7ZwRFrmBGvPj8ZE2E6g79
+T/rtcnC7AqWyZwJD/2AtOAgKc1LsrxO/CLwNkgXwNrv3CN0+NKDIiFO+9BHBgHpKlwTSRy+vBVcn
+u4TbhE7ZmamLxYZkBXY3UH9SIQJkW85JGojEPk94EiE5JivChiIHtLK9hrcius66clYgCqZJkW3q
+/Yw/yRnY7A6OCezK6rJHAvA5rN1BUCJl54Jhnon+csBJv5+Inu4OlntGZ2LgrrQbHWakQJcIgZOV
+mwucC8FhIfPXR40M+NQKIovGerA5oXZWGN6KgBcrGzXiHckQEBvb/bo/3SPIp4I/1vXeDw/ILYJI
+FiIAUpOAgyNlA+T1rN4hPA8XbZDcJGuGmlRHLsCVzR5gBYT+bIQFXj4+szkwPVzipf7zwblFjRSX
+rEMwLNwieFw4cN0WeLIUXEPgb2GN9GT5AS0F/KEi+/iixAh+2f52MHq+FCiqkLTV+ph5eJPAAF8m
+6xB0GhvRg4eUXOf1T6xAvuLsmyTBwGIDjvZgwiUdIqkkEsY6EgLdIjjdFV107Um0ifrTUONEMr2S
+VuD8qJuWQYT0/WT0NDZAZo18IoGiDQNfXN20G5JHEP5a0gqGfgZrgHTSY1qRYOOpFWyRdqQCBX2q
+NULvggZlhbaVmFSIQMmZhmnEgXRBa68TK6iKdUaTGjQ/nAHOAvhrsrOAjBoPJySIv73lo1lACMWm
+oSl9bOAOLqOESrL8vqCxL7iaIZA2L80Cyq3sjQqrpT8zDW531Cm6S/tFdH5gJSGE+XKmHSSOjoXI
+KH3PMgzr/EynkWcNFX85r2ZTT4ClJSS2u+vYL2IbzCRgKo9Lol2CQ/KLAkwm6xc4GSLd5KKI2l0n
+GSWxO0CNVQQap726o+qQrNA185HaHQxeNUgbMu0vRwqgsvgEKC0SWI9+Y1grolfykrMCwn+0NOK/
+k82RyqMl9Ost9sf2Gl4SBSZlNzMlAFmkFZH/JcncvePTAqRL8pUIAeZmD1XqovQBLQUByJJNK+oc
+nSCIESz1m8PJXKBbFiKIeE0yFu01wC2SJriSblE3AeSy+6GQ2U2GkwMUpSdU6DSBy+k+H1zQ2NOY
+pRwC8giglVtVz+5dnyTamQvICdATAapzew1uc+hVT+WsQDhEbpUjUu8YTuZCi1a1KcnDEx9aiKCT
+E5UNEUTRSdWQyLB6v3caIjBLyCOg9td/PrxZQHsW6QMURwfXZRd8Ba5LOoWUkkq2QeljiOHNBXpy
+S/pFg6C5FaJD2KC9TjxCl1gTlc6+HvMLfvEnNtJvjJCJH4QPLRckWGUvUUZe+8IjV+D55z0PYv7w
+739pxveGO+0XhdhE99vfqSL/OUIyteD0Jx8+gtWf/vP+AZ//9Is39fjHy2CVLhGmatrHbfrbvFlG
+EEr+N1x+XUbLpzrPeGLW3/c7+fe/ju7zyfv/m4Gz7cm4omIpPS49KHfx8cAtn0B+4O0yzpbZ4y2K
+1wgPkeknO/JkGQZ/7dITlZAO+Cs99i7cpcuHo+akHY5UfuQ4Xt3nAY2eH00gTNLBFGUHP1+Fy2qZ
+rp6O3IHhpUf+Oc2n1/WQv+30P5rdiLmlwcPxLOy4PbL3f7HaoShzPDIRIluw7MiXWDwIHsdpp7dO
+JefxDy/K4fyUMeYPS/9oAtLjQUB5ZW94HoYBvc2PV2SHDZQeOn4IlidexHAE3kx65F11/PI66JLs
+sIvnvqnDzEsPzADF/bZ5fPJ2XnRAI9mh3+wQonxm5g7iKjv29TKIj7xHD4iRH5dGnsv44ak5eoKK
+/NBZtrz3i2yV50dzmj49Ar8hPX5w7wfrZfw4kniTPSpAfmj2gmyXH83svtYuP3aWBfyfJEe+qS9l
+/47Rd0V6OrQACUgPjRT+iQ/pMbuyI9+svqbLk+ipL+rKD10uj/ctuHGiTio/cPXH5TJKMhoKHS1M
+xhcVyN8x/tUqzVZHnoqSjihs/Y7Br1d1cH+0jTG4YOv+jsE/79Lt40jtuuxKUdJD79Lc/2OypLt3
+cLybUd9Q1cdf/Odb+037A8+bovXlE9n7p5fyscW7TLz0sNuQiOT4VKN1+V3podPV+pTX3qJNZAd+
+9zeNYiUD1jt/97D6Y54929u6CpDs3b9vm+e9NBH7jPLv+YHnE7FnEMsO/wHrr7JsdeS50FgVaWD5
+sevjU2VfgZUd97X+TJIz5QdNXmRHfkkrs0svytri45J9J14j4fj4voSXhd0j8lXSg/+d0KekXT4G
+2f0Okezje+9QrdL33uwiDPNohNYqXS7zxyO/lGn6pp/wPP/0KJHx0j87Tq6Jb9yHq2X6n/8DAAD/
+/w==</cx:binary>
               </cx:geoCache>
             </cx:geography>
           </cx:layoutPr>
@@ -7292,13 +7292,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>30480</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>371475</xdr:colOff>
+          <xdr:colOff>373380</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
@@ -7529,8 +7529,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10170798" y="169545"/>
-          <a:ext cx="2436493" cy="626836"/>
+          <a:off x="10223807" y="169545"/>
+          <a:ext cx="2449745" cy="631806"/>
           <a:chOff x="10198073" y="152401"/>
           <a:chExt cx="2422551" cy="657225"/>
         </a:xfrm>
@@ -8094,6 +8094,7 @@
               <a:latin typeface="Aptos Black" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="l"/>
             <a:t>47%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="6000" b="1">
@@ -8249,6 +8250,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>53%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="16600" b="1" i="1">
@@ -8329,6 +8331,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
             <a:t>36%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
@@ -8411,6 +8414,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
             <a:t>64%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
@@ -8659,6 +8663,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
             <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="1" i="1" u="none" strike="noStrike">
@@ -8682,15 +8687,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>59055</xdr:colOff>
+          <xdr:colOff>60960</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>151447</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>459105</xdr:colOff>
+          <xdr:colOff>457200</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>20002</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8739,7 +8744,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -8768,15 +8773,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>415290</xdr:colOff>
+          <xdr:colOff>419100</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>151447</xdr:rowOff>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
-          <xdr:colOff>188595</xdr:colOff>
+          <xdr:colOff>190500</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>16192</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8786,7 +8791,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D937DAE-1AE8-A9FF-73AF-AF6AC6026229}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9105,8 +9110,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7273290" y="2162175"/>
-          <a:ext cx="5069205" cy="3288030"/>
+          <a:off x="7309733" y="2175841"/>
+          <a:ext cx="5099023" cy="3311636"/>
           <a:chOff x="7505700" y="1758315"/>
           <a:chExt cx="5053965" cy="3729990"/>
         </a:xfrm>
@@ -10430,8 +10435,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7021830" y="4535805"/>
-          <a:ext cx="2167890" cy="824865"/>
+          <a:off x="7058273" y="4566865"/>
+          <a:ext cx="2181143" cy="829834"/>
           <a:chOff x="7381875" y="4514850"/>
           <a:chExt cx="2152650" cy="885825"/>
         </a:xfrm>
@@ -10636,6 +10641,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
               <a:t>Revenue till date</a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="1200" b="1">
@@ -10703,6 +10709,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Calibri"/>
               </a:rPr>
+              <a:pPr marL="0" indent="0" algn="ctr"/>
               <a:t>$159.38M</a:t>
             </a:fld>
             <a:endParaRPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
@@ -11012,6 +11019,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
             <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
@@ -11180,6 +11188,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr marL="0" indent="0" algn="l"/>
             <a:t> </a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike">
@@ -32296,6 +32305,74 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{353BC84E-0CD6-4F4B-B8CD-5D7100F13A59}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Years">
+  <location ref="B4:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <formats count="4">
+    <format dxfId="4">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAFADC8E-9C9B-4E71-A34A-C9727E453125}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Years">
   <location ref="B13:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -32334,7 +32411,7 @@
     <i/>
   </colItems>
   <formats count="6">
-    <format dxfId="6">
+    <format dxfId="10">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -32343,19 +32420,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="8">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="7">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="6">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -32375,7 +32452,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{420F03BE-1450-48EF-8D4C-88ACDD28E660}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Products">
   <location ref="I4:I14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -32440,87 +32517,19 @@
     <i/>
   </colItems>
   <formats count="4">
-    <format dxfId="10">
+    <format dxfId="14">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{353BC84E-0CD6-4F4B-B8CD-5D7100F13A59}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Years">
-  <location ref="B4:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <formats count="4">
-    <format dxfId="14">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
     <format dxfId="13">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="12">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
     <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="0" count="0"/>
+          <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
@@ -85487,10 +85496,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="Z1" s="24" t="s">
+      <c r="Z1" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="25"/>
+      <c r="AA1" s="40"/>
     </row>
     <row r="2" spans="2:33" x14ac:dyDescent="0.3">
       <c r="J2">
@@ -85502,42 +85511,42 @@
       </c>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="E3" s="29" t="s">
+      <c r="C3" s="38"/>
+      <c r="E3" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="I3" s="29" t="s">
+      <c r="F3" s="38"/>
+      <c r="I3" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="L3" s="27" t="s">
+      <c r="J3" s="38"/>
+      <c r="L3" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="Q3" s="24" t="s">
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="Q3" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="R3" s="25"/>
-      <c r="S3" s="26"/>
-      <c r="V3" s="29" t="s">
+      <c r="R3" s="40"/>
+      <c r="S3" s="43"/>
+      <c r="V3" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
       <c r="Y3" s="17"/>
       <c r="AC3" s="4">
         <f>Z2</f>
         <v>1</v>
       </c>
-      <c r="AD3" s="39" t="s">
+      <c r="AD3" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="AF3" s="39" t="s">
+      <c r="AF3" s="25" t="s">
         <v>89</v>
       </c>
       <c r="AG3" s="4"/>
@@ -85586,21 +85595,21 @@
       <c r="X4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Y4" s="22" t="str">
+      <c r="Y4" s="41" t="str">
         <f>IF($AA$6=$W$4,AA4&amp;" Selected",X4&amp;" Selected")</f>
         <v>Revenue Selected</v>
       </c>
-      <c r="Z4" s="23"/>
+      <c r="Z4" s="42"/>
       <c r="AA4" t="str" cm="1">
         <f t="array" ref="AA4:AA5">TRANSPOSE(W4:X4)</f>
         <v>Revenue</v>
       </c>
       <c r="AC4" s="4"/>
-      <c r="AD4" s="40" t="str">
+      <c r="AD4" s="26" t="str">
         <f>IF(AC3=2,"Qty Sold till date","")</f>
         <v/>
       </c>
-      <c r="AF4" s="40" t="str">
+      <c r="AF4" s="26" t="str">
         <f>IF(AC3=2,"Current Qty Sold","")</f>
         <v/>
       </c>
@@ -85653,7 +85662,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V5)</f>
         <v>3658</v>
       </c>
-      <c r="Y5" s="36">
+      <c r="Y5" s="22">
         <f>IF($AA$6=$W$4,W5,-X5)</f>
         <v>129744</v>
       </c>
@@ -85661,11 +85670,11 @@
         <v>Qty Sold</v>
       </c>
       <c r="AC5" s="4"/>
-      <c r="AD5" s="41">
+      <c r="AD5" s="27">
         <f>SUM(Main_T[Quantity])</f>
         <v>53651701</v>
       </c>
-      <c r="AF5" s="41">
+      <c r="AF5" s="27">
         <f>SUM(X5:X52)</f>
         <v>260908</v>
       </c>
@@ -85717,7 +85726,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V6)</f>
         <v>2708</v>
       </c>
-      <c r="Y6" s="36">
+      <c r="Y6" s="22">
         <f t="shared" ref="Y6:Y52" si="1">IF($AA$6=$W$4,W6,-X6)</f>
         <v>122432</v>
       </c>
@@ -85725,17 +85734,17 @@
         <f>IF(Z2=1,AA4,AA5)</f>
         <v>Revenue</v>
       </c>
-      <c r="AC6" s="42" t="s">
+      <c r="AC6" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="AD6" s="43" t="str">
+      <c r="AD6" s="29" t="str">
         <f>IF(AC3=2,AD5,"")</f>
         <v/>
       </c>
-      <c r="AF6" s="42" t="s">
+      <c r="AF6" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="AG6" s="43" t="str">
+      <c r="AG6" s="29" t="str">
         <f>IF(AC3=2,AF5,"")</f>
         <v/>
       </c>
@@ -85774,12 +85783,12 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V7)</f>
         <v>7695</v>
       </c>
-      <c r="Y7" s="36">
+      <c r="Y7" s="22">
         <f t="shared" si="1"/>
         <v>167727</v>
       </c>
       <c r="AC7" s="4"/>
-      <c r="AD7" s="39" t="s">
+      <c r="AD7" s="25" t="s">
         <v>88</v>
       </c>
     </row>
@@ -85817,16 +85826,16 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V8)</f>
         <v>52953</v>
       </c>
-      <c r="Y8" s="36">
+      <c r="Y8" s="22">
         <f t="shared" si="1"/>
         <v>145602</v>
       </c>
       <c r="AC8" s="4"/>
-      <c r="AD8" s="40" t="str">
+      <c r="AD8" s="26" t="str">
         <f>IF(AC3=1,"Revenue till date","")</f>
         <v>Revenue till date</v>
       </c>
-      <c r="AF8" s="38"/>
+      <c r="AF8" s="24"/>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.3">
       <c r="I9" s="3" t="s">
@@ -85867,12 +85876,12 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V9)</f>
         <v>9936</v>
       </c>
-      <c r="Y9" s="36">
+      <c r="Y9" s="22">
         <f t="shared" si="1"/>
         <v>293637</v>
       </c>
       <c r="AC9" s="4"/>
-      <c r="AD9" s="44">
+      <c r="AD9" s="30">
         <f>SUM(Main_T[Revenue])</f>
         <v>159383368</v>
       </c>
@@ -85913,27 +85922,27 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V10)</f>
         <v>1401</v>
       </c>
-      <c r="Y10" s="36">
+      <c r="Y10" s="22">
         <f t="shared" si="1"/>
         <v>147426</v>
       </c>
-      <c r="AC10" s="42" t="s">
+      <c r="AC10" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="AD10" s="45">
+      <c r="AD10" s="31">
         <f>IF(AC3=1,AD9,"")</f>
         <v>159383368</v>
       </c>
     </row>
     <row r="11" spans="2:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="E11" s="32" t="s">
+      <c r="C11" s="32"/>
+      <c r="E11" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="33"/>
+      <c r="F11" s="35"/>
       <c r="I11" s="3" t="s">
         <v>64</v>
       </c>
@@ -85960,16 +85969,16 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V11)</f>
         <v>558</v>
       </c>
-      <c r="Y11" s="36">
+      <c r="Y11" s="22">
         <f t="shared" si="1"/>
         <v>147870</v>
       </c>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
       <c r="I12" s="3" t="s">
         <v>62</v>
       </c>
@@ -85996,7 +86005,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V12)</f>
         <v>16182</v>
       </c>
-      <c r="Y12" s="36">
+      <c r="Y12" s="22">
         <f t="shared" si="1"/>
         <v>131151</v>
       </c>
@@ -86038,7 +86047,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V13)</f>
         <v>8382</v>
       </c>
-      <c r="Y13" s="36">
+      <c r="Y13" s="22">
         <f t="shared" si="1"/>
         <v>155934</v>
       </c>
@@ -86084,7 +86093,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V14)</f>
         <v>7593</v>
       </c>
-      <c r="Y14" s="36">
+      <c r="Y14" s="22">
         <f t="shared" si="1"/>
         <v>146460</v>
       </c>
@@ -86115,7 +86124,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V15)</f>
         <v>8454</v>
       </c>
-      <c r="Y15" s="36">
+      <c r="Y15" s="22">
         <f t="shared" si="1"/>
         <v>174777</v>
       </c>
@@ -86141,7 +86150,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V16)</f>
         <v>6906</v>
       </c>
-      <c r="Y16" s="36">
+      <c r="Y16" s="22">
         <f t="shared" si="1"/>
         <v>170196</v>
       </c>
@@ -86172,7 +86181,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V17)</f>
         <v>8733</v>
       </c>
-      <c r="Y17" s="36">
+      <c r="Y17" s="22">
         <f t="shared" si="1"/>
         <v>154764</v>
       </c>
@@ -86196,7 +86205,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V18)</f>
         <v>7839</v>
       </c>
-      <c r="Y18" s="36">
+      <c r="Y18" s="22">
         <f t="shared" si="1"/>
         <v>161163</v>
       </c>
@@ -86213,7 +86222,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V19)</f>
         <v>4896</v>
       </c>
-      <c r="Y19" s="36">
+      <c r="Y19" s="22">
         <f t="shared" si="1"/>
         <v>181815</v>
       </c>
@@ -86230,7 +86239,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V20)</f>
         <v>9429</v>
       </c>
-      <c r="Y20" s="36">
+      <c r="Y20" s="22">
         <f t="shared" si="1"/>
         <v>278181</v>
       </c>
@@ -86247,7 +86256,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V21)</f>
         <v>4743</v>
       </c>
-      <c r="Y21" s="36">
+      <c r="Y21" s="22">
         <f t="shared" si="1"/>
         <v>142266</v>
       </c>
@@ -86264,7 +86273,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V22)</f>
         <v>2160</v>
       </c>
-      <c r="Y22" s="36">
+      <c r="Y22" s="22">
         <f t="shared" si="1"/>
         <v>158661</v>
       </c>
@@ -86281,7 +86290,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V23)</f>
         <v>2997</v>
       </c>
-      <c r="Y23" s="36">
+      <c r="Y23" s="22">
         <f t="shared" si="1"/>
         <v>211884</v>
       </c>
@@ -86298,7 +86307,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V24)</f>
         <v>7148</v>
       </c>
-      <c r="Y24" s="36">
+      <c r="Y24" s="22">
         <f t="shared" si="1"/>
         <v>98618</v>
       </c>
@@ -86315,7 +86324,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V25)</f>
         <v>6350</v>
       </c>
-      <c r="Y25" s="36">
+      <c r="Y25" s="22">
         <f t="shared" si="1"/>
         <v>114552</v>
       </c>
@@ -86332,7 +86341,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V26)</f>
         <v>4140</v>
       </c>
-      <c r="Y26" s="36">
+      <c r="Y26" s="22">
         <f t="shared" si="1"/>
         <v>113050</v>
       </c>
@@ -86349,7 +86358,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V27)</f>
         <v>4246</v>
       </c>
-      <c r="Y27" s="36">
+      <c r="Y27" s="22">
         <f t="shared" si="1"/>
         <v>105354</v>
       </c>
@@ -86366,7 +86375,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V28)</f>
         <v>1847</v>
       </c>
-      <c r="Y28" s="36">
+      <c r="Y28" s="22">
         <f t="shared" si="1"/>
         <v>71945</v>
       </c>
@@ -86383,7 +86392,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V29)</f>
         <v>2469</v>
       </c>
-      <c r="Y29" s="36">
+      <c r="Y29" s="22">
         <f t="shared" si="1"/>
         <v>50449</v>
       </c>
@@ -86400,7 +86409,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V30)</f>
         <v>598</v>
       </c>
-      <c r="Y30" s="36">
+      <c r="Y30" s="22">
         <f t="shared" si="1"/>
         <v>94060</v>
       </c>
@@ -86417,7 +86426,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V31)</f>
         <v>350</v>
       </c>
-      <c r="Y31" s="36">
+      <c r="Y31" s="22">
         <f t="shared" si="1"/>
         <v>54051</v>
       </c>
@@ -86434,7 +86443,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V32)</f>
         <v>999</v>
       </c>
-      <c r="Y32" s="36">
+      <c r="Y32" s="22">
         <f t="shared" si="1"/>
         <v>50634</v>
       </c>
@@ -86451,7 +86460,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V33)</f>
         <v>2064</v>
       </c>
-      <c r="Y33" s="36">
+      <c r="Y33" s="22">
         <f t="shared" si="1"/>
         <v>71885</v>
       </c>
@@ -86468,7 +86477,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V34)</f>
         <v>3335</v>
       </c>
-      <c r="Y34" s="36">
+      <c r="Y34" s="22">
         <f t="shared" si="1"/>
         <v>50384</v>
       </c>
@@ -86485,7 +86494,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V35)</f>
         <v>3428</v>
       </c>
-      <c r="Y35" s="36">
+      <c r="Y35" s="22">
         <f t="shared" si="1"/>
         <v>48720</v>
       </c>
@@ -86502,7 +86511,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V36)</f>
         <v>1830</v>
       </c>
-      <c r="Y36" s="36">
+      <c r="Y36" s="22">
         <f t="shared" si="1"/>
         <v>98355</v>
       </c>
@@ -86519,7 +86528,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V37)</f>
         <v>2541</v>
       </c>
-      <c r="Y37" s="36">
+      <c r="Y37" s="22">
         <f t="shared" si="1"/>
         <v>57404</v>
       </c>
@@ -86536,7 +86545,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V38)</f>
         <v>4355</v>
       </c>
-      <c r="Y38" s="36">
+      <c r="Y38" s="22">
         <f t="shared" si="1"/>
         <v>96660</v>
       </c>
@@ -86553,7 +86562,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V39)</f>
         <v>4739</v>
       </c>
-      <c r="Y39" s="36">
+      <c r="Y39" s="22">
         <f t="shared" si="1"/>
         <v>46689</v>
       </c>
@@ -86570,7 +86579,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V40)</f>
         <v>3629</v>
       </c>
-      <c r="Y40" s="36">
+      <c r="Y40" s="22">
         <f t="shared" si="1"/>
         <v>67949</v>
       </c>
@@ -86587,7 +86596,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V41)</f>
         <v>205</v>
       </c>
-      <c r="Y41" s="36">
+      <c r="Y41" s="22">
         <f t="shared" si="1"/>
         <v>48071</v>
       </c>
@@ -86604,7 +86613,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V42)</f>
         <v>1375</v>
       </c>
-      <c r="Y42" s="36">
+      <c r="Y42" s="22">
         <f t="shared" si="1"/>
         <v>50990</v>
       </c>
@@ -86621,7 +86630,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V43)</f>
         <v>1099</v>
       </c>
-      <c r="Y43" s="36">
+      <c r="Y43" s="22">
         <f t="shared" si="1"/>
         <v>51582</v>
       </c>
@@ -86638,7 +86647,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V44)</f>
         <v>1130</v>
       </c>
-      <c r="Y44" s="36">
+      <c r="Y44" s="22">
         <f t="shared" si="1"/>
         <v>54930</v>
       </c>
@@ -86655,7 +86664,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V45)</f>
         <v>19698</v>
       </c>
-      <c r="Y45" s="36">
+      <c r="Y45" s="22">
         <f t="shared" si="1"/>
         <v>123086</v>
       </c>
@@ -86672,7 +86681,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V46)</f>
         <v>1066</v>
       </c>
-      <c r="Y46" s="36">
+      <c r="Y46" s="22">
         <f t="shared" si="1"/>
         <v>71747</v>
       </c>
@@ -86689,7 +86698,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V47)</f>
         <v>571</v>
       </c>
-      <c r="Y47" s="36">
+      <c r="Y47" s="22">
         <f t="shared" si="1"/>
         <v>47096</v>
       </c>
@@ -86706,7 +86715,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V48)</f>
         <v>2073</v>
       </c>
-      <c r="Y48" s="36">
+      <c r="Y48" s="22">
         <f t="shared" si="1"/>
         <v>54671</v>
       </c>
@@ -86723,7 +86732,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V49)</f>
         <v>6971</v>
       </c>
-      <c r="Y49" s="36">
+      <c r="Y49" s="22">
         <f t="shared" si="1"/>
         <v>42964</v>
       </c>
@@ -86740,7 +86749,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V50)</f>
         <v>1117</v>
       </c>
-      <c r="Y50" s="36">
+      <c r="Y50" s="22">
         <f t="shared" si="1"/>
         <v>84059</v>
       </c>
@@ -86757,7 +86766,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V51)</f>
         <v>2872</v>
       </c>
-      <c r="Y51" s="36">
+      <c r="Y51" s="22">
         <f t="shared" si="1"/>
         <v>47928</v>
       </c>
@@ -86774,7 +86783,7 @@
         <f>SUMIFS(Main_T[Quantity],Main_T[Year],Analysis!$C$5,Main_T[Products],Analysis!$J$5,Main_T[State],Analysis!V52)</f>
         <v>1440</v>
       </c>
-      <c r="Y52" s="36">
+      <c r="Y52" s="22">
         <f t="shared" si="1"/>
         <v>89063</v>
       </c>
@@ -86805,8 +86814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A63565-7155-450E-837A-41A0F2691347}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -86903,10 +86912,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="23" t="s">
         <v>85</v>
       </c>
     </row>
